--- a/prot/ООО Регионстрой/Трехосные_КД_ПП/1246.xlsx
+++ b/prot/ООО Регионстрой/Трехосные_КД_ПП/1246.xlsx
@@ -8491,14 +8491,8 @@
     </row>
     <row r="47" ht="16.5" customHeight="1">
       <c r="A47" s="144" t="n"/>
-      <c r="B47" s="144" t="inlineStr">
-        <is>
-          <t>K0, д.е.</t>
-        </is>
-      </c>
-      <c r="C47" s="144" t="n">
-        <v>0.8781306565948526</v>
-      </c>
+      <c r="B47" s="144" t="n"/>
+      <c r="C47" s="144" t="n"/>
       <c r="D47" s="144" t="n"/>
       <c r="E47" s="144" t="n"/>
       <c r="F47" s="144" t="n"/>
@@ -8555,14 +8549,8 @@
     </row>
     <row r="48" ht="16.5" customHeight="1">
       <c r="A48" s="144" t="n"/>
-      <c r="B48" s="144" t="inlineStr">
-        <is>
-          <t>q_zg, МПа</t>
-        </is>
-      </c>
-      <c r="C48" s="144" t="n">
-        <v>0.05944804044242098</v>
-      </c>
+      <c r="B48" s="144" t="n"/>
+      <c r="C48" s="144" t="n"/>
       <c r="D48" s="144" t="n"/>
       <c r="E48" s="144" t="n"/>
       <c r="F48" s="144" t="n"/>
@@ -8712,20 +8700,12 @@
         <f>B70/A70</f>
         <v/>
       </c>
-      <c r="F50" s="144" t="inlineStr">
-        <is>
-          <t>Точки модуля (полное напр.), МПа</t>
-        </is>
-      </c>
+      <c r="F50" s="144" t="n"/>
       <c r="G50" s="144" t="n"/>
       <c r="H50" s="144" t="n"/>
       <c r="I50" s="144" t="n"/>
-      <c r="J50" s="144" t="n">
-        <v>0.05944804044242098</v>
-      </c>
-      <c r="K50" s="144" t="n">
-        <v>0.09511686470787357</v>
-      </c>
+      <c r="J50" s="144" t="n"/>
+      <c r="K50" s="144" t="n"/>
       <c r="L50" s="144" t="n"/>
       <c r="N50" s="148">
         <f>J50</f>
@@ -8802,17 +8782,11 @@
         <f>A65/B65</f>
         <v/>
       </c>
-      <c r="F51" s="144" t="inlineStr">
-        <is>
-          <t>qf (полное напр.), МПа</t>
-        </is>
-      </c>
+      <c r="F51" s="144" t="n"/>
       <c r="G51" s="144" t="n"/>
       <c r="H51" s="144" t="n"/>
       <c r="I51" s="144" t="n"/>
-      <c r="J51" s="144" t="n">
-        <v>0.08642453273936264</v>
-      </c>
+      <c r="J51" s="144" t="n"/>
       <c r="K51" s="144" t="n"/>
       <c r="L51" s="144" t="n"/>
       <c r="M51" s="1" t="n"/>
@@ -9258,10 +9232,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.01872613273936262</v>
+        <v>0.01278624989137957</v>
       </c>
       <c r="B65" t="n">
-        <v>0.01485086360302229</v>
+        <v>0.01014020651108018</v>
       </c>
       <c r="C65" s="151">
         <f>MATCH(A65,F65:F1000,1)-A67</f>
@@ -9318,29 +9292,29 @@
         </is>
       </c>
       <c r="F66" s="170" t="n">
-        <v>0.001660491247688183</v>
+        <v>0.00140566320485852</v>
       </c>
       <c r="G66" s="171" t="n">
-        <v>0.0008075670255761116</v>
+        <v>0.0007798413409814343</v>
       </c>
       <c r="H66" s="171" t="n"/>
       <c r="J66" s="170" t="n">
-        <v>0.001321189536755252</v>
+        <v>0.004006386179419369</v>
       </c>
       <c r="K66" s="171" t="n">
-        <v>0.0007915783186259819</v>
+        <v>0.0007730292001477573</v>
       </c>
       <c r="L66" s="172" t="n">
-        <v>0.003796988671601498</v>
+        <v>0.004671198504930418</v>
       </c>
       <c r="M66" s="170" t="n">
-        <v>0.0007887381168184745</v>
+        <v>0.0007758226145626998</v>
       </c>
       <c r="N66" s="171" t="n">
-        <v>0.005359400627842514</v>
+        <v>0.00140566320485852</v>
       </c>
       <c r="O66" s="172" t="n">
-        <v>0.0007320553517680409</v>
+        <v>0.0007798413409814343</v>
       </c>
       <c r="Q66" s="151" t="inlineStr">
         <is>
@@ -9358,29 +9332,29 @@
         <v>2</v>
       </c>
       <c r="F67" s="170" t="n">
-        <v>0.002278061380645388</v>
+        <v>0.003136585992942711</v>
       </c>
       <c r="G67" s="171" t="n">
-        <v>0.001615134051152223</v>
+        <v>0.001559682681962869</v>
       </c>
       <c r="H67" s="171" t="n"/>
       <c r="J67" s="170" t="n">
-        <v>0.003301599999999974</v>
+        <v>0.008012516676516868</v>
       </c>
       <c r="K67" s="171" t="n">
-        <v>0.001832846555555541</v>
+        <v>0.001546058400295515</v>
       </c>
       <c r="L67" s="172" t="n">
-        <v>0.007650165528070157</v>
+        <v>0.01230160000000002</v>
       </c>
       <c r="M67" s="170" t="n">
-        <v>0.001577476233636949</v>
+        <v>0.001877189234701307</v>
       </c>
       <c r="N67" s="171" t="n">
-        <v>0.01040924614134237</v>
+        <v>0.003136585992942711</v>
       </c>
       <c r="O67" s="172" t="n">
-        <v>0.001464110703536082</v>
+        <v>0.001559682681962869</v>
       </c>
       <c r="Q67" s="151" t="inlineStr">
         <is>
@@ -9400,29 +9374,29 @@
         </is>
       </c>
       <c r="F68" s="170" t="n">
-        <v>0.001825610279009723</v>
+        <v>0.00434386506856585</v>
       </c>
       <c r="G68" s="171" t="n">
-        <v>0.002422701076728335</v>
+        <v>0.002339524022944303</v>
       </c>
       <c r="H68" s="171" t="n"/>
       <c r="J68" s="170" t="n">
-        <v>0.004082375331812563</v>
+        <v>0.0115404734186208</v>
       </c>
       <c r="K68" s="171" t="n">
-        <v>0.002374734955877946</v>
+        <v>0.002319087600443272</v>
       </c>
       <c r="L68" s="172" t="n">
-        <v>0.01117374048584849</v>
+        <v>0.01445169156722437</v>
       </c>
       <c r="M68" s="170" t="n">
-        <v>0.002366214350455424</v>
+        <v>0.0023274678436881</v>
       </c>
       <c r="N68" s="171" t="n">
-        <v>0.01590522130155908</v>
+        <v>0.00434386506856585</v>
       </c>
       <c r="O68" s="172" t="n">
-        <v>0.002196166055304123</v>
+        <v>0.002339524022944303</v>
       </c>
       <c r="Q68" s="151" t="inlineStr">
         <is>
@@ -9447,29 +9421,29 @@
         </is>
       </c>
       <c r="F69" s="170" t="n">
-        <v>0.005276037822919299</v>
+        <v>0.006301599999999977</v>
       </c>
       <c r="G69" s="171" t="n">
-        <v>0.003230268102304446</v>
+        <v>0.003498263222222209</v>
       </c>
       <c r="H69" s="171" t="n"/>
       <c r="J69" s="170" t="n">
-        <v>0.005072597900342632</v>
+        <v>0.01430159999999997</v>
       </c>
       <c r="K69" s="171" t="n">
-        <v>0.003166313274503927</v>
+        <v>0.002967645417627454</v>
       </c>
       <c r="L69" s="172" t="n">
-        <v>0.01388192346137912</v>
+        <v>0.01812037164931068</v>
       </c>
       <c r="M69" s="170" t="n">
-        <v>0.003154952467273898</v>
+        <v>0.003103290458250799</v>
       </c>
       <c r="N69" s="171" t="n">
-        <v>0.0197030108695524</v>
+        <v>0.006301599999999977</v>
       </c>
       <c r="O69" s="172" t="n">
-        <v>0.002928221407072164</v>
+        <v>0.003498263222222209</v>
       </c>
       <c r="Q69" s="151" t="inlineStr">
         <is>
@@ -9484,62 +9458,62 @@
     </row>
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="n">
-        <v>0.004950287867674098</v>
+        <v>0.003498263222222209</v>
       </c>
       <c r="B70" t="n">
-        <v>0.008917206066363148</v>
+        <v>0.006301599999999977</v>
       </c>
       <c r="F70" s="170" t="n">
-        <v>0.006602243892512225</v>
+        <v>0.00681821704415099</v>
       </c>
       <c r="G70" s="171" t="n">
-        <v>0.004037835127880558</v>
+        <v>0.003899206704907171</v>
       </c>
       <c r="H70" s="171" t="n"/>
       <c r="J70" s="170" t="n">
-        <v>0.006006576033505989</v>
+        <v>0.01693406867387912</v>
       </c>
       <c r="K70" s="171" t="n">
-        <v>0.003957891593129909</v>
+        <v>0.003865146000738787</v>
       </c>
       <c r="L70" s="172" t="n">
-        <v>0.01730159999999997</v>
+        <v>0.02214774207230591</v>
       </c>
       <c r="M70" s="170" t="n">
-        <v>0.004169216578687416</v>
+        <v>0.003879113072813499</v>
       </c>
       <c r="N70" s="171" t="n">
-        <v>0.02330159999999998</v>
+        <v>0.00681821704415099</v>
       </c>
       <c r="O70" s="172" t="n">
-        <v>0.003555758004756767</v>
+        <v>0.003899206704907171</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" s="170" t="n">
-        <v>0.008917206066363148</v>
+        <v>0.007681048141872093</v>
       </c>
       <c r="G71" s="171" t="n">
-        <v>0.004950287867674098</v>
+        <v>0.004679048045888606</v>
       </c>
       <c r="H71" s="171" t="n"/>
       <c r="J71" s="170" t="n">
-        <v>0.007188213844075045</v>
+        <v>0.01916556762420527</v>
       </c>
       <c r="K71" s="171" t="n">
-        <v>0.004749469911755891</v>
+        <v>0.004638175200886544</v>
       </c>
       <c r="L71" s="172" t="n">
-        <v>0.01829430439896709</v>
+        <v>0.02538793764242137</v>
       </c>
       <c r="M71" s="170" t="n">
-        <v>0.004732428700910847</v>
+        <v>0.004654935687376199</v>
       </c>
       <c r="N71" s="171" t="n">
-        <v>0.02620625417432482</v>
+        <v>0.007681048141872093</v>
       </c>
       <c r="O71" s="172" t="n">
-        <v>0.004392332110608245</v>
+        <v>0.004679048045888606</v>
       </c>
     </row>
     <row r="72">
@@ -9554,29 +9528,29 @@
         </is>
       </c>
       <c r="F72" s="170" t="n">
-        <v>0.009804756540471832</v>
+        <v>0.008486478558334148</v>
       </c>
       <c r="G72" s="171" t="n">
-        <v>0.005652969179032781</v>
+        <v>0.00545888938687004</v>
       </c>
       <c r="H72" s="171" t="n"/>
       <c r="J72" s="170" t="n">
-        <v>0.008121415444822158</v>
+        <v>0.02138286485113794</v>
       </c>
       <c r="K72" s="171" t="n">
-        <v>0.005541048230381873</v>
+        <v>0.005411204401034301</v>
       </c>
       <c r="L72" s="172" t="n">
-        <v>0.02031966706817759</v>
+        <v>0.02929509316586776</v>
       </c>
       <c r="M72" s="170" t="n">
-        <v>0.005521166817729321</v>
+        <v>0.005430758301938899</v>
       </c>
       <c r="N72" s="171" t="n">
-        <v>0.02904595530523152</v>
+        <v>0.008486478558334148</v>
       </c>
       <c r="O72" s="172" t="n">
-        <v>0.005124387462376287</v>
+        <v>0.00545888938687004</v>
       </c>
     </row>
     <row r="73">
@@ -9600,29 +9574,29 @@
         <v/>
       </c>
       <c r="F73" s="170" t="n">
-        <v>0.0107341130861609</v>
+        <v>0.009332208603948788</v>
       </c>
       <c r="G73" s="171" t="n">
-        <v>0.006460536204608893</v>
+        <v>0.006238730727851474</v>
       </c>
       <c r="H73" s="171" t="n"/>
       <c r="J73" s="170" t="n">
-        <v>0.008910084948519678</v>
+        <v>0.02315331088762212</v>
       </c>
       <c r="K73" s="171" t="n">
-        <v>0.006332626549007855</v>
+        <v>0.006184233601182058</v>
       </c>
       <c r="L73" s="172" t="n">
-        <v>0.02163723395707409</v>
+        <v>0.03222334344885647</v>
       </c>
       <c r="M73" s="170" t="n">
-        <v>0.006309904934547796</v>
+        <v>0.006206580916501598</v>
       </c>
       <c r="N73" s="171" t="n">
-        <v>0.03153128091945895</v>
+        <v>0.009332208603948788</v>
       </c>
       <c r="O73" s="172" t="n">
-        <v>0.005856442814144327</v>
+        <v>0.006238730727851474</v>
       </c>
     </row>
     <row r="74">
@@ -9637,29 +9611,29 @@
         </is>
       </c>
       <c r="F74" s="170" t="n">
-        <v>0.009582617463224016</v>
+        <v>0.01011593858912763</v>
       </c>
       <c r="G74" s="171" t="n">
-        <v>0.007268103230185004</v>
+        <v>0.007018572068832908</v>
       </c>
       <c r="H74" s="171" t="n"/>
       <c r="J74" s="170" t="n">
-        <v>0.009858126467940015</v>
+        <v>0.02514425626660291</v>
       </c>
       <c r="K74" s="171" t="n">
-        <v>0.007124204867633837</v>
+        <v>0.006957262801329816</v>
       </c>
       <c r="L74" s="172" t="n">
-        <v>0.02320753498294356</v>
+        <v>0.03502682329759843</v>
       </c>
       <c r="M74" s="170" t="n">
-        <v>0.007098643051366271</v>
+        <v>0.006982403531064299</v>
       </c>
       <c r="N74" s="171" t="n">
-        <v>0.03351084099071455</v>
+        <v>0.01011593858912763</v>
       </c>
       <c r="O74" s="172" t="n">
-        <v>0.006588498165912368</v>
+        <v>0.007018572068832908</v>
       </c>
     </row>
     <row r="75">
@@ -9681,29 +9655,29 @@
         </is>
       </c>
       <c r="F75" s="170" t="n">
-        <v>0.009367118321467888</v>
+        <v>0.01103536882428229</v>
       </c>
       <c r="G75" s="171" t="n">
-        <v>0.008075670255761115</v>
+        <v>0.007798413409814343</v>
       </c>
       <c r="H75" s="171" t="n"/>
       <c r="J75" s="170" t="n">
-        <v>0.01056944411585552</v>
+        <v>0.02666451988342416</v>
       </c>
       <c r="K75" s="171" t="n">
-        <v>0.007915783186259817</v>
+        <v>0.007904294449100601</v>
       </c>
       <c r="L75" s="172" t="n">
-        <v>0.02439110006307282</v>
+        <v>0.03715966751830496</v>
       </c>
       <c r="M75" s="170" t="n">
-        <v>0.007887381168184745</v>
+        <v>0.007758226145626998</v>
       </c>
       <c r="N75" s="171" t="n">
-        <v>0.03623324549270601</v>
+        <v>0.01103536882428229</v>
       </c>
       <c r="O75" s="172" t="n">
-        <v>0.007320553517680409</v>
+        <v>0.007798413409814343</v>
       </c>
     </row>
     <row r="76">
@@ -9723,29 +9697,29 @@
         <v>0</v>
       </c>
       <c r="F76" s="170" t="n">
-        <v>0.01210446431069929</v>
+        <v>0.01148819961982438</v>
       </c>
       <c r="G76" s="171" t="n">
-        <v>0.008883237281337227</v>
+        <v>0.008578254750795778</v>
       </c>
       <c r="H76" s="171" t="n"/>
       <c r="J76" s="170" t="n">
-        <v>0.0114479420050386</v>
+        <v>0.02696102752412768</v>
       </c>
       <c r="K76" s="171" t="n">
-        <v>0.008707361504885802</v>
+        <v>0.00850332120162533</v>
       </c>
       <c r="L76" s="172" t="n">
-        <v>0.02534845911474881</v>
+        <v>0.04054278987546872</v>
       </c>
       <c r="M76" s="170" t="n">
-        <v>0.00867611928500322</v>
+        <v>0.008838163757906855</v>
       </c>
       <c r="N76" s="171" t="n">
-        <v>0.03784710439914091</v>
+        <v>0.01148819961982438</v>
       </c>
       <c r="O76" s="172" t="n">
-        <v>0.00805260886944845</v>
+        <v>0.008578254750795778</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1">
@@ -9760,28 +9734,28 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.01081150408072493</v>
+        <v>0.01207213128616555</v>
       </c>
       <c r="G77" t="n">
-        <v>0.009690804306913339</v>
+        <v>0.009358096091777212</v>
       </c>
       <c r="J77" t="n">
-        <v>0.01219752424826161</v>
+        <v>0.02807605560139548</v>
       </c>
       <c r="K77" t="n">
-        <v>0.009498939823511783</v>
+        <v>0.009276350401773088</v>
       </c>
       <c r="L77" t="n">
-        <v>0.02666451988342416</v>
+        <v>0.04091642943043083</v>
       </c>
       <c r="M77" t="n">
-        <v>0.00917918065056844</v>
+        <v>0.009309871374752398</v>
       </c>
       <c r="N77" t="n">
-        <v>0.04054278987546872</v>
+        <v>0.01207213128616555</v>
       </c>
       <c r="O77" t="n">
-        <v>0.008838163757906855</v>
+        <v>0.009358096091777212</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
@@ -9800,28 +9774,28 @@
         <v/>
       </c>
       <c r="F78" t="n">
-        <v>0.01150508628135151</v>
+        <v>0.01278624989137957</v>
       </c>
       <c r="G78" t="n">
-        <v>0.01049837133248945</v>
+        <v>0.01014020651108018</v>
       </c>
       <c r="J78" t="n">
+        <v>0.02897627383018134</v>
+      </c>
+      <c r="K78" t="n">
+        <v>0.01004937960192085</v>
+      </c>
+      <c r="L78" t="n">
+        <v>0.04249983690335302</v>
+      </c>
+      <c r="M78" t="n">
+        <v>0.0100856939893151</v>
+      </c>
+      <c r="N78" t="n">
         <v>0.01278624989137957</v>
       </c>
-      <c r="K78" t="n">
+      <c r="O78" t="n">
         <v>0.01014020651108018</v>
-      </c>
-      <c r="L78" t="n">
-        <v>0.02829220222123874</v>
-      </c>
-      <c r="M78" t="n">
-        <v>0.01025359551864017</v>
-      </c>
-      <c r="N78" t="n">
-        <v>0.04186503192814256</v>
-      </c>
-      <c r="O78" t="n">
-        <v>0.009516719572984531</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
@@ -9842,28 +9816,28 @@
         <v/>
       </c>
       <c r="F79" t="n">
-        <v>0.01220205956238581</v>
+        <v>0.01305970887045683</v>
       </c>
       <c r="G79" t="n">
-        <v>0.01130593835806556</v>
+        <v>0.01091777877374008</v>
       </c>
       <c r="J79" t="n">
-        <v>0.01355804106654929</v>
+        <v>0.03006131949743412</v>
       </c>
       <c r="K79" t="n">
-        <v>0.01108209646076375</v>
+        <v>0.0108224088020686</v>
       </c>
       <c r="L79" t="n">
-        <v>0.0297972145055915</v>
+        <v>0.04466036592617934</v>
       </c>
       <c r="M79" t="n">
-        <v>0.01104233363545864</v>
+        <v>0.0108615166038778</v>
       </c>
       <c r="N79" t="n">
-        <v>0.0439782548469479</v>
+        <v>0.01305970887045683</v>
       </c>
       <c r="O79" t="n">
-        <v>0.01024877492475257</v>
+        <v>0.01091777877374008</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1">
@@ -9873,28 +9847,28 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.01291927257363452</v>
+        <v>0.01353165093819482</v>
       </c>
       <c r="G80" t="n">
-        <v>0.01211350538364167</v>
+        <v>0.01169762011472152</v>
       </c>
       <c r="J80" t="n">
-        <v>0.0143136137182765</v>
+        <v>0.0309308298901029</v>
       </c>
       <c r="K80" t="n">
-        <v>0.01187367477938973</v>
+        <v>0.01159543800221636</v>
       </c>
       <c r="L80" t="n">
-        <v>0.03084205738368959</v>
+        <v>0.04549737788456304</v>
       </c>
       <c r="M80" t="n">
-        <v>0.01183107175227712</v>
+        <v>0.0116373392184405</v>
       </c>
       <c r="N80" t="n">
-        <v>0.04642847116687748</v>
+        <v>0.01353165093819482</v>
       </c>
       <c r="O80" t="n">
-        <v>0.01098083027652061</v>
+        <v>0.01169762011472152</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
@@ -9910,28 +9884,28 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.01367357396490441</v>
+        <v>0.01410028459919542</v>
       </c>
       <c r="G81" t="n">
-        <v>0.01292107240921779</v>
+        <v>0.01247746145570295</v>
       </c>
       <c r="J81" t="n">
-        <v>0.01518331180811824</v>
+        <v>0.03208444229513666</v>
       </c>
       <c r="K81" t="n">
-        <v>0.01266525309801571</v>
+        <v>0.01236846720236412</v>
       </c>
       <c r="L81" t="n">
-        <v>0.03231445490924076</v>
+        <v>0.04761023416415705</v>
       </c>
       <c r="M81" t="n">
-        <v>0.01261980986909559</v>
+        <v>0.0124131618330032</v>
       </c>
       <c r="N81" t="n">
-        <v>0.0478032682266939</v>
+        <v>0.01410028459919542</v>
       </c>
       <c r="O81" t="n">
-        <v>0.01171288562828865</v>
+        <v>0.01247746145570295</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1">
@@ -9944,28 +9918,28 @@
         <v/>
       </c>
       <c r="F82" t="n">
-        <v>0.01648181238600217</v>
+        <v>0.01466520381514916</v>
       </c>
       <c r="G82" t="n">
-        <v>0.0137286394347939</v>
+        <v>0.01325730279668438</v>
       </c>
       <c r="J82" t="n">
-        <v>0.01586074511239591</v>
+        <v>0.03282179399948432</v>
       </c>
       <c r="K82" t="n">
-        <v>0.01345683141664169</v>
+        <v>0.01314149640251187</v>
       </c>
       <c r="L82" t="n">
-        <v>0.03400213113595271</v>
+        <v>0.04919829615061483</v>
       </c>
       <c r="M82" t="n">
-        <v>0.01340854798591407</v>
+        <v>0.0131889844475659</v>
       </c>
       <c r="N82" t="n">
-        <v>0.05009023336515955</v>
+        <v>0.01466520381514916</v>
       </c>
       <c r="O82" t="n">
-        <v>0.0124449409800567</v>
+        <v>0.01325730279668438</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1">
@@ -9975,28 +9949,28 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.01872613273936262</v>
+        <v>0.01492600254774662</v>
       </c>
       <c r="G83" t="n">
-        <v>0.01485086360302229</v>
+        <v>0.01403714413766582</v>
       </c>
       <c r="J83" t="n">
-        <v>0.0166395234074309</v>
+        <v>0.03394252229009487</v>
       </c>
       <c r="K83" t="n">
-        <v>0.01424840973526767</v>
+        <v>0.01391452560265963</v>
       </c>
       <c r="L83" t="n">
-        <v>0.03539281011753329</v>
+        <v>0.05056092522958933</v>
       </c>
       <c r="M83" t="n">
-        <v>0.01419728610273254</v>
+        <v>0.0139648070621286</v>
       </c>
       <c r="N83" t="n">
-        <v>0.05247695392103691</v>
+        <v>0.01492600254774662</v>
       </c>
       <c r="O83" t="n">
-        <v>0.01317699633182474</v>
+        <v>0.01403714413766582</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1">
@@ -10011,28 +9985,28 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.01935148221935795</v>
+        <v>0.01558227475867836</v>
       </c>
       <c r="G84" t="n">
-        <v>0.01534377348594612</v>
+        <v>0.01481698547864725</v>
       </c>
       <c r="J84" t="n">
-        <v>0.0173132564695446</v>
+        <v>0.03504626445391737</v>
       </c>
       <c r="K84" t="n">
-        <v>0.01503998805389366</v>
+        <v>0.01468755480280739</v>
       </c>
       <c r="L84" t="n">
-        <v>0.03697421590769018</v>
+        <v>0.05179748278673374</v>
       </c>
       <c r="M84" t="n">
-        <v>0.01498602421955102</v>
+        <v>0.0147406296766913</v>
       </c>
       <c r="N84" t="n">
-        <v>0.05415101723308835</v>
+        <v>0.01558227475867836</v>
       </c>
       <c r="O84" t="n">
-        <v>0.01390905168359278</v>
+        <v>0.01481698547864725</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
@@ -10051,28 +10025,28 @@
         <v/>
       </c>
       <c r="F85" t="n">
-        <v>0.01754028896686299</v>
+        <v>0.01593361440963495</v>
       </c>
       <c r="G85" t="n">
-        <v>0.01615134051152223</v>
+        <v>0.01559682681962869</v>
       </c>
       <c r="J85" t="n">
-        <v>0.0181755540750584</v>
+        <v>0.03583265777790065</v>
       </c>
       <c r="K85" t="n">
-        <v>0.01583156637251963</v>
+        <v>0.01546058400295515</v>
       </c>
       <c r="L85" t="n">
-        <v>0.0387340725601312</v>
+        <v>0.05280733020770123</v>
       </c>
       <c r="M85" t="n">
-        <v>0.01577476233636949</v>
+        <v>0.015516452291254</v>
       </c>
       <c r="N85" t="n">
-        <v>0.05680001064007656</v>
+        <v>0.01593361440963495</v>
       </c>
       <c r="O85" t="n">
-        <v>0.01464110703536082</v>
+        <v>0.01559682681962869</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1">
@@ -10093,28 +10067,28 @@
         <v/>
       </c>
       <c r="F86" t="n">
-        <v>0.01989677493229809</v>
+        <v>0.01647961546230697</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01695890753709834</v>
+        <v>0.01637666816061012</v>
       </c>
       <c r="J86" t="n">
-        <v>0.01902002600029373</v>
+        <v>0.03650133954899379</v>
       </c>
       <c r="K86" t="n">
-        <v>0.01662314469114562</v>
+        <v>0.0162336132031029</v>
       </c>
       <c r="L86" t="n">
-        <v>0.03966010412856399</v>
+        <v>0.05488982887814503</v>
       </c>
       <c r="M86" t="n">
-        <v>0.01656350045318796</v>
+        <v>0.01629227490581669</v>
       </c>
       <c r="N86" t="n">
-        <v>0.05841152148076384</v>
+        <v>0.01647961546230697</v>
       </c>
       <c r="O86" t="n">
-        <v>0.01537316238712886</v>
+        <v>0.01637666816061012</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1">
@@ -10124,28 +10098,28 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.02037920077705913</v>
+        <v>0.01671987187838497</v>
       </c>
       <c r="G87" t="n">
-        <v>0.01776647456267445</v>
+        <v>0.01715650950159156</v>
       </c>
       <c r="J87" t="n">
-        <v>0.01974028202157195</v>
+        <v>0.03725194705414578</v>
       </c>
       <c r="K87" t="n">
-        <v>0.0174147230097716</v>
+        <v>0.01700664240325066</v>
       </c>
       <c r="L87" t="n">
-        <v>0.04124003466669643</v>
+        <v>0.05574434018371827</v>
       </c>
       <c r="M87" t="n">
-        <v>0.01735223857000644</v>
+        <v>0.0170680975203794</v>
       </c>
       <c r="N87" t="n">
-        <v>0.06017313709391281</v>
+        <v>0.01671987187838497</v>
       </c>
       <c r="O87" t="n">
-        <v>0.0161052177388969</v>
+        <v>0.01715650950159156</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1">
@@ -10159,28 +10133,28 @@
       <c r="C88" s="139" t="n"/>
       <c r="D88" s="139" t="n"/>
       <c r="F88" t="n">
-        <v>0.02194582716254194</v>
+        <v>0.0172539776195595</v>
       </c>
       <c r="G88" t="n">
-        <v>0.01857404158825057</v>
+        <v>0.01793635084257299</v>
       </c>
       <c r="J88" t="n">
-        <v>0.02022993191521442</v>
+        <v>0.03828411758030553</v>
       </c>
       <c r="K88" t="n">
-        <v>0.01820630132839758</v>
+        <v>0.01777967160339842</v>
       </c>
       <c r="L88" t="n">
-        <v>0.04266158822823612</v>
+        <v>0.05717022551007395</v>
       </c>
       <c r="M88" t="n">
-        <v>0.01814097668682492</v>
+        <v>0.0178439201349421</v>
       </c>
       <c r="N88" t="n">
-        <v>0.0618724448182858</v>
+        <v>0.0172539776195595</v>
       </c>
       <c r="O88" t="n">
-        <v>0.01683727309066494</v>
+        <v>0.01793635084257299</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1">
@@ -10193,4578 +10167,4578 @@
         <v/>
       </c>
       <c r="F89" t="n">
-        <v>0.02455491475014236</v>
+        <v>0.01778152664752118</v>
       </c>
       <c r="G89" t="n">
-        <v>0.01938160861382668</v>
+        <v>0.01871619218355442</v>
       </c>
       <c r="J89" t="n">
-        <v>0.02088258545754257</v>
+        <v>0.03919748841442208</v>
       </c>
       <c r="K89" t="n">
-        <v>0.01899787964702357</v>
+        <v>0.01855270080354618</v>
       </c>
       <c r="L89" t="n">
-        <v>0.04361248886689098</v>
+        <v>0.05856684624286534</v>
       </c>
       <c r="M89" t="n">
-        <v>0.01892971480364339</v>
+        <v>0.0186197427495048</v>
       </c>
       <c r="N89" t="n">
-        <v>0.06449703199264545</v>
+        <v>0.01778152664752118</v>
       </c>
       <c r="O89" t="n">
-        <v>0.01756932844243298</v>
+        <v>0.01871619218355442</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="F90" t="n">
-        <v>0.02816472420125625</v>
+        <v>0.01810211292396051</v>
       </c>
       <c r="G90" t="n">
-        <v>0.02018917563940279</v>
+        <v>0.01949603352453586</v>
       </c>
       <c r="J90" t="n">
-        <v>0.02169185242487781</v>
+        <v>0.0396916968434444</v>
       </c>
       <c r="K90" t="n">
-        <v>0.01978945796564955</v>
+        <v>0.01932573000369393</v>
       </c>
       <c r="L90" t="n">
-        <v>0.04488046063636866</v>
+        <v>0.06003356376774571</v>
       </c>
       <c r="M90" t="n">
-        <v>0.01971845292046186</v>
+        <v>0.01939556536406749</v>
       </c>
       <c r="N90" t="n">
-        <v>0.06623448595575404</v>
+        <v>0.01810211292396051</v>
       </c>
       <c r="O90" t="n">
-        <v>0.01830138379420102</v>
+        <v>0.01949603352453586</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="F91" t="n">
-        <v>0.02973351617727941</v>
+        <v>0.01861533041056808</v>
       </c>
       <c r="G91" t="n">
-        <v>0.0209967426649789</v>
+        <v>0.02027587486551729</v>
       </c>
       <c r="J91" t="n">
-        <v>0.0221513425935415</v>
+        <v>0.04096638015432141</v>
       </c>
       <c r="K91" t="n">
-        <v>0.02058103628427553</v>
+        <v>0.02009875920384169</v>
       </c>
       <c r="L91" t="n">
-        <v>0.04615322759037696</v>
+        <v>0.0609697394703681</v>
       </c>
       <c r="M91" t="n">
-        <v>0.02050719103728034</v>
+        <v>0.02017138797863019</v>
       </c>
       <c r="N91" t="n">
-        <v>0.06737239404637418</v>
+        <v>0.01861533041056808</v>
       </c>
       <c r="O91" t="n">
-        <v>0.01903343914596906</v>
+        <v>0.02027587486551729</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="F92" t="n">
-        <v>0.03021955133960776</v>
+        <v>0.01902077306903449</v>
       </c>
       <c r="G92" t="n">
-        <v>0.02180430969055501</v>
+        <v>0.02105571620649873</v>
       </c>
       <c r="J92" t="n">
-        <v>0.02265466573985501</v>
+        <v>0.04142117563400216</v>
       </c>
       <c r="K92" t="n">
-        <v>0.02137261460290151</v>
+        <v>0.02087178840398944</v>
       </c>
       <c r="L92" t="n">
-        <v>0.04691851378262357</v>
+        <v>0.06217473473638563</v>
       </c>
       <c r="M92" t="n">
-        <v>0.02129592915409881</v>
+        <v>0.02094721059319289</v>
       </c>
       <c r="N92" t="n">
-        <v>0.06909834360326822</v>
+        <v>0.01902077306903449</v>
       </c>
       <c r="O92" t="n">
-        <v>0.0197654944977371</v>
+        <v>0.02105571620649873</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="F93" t="n">
-        <v>0.03058109034963706</v>
+        <v>0.01941803486105026</v>
       </c>
       <c r="G93" t="n">
-        <v>0.02261187671613112</v>
+        <v>0.02183555754748016</v>
       </c>
       <c r="J93" t="n">
-        <v>0.0229954316401398</v>
+        <v>0.04225572056943555</v>
       </c>
       <c r="K93" t="n">
-        <v>0.02216419292152749</v>
+        <v>0.0216448176041372</v>
       </c>
       <c r="L93" t="n">
-        <v>0.04806404326681632</v>
+        <v>0.06344791095145158</v>
       </c>
       <c r="M93" t="n">
-        <v>0.02208466727091728</v>
+        <v>0.0217230332077556</v>
       </c>
       <c r="N93" t="n">
-        <v>0.07069992196519881</v>
+        <v>0.01941803486105026</v>
       </c>
       <c r="O93" t="n">
-        <v>0.02049754984950515</v>
+        <v>0.02183555754748016</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="F94" t="n">
-        <v>0.03177639386876324</v>
+        <v>0.01970670974830598</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02341944374170724</v>
+        <v>0.02261539888846159</v>
       </c>
       <c r="J94" t="n">
-        <v>0.02356725007071722</v>
+        <v>0.04276965224757068</v>
       </c>
       <c r="K94" t="n">
-        <v>0.02295577124015348</v>
+        <v>0.02241784680428496</v>
       </c>
       <c r="L94" t="n">
-        <v>0.04857754009666293</v>
+        <v>0.06458862950121896</v>
       </c>
       <c r="M94" t="n">
-        <v>0.02287340538773576</v>
+        <v>0.02249885582231829</v>
       </c>
       <c r="N94" t="n">
-        <v>0.07196471647092834</v>
+        <v>0.01970670974830598</v>
       </c>
       <c r="O94" t="n">
-        <v>0.02122960520127318</v>
+        <v>0.02261539888846159</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="F95" t="n">
-        <v>0.03276372255838207</v>
+        <v>0.01998639169249219</v>
       </c>
       <c r="G95" t="n">
-        <v>0.02422701076728335</v>
+        <v>0.02339524022944303</v>
       </c>
       <c r="J95" t="n">
-        <v>0.02366373080790865</v>
+        <v>0.04386260795535643</v>
       </c>
       <c r="K95" t="n">
-        <v>0.02374734955877946</v>
+        <v>0.02319087600443272</v>
       </c>
       <c r="L95" t="n">
-        <v>0.04924672832587115</v>
+        <v>0.06539625177134112</v>
       </c>
       <c r="M95" t="n">
-        <v>0.02366214350455424</v>
+        <v>0.023274678436881</v>
       </c>
       <c r="N95" t="n">
-        <v>0.0730803144592192</v>
+        <v>0.01998639169249219</v>
       </c>
       <c r="O95" t="n">
-        <v>0.02196166055304123</v>
+        <v>0.02339524022944303</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="F96" t="n">
-        <v>0.03450133707988946</v>
+        <v>0.02055667465529949</v>
       </c>
       <c r="G96" t="n">
-        <v>0.02503457779285946</v>
+        <v>0.02417508157042446</v>
       </c>
       <c r="J96" t="n">
-        <v>0.02397848362803552</v>
+        <v>0.04403422497974177</v>
       </c>
       <c r="K96" t="n">
-        <v>0.02453892787740544</v>
+        <v>0.02396390520458048</v>
       </c>
       <c r="L96" t="n">
-        <v>0.04985933200814871</v>
+        <v>0.06707013914747095</v>
       </c>
       <c r="M96" t="n">
-        <v>0.02445088162137271</v>
+        <v>0.02405050105144369</v>
       </c>
       <c r="N96" t="n">
-        <v>0.07373430326883396</v>
+        <v>0.02055667465529949</v>
       </c>
       <c r="O96" t="n">
-        <v>0.02269371590480927</v>
+        <v>0.02417508157042446</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="F97" t="n">
-        <v>0.03394749809468123</v>
+        <v>0.02081715259841843</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02584214481843557</v>
+        <v>0.0249549229114059</v>
       </c>
       <c r="J97" t="n">
-        <v>0.02400511830741919</v>
+        <v>0.04488414060767573</v>
       </c>
       <c r="K97" t="n">
-        <v>0.02533050619603142</v>
+        <v>0.02473693440472823</v>
       </c>
       <c r="L97" t="n">
-        <v>0.05000307519720337</v>
+        <v>0.06790965301526186</v>
       </c>
       <c r="M97" t="n">
-        <v>0.02523961973819118</v>
+        <v>0.02482632366600639</v>
       </c>
       <c r="N97" t="n">
-        <v>0.07491427023853509</v>
+        <v>0.02081715259841843</v>
       </c>
       <c r="O97" t="n">
-        <v>0.02342577125657731</v>
+        <v>0.0249549229114059</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.03406507983926364</v>
+        <v>0.02106741948353956</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02664971184401168</v>
+        <v>0.02573476425238733</v>
       </c>
       <c r="J98" t="n">
-        <v>0.02423746556737416</v>
+        <v>0.04581199212610726</v>
       </c>
       <c r="K98" t="n">
-        <v>0.0261220845146574</v>
+        <v>0.02550996360487599</v>
       </c>
       <c r="L98" t="n">
-        <v>0.05016576562671363</v>
+        <v>0.06851415476036682</v>
       </c>
       <c r="M98" t="n">
-        <v>0.02602835785500966</v>
+        <v>0.02560214628056909</v>
       </c>
       <c r="N98" t="n">
-        <v>0.07540780270708508</v>
+        <v>0.02106741948353956</v>
       </c>
       <c r="O98" t="n">
-        <v>0.02415782660834535</v>
+        <v>0.02573476425238733</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.0360051079810494</v>
+        <v>0.02150706927235346</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02745727886958779</v>
+        <v>0.02651460559336876</v>
       </c>
       <c r="J99" t="n">
-        <v>0.02418224540743519</v>
+        <v>0.04591741682198536</v>
       </c>
       <c r="K99" t="n">
-        <v>0.02691366283328338</v>
+        <v>0.02628299280502375</v>
       </c>
       <c r="L99" t="n">
-        <v>0.05004601510867651</v>
+        <v>0.06998300576843908</v>
       </c>
       <c r="M99" t="n">
-        <v>0.02681709597182813</v>
+        <v>0.02637796889513179</v>
       </c>
       <c r="N99" t="n">
-        <v>0.07560248801324626</v>
+        <v>0.02150706927235346</v>
       </c>
       <c r="O99" t="n">
-        <v>0.02488988196011339</v>
+        <v>0.02651460559336876</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.03586479542684651</v>
+        <v>0.0217356959265507</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02826484589516391</v>
+        <v>0.0272944469343502</v>
       </c>
       <c r="J100" t="n">
-        <v>0.02385177946817005</v>
+        <v>0.04650005198225901</v>
       </c>
       <c r="K100" t="n">
-        <v>0.02770524115190937</v>
+        <v>0.02705602200517151</v>
       </c>
       <c r="L100" t="n">
-        <v>0.04976106966433919</v>
+        <v>0.07031556742513179</v>
       </c>
       <c r="M100" t="n">
-        <v>0.02760583408864661</v>
+        <v>0.02715379150969449</v>
       </c>
       <c r="N100" t="n">
-        <v>0.07568591349578124</v>
+        <v>0.0217356959265507</v>
       </c>
       <c r="O100" t="n">
-        <v>0.02562193731188143</v>
+        <v>0.0272944469343502</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.03465388235411967</v>
+        <v>0.02225289340782186</v>
       </c>
       <c r="G101" t="n">
-        <v>0.02907241292074001</v>
+        <v>0.02807428827533163</v>
       </c>
       <c r="J101" t="n">
-        <v>0.02365502096232934</v>
+        <v>0.04735953489387715</v>
       </c>
       <c r="K101" t="n">
-        <v>0.02849681947053535</v>
+        <v>0.02782905120531927</v>
       </c>
       <c r="L101" t="n">
-        <v>0.04892967216966146</v>
+        <v>0.07161120111609809</v>
       </c>
       <c r="M101" t="n">
-        <v>0.02839457220546508</v>
+        <v>0.0279296141242572</v>
       </c>
       <c r="N101" t="n">
-        <v>0.07533043244393389</v>
+        <v>0.02225289340782186</v>
       </c>
       <c r="O101" t="n">
-        <v>0.02635399266364947</v>
+        <v>0.02807428827533163</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.03538210894033351</v>
+        <v>0.02245825567785746</v>
       </c>
       <c r="G102" t="n">
-        <v>0.02987997994631613</v>
+        <v>0.02885412961631307</v>
       </c>
       <c r="J102" t="n">
-        <v>0.02340092310266377</v>
+        <v>0.04799550284378881</v>
       </c>
       <c r="K102" t="n">
-        <v>0.02928839778916133</v>
+        <v>0.02860208040546702</v>
       </c>
       <c r="L102" t="n">
-        <v>0.04827056550060324</v>
+        <v>0.07236926822699113</v>
       </c>
       <c r="M102" t="n">
-        <v>0.02918331032228355</v>
+        <v>0.02870543673881989</v>
       </c>
       <c r="N102" t="n">
-        <v>0.07569557056687626</v>
+        <v>0.02245825567785746</v>
       </c>
       <c r="O102" t="n">
-        <v>0.02708604801541751</v>
+        <v>0.02885412961631307</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.03405921536295273</v>
+        <v>0.02285137669834811</v>
       </c>
       <c r="G103" t="n">
-        <v>0.03068754697189224</v>
+        <v>0.0296339709572945</v>
       </c>
       <c r="J103" t="n">
-        <v>0.02319843910192396</v>
+        <v>0.04820759311894285</v>
       </c>
       <c r="K103" t="n">
-        <v>0.03007997610778732</v>
+        <v>0.02937510960561478</v>
       </c>
       <c r="L103" t="n">
-        <v>0.04810249253312426</v>
+        <v>0.07308913014346419</v>
       </c>
       <c r="M103" t="n">
-        <v>0.02997204843910203</v>
+        <v>0.02948125935338259</v>
       </c>
       <c r="N103" t="n">
-        <v>0.07470798658875166</v>
+        <v>0.02285137669834811</v>
       </c>
       <c r="O103" t="n">
-        <v>0.02781810336718555</v>
+        <v>0.0296339709572945</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.03169494179944199</v>
+        <v>0.02303185043098434</v>
       </c>
       <c r="G104" t="n">
-        <v>0.03149511399746835</v>
+        <v>0.03041381229827593</v>
       </c>
       <c r="J104" t="n">
-        <v>0.02285652217286055</v>
+        <v>0.04859544300628846</v>
       </c>
       <c r="K104" t="n">
-        <v>0.03087155442641329</v>
+        <v>0.03014813880576253</v>
       </c>
       <c r="L104" t="n">
-        <v>0.04734419614318441</v>
+        <v>0.07437014825117017</v>
       </c>
       <c r="M104" t="n">
-        <v>0.03076078655592051</v>
+        <v>0.03025708196794529</v>
       </c>
       <c r="N104" t="n">
-        <v>0.0735986854856715</v>
+        <v>0.02303185043098434</v>
       </c>
       <c r="O104" t="n">
-        <v>0.02855015871895359</v>
+        <v>0.03041381229827593</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.03229902842726595</v>
+        <v>0.02339927083745674</v>
       </c>
       <c r="G105" t="n">
-        <v>0.03230268102304446</v>
+        <v>0.03119365363925737</v>
       </c>
       <c r="J105" t="n">
-        <v>0.02248412552822418</v>
+        <v>0.04915868979277443</v>
       </c>
       <c r="K105" t="n">
-        <v>0.03166313274503927</v>
+        <v>0.0309211680059103</v>
       </c>
       <c r="L105" t="n">
-        <v>0.04651441920674354</v>
+        <v>0.07451168393576252</v>
       </c>
       <c r="M105" t="n">
-        <v>0.03154952467273898</v>
+        <v>0.03103290458250799</v>
       </c>
       <c r="N105" t="n">
-        <v>0.07319867223374676</v>
+        <v>0.02339927083745674</v>
       </c>
       <c r="O105" t="n">
-        <v>0.02928221407072163</v>
+        <v>0.03119365363925737</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.03388121542388928</v>
+        <v>0.02365323187945588</v>
       </c>
       <c r="G106" t="n">
-        <v>0.03311024804862057</v>
+        <v>0.0319734949802388</v>
       </c>
       <c r="J106" t="n">
-        <v>0.02209020238076552</v>
+        <v>0.04949697076534981</v>
       </c>
       <c r="K106" t="n">
-        <v>0.03245471106366526</v>
+        <v>0.03169419720605805</v>
       </c>
       <c r="L106" t="n">
-        <v>0.04563190459976144</v>
+        <v>0.07511309858289417</v>
       </c>
       <c r="M106" t="n">
-        <v>0.03233826278955745</v>
+        <v>0.0318087271970707</v>
       </c>
       <c r="N106" t="n">
-        <v>0.07163895180908875</v>
+        <v>0.02365323187945588</v>
       </c>
       <c r="O106" t="n">
-        <v>0.03001426942248968</v>
+        <v>0.0319734949802388</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.03345124296677666</v>
+        <v>0.02389332751867229</v>
       </c>
       <c r="G107" t="n">
-        <v>0.03391781507419669</v>
+        <v>0.03275333632122024</v>
       </c>
       <c r="J107" t="n">
-        <v>0.02158370594323521</v>
+        <v>0.05040992321096358</v>
       </c>
       <c r="K107" t="n">
-        <v>0.03324628938229124</v>
+        <v>0.03246722640620581</v>
       </c>
       <c r="L107" t="n">
-        <v>0.04421539519819798</v>
+        <v>0.07567375357821837</v>
       </c>
       <c r="M107" t="n">
-        <v>0.03312700090637593</v>
+        <v>0.03258454981163339</v>
       </c>
       <c r="N107" t="n">
-        <v>0.07055052918780869</v>
+        <v>0.02389332751867229</v>
       </c>
       <c r="O107" t="n">
-        <v>0.03074632477425772</v>
+        <v>0.03275333632122024</v>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.03101885123339274</v>
+        <v>0.02411915171679659</v>
       </c>
       <c r="G108" t="n">
-        <v>0.0347253820997728</v>
+        <v>0.03353317766220167</v>
       </c>
       <c r="J108" t="n">
-        <v>0.02137358942838391</v>
+        <v>0.05069718441656473</v>
       </c>
       <c r="K108" t="n">
-        <v>0.03403786770091722</v>
+        <v>0.03324025560635356</v>
       </c>
       <c r="L108" t="n">
-        <v>0.04358363387801295</v>
+        <v>0.07629301030738822</v>
       </c>
       <c r="M108" t="n">
-        <v>0.0339157390231944</v>
+        <v>0.03336037242619609</v>
       </c>
       <c r="N108" t="n">
-        <v>0.06936440934601773</v>
+        <v>0.02411915171679659</v>
       </c>
       <c r="O108" t="n">
-        <v>0.03147838012602575</v>
+        <v>0.03353317766220167</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.02959378040120221</v>
+        <v>0.0242302984355193</v>
       </c>
       <c r="G109" t="n">
-        <v>0.03553294912534891</v>
+        <v>0.03431301900318311</v>
       </c>
       <c r="J109" t="n">
-        <v>0.02096880604896224</v>
+        <v>0.05085839166910217</v>
       </c>
       <c r="K109" t="n">
-        <v>0.03482944601954321</v>
+        <v>0.03401328480650132</v>
       </c>
       <c r="L109" t="n">
-        <v>0.04265536351516624</v>
+        <v>0.07757023015605702</v>
       </c>
       <c r="M109" t="n">
-        <v>0.03470447714001288</v>
+        <v>0.03413619504075879</v>
       </c>
       <c r="N109" t="n">
-        <v>0.06741159725982709</v>
+        <v>0.0242302984355193</v>
       </c>
       <c r="O109" t="n">
-        <v>0.0322104354777938</v>
+        <v>0.03431301900318311</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.03018577064766974</v>
+        <v>0.02442636163653099</v>
       </c>
       <c r="G110" t="n">
-        <v>0.03634051615092502</v>
+        <v>0.03509286034416454</v>
       </c>
       <c r="J110" t="n">
-        <v>0.02047830901772087</v>
+        <v>0.05099318225552499</v>
       </c>
       <c r="K110" t="n">
-        <v>0.03562102433816918</v>
+        <v>0.03478631400664908</v>
       </c>
       <c r="L110" t="n">
-        <v>0.04154932698561767</v>
+        <v>0.07820477450987778</v>
       </c>
       <c r="M110" t="n">
-        <v>0.03549321525683135</v>
+        <v>0.0349120176553215</v>
       </c>
       <c r="N110" t="n">
-        <v>0.06652309790534794</v>
+        <v>0.02442636163653099</v>
       </c>
       <c r="O110" t="n">
-        <v>0.03294249082956184</v>
+        <v>0.03509286034416454</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.02880456215025996</v>
+        <v>0.02450693528152226</v>
       </c>
       <c r="G111" t="n">
-        <v>0.03714808317650113</v>
+        <v>0.03587270168514598</v>
       </c>
       <c r="J111" t="n">
-        <v>0.02021105154741043</v>
+        <v>0.05180119346278206</v>
       </c>
       <c r="K111" t="n">
-        <v>0.03641260265679517</v>
+        <v>0.03555934320679684</v>
       </c>
       <c r="L111" t="n">
-        <v>0.040684267165327</v>
+        <v>0.0783960047545037</v>
       </c>
       <c r="M111" t="n">
-        <v>0.03628195337364983</v>
+        <v>0.0356878402698842</v>
       </c>
       <c r="N111" t="n">
-        <v>0.06502991625869159</v>
+        <v>0.02450693528152226</v>
       </c>
       <c r="O111" t="n">
-        <v>0.03367454618132988</v>
+        <v>0.03587270168514598</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.03145989508643758</v>
+        <v>0.02477161333218365</v>
       </c>
       <c r="G112" t="n">
-        <v>0.03795565020207724</v>
+        <v>0.03665254302612741</v>
       </c>
       <c r="J112" t="n">
-        <v>0.01977598685078159</v>
+        <v>0.05208206257782241</v>
       </c>
       <c r="K112" t="n">
-        <v>0.03720418097542115</v>
+        <v>0.03633237240694459</v>
       </c>
       <c r="L112" t="n">
-        <v>0.0399789269302542</v>
+        <v>0.078443282275588</v>
       </c>
       <c r="M112" t="n">
-        <v>0.0370706914904683</v>
+        <v>0.03646366288444689</v>
       </c>
       <c r="N112" t="n">
-        <v>0.06326305729596921</v>
+        <v>0.02477161333218365</v>
       </c>
       <c r="O112" t="n">
-        <v>0.03440660153309791</v>
+        <v>0.03665254302612741</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.02916150963366726</v>
+        <v>0.02501998975020572</v>
       </c>
       <c r="G113" t="n">
-        <v>0.03876321722765336</v>
+        <v>0.03743238436710885</v>
       </c>
       <c r="J113" t="n">
-        <v>0.019582068140585</v>
+        <v>0.05233542688759504</v>
       </c>
       <c r="K113" t="n">
-        <v>0.03799575929404713</v>
+        <v>0.03710540160709235</v>
       </c>
       <c r="L113" t="n">
-        <v>0.03925204915635902</v>
+        <v>0.07924596845878373</v>
       </c>
       <c r="M113" t="n">
-        <v>0.03785942960728678</v>
+        <v>0.03723948549900959</v>
       </c>
       <c r="N113" t="n">
-        <v>0.06145352599329201</v>
+        <v>0.02501998975020572</v>
       </c>
       <c r="O113" t="n">
-        <v>0.03513865688486596</v>
+        <v>0.03743238436710885</v>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.03091914596941364</v>
+        <v>0.02505165849727906</v>
       </c>
       <c r="G114" t="n">
-        <v>0.03957078425322947</v>
+        <v>0.03821222570809028</v>
       </c>
       <c r="J114" t="n">
-        <v>0.01913824862957127</v>
+        <v>0.05216092367904887</v>
       </c>
       <c r="K114" t="n">
-        <v>0.03878733761267311</v>
+        <v>0.03787843080724011</v>
       </c>
       <c r="L114" t="n">
-        <v>0.03882237671960129</v>
+        <v>0.07970342468974412</v>
       </c>
       <c r="M114" t="n">
-        <v>0.03864816772410525</v>
+        <v>0.03801530811357229</v>
       </c>
       <c r="N114" t="n">
-        <v>0.06083232732677102</v>
+        <v>0.02505165849727906</v>
       </c>
       <c r="O114" t="n">
-        <v>0.035870712236634</v>
+        <v>0.03821222570809028</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="F115" t="n">
-        <v>0.03074254427114143</v>
+        <v>0.02506621353509418</v>
       </c>
       <c r="G115" t="n">
-        <v>0.04037835127880558</v>
+        <v>0.03899206704907171</v>
       </c>
       <c r="J115" t="n">
-        <v>0.01905348153049108</v>
+        <v>0.05245819023913292</v>
       </c>
       <c r="K115" t="n">
-        <v>0.03957891593129909</v>
+        <v>0.03865146000738786</v>
       </c>
       <c r="L115" t="n">
-        <v>0.03820865249594083</v>
+        <v>0.07941501235412224</v>
       </c>
       <c r="M115" t="n">
-        <v>0.03943690584092372</v>
+        <v>0.03879113072813499</v>
       </c>
       <c r="N115" t="n">
-        <v>0.0588304662725177</v>
+        <v>0.02506621353509418</v>
       </c>
       <c r="O115" t="n">
-        <v>0.03660276758840204</v>
+        <v>0.03899206704907171</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.02764144471631526</v>
+        <v>0.02536324882534172</v>
       </c>
       <c r="G116" t="n">
-        <v>0.0411859183043817</v>
+        <v>0.03977190839005315</v>
       </c>
       <c r="J116" t="n">
-        <v>0.01883672005609507</v>
+        <v>0.05242686385479617</v>
       </c>
       <c r="K116" t="n">
-        <v>0.04037049424992507</v>
+        <v>0.03942448920753563</v>
       </c>
       <c r="L116" t="n">
-        <v>0.0380296193613375</v>
+        <v>0.07998009283757135</v>
       </c>
       <c r="M116" t="n">
-        <v>0.0402256439577422</v>
+        <v>0.03956695334269769</v>
       </c>
       <c r="N116" t="n">
-        <v>0.05797894780664314</v>
+        <v>0.02536324882534172</v>
       </c>
       <c r="O116" t="n">
-        <v>0.03733482294017008</v>
+        <v>0.03977190839005315</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.03062410040453831</v>
+        <v>0.0253423583297122</v>
       </c>
       <c r="G117" t="n">
-        <v>0.0419934853299578</v>
+        <v>0.04055174973103458</v>
       </c>
       <c r="J117" t="n">
-        <v>0.01879691270792708</v>
+        <v>0.05286658181298756</v>
       </c>
       <c r="K117" t="n">
-        <v>0.04116207256855106</v>
+        <v>0.04019751840768338</v>
       </c>
       <c r="L117" t="n">
-        <v>0.03750402019175117</v>
+        <v>0.08019802752574468</v>
       </c>
       <c r="M117" t="n">
-        <v>0.04101438207456067</v>
+        <v>0.04034277595726039</v>
       </c>
       <c r="N117" t="n">
-        <v>0.05690877690525853</v>
+        <v>0.0253423583297122</v>
       </c>
       <c r="O117" t="n">
-        <v>0.03806687829193812</v>
+        <v>0.04055174973103458</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="F118" t="n">
-        <v>0.02767523438987127</v>
+        <v>0.02540313600989619</v>
       </c>
       <c r="G118" t="n">
-        <v>0.04280105235553391</v>
+        <v>0.04133159107201602</v>
       </c>
       <c r="J118" t="n">
-        <v>0.01892758506152163</v>
+        <v>0.0526769814006561</v>
       </c>
       <c r="K118" t="n">
-        <v>0.04195365088717704</v>
+        <v>0.04097054760783114</v>
       </c>
       <c r="L118" t="n">
-        <v>0.03764892251219251</v>
+        <v>0.08016817780429514</v>
       </c>
       <c r="M118" t="n">
-        <v>0.04180312019137915</v>
+        <v>0.04111859857182309</v>
       </c>
       <c r="N118" t="n">
-        <v>0.05645095854447513</v>
+        <v>0.02540313600989619</v>
       </c>
       <c r="O118" t="n">
-        <v>0.03879893364370617</v>
+        <v>0.04133159107201602</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
-        <v>0.02778422824493618</v>
+        <v>0.02554517582758428</v>
       </c>
       <c r="G119" t="n">
-        <v>0.04360861938111003</v>
+        <v>0.04211143241299745</v>
       </c>
       <c r="J119" t="n">
-        <v>0.01891408243439315</v>
+        <v>0.05325769990475077</v>
       </c>
       <c r="K119" t="n">
-        <v>0.04274522920580302</v>
+        <v>0.04174357680797889</v>
       </c>
       <c r="L119" t="n">
-        <v>0.03742434579568218</v>
+        <v>0.08068990505887602</v>
       </c>
       <c r="M119" t="n">
-        <v>0.04259185830819762</v>
+        <v>0.04189442118638579</v>
       </c>
       <c r="N119" t="n">
-        <v>0.05653649770040414</v>
+        <v>0.02554517582758428</v>
       </c>
       <c r="O119" t="n">
-        <v>0.03953098899547421</v>
+        <v>0.04211143241299745</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="F120" t="n">
-        <v>0.03094596081375676</v>
+        <v>0.02557249978275913</v>
       </c>
       <c r="G120" t="n">
-        <v>0.04441618640668614</v>
+        <v>0.04289127375397889</v>
       </c>
       <c r="J120" t="n">
-        <v>0.01915164585329006</v>
+        <v>0.0533290397668483</v>
       </c>
       <c r="K120" t="n">
-        <v>0.043536807524429</v>
+        <v>0.04251660600812665</v>
       </c>
       <c r="L120" t="n">
-        <v>0.03790090997662668</v>
+        <v>0.08108557975093744</v>
       </c>
       <c r="M120" t="n">
-        <v>0.0433805964250161</v>
+        <v>0.04267024380094849</v>
       </c>
       <c r="N120" t="n">
-        <v>0.05609634940704533</v>
+        <v>0.02557249978275913</v>
       </c>
       <c r="O120" t="n">
-        <v>0.04026304434724225</v>
+        <v>0.04289127375397889</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="F121" t="n">
-        <v>0.02915531094035674</v>
+        <v>0.02557202424698031</v>
       </c>
       <c r="G121" t="n">
-        <v>0.04522375343226225</v>
+        <v>0.04367111509496032</v>
       </c>
       <c r="J121" t="n">
-        <v>0.01933551634496082</v>
+        <v>0.05292864281001439</v>
       </c>
       <c r="K121" t="n">
-        <v>0.04432838584305498</v>
+        <v>0.0432896352082744</v>
       </c>
       <c r="L121" t="n">
-        <v>0.03787142854039541</v>
+        <v>0.08098553574852468</v>
       </c>
       <c r="M121" t="n">
-        <v>0.04416933454183457</v>
+        <v>0.04344606641551119</v>
       </c>
       <c r="N121" t="n">
-        <v>0.05646626446993513</v>
+        <v>0.02557202424698031</v>
       </c>
       <c r="O121" t="n">
-        <v>0.04099509969901029</v>
+        <v>0.04367111509496032</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.02940715746875987</v>
+        <v>0.02556485283951072</v>
       </c>
       <c r="G122" t="n">
-        <v>0.04603132045783837</v>
+        <v>0.04445095643594175</v>
       </c>
       <c r="J122" t="n">
-        <v>0.01956093493615395</v>
+        <v>0.05282525596995202</v>
       </c>
       <c r="K122" t="n">
-        <v>0.04511996416168097</v>
+        <v>0.04406266440842217</v>
       </c>
       <c r="L122" t="n">
-        <v>0.03842871497235786</v>
+        <v>0.08035851491971246</v>
       </c>
       <c r="M122" t="n">
-        <v>0.04495807265865304</v>
+        <v>0.04422188903007389</v>
       </c>
       <c r="N122" t="n">
-        <v>0.05626406239561232</v>
+        <v>0.02556485283951072</v>
       </c>
       <c r="O122" t="n">
-        <v>0.04172715505077833</v>
+        <v>0.04445095643594175</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.02869637924298984</v>
+        <v>0.02554926349761115</v>
       </c>
       <c r="G123" t="n">
-        <v>0.04683888748341447</v>
+        <v>0.04523079777692319</v>
       </c>
       <c r="J123" t="n">
-        <v>0.01982314265361786</v>
+        <v>0.05331098443511265</v>
       </c>
       <c r="K123" t="n">
-        <v>0.04591154248030695</v>
+        <v>0.04483569360856993</v>
       </c>
       <c r="L123" t="n">
-        <v>0.03866558275788348</v>
+        <v>0.08048321528534158</v>
       </c>
       <c r="M123" t="n">
-        <v>0.04574681077547152</v>
+        <v>0.04499771164463659</v>
       </c>
       <c r="N123" t="n">
-        <v>0.05688174403423069</v>
+        <v>0.02554926349761115</v>
       </c>
       <c r="O123" t="n">
-        <v>0.04245921040254637</v>
+        <v>0.04523079777692319</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="F124" t="n">
-        <v>0.03101785510707042</v>
+        <v>0.02552551269343771</v>
       </c>
       <c r="G124" t="n">
-        <v>0.04764645450899058</v>
+        <v>0.04601063911790462</v>
       </c>
       <c r="J124" t="n">
-        <v>0.02001738052410101</v>
+        <v>0.05288628538800519</v>
       </c>
       <c r="K124" t="n">
-        <v>0.04670312079893293</v>
+        <v>0.04560872280871768</v>
       </c>
       <c r="L124" t="n">
-        <v>0.03957484538234171</v>
+        <v>0.08026194900761086</v>
       </c>
       <c r="M124" t="n">
-        <v>0.04653554889228999</v>
+        <v>0.04577353425919929</v>
       </c>
       <c r="N124" t="n">
-        <v>0.05751131023594375</v>
+        <v>0.02552551269343771</v>
       </c>
       <c r="O124" t="n">
-        <v>0.04319126575431441</v>
+        <v>0.04601063911790462</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.03136646390502529</v>
+        <v>0.02539385689914658</v>
       </c>
       <c r="G125" t="n">
-        <v>0.0484540215345667</v>
+        <v>0.04679048045888606</v>
       </c>
       <c r="J125" t="n">
-        <v>0.0203388895743519</v>
+        <v>0.05325135827585728</v>
       </c>
       <c r="K125" t="n">
-        <v>0.04749469911755892</v>
+        <v>0.04638175200886543</v>
       </c>
       <c r="L125" t="n">
-        <v>0.03994931633110202</v>
+        <v>0.08069702824871888</v>
       </c>
       <c r="M125" t="n">
-        <v>0.04732428700910847</v>
+        <v>0.04654935687376199</v>
       </c>
       <c r="N125" t="n">
-        <v>0.05764476185090528</v>
+        <v>0.02539385689914658</v>
       </c>
       <c r="O125" t="n">
-        <v>0.04392332110608246</v>
+        <v>0.04679048045888606</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.03073708448087821</v>
+        <v>0.02545455258689387</v>
       </c>
       <c r="G126" t="n">
-        <v>0.04926158856014281</v>
+        <v>0.04757032179986749</v>
       </c>
       <c r="J126" t="n">
-        <v>0.02088291083111898</v>
+        <v>0.05290640254589668</v>
       </c>
       <c r="K126" t="n">
-        <v>0.0482862774361849</v>
+        <v>0.0471547812090132</v>
       </c>
       <c r="L126" t="n">
-        <v>0.04038180908953382</v>
+        <v>0.08029076517086464</v>
       </c>
       <c r="M126" t="n">
-        <v>0.04811302512592695</v>
+        <v>0.04732517948832469</v>
       </c>
       <c r="N126" t="n">
-        <v>0.05847409972926909</v>
+        <v>0.02545455258689387</v>
       </c>
       <c r="O126" t="n">
-        <v>0.0446553764578505</v>
+        <v>0.04757032179986749</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="F127" t="n">
-        <v>0.0321245956786529</v>
+        <v>0.02530785622883576</v>
       </c>
       <c r="G127" t="n">
-        <v>0.05006915558571891</v>
+        <v>0.04835016314084892</v>
       </c>
       <c r="J127" t="n">
-        <v>0.02124468532115072</v>
+        <v>0.05265161764535101</v>
       </c>
       <c r="K127" t="n">
-        <v>0.04907785575481088</v>
+        <v>0.04792781040916096</v>
       </c>
       <c r="L127" t="n">
-        <v>0.0411651371430066</v>
+        <v>0.07974547193624654</v>
       </c>
       <c r="M127" t="n">
-        <v>0.04890176324274541</v>
+        <v>0.04810100210288739</v>
       </c>
       <c r="N127" t="n">
-        <v>0.05869132472118871</v>
+        <v>0.02530785622883576</v>
       </c>
       <c r="O127" t="n">
-        <v>0.04538743180961853</v>
+        <v>0.04835016314084892</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="F128" t="n">
-        <v>0.03052387634237311</v>
+        <v>0.02535402429712837</v>
       </c>
       <c r="G128" t="n">
-        <v>0.05087672261129503</v>
+        <v>0.04913000448183036</v>
       </c>
       <c r="J128" t="n">
-        <v>0.02141945407119555</v>
+        <v>0.05278720302144807</v>
       </c>
       <c r="K128" t="n">
-        <v>0.04986943407343686</v>
+        <v>0.04870083960930871</v>
       </c>
       <c r="L128" t="n">
-        <v>0.04169211397688979</v>
+        <v>0.07926346070706364</v>
       </c>
       <c r="M128" t="n">
-        <v>0.0496905013595639</v>
+        <v>0.04887682471745008</v>
       </c>
       <c r="N128" t="n">
-        <v>0.05948843767681794</v>
+        <v>0.02535402429712837</v>
       </c>
       <c r="O128" t="n">
-        <v>0.04611948716138657</v>
+        <v>0.04913000448183036</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.03392980531606254</v>
+        <v>0.02519331326392783</v>
       </c>
       <c r="G129" t="n">
-        <v>0.05168428963687114</v>
+        <v>0.04990984582281179</v>
       </c>
       <c r="J129" t="n">
-        <v>0.02190245810800197</v>
+        <v>0.05261335812141552</v>
       </c>
       <c r="K129" t="n">
-        <v>0.05066101239206284</v>
+        <v>0.04947386880945646</v>
       </c>
       <c r="L129" t="n">
-        <v>0.04265555307655286</v>
+        <v>0.07944704364551453</v>
       </c>
       <c r="M129" t="n">
-        <v>0.05047923947638237</v>
+        <v>0.04965264733201279</v>
       </c>
       <c r="N129" t="n">
-        <v>0.06095743944631038</v>
+        <v>0.02519331326392783</v>
       </c>
       <c r="O129" t="n">
-        <v>0.04685154251315462</v>
+        <v>0.04990984582281179</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="F130" t="n">
-        <v>0.03133726144374493</v>
+        <v>0.02502597960139032</v>
       </c>
       <c r="G130" t="n">
-        <v>0.05249185666244725</v>
+        <v>0.05068968716379323</v>
       </c>
       <c r="J130" t="n">
-        <v>0.02238893845831844</v>
+        <v>0.05283028239248108</v>
       </c>
       <c r="K130" t="n">
-        <v>0.05145259071068882</v>
+        <v>0.05024689800960423</v>
       </c>
       <c r="L130" t="n">
-        <v>0.04364826792736526</v>
+        <v>0.07889853291379795</v>
       </c>
       <c r="M130" t="n">
-        <v>0.05126797759320084</v>
+        <v>0.05042846994657549</v>
       </c>
       <c r="N130" t="n">
-        <v>0.06179033087981978</v>
+        <v>0.02502597960139032</v>
       </c>
       <c r="O130" t="n">
-        <v>0.04758359786492266</v>
+        <v>0.05068968716379323</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="F131" t="n">
-        <v>0.03174112356944402</v>
+        <v>0.02515227978167196</v>
       </c>
       <c r="G131" t="n">
-        <v>0.05329942368802337</v>
+        <v>0.05146952850477466</v>
       </c>
       <c r="J131" t="n">
-        <v>0.02257413614889341</v>
+        <v>0.05243817528187245</v>
       </c>
       <c r="K131" t="n">
-        <v>0.05224416902931481</v>
+        <v>0.05101992720975198</v>
       </c>
       <c r="L131" t="n">
-        <v>0.04446307201469643</v>
+        <v>0.07822024067411276</v>
       </c>
       <c r="M131" t="n">
-        <v>0.05205671571001932</v>
+        <v>0.05120429256113819</v>
       </c>
       <c r="N131" t="n">
-        <v>0.06287911282749975</v>
+        <v>0.02515227978167196</v>
       </c>
       <c r="O131" t="n">
-        <v>0.0483156532166907</v>
+        <v>0.05146952850477466</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.0341362705371835</v>
+        <v>0.02507247027692888</v>
       </c>
       <c r="G132" t="n">
-        <v>0.05410699071359947</v>
+        <v>0.0522493698457561</v>
       </c>
       <c r="J132" t="n">
-        <v>0.02295329220647532</v>
+        <v>0.0523372362368173</v>
       </c>
       <c r="K132" t="n">
-        <v>0.05303574734794079</v>
+        <v>0.05179295640989974</v>
       </c>
       <c r="L132" t="n">
-        <v>0.04519277882391579</v>
+        <v>0.07771447908865747</v>
       </c>
       <c r="M132" t="n">
-        <v>0.05284545382683779</v>
+        <v>0.05198011517570088</v>
       </c>
       <c r="N132" t="n">
-        <v>0.06401578613950409</v>
+        <v>0.02507247027692888</v>
       </c>
       <c r="O132" t="n">
-        <v>0.04904770856845873</v>
+        <v>0.0522493698457561</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.03451758119098713</v>
+        <v>0.02498680755931726</v>
       </c>
       <c r="G133" t="n">
-        <v>0.05491455773917558</v>
+        <v>0.05302921118673753</v>
       </c>
       <c r="J133" t="n">
-        <v>0.0234216476578127</v>
+        <v>0.05232766470454339</v>
       </c>
       <c r="K133" t="n">
-        <v>0.05382732566656676</v>
+        <v>0.05256598561004749</v>
       </c>
       <c r="L133" t="n">
-        <v>0.04573020184039284</v>
+        <v>0.07748356031963105</v>
       </c>
       <c r="M133" t="n">
-        <v>0.05363419194365626</v>
+        <v>0.05275593779026359</v>
       </c>
       <c r="N133" t="n">
-        <v>0.06499235166598655</v>
+        <v>0.02498680755931726</v>
       </c>
       <c r="O133" t="n">
-        <v>0.04977976392022678</v>
+        <v>0.05302921118673753</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.03287993437487866</v>
+        <v>0.0248955481009932</v>
       </c>
       <c r="G134" t="n">
-        <v>0.0557221247647517</v>
+        <v>0.05380905252771897</v>
       </c>
       <c r="J134" t="n">
-        <v>0.02367444352965394</v>
+        <v>0.05240966013227841</v>
       </c>
       <c r="K134" t="n">
-        <v>0.05461890398519274</v>
+        <v>0.05333901481019525</v>
       </c>
       <c r="L134" t="n">
-        <v>0.04706815454949706</v>
+        <v>0.07692979652923221</v>
       </c>
       <c r="M134" t="n">
-        <v>0.05442293006047474</v>
+        <v>0.05353176040482628</v>
       </c>
       <c r="N134" t="n">
-        <v>0.06590081025710065</v>
+        <v>0.0248955481009932</v>
       </c>
       <c r="O134" t="n">
-        <v>0.05051181927199482</v>
+        <v>0.05380905252771897</v>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.03521820893288177</v>
+        <v>0.02459894837411289</v>
       </c>
       <c r="G135" t="n">
-        <v>0.05652969179032781</v>
+        <v>0.0545888938687004</v>
       </c>
       <c r="J135" t="n">
-        <v>0.02400692084874756</v>
+        <v>0.05188342196725002</v>
       </c>
       <c r="K135" t="n">
-        <v>0.05541048230381874</v>
+        <v>0.05411204401034302</v>
       </c>
       <c r="L135" t="n">
-        <v>0.04779945043659786</v>
+        <v>0.07645549987965955</v>
       </c>
       <c r="M135" t="n">
-        <v>0.05521166817729322</v>
+        <v>0.05430758301938899</v>
       </c>
       <c r="N135" t="n">
-        <v>0.06733316276300017</v>
+        <v>0.02459894837411289</v>
       </c>
       <c r="O135" t="n">
-        <v>0.05124387462376286</v>
+        <v>0.0545888938687004</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.03552728370902021</v>
+        <v>0.02449726485083242</v>
       </c>
       <c r="G136" t="n">
-        <v>0.05733725881590392</v>
+        <v>0.05536873520968184</v>
       </c>
       <c r="J136" t="n">
-        <v>0.024314320641842</v>
+        <v>0.05174914965668598</v>
       </c>
       <c r="K136" t="n">
-        <v>0.05620206062244472</v>
+        <v>0.05488507321049077</v>
       </c>
       <c r="L136" t="n">
-        <v>0.04821690298706466</v>
+        <v>0.07666298253311193</v>
       </c>
       <c r="M136" t="n">
-        <v>0.05600040629411169</v>
+        <v>0.05508340563395168</v>
       </c>
       <c r="N136" t="n">
-        <v>0.06838141003383874</v>
+        <v>0.02449726485083242</v>
       </c>
       <c r="O136" t="n">
-        <v>0.0519759299755309</v>
+        <v>0.05536873520968184</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.03580203754731771</v>
+        <v>0.02439075400330799</v>
       </c>
       <c r="G137" t="n">
-        <v>0.05814482584148003</v>
+        <v>0.05614857655066326</v>
       </c>
       <c r="J137" t="n">
-        <v>0.02469188393568571</v>
+        <v>0.05210704264781396</v>
       </c>
       <c r="K137" t="n">
-        <v>0.0569936389410707</v>
+        <v>0.05565810241063853</v>
       </c>
       <c r="L137" t="n">
-        <v>0.04911332568626695</v>
+        <v>0.07615455665178811</v>
       </c>
       <c r="M137" t="n">
-        <v>0.05678914441093016</v>
+        <v>0.05585922824851439</v>
       </c>
       <c r="N137" t="n">
-        <v>0.06923755291977013</v>
+        <v>0.02439075400330799</v>
       </c>
       <c r="O137" t="n">
-        <v>0.05270798532729894</v>
+        <v>0.05614857655066326</v>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.03703734929179801</v>
+        <v>0.0244796723036957</v>
       </c>
       <c r="G138" t="n">
-        <v>0.05895239286705615</v>
+        <v>0.0569284178916447</v>
       </c>
       <c r="J138" t="n">
-        <v>0.02493485175702718</v>
+        <v>0.0514573003878617</v>
       </c>
       <c r="K138" t="n">
-        <v>0.05778521725969667</v>
+        <v>0.05643113161078629</v>
       </c>
       <c r="L138" t="n">
-        <v>0.05008153201957419</v>
+        <v>0.07483253439788679</v>
       </c>
       <c r="M138" t="n">
-        <v>0.05757788252774863</v>
+        <v>0.05663505086307709</v>
       </c>
       <c r="N138" t="n">
-        <v>0.07039359227094805</v>
+        <v>0.0244796723036957</v>
       </c>
       <c r="O138" t="n">
-        <v>0.05344004067906698</v>
+        <v>0.0569284178916447</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.03422809778648481</v>
+        <v>0.02436427622415173</v>
       </c>
       <c r="G139" t="n">
-        <v>0.05975995989263225</v>
+        <v>0.05770825923262614</v>
       </c>
       <c r="J139" t="n">
-        <v>0.02523846513261487</v>
+        <v>0.05140012232405686</v>
       </c>
       <c r="K139" t="n">
-        <v>0.05857679557832265</v>
+        <v>0.05720416081093404</v>
       </c>
       <c r="L139" t="n">
-        <v>0.05101433547235582</v>
+        <v>0.07479922793360672</v>
       </c>
       <c r="M139" t="n">
-        <v>0.05836662064456711</v>
+        <v>0.05741087347763978</v>
       </c>
       <c r="N139" t="n">
-        <v>0.07174152893752611</v>
+        <v>0.02436427622415173</v>
       </c>
       <c r="O139" t="n">
-        <v>0.05417209603083502</v>
+        <v>0.05770825923262614</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.03736916187540186</v>
+        <v>0.02424482223683218</v>
       </c>
       <c r="G140" t="n">
-        <v>0.06056752691820837</v>
+        <v>0.05848810057360757</v>
       </c>
       <c r="J140" t="n">
-        <v>0.02519796508919721</v>
+        <v>0.05113570790362718</v>
       </c>
       <c r="K140" t="n">
-        <v>0.05936837389694864</v>
+        <v>0.05797719001108179</v>
       </c>
       <c r="L140" t="n">
-        <v>0.0517045495299813</v>
+        <v>0.07385694942114668</v>
       </c>
       <c r="M140" t="n">
-        <v>0.05915535876138558</v>
+        <v>0.05818669609220248</v>
       </c>
       <c r="N140" t="n">
-        <v>0.07237336376965803</v>
+        <v>0.02424482223683218</v>
       </c>
       <c r="O140" t="n">
-        <v>0.05490415138260307</v>
+        <v>0.05848810057360757</v>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.03745226547872524</v>
+        <v>0.0241215668138932</v>
       </c>
       <c r="G141" t="n">
-        <v>0.06137509394378447</v>
+        <v>0.05926794191458901</v>
       </c>
       <c r="J141" t="n">
-        <v>0.02530859265352271</v>
+        <v>0.05146425657380033</v>
       </c>
       <c r="K141" t="n">
-        <v>0.06015995221557463</v>
+        <v>0.05875021921122955</v>
       </c>
       <c r="L141" t="n">
-        <v>0.05204498767782004</v>
+        <v>0.07380801102270529</v>
       </c>
       <c r="M141" t="n">
-        <v>0.05994409687820407</v>
+        <v>0.05896251870676519</v>
       </c>
       <c r="N141" t="n">
-        <v>0.07378109761749752</v>
+        <v>0.0241215668138932</v>
       </c>
       <c r="O141" t="n">
-        <v>0.05563620673437111</v>
+        <v>0.05926794191458901</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.03551505118106625</v>
+        <v>0.02379476642749097</v>
       </c>
       <c r="G142" t="n">
-        <v>0.06218266096936059</v>
+        <v>0.06004778325557045</v>
       </c>
       <c r="J142" t="n">
-        <v>0.02557249978275913</v>
+        <v>0.05078596778180408</v>
       </c>
       <c r="K142" t="n">
-        <v>0.0609515305342006</v>
+        <v>0.05952324841137731</v>
       </c>
       <c r="L142" t="n">
-        <v>0.05242846340124152</v>
+        <v>0.07265472490048136</v>
       </c>
       <c r="M142" t="n">
-        <v>0.06073283499502254</v>
+        <v>0.05973834132132789</v>
       </c>
       <c r="N142" t="n">
-        <v>0.07515673133119832</v>
+        <v>0.02379476642749097</v>
       </c>
       <c r="O142" t="n">
-        <v>0.05636826208613915</v>
+        <v>0.06004778325557045</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.03457311293552152</v>
+        <v>0.02386467754978161</v>
       </c>
       <c r="G143" t="n">
-        <v>0.0629902279949367</v>
+        <v>0.06082762459655187</v>
       </c>
       <c r="J143" t="n">
-        <v>0.02547173974824696</v>
+        <v>0.05080104097486607</v>
       </c>
       <c r="K143" t="n">
-        <v>0.06174310885282659</v>
+        <v>0.06029627761152506</v>
       </c>
       <c r="L143" t="n">
-        <v>0.0533290397668483</v>
+        <v>0.07269940321667379</v>
       </c>
       <c r="M143" t="n">
-        <v>0.06152157311184101</v>
+        <v>0.06051416393589058</v>
       </c>
       <c r="N143" t="n">
-        <v>0.07629226576091402</v>
+        <v>0.02386467754978161</v>
       </c>
       <c r="O143" t="n">
-        <v>0.05710031743790719</v>
+        <v>0.06082762459655187</v>
       </c>
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.03762966434248427</v>
+        <v>0.02363155665292126</v>
       </c>
       <c r="G144" t="n">
-        <v>0.06379779502051282</v>
+        <v>0.06160746593753331</v>
       </c>
       <c r="J144" t="n">
-        <v>0.02556608536328613</v>
+        <v>0.05070967560021403</v>
       </c>
       <c r="K144" t="n">
-        <v>0.06253468717145257</v>
+        <v>0.06106930681167282</v>
       </c>
       <c r="L144" t="n">
-        <v>0.05356629312909211</v>
+        <v>0.07164435813348108</v>
       </c>
       <c r="M144" t="n">
-        <v>0.06231031122865948</v>
+        <v>0.06128998655045328</v>
       </c>
       <c r="N144" t="n">
-        <v>0.0769797017567983</v>
+        <v>0.02363155665292126</v>
       </c>
       <c r="O144" t="n">
-        <v>0.05783237278967522</v>
+        <v>0.06160746593753331</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.03768468005319582</v>
+        <v>0.02359566020906607</v>
       </c>
       <c r="G145" t="n">
-        <v>0.06460536204608892</v>
+        <v>0.06238730727851474</v>
       </c>
       <c r="J145" t="n">
-        <v>0.02535509888026756</v>
+        <v>0.05021207110507564</v>
       </c>
       <c r="K145" t="n">
-        <v>0.06332626549007854</v>
+        <v>0.06184233601182059</v>
       </c>
       <c r="L145" t="n">
-        <v>0.05419854488999898</v>
+        <v>0.07169190181310209</v>
       </c>
       <c r="M145" t="n">
-        <v>0.06309904934547796</v>
+        <v>0.06206580916501599</v>
       </c>
       <c r="N145" t="n">
-        <v>0.07791104016900496</v>
+        <v>0.02359566020906607</v>
       </c>
       <c r="O145" t="n">
-        <v>0.05856442814144327</v>
+        <v>0.06238730727851474</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.03473813471889757</v>
+        <v>0.02345724469037218</v>
       </c>
       <c r="G146" t="n">
-        <v>0.06541292907166504</v>
+        <v>0.06316714861949618</v>
       </c>
       <c r="J146" t="n">
-        <v>0.02553900020225758</v>
+        <v>0.05010842693667866</v>
       </c>
       <c r="K146" t="n">
-        <v>0.06411784380870454</v>
+        <v>0.06261536521196835</v>
       </c>
       <c r="L146" t="n">
-        <v>0.05464393035501328</v>
+        <v>0.07114434641773559</v>
       </c>
       <c r="M146" t="n">
-        <v>0.06388778746229644</v>
+        <v>0.06284163177957869</v>
       </c>
       <c r="N146" t="n">
-        <v>0.07897828184768763</v>
+        <v>0.02345724469037218</v>
       </c>
       <c r="O146" t="n">
-        <v>0.05929648349321131</v>
+        <v>0.06316714861949618</v>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.03679000299083088</v>
+        <v>0.02321656656899573</v>
       </c>
       <c r="G147" t="n">
-        <v>0.06622049609724115</v>
+        <v>0.06394698996047761</v>
       </c>
       <c r="J147" t="n">
-        <v>0.02551800923232249</v>
+        <v>0.05009894254225075</v>
       </c>
       <c r="K147" t="n">
-        <v>0.06490942212733052</v>
+        <v>0.06338839441211611</v>
       </c>
       <c r="L147" t="n">
-        <v>0.05519921889367294</v>
+        <v>0.07010400410958023</v>
       </c>
       <c r="M147" t="n">
-        <v>0.06467652557911491</v>
+        <v>0.06361745439414139</v>
       </c>
       <c r="N147" t="n">
-        <v>0.07947342764300008</v>
+        <v>0.02321656656899573</v>
       </c>
       <c r="O147" t="n">
-        <v>0.06002853884497936</v>
+        <v>0.06394698996047761</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.03684025952023706</v>
+        <v>0.02317388231709287</v>
       </c>
       <c r="G148" t="n">
-        <v>0.06702806312281726</v>
+        <v>0.06472683130145904</v>
       </c>
       <c r="J148" t="n">
-        <v>0.02549234587352868</v>
+        <v>0.04968381736901964</v>
       </c>
       <c r="K148" t="n">
-        <v>0.0657010004459565</v>
+        <v>0.06416142361226386</v>
       </c>
       <c r="L148" t="n">
-        <v>0.05576117987551582</v>
+        <v>0.07017318705083486</v>
       </c>
       <c r="M148" t="n">
-        <v>0.06546526369593338</v>
+        <v>0.06439327700870408</v>
       </c>
       <c r="N148" t="n">
-        <v>0.07998847840509588</v>
+        <v>0.02317388231709287</v>
       </c>
       <c r="O148" t="n">
-        <v>0.06076059419674739</v>
+        <v>0.06472683130145904</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.0348888789583575</v>
+        <v>0.02292944840681974</v>
       </c>
       <c r="G149" t="n">
-        <v>0.06783563014839337</v>
+        <v>0.06550667264244048</v>
       </c>
       <c r="J149" t="n">
-        <v>0.02536223002894246</v>
+        <v>0.049663250864213</v>
       </c>
       <c r="K149" t="n">
-        <v>0.06649257876458248</v>
+        <v>0.06493445281241161</v>
       </c>
       <c r="L149" t="n">
-        <v>0.05662658267007983</v>
+        <v>0.06925420740369814</v>
       </c>
       <c r="M149" t="n">
-        <v>0.06625400181275186</v>
+        <v>0.06516909962326678</v>
       </c>
       <c r="N149" t="n">
-        <v>0.08108557975093744</v>
+        <v>0.02292944840681974</v>
       </c>
       <c r="O149" t="n">
-        <v>0.06149264954851543</v>
+        <v>0.06550667264244048</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.03493583595643357</v>
+        <v>0.02278352131033248</v>
       </c>
       <c r="G150" t="n">
-        <v>0.06864319717396949</v>
+        <v>0.06628651398342192</v>
       </c>
       <c r="J150" t="n">
-        <v>0.02542788160163016</v>
+        <v>0.04933744247505858</v>
       </c>
       <c r="K150" t="n">
-        <v>0.06728415708320845</v>
+        <v>0.06570748201255937</v>
       </c>
       <c r="L150" t="n">
-        <v>0.05729219664690277</v>
+        <v>0.06884937733036883</v>
       </c>
       <c r="M150" t="n">
-        <v>0.06704273992957033</v>
+        <v>0.06594492223782948</v>
       </c>
       <c r="N150" t="n">
-        <v>0.08182691705385103</v>
+        <v>0.02278352131033248</v>
       </c>
       <c r="O150" t="n">
-        <v>0.06222470490028348</v>
+        <v>0.06628651398342192</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.03798110516570659</v>
+        <v>0.02273635749978722</v>
       </c>
       <c r="G151" t="n">
-        <v>0.0694507641995456</v>
+        <v>0.06706635532440335</v>
       </c>
       <c r="J151" t="n">
-        <v>0.02528952049465812</v>
+        <v>0.04920659164878408</v>
       </c>
       <c r="K151" t="n">
-        <v>0.06807573540183444</v>
+        <v>0.06648051121270712</v>
       </c>
       <c r="L151" t="n">
-        <v>0.05735479117552261</v>
+        <v>0.06836100899304576</v>
       </c>
       <c r="M151" t="n">
-        <v>0.0678314780463888</v>
+        <v>0.06672074485239218</v>
       </c>
       <c r="N151" t="n">
-        <v>0.08164499967502092</v>
+        <v>0.02273635749978722</v>
       </c>
       <c r="O151" t="n">
-        <v>0.06295676025205151</v>
+        <v>0.06706635532440335</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.03602466123741792</v>
+        <v>0.02238821344734014</v>
       </c>
       <c r="G152" t="n">
-        <v>0.07025833122512171</v>
+        <v>0.06784619666538479</v>
       </c>
       <c r="J152" t="n">
-        <v>0.02524736661109268</v>
+        <v>0.04917089783261713</v>
       </c>
       <c r="K152" t="n">
-        <v>0.06886731372046043</v>
+        <v>0.06725354041285488</v>
       </c>
       <c r="L152" t="n">
-        <v>0.05791113562547717</v>
+        <v>0.0673914145539275</v>
       </c>
       <c r="M152" t="n">
-        <v>0.06862021616320728</v>
+        <v>0.06749656746695488</v>
       </c>
       <c r="N152" t="n">
-        <v>0.08307027947007672</v>
+        <v>0.02238821344734014</v>
       </c>
       <c r="O152" t="n">
-        <v>0.06368881560381956</v>
+        <v>0.06784619666538479</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.03806647882280896</v>
+        <v>0.02243934562514736</v>
       </c>
       <c r="G153" t="n">
-        <v>0.07106589825069781</v>
+        <v>0.06862603800636623</v>
       </c>
       <c r="J153" t="n">
-        <v>0.02530163985400019</v>
+        <v>0.04883056047378556</v>
       </c>
       <c r="K153" t="n">
-        <v>0.06965889203908641</v>
+        <v>0.06802656961300264</v>
       </c>
       <c r="L153" t="n">
-        <v>0.05875799936630438</v>
+        <v>0.06714290617521301</v>
       </c>
       <c r="M153" t="n">
-        <v>0.06940895428002576</v>
+        <v>0.06827239008151759</v>
       </c>
       <c r="N153" t="n">
-        <v>0.08290078357665637</v>
+        <v>0.02243934562514736</v>
       </c>
       <c r="O153" t="n">
-        <v>0.0644208709555876</v>
+        <v>0.06862603800636623</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.03610653257312102</v>
+        <v>0.02229001050536503</v>
       </c>
       <c r="G154" t="n">
-        <v>0.07187346527627393</v>
+        <v>0.06940587934734765</v>
       </c>
       <c r="J154" t="n">
-        <v>0.02515256012644697</v>
+        <v>0.04868577901951696</v>
       </c>
       <c r="K154" t="n">
-        <v>0.07045047035771239</v>
+        <v>0.0687995988131504</v>
       </c>
       <c r="L154" t="n">
-        <v>0.05909215176754209</v>
+        <v>0.06721779601910088</v>
       </c>
       <c r="M154" t="n">
-        <v>0.07019769239684423</v>
+        <v>0.06904821269608027</v>
       </c>
       <c r="N154" t="n">
-        <v>0.08433453913239769</v>
+        <v>0.02229001050536503</v>
       </c>
       <c r="O154" t="n">
-        <v>0.06515292630735563</v>
+        <v>0.06940587934734765</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.03514479713959548</v>
+        <v>0.02204046456014927</v>
       </c>
       <c r="G155" t="n">
-        <v>0.07268103230185004</v>
+        <v>0.07018572068832908</v>
       </c>
       <c r="J155" t="n">
-        <v>0.02510034733149936</v>
+        <v>0.04843675291703908</v>
       </c>
       <c r="K155" t="n">
-        <v>0.07124204867633836</v>
+        <v>0.06957262801329815</v>
       </c>
       <c r="L155" t="n">
-        <v>0.06001036219872818</v>
+        <v>0.06611259253426732</v>
       </c>
       <c r="M155" t="n">
-        <v>0.0709864305136627</v>
+        <v>0.06982403531064299</v>
       </c>
       <c r="N155" t="n">
-        <v>0.08446957327493881</v>
+        <v>0.02204046456014927</v>
       </c>
       <c r="O155" t="n">
-        <v>0.06588498165912368</v>
+        <v>0.07018572068832908</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.03618124717347368</v>
+        <v>0.02199096426165627</v>
       </c>
       <c r="G156" t="n">
-        <v>0.07348859932742616</v>
+        <v>0.07096556202931052</v>
       </c>
       <c r="J156" t="n">
-        <v>0.02494522137222369</v>
+        <v>0.04808368161357965</v>
       </c>
       <c r="K156" t="n">
-        <v>0.07203362699496435</v>
+        <v>0.07034565721344592</v>
       </c>
       <c r="L156" t="n">
-        <v>0.06020940002940056</v>
+        <v>0.06651631861958807</v>
       </c>
       <c r="M156" t="n">
-        <v>0.07177516863048117</v>
+        <v>0.07059985792520568</v>
       </c>
       <c r="N156" t="n">
-        <v>0.0848039131419176</v>
+        <v>0.02199096426165627</v>
       </c>
       <c r="O156" t="n">
-        <v>0.06661703701089172</v>
+        <v>0.07096556202931052</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.03621585732599701</v>
+        <v>0.02184176608204212</v>
       </c>
       <c r="G157" t="n">
-        <v>0.07429616635300226</v>
+        <v>0.07174540337029196</v>
       </c>
       <c r="J157" t="n">
-        <v>0.02508740215168634</v>
+        <v>0.04762676455636633</v>
       </c>
       <c r="K157" t="n">
-        <v>0.07282520531359034</v>
+        <v>0.07111868641359367</v>
       </c>
       <c r="L157" t="n">
-        <v>0.06048603462909705</v>
+        <v>0.06542799480456102</v>
       </c>
       <c r="M157" t="n">
-        <v>0.07256390674729966</v>
+        <v>0.07137568053976839</v>
       </c>
       <c r="N157" t="n">
-        <v>0.08593558587097216</v>
+        <v>0.02184176608204212</v>
       </c>
       <c r="O157" t="n">
-        <v>0.06734909236265976</v>
+        <v>0.07174540337029196</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.0362486022484068</v>
+        <v>0.02169312649346299</v>
       </c>
       <c r="G158" t="n">
-        <v>0.07510373337857838</v>
+        <v>0.07252524471127339</v>
       </c>
       <c r="J158" t="n">
-        <v>0.02502710957295357</v>
+        <v>0.04726620119262684</v>
       </c>
       <c r="K158" t="n">
-        <v>0.07361678363221631</v>
+        <v>0.07189171561374143</v>
       </c>
       <c r="L158" t="n">
-        <v>0.06133703536735563</v>
+        <v>0.06544695289798852</v>
       </c>
       <c r="M158" t="n">
-        <v>0.07335264486411813</v>
+        <v>0.07215150315433108</v>
       </c>
       <c r="N158" t="n">
-        <v>0.08616261859974039</v>
+        <v>0.02169312649346299</v>
       </c>
       <c r="O158" t="n">
-        <v>0.0680811477144278</v>
+        <v>0.07252524471127339</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.0382794565919444</v>
+        <v>0.02154530196807504</v>
       </c>
       <c r="G159" t="n">
-        <v>0.07591130040415449</v>
+        <v>0.07330508605225482</v>
       </c>
       <c r="J159" t="n">
-        <v>0.02496456353909177</v>
+        <v>0.04740219096958889</v>
       </c>
       <c r="K159" t="n">
-        <v>0.0744083619508423</v>
+        <v>0.07266474481388918</v>
       </c>
       <c r="L159" t="n">
-        <v>0.06175917161371408</v>
+        <v>0.06487252470867311</v>
       </c>
       <c r="M159" t="n">
-        <v>0.0741413829809366</v>
+        <v>0.07292732576889378</v>
       </c>
       <c r="N159" t="n">
-        <v>0.08728303846586016</v>
+        <v>0.02154530196807504</v>
       </c>
       <c r="O159" t="n">
-        <v>0.06881320306619583</v>
+        <v>0.07330508605225482</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.03630839500785119</v>
+        <v>0.02119854897803437</v>
       </c>
       <c r="G160" t="n">
-        <v>0.07671886742973059</v>
+        <v>0.07408492739323626</v>
       </c>
       <c r="J160" t="n">
-        <v>0.02489998395316727</v>
+        <v>0.04713493333448024</v>
       </c>
       <c r="K160" t="n">
-        <v>0.07519994026946827</v>
+        <v>0.07343777401403695</v>
       </c>
       <c r="L160" t="n">
-        <v>0.0618492127377103</v>
+        <v>0.06450404204541726</v>
       </c>
       <c r="M160" t="n">
-        <v>0.07493012109775507</v>
+        <v>0.07370314838345648</v>
       </c>
       <c r="N160" t="n">
-        <v>0.08759487260696958</v>
+        <v>0.02119854897803437</v>
       </c>
       <c r="O160" t="n">
-        <v>0.06954525841796388</v>
+        <v>0.07408492739323626</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.0363353921473685</v>
+        <v>0.02115312399549717</v>
       </c>
       <c r="G161" t="n">
-        <v>0.07752643445530671</v>
+        <v>0.0748647687342177</v>
       </c>
       <c r="J161" t="n">
-        <v>0.02463359071824639</v>
+        <v>0.04666462773452848</v>
       </c>
       <c r="K161" t="n">
-        <v>0.07599151858809426</v>
+        <v>0.0742108032141847</v>
       </c>
       <c r="L161" t="n">
-        <v>0.06260392810888224</v>
+        <v>0.06444083671702361</v>
       </c>
       <c r="M161" t="n">
-        <v>0.07571885921457355</v>
+        <v>0.07447897099801919</v>
       </c>
       <c r="N161" t="n">
-        <v>0.08799614816070667</v>
+        <v>0.02115312399549717</v>
       </c>
       <c r="O161" t="n">
-        <v>0.07027731376973193</v>
+        <v>0.0748647687342177</v>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.03636042266173771</v>
+        <v>0.02100928349261953</v>
       </c>
       <c r="G162" t="n">
-        <v>0.07833400148088282</v>
+        <v>0.07564461007519913</v>
       </c>
       <c r="J162" t="n">
-        <v>0.02476560373739549</v>
+        <v>0.0462914736169614</v>
       </c>
       <c r="K162" t="n">
-        <v>0.07678309690672024</v>
+        <v>0.07498383241433246</v>
       </c>
       <c r="L162" t="n">
-        <v>0.06262008709676772</v>
+        <v>0.0640822405322945</v>
       </c>
       <c r="M162" t="n">
-        <v>0.07650759733139202</v>
+        <v>0.07525479361258189</v>
       </c>
       <c r="N162" t="n">
-        <v>0.08868489226470927</v>
+        <v>0.02100928349261953</v>
       </c>
       <c r="O162" t="n">
-        <v>0.07100936912149997</v>
+        <v>0.07564461007519913</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.03838346120220018</v>
+        <v>0.02096728394155765</v>
       </c>
       <c r="G163" t="n">
-        <v>0.07914156850645894</v>
+        <v>0.07642445141618057</v>
       </c>
       <c r="J163" t="n">
-        <v>0.02449624291368087</v>
+        <v>0.04601567042900667</v>
       </c>
       <c r="K163" t="n">
-        <v>0.07757467522534622</v>
+        <v>0.07575686161448021</v>
       </c>
       <c r="L163" t="n">
-        <v>0.06319445907090462</v>
+        <v>0.06322758530003258</v>
       </c>
       <c r="M163" t="n">
-        <v>0.0772963354482105</v>
+        <v>0.07603061622714458</v>
       </c>
       <c r="N163" t="n">
-        <v>0.08955913205661536</v>
+        <v>0.02096728394155765</v>
       </c>
       <c r="O163" t="n">
-        <v>0.07174142447326801</v>
+        <v>0.07642445141618057</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.03640448241999723</v>
+        <v>0.02072738181446764</v>
       </c>
       <c r="G164" t="n">
-        <v>0.07994913553203505</v>
+        <v>0.07720429275716199</v>
       </c>
       <c r="J164" t="n">
-        <v>0.0245257281501689</v>
+        <v>0.04593741761789202</v>
       </c>
       <c r="K164" t="n">
-        <v>0.07836625354397221</v>
+        <v>0.07652989081462797</v>
       </c>
       <c r="L164" t="n">
-        <v>0.06322381340083086</v>
+        <v>0.06357620282904014</v>
       </c>
       <c r="M164" t="n">
-        <v>0.07808507356502897</v>
+        <v>0.07680643884170728</v>
       </c>
       <c r="N164" t="n">
-        <v>0.08971689467406307</v>
+        <v>0.02072738181446764</v>
       </c>
       <c r="O164" t="n">
-        <v>0.07247347982503605</v>
+        <v>0.07720429275716199</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.03842346096637027</v>
+        <v>0.02058983358350565</v>
       </c>
       <c r="G165" t="n">
-        <v>0.08075670255761115</v>
+        <v>0.07798413409814342</v>
       </c>
       <c r="J165" t="n">
-        <v>0.02445427934992592</v>
+        <v>0.04555691463084513</v>
       </c>
       <c r="K165" t="n">
-        <v>0.07915783186259819</v>
+        <v>0.07730292001477572</v>
       </c>
       <c r="L165" t="n">
-        <v>0.06340491945608431</v>
+        <v>0.06262742492812001</v>
       </c>
       <c r="M165" t="n">
-        <v>0.07887381168184744</v>
+        <v>0.07758226145626998</v>
       </c>
       <c r="N165" t="n">
-        <v>0.09035620725469018</v>
+        <v>0.02058983358350565</v>
       </c>
       <c r="O165" t="n">
-        <v>0.07320553517680409</v>
+        <v>0.07798413409814342</v>
       </c>
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="F166" t="n">
-        <v>0.0374403714925606</v>
+        <v>0.02035489572082781</v>
       </c>
       <c r="G166" t="n">
-        <v>0.08156426958318726</v>
+        <v>0.07876397543912486</v>
       </c>
       <c r="J166" t="n">
-        <v>0.02428211641601824</v>
+        <v>0.04517436091509372</v>
       </c>
       <c r="K166" t="n">
-        <v>0.07994941018122417</v>
+        <v>0.07807594921492349</v>
       </c>
       <c r="L166" t="n">
-        <v>0.06333454660620286</v>
+        <v>0.06258058340607442</v>
       </c>
       <c r="M166" t="n">
-        <v>0.07966254979866592</v>
+        <v>0.07835808407083268</v>
       </c>
       <c r="N166" t="n">
-        <v>0.09127509693613473</v>
+        <v>0.02035489572082781</v>
       </c>
       <c r="O166" t="n">
-        <v>0.07393759052857213</v>
+        <v>0.07876397543912486</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="F167" t="n">
-        <v>0.03845518864980962</v>
+        <v>0.02032281346418614</v>
       </c>
       <c r="G167" t="n">
-        <v>0.08237183660876339</v>
+        <v>0.0795438167801063</v>
       </c>
       <c r="J167" t="n">
-        <v>0.02430945925151222</v>
+        <v>0.04508995591786549</v>
       </c>
       <c r="K167" t="n">
-        <v>0.08074098849985015</v>
+        <v>0.07884897841507126</v>
       </c>
       <c r="L167" t="n">
-        <v>0.06370946422072438</v>
+        <v>0.061835010071706</v>
       </c>
       <c r="M167" t="n">
-        <v>0.08045128791548439</v>
+        <v>0.07913390668539538</v>
       </c>
       <c r="N167" t="n">
-        <v>0.09197159085603479</v>
+        <v>0.02032281346418614</v>
       </c>
       <c r="O167" t="n">
-        <v>0.07466964588034017</v>
+        <v>0.0795438167801063</v>
       </c>
     </row>
     <row r="168" ht="15" customHeight="1">
       <c r="F168" t="n">
-        <v>0.03846788708935868</v>
+        <v>0.02029338115833752</v>
       </c>
       <c r="G168" t="n">
-        <v>0.0831794036343395</v>
+        <v>0.08032365812108773</v>
       </c>
       <c r="J168" t="n">
-        <v>0.02433652775947417</v>
+        <v>0.04470389908638811</v>
       </c>
       <c r="K168" t="n">
-        <v>0.08153256681847613</v>
+        <v>0.07962200761521901</v>
       </c>
       <c r="L168" t="n">
-        <v>0.06362605869679924</v>
+        <v>0.06189003673381721</v>
       </c>
       <c r="M168" t="n">
-        <v>0.08124002603230288</v>
+        <v>0.07990972929995808</v>
       </c>
       <c r="N168" t="n">
-        <v>0.09234371615202824</v>
+        <v>0.02029338115833752</v>
       </c>
       <c r="O168" t="n">
-        <v>0.07540170123210821</v>
+        <v>0.08032365812108773</v>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1">
       <c r="F169" t="n">
-        <v>0.03547844146244911</v>
+        <v>0.02006615354979346</v>
       </c>
       <c r="G169" t="n">
-        <v>0.0839869706599156</v>
+        <v>0.08110349946206916</v>
       </c>
       <c r="J169" t="n">
-        <v>0.02426354184297046</v>
+        <v>0.04431638986788936</v>
       </c>
       <c r="K169" t="n">
-        <v>0.08232414513710212</v>
+        <v>0.08039503681536676</v>
       </c>
       <c r="L169" t="n">
-        <v>0.06357176641323736</v>
+        <v>0.06144499520121055</v>
       </c>
       <c r="M169" t="n">
-        <v>0.08202876414912134</v>
+        <v>0.08068555191452077</v>
       </c>
       <c r="N169" t="n">
-        <v>0.09268949996175307</v>
+        <v>0.02006615354979346</v>
       </c>
       <c r="O169" t="n">
-        <v>0.07613375658387625</v>
+        <v>0.08110349946206916</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1">
       <c r="F170" t="n">
-        <v>0.0364868264203223</v>
+        <v>0.01994075957956645</v>
       </c>
       <c r="G170" t="n">
-        <v>0.08479453768549171</v>
+        <v>0.0818833408030506</v>
       </c>
       <c r="J170" t="n">
-        <v>0.02419072140506741</v>
+        <v>0.04392762770959691</v>
       </c>
       <c r="K170" t="n">
-        <v>0.0831157234557281</v>
+        <v>0.08116806601551452</v>
       </c>
       <c r="L170" t="n">
-        <v>0.06334466447438053</v>
+        <v>0.06149921728268865</v>
       </c>
       <c r="M170" t="n">
-        <v>0.08281750226593983</v>
+        <v>0.08146137452908349</v>
       </c>
       <c r="N170" t="n">
-        <v>0.09250696942284725</v>
+        <v>0.01994075957956645</v>
       </c>
       <c r="O170" t="n">
-        <v>0.07686581193564429</v>
+        <v>0.0818833408030506</v>
       </c>
     </row>
     <row r="171" ht="15" customHeight="1">
       <c r="F171" t="n">
-        <v>0.0384930166142196</v>
+        <v>0.01971682818866895</v>
       </c>
       <c r="G171" t="n">
-        <v>0.08560210471106783</v>
+        <v>0.08266318214403204</v>
       </c>
       <c r="J171" t="n">
-        <v>0.02391828634883134</v>
+        <v>0.04393781205873845</v>
       </c>
       <c r="K171" t="n">
-        <v>0.08390730177435408</v>
+        <v>0.08194109521566227</v>
       </c>
       <c r="L171" t="n">
-        <v>0.06344867810742372</v>
+        <v>0.06035203478705387</v>
       </c>
       <c r="M171" t="n">
-        <v>0.0836062403827583</v>
+        <v>0.08223719714364618</v>
       </c>
       <c r="N171" t="n">
-        <v>0.09289415167294873</v>
+        <v>0.01971682818866895</v>
       </c>
       <c r="O171" t="n">
-        <v>0.07759786728741233</v>
+        <v>0.08266318214403204</v>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1">
       <c r="F172" t="n">
-        <v>0.03649698669538234</v>
+        <v>0.01979398831811337</v>
       </c>
       <c r="G172" t="n">
-        <v>0.08640967173664393</v>
+        <v>0.08344302348501347</v>
       </c>
       <c r="J172" t="n">
-        <v>0.0238464565773286</v>
+        <v>0.04374714236254168</v>
       </c>
       <c r="K172" t="n">
-        <v>0.08469888009298006</v>
+        <v>0.08271412441581003</v>
       </c>
       <c r="L172" t="n">
-        <v>0.06268773253956195</v>
+        <v>0.06070277952310876</v>
       </c>
       <c r="M172" t="n">
-        <v>0.08439497849957676</v>
+        <v>0.08301301975820889</v>
       </c>
       <c r="N172" t="n">
-        <v>0.0932490738496955</v>
+        <v>0.01979398831811337</v>
       </c>
       <c r="O172" t="n">
-        <v>0.07832992263918037</v>
+        <v>0.08344302348501347</v>
       </c>
     </row>
     <row r="173" ht="15" customHeight="1">
       <c r="F173" t="n">
-        <v>0.03749871131505191</v>
+        <v>0.01967186890891219</v>
       </c>
       <c r="G173" t="n">
-        <v>0.08721723876222005</v>
+        <v>0.08422286482599491</v>
       </c>
       <c r="J173" t="n">
-        <v>0.02377545199362553</v>
+        <v>0.04345581806823429</v>
       </c>
       <c r="K173" t="n">
-        <v>0.08549045841160603</v>
+        <v>0.08348715361595778</v>
       </c>
       <c r="L173" t="n">
-        <v>0.0623657529979903</v>
+        <v>0.05975078329965583</v>
       </c>
       <c r="M173" t="n">
-        <v>0.08518371661639523</v>
+        <v>0.08378884237277158</v>
       </c>
       <c r="N173" t="n">
-        <v>0.09376976309072566</v>
+        <v>0.01967186890891219</v>
       </c>
       <c r="O173" t="n">
-        <v>0.07906197799094841</v>
+        <v>0.08422286482599491</v>
       </c>
     </row>
     <row r="174" ht="15" customHeight="1">
       <c r="F174" t="n">
-        <v>0.03649382878314833</v>
+        <v>0.01955009890207784</v>
       </c>
       <c r="G174" t="n">
-        <v>0.08802480578779616</v>
+        <v>0.08500270616697635</v>
       </c>
       <c r="J174" t="n">
-        <v>0.02390549250078849</v>
+        <v>0.04266403862304408</v>
       </c>
       <c r="K174" t="n">
-        <v>0.08628203673023203</v>
+        <v>0.08426018281610555</v>
       </c>
       <c r="L174" t="n">
-        <v>0.0623866647099037</v>
+        <v>0.05989537792549759</v>
       </c>
       <c r="M174" t="n">
-        <v>0.08597245473321373</v>
+        <v>0.08456466498733428</v>
       </c>
       <c r="N174" t="n">
-        <v>0.09465424653367699</v>
+        <v>0.01955009890207784</v>
       </c>
       <c r="O174" t="n">
-        <v>0.07979403334271645</v>
+        <v>0.08500270616697635</v>
       </c>
     </row>
     <row r="175" ht="15" customHeight="1">
       <c r="F175" t="n">
-        <v>0.03747169097165257</v>
+        <v>0.01922830723862279</v>
       </c>
       <c r="G175" t="n">
-        <v>0.08883237281337228</v>
+        <v>0.08578254750795777</v>
       </c>
       <c r="J175" t="n">
-        <v>0.02363679800188376</v>
+        <v>0.04257200347419865</v>
       </c>
       <c r="K175" t="n">
-        <v>0.08707361504885801</v>
+        <v>0.0850332120162533</v>
       </c>
       <c r="L175" t="n">
-        <v>0.06185439290249722</v>
+        <v>0.05943589520943648</v>
       </c>
       <c r="M175" t="n">
-        <v>0.0867611928500322</v>
+        <v>0.08534048760189698</v>
       </c>
       <c r="N175" t="n">
-        <v>0.09460055131618755</v>
+        <v>0.01922830723862279</v>
       </c>
       <c r="O175" t="n">
-        <v>0.08052608869448449</v>
+        <v>0.08578254750795777</v>
       </c>
     </row>
     <row r="176" ht="15" customHeight="1">
       <c r="F176" t="n">
-        <v>0.03743247481159667</v>
+        <v>0.01910612285955948</v>
       </c>
       <c r="G176" t="n">
-        <v>0.08963993983894838</v>
+        <v>0.0865623888489392</v>
       </c>
       <c r="J176" t="n">
-        <v>0.02356958839997772</v>
+        <v>0.04227220601617018</v>
       </c>
       <c r="K176" t="n">
-        <v>0.087865193367484</v>
+        <v>0.08580624121640106</v>
       </c>
       <c r="L176" t="n">
-        <v>0.06117286280296585</v>
+        <v>0.05917166696027509</v>
       </c>
       <c r="M176" t="n">
-        <v>0.08754993096685067</v>
+        <v>0.08611631021645967</v>
       </c>
       <c r="N176" t="n">
-        <v>0.09480670457589524</v>
+        <v>0.01910612285955948</v>
       </c>
       <c r="O176" t="n">
-        <v>0.08125814404625253</v>
+        <v>0.0865623888489392</v>
       </c>
     </row>
     <row r="177" ht="15" customHeight="1">
       <c r="F177" t="n">
-        <v>0.03637690640096468</v>
+        <v>0.01918317470590038</v>
       </c>
       <c r="G177" t="n">
-        <v>0.09044750686452449</v>
+        <v>0.08734223018992064</v>
       </c>
       <c r="J177" t="n">
-        <v>0.02370408359813669</v>
+        <v>0.04215187758779568</v>
       </c>
       <c r="K177" t="n">
-        <v>0.08865677168610997</v>
+        <v>0.08657927041654881</v>
       </c>
       <c r="L177" t="n">
-        <v>0.06064599963850464</v>
+        <v>0.05880202498681597</v>
       </c>
       <c r="M177" t="n">
-        <v>0.08833866908366914</v>
+        <v>0.08689213283102239</v>
       </c>
       <c r="N177" t="n">
-        <v>0.09477073345043824</v>
+        <v>0.01918317470590038</v>
       </c>
       <c r="O177" t="n">
-        <v>0.08199019939802059</v>
+        <v>0.08734223018992064</v>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1">
       <c r="F178" t="n">
-        <v>0.03830571183774063</v>
+        <v>0.01895909171865789</v>
       </c>
       <c r="G178" t="n">
-        <v>0.09125507389010061</v>
+        <v>0.08812207153090208</v>
       </c>
       <c r="J178" t="n">
-        <v>0.02353873181852896</v>
+        <v>0.04171116848345918</v>
       </c>
       <c r="K178" t="n">
-        <v>0.08944835000473594</v>
+        <v>0.08735229961669658</v>
       </c>
       <c r="L178" t="n">
-        <v>0.0604777286363086</v>
+        <v>0.05842630109786157</v>
       </c>
       <c r="M178" t="n">
-        <v>0.08912740720048762</v>
+        <v>0.08766795544558507</v>
       </c>
       <c r="N178" t="n">
-        <v>0.09459066507745434</v>
+        <v>0.01895909171865789</v>
       </c>
       <c r="O178" t="n">
-        <v>0.08272225474978862</v>
+        <v>0.08812207153090208</v>
       </c>
     </row>
     <row r="179" ht="15" customHeight="1">
       <c r="F179" t="n">
-        <v>0.03521961721990857</v>
+        <v>0.01883350283884451</v>
       </c>
       <c r="G179" t="n">
-        <v>0.09206264091567673</v>
+        <v>0.08890191287188351</v>
       </c>
       <c r="J179" t="n">
-        <v>0.02356697916753495</v>
+        <v>0.04115044408167901</v>
       </c>
       <c r="K179" t="n">
-        <v>0.09023992832336193</v>
+        <v>0.08812532881684433</v>
       </c>
       <c r="L179" t="n">
-        <v>0.05947197502357265</v>
+        <v>0.05784382710221425</v>
       </c>
       <c r="M179" t="n">
-        <v>0.08991614531730609</v>
+        <v>0.08844377806014778</v>
       </c>
       <c r="N179" t="n">
-        <v>0.09546452659458154</v>
+        <v>0.01883350283884451</v>
       </c>
       <c r="O179" t="n">
-        <v>0.08345431010155666</v>
+        <v>0.08890191287188351</v>
       </c>
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="F180" t="n">
-        <v>0.03611934864545259</v>
+        <v>0.01870603700747268</v>
       </c>
       <c r="G180" t="n">
-        <v>0.09287020794125284</v>
+        <v>0.08968175421286494</v>
       </c>
       <c r="J180" t="n">
-        <v>0.02348884855959185</v>
+        <v>0.04087006976097335</v>
       </c>
       <c r="K180" t="n">
-        <v>0.09103150664198792</v>
+        <v>0.08889835801699209</v>
       </c>
       <c r="L180" t="n">
-        <v>0.05903266402749191</v>
+        <v>0.05705393480867671</v>
       </c>
       <c r="M180" t="n">
-        <v>0.09070488343412457</v>
+        <v>0.08921960067471048</v>
       </c>
       <c r="N180" t="n">
-        <v>0.09529034513945789</v>
+        <v>0.01870603700747268</v>
       </c>
       <c r="O180" t="n">
-        <v>0.0841863654533247</v>
+        <v>0.08968175421286494</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1">
       <c r="F181" t="n">
-        <v>0.03700563221235667</v>
+        <v>0.01867632316555484</v>
       </c>
       <c r="G181" t="n">
-        <v>0.09367777496682894</v>
+        <v>0.09046159555384638</v>
       </c>
       <c r="J181" t="n">
-        <v>0.02340509546419658</v>
+        <v>0.04067041089986045</v>
       </c>
       <c r="K181" t="n">
-        <v>0.09182308496061391</v>
+        <v>0.08967138721713985</v>
       </c>
       <c r="L181" t="n">
-        <v>0.05836372087526137</v>
+        <v>0.05695595602605147</v>
       </c>
       <c r="M181" t="n">
-        <v>0.09149362155094304</v>
+        <v>0.08999542328927318</v>
       </c>
       <c r="N181" t="n">
-        <v>0.09462128351801269</v>
+        <v>0.01867632316555484</v>
       </c>
       <c r="O181" t="n">
-        <v>0.08491842080509274</v>
+        <v>0.09046159555384638</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1">
       <c r="F182" t="n">
-        <v>0.03787919401860489</v>
+        <v>0.01844399025410344</v>
       </c>
       <c r="G182" t="n">
-        <v>0.09448534199240505</v>
+        <v>0.09124143689482782</v>
       </c>
       <c r="J182" t="n">
-        <v>0.02321647535084601</v>
+        <v>0.0399518328768585</v>
       </c>
       <c r="K182" t="n">
-        <v>0.09261466327923988</v>
+        <v>0.09044441641728761</v>
       </c>
       <c r="L182" t="n">
-        <v>0.05736907079407605</v>
+        <v>0.05664922256314087</v>
       </c>
       <c r="M182" t="n">
-        <v>0.09228235966776151</v>
+        <v>0.09077124590383588</v>
       </c>
       <c r="N182" t="n">
-        <v>0.09511317610599551</v>
+        <v>0.01844399025410344</v>
       </c>
       <c r="O182" t="n">
-        <v>0.08565047615686079</v>
+        <v>0.09124143689482782</v>
       </c>
     </row>
     <row r="183" ht="15" customHeight="1">
       <c r="F183" t="n">
-        <v>0.03474076016218129</v>
+        <v>0.01830866721413094</v>
       </c>
       <c r="G183" t="n">
-        <v>0.09529290901798117</v>
+        <v>0.09202127823580925</v>
       </c>
       <c r="J183" t="n">
-        <v>0.02302374368903699</v>
+        <v>0.03971470107048583</v>
       </c>
       <c r="K183" t="n">
-        <v>0.09340624159786586</v>
+        <v>0.09121744561743536</v>
       </c>
       <c r="L183" t="n">
-        <v>0.05715263901113093</v>
+        <v>0.05643306622874761</v>
       </c>
       <c r="M183" t="n">
-        <v>0.09307109778457999</v>
+        <v>0.09154706851839858</v>
       </c>
       <c r="N183" t="n">
-        <v>0.09427458021083035</v>
+        <v>0.01830866721413094</v>
       </c>
       <c r="O183" t="n">
-        <v>0.08638253150862882</v>
+        <v>0.09202127823580925</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1">
       <c r="F184" t="n">
-        <v>0.03759105674106994</v>
+        <v>0.01826998298664978</v>
       </c>
       <c r="G184" t="n">
-        <v>0.09610047604355727</v>
+        <v>0.09280111957679069</v>
       </c>
       <c r="J184" t="n">
-        <v>0.02302765594826646</v>
+        <v>0.03895938085926065</v>
       </c>
       <c r="K184" t="n">
-        <v>0.09419781991649184</v>
+        <v>0.09199047481758311</v>
       </c>
       <c r="L184" t="n">
-        <v>0.05611835075362104</v>
+        <v>0.05540681883167392</v>
       </c>
       <c r="M184" t="n">
-        <v>0.09385983590139846</v>
+        <v>0.09232289113296127</v>
       </c>
       <c r="N184" t="n">
-        <v>0.09431407841260492</v>
+        <v>0.01826998298664978</v>
       </c>
       <c r="O184" t="n">
-        <v>0.08711458686039686</v>
+        <v>0.09280111957679069</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1">
       <c r="F185" t="n">
-        <v>0.03443080985325486</v>
+        <v>0.0181275665126724</v>
       </c>
       <c r="G185" t="n">
-        <v>0.09690804306913339</v>
+        <v>0.09358096091777213</v>
       </c>
       <c r="J185" t="n">
-        <v>0.02302896759803127</v>
+        <v>0.0386862376217012</v>
       </c>
       <c r="K185" t="n">
-        <v>0.09498939823511783</v>
+        <v>0.09276350401773087</v>
       </c>
       <c r="L185" t="n">
-        <v>0.05547013124874139</v>
+        <v>0.05576981218072258</v>
       </c>
       <c r="M185" t="n">
-        <v>0.09464857401821694</v>
+        <v>0.09309871374752399</v>
       </c>
       <c r="N185" t="n">
-        <v>0.09344025329140698</v>
+        <v>0.0181275665126724</v>
       </c>
       <c r="O185" t="n">
-        <v>0.08784664221216491</v>
+        <v>0.09358096091777213</v>
       </c>
     </row>
     <row r="186" ht="15" customHeight="1">
       <c r="F186" t="n">
-        <v>0.03726074559672012</v>
+        <v>0.01778104673321128</v>
       </c>
       <c r="G186" t="n">
-        <v>0.0977156100947095</v>
+        <v>0.09436080225875354</v>
       </c>
       <c r="J186" t="n">
-        <v>0.02272843410782829</v>
+        <v>0.03799563673632564</v>
       </c>
       <c r="K186" t="n">
-        <v>0.0957809765537438</v>
+        <v>0.09353653321787862</v>
       </c>
       <c r="L186" t="n">
-        <v>0.05491190572368707</v>
+        <v>0.05522137808469602</v>
       </c>
       <c r="M186" t="n">
-        <v>0.09543731213503541</v>
+        <v>0.09387453636208667</v>
       </c>
       <c r="N186" t="n">
-        <v>0.09266168742732434</v>
+        <v>0.01778104673321128</v>
       </c>
       <c r="O186" t="n">
-        <v>0.08857869756393294</v>
+        <v>0.09436080225875354</v>
       </c>
     </row>
     <row r="187" ht="15" customHeight="1">
       <c r="F187" t="n">
-        <v>0.03708159006944974</v>
+        <v>0.01763005258927886</v>
       </c>
       <c r="G187" t="n">
-        <v>0.09852317712028562</v>
+        <v>0.09514064359973498</v>
       </c>
       <c r="J187" t="n">
-        <v>0.02282681094715447</v>
+        <v>0.03778794358165227</v>
       </c>
       <c r="K187" t="n">
-        <v>0.09657255487236979</v>
+        <v>0.09430956241802639</v>
       </c>
       <c r="L187" t="n">
-        <v>0.05414759940565295</v>
+        <v>0.05466084835239671</v>
       </c>
       <c r="M187" t="n">
-        <v>0.09622605025185389</v>
+        <v>0.09465035897664938</v>
       </c>
       <c r="N187" t="n">
-        <v>0.0919869634004446</v>
+        <v>0.01763005258927886</v>
       </c>
       <c r="O187" t="n">
-        <v>0.08931075291570099</v>
+        <v>0.09514064359973498</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1">
       <c r="F188" t="n">
-        <v>0.03689406936942777</v>
+        <v>0.01767421302188756</v>
       </c>
       <c r="G188" t="n">
-        <v>0.09933074414586172</v>
+        <v>0.09592048494071642</v>
       </c>
       <c r="J188" t="n">
-        <v>0.02262485358550662</v>
+        <v>0.03706352353619932</v>
       </c>
       <c r="K188" t="n">
-        <v>0.09736413319099577</v>
+        <v>0.09508259161817416</v>
       </c>
       <c r="L188" t="n">
-        <v>0.05288113752183415</v>
+        <v>0.0536875547926271</v>
       </c>
       <c r="M188" t="n">
-        <v>0.09701478836867236</v>
+        <v>0.09542618159121208</v>
       </c>
       <c r="N188" t="n">
-        <v>0.09072466379085564</v>
+        <v>0.01767421302188756</v>
       </c>
       <c r="O188" t="n">
-        <v>0.09004280826746902</v>
+        <v>0.09592048494071642</v>
       </c>
     </row>
     <row r="189" ht="15" customHeight="1">
       <c r="F189" t="n">
-        <v>0.03569890959463827</v>
+        <v>0.01741315697204986</v>
       </c>
       <c r="G189" t="n">
-        <v>0.1001383111714378</v>
+        <v>0.09670032628169785</v>
       </c>
       <c r="J189" t="n">
-        <v>0.02252331749238165</v>
+        <v>0.03672274197848507</v>
       </c>
       <c r="K189" t="n">
-        <v>0.09815571150962175</v>
+        <v>0.09585562081832191</v>
       </c>
       <c r="L189" t="n">
-        <v>0.05211644529942569</v>
+        <v>0.05370082921418978</v>
       </c>
       <c r="M189" t="n">
-        <v>0.09780352648549083</v>
+        <v>0.09620200420577478</v>
       </c>
       <c r="N189" t="n">
-        <v>0.0903833711786452</v>
+        <v>0.01741315697204986</v>
       </c>
       <c r="O189" t="n">
-        <v>0.09077486361923706</v>
+        <v>0.09670032628169785</v>
       </c>
     </row>
     <row r="190" ht="15" customHeight="1">
       <c r="F190" t="n">
-        <v>0.03549683684306529</v>
+        <v>0.01734651338077822</v>
       </c>
       <c r="G190" t="n">
-        <v>0.1009458781970139</v>
+        <v>0.09748016762267929</v>
       </c>
       <c r="J190" t="n">
-        <v>0.02242295813727645</v>
+        <v>0.03606596428702771</v>
       </c>
       <c r="K190" t="n">
-        <v>0.09894728982824773</v>
+        <v>0.09662865001846967</v>
       </c>
       <c r="L190" t="n">
-        <v>0.05175744796562254</v>
+        <v>0.05320000342588727</v>
       </c>
       <c r="M190" t="n">
-        <v>0.0985922646023093</v>
+        <v>0.09697782682033748</v>
       </c>
       <c r="N190" t="n">
-        <v>0.08887166814390096</v>
+        <v>0.01734651338077822</v>
       </c>
       <c r="O190" t="n">
-        <v>0.09150691897100512</v>
+        <v>0.09748016762267929</v>
       </c>
     </row>
     <row r="191" ht="15" customHeight="1">
       <c r="F191" t="n">
-        <v>0.03328857721269285</v>
+        <v>0.01707391118908508</v>
       </c>
       <c r="G191" t="n">
-        <v>0.1017534452225901</v>
+        <v>0.09826000896366072</v>
       </c>
       <c r="J191" t="n">
-        <v>0.02222453098968791</v>
+        <v>0.03539355584034548</v>
       </c>
       <c r="K191" t="n">
-        <v>0.09973886814687372</v>
+        <v>0.09740167921861742</v>
       </c>
       <c r="L191" t="n">
-        <v>0.05090807074761969</v>
+        <v>0.05218440923652207</v>
       </c>
       <c r="M191" t="n">
-        <v>0.0993810027191278</v>
+        <v>0.09775364943490017</v>
       </c>
       <c r="N191" t="n">
-        <v>0.08819813726671055</v>
+        <v>0.01707391118908508</v>
       </c>
       <c r="O191" t="n">
-        <v>0.09223897432277314</v>
+        <v>0.09826000896366072</v>
       </c>
     </row>
     <row r="192" ht="15" customHeight="1">
       <c r="F192" t="n">
-        <v>0.03607485680150503</v>
+        <v>0.01679497933798287</v>
       </c>
       <c r="G192" t="n">
-        <v>0.1025610122481662</v>
+        <v>0.09903985030464216</v>
       </c>
       <c r="J192" t="n">
-        <v>0.02232879151911289</v>
+        <v>0.03500403863382126</v>
       </c>
       <c r="K192" t="n">
-        <v>0.1005304464654997</v>
+        <v>0.09817470841876517</v>
       </c>
       <c r="L192" t="n">
-        <v>0.04987223887261225</v>
+        <v>0.05155337845489649</v>
       </c>
       <c r="M192" t="n">
-        <v>0.1001697408359463</v>
+        <v>0.09852947204946289</v>
       </c>
       <c r="N192" t="n">
-        <v>0.08657136112716202</v>
+        <v>0.01679497933798287</v>
       </c>
       <c r="O192" t="n">
-        <v>0.0929710296745412</v>
+        <v>0.09903985030464216</v>
       </c>
     </row>
     <row r="193" ht="15" customHeight="1">
       <c r="F193" t="n">
-        <v>0.03385640170748586</v>
+        <v>0.01680934676848406</v>
       </c>
       <c r="G193" t="n">
-        <v>0.1033685792737423</v>
+        <v>0.09981969164562358</v>
       </c>
       <c r="J193" t="n">
-        <v>0.02223649519504829</v>
+        <v>0.03444947420562786</v>
       </c>
       <c r="K193" t="n">
-        <v>0.1013220247841257</v>
+        <v>0.09894773761891293</v>
       </c>
       <c r="L193" t="n">
-        <v>0.04955387756779514</v>
+        <v>0.0517062428898134</v>
       </c>
       <c r="M193" t="n">
-        <v>0.1009584789527647</v>
+        <v>0.09930529466402557</v>
       </c>
       <c r="N193" t="n">
-        <v>0.08589992230534277</v>
+        <v>0.01680934676848406</v>
       </c>
       <c r="O193" t="n">
-        <v>0.09370308502630924</v>
+        <v>0.09981969164562358</v>
       </c>
     </row>
     <row r="194" ht="15" customHeight="1">
       <c r="F194" t="n">
-        <v>0.03263393802861939</v>
+        <v>0.01661664242160109</v>
       </c>
       <c r="G194" t="n">
-        <v>0.1041761462993184</v>
+        <v>0.100599532986605</v>
       </c>
       <c r="J194" t="n">
-        <v>0.022148397486991</v>
+        <v>0.0334153853087136</v>
       </c>
       <c r="K194" t="n">
-        <v>0.1021136031027517</v>
+        <v>0.09972076681906068</v>
       </c>
       <c r="L194" t="n">
-        <v>0.0484569120603634</v>
+        <v>0.05093159310989537</v>
       </c>
       <c r="M194" t="n">
-        <v>0.1017472170695832</v>
+        <v>0.1000811172785883</v>
       </c>
       <c r="N194" t="n">
-        <v>0.08489240338134085</v>
+        <v>0.01661664242160109</v>
       </c>
       <c r="O194" t="n">
-        <v>0.09443514037807726</v>
+        <v>0.100599532986605</v>
       </c>
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="F195" t="n">
-        <v>0.03240819186288967</v>
+        <v>0.01631649523834641</v>
       </c>
       <c r="G195" t="n">
-        <v>0.1049837133248945</v>
+        <v>0.1013793743275865</v>
       </c>
       <c r="J195" t="n">
-        <v>0.02186525386443788</v>
+        <v>0.03261092824518294</v>
       </c>
       <c r="K195" t="n">
-        <v>0.1029051814213776</v>
+        <v>0.1004937960192085</v>
       </c>
       <c r="L195" t="n">
-        <v>0.04808526757751211</v>
+        <v>0.05040708804147304</v>
       </c>
       <c r="M195" t="n">
-        <v>0.1025359551864017</v>
+        <v>0.100856939893151</v>
       </c>
       <c r="N195" t="n">
-        <v>0.08295738693524374</v>
+        <v>0.01631649523834641</v>
       </c>
       <c r="O195" t="n">
-        <v>0.09516719572984532</v>
+        <v>0.1013793743275865</v>
       </c>
     </row>
     <row r="196" ht="15" customHeight="1">
       <c r="F196" t="n">
-        <v>0.03417988930828073</v>
+        <v>0.01600853415973247</v>
       </c>
       <c r="G196" t="n">
-        <v>0.1057912803504706</v>
+        <v>0.1021592156685679</v>
       </c>
       <c r="J196" t="n">
-        <v>0.02178781979688584</v>
+        <v>0.03164525931714005</v>
       </c>
       <c r="K196" t="n">
-        <v>0.1036967597400036</v>
+        <v>0.1012668252193562</v>
       </c>
       <c r="L196" t="n">
-        <v>0.04734286934643619</v>
+        <v>0.04963518395964817</v>
       </c>
       <c r="M196" t="n">
-        <v>0.1033246933032202</v>
+        <v>0.1016327625077137</v>
       </c>
       <c r="N196" t="n">
-        <v>0.08190345554713946</v>
+        <v>0.01600853415973247</v>
       </c>
       <c r="O196" t="n">
-        <v>0.09589925108161335</v>
+        <v>0.1021592156685679</v>
       </c>
     </row>
     <row r="197" ht="15" customHeight="1">
       <c r="F197" t="n">
-        <v>0.03194975646277665</v>
+        <v>0.01589238812677174</v>
       </c>
       <c r="G197" t="n">
-        <v>0.1065988473760467</v>
+        <v>0.1029390570095493</v>
       </c>
       <c r="J197" t="n">
-        <v>0.02191685075383176</v>
+        <v>0.03082753482668915</v>
       </c>
       <c r="K197" t="n">
-        <v>0.1044883380586296</v>
+        <v>0.102039854419504</v>
       </c>
       <c r="L197" t="n">
-        <v>0.04663364259433067</v>
+        <v>0.04911923430159132</v>
       </c>
       <c r="M197" t="n">
-        <v>0.1041134314200386</v>
+        <v>0.1024085851222764</v>
       </c>
       <c r="N197" t="n">
-        <v>0.08093919179711545</v>
+        <v>0.01589238812677174</v>
       </c>
       <c r="O197" t="n">
-        <v>0.0966313064333814</v>
+        <v>0.1029390570095493</v>
       </c>
     </row>
     <row r="198" ht="15" customHeight="1">
       <c r="F198" t="n">
-        <v>0.03171851942436144</v>
+        <v>0.01576768608047666</v>
       </c>
       <c r="G198" t="n">
-        <v>0.1074064144016228</v>
+        <v>0.1037188983505308</v>
       </c>
       <c r="J198" t="n">
-        <v>0.0216531022047725</v>
+        <v>0.02976691107593465</v>
       </c>
       <c r="K198" t="n">
-        <v>0.1052799163772556</v>
+        <v>0.1028128836196517</v>
       </c>
       <c r="L198" t="n">
-        <v>0.04626151254839067</v>
+        <v>0.04826259250447301</v>
       </c>
       <c r="M198" t="n">
-        <v>0.1049021695368571</v>
+        <v>0.1031844077368391</v>
       </c>
       <c r="N198" t="n">
-        <v>0.07987317826525964</v>
+        <v>0.01576768608047666</v>
       </c>
       <c r="O198" t="n">
-        <v>0.09736336178514944</v>
+        <v>0.1037188983505308</v>
       </c>
     </row>
     <row r="199" ht="15" customHeight="1">
       <c r="F199" t="n">
-        <v>0.03248690429101918</v>
+        <v>0.01553405696185968</v>
       </c>
       <c r="G199" t="n">
-        <v>0.1082139814271989</v>
+        <v>0.1044987396915122</v>
       </c>
       <c r="J199" t="n">
-        <v>0.02179732961920497</v>
+        <v>0.0288725443669807</v>
       </c>
       <c r="K199" t="n">
-        <v>0.1060714946958816</v>
+        <v>0.1035859128197995</v>
       </c>
       <c r="L199" t="n">
-        <v>0.04563040443581107</v>
+        <v>0.04696861200546376</v>
       </c>
       <c r="M199" t="n">
-        <v>0.1056909076536756</v>
+        <v>0.1039602303514018</v>
       </c>
       <c r="N199" t="n">
-        <v>0.07871399753165975</v>
+        <v>0.01553405696185968</v>
       </c>
       <c r="O199" t="n">
-        <v>0.09809541713691747</v>
+        <v>0.1044987396915122</v>
       </c>
     </row>
     <row r="200" ht="15" customHeight="1">
       <c r="F200" t="n">
-        <v>0.03425563716073389</v>
+        <v>0.01509112971193322</v>
       </c>
       <c r="G200" t="n">
-        <v>0.109021548452775</v>
+        <v>0.1052785810324936</v>
       </c>
       <c r="J200" t="n">
-        <v>0.02175028846662605</v>
+        <v>0.02795359100193165</v>
       </c>
       <c r="K200" t="n">
-        <v>0.1068630730145076</v>
+        <v>0.1043589420199472</v>
       </c>
       <c r="L200" t="n">
-        <v>0.04514424348378696</v>
+        <v>0.04674064624173396</v>
       </c>
       <c r="M200" t="n">
-        <v>0.1064796457704941</v>
+        <v>0.1047360529659645</v>
       </c>
       <c r="N200" t="n">
-        <v>0.07717023217640345</v>
+        <v>0.01509112971193322</v>
       </c>
       <c r="O200" t="n">
-        <v>0.09882747248868552</v>
+        <v>0.1052785810324936</v>
       </c>
     </row>
     <row r="201" ht="15" customHeight="1">
       <c r="F201" t="n">
-        <v>0.03302544413148961</v>
+        <v>0.01483008374598267</v>
       </c>
       <c r="G201" t="n">
-        <v>0.1098291154783512</v>
+        <v>0.1060584223734751</v>
       </c>
       <c r="J201" t="n">
-        <v>0.02151273421653259</v>
+        <v>0.02691920728289177</v>
       </c>
       <c r="K201" t="n">
-        <v>0.1076546513331335</v>
+        <v>0.105131971220095</v>
       </c>
       <c r="L201" t="n">
-        <v>0.04480695491951331</v>
+        <v>0.0458820486504542</v>
       </c>
       <c r="M201" t="n">
-        <v>0.1072683838873125</v>
+        <v>0.1055118755805272</v>
       </c>
       <c r="N201" t="n">
-        <v>0.07585046477957857</v>
+        <v>0.01483008374598267</v>
       </c>
       <c r="O201" t="n">
-        <v>0.09955952784045356</v>
+        <v>0.1060584223734751</v>
       </c>
     </row>
     <row r="202" ht="15" customHeight="1">
       <c r="F202" t="n">
-        <v>0.03179705130127042</v>
+        <v>0.01458352492050498</v>
       </c>
       <c r="G202" t="n">
-        <v>0.1106366825039273</v>
+        <v>0.1068382637144565</v>
       </c>
       <c r="J202" t="n">
-        <v>0.02158542233842152</v>
+        <v>0.0261785495119653</v>
       </c>
       <c r="K202" t="n">
-        <v>0.1084462296517595</v>
+        <v>0.1059050004202428</v>
       </c>
       <c r="L202" t="n">
-        <v>0.04412246397018516</v>
+        <v>0.04449617266879496</v>
       </c>
       <c r="M202" t="n">
-        <v>0.108057122004131</v>
+        <v>0.1062876981950899</v>
       </c>
       <c r="N202" t="n">
-        <v>0.07496327792127283</v>
+        <v>0.01458352492050498</v>
       </c>
       <c r="O202" t="n">
-        <v>0.1002915831922216</v>
+        <v>0.1068382637144565</v>
       </c>
     </row>
     <row r="203" ht="15" customHeight="1">
       <c r="F203" t="n">
-        <v>0.03157118476806035</v>
+        <v>0.01425002140315967</v>
       </c>
       <c r="G203" t="n">
-        <v>0.1114442495295034</v>
+        <v>0.1076181050554379</v>
       </c>
       <c r="J203" t="n">
-        <v>0.02146910830178972</v>
+        <v>0.0251407739912565</v>
       </c>
       <c r="K203" t="n">
-        <v>0.1092378079703855</v>
+        <v>0.1066780296203905</v>
       </c>
       <c r="L203" t="n">
-        <v>0.04379469586299756</v>
+        <v>0.04378637173392674</v>
       </c>
       <c r="M203" t="n">
-        <v>0.1088458601209495</v>
+        <v>0.1070635208096526</v>
       </c>
       <c r="N203" t="n">
-        <v>0.07341725418157391</v>
+        <v>0.01425002140315967</v>
       </c>
       <c r="O203" t="n">
-        <v>0.1010236385439896</v>
+        <v>0.1076181050554379</v>
       </c>
     </row>
     <row r="204" ht="15" customHeight="1">
       <c r="F204" t="n">
-        <v>0.0303483889290781</v>
+        <v>0.01374573236504099</v>
       </c>
       <c r="G204" t="n">
-        <v>0.1122518165550795</v>
+        <v>0.1083979463964194</v>
       </c>
       <c r="J204" t="n">
-        <v>0.0214644491010877</v>
+        <v>0.0240150370228697</v>
       </c>
       <c r="K204" t="n">
-        <v>0.1100293862890115</v>
+        <v>0.1074510588205383</v>
       </c>
       <c r="L204" t="n">
-        <v>0.04372669436998294</v>
+        <v>0.04265599928301994</v>
       </c>
       <c r="M204" t="n">
-        <v>0.109634598237768</v>
+        <v>0.1078393434242153</v>
       </c>
       <c r="N204" t="n">
-        <v>0.07242097614056969</v>
+        <v>0.01374573236504099</v>
       </c>
       <c r="O204" t="n">
-        <v>0.1017556938957577</v>
+        <v>0.1083979463964194</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1">
       <c r="F205" t="n">
-        <v>0.0311230613003886</v>
+        <v>0.01298681697724317</v>
       </c>
       <c r="G205" t="n">
-        <v>0.1130593835806556</v>
+        <v>0.1091777877374008</v>
       </c>
       <c r="J205" t="n">
-        <v>0.02166446285843994</v>
+        <v>0.02261049490890912</v>
       </c>
       <c r="K205" t="n">
-        <v>0.1108209646076375</v>
+        <v>0.108224088020686</v>
       </c>
       <c r="L205" t="n">
-        <v>0.0432814521982148</v>
+        <v>0.04200840875324524</v>
       </c>
       <c r="M205" t="n">
-        <v>0.1104233363545864</v>
+        <v>0.108615166038778</v>
       </c>
       <c r="N205" t="n">
-        <v>0.07098302637834775</v>
+        <v>0.01298681697724317</v>
       </c>
       <c r="O205" t="n">
-        <v>0.1024877492475257</v>
+        <v>0.1091777877374008</v>
       </c>
     </row>
     <row r="206" ht="15" customHeight="1">
       <c r="F206" t="n">
-        <v>0.03289228400528034</v>
+        <v>0.01258943441086049</v>
       </c>
       <c r="G206" t="n">
-        <v>0.1138669506062317</v>
+        <v>0.1099576290783822</v>
       </c>
       <c r="J206" t="n">
-        <v>0.02156454183301185</v>
+        <v>0.02203630395147912</v>
       </c>
       <c r="K206" t="n">
-        <v>0.1116125429262634</v>
+        <v>0.1089971172208338</v>
       </c>
       <c r="L206" t="n">
-        <v>0.04333780977268564</v>
+        <v>0.04134695358177304</v>
       </c>
       <c r="M206" t="n">
-        <v>0.1112120744714049</v>
+        <v>0.1093909886533407</v>
       </c>
       <c r="N206" t="n">
-        <v>0.07021198747499602</v>
+        <v>0.01258943441086049</v>
       </c>
       <c r="O206" t="n">
-        <v>0.1032198045992938</v>
+        <v>0.1099576290783822</v>
       </c>
     </row>
     <row r="207" ht="15" customHeight="1">
       <c r="F207" t="n">
-        <v>0.03065608116269974</v>
+        <v>0.01176974383698716</v>
       </c>
       <c r="G207" t="n">
-        <v>0.1146745176318078</v>
+        <v>0.1107374704193637</v>
       </c>
       <c r="J207" t="n">
-        <v>0.02166474395394739</v>
+        <v>0.02110162045268391</v>
       </c>
       <c r="K207" t="n">
-        <v>0.1124041212448894</v>
+        <v>0.1097701464209815</v>
       </c>
       <c r="L207" t="n">
-        <v>0.04319585331668824</v>
+        <v>0.04017498720577384</v>
       </c>
       <c r="M207" t="n">
-        <v>0.1120008125882234</v>
+        <v>0.1101668112679034</v>
       </c>
       <c r="N207" t="n">
-        <v>0.06911644201060196</v>
+        <v>0.01176974383698716</v>
       </c>
       <c r="O207" t="n">
-        <v>0.1039518599510618</v>
+        <v>0.1107374704193637</v>
       </c>
     </row>
     <row r="208" ht="15" customHeight="1">
       <c r="F208" t="n">
-        <v>0.0304144768915932</v>
+        <v>0.01124390442671745</v>
       </c>
       <c r="G208" t="n">
-        <v>0.115482084657384</v>
+        <v>0.1115173117603451</v>
       </c>
       <c r="J208" t="n">
-        <v>0.02156512715039051</v>
+        <v>0.0201156007146277</v>
       </c>
       <c r="K208" t="n">
-        <v>0.1131956995635154</v>
+        <v>0.1105431756211293</v>
       </c>
       <c r="L208" t="n">
-        <v>0.04285566905351534</v>
+        <v>0.03879586306241806</v>
       </c>
       <c r="M208" t="n">
-        <v>0.1127895507050418</v>
+        <v>0.1109426338824661</v>
       </c>
       <c r="N208" t="n">
-        <v>0.06840497256525369</v>
+        <v>0.01124390442671745</v>
       </c>
       <c r="O208" t="n">
-        <v>0.1046839153028298</v>
+        <v>0.1115173117603451</v>
       </c>
     </row>
     <row r="209" ht="15" customHeight="1">
       <c r="F209" t="n">
-        <v>0.03116749531090715</v>
+        <v>0.01052807535114564</v>
       </c>
       <c r="G209" t="n">
-        <v>0.1162896516829601</v>
+        <v>0.1122971531013265</v>
       </c>
       <c r="J209" t="n">
-        <v>0.02146574935148515</v>
+        <v>0.01928740103941487</v>
       </c>
       <c r="K209" t="n">
-        <v>0.1139872778821414</v>
+        <v>0.1113162048212771</v>
       </c>
       <c r="L209" t="n">
-        <v>0.04271734320645978</v>
+        <v>0.03811293458887627</v>
       </c>
       <c r="M209" t="n">
-        <v>0.1135782888218603</v>
+        <v>0.1117184564970288</v>
       </c>
       <c r="N209" t="n">
-        <v>0.06778616171903862</v>
+        <v>0.01052807535114564</v>
       </c>
       <c r="O209" t="n">
-        <v>0.1054159706545979</v>
+        <v>0.1122971531013265</v>
       </c>
     </row>
     <row r="210" ht="15" customHeight="1">
       <c r="F210" t="n">
-        <v>0.02891516053958799</v>
+        <v>0.0100384157813659</v>
       </c>
       <c r="G210" t="n">
-        <v>0.1170972187085362</v>
+        <v>0.113076994442308</v>
       </c>
       <c r="J210" t="n">
-        <v>0.02156666848637528</v>
+        <v>0.01872617772914975</v>
       </c>
       <c r="K210" t="n">
-        <v>0.1147788562007674</v>
+        <v>0.1120892340214248</v>
       </c>
       <c r="L210" t="n">
-        <v>0.0421809619988143</v>
+        <v>0.03702955522231904</v>
       </c>
       <c r="M210" t="n">
-        <v>0.1143670269386788</v>
+        <v>0.1124942791115915</v>
       </c>
       <c r="N210" t="n">
-        <v>0.06776859205204466</v>
+        <v>0.0100384157813659</v>
       </c>
       <c r="O210" t="n">
-        <v>0.1061480260063659</v>
+        <v>0.113076994442308</v>
       </c>
     </row>
     <row r="211" ht="15" customHeight="1">
       <c r="F211" t="n">
-        <v>0.02865749669658217</v>
+        <v>0.009391084888472512</v>
       </c>
       <c r="G211" t="n">
-        <v>0.1179047857341123</v>
+        <v>0.1138568357832894</v>
       </c>
       <c r="J211" t="n">
-        <v>0.02166794248420482</v>
+        <v>0.01774108708593639</v>
       </c>
       <c r="K211" t="n">
-        <v>0.1155704345193933</v>
+        <v>0.1128622632215726</v>
       </c>
       <c r="L211" t="n">
-        <v>0.04194661165387173</v>
+        <v>0.03564907839991682</v>
       </c>
       <c r="M211" t="n">
-        <v>0.1151557650554973</v>
+        <v>0.1132701017261542</v>
       </c>
       <c r="N211" t="n">
-        <v>0.06676084614435945</v>
+        <v>0.009391084888472512</v>
       </c>
       <c r="O211" t="n">
-        <v>0.106880081358134</v>
+        <v>0.1138568357832894</v>
       </c>
     </row>
     <row r="212" ht="15" customHeight="1">
       <c r="F212" t="n">
-        <v>0.02939452790083606</v>
+        <v>0.00900224184355973</v>
       </c>
       <c r="G212" t="n">
-        <v>0.1187123527596884</v>
+        <v>0.1146366771242708</v>
       </c>
       <c r="J212" t="n">
-        <v>0.02146962927411775</v>
+        <v>0.01703899481350976</v>
       </c>
       <c r="K212" t="n">
-        <v>0.1163620128380193</v>
+        <v>0.1136352924217203</v>
       </c>
       <c r="L212" t="n">
-        <v>0.04201437839492489</v>
+        <v>0.03537485755884001</v>
       </c>
       <c r="M212" t="n">
-        <v>0.1159445031723157</v>
+        <v>0.1140459243407169</v>
       </c>
       <c r="N212" t="n">
-        <v>0.06627150657607089</v>
+        <v>0.00900224184355973</v>
       </c>
       <c r="O212" t="n">
-        <v>0.107612136709902</v>
+        <v>0.1146366771242708</v>
       </c>
     </row>
     <row r="213" ht="15" customHeight="1">
       <c r="F213" t="n">
-        <v>0.02812627827129613</v>
+        <v>0.008488045817721793</v>
       </c>
       <c r="G213" t="n">
-        <v>0.1195199197852645</v>
+        <v>0.1154165184652523</v>
       </c>
       <c r="J213" t="n">
-        <v>0.02167178678525798</v>
+        <v>0.0168645120187359</v>
       </c>
       <c r="K213" t="n">
-        <v>0.1171535911566453</v>
+        <v>0.1144083216218681</v>
       </c>
       <c r="L213" t="n">
-        <v>0.04168434844526653</v>
+        <v>0.03421024613625923</v>
       </c>
       <c r="M213" t="n">
-        <v>0.1167332412891342</v>
+        <v>0.1148217469552796</v>
       </c>
       <c r="N213" t="n">
-        <v>0.06620915592726656</v>
+        <v>0.008488045817721793</v>
       </c>
       <c r="O213" t="n">
-        <v>0.10834419206167</v>
+        <v>0.1154165184652523</v>
       </c>
     </row>
     <row r="214" ht="15" customHeight="1">
       <c r="F214" t="n">
-        <v>0.02885277192690873</v>
+        <v>0.008364655982052938</v>
       </c>
       <c r="G214" t="n">
-        <v>0.1203274868108406</v>
+        <v>0.1161963598062337</v>
       </c>
       <c r="J214" t="n">
-        <v>0.02157447294676948</v>
+        <v>0.01619088550424766</v>
       </c>
       <c r="K214" t="n">
-        <v>0.1179451694752713</v>
+        <v>0.1151813508220158</v>
       </c>
       <c r="L214" t="n">
-        <v>0.04135660802818941</v>
+        <v>0.03335859756934495</v>
       </c>
       <c r="M214" t="n">
-        <v>0.1175219794059527</v>
+        <v>0.1155975695698423</v>
       </c>
       <c r="N214" t="n">
-        <v>0.06568237677803435</v>
+        <v>0.008364655982052938</v>
       </c>
       <c r="O214" t="n">
-        <v>0.1090762474134381</v>
+        <v>0.1161963598062337</v>
       </c>
     </row>
     <row r="215" ht="15" customHeight="1">
       <c r="F215" t="n">
-        <v>0.02757403298662033</v>
+        <v>0.00794823150764741</v>
       </c>
       <c r="G215" t="n">
-        <v>0.1211350538364167</v>
+        <v>0.1169762011472151</v>
       </c>
       <c r="J215" t="n">
-        <v>0.0214777456877962</v>
+        <v>0.01541850128626263</v>
       </c>
       <c r="K215" t="n">
-        <v>0.1187367477938973</v>
+        <v>0.1159543800221636</v>
       </c>
       <c r="L215" t="n">
-        <v>0.04133124336698635</v>
+        <v>0.03222326529526753</v>
       </c>
       <c r="M215" t="n">
-        <v>0.1183107175227712</v>
+        <v>0.116373392184405</v>
       </c>
       <c r="N215" t="n">
-        <v>0.06607156142565707</v>
+        <v>0.00794823150764741</v>
       </c>
       <c r="O215" t="n">
-        <v>0.1098083027652061</v>
+        <v>0.1169762011472151</v>
       </c>
     </row>
     <row r="216" ht="15" customHeight="1">
       <c r="F216" t="n">
-        <v>0.02929008556937732</v>
+        <v>0.007919220622243331</v>
       </c>
       <c r="G216" t="n">
-        <v>0.1219426208619928</v>
+        <v>0.1177560424881966</v>
       </c>
       <c r="J216" t="n">
-        <v>0.02148166293748209</v>
+        <v>0.01494774538099852</v>
       </c>
       <c r="K216" t="n">
-        <v>0.1195283261125233</v>
+        <v>0.1167274092223114</v>
       </c>
       <c r="L216" t="n">
-        <v>0.04110834068495012</v>
+        <v>0.03100760275119768</v>
       </c>
       <c r="M216" t="n">
-        <v>0.1190994556395896</v>
+        <v>0.1171492147989677</v>
       </c>
       <c r="N216" t="n">
-        <v>0.06567208195386126</v>
+        <v>0.007919220622243331</v>
       </c>
       <c r="O216" t="n">
-        <v>0.1105403581169742</v>
+        <v>0.1177560424881966</v>
       </c>
     </row>
     <row r="217" ht="15" customHeight="1">
       <c r="F217" t="n">
-        <v>0.03000095379412611</v>
+        <v>0.007896986028822592</v>
       </c>
       <c r="G217" t="n">
-        <v>0.1227501878875689</v>
+        <v>0.118535883829178</v>
       </c>
       <c r="J217" t="n">
-        <v>0.0215862826249711</v>
+        <v>0.01427900380467303</v>
       </c>
       <c r="K217" t="n">
-        <v>0.1203199044311493</v>
+        <v>0.1175004384224591</v>
       </c>
       <c r="L217" t="n">
-        <v>0.04068798620537353</v>
+        <v>0.03031496337430584</v>
       </c>
       <c r="M217" t="n">
-        <v>0.1198881937564081</v>
+        <v>0.1179250374135304</v>
       </c>
       <c r="N217" t="n">
-        <v>0.06597386987563519</v>
+        <v>0.007896986028822592</v>
       </c>
       <c r="O217" t="n">
-        <v>0.1112724134687422</v>
+        <v>0.118535883829178</v>
       </c>
     </row>
     <row r="218" ht="15" customHeight="1">
       <c r="F218" t="n">
-        <v>0.02770666177981311</v>
+        <v>0.007777538657722904</v>
       </c>
       <c r="G218" t="n">
-        <v>0.1235577549131451</v>
+        <v>0.1193157251701595</v>
       </c>
       <c r="J218" t="n">
-        <v>0.02159166267940717</v>
+        <v>0.01371266257350373</v>
       </c>
       <c r="K218" t="n">
-        <v>0.1211114827497752</v>
+        <v>0.1182734676226069</v>
       </c>
       <c r="L218" t="n">
-        <v>0.04077026615154941</v>
+        <v>0.02954870060176235</v>
       </c>
       <c r="M218" t="n">
-        <v>0.1206769318732266</v>
+        <v>0.1187008600280931</v>
       </c>
       <c r="N218" t="n">
-        <v>0.06617770994538213</v>
+        <v>0.007777538657722904</v>
       </c>
       <c r="O218" t="n">
-        <v>0.1120044688205103</v>
+        <v>0.1193157251701595</v>
       </c>
     </row>
     <row r="219" ht="15" customHeight="1">
       <c r="F219" t="n">
-        <v>0.02640723364538479</v>
+        <v>0.007660869310211815</v>
       </c>
       <c r="G219" t="n">
-        <v>0.1243653219387212</v>
+        <v>0.1200955665111409</v>
       </c>
       <c r="J219" t="n">
-        <v>0.02159786102993425</v>
+        <v>0.01294910770370833</v>
       </c>
       <c r="K219" t="n">
-        <v>0.1219030610684012</v>
+        <v>0.1190464968227546</v>
       </c>
       <c r="L219" t="n">
-        <v>0.04035526674677042</v>
+        <v>0.02841216787073797</v>
       </c>
       <c r="M219" t="n">
-        <v>0.1214656699900451</v>
+        <v>0.1194766826426558</v>
       </c>
       <c r="N219" t="n">
-        <v>0.06628438691750549</v>
+        <v>0.007660869310211815</v>
       </c>
       <c r="O219" t="n">
-        <v>0.1127365241722783</v>
+        <v>0.1200955665111409</v>
       </c>
     </row>
     <row r="220" ht="15" customHeight="1">
       <c r="F220" t="n">
-        <v>0.02910269350978752</v>
+        <v>0.007546968787556979</v>
       </c>
       <c r="G220" t="n">
-        <v>0.1251728889642973</v>
+        <v>0.1208754078521223</v>
       </c>
       <c r="J220" t="n">
-        <v>0.02150493560569627</v>
+        <v>0.01258872521150436</v>
       </c>
       <c r="K220" t="n">
-        <v>0.1226946393870272</v>
+        <v>0.1198195260229024</v>
       </c>
       <c r="L220" t="n">
-        <v>0.04024307421432949</v>
+        <v>0.02760871861840297</v>
       </c>
       <c r="M220" t="n">
-        <v>0.1222544081068635</v>
+        <v>0.1202525052572185</v>
       </c>
       <c r="N220" t="n">
-        <v>0.06579468554640838</v>
+        <v>0.007546968787556979</v>
       </c>
       <c r="O220" t="n">
-        <v>0.1134685795240463</v>
+        <v>0.1208754078521223</v>
       </c>
     </row>
     <row r="221" ht="15" customHeight="1">
       <c r="F221" t="n">
-        <v>0.02879306549196771</v>
+        <v>0.007435827891025926</v>
       </c>
       <c r="G221" t="n">
-        <v>0.1259804559898734</v>
+        <v>0.1216552491931037</v>
       </c>
       <c r="J221" t="n">
-        <v>0.02151294433583723</v>
+        <v>0.01233190111310958</v>
       </c>
       <c r="K221" t="n">
-        <v>0.1234862177056532</v>
+        <v>0.1205925552230501</v>
       </c>
       <c r="L221" t="n">
-        <v>0.04013377477751934</v>
+        <v>0.02743779633551535</v>
       </c>
       <c r="M221" t="n">
-        <v>0.123043146223682</v>
+        <v>0.1210283278717812</v>
       </c>
       <c r="N221" t="n">
-        <v>0.06600939058649419</v>
+        <v>0.007435827891025926</v>
       </c>
       <c r="O221" t="n">
-        <v>0.1142006348758144</v>
+        <v>0.1216552491931037</v>
       </c>
     </row>
     <row r="222" ht="15" customHeight="1">
       <c r="F222" t="n">
-        <v>0.02647837371087179</v>
+        <v>0.00732743742188624</v>
       </c>
       <c r="G222" t="n">
-        <v>0.1267880230154495</v>
+        <v>0.1224350905340852</v>
       </c>
       <c r="J222" t="n">
-        <v>0.02162194514950103</v>
+        <v>0.01137902142474159</v>
       </c>
       <c r="K222" t="n">
-        <v>0.1242777960242792</v>
+        <v>0.1213655844231979</v>
       </c>
       <c r="L222" t="n">
-        <v>0.03982745465963278</v>
+        <v>0.02637485607408657</v>
       </c>
       <c r="M222" t="n">
-        <v>0.1238318843405005</v>
+        <v>0.1218041504863439</v>
       </c>
       <c r="N222" t="n">
-        <v>0.06642928679216625</v>
+        <v>0.00732743742188624</v>
       </c>
       <c r="O222" t="n">
-        <v>0.1149326902275824</v>
+        <v>0.1224350905340852</v>
       </c>
     </row>
     <row r="223" ht="15" customHeight="1">
       <c r="F223" t="n">
-        <v>0.02815864228544618</v>
+        <v>0.007121788181405533</v>
       </c>
       <c r="G223" t="n">
-        <v>0.1275955900410256</v>
+        <v>0.1232149318750666</v>
       </c>
       <c r="J223" t="n">
-        <v>0.02163199597583162</v>
+        <v>0.0112304721626181</v>
       </c>
       <c r="K223" t="n">
-        <v>0.1250693743429051</v>
+        <v>0.1221386136233456</v>
       </c>
       <c r="L223" t="n">
-        <v>0.03922420008396255</v>
+        <v>0.02581509403476068</v>
       </c>
       <c r="M223" t="n">
-        <v>0.124620622457319</v>
+        <v>0.1225799731009066</v>
       </c>
       <c r="N223" t="n">
-        <v>0.06635515891782778</v>
+        <v>0.007121788181405533</v>
       </c>
       <c r="O223" t="n">
-        <v>0.1156647455793504</v>
+        <v>0.1232149318750666</v>
       </c>
     </row>
     <row r="224" ht="15" customHeight="1">
       <c r="F224" t="n">
-        <v>0.0248338953346373</v>
+        <v>0.007118870970851399</v>
       </c>
       <c r="G224" t="n">
-        <v>0.1284031570666017</v>
+        <v>0.1239947732160481</v>
       </c>
       <c r="J224" t="n">
-        <v>0.02174315474397299</v>
+        <v>0.01018663934295669</v>
       </c>
       <c r="K224" t="n">
-        <v>0.1258609526615311</v>
+        <v>0.1229116428234934</v>
       </c>
       <c r="L224" t="n">
-        <v>0.0394240972738015</v>
+        <v>0.02515859947319576</v>
       </c>
       <c r="M224" t="n">
-        <v>0.1254093605741375</v>
+        <v>0.1233557957154693</v>
       </c>
       <c r="N224" t="n">
-        <v>0.06638779171788212</v>
+        <v>0.007118870970851399</v>
       </c>
       <c r="O224" t="n">
-        <v>0.1163968009311185</v>
+        <v>0.1239947732160481</v>
       </c>
     </row>
     <row r="225" ht="15" customHeight="1">
       <c r="F225" t="n">
-        <v>0.02650415697739153</v>
+        <v>0.006918676591491396</v>
       </c>
       <c r="G225" t="n">
-        <v>0.1292107240921778</v>
+        <v>0.1247746145570295</v>
       </c>
       <c r="J225" t="n">
-        <v>0.02155547938306905</v>
+        <v>0.009647908981974984</v>
       </c>
       <c r="K225" t="n">
-        <v>0.1266525309801571</v>
+        <v>0.1236846720236412</v>
       </c>
       <c r="L225" t="n">
-        <v>0.03932723245244238</v>
+        <v>0.02450546164505057</v>
       </c>
       <c r="M225" t="n">
-        <v>0.1261980986909559</v>
+        <v>0.124131618330032</v>
       </c>
       <c r="N225" t="n">
-        <v>0.06662796994673253</v>
+        <v>0.006918676591491396</v>
       </c>
       <c r="O225" t="n">
-        <v>0.1171288562828865</v>
+        <v>0.1247746145570295</v>
       </c>
     </row>
     <row r="226" ht="15" customHeight="1">
       <c r="F226" t="n">
-        <v>0.02616945133265533</v>
+        <v>0.006821195844593134</v>
       </c>
       <c r="G226" t="n">
-        <v>0.130018291117754</v>
+        <v>0.1255544558980109</v>
       </c>
       <c r="J226" t="n">
-        <v>0.02166902782226376</v>
+        <v>0.009314667095890766</v>
       </c>
       <c r="K226" t="n">
-        <v>0.1274441092987831</v>
+        <v>0.1244577012237889</v>
       </c>
       <c r="L226" t="n">
-        <v>0.03913369184317803</v>
+        <v>0.02345576980598346</v>
       </c>
       <c r="M226" t="n">
-        <v>0.1269868368077744</v>
+        <v>0.1249074409445947</v>
       </c>
       <c r="N226" t="n">
-        <v>0.0658764783587823</v>
+        <v>0.006821195844593134</v>
       </c>
       <c r="O226" t="n">
-        <v>0.1178609116346546</v>
+        <v>0.1255544558980109</v>
       </c>
     </row>
     <row r="227" ht="15" customHeight="1">
       <c r="F227" t="n">
-        <v>0.02482980251937508</v>
+        <v>0.006826419531424169</v>
       </c>
       <c r="G227" t="n">
-        <v>0.1308258581433301</v>
+        <v>0.1263342972389924</v>
       </c>
       <c r="J227" t="n">
-        <v>0.02178385799070108</v>
+        <v>0.00858729970092148</v>
       </c>
       <c r="K227" t="n">
-        <v>0.1282356876174091</v>
+        <v>0.1252307304239367</v>
       </c>
       <c r="L227" t="n">
-        <v>0.03884356166930117</v>
+        <v>0.02290961321165297</v>
       </c>
       <c r="M227" t="n">
-        <v>0.1277755749245929</v>
+        <v>0.1256832635591574</v>
       </c>
       <c r="N227" t="n">
-        <v>0.06593410170843478</v>
+        <v>0.006826419531424169</v>
       </c>
       <c r="O227" t="n">
-        <v>0.1185929669864226</v>
+        <v>0.1263342972389924</v>
       </c>
     </row>
     <row r="228" ht="15" customHeight="1">
       <c r="F228" t="n">
-        <v>0.02548523465649725</v>
+        <v>0.006634338453252134</v>
       </c>
       <c r="G228" t="n">
-        <v>0.1316334251689062</v>
+        <v>0.1271141385799738</v>
       </c>
       <c r="J228" t="n">
-        <v>0.02160002781752493</v>
+        <v>0.008166192813284956</v>
       </c>
       <c r="K228" t="n">
-        <v>0.1290272659360351</v>
+        <v>0.1260037596240844</v>
       </c>
       <c r="L228" t="n">
-        <v>0.03845692815410465</v>
+        <v>0.02156708111771732</v>
       </c>
       <c r="M228" t="n">
-        <v>0.1285643130414113</v>
+        <v>0.1264590861737201</v>
       </c>
       <c r="N228" t="n">
-        <v>0.06660162475009329</v>
+        <v>0.006634338453252134</v>
       </c>
       <c r="O228" t="n">
-        <v>0.1193250223381907</v>
+        <v>0.1271141385799738</v>
       </c>
     </row>
     <row r="229" ht="15" customHeight="1">
       <c r="F229" t="n">
-        <v>0.02313577186296818</v>
+        <v>0.006444943411344578</v>
       </c>
       <c r="G229" t="n">
-        <v>0.1324409921944823</v>
+        <v>0.1278939799209552</v>
       </c>
       <c r="J229" t="n">
-        <v>0.02171759523187929</v>
+        <v>0.007851732449198762</v>
       </c>
       <c r="K229" t="n">
-        <v>0.129818844254661</v>
+        <v>0.1267767888242322</v>
       </c>
       <c r="L229" t="n">
-        <v>0.03837387752088114</v>
+        <v>0.02142826277983517</v>
       </c>
       <c r="M229" t="n">
-        <v>0.1293530511582298</v>
+        <v>0.1272349087882828</v>
       </c>
       <c r="N229" t="n">
-        <v>0.066579832238161</v>
+        <v>0.006444943411344578</v>
       </c>
       <c r="O229" t="n">
-        <v>0.1200570776899587</v>
+        <v>0.1278939799209552</v>
       </c>
     </row>
     <row r="230" ht="15" customHeight="1">
       <c r="F230" t="n">
-        <v>0.02478143825773435</v>
+        <v>0.006458225206969093</v>
       </c>
       <c r="G230" t="n">
-        <v>0.1332485592200584</v>
+        <v>0.1286738212619367</v>
       </c>
       <c r="J230" t="n">
-        <v>0.02163661816290807</v>
+        <v>0.007444304624880604</v>
       </c>
       <c r="K230" t="n">
-        <v>0.130610422573287</v>
+        <v>0.12754981802438</v>
       </c>
       <c r="L230" t="n">
-        <v>0.03829449599292364</v>
+        <v>0.02059324745366486</v>
       </c>
       <c r="M230" t="n">
-        <v>0.1301417892750483</v>
+        <v>0.1280107314028455</v>
       </c>
       <c r="N230" t="n">
-        <v>0.06626950892704131</v>
+        <v>0.006458225206969093</v>
       </c>
       <c r="O230" t="n">
-        <v>0.1207891330417267</v>
+        <v>0.1286738212619367</v>
       </c>
     </row>
     <row r="231" ht="15" customHeight="1">
       <c r="F231" t="n">
-        <v>0.02542225795974215</v>
+        <v>0.006374174641393296</v>
       </c>
       <c r="G231" t="n">
-        <v>0.1340561262456345</v>
+        <v>0.1294536626029181</v>
       </c>
       <c r="J231" t="n">
-        <v>0.02185715453975527</v>
+        <v>0.006744295356547997</v>
       </c>
       <c r="K231" t="n">
-        <v>0.131402000891913</v>
+        <v>0.1283228472245277</v>
       </c>
       <c r="L231" t="n">
-        <v>0.03771886979352476</v>
+        <v>0.01986212439486501</v>
       </c>
       <c r="M231" t="n">
-        <v>0.1309305273918668</v>
+        <v>0.1287865540174082</v>
       </c>
       <c r="N231" t="n">
-        <v>0.0668714395711375</v>
+        <v>0.006374174641393296</v>
       </c>
       <c r="O231" t="n">
-        <v>0.1215211883934948</v>
+        <v>0.1294536626029181</v>
       </c>
     </row>
     <row r="232" ht="15" customHeight="1">
       <c r="F232" t="n">
-        <v>0.02205825508793799</v>
+        <v>0.006192782515884732</v>
       </c>
       <c r="G232" t="n">
-        <v>0.1348636932712106</v>
+        <v>0.1302335039438995</v>
       </c>
       <c r="J232" t="n">
-        <v>0.0218792622915648</v>
+        <v>0.00605209066041873</v>
       </c>
       <c r="K232" t="n">
-        <v>0.132193579210539</v>
+        <v>0.1290958764246755</v>
       </c>
       <c r="L232" t="n">
-        <v>0.03784708514597734</v>
+        <v>0.01933498285909369</v>
       </c>
       <c r="M232" t="n">
-        <v>0.1317192655086853</v>
+        <v>0.1295623766319709</v>
       </c>
       <c r="N232" t="n">
-        <v>0.0664864089248528</v>
+        <v>0.006192782515884732</v>
       </c>
       <c r="O232" t="n">
-        <v>0.1222532437452628</v>
+        <v>0.1302335039438995</v>
       </c>
     </row>
     <row r="233" ht="15" customHeight="1">
       <c r="F233" t="n">
-        <v>0.02368945376126828</v>
+        <v>0.006114039631710991</v>
       </c>
       <c r="G233" t="n">
-        <v>0.1356712602967867</v>
+        <v>0.131013345284881</v>
       </c>
       <c r="J233" t="n">
-        <v>0.02190299934748062</v>
+        <v>0.005968076552710366</v>
       </c>
       <c r="K233" t="n">
-        <v>0.132985157529165</v>
+        <v>0.1298689056248232</v>
       </c>
       <c r="L233" t="n">
-        <v>0.03787922827357418</v>
+        <v>0.01861191210200974</v>
       </c>
       <c r="M233" t="n">
-        <v>0.1325080036255037</v>
+        <v>0.1303381992465336</v>
       </c>
       <c r="N233" t="n">
-        <v>0.06671520174259055</v>
+        <v>0.006114039631710991</v>
       </c>
       <c r="O233" t="n">
-        <v>0.1229852990970309</v>
+        <v>0.131013345284881</v>
       </c>
     </row>
     <row r="234" ht="15" customHeight="1">
       <c r="F234" t="n">
-        <v>0.02431587809867945</v>
+        <v>0.006137936790139686</v>
       </c>
       <c r="G234" t="n">
-        <v>0.1364788273223629</v>
+        <v>0.1317931866258624</v>
       </c>
       <c r="J234" t="n">
-        <v>0.02192842363664668</v>
+        <v>0.005192639049640624</v>
       </c>
       <c r="K234" t="n">
-        <v>0.1337767358477909</v>
+        <v>0.130641934824971</v>
       </c>
       <c r="L234" t="n">
-        <v>0.03751538539960805</v>
+        <v>0.01759300137927144</v>
       </c>
       <c r="M234" t="n">
-        <v>0.1332967417423222</v>
+        <v>0.1311140218610963</v>
       </c>
       <c r="N234" t="n">
-        <v>0.06695860277875398</v>
+        <v>0.006137936790139686</v>
       </c>
       <c r="O234" t="n">
-        <v>0.1237173544487989</v>
+        <v>0.1317931866258624</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1">
       <c r="F235" t="n">
-        <v>0.02293755221911793</v>
+        <v>0.005964464792438395</v>
       </c>
       <c r="G235" t="n">
-        <v>0.137286394347939</v>
+        <v>0.1325730279668438</v>
       </c>
       <c r="J235" t="n">
-        <v>0.02195559308820692</v>
+        <v>0.004826164167427094</v>
       </c>
       <c r="K235" t="n">
-        <v>0.1345683141664169</v>
+        <v>0.1314149640251187</v>
       </c>
       <c r="L235" t="n">
-        <v>0.03715564274737176</v>
+        <v>0.01697833994653736</v>
       </c>
       <c r="M235" t="n">
-        <v>0.1340854798591407</v>
+        <v>0.131889844475659</v>
       </c>
       <c r="N235" t="n">
-        <v>0.06751739678774654</v>
+        <v>0.005964464792438395</v>
       </c>
       <c r="O235" t="n">
-        <v>0.124449409800567</v>
+        <v>0.1325730279668438</v>
       </c>
     </row>
     <row r="236" ht="15" customHeight="1">
       <c r="F236" t="n">
-        <v>0.02355450024153009</v>
+        <v>0.005893614439874711</v>
       </c>
       <c r="G236" t="n">
-        <v>0.1380939613735151</v>
+        <v>0.1333528693078253</v>
       </c>
       <c r="J236" t="n">
-        <v>0.02198456563130531</v>
+        <v>0.0041690379222874</v>
       </c>
       <c r="K236" t="n">
-        <v>0.1353598924850429</v>
+        <v>0.1321879932252665</v>
       </c>
       <c r="L236" t="n">
-        <v>0.03710008654015817</v>
+        <v>0.01586801705946567</v>
       </c>
       <c r="M236" t="n">
-        <v>0.1348742179759591</v>
+        <v>0.1326656670902217</v>
       </c>
       <c r="N236" t="n">
-        <v>0.06759236852397138</v>
+        <v>0.005893614439874711</v>
       </c>
       <c r="O236" t="n">
-        <v>0.125181465152335</v>
+        <v>0.1333528693078253</v>
       </c>
     </row>
     <row r="237" ht="15" customHeight="1">
       <c r="F237" t="n">
-        <v>0.0201667462848624</v>
+        <v>0.006025376533716209</v>
       </c>
       <c r="G237" t="n">
-        <v>0.1389015283990912</v>
+        <v>0.1341327106488067</v>
       </c>
       <c r="J237" t="n">
-        <v>0.02201539919508577</v>
+        <v>0.003721646330439282</v>
       </c>
       <c r="K237" t="n">
-        <v>0.1361514708036689</v>
+        <v>0.1329610224254142</v>
       </c>
       <c r="L237" t="n">
-        <v>0.03714880300125992</v>
+        <v>0.01506212197371509</v>
       </c>
       <c r="M237" t="n">
-        <v>0.1356629560927776</v>
+        <v>0.1334414897047844</v>
       </c>
       <c r="N237" t="n">
-        <v>0.06718430274183179</v>
+        <v>0.006025376533716209</v>
       </c>
       <c r="O237" t="n">
-        <v>0.125913520504103</v>
+        <v>0.1341327106488067</v>
       </c>
     </row>
     <row r="238" ht="15" customHeight="1">
       <c r="F238" t="n">
-        <v>0.02277431446806123</v>
+        <v>0.005759741875230442</v>
       </c>
       <c r="G238" t="n">
-        <v>0.1397090954246673</v>
+        <v>0.1349125519897881</v>
       </c>
       <c r="J238" t="n">
-        <v>0.02194815170869227</v>
+        <v>0.003284375408100282</v>
       </c>
       <c r="K238" t="n">
-        <v>0.1369430491222949</v>
+        <v>0.133734051625562</v>
       </c>
       <c r="L238" t="n">
-        <v>0.03690187835396985</v>
+        <v>0.01466074394494393</v>
       </c>
       <c r="M238" t="n">
-        <v>0.1364516942095961</v>
+        <v>0.1342173123193471</v>
       </c>
       <c r="N238" t="n">
-        <v>0.06749398419573127</v>
+        <v>0.005759741875230442</v>
       </c>
       <c r="O238" t="n">
-        <v>0.1266455758558711</v>
+        <v>0.1349125519897881</v>
       </c>
     </row>
     <row r="239" ht="15" customHeight="1">
       <c r="F239" t="n">
-        <v>0.02237722891007304</v>
+        <v>0.005696701265685056</v>
       </c>
       <c r="G239" t="n">
-        <v>0.1405166624502434</v>
+        <v>0.1356923933307696</v>
       </c>
       <c r="J239" t="n">
-        <v>0.02188288110126874</v>
+        <v>0.002857611171488167</v>
       </c>
       <c r="K239" t="n">
-        <v>0.1377346274409209</v>
+        <v>0.1345070808257098</v>
       </c>
       <c r="L239" t="n">
-        <v>0.03645939882158081</v>
+        <v>0.01386397222881075</v>
       </c>
       <c r="M239" t="n">
-        <v>0.1372404323264146</v>
+        <v>0.1349931349339098</v>
       </c>
       <c r="N239" t="n">
-        <v>0.06792219764007285</v>
+        <v>0.005696701265685056</v>
       </c>
       <c r="O239" t="n">
-        <v>0.1273776312076391</v>
+        <v>0.1356923933307696</v>
       </c>
     </row>
     <row r="240" ht="15" customHeight="1">
       <c r="F240" t="n">
-        <v>0.01997551372984421</v>
+        <v>0.005636245506347615</v>
       </c>
       <c r="G240" t="n">
-        <v>0.1413242294758195</v>
+        <v>0.136472234671751</v>
       </c>
       <c r="J240" t="n">
-        <v>0.02191964530195915</v>
+        <v>0.002941739636820484</v>
       </c>
       <c r="K240" t="n">
-        <v>0.1385262057595468</v>
+        <v>0.1352801100258575</v>
       </c>
       <c r="L240" t="n">
-        <v>0.03672145062738555</v>
+        <v>0.01307189608097392</v>
       </c>
       <c r="M240" t="n">
-        <v>0.138029170443233</v>
+        <v>0.1357689575484725</v>
       </c>
       <c r="N240" t="n">
-        <v>0.06856972782925991</v>
+        <v>0.005636245506347615</v>
       </c>
       <c r="O240" t="n">
-        <v>0.1281096865594071</v>
+        <v>0.136472234671751</v>
       </c>
     </row>
     <row r="241" ht="15" customHeight="1">
       <c r="F241" t="n">
-        <v>0.01856919304632117</v>
+        <v>0.005678365398485707</v>
       </c>
       <c r="G241" t="n">
-        <v>0.1421317965013956</v>
+        <v>0.1372520760127325</v>
       </c>
       <c r="J241" t="n">
-        <v>0.02195850223990743</v>
+        <v>0.002337146820314939</v>
       </c>
       <c r="K241" t="n">
-        <v>0.1393177840781728</v>
+        <v>0.1360531392260053</v>
       </c>
       <c r="L241" t="n">
-        <v>0.03618811999467683</v>
+        <v>0.01268460475709182</v>
       </c>
       <c r="M241" t="n">
-        <v>0.1388179085600515</v>
+        <v>0.1365447801630352</v>
       </c>
       <c r="N241" t="n">
-        <v>0.06863735951769578</v>
+        <v>0.005678365398485707</v>
       </c>
       <c r="O241" t="n">
-        <v>0.1288417419111752</v>
+        <v>0.1372520760127325</v>
       </c>
     </row>
     <row r="242" ht="15" customHeight="1">
       <c r="F242" t="n">
-        <v>0.02015829097845033</v>
+        <v>0.005723051743366903</v>
       </c>
       <c r="G242" t="n">
-        <v>0.1429393635269717</v>
+        <v>0.1380319173537139</v>
       </c>
       <c r="J242" t="n">
-        <v>0.02199950984425754</v>
+        <v>0.001744218738189141</v>
       </c>
       <c r="K242" t="n">
-        <v>0.1401093623967988</v>
+        <v>0.1368261684261531</v>
       </c>
       <c r="L242" t="n">
-        <v>0.03625949314674748</v>
+        <v>0.0116021875128231</v>
       </c>
       <c r="M242" t="n">
-        <v>0.13960664667687</v>
+        <v>0.1373206027775979</v>
       </c>
       <c r="N242" t="n">
-        <v>0.06872587745978381</v>
+        <v>0.005723051743366903</v>
       </c>
       <c r="O242" t="n">
-        <v>0.1295737972629432</v>
+        <v>0.1380319173537139</v>
       </c>
     </row>
     <row r="243" ht="15" customHeight="1">
       <c r="F243" t="n">
-        <v>0.01774283164517809</v>
+        <v>0.005570295342258794</v>
       </c>
       <c r="G243" t="n">
-        <v>0.1437469305525479</v>
+        <v>0.1388117586946953</v>
       </c>
       <c r="J243" t="n">
-        <v>0.02224272604415344</v>
+        <v>0.001363341406660806</v>
       </c>
       <c r="K243" t="n">
-        <v>0.1409009407154248</v>
+        <v>0.1375991976263008</v>
       </c>
       <c r="L243" t="n">
-        <v>0.03613565630689028</v>
+        <v>0.01152473360382611</v>
       </c>
       <c r="M243" t="n">
-        <v>0.1403953847936885</v>
+        <v>0.1380964253921605</v>
       </c>
       <c r="N243" t="n">
-        <v>0.06883606640992718</v>
+        <v>0.005570295342258794</v>
       </c>
       <c r="O243" t="n">
-        <v>0.1303058526147113</v>
+        <v>0.1388117586946953</v>
       </c>
     </row>
     <row r="244" ht="15" customHeight="1">
       <c r="F244" t="n">
-        <v>0.0183228391654509</v>
+        <v>0.005420086996428986</v>
       </c>
       <c r="G244" t="n">
-        <v>0.144554497578124</v>
+        <v>0.1395916000356767</v>
       </c>
       <c r="J244" t="n">
-        <v>0.02228820876873903</v>
+        <v>0.0008949008419474602</v>
       </c>
       <c r="K244" t="n">
-        <v>0.1416925190340508</v>
+        <v>0.1383722268264486</v>
       </c>
       <c r="L244" t="n">
-        <v>0.036216695698398</v>
+        <v>0.01015233228575918</v>
       </c>
       <c r="M244" t="n">
-        <v>0.1411841229105069</v>
+        <v>0.1388722480067233</v>
       </c>
       <c r="N244" t="n">
-        <v>0.06946871112252923</v>
+        <v>0.005420086996428986</v>
       </c>
       <c r="O244" t="n">
-        <v>0.1310379079664793</v>
+        <v>0.1395916000356767</v>
       </c>
     </row>
     <row r="245" ht="15" customHeight="1">
       <c r="F245" t="n">
-        <v>0.01789833765821516</v>
+        <v>0.005372417507145053</v>
       </c>
       <c r="G245" t="n">
-        <v>0.1453620646037001</v>
+        <v>0.1403714413766582</v>
       </c>
       <c r="J245" t="n">
-        <v>0.02213601594715831</v>
+        <v>0.0009392830602668878</v>
       </c>
       <c r="K245" t="n">
-        <v>0.1424840973526767</v>
+        <v>0.1391452560265963</v>
       </c>
       <c r="L245" t="n">
-        <v>0.03610269754456344</v>
+        <v>0.009585072814280893</v>
       </c>
       <c r="M245" t="n">
-        <v>0.1419728610273254</v>
+        <v>0.139648070621286</v>
       </c>
       <c r="N245" t="n">
-        <v>0.07002459635199326</v>
+        <v>0.005372417507145053</v>
       </c>
       <c r="O245" t="n">
-        <v>0.1317699633182474</v>
+        <v>0.1403714413766582</v>
       </c>
     </row>
     <row r="246" ht="15" customHeight="1">
       <c r="F246" t="n">
-        <v>0.0194693512424173</v>
+        <v>0.005527277675674583</v>
       </c>
       <c r="G246" t="n">
-        <v>0.1461696316292762</v>
+        <v>0.1411512827176396</v>
       </c>
       <c r="J246" t="n">
-        <v>0.02218620550855521</v>
+        <v>0.0003968740778366175</v>
       </c>
       <c r="K246" t="n">
-        <v>0.1432756756713027</v>
+        <v>0.1399182852267441</v>
       </c>
       <c r="L246" t="n">
-        <v>0.03579374806867941</v>
+        <v>0.008923044445049655</v>
       </c>
       <c r="M246" t="n">
-        <v>0.1427615991441439</v>
+        <v>0.1404238932358487</v>
       </c>
       <c r="N246" t="n">
-        <v>0.07000450685272258</v>
+        <v>0.005527277675674583</v>
       </c>
       <c r="O246" t="n">
-        <v>0.1325020186700154</v>
+        <v>0.1411512827176396</v>
       </c>
     </row>
     <row r="247" ht="15" customHeight="1">
       <c r="F247" t="n">
-        <v>0.01803590403700371</v>
+        <v>0.005484658303285164</v>
       </c>
       <c r="G247" t="n">
-        <v>0.1469771986548523</v>
+        <v>0.141931124058621</v>
       </c>
       <c r="J247" t="n">
-        <v>0.02243883538207368</v>
+        <v>-3.194008912563162e-05</v>
       </c>
       <c r="K247" t="n">
-        <v>0.1440672539899287</v>
+        <v>0.1406913144268918</v>
       </c>
       <c r="L247" t="n">
-        <v>0.03568993349403865</v>
+        <v>0.008366336433723975</v>
       </c>
       <c r="M247" t="n">
-        <v>0.1435503372609623</v>
+        <v>0.1411997158504114</v>
       </c>
       <c r="N247" t="n">
-        <v>0.07020922737912039</v>
+        <v>0.005484658303285164</v>
       </c>
       <c r="O247" t="n">
-        <v>0.1332340740217834</v>
+        <v>0.141931124058621</v>
       </c>
     </row>
     <row r="248" ht="15" customHeight="1">
       <c r="F248" t="n">
-        <v>0.01659802016092081</v>
+        <v>0.005344550191244357</v>
       </c>
       <c r="G248" t="n">
-        <v>0.1477847656804284</v>
+        <v>0.1427109653996025</v>
       </c>
       <c r="J248" t="n">
-        <v>0.02229396349685765</v>
+        <v>-0.0002467734244021857</v>
       </c>
       <c r="K248" t="n">
-        <v>0.1448588323085547</v>
+        <v>0.1414643436270396</v>
       </c>
       <c r="L248" t="n">
-        <v>0.03539134004393402</v>
+        <v>0.00831503803596223</v>
       </c>
       <c r="M248" t="n">
-        <v>0.1443390753777808</v>
+        <v>0.1419755384649741</v>
       </c>
       <c r="N248" t="n">
-        <v>0.07123954268559013</v>
+        <v>0.005344550191244357</v>
       </c>
       <c r="O248" t="n">
-        <v>0.1339661293735515</v>
+        <v>0.1427109653996025</v>
       </c>
     </row>
     <row r="249" ht="15" customHeight="1">
       <c r="F249" t="n">
-        <v>0.01515572373311502</v>
+        <v>0.005206944140819791</v>
       </c>
       <c r="G249" t="n">
-        <v>0.1485923327060045</v>
+        <v>0.1434908067405839</v>
       </c>
       <c r="J249" t="n">
-        <v>0.02245164778205111</v>
+        <v>-0.0005472399117754656</v>
       </c>
       <c r="K249" t="n">
-        <v>0.1456504106271807</v>
+        <v>0.1422373728271873</v>
       </c>
       <c r="L249" t="n">
-        <v>0.03579805394165825</v>
+        <v>0.007069238507422804</v>
       </c>
       <c r="M249" t="n">
-        <v>0.1451278134945993</v>
+        <v>0.1427513610795368</v>
       </c>
       <c r="N249" t="n">
-        <v>0.07139623752653501</v>
+        <v>0.005206944140819791</v>
       </c>
       <c r="O249" t="n">
-        <v>0.1346981847253195</v>
+        <v>0.1434908067405839</v>
       </c>
     </row>
     <row r="250" ht="15" customHeight="1">
       <c r="F250" t="n">
-        <v>0.01470903887253276</v>
+        <v>0.005371830953279033</v>
       </c>
       <c r="G250" t="n">
-        <v>0.1493998997315806</v>
+        <v>0.1442706480815653</v>
       </c>
       <c r="J250" t="n">
-        <v>0.02251194616679797</v>
+        <v>-0.0006329535350277915</v>
       </c>
       <c r="K250" t="n">
-        <v>0.1464419889458067</v>
+        <v>0.1430104020273351</v>
       </c>
       <c r="L250" t="n">
-        <v>0.03571016141050412</v>
+        <v>0.006529027103764296</v>
       </c>
       <c r="M250" t="n">
-        <v>0.1459165516114178</v>
+        <v>0.1435271836940994</v>
       </c>
       <c r="N250" t="n">
-        <v>0.07188009665635831</v>
+        <v>0.005371830953279033</v>
       </c>
       <c r="O250" t="n">
-        <v>0.1354302400770876</v>
+        <v>0.1442706480815653</v>
       </c>
     </row>
     <row r="251" ht="15" customHeight="1">
       <c r="F251" t="n">
-        <v>0.01725798969812045</v>
+        <v>0.005239201429889664</v>
       </c>
       <c r="G251" t="n">
-        <v>0.1502074667571568</v>
+        <v>0.1450504894225468</v>
       </c>
       <c r="J251" t="n">
-        <v>0.02267491658024219</v>
+        <v>-0.001203528277941568</v>
       </c>
       <c r="K251" t="n">
-        <v>0.1472335672644326</v>
+        <v>0.1437834312274829</v>
       </c>
       <c r="L251" t="n">
-        <v>0.03552774867376449</v>
+        <v>0.005994493080645091</v>
       </c>
       <c r="M251" t="n">
-        <v>0.1467052897282363</v>
+        <v>0.1443030063086622</v>
       </c>
       <c r="N251" t="n">
-        <v>0.07239190482946334</v>
+        <v>0.005239201429889664</v>
       </c>
       <c r="O251" t="n">
-        <v>0.1361622954288556</v>
+        <v>0.1450504894225468</v>
       </c>
     </row>
     <row r="252" ht="15" customHeight="1">
       <c r="F252" t="n">
-        <v>0.01380260032882449</v>
+        <v>0.005109046371919279</v>
       </c>
       <c r="G252" t="n">
-        <v>0.1510150337827329</v>
+        <v>0.1458303307635282</v>
       </c>
       <c r="J252" t="n">
-        <v>0.02274061695152772</v>
+        <v>-0.001058578124299048</v>
       </c>
       <c r="K252" t="n">
-        <v>0.1480251455830586</v>
+        <v>0.1445564604276306</v>
       </c>
       <c r="L252" t="n">
-        <v>0.03515090195473206</v>
+        <v>0.005565725693723711</v>
       </c>
       <c r="M252" t="n">
-        <v>0.1474940278450547</v>
+        <v>0.1450788289232249</v>
       </c>
       <c r="N252" t="n">
-        <v>0.07263244680025344</v>
+        <v>0.005109046371919279</v>
       </c>
       <c r="O252" t="n">
-        <v>0.1368943507806236</v>
+        <v>0.1458303307635282</v>
       </c>
     </row>
     <row r="253" ht="15" customHeight="1">
       <c r="F253" t="n">
-        <v>0.01334289488359132</v>
+        <v>0.005081356580635438</v>
       </c>
       <c r="G253" t="n">
-        <v>0.151822600808309</v>
+        <v>0.1466101721045096</v>
       </c>
       <c r="J253" t="n">
-        <v>0.02270910520979852</v>
+        <v>-0.001697717057882631</v>
       </c>
       <c r="K253" t="n">
-        <v>0.1488167239016846</v>
+        <v>0.1453294896277784</v>
       </c>
       <c r="L253" t="n">
-        <v>0.03517970747669966</v>
+        <v>0.004342814198658396</v>
       </c>
       <c r="M253" t="n">
-        <v>0.1482827659618732</v>
+        <v>0.1458546515377876</v>
       </c>
       <c r="N253" t="n">
-        <v>0.07320250732313183</v>
+        <v>0.005081356580635438</v>
       </c>
       <c r="O253" t="n">
-        <v>0.1376264061323917</v>
+        <v>0.1466101721045096</v>
       </c>
     </row>
     <row r="254" ht="15" customHeight="1">
       <c r="F254" t="n">
-        <v>0.01287889748136734</v>
+        <v>0.005056122857305778</v>
       </c>
       <c r="G254" t="n">
-        <v>0.1526301678338851</v>
+        <v>0.1473900134454911</v>
       </c>
       <c r="J254" t="n">
-        <v>0.02288043928419853</v>
+        <v>-0.002020559062474669</v>
       </c>
       <c r="K254" t="n">
-        <v>0.1496083022203106</v>
+        <v>0.1461025188279261</v>
       </c>
       <c r="L254" t="n">
-        <v>0.03491425146296012</v>
+        <v>0.004425847851107723</v>
       </c>
       <c r="M254" t="n">
-        <v>0.1490715040786917</v>
+        <v>0.1466304741523503</v>
       </c>
       <c r="N254" t="n">
-        <v>0.07460287115250186</v>
+        <v>0.005056122857305778</v>
       </c>
       <c r="O254" t="n">
-        <v>0.1383584614841597</v>
+        <v>0.1473900134454911</v>
       </c>
     </row>
     <row r="255" ht="15" customHeight="1">
       <c r="F255" t="n">
-        <v>0.01541063224109895</v>
+        <v>0.005033336003197844</v>
       </c>
       <c r="G255" t="n">
-        <v>0.1534377348594612</v>
+        <v>0.1481698547864725</v>
       </c>
       <c r="J255" t="n">
-        <v>0.02295467710387168</v>
+        <v>-0.001826718121857529</v>
       </c>
       <c r="K255" t="n">
-        <v>0.1503998805389365</v>
+        <v>0.1468755480280739</v>
       </c>
       <c r="L255" t="n">
-        <v>0.03535462013680615</v>
+        <v>0.003814915906730221</v>
       </c>
       <c r="M255" t="n">
-        <v>0.1498602421955101</v>
+        <v>0.147406296766913</v>
       </c>
       <c r="N255" t="n">
-        <v>0.07463432304276685</v>
+        <v>0.005033336003197844</v>
       </c>
       <c r="O255" t="n">
-        <v>0.1390905168359278</v>
+        <v>0.1481698547864725</v>
       </c>
     </row>
     <row r="256" ht="15" customHeight="1">
       <c r="F256" t="n">
-        <v>0.01293812328173261</v>
+        <v>0.005112986819579252</v>
       </c>
       <c r="G256" t="n">
-        <v>0.1542453018850373</v>
+        <v>0.148949696127454</v>
       </c>
       <c r="J256" t="n">
-        <v>0.02303187659796194</v>
+        <v>-0.001915808219813575</v>
       </c>
       <c r="K256" t="n">
-        <v>0.1511914588575625</v>
+        <v>0.1476485772282216</v>
       </c>
       <c r="L256" t="n">
-        <v>0.03520089972153062</v>
+        <v>0.002510107621184254</v>
       </c>
       <c r="M256" t="n">
-        <v>0.1506489803123286</v>
+        <v>0.1481821193814757</v>
       </c>
       <c r="N256" t="n">
-        <v>0.07529764774832998</v>
+        <v>0.005112986819579252</v>
       </c>
       <c r="O256" t="n">
-        <v>0.1398225721876958</v>
+        <v>0.148949696127454</v>
       </c>
     </row>
     <row r="257" ht="15" customHeight="1">
       <c r="F257" t="n">
-        <v>0.01446139472221469</v>
+        <v>0.005195066107717569</v>
       </c>
       <c r="G257" t="n">
-        <v>0.1550528689106134</v>
+        <v>0.1497295374684354</v>
       </c>
       <c r="J257" t="n">
-        <v>0.02301209569561326</v>
+        <v>-0.002487443340125128</v>
       </c>
       <c r="K257" t="n">
-        <v>0.1519830371761885</v>
+        <v>0.1484216064283694</v>
       </c>
       <c r="L257" t="n">
-        <v>0.03505317644042627</v>
+        <v>0.001911512250128311</v>
       </c>
       <c r="M257" t="n">
-        <v>0.1514377184291471</v>
+        <v>0.1489579419960384</v>
       </c>
       <c r="N257" t="n">
-        <v>0.07659363002359465</v>
+        <v>0.005195066107717569</v>
       </c>
       <c r="O257" t="n">
-        <v>0.1405546275394639</v>
+        <v>0.1497295374684354</v>
       </c>
     </row>
     <row r="258" ht="15" customHeight="1">
       <c r="F258" t="n">
-        <v>0.01098047068149162</v>
+        <v>0.005179564668880379</v>
       </c>
       <c r="G258" t="n">
-        <v>0.1558604359361895</v>
+        <v>0.1505093788094168</v>
       </c>
       <c r="J258" t="n">
-        <v>0.02319539232596957</v>
+        <v>-0.002641237466574492</v>
       </c>
       <c r="K258" t="n">
-        <v>0.1527746154948145</v>
+        <v>0.1491946356285172</v>
       </c>
       <c r="L258" t="n">
-        <v>0.03521153651678588</v>
+        <v>0.002119219049220744</v>
       </c>
       <c r="M258" t="n">
-        <v>0.1522264565459656</v>
+        <v>0.1497337646106011</v>
       </c>
       <c r="N258" t="n">
-        <v>0.07732305462296407</v>
+        <v>0.005179564668880379</v>
       </c>
       <c r="O258" t="n">
-        <v>0.1412866828912319</v>
+        <v>0.1505093788094168</v>
       </c>
     </row>
     <row r="259" ht="15" customHeight="1">
       <c r="F259" t="n">
-        <v>0.01249537527850983</v>
+        <v>0.004966473304335278</v>
       </c>
       <c r="G259" t="n">
-        <v>0.1566680029617656</v>
+        <v>0.1512892201503983</v>
       </c>
       <c r="J259" t="n">
-        <v>0.02308182441817483</v>
+        <v>-0.00237680458294412</v>
       </c>
       <c r="K259" t="n">
-        <v>0.1535661938134405</v>
+        <v>0.1499676648286649</v>
       </c>
       <c r="L259" t="n">
-        <v>0.03507606617390227</v>
+        <v>0.00153331727412015</v>
       </c>
       <c r="M259" t="n">
-        <v>0.153015194662784</v>
+        <v>0.1505095872251638</v>
       </c>
       <c r="N259" t="n">
-        <v>0.07798670630084165</v>
+        <v>0.004966473304335278</v>
       </c>
       <c r="O259" t="n">
-        <v>0.1420187382429999</v>
+        <v>0.1512892201503983</v>
       </c>
     </row>
     <row r="260" ht="15" customHeight="1">
       <c r="F260" t="n">
-        <v>0.01300613263221571</v>
+        <v>0.005055782815349852</v>
       </c>
       <c r="G260" t="n">
-        <v>0.1574755699873418</v>
+        <v>0.1520690614913797</v>
       </c>
       <c r="J260" t="n">
-        <v>0.023271449901373</v>
+        <v>-0.002593758673016311</v>
       </c>
       <c r="K260" t="n">
-        <v>0.1543577721320665</v>
+        <v>0.1507406940288127</v>
       </c>
       <c r="L260" t="n">
-        <v>0.03514685163506823</v>
+        <v>0.000453896180484803</v>
       </c>
       <c r="M260" t="n">
-        <v>0.1538039327796025</v>
+        <v>0.1512854098397265</v>
       </c>
       <c r="N260" t="n">
-        <v>0.07878536981163059</v>
+        <v>0.005055782815349852</v>
       </c>
       <c r="O260" t="n">
-        <v>0.142750793594768</v>
+        <v>0.1520690614913797</v>
       </c>
     </row>
     <row r="261" ht="15" customHeight="1">
       <c r="F261" t="n">
-        <v>0.0115127668615557</v>
+        <v>0.005047484003191688</v>
       </c>
       <c r="G261" t="n">
-        <v>0.1582831370129179</v>
+        <v>0.1528489028323611</v>
       </c>
       <c r="J261" t="n">
-        <v>0.02346432670470801</v>
+        <v>-0.002691713720573391</v>
       </c>
       <c r="K261" t="n">
-        <v>0.1551493504506924</v>
+        <v>0.1515137232289604</v>
       </c>
       <c r="L261" t="n">
-        <v>0.03462397912357651</v>
+        <v>-1.895497602666385e-05</v>
       </c>
       <c r="M261" t="n">
-        <v>0.154592670896421</v>
+        <v>0.1520612324542892</v>
       </c>
       <c r="N261" t="n">
-        <v>0.0797198299097342</v>
+        <v>0.005047484003191688</v>
       </c>
       <c r="O261" t="n">
-        <v>0.143482848946536</v>
+        <v>0.1528489028323611</v>
       </c>
     </row>
     <row r="262" ht="15" customHeight="1">
       <c r="F262" t="n">
-        <v>0.009015302085476198</v>
+        <v>0.004941567669128358</v>
       </c>
       <c r="G262" t="n">
-        <v>0.159090704038494</v>
+        <v>0.1536287441733426</v>
       </c>
       <c r="J262" t="n">
-        <v>0.02356051275732382</v>
+        <v>-0.002970283709397809</v>
       </c>
       <c r="K262" t="n">
-        <v>0.1559409287693184</v>
+        <v>0.1522867524291082</v>
       </c>
       <c r="L262" t="n">
-        <v>0.03470753486271994</v>
+        <v>-0.0009851469397559875</v>
       </c>
       <c r="M262" t="n">
-        <v>0.1553814090132395</v>
+        <v>0.1528370550688519</v>
       </c>
       <c r="N262" t="n">
-        <v>0.0803908713495558</v>
+        <v>0.004941567669128358</v>
       </c>
       <c r="O262" t="n">
-        <v>0.1442149042983041</v>
+        <v>0.1536287441733426</v>
       </c>
     </row>
     <row r="263" ht="15" customHeight="1">
       <c r="F263" t="n">
-        <v>0.01051376242292365</v>
+        <v>0.005038024614427483</v>
       </c>
       <c r="G263" t="n">
-        <v>0.1598982710640701</v>
+        <v>0.154408585514324</v>
       </c>
       <c r="J263" t="n">
-        <v>0.02356006598836437</v>
+        <v>-0.002829082623271834</v>
       </c>
       <c r="K263" t="n">
-        <v>0.1567325070879444</v>
+        <v>0.1530597816292559</v>
       </c>
       <c r="L263" t="n">
-        <v>0.03479760507579127</v>
+        <v>-0.001444590455044525</v>
       </c>
       <c r="M263" t="n">
-        <v>0.1561701471300579</v>
+        <v>0.1536128776834146</v>
       </c>
       <c r="N263" t="n">
-        <v>0.08149927888549863</v>
+        <v>0.005038024614427483</v>
       </c>
       <c r="O263" t="n">
-        <v>0.1449469596500721</v>
+        <v>0.154408585514324</v>
       </c>
     </row>
     <row r="264" ht="15" customHeight="1">
       <c r="F264" t="n">
-        <v>0.01000817199284441</v>
+        <v>0.005136845640356602</v>
       </c>
       <c r="G264" t="n">
-        <v>0.1607058380896462</v>
+        <v>0.1551884268553054</v>
       </c>
       <c r="J264" t="n">
-        <v>0.02376304432697361</v>
+        <v>-0.003167724445977821</v>
       </c>
       <c r="K264" t="n">
-        <v>0.1575240854065704</v>
+        <v>0.1538328108294037</v>
       </c>
       <c r="L264" t="n">
-        <v>0.03499427598608332</v>
+        <v>-0.002097196266234003</v>
       </c>
       <c r="M264" t="n">
-        <v>0.1569588852468764</v>
+        <v>0.1543887002979773</v>
       </c>
       <c r="N264" t="n">
-        <v>0.08194583727196608</v>
+        <v>0.005136845640356602</v>
       </c>
       <c r="O264" t="n">
-        <v>0.1456790150018401</v>
+        <v>0.1551884268553054</v>
       </c>
     </row>
     <row r="265" ht="15" customHeight="1"/>

--- a/prot/ООО Регионстрой/Трехосные_КД_ПП/1246.xlsx
+++ b/prot/ООО Регионстрой/Трехосные_КД_ПП/1246.xlsx
@@ -4884,7 +4884,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BF264"/>
+  <dimension ref="A1:BF464"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3" zoomScale="70" zoomScaleNormal="40" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="J22" sqref="J22"/>
@@ -8491,8 +8491,14 @@
     </row>
     <row r="47" ht="16.5" customHeight="1">
       <c r="A47" s="144" t="n"/>
-      <c r="B47" s="144" t="n"/>
-      <c r="C47" s="144" t="n"/>
+      <c r="B47" s="144" t="inlineStr">
+        <is>
+          <t>K0, д.е.</t>
+        </is>
+      </c>
+      <c r="C47" s="144" t="n">
+        <v>0.8781306565948526</v>
+      </c>
       <c r="D47" s="144" t="n"/>
       <c r="E47" s="144" t="n"/>
       <c r="F47" s="144" t="n"/>
@@ -8549,8 +8555,14 @@
     </row>
     <row r="48" ht="16.5" customHeight="1">
       <c r="A48" s="144" t="n"/>
-      <c r="B48" s="144" t="n"/>
-      <c r="C48" s="144" t="n"/>
+      <c r="B48" s="144" t="inlineStr">
+        <is>
+          <t>q_zg, МПа</t>
+        </is>
+      </c>
+      <c r="C48" s="144" t="n">
+        <v>0.05944804044242098</v>
+      </c>
       <c r="D48" s="144" t="n"/>
       <c r="E48" s="144" t="n"/>
       <c r="F48" s="144" t="n"/>
@@ -8700,12 +8712,20 @@
         <f>B70/A70</f>
         <v/>
       </c>
-      <c r="F50" s="144" t="n"/>
+      <c r="F50" s="144" t="inlineStr">
+        <is>
+          <t>Точки модуля (полное напр.), МПа</t>
+        </is>
+      </c>
       <c r="G50" s="144" t="n"/>
       <c r="H50" s="144" t="n"/>
       <c r="I50" s="144" t="n"/>
-      <c r="J50" s="144" t="n"/>
-      <c r="K50" s="144" t="n"/>
+      <c r="J50" s="144" t="n">
+        <v>0.05944804044242098</v>
+      </c>
+      <c r="K50" s="144" t="n">
+        <v>0.09511686470787357</v>
+      </c>
       <c r="L50" s="144" t="n"/>
       <c r="N50" s="148">
         <f>J50</f>
@@ -8782,11 +8802,17 @@
         <f>A65/B65</f>
         <v/>
       </c>
-      <c r="F51" s="144" t="n"/>
+      <c r="F51" s="144" t="inlineStr">
+        <is>
+          <t>qf (полное напр.), МПа</t>
+        </is>
+      </c>
       <c r="G51" s="144" t="n"/>
       <c r="H51" s="144" t="n"/>
       <c r="I51" s="144" t="n"/>
-      <c r="J51" s="144" t="n"/>
+      <c r="J51" s="144" t="n">
+        <v>0.1173672242654526</v>
+      </c>
       <c r="K51" s="144" t="n"/>
       <c r="L51" s="144" t="n"/>
       <c r="M51" s="1" t="n"/>
@@ -9232,10 +9258,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.01278624989137957</v>
+        <v>0.04966882426545259</v>
       </c>
       <c r="B65" t="n">
-        <v>0.01014020651108018</v>
+        <v>0.02524645739970377</v>
       </c>
       <c r="C65" s="151">
         <f>MATCH(A65,F65:F1000,1)-A67</f>
@@ -9292,29 +9318,29 @@
         </is>
       </c>
       <c r="F66" s="170" t="n">
-        <v>0.00140566320485852</v>
+        <v>0.0009334437380423624</v>
       </c>
       <c r="G66" s="171" t="n">
-        <v>0.0007798413409814343</v>
+        <v>0.0007596864383808461</v>
       </c>
       <c r="H66" s="171" t="n"/>
       <c r="J66" s="170" t="n">
-        <v>0.004006386179419369</v>
+        <v>0.001605663204858526</v>
       </c>
       <c r="K66" s="171" t="n">
-        <v>0.0007730292001477573</v>
+        <v>0.0007798413409814343</v>
       </c>
       <c r="L66" s="172" t="n">
-        <v>0.004671198504930418</v>
+        <v>0.003857255250899416</v>
       </c>
       <c r="M66" s="170" t="n">
-        <v>0.0007758226145626998</v>
+        <v>0.0007751587445952655</v>
       </c>
       <c r="N66" s="171" t="n">
-        <v>0.00140566320485852</v>
+        <v>0.007619985593020961</v>
       </c>
       <c r="O66" s="172" t="n">
-        <v>0.0007798413409814343</v>
+        <v>0.0007717230251157284</v>
       </c>
       <c r="Q66" s="151" t="inlineStr">
         <is>
@@ -9332,29 +9358,29 @@
         <v>2</v>
       </c>
       <c r="F67" s="170" t="n">
-        <v>0.003136585992942711</v>
+        <v>0.001913086435422484</v>
       </c>
       <c r="G67" s="171" t="n">
-        <v>0.001559682681962869</v>
+        <v>0.001519372876761692</v>
       </c>
       <c r="H67" s="171" t="n"/>
       <c r="J67" s="170" t="n">
-        <v>0.008012516676516868</v>
+        <v>0.003036585992942709</v>
       </c>
       <c r="K67" s="171" t="n">
-        <v>0.001546058400295515</v>
+        <v>0.001559682681962869</v>
       </c>
       <c r="L67" s="172" t="n">
-        <v>0.01230160000000002</v>
+        <v>0.00791390890148852</v>
       </c>
       <c r="M67" s="170" t="n">
-        <v>0.001877189234701307</v>
+        <v>0.001550317489190531</v>
       </c>
       <c r="N67" s="171" t="n">
-        <v>0.003136585992942711</v>
+        <v>0.01511539027756303</v>
       </c>
       <c r="O67" s="172" t="n">
-        <v>0.001559682681962869</v>
+        <v>0.001543446050231457</v>
       </c>
       <c r="Q67" s="151" t="inlineStr">
         <is>
@@ -9374,29 +9400,29 @@
         </is>
       </c>
       <c r="F68" s="170" t="n">
-        <v>0.00434386506856585</v>
+        <v>0.002937496012884448</v>
       </c>
       <c r="G68" s="171" t="n">
-        <v>0.002339524022944303</v>
+        <v>0.002279059315142538</v>
       </c>
       <c r="H68" s="171" t="n"/>
       <c r="J68" s="170" t="n">
-        <v>0.0115404734186208</v>
+        <v>0.004543865068565855</v>
       </c>
       <c r="K68" s="171" t="n">
-        <v>0.002319087600443272</v>
+        <v>0.002339524022944303</v>
       </c>
       <c r="L68" s="172" t="n">
-        <v>0.01445169156722437</v>
+        <v>0.01198596719521314</v>
       </c>
       <c r="M68" s="170" t="n">
-        <v>0.0023274678436881</v>
+        <v>0.002325476233785797</v>
       </c>
       <c r="N68" s="171" t="n">
-        <v>0.00434386506856585</v>
+        <v>0.02130974743079767</v>
       </c>
       <c r="O68" s="172" t="n">
-        <v>0.002339524022944303</v>
+        <v>0.002315169075347185</v>
       </c>
       <c r="Q68" s="151" t="inlineStr">
         <is>
@@ -9421,29 +9447,29 @@
         </is>
       </c>
       <c r="F69" s="170" t="n">
-        <v>0.006301599999999977</v>
+        <v>0.004005240391172296</v>
       </c>
       <c r="G69" s="171" t="n">
-        <v>0.003498263222222209</v>
+        <v>0.003038745753523385</v>
       </c>
       <c r="H69" s="171" t="n"/>
       <c r="J69" s="170" t="n">
-        <v>0.01430159999999997</v>
+        <v>0.006301599999999977</v>
       </c>
       <c r="K69" s="171" t="n">
-        <v>0.002967645417627454</v>
+        <v>0.003498263222222209</v>
       </c>
       <c r="L69" s="172" t="n">
-        <v>0.01812037164931068</v>
+        <v>0.0150894363755191</v>
       </c>
       <c r="M69" s="170" t="n">
-        <v>0.003103290458250799</v>
+        <v>0.003100634978381062</v>
       </c>
       <c r="N69" s="171" t="n">
-        <v>0.006301599999999977</v>
+        <v>0.02692659042989626</v>
       </c>
       <c r="O69" s="172" t="n">
-        <v>0.003498263222222209</v>
+        <v>0.003086892100462914</v>
       </c>
       <c r="Q69" s="151" t="inlineStr">
         <is>
@@ -9458,62 +9484,62 @@
     </row>
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="n">
-        <v>0.003498263222222209</v>
+        <v>0.01980115147069639</v>
       </c>
       <c r="B70" t="n">
-        <v>0.006301599999999977</v>
+        <v>0.03566882426545259</v>
       </c>
       <c r="F70" s="170" t="n">
-        <v>0.00681821704415099</v>
+        <v>0.00511488749103009</v>
       </c>
       <c r="G70" s="171" t="n">
-        <v>0.003899206704907171</v>
+        <v>0.003798432191904231</v>
       </c>
       <c r="H70" s="171" t="n"/>
       <c r="J70" s="170" t="n">
-        <v>0.01693406867387912</v>
+        <v>0.00681821704415099</v>
       </c>
       <c r="K70" s="171" t="n">
-        <v>0.003865146000738787</v>
+        <v>0.003899206704907171</v>
       </c>
       <c r="L70" s="172" t="n">
-        <v>0.02214774207230591</v>
+        <v>0.01794032268585224</v>
       </c>
       <c r="M70" s="170" t="n">
-        <v>0.003879113072813499</v>
+        <v>0.003875793722976327</v>
       </c>
       <c r="N70" s="171" t="n">
-        <v>0.00681821704415099</v>
+        <v>0.03158945265203017</v>
       </c>
       <c r="O70" s="172" t="n">
-        <v>0.003899206704907171</v>
+        <v>0.003858615125578642</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" s="170" t="n">
-        <v>0.007681048141872093</v>
+        <v>0.006265005233201906</v>
       </c>
       <c r="G71" s="171" t="n">
-        <v>0.004679048045888606</v>
+        <v>0.004558118630285077</v>
       </c>
       <c r="H71" s="171" t="n"/>
       <c r="J71" s="170" t="n">
-        <v>0.01916556762420527</v>
+        <v>0.007681048141872093</v>
       </c>
       <c r="K71" s="171" t="n">
-        <v>0.004638175200886544</v>
+        <v>0.004679048045888606</v>
       </c>
       <c r="L71" s="172" t="n">
-        <v>0.02538793764242137</v>
+        <v>0.01930159999999997</v>
       </c>
       <c r="M71" s="170" t="n">
-        <v>0.004654935687376199</v>
+        <v>0.004369273733609826</v>
       </c>
       <c r="N71" s="171" t="n">
-        <v>0.007681048141872093</v>
+        <v>0.03330159999999999</v>
       </c>
       <c r="O71" s="172" t="n">
-        <v>0.004679048045888606</v>
+        <v>0.004289166279620418</v>
       </c>
     </row>
     <row r="72">
@@ -9528,29 +9554,29 @@
         </is>
       </c>
       <c r="F72" s="170" t="n">
-        <v>0.008486478558334148</v>
+        <v>0.0074541615384318</v>
       </c>
       <c r="G72" s="171" t="n">
-        <v>0.00545888938687004</v>
+        <v>0.005317805068665923</v>
       </c>
       <c r="H72" s="171" t="n"/>
       <c r="J72" s="170" t="n">
-        <v>0.02138286485113794</v>
+        <v>0.008686478558334154</v>
       </c>
       <c r="K72" s="171" t="n">
-        <v>0.005411204401034301</v>
+        <v>0.00545888938687004</v>
       </c>
       <c r="L72" s="172" t="n">
-        <v>0.02929509316586776</v>
+        <v>0.02118801319282201</v>
       </c>
       <c r="M72" s="170" t="n">
-        <v>0.005430758301938899</v>
+        <v>0.005426111212166858</v>
       </c>
       <c r="N72" s="171" t="n">
-        <v>0.008486478558334148</v>
+        <v>0.03623951045162338</v>
       </c>
       <c r="O72" s="172" t="n">
-        <v>0.00545888938687004</v>
+        <v>0.005402061175810099</v>
       </c>
     </row>
     <row r="73">
@@ -9574,29 +9600,29 @@
         <v/>
       </c>
       <c r="F73" s="170" t="n">
-        <v>0.009332208603948788</v>
+        <v>0.008680924327463799</v>
       </c>
       <c r="G73" s="171" t="n">
-        <v>0.006238730727851474</v>
+        <v>0.006077491507046769</v>
       </c>
       <c r="H73" s="171" t="n"/>
       <c r="J73" s="170" t="n">
-        <v>0.02315331088762212</v>
+        <v>0.009532208603948794</v>
       </c>
       <c r="K73" s="171" t="n">
-        <v>0.006184233601182058</v>
+        <v>0.006238730727851474</v>
       </c>
       <c r="L73" s="172" t="n">
-        <v>0.03222334344885647</v>
+        <v>0.02306585724593904</v>
       </c>
       <c r="M73" s="170" t="n">
-        <v>0.006206580916501598</v>
+        <v>0.006201269956762124</v>
       </c>
       <c r="N73" s="171" t="n">
-        <v>0.009332208603948788</v>
+        <v>0.0381429501787216</v>
       </c>
       <c r="O73" s="172" t="n">
-        <v>0.006238730727851474</v>
+        <v>0.006173784200925827</v>
       </c>
     </row>
     <row r="74">
@@ -9611,29 +9637,29 @@
         </is>
       </c>
       <c r="F74" s="170" t="n">
-        <v>0.01011593858912763</v>
+        <v>0.009943861521042013</v>
       </c>
       <c r="G74" s="171" t="n">
-        <v>0.007018572068832908</v>
+        <v>0.006837177945427615</v>
       </c>
       <c r="H74" s="171" t="n"/>
       <c r="J74" s="170" t="n">
-        <v>0.02514425626660291</v>
+        <v>0.01021593858912763</v>
       </c>
       <c r="K74" s="171" t="n">
-        <v>0.006957262801329816</v>
+        <v>0.007018572068832908</v>
       </c>
       <c r="L74" s="172" t="n">
-        <v>0.03502682329759843</v>
+        <v>0.02434804613526137</v>
       </c>
       <c r="M74" s="170" t="n">
-        <v>0.006982403531064299</v>
+        <v>0.006976428701357389</v>
       </c>
       <c r="N74" s="171" t="n">
-        <v>0.01011593858912763</v>
+        <v>0.03917126762586309</v>
       </c>
       <c r="O74" s="172" t="n">
-        <v>0.007018572068832908</v>
+        <v>0.006945507226041555</v>
       </c>
     </row>
     <row r="75">
@@ -9655,29 +9681,29 @@
         </is>
       </c>
       <c r="F75" s="170" t="n">
-        <v>0.01103536882428229</v>
+        <v>0.01124154103991046</v>
       </c>
       <c r="G75" s="171" t="n">
-        <v>0.007798413409814343</v>
+        <v>0.007596864383808462</v>
       </c>
       <c r="H75" s="171" t="n"/>
       <c r="J75" s="170" t="n">
-        <v>0.02666451988342416</v>
+        <v>0.01093536882428228</v>
       </c>
       <c r="K75" s="171" t="n">
-        <v>0.007904294449100601</v>
+        <v>0.007798413409814343</v>
       </c>
       <c r="L75" s="172" t="n">
-        <v>0.03715966751830496</v>
+        <v>0.02536576496918652</v>
       </c>
       <c r="M75" s="170" t="n">
-        <v>0.007758226145626998</v>
+        <v>0.007751587445952655</v>
       </c>
       <c r="N75" s="171" t="n">
-        <v>0.01103536882428229</v>
+        <v>0.04054278987546872</v>
       </c>
       <c r="O75" s="172" t="n">
-        <v>0.007798413409814343</v>
+        <v>0.00745973454795808</v>
       </c>
     </row>
     <row r="76">
@@ -9697,29 +9723,29 @@
         <v>0</v>
       </c>
       <c r="F76" s="170" t="n">
-        <v>0.01148819961982438</v>
+        <v>0.01257253080481321</v>
       </c>
       <c r="G76" s="171" t="n">
-        <v>0.008578254750795778</v>
+        <v>0.008356550822189309</v>
       </c>
       <c r="H76" s="171" t="n"/>
       <c r="J76" s="170" t="n">
-        <v>0.02696102752412768</v>
+        <v>0.01158819961982438</v>
       </c>
       <c r="K76" s="171" t="n">
-        <v>0.00850332120162533</v>
+        <v>0.008578254750795778</v>
       </c>
       <c r="L76" s="172" t="n">
-        <v>0.04054278987546872</v>
+        <v>0.02666451988342416</v>
       </c>
       <c r="M76" s="170" t="n">
-        <v>0.008838163757906855</v>
+        <v>0.00862286667174611</v>
       </c>
       <c r="N76" s="171" t="n">
-        <v>0.01148819961982438</v>
+        <v>0.0417601053046131</v>
       </c>
       <c r="O76" s="172" t="n">
-        <v>0.008578254750795778</v>
+        <v>0.008488953276273012</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1">
@@ -9734,28 +9760,28 @@
         </is>
       </c>
       <c r="F77" t="n">
+        <v>0.01393539873649435</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0.009116237260570153</v>
+      </c>
+      <c r="J77" t="n">
         <v>0.01207213128616555</v>
       </c>
-      <c r="G77" t="n">
+      <c r="K77" t="n">
         <v>0.009358096091777212</v>
       </c>
-      <c r="J77" t="n">
-        <v>0.02807605560139548</v>
-      </c>
-      <c r="K77" t="n">
-        <v>0.009276350401773088</v>
-      </c>
       <c r="L77" t="n">
-        <v>0.04091642943043083</v>
+        <v>0.02696579704265417</v>
       </c>
       <c r="M77" t="n">
-        <v>0.009309871374752398</v>
+        <v>0.009301904935143187</v>
       </c>
       <c r="N77" t="n">
-        <v>0.01207213128616555</v>
+        <v>0.0427478222629829</v>
       </c>
       <c r="O77" t="n">
-        <v>0.009358096091777212</v>
+        <v>0.009260676301388741</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
@@ -9774,28 +9800,28 @@
         <v/>
       </c>
       <c r="F78" t="n">
+        <v>0.01532871275569792</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0.009875923698951</v>
+      </c>
+      <c r="J78" t="n">
         <v>0.01278624989137957</v>
       </c>
-      <c r="G78" t="n">
+      <c r="K78" t="n">
         <v>0.01014020651108018</v>
       </c>
-      <c r="J78" t="n">
-        <v>0.02897627383018134</v>
-      </c>
-      <c r="K78" t="n">
-        <v>0.01004937960192085</v>
-      </c>
       <c r="L78" t="n">
-        <v>0.04249983690335302</v>
+        <v>0.02827774200598787</v>
       </c>
       <c r="M78" t="n">
-        <v>0.0100856939893151</v>
+        <v>0.01007706367973845</v>
       </c>
       <c r="N78" t="n">
-        <v>0.01278624989137957</v>
+        <v>0.04443418846093911</v>
       </c>
       <c r="O78" t="n">
-        <v>0.01014020651108018</v>
+        <v>0.01003239932650447</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
@@ -9816,28 +9842,28 @@
         <v/>
       </c>
       <c r="F79" t="n">
-        <v>0.01305970887045683</v>
+        <v>0.01675104078316796</v>
       </c>
       <c r="G79" t="n">
+        <v>0.01063561013733185</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0.01325970887045684</v>
+      </c>
+      <c r="K79" t="n">
         <v>0.01091777877374008</v>
       </c>
-      <c r="J79" t="n">
-        <v>0.03006131949743412</v>
-      </c>
-      <c r="K79" t="n">
-        <v>0.0108224088020686</v>
-      </c>
       <c r="L79" t="n">
-        <v>0.04466036592617934</v>
+        <v>0.02898597082257476</v>
       </c>
       <c r="M79" t="n">
-        <v>0.0108615166038778</v>
+        <v>0.01085222242433372</v>
       </c>
       <c r="N79" t="n">
-        <v>0.01305970887045683</v>
+        <v>0.04611795045321765</v>
       </c>
       <c r="O79" t="n">
-        <v>0.01091777877374008</v>
+        <v>0.0108041223516202</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1">
@@ -9847,28 +9873,28 @@
         </is>
       </c>
       <c r="F80" t="n">
+        <v>0.01820095073964857</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0.01139529657571269</v>
+      </c>
+      <c r="J80" t="n">
         <v>0.01353165093819482</v>
       </c>
-      <c r="G80" t="n">
+      <c r="K80" t="n">
         <v>0.01169762011472152</v>
       </c>
-      <c r="J80" t="n">
-        <v>0.0309308298901029</v>
-      </c>
-      <c r="K80" t="n">
-        <v>0.01159543800221636</v>
-      </c>
       <c r="L80" t="n">
-        <v>0.04549737788456304</v>
+        <v>0.02988967204107143</v>
       </c>
       <c r="M80" t="n">
-        <v>0.0116373392184405</v>
+        <v>0.01162738116892898</v>
       </c>
       <c r="N80" t="n">
-        <v>0.01353165093819482</v>
+        <v>0.04739785479455444</v>
       </c>
       <c r="O80" t="n">
-        <v>0.01169762011472152</v>
+        <v>0.01157584537673593</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
@@ -9884,28 +9910,28 @@
         </is>
       </c>
       <c r="F81" t="n">
+        <v>0.01967701054588378</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0.01215498301409354</v>
+      </c>
+      <c r="J81" t="n">
         <v>0.01410028459919542</v>
       </c>
-      <c r="G81" t="n">
+      <c r="K81" t="n">
         <v>0.01247746145570295</v>
       </c>
-      <c r="J81" t="n">
-        <v>0.03208444229513666</v>
-      </c>
-      <c r="K81" t="n">
-        <v>0.01236846720236412</v>
-      </c>
       <c r="L81" t="n">
-        <v>0.04761023416415705</v>
+        <v>0.0305880342101344</v>
       </c>
       <c r="M81" t="n">
-        <v>0.0124131618330032</v>
+        <v>0.01240253991352425</v>
       </c>
       <c r="N81" t="n">
-        <v>0.01410028459919542</v>
+        <v>0.04837264803968544</v>
       </c>
       <c r="O81" t="n">
-        <v>0.01247746145570295</v>
+        <v>0.01234756840185165</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1">
@@ -9918,28 +9944,28 @@
         <v/>
       </c>
       <c r="F82" t="n">
+        <v>0.02117778812261766</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0.01291466945247438</v>
+      </c>
+      <c r="J82" t="n">
         <v>0.01466520381514916</v>
       </c>
-      <c r="G82" t="n">
+      <c r="K82" t="n">
         <v>0.01325730279668438</v>
       </c>
-      <c r="J82" t="n">
-        <v>0.03282179399948432</v>
-      </c>
-      <c r="K82" t="n">
-        <v>0.01314149640251187</v>
-      </c>
       <c r="L82" t="n">
-        <v>0.04919829615061483</v>
+        <v>0.03178024587842018</v>
       </c>
       <c r="M82" t="n">
-        <v>0.0131889844475659</v>
+        <v>0.01317769865811951</v>
       </c>
       <c r="N82" t="n">
-        <v>0.01466520381514916</v>
+        <v>0.04954107674334662</v>
       </c>
       <c r="O82" t="n">
-        <v>0.01325730279668438</v>
+        <v>0.01311929142696738</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1">
@@ -9949,28 +9975,28 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.01492600254774662</v>
+        <v>0.02270185139059426</v>
       </c>
       <c r="G83" t="n">
+        <v>0.01367435589085523</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0.01512600254774663</v>
+      </c>
+      <c r="K83" t="n">
         <v>0.01403714413766582</v>
       </c>
-      <c r="J83" t="n">
-        <v>0.03394252229009487</v>
-      </c>
-      <c r="K83" t="n">
-        <v>0.01391452560265963</v>
-      </c>
       <c r="L83" t="n">
-        <v>0.05056092522958933</v>
+        <v>0.03246549559458548</v>
       </c>
       <c r="M83" t="n">
-        <v>0.0139648070621286</v>
+        <v>0.01395285740271478</v>
       </c>
       <c r="N83" t="n">
-        <v>0.01492600254774662</v>
+        <v>0.05060188746027394</v>
       </c>
       <c r="O83" t="n">
-        <v>0.01403714413766582</v>
+        <v>0.01389101445208311</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1">
@@ -9985,28 +10011,28 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.01558227475867836</v>
+        <v>0.02424776827055766</v>
       </c>
       <c r="G84" t="n">
+        <v>0.01443404232923608</v>
+      </c>
+      <c r="J84" t="n">
+        <v>0.01548227475867836</v>
+      </c>
+      <c r="K84" t="n">
         <v>0.01481698547864725</v>
       </c>
-      <c r="J84" t="n">
-        <v>0.03504626445391737</v>
-      </c>
-      <c r="K84" t="n">
-        <v>0.01468755480280739</v>
-      </c>
       <c r="L84" t="n">
-        <v>0.05179748278673374</v>
+        <v>0.03364297190728679</v>
       </c>
       <c r="M84" t="n">
-        <v>0.0147406296766913</v>
+        <v>0.01472801614731004</v>
       </c>
       <c r="N84" t="n">
-        <v>0.01558227475867836</v>
+        <v>0.05235382674520334</v>
       </c>
       <c r="O84" t="n">
-        <v>0.01481698547864725</v>
+        <v>0.01466273747719884</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
@@ -10025,28 +10051,28 @@
         <v/>
       </c>
       <c r="F85" t="n">
+        <v>0.02581410668325192</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0.01519372876761692</v>
+      </c>
+      <c r="J85" t="n">
         <v>0.01593361440963495</v>
       </c>
-      <c r="G85" t="n">
+      <c r="K85" t="n">
         <v>0.01559682681962869</v>
       </c>
-      <c r="J85" t="n">
-        <v>0.03583265777790065</v>
-      </c>
-      <c r="K85" t="n">
-        <v>0.01546058400295515</v>
-      </c>
       <c r="L85" t="n">
-        <v>0.05280733020770123</v>
+        <v>0.03411186336518063</v>
       </c>
       <c r="M85" t="n">
-        <v>0.015516452291254</v>
+        <v>0.01550317489190531</v>
       </c>
       <c r="N85" t="n">
-        <v>0.01593361440963495</v>
+        <v>0.05359564115287069</v>
       </c>
       <c r="O85" t="n">
-        <v>0.01559682681962869</v>
+        <v>0.01543446050231457</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1">
@@ -10067,28 +10093,28 @@
         <v/>
       </c>
       <c r="F86" t="n">
-        <v>0.01647961546230697</v>
+        <v>0.02739943454942105</v>
       </c>
       <c r="G86" t="n">
+        <v>0.01595341520599777</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0.01637961546230697</v>
+      </c>
+      <c r="K86" t="n">
         <v>0.01637666816061012</v>
       </c>
-      <c r="J86" t="n">
-        <v>0.03650133954899379</v>
-      </c>
-      <c r="K86" t="n">
-        <v>0.0162336132031029</v>
-      </c>
       <c r="L86" t="n">
-        <v>0.05488982887814503</v>
+        <v>0.03537135851692361</v>
       </c>
       <c r="M86" t="n">
-        <v>0.01629227490581669</v>
+        <v>0.01627833363650058</v>
       </c>
       <c r="N86" t="n">
-        <v>0.01647961546230697</v>
+        <v>0.05482607723801208</v>
       </c>
       <c r="O86" t="n">
-        <v>0.01637666816061012</v>
+        <v>0.0162061835274303</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1">
@@ -10098,28 +10124,28 @@
         </is>
       </c>
       <c r="F87" t="n">
+        <v>0.02900231978980919</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0.01671310164437862</v>
+      </c>
+      <c r="J87" t="n">
         <v>0.01671987187838497</v>
       </c>
-      <c r="G87" t="n">
+      <c r="K87" t="n">
         <v>0.01715650950159156</v>
       </c>
-      <c r="J87" t="n">
-        <v>0.03725194705414578</v>
-      </c>
-      <c r="K87" t="n">
-        <v>0.01700664240325066</v>
-      </c>
       <c r="L87" t="n">
-        <v>0.05574434018371827</v>
+        <v>0.03612064591117226</v>
       </c>
       <c r="M87" t="n">
-        <v>0.0170680975203794</v>
+        <v>0.01705349238109584</v>
       </c>
       <c r="N87" t="n">
-        <v>0.01671987187838497</v>
+        <v>0.05584388155536335</v>
       </c>
       <c r="O87" t="n">
-        <v>0.01715650950159156</v>
+        <v>0.01697790655254602</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1">
@@ -10133,28 +10159,28 @@
       <c r="C88" s="139" t="n"/>
       <c r="D88" s="139" t="n"/>
       <c r="F88" t="n">
+        <v>0.03062133032516036</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0.01747278808275946</v>
+      </c>
+      <c r="J88" t="n">
         <v>0.0172539776195595</v>
       </c>
-      <c r="G88" t="n">
+      <c r="K88" t="n">
         <v>0.01793635084257299</v>
       </c>
-      <c r="J88" t="n">
-        <v>0.03828411758030553</v>
-      </c>
-      <c r="K88" t="n">
-        <v>0.01777967160339842</v>
-      </c>
       <c r="L88" t="n">
-        <v>0.05717022551007395</v>
+        <v>0.03685891409658318</v>
       </c>
       <c r="M88" t="n">
-        <v>0.0178439201349421</v>
+        <v>0.01782865112569111</v>
       </c>
       <c r="N88" t="n">
-        <v>0.0172539776195595</v>
+        <v>0.05684780065966055</v>
       </c>
       <c r="O88" t="n">
-        <v>0.01793635084257299</v>
+        <v>0.01774962957766175</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1">
@@ -10167,4780 +10193,6180 @@
         <v/>
       </c>
       <c r="F89" t="n">
+        <v>0.0322550340762186</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0.01823247452114031</v>
+      </c>
+      <c r="J89" t="n">
         <v>0.01778152664752118</v>
       </c>
-      <c r="G89" t="n">
+      <c r="K89" t="n">
         <v>0.01871619218355442</v>
       </c>
-      <c r="J89" t="n">
-        <v>0.03919748841442208</v>
-      </c>
-      <c r="K89" t="n">
-        <v>0.01855270080354618</v>
-      </c>
       <c r="L89" t="n">
-        <v>0.05856684624286534</v>
+        <v>0.03778535162181287</v>
       </c>
       <c r="M89" t="n">
-        <v>0.0186197427495048</v>
+        <v>0.01860380987028637</v>
       </c>
       <c r="N89" t="n">
-        <v>0.01778152664752118</v>
+        <v>0.05803658110563964</v>
       </c>
       <c r="O89" t="n">
-        <v>0.01871619218355442</v>
+        <v>0.01852135260277748</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="F90" t="n">
-        <v>0.01810211292396051</v>
+        <v>0.03390199896372796</v>
       </c>
       <c r="G90" t="n">
+        <v>0.01899216095952115</v>
+      </c>
+      <c r="J90" t="n">
+        <v>0.01800211292396051</v>
+      </c>
+      <c r="K90" t="n">
         <v>0.01949603352453586</v>
       </c>
-      <c r="J90" t="n">
-        <v>0.0396916968434444</v>
-      </c>
-      <c r="K90" t="n">
-        <v>0.01932573000369393</v>
-      </c>
       <c r="L90" t="n">
-        <v>0.06003356376774571</v>
+        <v>0.03849914703551799</v>
       </c>
       <c r="M90" t="n">
-        <v>0.01939556536406749</v>
+        <v>0.01937896861488164</v>
       </c>
       <c r="N90" t="n">
-        <v>0.01810211292396051</v>
+        <v>0.05920896944803644</v>
       </c>
       <c r="O90" t="n">
-        <v>0.01949603352453586</v>
+        <v>0.01929307562789321</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="F91" t="n">
-        <v>0.01861533041056808</v>
+        <v>0.03566882426545259</v>
       </c>
       <c r="G91" t="n">
+        <v>0.01980115147069639</v>
+      </c>
+      <c r="J91" t="n">
+        <v>0.01841533041056807</v>
+      </c>
+      <c r="K91" t="n">
         <v>0.02027587486551729</v>
       </c>
-      <c r="J91" t="n">
-        <v>0.04096638015432141</v>
-      </c>
-      <c r="K91" t="n">
-        <v>0.02009875920384169</v>
-      </c>
       <c r="L91" t="n">
-        <v>0.0609697394703681</v>
+        <v>0.03919948888635497</v>
       </c>
       <c r="M91" t="n">
-        <v>0.02017138797863019</v>
+        <v>0.0201541273594769</v>
       </c>
       <c r="N91" t="n">
-        <v>0.01861533041056808</v>
+        <v>0.06016371224158706</v>
       </c>
       <c r="O91" t="n">
-        <v>0.02027587486551729</v>
+        <v>0.02006479865300894</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="F92" t="n">
-        <v>0.01902077306903449</v>
+        <v>0.0373605479440226</v>
       </c>
       <c r="G92" t="n">
+        <v>0.02051153383628285</v>
+      </c>
+      <c r="J92" t="n">
+        <v>0.01892077306903449</v>
+      </c>
+      <c r="K92" t="n">
         <v>0.02105571620649873</v>
       </c>
-      <c r="J92" t="n">
-        <v>0.04142117563400216</v>
-      </c>
-      <c r="K92" t="n">
-        <v>0.02087178840398944</v>
-      </c>
       <c r="L92" t="n">
-        <v>0.06217473473638563</v>
+        <v>0.03998556572298051</v>
       </c>
       <c r="M92" t="n">
-        <v>0.02094721059319289</v>
+        <v>0.02092928610407217</v>
       </c>
       <c r="N92" t="n">
-        <v>0.01902077306903449</v>
+        <v>0.06189955604102726</v>
       </c>
       <c r="O92" t="n">
-        <v>0.02105571620649873</v>
+        <v>0.02083652167812467</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="F93" t="n">
+        <v>0.0393996578925354</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0.02127122027466369</v>
+      </c>
+      <c r="J93" t="n">
         <v>0.01941803486105026</v>
       </c>
-      <c r="G93" t="n">
+      <c r="K93" t="n">
         <v>0.02183555754748016</v>
       </c>
-      <c r="J93" t="n">
-        <v>0.04225572056943555</v>
-      </c>
-      <c r="K93" t="n">
-        <v>0.0216448176041372</v>
-      </c>
       <c r="L93" t="n">
-        <v>0.06344791095145158</v>
+        <v>0.04115656609405108</v>
       </c>
       <c r="M93" t="n">
-        <v>0.0217230332077556</v>
+        <v>0.02170444484866743</v>
       </c>
       <c r="N93" t="n">
-        <v>0.01941803486105026</v>
+        <v>0.06241524740109322</v>
       </c>
       <c r="O93" t="n">
-        <v>0.02183555754748016</v>
+        <v>0.0216082447032404</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="F94" t="n">
+        <v>0.0415690569914683</v>
+      </c>
+      <c r="G94" t="n">
+        <v>0.02203090671304454</v>
+      </c>
+      <c r="J94" t="n">
         <v>0.01970670974830598</v>
       </c>
-      <c r="G94" t="n">
+      <c r="K94" t="n">
         <v>0.02261539888846159</v>
       </c>
-      <c r="J94" t="n">
-        <v>0.04276965224757068</v>
-      </c>
-      <c r="K94" t="n">
-        <v>0.02241784680428496</v>
-      </c>
       <c r="L94" t="n">
-        <v>0.06458862950121896</v>
+        <v>0.04151167854822327</v>
       </c>
       <c r="M94" t="n">
-        <v>0.02249885582231829</v>
+        <v>0.0224796035932627</v>
       </c>
       <c r="N94" t="n">
-        <v>0.01970670974830598</v>
+        <v>0.06350953287652072</v>
       </c>
       <c r="O94" t="n">
-        <v>0.02261539888846159</v>
+        <v>0.02237996772835613</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="F95" t="n">
-        <v>0.01998639169249219</v>
+        <v>0.04375897448908947</v>
       </c>
       <c r="G95" t="n">
+        <v>0.02279059315142539</v>
+      </c>
+      <c r="J95" t="n">
+        <v>0.0200863916924922</v>
+      </c>
+      <c r="K95" t="n">
         <v>0.02339524022944303</v>
       </c>
-      <c r="J95" t="n">
-        <v>0.04386260795535643</v>
-      </c>
-      <c r="K95" t="n">
-        <v>0.02319087600443272</v>
-      </c>
       <c r="L95" t="n">
-        <v>0.06539625177134112</v>
+        <v>0.04245009163415367</v>
       </c>
       <c r="M95" t="n">
-        <v>0.023274678436881</v>
+        <v>0.02325476233785797</v>
       </c>
       <c r="N95" t="n">
-        <v>0.01998639169249219</v>
+        <v>0.06448115902204571</v>
       </c>
       <c r="O95" t="n">
-        <v>0.02339524022944303</v>
+        <v>0.02315169075347185</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="F96" t="n">
-        <v>0.02055667465529949</v>
+        <v>0.04585963963366696</v>
       </c>
       <c r="G96" t="n">
+        <v>0.02355027958980623</v>
+      </c>
+      <c r="J96" t="n">
+        <v>0.02045667465529949</v>
+      </c>
+      <c r="K96" t="n">
         <v>0.02417508157042446</v>
       </c>
-      <c r="J96" t="n">
-        <v>0.04403422497974177</v>
-      </c>
-      <c r="K96" t="n">
-        <v>0.02396390520458048</v>
-      </c>
       <c r="L96" t="n">
-        <v>0.06707013914747095</v>
+        <v>0.04327099390049879</v>
       </c>
       <c r="M96" t="n">
-        <v>0.02405050105144369</v>
+        <v>0.02402992108245323</v>
       </c>
       <c r="N96" t="n">
-        <v>0.02055667465529949</v>
+        <v>0.06552887239240435</v>
       </c>
       <c r="O96" t="n">
-        <v>0.02417508157042446</v>
+        <v>0.02392341377858758</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="F97" t="n">
-        <v>0.02081715259841843</v>
+        <v>0.04776128167346891</v>
       </c>
       <c r="G97" t="n">
+        <v>0.02430996602818708</v>
+      </c>
+      <c r="J97" t="n">
+        <v>0.02071715259841843</v>
+      </c>
+      <c r="K97" t="n">
         <v>0.0249549229114059</v>
       </c>
-      <c r="J97" t="n">
-        <v>0.04488414060767573</v>
-      </c>
-      <c r="K97" t="n">
-        <v>0.02473693440472823</v>
-      </c>
       <c r="L97" t="n">
-        <v>0.06790965301526186</v>
+        <v>0.0436735738959152</v>
       </c>
       <c r="M97" t="n">
-        <v>0.02482632366600639</v>
+        <v>0.0248050798270485</v>
       </c>
       <c r="N97" t="n">
-        <v>0.02081715259841843</v>
+        <v>0.06665141954233239</v>
       </c>
       <c r="O97" t="n">
-        <v>0.0249549229114059</v>
+        <v>0.02469513680370331</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
+        <v>0.04966882426545259</v>
+      </c>
+      <c r="G98" t="n">
+        <v>0.02524645739970377</v>
+      </c>
+      <c r="J98" t="n">
         <v>0.02106741948353956</v>
       </c>
-      <c r="G98" t="n">
+      <c r="K98" t="n">
         <v>0.02573476425238733</v>
       </c>
-      <c r="J98" t="n">
-        <v>0.04581199212610726</v>
-      </c>
-      <c r="K98" t="n">
-        <v>0.02550996360487599</v>
-      </c>
       <c r="L98" t="n">
-        <v>0.06851415476036682</v>
+        <v>0.0442570201690595</v>
       </c>
       <c r="M98" t="n">
-        <v>0.02560214628056909</v>
+        <v>0.02558023857164376</v>
       </c>
       <c r="N98" t="n">
-        <v>0.02106741948353956</v>
+        <v>0.06754754702656574</v>
       </c>
       <c r="O98" t="n">
-        <v>0.02573476425238733</v>
+        <v>0.02546685982881904</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.02150706927235346</v>
+        <v>0.05065818149323578</v>
       </c>
       <c r="G99" t="n">
+        <v>0.02582933890494877</v>
+      </c>
+      <c r="J99" t="n">
+        <v>0.02160706927235347</v>
+      </c>
+      <c r="K99" t="n">
         <v>0.02651460559336876</v>
       </c>
-      <c r="J99" t="n">
-        <v>0.04591741682198536</v>
-      </c>
-      <c r="K99" t="n">
-        <v>0.02628299280502375</v>
-      </c>
       <c r="L99" t="n">
-        <v>0.06998300576843908</v>
+        <v>0.0454205212685882</v>
       </c>
       <c r="M99" t="n">
-        <v>0.02637796889513179</v>
+        <v>0.02635539731623903</v>
       </c>
       <c r="N99" t="n">
-        <v>0.02150706927235346</v>
+        <v>0.06881600139984062</v>
       </c>
       <c r="O99" t="n">
-        <v>0.02651460559336876</v>
+        <v>0.02623858285393477</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.0217356959265507</v>
+        <v>0.05191827892362956</v>
       </c>
       <c r="G100" t="n">
+        <v>0.02658902534332961</v>
+      </c>
+      <c r="J100" t="n">
+        <v>0.0218356959265507</v>
+      </c>
+      <c r="K100" t="n">
         <v>0.0272944469343502</v>
       </c>
-      <c r="J100" t="n">
-        <v>0.04650005198225901</v>
-      </c>
-      <c r="K100" t="n">
-        <v>0.02705602200517151</v>
-      </c>
       <c r="L100" t="n">
-        <v>0.07031556742513179</v>
+        <v>0.04606326574315792</v>
       </c>
       <c r="M100" t="n">
-        <v>0.02715379150969449</v>
+        <v>0.02713055606083429</v>
       </c>
       <c r="N100" t="n">
-        <v>0.0217356959265507</v>
+        <v>0.06945552921689274</v>
       </c>
       <c r="O100" t="n">
-        <v>0.0272944469343502</v>
+        <v>0.02701030587905049</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.02225289340782186</v>
+        <v>0.05314216442574335</v>
       </c>
       <c r="G101" t="n">
+        <v>0.02734871178171046</v>
+      </c>
+      <c r="J101" t="n">
+        <v>0.02205289340782185</v>
+      </c>
+      <c r="K101" t="n">
         <v>0.02807428827533163</v>
       </c>
-      <c r="J101" t="n">
-        <v>0.04735953489387715</v>
-      </c>
-      <c r="K101" t="n">
-        <v>0.02782905120531927</v>
-      </c>
       <c r="L101" t="n">
-        <v>0.07161120111609809</v>
+        <v>0.04658444214142521</v>
       </c>
       <c r="M101" t="n">
-        <v>0.0279296141242572</v>
+        <v>0.02790571480542956</v>
       </c>
       <c r="N101" t="n">
-        <v>0.02225289340782186</v>
+        <v>0.07036487703245814</v>
       </c>
       <c r="O101" t="n">
-        <v>0.02807428827533163</v>
+        <v>0.02778202890416622</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
+        <v>0.05432660225323362</v>
+      </c>
+      <c r="G102" t="n">
+        <v>0.02810839822009131</v>
+      </c>
+      <c r="J102" t="n">
         <v>0.02245825567785746</v>
       </c>
-      <c r="G102" t="n">
+      <c r="K102" t="n">
         <v>0.02885412961631307</v>
       </c>
-      <c r="J102" t="n">
-        <v>0.04799550284378881</v>
-      </c>
-      <c r="K102" t="n">
-        <v>0.02860208040546702</v>
-      </c>
       <c r="L102" t="n">
-        <v>0.07236926822699113</v>
+        <v>0.04708323901204658</v>
       </c>
       <c r="M102" t="n">
-        <v>0.02870543673881989</v>
+        <v>0.02868087355002482</v>
       </c>
       <c r="N102" t="n">
-        <v>0.02245825567785746</v>
+        <v>0.07164279140127278</v>
       </c>
       <c r="O102" t="n">
-        <v>0.02885412961631307</v>
+        <v>0.02855375192928196</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
+        <v>0.05546835665975687</v>
+      </c>
+      <c r="G103" t="n">
+        <v>0.02886808465847215</v>
+      </c>
+      <c r="J103" t="n">
         <v>0.02285137669834811</v>
       </c>
-      <c r="G103" t="n">
+      <c r="K103" t="n">
         <v>0.0296339709572945</v>
       </c>
-      <c r="J103" t="n">
-        <v>0.04820759311894285</v>
-      </c>
-      <c r="K103" t="n">
-        <v>0.02937510960561478</v>
-      </c>
       <c r="L103" t="n">
-        <v>0.07308913014346419</v>
+        <v>0.04775884490367863</v>
       </c>
       <c r="M103" t="n">
-        <v>0.02948125935338259</v>
+        <v>0.02945603229462009</v>
       </c>
       <c r="N103" t="n">
-        <v>0.02285137669834811</v>
+        <v>0.0724880188780726</v>
       </c>
       <c r="O103" t="n">
-        <v>0.0296339709572945</v>
+        <v>0.02932547495439768</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.02303185043098434</v>
+        <v>0.05656419189896957</v>
       </c>
       <c r="G104" t="n">
+        <v>0.029627771096853</v>
+      </c>
+      <c r="J104" t="n">
+        <v>0.02313185043098434</v>
+      </c>
+      <c r="K104" t="n">
         <v>0.03041381229827593</v>
       </c>
-      <c r="J104" t="n">
-        <v>0.04859544300628846</v>
-      </c>
-      <c r="K104" t="n">
-        <v>0.03014813880576253</v>
-      </c>
       <c r="L104" t="n">
-        <v>0.07437014825117017</v>
+        <v>0.0484104483649779</v>
       </c>
       <c r="M104" t="n">
-        <v>0.03025708196794529</v>
+        <v>0.03023119103921535</v>
       </c>
       <c r="N104" t="n">
-        <v>0.02303185043098434</v>
+        <v>0.07329930601759344</v>
       </c>
       <c r="O104" t="n">
-        <v>0.03041381229827593</v>
+        <v>0.03009719797951341</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
+        <v>0.05761087222452825</v>
+      </c>
+      <c r="G105" t="n">
+        <v>0.03038745753523385</v>
+      </c>
+      <c r="J105" t="n">
         <v>0.02339927083745674</v>
       </c>
-      <c r="G105" t="n">
+      <c r="K105" t="n">
         <v>0.03119365363925737</v>
       </c>
-      <c r="J105" t="n">
-        <v>0.04915868979277443</v>
-      </c>
-      <c r="K105" t="n">
-        <v>0.0309211680059103</v>
-      </c>
       <c r="L105" t="n">
-        <v>0.07451168393576252</v>
+        <v>0.04863723794460101</v>
       </c>
       <c r="M105" t="n">
-        <v>0.03103290458250799</v>
+        <v>0.03100634978381062</v>
       </c>
       <c r="N105" t="n">
-        <v>0.02339927083745674</v>
+        <v>0.07417539937457152</v>
       </c>
       <c r="O105" t="n">
-        <v>0.03119365363925737</v>
+        <v>0.03086892100462913</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.02365323187945588</v>
+        <v>0.05860516189008937</v>
       </c>
       <c r="G106" t="n">
+        <v>0.03114714397361469</v>
+      </c>
+      <c r="J106" t="n">
+        <v>0.02345323187945587</v>
+      </c>
+      <c r="K106" t="n">
         <v>0.0319734949802388</v>
       </c>
-      <c r="J106" t="n">
-        <v>0.04949697076534981</v>
-      </c>
-      <c r="K106" t="n">
-        <v>0.03169419720605805</v>
-      </c>
       <c r="L106" t="n">
-        <v>0.07511309858289417</v>
+        <v>0.0493384021912045</v>
       </c>
       <c r="M106" t="n">
-        <v>0.0318087271970707</v>
+        <v>0.03178150852840588</v>
       </c>
       <c r="N106" t="n">
-        <v>0.02365323187945588</v>
+        <v>0.07521504550374258</v>
       </c>
       <c r="O106" t="n">
-        <v>0.0319734949802388</v>
+        <v>0.03164064402974486</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
+        <v>0.05954382514930942</v>
+      </c>
+      <c r="G107" t="n">
+        <v>0.03190683041199554</v>
+      </c>
+      <c r="J107" t="n">
         <v>0.02389332751867229</v>
       </c>
-      <c r="G107" t="n">
+      <c r="K107" t="n">
         <v>0.03275333632122024</v>
       </c>
-      <c r="J107" t="n">
-        <v>0.05040992321096358</v>
-      </c>
-      <c r="K107" t="n">
-        <v>0.03246722640620581</v>
-      </c>
       <c r="L107" t="n">
-        <v>0.07567375357821837</v>
+        <v>0.04941312965344483</v>
       </c>
       <c r="M107" t="n">
-        <v>0.03258454981163339</v>
+        <v>0.03255666727300115</v>
       </c>
       <c r="N107" t="n">
-        <v>0.02389332751867229</v>
+        <v>0.07531699095984257</v>
       </c>
       <c r="O107" t="n">
-        <v>0.03275333632122024</v>
+        <v>0.03241236705486059</v>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.02411915171679659</v>
+        <v>0.06042362625584489</v>
       </c>
       <c r="G108" t="n">
+        <v>0.03266651685037638</v>
+      </c>
+      <c r="J108" t="n">
+        <v>0.02401915171679658</v>
+      </c>
+      <c r="K108" t="n">
         <v>0.03353317766220167</v>
       </c>
-      <c r="J108" t="n">
-        <v>0.05069718441656473</v>
-      </c>
-      <c r="K108" t="n">
-        <v>0.03324025560635356</v>
-      </c>
       <c r="L108" t="n">
-        <v>0.07629301030738822</v>
+        <v>0.05026060887997871</v>
       </c>
       <c r="M108" t="n">
-        <v>0.03336037242619609</v>
+        <v>0.03333182601759641</v>
       </c>
       <c r="N108" t="n">
-        <v>0.02411915171679659</v>
+        <v>0.07577998229760757</v>
       </c>
       <c r="O108" t="n">
-        <v>0.03353317766220167</v>
+        <v>0.03318409007997632</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
+        <v>0.06124132946335233</v>
+      </c>
+      <c r="G109" t="n">
+        <v>0.03342620328875723</v>
+      </c>
+      <c r="J109" t="n">
         <v>0.0242302984355193</v>
       </c>
-      <c r="G109" t="n">
+      <c r="K109" t="n">
         <v>0.03431301900318311</v>
       </c>
-      <c r="J109" t="n">
-        <v>0.05085839166910217</v>
-      </c>
-      <c r="K109" t="n">
-        <v>0.03401328480650132</v>
-      </c>
       <c r="L109" t="n">
-        <v>0.07757023015605702</v>
+        <v>0.05068002841946262</v>
       </c>
       <c r="M109" t="n">
-        <v>0.03413619504075879</v>
+        <v>0.03410698476219168</v>
       </c>
       <c r="N109" t="n">
-        <v>0.0242302984355193</v>
+        <v>0.07670276607177345</v>
       </c>
       <c r="O109" t="n">
-        <v>0.03431301900318311</v>
+        <v>0.03395581310509205</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
+        <v>0.06199369902548812</v>
+      </c>
+      <c r="G110" t="n">
+        <v>0.03418588972713808</v>
+      </c>
+      <c r="J110" t="n">
         <v>0.02442636163653099</v>
       </c>
-      <c r="G110" t="n">
+      <c r="K110" t="n">
         <v>0.03509286034416454</v>
       </c>
-      <c r="J110" t="n">
-        <v>0.05099318225552499</v>
-      </c>
-      <c r="K110" t="n">
-        <v>0.03478631400664908</v>
-      </c>
       <c r="L110" t="n">
-        <v>0.07820477450987778</v>
+        <v>0.05067057682055312</v>
       </c>
       <c r="M110" t="n">
-        <v>0.0349120176553215</v>
+        <v>0.03488214350678695</v>
       </c>
       <c r="N110" t="n">
-        <v>0.02442636163653099</v>
+        <v>0.07758408883707618</v>
       </c>
       <c r="O110" t="n">
-        <v>0.03509286034416454</v>
+        <v>0.03472753613020778</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
+        <v>0.06267749919590884</v>
+      </c>
+      <c r="G111" t="n">
+        <v>0.03494557616551892</v>
+      </c>
+      <c r="J111" t="n">
         <v>0.02450693528152226</v>
       </c>
-      <c r="G111" t="n">
+      <c r="K111" t="n">
         <v>0.03587270168514598</v>
       </c>
-      <c r="J111" t="n">
-        <v>0.05180119346278206</v>
-      </c>
-      <c r="K111" t="n">
-        <v>0.03555934320679684</v>
-      </c>
       <c r="L111" t="n">
-        <v>0.0783960047545037</v>
+        <v>0.0511314426319068</v>
       </c>
       <c r="M111" t="n">
-        <v>0.0356878402698842</v>
+        <v>0.03565730225138222</v>
       </c>
       <c r="N111" t="n">
-        <v>0.02450693528152226</v>
+        <v>0.07792269714825162</v>
       </c>
       <c r="O111" t="n">
-        <v>0.03587270168514598</v>
+        <v>0.0354992591553235</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.02477161333218365</v>
+        <v>0.06328949422827097</v>
       </c>
       <c r="G112" t="n">
+        <v>0.03570526260389977</v>
+      </c>
+      <c r="J112" t="n">
+        <v>0.02487161333218366</v>
+      </c>
+      <c r="K112" t="n">
         <v>0.03665254302612741</v>
       </c>
-      <c r="J112" t="n">
-        <v>0.05208206257782241</v>
-      </c>
-      <c r="K112" t="n">
-        <v>0.03633237240694459</v>
-      </c>
       <c r="L112" t="n">
-        <v>0.078443282275588</v>
+        <v>0.05136181440218024</v>
       </c>
       <c r="M112" t="n">
-        <v>0.03646366288444689</v>
+        <v>0.03643246099597747</v>
       </c>
       <c r="N112" t="n">
-        <v>0.02477161333218365</v>
+        <v>0.07881733756003589</v>
       </c>
       <c r="O112" t="n">
-        <v>0.03665254302612741</v>
+        <v>0.03627098218043924</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.02501998975020572</v>
+        <v>0.06382644837623097</v>
       </c>
       <c r="G113" t="n">
+        <v>0.03646494904228061</v>
+      </c>
+      <c r="J113" t="n">
+        <v>0.02481998975020572</v>
+      </c>
+      <c r="K113" t="n">
         <v>0.03743238436710885</v>
       </c>
-      <c r="J113" t="n">
-        <v>0.05233542688759504</v>
-      </c>
-      <c r="K113" t="n">
-        <v>0.03710540160709235</v>
-      </c>
       <c r="L113" t="n">
-        <v>0.07924596845878373</v>
+        <v>0.05216088068002994</v>
       </c>
       <c r="M113" t="n">
-        <v>0.03723948549900959</v>
+        <v>0.03720761974057275</v>
       </c>
       <c r="N113" t="n">
-        <v>0.02501998975020572</v>
+        <v>0.07846675662716479</v>
       </c>
       <c r="O113" t="n">
-        <v>0.03743238436710885</v>
+        <v>0.03704270520555496</v>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.02505165849727906</v>
+        <v>0.06428512589344532</v>
       </c>
       <c r="G114" t="n">
+        <v>0.03722463548066146</v>
+      </c>
+      <c r="J114" t="n">
+        <v>0.02495165849727905</v>
+      </c>
+      <c r="K114" t="n">
         <v>0.03821222570809028</v>
       </c>
-      <c r="J114" t="n">
-        <v>0.05216092367904887</v>
-      </c>
-      <c r="K114" t="n">
-        <v>0.03787843080724011</v>
-      </c>
       <c r="L114" t="n">
-        <v>0.07970342468974412</v>
+        <v>0.0521278300141125</v>
       </c>
       <c r="M114" t="n">
-        <v>0.03801530811357229</v>
+        <v>0.03798277848516801</v>
       </c>
       <c r="N114" t="n">
-        <v>0.02505165849727906</v>
+        <v>0.07906970090437443</v>
       </c>
       <c r="O114" t="n">
-        <v>0.03821222570809028</v>
+        <v>0.03781442823067069</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="F115" t="n">
-        <v>0.02506621353509418</v>
+        <v>0.0646689712036991</v>
       </c>
       <c r="G115" t="n">
+        <v>0.03798432191904231</v>
+      </c>
+      <c r="J115" t="n">
+        <v>0.02526621353509419</v>
+      </c>
+      <c r="K115" t="n">
         <v>0.03899206704907171</v>
       </c>
-      <c r="J115" t="n">
-        <v>0.05245819023913292</v>
-      </c>
-      <c r="K115" t="n">
-        <v>0.03865146000738786</v>
-      </c>
       <c r="L115" t="n">
-        <v>0.07941501235412224</v>
+        <v>0.0522618509530845</v>
       </c>
       <c r="M115" t="n">
-        <v>0.03879113072813499</v>
+        <v>0.03875793722976327</v>
       </c>
       <c r="N115" t="n">
-        <v>0.02506621353509418</v>
+        <v>0.07992491694640064</v>
       </c>
       <c r="O115" t="n">
-        <v>0.03899206704907171</v>
+        <v>0.03858615125578642</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.02536324882534172</v>
+        <v>0.06503402396165606</v>
       </c>
       <c r="G116" t="n">
+        <v>0.03874400835742315</v>
+      </c>
+      <c r="J116" t="n">
+        <v>0.02516324882534171</v>
+      </c>
+      <c r="K116" t="n">
         <v>0.03977190839005315</v>
       </c>
-      <c r="J116" t="n">
-        <v>0.05242686385479617</v>
-      </c>
-      <c r="K116" t="n">
-        <v>0.03942448920753563</v>
-      </c>
       <c r="L116" t="n">
-        <v>0.07998009283757135</v>
+        <v>0.05256213204560248</v>
       </c>
       <c r="M116" t="n">
-        <v>0.03956695334269769</v>
+        <v>0.03953309597435854</v>
       </c>
       <c r="N116" t="n">
-        <v>0.02536324882534172</v>
+        <v>0.08023115130797948</v>
       </c>
       <c r="O116" t="n">
-        <v>0.03977190839005315</v>
+        <v>0.03935787428090215</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.0253423583297122</v>
+        <v>0.06539354441027895</v>
       </c>
       <c r="G117" t="n">
+        <v>0.039503694795804</v>
+      </c>
+      <c r="J117" t="n">
+        <v>0.0254423583297122</v>
+      </c>
+      <c r="K117" t="n">
         <v>0.04055174973103458</v>
       </c>
-      <c r="J117" t="n">
-        <v>0.05286658181298756</v>
-      </c>
-      <c r="K117" t="n">
-        <v>0.04019751840768338</v>
-      </c>
       <c r="L117" t="n">
-        <v>0.08019802752574468</v>
+        <v>0.05272786184032299</v>
       </c>
       <c r="M117" t="n">
-        <v>0.04034277595726039</v>
+        <v>0.04030825471895381</v>
       </c>
       <c r="N117" t="n">
-        <v>0.0253423583297122</v>
+        <v>0.08008715054384669</v>
       </c>
       <c r="O117" t="n">
-        <v>0.04055174973103458</v>
+        <v>0.04012959730601788</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="F118" t="n">
-        <v>0.02540313600989619</v>
+        <v>0.06574744856540755</v>
       </c>
       <c r="G118" t="n">
+        <v>0.04026338123418485</v>
+      </c>
+      <c r="J118" t="n">
+        <v>0.02530313600989618</v>
+      </c>
+      <c r="K118" t="n">
         <v>0.04133159107201602</v>
       </c>
-      <c r="J118" t="n">
-        <v>0.0526769814006561</v>
-      </c>
-      <c r="K118" t="n">
-        <v>0.04097054760783114</v>
-      </c>
       <c r="L118" t="n">
-        <v>0.08016817780429514</v>
+        <v>0.05285822888590261</v>
       </c>
       <c r="M118" t="n">
-        <v>0.04111859857182309</v>
+        <v>0.04108341346354907</v>
       </c>
       <c r="N118" t="n">
-        <v>0.02540313600989619</v>
+        <v>0.08029166120873849</v>
       </c>
       <c r="O118" t="n">
-        <v>0.04133159107201602</v>
+        <v>0.0409013203311336</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
-        <v>0.02554517582758428</v>
+        <v>0.06609565244288156</v>
       </c>
       <c r="G119" t="n">
+        <v>0.04102306767256569</v>
+      </c>
+      <c r="J119" t="n">
+        <v>0.02534517582758428</v>
+      </c>
+      <c r="K119" t="n">
         <v>0.04211143241299745</v>
       </c>
-      <c r="J119" t="n">
-        <v>0.05325769990475077</v>
-      </c>
-      <c r="K119" t="n">
-        <v>0.04174357680797889</v>
-      </c>
       <c r="L119" t="n">
-        <v>0.08068990505887602</v>
+        <v>0.05275242173099789</v>
       </c>
       <c r="M119" t="n">
-        <v>0.04189442118638579</v>
+        <v>0.04185857220814434</v>
       </c>
       <c r="N119" t="n">
-        <v>0.02554517582758428</v>
+        <v>0.08044342985739056</v>
       </c>
       <c r="O119" t="n">
-        <v>0.04211143241299745</v>
+        <v>0.04167304335624934</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="F120" t="n">
+        <v>0.06643807205854076</v>
+      </c>
+      <c r="G120" t="n">
+        <v>0.04178275411094654</v>
+      </c>
+      <c r="J120" t="n">
         <v>0.02557249978275913</v>
       </c>
-      <c r="G120" t="n">
+      <c r="K120" t="n">
         <v>0.04289127375397889</v>
       </c>
-      <c r="J120" t="n">
+      <c r="L120" t="n">
         <v>0.0533290397668483</v>
       </c>
-      <c r="K120" t="n">
-        <v>0.04251660600812665</v>
-      </c>
-      <c r="L120" t="n">
+      <c r="M120" t="n">
+        <v>0.0426337309527396</v>
+      </c>
+      <c r="N120" t="n">
         <v>0.08108557975093744</v>
       </c>
-      <c r="M120" t="n">
-        <v>0.04267024380094849</v>
-      </c>
-      <c r="N120" t="n">
-        <v>0.02557249978275913</v>
-      </c>
       <c r="O120" t="n">
-        <v>0.04289127375397889</v>
+        <v>0.04244476638136506</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="F121" t="n">
-        <v>0.02557202424698031</v>
+        <v>0.06677462342822489</v>
       </c>
       <c r="G121" t="n">
+        <v>0.04254244054932738</v>
+      </c>
+      <c r="J121" t="n">
+        <v>0.02557193510606824</v>
+      </c>
+      <c r="K121" t="n">
         <v>0.04367111509496032</v>
       </c>
-      <c r="J121" t="n">
-        <v>0.05292864281001439</v>
-      </c>
-      <c r="K121" t="n">
-        <v>0.0432896352082744</v>
-      </c>
       <c r="L121" t="n">
-        <v>0.08098553574852468</v>
+        <v>0.0533290390143617</v>
       </c>
       <c r="M121" t="n">
-        <v>0.04344606641551119</v>
+        <v>0.04340888969733486</v>
       </c>
       <c r="N121" t="n">
-        <v>0.02557202424698031</v>
+        <v>0.08098372732491999</v>
       </c>
       <c r="O121" t="n">
-        <v>0.04367111509496032</v>
+        <v>0.04321648940648079</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.02556485283951072</v>
+        <v>0.06710522256777367</v>
       </c>
       <c r="G122" t="n">
+        <v>0.04330212698770823</v>
+      </c>
+      <c r="J122" t="n">
+        <v>0.02546344092057549</v>
+      </c>
+      <c r="K122" t="n">
         <v>0.04445095643594175</v>
       </c>
-      <c r="J122" t="n">
-        <v>0.05282525596995202</v>
-      </c>
-      <c r="K122" t="n">
-        <v>0.04406266440842217</v>
-      </c>
       <c r="L122" t="n">
-        <v>0.08035851491971246</v>
+        <v>0.0532107457457853</v>
       </c>
       <c r="M122" t="n">
-        <v>0.04422188903007389</v>
+        <v>0.04418404844193013</v>
       </c>
       <c r="N122" t="n">
-        <v>0.02556485283951072</v>
+        <v>0.08097459718945343</v>
       </c>
       <c r="O122" t="n">
-        <v>0.04445095643594175</v>
+        <v>0.04398821243159652</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.02554926349761115</v>
+        <v>0.06742978549302688</v>
       </c>
       <c r="G123" t="n">
+        <v>0.04406181342608908</v>
+      </c>
+      <c r="J123" t="n">
+        <v>0.02534503991209977</v>
+      </c>
+      <c r="K123" t="n">
         <v>0.04523079777692319</v>
       </c>
-      <c r="J123" t="n">
-        <v>0.05331098443511265</v>
-      </c>
-      <c r="K123" t="n">
-        <v>0.04483569360856993</v>
-      </c>
       <c r="L123" t="n">
-        <v>0.08048321528534158</v>
+        <v>0.05305647044025283</v>
       </c>
       <c r="M123" t="n">
-        <v>0.04499771164463659</v>
+        <v>0.0449592071865254</v>
       </c>
       <c r="N123" t="n">
-        <v>0.02554926349761115</v>
+        <v>0.08032593086948797</v>
       </c>
       <c r="O123" t="n">
-        <v>0.04523079777692319</v>
+        <v>0.04475993545671225</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="F124" t="n">
-        <v>0.02552551269343771</v>
+        <v>0.06774822821982422</v>
       </c>
       <c r="G124" t="n">
+        <v>0.04482149986446992</v>
+      </c>
+      <c r="J124" t="n">
+        <v>0.0254171096470541</v>
+      </c>
+      <c r="K124" t="n">
         <v>0.04601063911790462</v>
       </c>
-      <c r="J124" t="n">
-        <v>0.05288628538800519</v>
-      </c>
-      <c r="K124" t="n">
-        <v>0.04560872280871768</v>
-      </c>
       <c r="L124" t="n">
-        <v>0.08026194900761086</v>
+        <v>0.05316782395711567</v>
       </c>
       <c r="M124" t="n">
-        <v>0.04577353425919929</v>
+        <v>0.04573436593112066</v>
       </c>
       <c r="N124" t="n">
-        <v>0.02552551269343771</v>
+        <v>0.08093957087854531</v>
       </c>
       <c r="O124" t="n">
-        <v>0.04601063911790462</v>
+        <v>0.04553165848182798</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.02539385689914658</v>
+        <v>0.06806046676400547</v>
       </c>
       <c r="G125" t="n">
+        <v>0.04558118630285077</v>
+      </c>
+      <c r="J125" t="n">
+        <v>0.02538002769185155</v>
+      </c>
+      <c r="K125" t="n">
         <v>0.04679048045888606</v>
       </c>
-      <c r="J125" t="n">
-        <v>0.05325135827585728</v>
-      </c>
-      <c r="K125" t="n">
-        <v>0.04638175200886543</v>
-      </c>
       <c r="L125" t="n">
-        <v>0.08069702824871888</v>
+        <v>0.05274641713573425</v>
       </c>
       <c r="M125" t="n">
-        <v>0.04654935687376199</v>
+        <v>0.04650952467571593</v>
       </c>
       <c r="N125" t="n">
-        <v>0.02539385689914658</v>
+        <v>0.08071681605064457</v>
       </c>
       <c r="O125" t="n">
-        <v>0.04679048045888606</v>
+        <v>0.04630338150694371</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.02545455258689387</v>
+        <v>0.06836641714141038</v>
       </c>
       <c r="G126" t="n">
+        <v>0.04634087274123162</v>
+      </c>
+      <c r="J126" t="n">
+        <v>0.02523417161290517</v>
+      </c>
+      <c r="K126" t="n">
         <v>0.04757032179986749</v>
       </c>
-      <c r="J126" t="n">
-        <v>0.05290640254589668</v>
-      </c>
-      <c r="K126" t="n">
-        <v>0.0471547812090132</v>
-      </c>
       <c r="L126" t="n">
-        <v>0.08029076517086464</v>
+        <v>0.05259386081546907</v>
       </c>
       <c r="M126" t="n">
-        <v>0.04732517948832469</v>
+        <v>0.0472846834203112</v>
       </c>
       <c r="N126" t="n">
-        <v>0.02545455258689387</v>
+        <v>0.080458965219805</v>
       </c>
       <c r="O126" t="n">
-        <v>0.04757032179986749</v>
+        <v>0.04707510453205943</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="F127" t="n">
-        <v>0.02530785622883576</v>
+        <v>0.06866599536787864</v>
       </c>
       <c r="G127" t="n">
+        <v>0.04710055917961246</v>
+      </c>
+      <c r="J127" t="n">
+        <v>0.02517991897662805</v>
+      </c>
+      <c r="K127" t="n">
         <v>0.04835016314084892</v>
       </c>
-      <c r="J127" t="n">
-        <v>0.05265161764535101</v>
-      </c>
-      <c r="K127" t="n">
-        <v>0.04792781040916096</v>
-      </c>
       <c r="L127" t="n">
-        <v>0.07974547193624654</v>
+        <v>0.05261176583568067</v>
       </c>
       <c r="M127" t="n">
-        <v>0.04810100210288739</v>
+        <v>0.04805984216490646</v>
       </c>
       <c r="N127" t="n">
-        <v>0.02530785622883576</v>
+        <v>0.0798673172200457</v>
       </c>
       <c r="O127" t="n">
-        <v>0.04835016314084892</v>
+        <v>0.04784682755717516</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="F128" t="n">
-        <v>0.02535402429712837</v>
+        <v>0.06895911745925003</v>
       </c>
       <c r="G128" t="n">
+        <v>0.04786024561799331</v>
+      </c>
+      <c r="J128" t="n">
+        <v>0.02531764734943322</v>
+      </c>
+      <c r="K128" t="n">
         <v>0.04913000448183036</v>
       </c>
-      <c r="J128" t="n">
-        <v>0.05278720302144807</v>
-      </c>
-      <c r="K128" t="n">
-        <v>0.04870083960930871</v>
-      </c>
       <c r="L128" t="n">
-        <v>0.07926346070706364</v>
+        <v>0.05220174303572944</v>
       </c>
       <c r="M128" t="n">
-        <v>0.04887682471745008</v>
+        <v>0.04883500090950173</v>
       </c>
       <c r="N128" t="n">
-        <v>0.02535402429712837</v>
+        <v>0.07984317088538584</v>
       </c>
       <c r="O128" t="n">
-        <v>0.04913000448183036</v>
+        <v>0.04861855058229089</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.02519331326392783</v>
+        <v>0.06924569943136429</v>
       </c>
       <c r="G129" t="n">
+        <v>0.04861993205637415</v>
+      </c>
+      <c r="J129" t="n">
+        <v>0.02504773429773374</v>
+      </c>
+      <c r="K129" t="n">
         <v>0.04990984582281179</v>
       </c>
-      <c r="J129" t="n">
-        <v>0.05261335812141552</v>
-      </c>
-      <c r="K129" t="n">
-        <v>0.04947386880945646</v>
-      </c>
       <c r="L129" t="n">
-        <v>0.07944704364551453</v>
+        <v>0.05226540325497595</v>
       </c>
       <c r="M129" t="n">
-        <v>0.04965264733201279</v>
+        <v>0.04961015965409699</v>
       </c>
       <c r="N129" t="n">
-        <v>0.02519331326392783</v>
+        <v>0.07958782504984457</v>
       </c>
       <c r="O129" t="n">
-        <v>0.04990984582281179</v>
+        <v>0.04939027360740662</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="F130" t="n">
-        <v>0.02502597960139032</v>
+        <v>0.06952565730006117</v>
       </c>
       <c r="G130" t="n">
+        <v>0.049379618494755</v>
+      </c>
+      <c r="J130" t="n">
+        <v>0.02517055738794267</v>
+      </c>
+      <c r="K130" t="n">
         <v>0.05068968716379323</v>
       </c>
-      <c r="J130" t="n">
-        <v>0.05283028239248108</v>
-      </c>
-      <c r="K130" t="n">
-        <v>0.05024689800960423</v>
-      </c>
       <c r="L130" t="n">
-        <v>0.07889853291379795</v>
+        <v>0.05180435733278069</v>
       </c>
       <c r="M130" t="n">
-        <v>0.05042846994657549</v>
+        <v>0.05038531839869226</v>
       </c>
       <c r="N130" t="n">
-        <v>0.02502597960139032</v>
+        <v>0.07900257854744114</v>
       </c>
       <c r="O130" t="n">
-        <v>0.05068968716379323</v>
+        <v>0.05016199663252235</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="F131" t="n">
-        <v>0.02515227978167196</v>
+        <v>0.06979890708118043</v>
       </c>
       <c r="G131" t="n">
+        <v>0.05013930493313584</v>
+      </c>
+      <c r="J131" t="n">
+        <v>0.02498649418647308</v>
+      </c>
+      <c r="K131" t="n">
         <v>0.05146952850477466</v>
       </c>
-      <c r="J131" t="n">
-        <v>0.05243817528187245</v>
-      </c>
-      <c r="K131" t="n">
-        <v>0.05101992720975198</v>
-      </c>
       <c r="L131" t="n">
-        <v>0.07822024067411276</v>
+        <v>0.05162021610850412</v>
       </c>
       <c r="M131" t="n">
-        <v>0.05120429256113819</v>
+        <v>0.05116047714328752</v>
       </c>
       <c r="N131" t="n">
-        <v>0.02515227978167196</v>
+        <v>0.07878873021219457</v>
       </c>
       <c r="O131" t="n">
-        <v>0.05146952850477466</v>
+        <v>0.05093371965763807</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.02507247027692888</v>
+        <v>0.07006536479056176</v>
       </c>
       <c r="G132" t="n">
+        <v>0.05089899137151669</v>
+      </c>
+      <c r="J132" t="n">
+        <v>0.02489592225973802</v>
+      </c>
+      <c r="K132" t="n">
         <v>0.0522493698457561</v>
       </c>
-      <c r="J132" t="n">
-        <v>0.0523372362368173</v>
-      </c>
-      <c r="K132" t="n">
-        <v>0.05179295640989974</v>
-      </c>
       <c r="L132" t="n">
-        <v>0.07771447908865747</v>
+        <v>0.05131459042150671</v>
       </c>
       <c r="M132" t="n">
-        <v>0.05198011517570088</v>
+        <v>0.05193563588788279</v>
       </c>
       <c r="N132" t="n">
-        <v>0.02507247027692888</v>
+        <v>0.07854757887812402</v>
       </c>
       <c r="O132" t="n">
-        <v>0.0522493698457561</v>
+        <v>0.05170544268275381</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.02498680755931726</v>
+        <v>0.07032494644404495</v>
       </c>
       <c r="G133" t="n">
+        <v>0.05165867780989754</v>
+      </c>
+      <c r="J133" t="n">
+        <v>0.02479921917415055</v>
+      </c>
+      <c r="K133" t="n">
         <v>0.05302921118673753</v>
       </c>
-      <c r="J133" t="n">
-        <v>0.05232766470454339</v>
-      </c>
-      <c r="K133" t="n">
-        <v>0.05256598561004749</v>
-      </c>
       <c r="L133" t="n">
-        <v>0.07748356031963105</v>
+        <v>0.05108909111114895</v>
       </c>
       <c r="M133" t="n">
-        <v>0.05275593779026359</v>
+        <v>0.05271079463247805</v>
       </c>
       <c r="N133" t="n">
-        <v>0.02498680755931726</v>
+        <v>0.07828042337924879</v>
       </c>
       <c r="O133" t="n">
-        <v>0.05302921118673753</v>
+        <v>0.05247716570786953</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.0248955481009932</v>
+        <v>0.07057756805746972</v>
       </c>
       <c r="G134" t="n">
+        <v>0.05241836424827839</v>
+      </c>
+      <c r="J134" t="n">
+        <v>0.02469676249612375</v>
+      </c>
+      <c r="K134" t="n">
         <v>0.05380905252771897</v>
       </c>
-      <c r="J134" t="n">
-        <v>0.05240966013227841</v>
-      </c>
-      <c r="K134" t="n">
-        <v>0.05333901481019525</v>
-      </c>
       <c r="L134" t="n">
-        <v>0.07692979652923221</v>
+        <v>0.05074532901679135</v>
       </c>
       <c r="M134" t="n">
-        <v>0.05353176040482628</v>
+        <v>0.05348595337707331</v>
       </c>
       <c r="N134" t="n">
-        <v>0.0248955481009932</v>
+        <v>0.07748856254958791</v>
       </c>
       <c r="O134" t="n">
-        <v>0.05380905252771897</v>
+        <v>0.05324888873298526</v>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.02459894837411289</v>
+        <v>0.07082314564667579</v>
       </c>
       <c r="G135" t="n">
+        <v>0.05317805068665923</v>
+      </c>
+      <c r="J135" t="n">
+        <v>0.02468892979207064</v>
+      </c>
+      <c r="K135" t="n">
         <v>0.0545888938687004</v>
       </c>
-      <c r="J135" t="n">
-        <v>0.05188342196725002</v>
-      </c>
-      <c r="K135" t="n">
-        <v>0.05411204401034302</v>
-      </c>
       <c r="L135" t="n">
-        <v>0.07645549987965955</v>
+        <v>0.0501849149777944</v>
       </c>
       <c r="M135" t="n">
-        <v>0.05430758301938899</v>
+        <v>0.05426111212166858</v>
       </c>
       <c r="N135" t="n">
-        <v>0.02459894837411289</v>
+        <v>0.07737329522316061</v>
       </c>
       <c r="O135" t="n">
-        <v>0.0545888938687004</v>
+        <v>0.05402061175810099</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.02449726485083242</v>
+        <v>0.07106159522750298</v>
       </c>
       <c r="G136" t="n">
+        <v>0.05393773712504008</v>
+      </c>
+      <c r="J136" t="n">
+        <v>0.0244760986284043</v>
+      </c>
+      <c r="K136" t="n">
         <v>0.05536873520968184</v>
       </c>
-      <c r="J136" t="n">
-        <v>0.05174914965668598</v>
-      </c>
-      <c r="K136" t="n">
-        <v>0.05488507321049077</v>
-      </c>
       <c r="L136" t="n">
-        <v>0.07666298253311193</v>
+        <v>0.04950945983351859</v>
       </c>
       <c r="M136" t="n">
-        <v>0.05508340563395168</v>
+        <v>0.05503627086626386</v>
       </c>
       <c r="N136" t="n">
-        <v>0.02449726485083242</v>
+        <v>0.07683592023398605</v>
       </c>
       <c r="O136" t="n">
-        <v>0.05536873520968184</v>
+        <v>0.05479233478321671</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.02439075400330799</v>
+        <v>0.07129283281579098</v>
       </c>
       <c r="G137" t="n">
+        <v>0.05469742356342092</v>
+      </c>
+      <c r="J137" t="n">
+        <v>0.02425864657153778</v>
+      </c>
+      <c r="K137" t="n">
         <v>0.05614857655066326</v>
       </c>
-      <c r="J137" t="n">
-        <v>0.05210704264781396</v>
-      </c>
-      <c r="K137" t="n">
-        <v>0.05565810241063853</v>
-      </c>
       <c r="L137" t="n">
-        <v>0.07615455665178811</v>
+        <v>0.04912057442332438</v>
       </c>
       <c r="M137" t="n">
-        <v>0.05585922824851439</v>
+        <v>0.05581142961085912</v>
       </c>
       <c r="N137" t="n">
-        <v>0.02439075400330799</v>
+        <v>0.07687773641608336</v>
       </c>
       <c r="O137" t="n">
-        <v>0.05614857655066326</v>
+        <v>0.05556405780833244</v>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.0244796723036957</v>
+        <v>0.07151677442737954</v>
       </c>
       <c r="G138" t="n">
+        <v>0.05545711000180177</v>
+      </c>
+      <c r="J138" t="n">
+        <v>0.02423695118788415</v>
+      </c>
+      <c r="K138" t="n">
         <v>0.0569284178916447</v>
       </c>
-      <c r="J138" t="n">
-        <v>0.0514573003878617</v>
-      </c>
-      <c r="K138" t="n">
-        <v>0.05643113161078629</v>
-      </c>
       <c r="L138" t="n">
-        <v>0.07483253439788679</v>
+        <v>0.04871986958657229</v>
       </c>
       <c r="M138" t="n">
-        <v>0.05663505086307709</v>
+        <v>0.05658658835545438</v>
       </c>
       <c r="N138" t="n">
-        <v>0.0244796723036957</v>
+        <v>0.07610004260347164</v>
       </c>
       <c r="O138" t="n">
-        <v>0.0569284178916447</v>
+        <v>0.05633578083344817</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.02436427622415173</v>
+        <v>0.07173333607810838</v>
       </c>
       <c r="G139" t="n">
+        <v>0.05621679644018262</v>
+      </c>
+      <c r="J139" t="n">
+        <v>0.02411139004385647</v>
+      </c>
+      <c r="K139" t="n">
         <v>0.05770825923262614</v>
       </c>
-      <c r="J139" t="n">
-        <v>0.05140012232405686</v>
-      </c>
-      <c r="K139" t="n">
-        <v>0.05720416081093404</v>
-      </c>
       <c r="L139" t="n">
-        <v>0.07479922793360672</v>
+        <v>0.04870895616262277</v>
       </c>
       <c r="M139" t="n">
-        <v>0.05741087347763978</v>
+        <v>0.05736174710004965</v>
       </c>
       <c r="N139" t="n">
-        <v>0.02436427622415173</v>
+        <v>0.07570413763017014</v>
       </c>
       <c r="O139" t="n">
-        <v>0.05770825923262614</v>
+        <v>0.05710750385856391</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.02424482223683218</v>
+        <v>0.0719424337838173</v>
       </c>
       <c r="G140" t="n">
+        <v>0.05697648287856346</v>
+      </c>
+      <c r="J140" t="n">
+        <v>0.0238823407058678</v>
+      </c>
+      <c r="K140" t="n">
         <v>0.05848810057360757</v>
       </c>
-      <c r="J140" t="n">
-        <v>0.05113570790362718</v>
-      </c>
-      <c r="K140" t="n">
-        <v>0.05797719001108179</v>
-      </c>
       <c r="L140" t="n">
-        <v>0.07385694942114668</v>
+        <v>0.04788944499083636</v>
       </c>
       <c r="M140" t="n">
-        <v>0.05818669609220248</v>
+        <v>0.05813690584464491</v>
       </c>
       <c r="N140" t="n">
-        <v>0.02424482223683218</v>
+        <v>0.07539132033019802</v>
       </c>
       <c r="O140" t="n">
-        <v>0.05848810057360757</v>
+        <v>0.05787922688367964</v>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.0241215668138932</v>
+        <v>0.07214398356034597</v>
       </c>
       <c r="G141" t="n">
+        <v>0.05773616931694431</v>
+      </c>
+      <c r="J141" t="n">
+        <v>0.02375018074033118</v>
+      </c>
+      <c r="K141" t="n">
         <v>0.05926794191458901</v>
       </c>
-      <c r="J141" t="n">
-        <v>0.05146425657380033</v>
-      </c>
-      <c r="K141" t="n">
-        <v>0.05875021921122955</v>
-      </c>
       <c r="L141" t="n">
-        <v>0.07380801102270529</v>
+        <v>0.04776294691057348</v>
       </c>
       <c r="M141" t="n">
-        <v>0.05896251870676519</v>
+        <v>0.05891206458924017</v>
       </c>
       <c r="N141" t="n">
-        <v>0.0241215668138932</v>
+        <v>0.07446288953757435</v>
       </c>
       <c r="O141" t="n">
-        <v>0.05926794191458901</v>
+        <v>0.05865094990879536</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.02379476642749097</v>
+        <v>0.07233790142353423</v>
       </c>
       <c r="G142" t="n">
+        <v>0.05849585575532515</v>
+      </c>
+      <c r="J142" t="n">
+        <v>0.02371528771365967</v>
+      </c>
+      <c r="K142" t="n">
         <v>0.06004778325557045</v>
       </c>
-      <c r="J142" t="n">
-        <v>0.05078596778180408</v>
-      </c>
-      <c r="K142" t="n">
-        <v>0.05952324841137731</v>
-      </c>
       <c r="L142" t="n">
-        <v>0.07265472490048136</v>
+        <v>0.04733107276119466</v>
       </c>
       <c r="M142" t="n">
-        <v>0.05973834132132789</v>
+        <v>0.05968722333383545</v>
       </c>
       <c r="N142" t="n">
-        <v>0.02379476642749097</v>
+        <v>0.0736201440863184</v>
       </c>
       <c r="O142" t="n">
-        <v>0.06004778325557045</v>
+        <v>0.05942267293391109</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.02386467754978161</v>
+        <v>0.07252410338922173</v>
       </c>
       <c r="G143" t="n">
+        <v>0.059255542193706</v>
+      </c>
+      <c r="J143" t="n">
+        <v>0.02347803919226636</v>
+      </c>
+      <c r="K143" t="n">
         <v>0.06082762459655187</v>
       </c>
-      <c r="J143" t="n">
-        <v>0.05080104097486607</v>
-      </c>
-      <c r="K143" t="n">
-        <v>0.06029627761152506</v>
-      </c>
       <c r="L143" t="n">
-        <v>0.07269940321667379</v>
+        <v>0.04669543338206039</v>
       </c>
       <c r="M143" t="n">
-        <v>0.06051416393589058</v>
+        <v>0.06046238207843071</v>
       </c>
       <c r="N143" t="n">
-        <v>0.02386467754978161</v>
+        <v>0.07356438281044925</v>
       </c>
       <c r="O143" t="n">
-        <v>0.06082762459655187</v>
+        <v>0.06019439595902681</v>
       </c>
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.02363155665292126</v>
+        <v>0.07270250547324826</v>
       </c>
       <c r="G144" t="n">
+        <v>0.06001522863208684</v>
+      </c>
+      <c r="J144" t="n">
+        <v>0.02333881274256427</v>
+      </c>
+      <c r="K144" t="n">
         <v>0.06160746593753331</v>
       </c>
-      <c r="J144" t="n">
-        <v>0.05070967560021403</v>
-      </c>
-      <c r="K144" t="n">
-        <v>0.06106930681167282</v>
-      </c>
       <c r="L144" t="n">
-        <v>0.07164435813348108</v>
+        <v>0.04665763961253117</v>
       </c>
       <c r="M144" t="n">
-        <v>0.06128998655045328</v>
+        <v>0.06123754082302597</v>
       </c>
       <c r="N144" t="n">
-        <v>0.02363155665292126</v>
+        <v>0.07249690454398611</v>
       </c>
       <c r="O144" t="n">
-        <v>0.06160746593753331</v>
+        <v>0.06096611898414254</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.02359566020906607</v>
+        <v>0.07287302369145358</v>
       </c>
       <c r="G145" t="n">
+        <v>0.06077491507046769</v>
+      </c>
+      <c r="J145" t="n">
+        <v>0.02339798593096649</v>
+      </c>
+      <c r="K145" t="n">
         <v>0.06238730727851474</v>
       </c>
-      <c r="J145" t="n">
-        <v>0.05021207110507564</v>
-      </c>
-      <c r="K145" t="n">
-        <v>0.06184233601182059</v>
-      </c>
       <c r="L145" t="n">
-        <v>0.07169190181310209</v>
+        <v>0.04611930229196748</v>
       </c>
       <c r="M145" t="n">
-        <v>0.06206580916501599</v>
+        <v>0.06201269956762124</v>
       </c>
       <c r="N145" t="n">
-        <v>0.02359566020906607</v>
+        <v>0.07251900812094814</v>
       </c>
       <c r="O145" t="n">
-        <v>0.06238730727851474</v>
+        <v>0.06173784200925827</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.02345724469037218</v>
+        <v>0.07303557405967741</v>
       </c>
       <c r="G146" t="n">
+        <v>0.06153460150884854</v>
+      </c>
+      <c r="J146" t="n">
+        <v>0.02315593632388607</v>
+      </c>
+      <c r="K146" t="n">
         <v>0.06316714861949618</v>
       </c>
-      <c r="J146" t="n">
-        <v>0.05010842693667866</v>
-      </c>
-      <c r="K146" t="n">
-        <v>0.06261536521196835</v>
-      </c>
       <c r="L146" t="n">
-        <v>0.07114434641773559</v>
+        <v>0.04538203225972973</v>
       </c>
       <c r="M146" t="n">
-        <v>0.06284163177957869</v>
+        <v>0.0627878583122165</v>
       </c>
       <c r="N146" t="n">
-        <v>0.02345724469037218</v>
+        <v>0.07213199237535439</v>
       </c>
       <c r="O146" t="n">
-        <v>0.06316714861949618</v>
+        <v>0.06250956503437399</v>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.02321656656899573</v>
+        <v>0.07319007259375949</v>
       </c>
       <c r="G147" t="n">
+        <v>0.06229428794722938</v>
+      </c>
+      <c r="J147" t="n">
+        <v>0.02291304148773605</v>
+      </c>
+      <c r="K147" t="n">
         <v>0.06394698996047761</v>
       </c>
-      <c r="J147" t="n">
-        <v>0.05009894254225075</v>
-      </c>
-      <c r="K147" t="n">
-        <v>0.06338839441211611</v>
-      </c>
       <c r="L147" t="n">
-        <v>0.07010400410958023</v>
+        <v>0.04504744035517852</v>
       </c>
       <c r="M147" t="n">
-        <v>0.06361745439414139</v>
+        <v>0.06356301705681176</v>
       </c>
       <c r="N147" t="n">
-        <v>0.02321656656899573</v>
+        <v>0.07083715614122416</v>
       </c>
       <c r="O147" t="n">
-        <v>0.06394698996047761</v>
+        <v>0.06328128805948972</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.02317388231709287</v>
+        <v>0.07333643530953952</v>
       </c>
       <c r="G148" t="n">
+        <v>0.06305397438561024</v>
+      </c>
+      <c r="J148" t="n">
+        <v>0.02296967898892953</v>
+      </c>
+      <c r="K148" t="n">
         <v>0.06472683130145904</v>
       </c>
-      <c r="J148" t="n">
-        <v>0.04968381736901964</v>
-      </c>
-      <c r="K148" t="n">
-        <v>0.06416142361226386</v>
-      </c>
       <c r="L148" t="n">
-        <v>0.07017318705083486</v>
+        <v>0.04461713741767429</v>
       </c>
       <c r="M148" t="n">
-        <v>0.06439327700870408</v>
+        <v>0.06433817580140704</v>
       </c>
       <c r="N148" t="n">
-        <v>0.02317388231709287</v>
+        <v>0.07033579825257646</v>
       </c>
       <c r="O148" t="n">
-        <v>0.06472683130145904</v>
+        <v>0.06405301108460545</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.02292944840681974</v>
+        <v>0.07347457822285734</v>
       </c>
       <c r="G149" t="n">
+        <v>0.06381366082399108</v>
+      </c>
+      <c r="J149" t="n">
+        <v>0.02272622639387953</v>
+      </c>
+      <c r="K149" t="n">
         <v>0.06550667264244048</v>
       </c>
-      <c r="J149" t="n">
-        <v>0.049663250864213</v>
-      </c>
-      <c r="K149" t="n">
-        <v>0.06493445281241161</v>
-      </c>
       <c r="L149" t="n">
-        <v>0.06925420740369814</v>
+        <v>0.04449273428657752</v>
       </c>
       <c r="M149" t="n">
-        <v>0.06516909962326678</v>
+        <v>0.06511333454600231</v>
       </c>
       <c r="N149" t="n">
-        <v>0.02292944840681974</v>
+        <v>0.07022921754343064</v>
       </c>
       <c r="O149" t="n">
-        <v>0.06550667264244048</v>
+        <v>0.06482473410972119</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.02278352131033248</v>
+        <v>0.07360441734955263</v>
       </c>
       <c r="G150" t="n">
+        <v>0.06457334726237192</v>
+      </c>
+      <c r="J150" t="n">
+        <v>0.02268306126899911</v>
+      </c>
+      <c r="K150" t="n">
         <v>0.06628651398342192</v>
       </c>
-      <c r="J150" t="n">
-        <v>0.04933744247505858</v>
-      </c>
-      <c r="K150" t="n">
-        <v>0.06570748201255937</v>
-      </c>
       <c r="L150" t="n">
-        <v>0.06884937733036883</v>
+        <v>0.04377584180124869</v>
       </c>
       <c r="M150" t="n">
-        <v>0.06594492223782948</v>
+        <v>0.06588849329059757</v>
       </c>
       <c r="N150" t="n">
-        <v>0.02278352131033248</v>
+        <v>0.06941871284780565</v>
       </c>
       <c r="O150" t="n">
-        <v>0.06628651398342192</v>
+        <v>0.06559645713483692</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.02273635749978722</v>
+        <v>0.07372586870546514</v>
       </c>
       <c r="G151" t="n">
+        <v>0.06533303370075276</v>
+      </c>
+      <c r="J151" t="n">
+        <v>0.02244056118070134</v>
+      </c>
+      <c r="K151" t="n">
         <v>0.06706635532440335</v>
       </c>
-      <c r="J151" t="n">
-        <v>0.04920659164878408</v>
-      </c>
-      <c r="K151" t="n">
-        <v>0.06648051121270712</v>
-      </c>
       <c r="L151" t="n">
-        <v>0.06836100899304576</v>
+        <v>0.04336807080104835</v>
       </c>
       <c r="M151" t="n">
-        <v>0.06672074485239218</v>
+        <v>0.06666365203519282</v>
       </c>
       <c r="N151" t="n">
-        <v>0.02273635749978722</v>
+        <v>0.06910558299972086</v>
       </c>
       <c r="O151" t="n">
-        <v>0.06706635532440335</v>
+        <v>0.06636818015995265</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.02238821344734014</v>
+        <v>0.07383884830643463</v>
       </c>
       <c r="G152" t="n">
+        <v>0.06609272013913361</v>
+      </c>
+      <c r="J152" t="n">
+        <v>0.0223991036953993</v>
+      </c>
+      <c r="K152" t="n">
         <v>0.06784619666538479</v>
       </c>
-      <c r="J152" t="n">
-        <v>0.04917089783261713</v>
-      </c>
-      <c r="K152" t="n">
-        <v>0.06725354041285488</v>
-      </c>
       <c r="L152" t="n">
-        <v>0.0673914145539275</v>
+        <v>0.04277103212533689</v>
       </c>
       <c r="M152" t="n">
-        <v>0.06749656746695488</v>
+        <v>0.0674388107797881</v>
       </c>
       <c r="N152" t="n">
-        <v>0.02238821344734014</v>
+        <v>0.06849112683319525</v>
       </c>
       <c r="O152" t="n">
-        <v>0.06784619666538479</v>
+        <v>0.06713990318506838</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.02243934562514736</v>
+        <v>0.07394327216830084</v>
       </c>
       <c r="G153" t="n">
+        <v>0.06685240657751447</v>
+      </c>
+      <c r="J153" t="n">
+        <v>0.022059066379506</v>
+      </c>
+      <c r="K153" t="n">
         <v>0.06862603800636623</v>
       </c>
-      <c r="J153" t="n">
-        <v>0.04883056047378556</v>
-      </c>
-      <c r="K153" t="n">
-        <v>0.06802656961300264</v>
-      </c>
       <c r="L153" t="n">
-        <v>0.06714290617521301</v>
+        <v>0.04238633661347485</v>
       </c>
       <c r="M153" t="n">
-        <v>0.06827239008151759</v>
+        <v>0.06821396952438336</v>
       </c>
       <c r="N153" t="n">
-        <v>0.02243934562514736</v>
+        <v>0.06777664318224813</v>
       </c>
       <c r="O153" t="n">
-        <v>0.06862603800636623</v>
+        <v>0.0679116262101841</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.02229001050536503</v>
+        <v>0.07403905630690351</v>
       </c>
       <c r="G154" t="n">
+        <v>0.06761209301589531</v>
+      </c>
+      <c r="J154" t="n">
+        <v>0.02202082679943454</v>
+      </c>
+      <c r="K154" t="n">
         <v>0.06940587934734765</v>
       </c>
-      <c r="J154" t="n">
-        <v>0.04868577901951696</v>
-      </c>
-      <c r="K154" t="n">
-        <v>0.0687995988131504</v>
-      </c>
       <c r="L154" t="n">
-        <v>0.06721779601910088</v>
+        <v>0.04211559510482274</v>
       </c>
       <c r="M154" t="n">
-        <v>0.06904821269608027</v>
+        <v>0.06898912826897863</v>
       </c>
       <c r="N154" t="n">
-        <v>0.02229001050536503</v>
+        <v>0.06656343088089856</v>
       </c>
       <c r="O154" t="n">
-        <v>0.06940587934734765</v>
+        <v>0.06868334923529983</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.02204046456014927</v>
+        <v>0.07412611673808238</v>
       </c>
       <c r="G155" t="n">
+        <v>0.06837177945427615</v>
+      </c>
+      <c r="J155" t="n">
+        <v>0.02188476252159796</v>
+      </c>
+      <c r="K155" t="n">
         <v>0.07018572068832908</v>
       </c>
-      <c r="J155" t="n">
-        <v>0.04843675291703908</v>
-      </c>
-      <c r="K155" t="n">
-        <v>0.06957262801329815</v>
-      </c>
       <c r="L155" t="n">
-        <v>0.06611259253426732</v>
+        <v>0.04216041843874102</v>
       </c>
       <c r="M155" t="n">
-        <v>0.06982403531064299</v>
+        <v>0.0697642870135739</v>
       </c>
       <c r="N155" t="n">
-        <v>0.02204046456014927</v>
+        <v>0.06595278876316568</v>
       </c>
       <c r="O155" t="n">
-        <v>0.07018572068832908</v>
+        <v>0.06945507226041556</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.02199096426165627</v>
+        <v>0.07420436947767718</v>
       </c>
       <c r="G156" t="n">
+        <v>0.06913146589265699</v>
+      </c>
+      <c r="J156" t="n">
+        <v>0.02185125111240933</v>
+      </c>
+      <c r="K156" t="n">
         <v>0.07096556202931052</v>
       </c>
-      <c r="J156" t="n">
-        <v>0.04808368161357965</v>
-      </c>
-      <c r="K156" t="n">
-        <v>0.07034565721344592</v>
-      </c>
       <c r="L156" t="n">
-        <v>0.06651631861958807</v>
+        <v>0.04172241745459021</v>
       </c>
       <c r="M156" t="n">
-        <v>0.07059985792520568</v>
+        <v>0.07053944575816916</v>
       </c>
       <c r="N156" t="n">
-        <v>0.02199096426165627</v>
+        <v>0.06554601566306867</v>
       </c>
       <c r="O156" t="n">
-        <v>0.07096556202931052</v>
+        <v>0.07022679528553129</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.02184176608204212</v>
+        <v>0.07427373054152765</v>
       </c>
       <c r="G157" t="n">
+        <v>0.06989115233103785</v>
+      </c>
+      <c r="J157" t="n">
+        <v>0.0217206701382817</v>
+      </c>
+      <c r="K157" t="n">
         <v>0.07174540337029196</v>
       </c>
-      <c r="J157" t="n">
-        <v>0.04762676455636633</v>
-      </c>
-      <c r="K157" t="n">
-        <v>0.07111868641359367</v>
-      </c>
       <c r="L157" t="n">
-        <v>0.06542799480456102</v>
+        <v>0.04140320299173073</v>
       </c>
       <c r="M157" t="n">
-        <v>0.07137568053976839</v>
+        <v>0.07131460450276443</v>
       </c>
       <c r="N157" t="n">
-        <v>0.02184176608204212</v>
+        <v>0.06544441041462673</v>
       </c>
       <c r="O157" t="n">
-        <v>0.07174540337029196</v>
+        <v>0.070998518310647</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.02169312649346299</v>
+        <v>0.07433411594547361</v>
       </c>
       <c r="G158" t="n">
+        <v>0.07065083876941869</v>
+      </c>
+      <c r="J158" t="n">
+        <v>0.02149086142826706</v>
+      </c>
+      <c r="K158" t="n">
         <v>0.07252524471127339</v>
       </c>
-      <c r="J158" t="n">
-        <v>0.04726620119262684</v>
-      </c>
-      <c r="K158" t="n">
-        <v>0.07189171561374143</v>
-      </c>
       <c r="L158" t="n">
-        <v>0.06544695289798852</v>
+        <v>0.04079941032228154</v>
       </c>
       <c r="M158" t="n">
-        <v>0.07215150315433108</v>
+        <v>0.07208976324735969</v>
       </c>
       <c r="N158" t="n">
-        <v>0.02169312649346299</v>
+        <v>0.06482452749506662</v>
       </c>
       <c r="O158" t="n">
-        <v>0.07252524471127339</v>
+        <v>0.07177024133576274</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.02154530196807504</v>
+        <v>0.0743854417053547</v>
       </c>
       <c r="G159" t="n">
+        <v>0.07141052520779954</v>
+      </c>
+      <c r="J159" t="n">
+        <v>0.02125770789601096</v>
+      </c>
+      <c r="K159" t="n">
         <v>0.07330508605225482</v>
       </c>
-      <c r="J159" t="n">
-        <v>0.04740219096958889</v>
-      </c>
-      <c r="K159" t="n">
-        <v>0.07266474481388918</v>
-      </c>
       <c r="L159" t="n">
-        <v>0.06487252470867311</v>
+        <v>0.04070302189385916</v>
       </c>
       <c r="M159" t="n">
-        <v>0.07292732576889378</v>
+        <v>0.07286492199195495</v>
       </c>
       <c r="N159" t="n">
-        <v>0.02154530196807504</v>
+        <v>0.06374623585457923</v>
       </c>
       <c r="O159" t="n">
-        <v>0.07330508605225482</v>
+        <v>0.07254196436087848</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.02119854897803437</v>
+        <v>0.07442762383701075</v>
       </c>
       <c r="G160" t="n">
+        <v>0.07217021164618038</v>
+      </c>
+      <c r="J160" t="n">
+        <v>0.02112127312976912</v>
+      </c>
+      <c r="K160" t="n">
         <v>0.07408492739323626</v>
       </c>
-      <c r="J160" t="n">
-        <v>0.04713493333448024</v>
-      </c>
-      <c r="K160" t="n">
-        <v>0.07343777401403695</v>
-      </c>
       <c r="L160" t="n">
-        <v>0.06450404204541726</v>
+        <v>0.04031333779939447</v>
       </c>
       <c r="M160" t="n">
-        <v>0.07370314838345648</v>
+        <v>0.07364008073655022</v>
       </c>
       <c r="N160" t="n">
-        <v>0.02119854897803437</v>
+        <v>0.06291246936484063</v>
       </c>
       <c r="O160" t="n">
-        <v>0.07408492739323626</v>
+        <v>0.0733136873859942</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.02115312399549717</v>
+        <v>0.07446057835628143</v>
       </c>
       <c r="G161" t="n">
+        <v>0.07292989808456123</v>
+      </c>
+      <c r="J161" t="n">
+        <v>0.02098169504350975</v>
+      </c>
+      <c r="K161" t="n">
         <v>0.0748647687342177</v>
       </c>
-      <c r="J161" t="n">
-        <v>0.04666462773452848</v>
-      </c>
-      <c r="K161" t="n">
-        <v>0.0742108032141847</v>
-      </c>
       <c r="L161" t="n">
-        <v>0.06444083671702361</v>
+        <v>0.04032978447872076</v>
       </c>
       <c r="M161" t="n">
-        <v>0.07447897099801919</v>
+        <v>0.07441523948114549</v>
       </c>
       <c r="N161" t="n">
-        <v>0.02115312399549717</v>
+        <v>0.06252692673090182</v>
       </c>
       <c r="O161" t="n">
-        <v>0.0748647687342177</v>
+        <v>0.07408541041110993</v>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.02100928349261953</v>
+        <v>0.07448422127900652</v>
       </c>
       <c r="G162" t="n">
+        <v>0.07368958452294208</v>
+      </c>
+      <c r="J162" t="n">
+        <v>0.02093911155120097</v>
+      </c>
+      <c r="K162" t="n">
         <v>0.07564461007519913</v>
       </c>
-      <c r="J162" t="n">
-        <v>0.0462914736169614</v>
-      </c>
-      <c r="K162" t="n">
-        <v>0.07498383241433246</v>
-      </c>
       <c r="L162" t="n">
-        <v>0.0640822405322945</v>
+        <v>0.03965178837167146</v>
       </c>
       <c r="M162" t="n">
-        <v>0.07525479361258189</v>
+        <v>0.07519039822574075</v>
       </c>
       <c r="N162" t="n">
-        <v>0.02100928349261953</v>
+        <v>0.06139330665781334</v>
       </c>
       <c r="O162" t="n">
-        <v>0.07564461007519913</v>
+        <v>0.07485713343622566</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.02096728394155765</v>
+        <v>0.07449846862102578</v>
       </c>
       <c r="G163" t="n">
+        <v>0.07444927096132292</v>
+      </c>
+      <c r="J163" t="n">
+        <v>0.02069366056681096</v>
+      </c>
+      <c r="K163" t="n">
         <v>0.07642445141618057</v>
       </c>
-      <c r="J163" t="n">
-        <v>0.04601567042900667</v>
-      </c>
-      <c r="K163" t="n">
-        <v>0.07575686161448021</v>
-      </c>
       <c r="L163" t="n">
-        <v>0.06322758530003258</v>
+        <v>0.03947877591807997</v>
       </c>
       <c r="M163" t="n">
-        <v>0.07603061622714458</v>
+        <v>0.07596555697033602</v>
       </c>
       <c r="N163" t="n">
-        <v>0.02096728394155765</v>
+        <v>0.06061530785062635</v>
       </c>
       <c r="O163" t="n">
-        <v>0.07642445141618057</v>
+        <v>0.07562885646134139</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.02072738181446764</v>
+        <v>0.07450323639817889</v>
       </c>
       <c r="G164" t="n">
+        <v>0.07520895739970378</v>
+      </c>
+      <c r="J164" t="n">
+        <v>0.02054548000430786</v>
+      </c>
+      <c r="K164" t="n">
         <v>0.07720429275716199</v>
       </c>
-      <c r="J164" t="n">
-        <v>0.04593741761789202</v>
-      </c>
-      <c r="K164" t="n">
-        <v>0.07652989081462797</v>
-      </c>
       <c r="L164" t="n">
-        <v>0.06357620282904014</v>
+        <v>0.03921017355777962</v>
       </c>
       <c r="M164" t="n">
-        <v>0.07680643884170728</v>
+        <v>0.07674071571493128</v>
       </c>
       <c r="N164" t="n">
-        <v>0.02072738181446764</v>
+        <v>0.05929662901439164</v>
       </c>
       <c r="O164" t="n">
-        <v>0.07720429275716199</v>
+        <v>0.07640057948645711</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.02058983358350565</v>
+        <v>0.07450323639817892</v>
       </c>
       <c r="G165" t="n">
+        <v>0.07520895739970378</v>
+      </c>
+      <c r="J165" t="n">
+        <v>0.02049470777765985</v>
+      </c>
+      <c r="K165" t="n">
         <v>0.07798413409814342</v>
       </c>
-      <c r="J165" t="n">
-        <v>0.04555691463084513</v>
-      </c>
-      <c r="K165" t="n">
-        <v>0.07730292001477572</v>
-      </c>
       <c r="L165" t="n">
-        <v>0.06262742492812001</v>
+        <v>0.03884540773060377</v>
       </c>
       <c r="M165" t="n">
-        <v>0.07758226145626998</v>
+        <v>0.07751587445952654</v>
       </c>
       <c r="N165" t="n">
-        <v>0.02058983358350565</v>
+        <v>0.05884096885415996</v>
       </c>
       <c r="O165" t="n">
-        <v>0.07798413409814342</v>
+        <v>0.07717230251157284</v>
       </c>
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="F166" t="n">
-        <v>0.02035489572082781</v>
+        <v>0.07325156939989379</v>
       </c>
       <c r="G166" t="n">
+        <v>0.07520868887123976</v>
+      </c>
+      <c r="J166" t="n">
+        <v>0.02024148180083511</v>
+      </c>
+      <c r="K166" t="n">
         <v>0.07876397543912486</v>
       </c>
-      <c r="J166" t="n">
-        <v>0.04517436091509372</v>
-      </c>
-      <c r="K166" t="n">
-        <v>0.07807594921492349</v>
-      </c>
       <c r="L166" t="n">
-        <v>0.06258058340607442</v>
+        <v>0.03878390487638583</v>
       </c>
       <c r="M166" t="n">
-        <v>0.07835808407083268</v>
+        <v>0.07829103320412183</v>
       </c>
       <c r="N166" t="n">
-        <v>0.02035489572082781</v>
+        <v>0.05765202607498221</v>
       </c>
       <c r="O166" t="n">
-        <v>0.07876397543912486</v>
+        <v>0.07794402553668857</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="F167" t="n">
-        <v>0.02032281346418614</v>
+        <v>0.07201403775515049</v>
       </c>
       <c r="G167" t="n">
+        <v>0.07520842034277575</v>
+      </c>
+      <c r="J167" t="n">
+        <v>0.02018593998780177</v>
+      </c>
+      <c r="K167" t="n">
         <v>0.0795438167801063</v>
       </c>
-      <c r="J167" t="n">
-        <v>0.04508995591786549</v>
-      </c>
-      <c r="K167" t="n">
-        <v>0.07884897841507126</v>
-      </c>
       <c r="L167" t="n">
-        <v>0.061835010071706</v>
+        <v>0.03832509143495924</v>
       </c>
       <c r="M167" t="n">
-        <v>0.07913390668539538</v>
+        <v>0.07906619194871709</v>
       </c>
       <c r="N167" t="n">
-        <v>0.02032281346418614</v>
+        <v>0.05663349938190931</v>
       </c>
       <c r="O167" t="n">
-        <v>0.0795438167801063</v>
+        <v>0.0787157485618043</v>
       </c>
     </row>
     <row r="168" ht="15" customHeight="1">
       <c r="F168" t="n">
-        <v>0.02029338115833752</v>
+        <v>0.07079133252497967</v>
       </c>
       <c r="G168" t="n">
+        <v>0.07520815181431172</v>
+      </c>
+      <c r="J168" t="n">
+        <v>0.020028220252528</v>
+      </c>
+      <c r="K168" t="n">
         <v>0.08032365812108773</v>
       </c>
-      <c r="J168" t="n">
-        <v>0.04470389908638811</v>
-      </c>
-      <c r="K168" t="n">
-        <v>0.07962200761521901</v>
-      </c>
       <c r="L168" t="n">
-        <v>0.06189003673381721</v>
+        <v>0.0384683938461573</v>
       </c>
       <c r="M168" t="n">
-        <v>0.07990972929995808</v>
+        <v>0.07984135069331234</v>
       </c>
       <c r="N168" t="n">
-        <v>0.02029338115833752</v>
+        <v>0.05558908747999208</v>
       </c>
       <c r="O168" t="n">
-        <v>0.08032365812108773</v>
+        <v>0.07948747158692002</v>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1">
       <c r="F169" t="n">
-        <v>0.02006615354979346</v>
+        <v>0.06958414477057127</v>
       </c>
       <c r="G169" t="n">
+        <v>0.07520788328584771</v>
+      </c>
+      <c r="J169" t="n">
+        <v>0.01996846050898196</v>
+      </c>
+      <c r="K169" t="n">
         <v>0.08110349946206916</v>
       </c>
-      <c r="J169" t="n">
-        <v>0.04431638986788936</v>
-      </c>
-      <c r="K169" t="n">
-        <v>0.08039503681536676</v>
-      </c>
       <c r="L169" t="n">
-        <v>0.06144499520121055</v>
+        <v>0.0382132385498134</v>
       </c>
       <c r="M169" t="n">
-        <v>0.08068555191452077</v>
+        <v>0.08061650943790762</v>
       </c>
       <c r="N169" t="n">
-        <v>0.02006615354979346</v>
+        <v>0.05482248907428144</v>
       </c>
       <c r="O169" t="n">
-        <v>0.08110349946206916</v>
+        <v>0.08025919461203576</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1">
       <c r="F170" t="n">
-        <v>0.01994075957956645</v>
+        <v>0.06839316555295542</v>
       </c>
       <c r="G170" t="n">
+        <v>0.07520761475738369</v>
+      </c>
+      <c r="J170" t="n">
+        <v>0.0198067986711318</v>
+      </c>
+      <c r="K170" t="n">
         <v>0.0818833408030506</v>
       </c>
-      <c r="J170" t="n">
-        <v>0.04392762770959691</v>
-      </c>
-      <c r="K170" t="n">
-        <v>0.08116806601551452</v>
-      </c>
       <c r="L170" t="n">
-        <v>0.06149921728268865</v>
+        <v>0.03765905198576089</v>
       </c>
       <c r="M170" t="n">
-        <v>0.08146137452908349</v>
+        <v>0.08139166818250287</v>
       </c>
       <c r="N170" t="n">
-        <v>0.01994075957956645</v>
+        <v>0.05373740286982809</v>
       </c>
       <c r="O170" t="n">
-        <v>0.0818833408030506</v>
+        <v>0.08103091763715149</v>
       </c>
     </row>
     <row r="171" ht="15" customHeight="1">
       <c r="F171" t="n">
-        <v>0.01971682818866895</v>
+        <v>0.06721908593321556</v>
       </c>
       <c r="G171" t="n">
+        <v>0.07520734622891967</v>
+      </c>
+      <c r="J171" t="n">
+        <v>0.01954337265294571</v>
+      </c>
+      <c r="K171" t="n">
         <v>0.08266318214403204</v>
       </c>
-      <c r="J171" t="n">
-        <v>0.04393781205873845</v>
-      </c>
-      <c r="K171" t="n">
-        <v>0.08194109521566227</v>
-      </c>
       <c r="L171" t="n">
-        <v>0.06035203478705387</v>
+        <v>0.0377052605938332</v>
       </c>
       <c r="M171" t="n">
-        <v>0.08223719714364618</v>
+        <v>0.08216682692709813</v>
       </c>
       <c r="N171" t="n">
-        <v>0.01971682818866895</v>
+        <v>0.05273752757168298</v>
       </c>
       <c r="O171" t="n">
-        <v>0.08266318214403204</v>
+        <v>0.08180264066226721</v>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1">
       <c r="F172" t="n">
-        <v>0.01979398831811337</v>
+        <v>0.06606259697238541</v>
       </c>
       <c r="G172" t="n">
+        <v>0.07520707770045565</v>
+      </c>
+      <c r="J172" t="n">
+        <v>0.01927832036839183</v>
+      </c>
+      <c r="K172" t="n">
         <v>0.08344302348501347</v>
       </c>
-      <c r="J172" t="n">
-        <v>0.04374714236254168</v>
-      </c>
-      <c r="K172" t="n">
-        <v>0.08271412441581003</v>
-      </c>
       <c r="L172" t="n">
-        <v>0.06070277952310876</v>
+        <v>0.03705129081386369</v>
       </c>
       <c r="M172" t="n">
-        <v>0.08301301975820889</v>
+        <v>0.08294198567169342</v>
       </c>
       <c r="N172" t="n">
-        <v>0.01979398831811337</v>
+        <v>0.05102656188489713</v>
       </c>
       <c r="O172" t="n">
-        <v>0.08344302348501347</v>
+        <v>0.08257436368738294</v>
       </c>
     </row>
     <row r="173" ht="15" customHeight="1">
       <c r="F173" t="n">
-        <v>0.01967186890891219</v>
+        <v>0.06492438973164916</v>
       </c>
       <c r="G173" t="n">
+        <v>0.07520680917199163</v>
+      </c>
+      <c r="J173" t="n">
+        <v>0.01921177973143834</v>
+      </c>
+      <c r="K173" t="n">
         <v>0.08422286482599491</v>
       </c>
-      <c r="J173" t="n">
-        <v>0.04345581806823429</v>
-      </c>
-      <c r="K173" t="n">
-        <v>0.08348715361595778</v>
-      </c>
       <c r="L173" t="n">
-        <v>0.05975078329965583</v>
+        <v>0.03699656908568569</v>
       </c>
       <c r="M173" t="n">
-        <v>0.08378884237277158</v>
+        <v>0.08371714441628868</v>
       </c>
       <c r="N173" t="n">
-        <v>0.01967186890891219</v>
+        <v>0.05010820451452108</v>
       </c>
       <c r="O173" t="n">
-        <v>0.08422286482599491</v>
+        <v>0.08334608671249867</v>
       </c>
     </row>
     <row r="174" ht="15" customHeight="1">
       <c r="F174" t="n">
-        <v>0.01955009890207784</v>
+        <v>0.06380515527203967</v>
       </c>
       <c r="G174" t="n">
+        <v>0.07520654064352762</v>
+      </c>
+      <c r="J174" t="n">
+        <v>0.01914388865605336</v>
+      </c>
+      <c r="K174" t="n">
         <v>0.08500270616697635</v>
       </c>
-      <c r="J174" t="n">
-        <v>0.04266403862304408</v>
-      </c>
-      <c r="K174" t="n">
-        <v>0.08426018281610555</v>
-      </c>
       <c r="L174" t="n">
-        <v>0.05989537792549759</v>
+        <v>0.03654052184913265</v>
       </c>
       <c r="M174" t="n">
-        <v>0.08456466498733428</v>
+        <v>0.08449230316088394</v>
       </c>
       <c r="N174" t="n">
-        <v>0.01955009890207784</v>
+        <v>0.04938615416560599</v>
       </c>
       <c r="O174" t="n">
-        <v>0.08500270616697635</v>
+        <v>0.0841178097376144</v>
       </c>
     </row>
     <row r="175" ht="15" customHeight="1">
       <c r="F175" t="n">
-        <v>0.01922830723862279</v>
+        <v>0.06270558465464048</v>
       </c>
       <c r="G175" t="n">
+        <v>0.0752062721150636</v>
+      </c>
+      <c r="J175" t="n">
+        <v>0.01897478505620509</v>
+      </c>
+      <c r="K175" t="n">
         <v>0.08578254750795777</v>
       </c>
-      <c r="J175" t="n">
-        <v>0.04257200347419865</v>
-      </c>
-      <c r="K175" t="n">
-        <v>0.0850332120162533</v>
-      </c>
       <c r="L175" t="n">
-        <v>0.05943589520943648</v>
+        <v>0.03668257554403798</v>
       </c>
       <c r="M175" t="n">
-        <v>0.08534048760189698</v>
+        <v>0.08526746190547921</v>
       </c>
       <c r="N175" t="n">
-        <v>0.01922830723862279</v>
+        <v>0.04766410954320255</v>
       </c>
       <c r="O175" t="n">
-        <v>0.08578254750795777</v>
+        <v>0.08488953276273012</v>
       </c>
     </row>
     <row r="176" ht="15" customHeight="1">
       <c r="F176" t="n">
-        <v>0.01910612285955948</v>
+        <v>0.06162636894048863</v>
       </c>
       <c r="G176" t="n">
+        <v>0.07520600358659958</v>
+      </c>
+      <c r="J176" t="n">
+        <v>0.0186046068458617</v>
+      </c>
+      <c r="K176" t="n">
         <v>0.0865623888489392</v>
       </c>
-      <c r="J176" t="n">
-        <v>0.04227220601617018</v>
-      </c>
-      <c r="K176" t="n">
-        <v>0.08580624121640106</v>
-      </c>
       <c r="L176" t="n">
-        <v>0.05917166696027509</v>
+        <v>0.03632215661023494</v>
       </c>
       <c r="M176" t="n">
-        <v>0.08611631021645967</v>
+        <v>0.08604262065007447</v>
       </c>
       <c r="N176" t="n">
-        <v>0.01910612285955948</v>
+        <v>0.04644576935236161</v>
       </c>
       <c r="O176" t="n">
-        <v>0.0865623888489392</v>
+        <v>0.08566125578784585</v>
       </c>
     </row>
     <row r="177" ht="15" customHeight="1">
       <c r="F177" t="n">
-        <v>0.01918317470590038</v>
+        <v>0.06056819919076165</v>
       </c>
       <c r="G177" t="n">
+        <v>0.07520573505813556</v>
+      </c>
+      <c r="J177" t="n">
+        <v>0.01863349193899132</v>
+      </c>
+      <c r="K177" t="n">
         <v>0.08734223018992064</v>
       </c>
-      <c r="J177" t="n">
-        <v>0.04215187758779568</v>
-      </c>
-      <c r="K177" t="n">
-        <v>0.08657927041654881</v>
-      </c>
       <c r="L177" t="n">
-        <v>0.05880202498681597</v>
+        <v>0.03565869148755696</v>
       </c>
       <c r="M177" t="n">
-        <v>0.08689213283102239</v>
+        <v>0.08681777939466973</v>
       </c>
       <c r="N177" t="n">
-        <v>0.01918317470590038</v>
+        <v>0.04523483229813413</v>
       </c>
       <c r="O177" t="n">
-        <v>0.08734223018992064</v>
+        <v>0.08643297881296158</v>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1">
       <c r="F178" t="n">
-        <v>0.01895909171865789</v>
+        <v>0.05953176646649566</v>
       </c>
       <c r="G178" t="n">
+        <v>0.07520546652967156</v>
+      </c>
+      <c r="J178" t="n">
+        <v>0.01846157824956213</v>
+      </c>
+      <c r="K178" t="n">
         <v>0.08812207153090208</v>
       </c>
-      <c r="J178" t="n">
-        <v>0.04171116848345918</v>
-      </c>
-      <c r="K178" t="n">
-        <v>0.08735229961669658</v>
-      </c>
       <c r="L178" t="n">
-        <v>0.05842630109786157</v>
+        <v>0.03539160661583743</v>
       </c>
       <c r="M178" t="n">
-        <v>0.08766795544558507</v>
+        <v>0.08759293813926501</v>
       </c>
       <c r="N178" t="n">
-        <v>0.01895909171865789</v>
+        <v>0.04483499708557087</v>
       </c>
       <c r="O178" t="n">
-        <v>0.08812207153090208</v>
+        <v>0.08720470183807731</v>
       </c>
     </row>
     <row r="179" ht="15" customHeight="1">
       <c r="F179" t="n">
-        <v>0.01883350283884451</v>
+        <v>0.05851776182877426</v>
       </c>
       <c r="G179" t="n">
+        <v>0.07520519800120753</v>
+      </c>
+      <c r="J179" t="n">
+        <v>0.01808900369154227</v>
+      </c>
+      <c r="K179" t="n">
         <v>0.08890191287188351</v>
       </c>
-      <c r="J179" t="n">
-        <v>0.04115044408167901</v>
-      </c>
-      <c r="K179" t="n">
-        <v>0.08812532881684433</v>
-      </c>
       <c r="L179" t="n">
-        <v>0.05784382710221425</v>
+        <v>0.03542032843490969</v>
       </c>
       <c r="M179" t="n">
-        <v>0.08844377806014778</v>
+        <v>0.08836809688386027</v>
       </c>
       <c r="N179" t="n">
-        <v>0.01883350283884451</v>
+        <v>0.0431499624197228</v>
       </c>
       <c r="O179" t="n">
-        <v>0.08890191287188351</v>
+        <v>0.08797642486319304</v>
       </c>
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="F180" t="n">
-        <v>0.01870603700747268</v>
+        <v>0.05752687633863836</v>
       </c>
       <c r="G180" t="n">
+        <v>0.07520492947274351</v>
+      </c>
+      <c r="J180" t="n">
+        <v>0.01791590617889993</v>
+      </c>
+      <c r="K180" t="n">
         <v>0.08968175421286494</v>
       </c>
-      <c r="J180" t="n">
-        <v>0.04087006976097335</v>
-      </c>
-      <c r="K180" t="n">
-        <v>0.08889835801699209</v>
-      </c>
       <c r="L180" t="n">
-        <v>0.05705393480867671</v>
+        <v>0.03524428338460722</v>
       </c>
       <c r="M180" t="n">
-        <v>0.08921960067471048</v>
+        <v>0.08914325562845553</v>
       </c>
       <c r="N180" t="n">
-        <v>0.01870603700747268</v>
+        <v>0.04248342700564056</v>
       </c>
       <c r="O180" t="n">
-        <v>0.08968175421286494</v>
+        <v>0.08874814788830877</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1">
       <c r="F181" t="n">
-        <v>0.01867632316555484</v>
+        <v>0.05655980105725782</v>
       </c>
       <c r="G181" t="n">
+        <v>0.07520466094427949</v>
+      </c>
+      <c r="J181" t="n">
+        <v>0.01794242362560326</v>
+      </c>
+      <c r="K181" t="n">
         <v>0.09046159555384638</v>
       </c>
-      <c r="J181" t="n">
-        <v>0.04067041089986045</v>
-      </c>
-      <c r="K181" t="n">
-        <v>0.08967138721713985</v>
-      </c>
       <c r="L181" t="n">
-        <v>0.05695595602605147</v>
+        <v>0.03466289790476326</v>
       </c>
       <c r="M181" t="n">
-        <v>0.08999542328927318</v>
+        <v>0.0899184143730508</v>
       </c>
       <c r="N181" t="n">
-        <v>0.01867632316555484</v>
+        <v>0.04123908954837535</v>
       </c>
       <c r="O181" t="n">
-        <v>0.09046159555384638</v>
+        <v>0.0895198709134245</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1">
       <c r="F182" t="n">
-        <v>0.01844399025410344</v>
+        <v>0.05561722704567253</v>
       </c>
       <c r="G182" t="n">
+        <v>0.07520439241581549</v>
+      </c>
+      <c r="J182" t="n">
+        <v>0.01766869394562041</v>
+      </c>
+      <c r="K182" t="n">
         <v>0.09124143689482782</v>
       </c>
-      <c r="J182" t="n">
-        <v>0.0399518328768585</v>
-      </c>
-      <c r="K182" t="n">
-        <v>0.09044441641728761</v>
-      </c>
       <c r="L182" t="n">
-        <v>0.05664922256314087</v>
+        <v>0.03437559843521126</v>
       </c>
       <c r="M182" t="n">
-        <v>0.09077124590383588</v>
+        <v>0.09069357311764606</v>
       </c>
       <c r="N182" t="n">
-        <v>0.01844399025410344</v>
+        <v>0.04042064875297768</v>
       </c>
       <c r="O182" t="n">
-        <v>0.09124143689482782</v>
+        <v>0.09029159393854022</v>
       </c>
     </row>
     <row r="183" ht="15" customHeight="1">
       <c r="F183" t="n">
-        <v>0.01830866721413094</v>
+        <v>0.05469984536496605</v>
       </c>
       <c r="G183" t="n">
+        <v>0.07520412388735147</v>
+      </c>
+      <c r="J183" t="n">
+        <v>0.01739485505291956</v>
+      </c>
+      <c r="K183" t="n">
         <v>0.09202127823580925</v>
       </c>
-      <c r="J183" t="n">
-        <v>0.03971470107048583</v>
-      </c>
-      <c r="K183" t="n">
-        <v>0.09121744561743536</v>
-      </c>
       <c r="L183" t="n">
-        <v>0.05643306622874761</v>
+        <v>0.03448181141578463</v>
       </c>
       <c r="M183" t="n">
-        <v>0.09154706851839858</v>
+        <v>0.09146873186224132</v>
       </c>
       <c r="N183" t="n">
-        <v>0.01830866721413094</v>
+        <v>0.03923180332449877</v>
       </c>
       <c r="O183" t="n">
-        <v>0.09202127823580925</v>
+        <v>0.09106331696365595</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1">
       <c r="F184" t="n">
-        <v>0.01826998298664978</v>
+        <v>0.05380834707618375</v>
       </c>
       <c r="G184" t="n">
+        <v>0.07520385535888745</v>
+      </c>
+      <c r="J184" t="n">
+        <v>0.01732104486146886</v>
+      </c>
+      <c r="K184" t="n">
         <v>0.09280111957679069</v>
       </c>
-      <c r="J184" t="n">
-        <v>0.03895938085926065</v>
-      </c>
-      <c r="K184" t="n">
-        <v>0.09199047481758311</v>
-      </c>
       <c r="L184" t="n">
-        <v>0.05540681883167392</v>
+        <v>0.03408096328631668</v>
       </c>
       <c r="M184" t="n">
-        <v>0.09232289113296127</v>
+        <v>0.0922438906068366</v>
       </c>
       <c r="N184" t="n">
-        <v>0.01826998298664978</v>
+        <v>0.03807625196798914</v>
       </c>
       <c r="O184" t="n">
-        <v>0.09280111957679069</v>
+        <v>0.09183503998877168</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1">
       <c r="F185" t="n">
-        <v>0.0181275665126724</v>
+        <v>0.05294342324048676</v>
       </c>
       <c r="G185" t="n">
+        <v>0.07520358683042343</v>
+      </c>
+      <c r="J185" t="n">
+        <v>0.01704740128523646</v>
+      </c>
+      <c r="K185" t="n">
         <v>0.09358096091777213</v>
       </c>
-      <c r="J185" t="n">
-        <v>0.0386862376217012</v>
-      </c>
-      <c r="K185" t="n">
-        <v>0.09276350401773087</v>
-      </c>
       <c r="L185" t="n">
-        <v>0.05576981218072258</v>
+        <v>0.03337248048664085</v>
       </c>
       <c r="M185" t="n">
-        <v>0.09309871374752399</v>
+        <v>0.09301904935143186</v>
       </c>
       <c r="N185" t="n">
-        <v>0.0181275665126724</v>
+        <v>0.03715769338849984</v>
       </c>
       <c r="O185" t="n">
-        <v>0.09358096091777213</v>
+        <v>0.09260676301388741</v>
       </c>
     </row>
     <row r="186" ht="15" customHeight="1">
       <c r="F186" t="n">
-        <v>0.01778104673321128</v>
+        <v>0.05210576491891931</v>
       </c>
       <c r="G186" t="n">
+        <v>0.07520331830195941</v>
+      </c>
+      <c r="J186" t="n">
+        <v>0.01707406223819057</v>
+      </c>
+      <c r="K186" t="n">
         <v>0.09436080225875354</v>
       </c>
-      <c r="J186" t="n">
-        <v>0.03799563673632564</v>
-      </c>
-      <c r="K186" t="n">
-        <v>0.09353653321787862</v>
-      </c>
       <c r="L186" t="n">
-        <v>0.05522137808469602</v>
+        <v>0.03345578945659045</v>
       </c>
       <c r="M186" t="n">
-        <v>0.09387453636208667</v>
+        <v>0.09379420809602712</v>
       </c>
       <c r="N186" t="n">
-        <v>0.01778104673321128</v>
+        <v>0.03697982629108165</v>
       </c>
       <c r="O186" t="n">
-        <v>0.09436080225875354</v>
+        <v>0.09337848603900313</v>
       </c>
     </row>
     <row r="187" ht="15" customHeight="1">
       <c r="F187" t="n">
-        <v>0.01763005258927886</v>
+        <v>0.05129606317256497</v>
       </c>
       <c r="G187" t="n">
+        <v>0.0752030497734954</v>
+      </c>
+      <c r="J187" t="n">
+        <v>0.01670116563429927</v>
+      </c>
+      <c r="K187" t="n">
         <v>0.09514064359973498</v>
       </c>
-      <c r="J187" t="n">
-        <v>0.03778794358165227</v>
-      </c>
-      <c r="K187" t="n">
-        <v>0.09430956241802639</v>
-      </c>
       <c r="L187" t="n">
-        <v>0.05466084835239671</v>
+        <v>0.03313031663599889</v>
       </c>
       <c r="M187" t="n">
-        <v>0.09465035897664938</v>
+        <v>0.09456936684062239</v>
       </c>
       <c r="N187" t="n">
-        <v>0.01763005258927886</v>
+        <v>0.0358463493807854</v>
       </c>
       <c r="O187" t="n">
-        <v>0.09514064359973498</v>
+        <v>0.09415020906411886</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1">
       <c r="F188" t="n">
-        <v>0.01767421302188756</v>
+        <v>0.05051500906247387</v>
       </c>
       <c r="G188" t="n">
+        <v>0.07520278124503137</v>
+      </c>
+      <c r="J188" t="n">
+        <v>0.0166288493875308</v>
+      </c>
+      <c r="K188" t="n">
         <v>0.09592048494071642</v>
       </c>
-      <c r="J188" t="n">
-        <v>0.03706352353619932</v>
-      </c>
-      <c r="K188" t="n">
-        <v>0.09508259161817416</v>
-      </c>
       <c r="L188" t="n">
-        <v>0.0536875547926271</v>
+        <v>0.03249548846469955</v>
       </c>
       <c r="M188" t="n">
-        <v>0.09542618159121208</v>
+        <v>0.09534452558521765</v>
       </c>
       <c r="N188" t="n">
-        <v>0.01767421302188756</v>
+        <v>0.03456096136266207</v>
       </c>
       <c r="O188" t="n">
-        <v>0.09592048494071642</v>
+        <v>0.09492193208923459</v>
       </c>
     </row>
     <row r="189" ht="15" customHeight="1">
       <c r="F189" t="n">
-        <v>0.01741315697204986</v>
+        <v>0.04976329364979762</v>
       </c>
       <c r="G189" t="n">
+        <v>0.07520251271656736</v>
+      </c>
+      <c r="J189" t="n">
+        <v>0.01635725141185326</v>
+      </c>
+      <c r="K189" t="n">
         <v>0.09670032628169785</v>
       </c>
-      <c r="J189" t="n">
-        <v>0.03672274197848507</v>
-      </c>
-      <c r="K189" t="n">
-        <v>0.09585562081832191</v>
-      </c>
       <c r="L189" t="n">
-        <v>0.05370082921418978</v>
+        <v>0.03255073138252582</v>
       </c>
       <c r="M189" t="n">
-        <v>0.09620200420577478</v>
+        <v>0.09611968432981292</v>
       </c>
       <c r="N189" t="n">
-        <v>0.01741315697204986</v>
+        <v>0.0346273609417625</v>
       </c>
       <c r="O189" t="n">
-        <v>0.09670032628169785</v>
+        <v>0.09569365511435032</v>
       </c>
     </row>
     <row r="190" ht="15" customHeight="1">
       <c r="F190" t="n">
-        <v>0.01734651338077822</v>
+        <v>0.04903878616282703</v>
       </c>
       <c r="G190" t="n">
+        <v>0.07520224418810334</v>
+      </c>
+      <c r="J190" t="n">
+        <v>0.01638650962123486</v>
+      </c>
+      <c r="K190" t="n">
         <v>0.09748016762267929</v>
       </c>
-      <c r="J190" t="n">
-        <v>0.03606596428702771</v>
-      </c>
-      <c r="K190" t="n">
-        <v>0.09662865001846967</v>
-      </c>
       <c r="L190" t="n">
-        <v>0.05320000342588727</v>
+        <v>0.03209547182931108</v>
       </c>
       <c r="M190" t="n">
-        <v>0.09697782682033748</v>
+        <v>0.0968948430744082</v>
       </c>
       <c r="N190" t="n">
-        <v>0.01734651338077822</v>
+        <v>0.03364924682313741</v>
       </c>
       <c r="O190" t="n">
-        <v>0.09748016762267929</v>
+        <v>0.09646537813946605</v>
       </c>
     </row>
     <row r="191" ht="15" customHeight="1">
       <c r="F191" t="n">
-        <v>0.01707391118908508</v>
+        <v>0.04832524666609836</v>
       </c>
       <c r="G191" t="n">
+        <v>0.07520197565963933</v>
+      </c>
+      <c r="J191" t="n">
+        <v>0.01601676192964374</v>
+      </c>
+      <c r="K191" t="n">
         <v>0.09826000896366072</v>
       </c>
-      <c r="J191" t="n">
-        <v>0.03539355584034548</v>
-      </c>
-      <c r="K191" t="n">
-        <v>0.09740167921861742</v>
-      </c>
       <c r="L191" t="n">
-        <v>0.05218440923652207</v>
+        <v>0.03162913624488864</v>
       </c>
       <c r="M191" t="n">
-        <v>0.09775364943490017</v>
+        <v>0.09767000181900345</v>
       </c>
       <c r="N191" t="n">
-        <v>0.01707391118908508</v>
+        <v>0.03283031771183781</v>
       </c>
       <c r="O191" t="n">
-        <v>0.09826000896366072</v>
+        <v>0.09723710116458179</v>
       </c>
     </row>
     <row r="192" ht="15" customHeight="1">
       <c r="F192" t="n">
-        <v>0.01679497933798287</v>
+        <v>0.04762054438790705</v>
       </c>
       <c r="G192" t="n">
+        <v>0.0752017071311753</v>
+      </c>
+      <c r="J192" t="n">
+        <v>0.01604814625104808</v>
+      </c>
+      <c r="K192" t="n">
         <v>0.09903985030464216</v>
       </c>
-      <c r="J192" t="n">
-        <v>0.03500403863382126</v>
-      </c>
-      <c r="K192" t="n">
-        <v>0.09817470841876517</v>
-      </c>
       <c r="L192" t="n">
-        <v>0.05155337845489649</v>
+        <v>0.03135115106909198</v>
       </c>
       <c r="M192" t="n">
-        <v>0.09852947204946289</v>
+        <v>0.09844516056359871</v>
       </c>
       <c r="N192" t="n">
-        <v>0.01679497933798287</v>
+        <v>0.03257427231291454</v>
       </c>
       <c r="O192" t="n">
-        <v>0.09903985030464216</v>
+        <v>0.09800882418969752</v>
       </c>
     </row>
     <row r="193" ht="15" customHeight="1">
       <c r="F193" t="n">
-        <v>0.01680934676848406</v>
+        <v>0.04692537038939802</v>
       </c>
       <c r="G193" t="n">
+        <v>0.07520143860271129</v>
+      </c>
+      <c r="J193" t="n">
+        <v>0.01588038755163475</v>
+      </c>
+      <c r="K193" t="n">
         <v>0.09981969164562358</v>
       </c>
-      <c r="J193" t="n">
-        <v>0.03444947420562786</v>
-      </c>
-      <c r="K193" t="n">
-        <v>0.09894773761891293</v>
-      </c>
       <c r="L193" t="n">
-        <v>0.0517062428898134</v>
+        <v>0.03064677312719041</v>
       </c>
       <c r="M193" t="n">
-        <v>0.09930529466402557</v>
+        <v>0.09922031930819399</v>
       </c>
       <c r="N193" t="n">
-        <v>0.01680934676848406</v>
+        <v>0.03186384185711477</v>
       </c>
       <c r="O193" t="n">
-        <v>0.09981969164562358</v>
+        <v>0.09878054721481323</v>
       </c>
     </row>
     <row r="194" ht="15" customHeight="1">
       <c r="F194" t="n">
-        <v>0.01661664242160109</v>
+        <v>0.04624041573162395</v>
       </c>
       <c r="G194" t="n">
+        <v>0.07520117007424727</v>
+      </c>
+      <c r="J194" t="n">
+        <v>0.01561300179209082</v>
+      </c>
+      <c r="K194" t="n">
         <v>0.100599532986605</v>
       </c>
-      <c r="J194" t="n">
-        <v>0.0334153853087136</v>
-      </c>
-      <c r="K194" t="n">
-        <v>0.09972076681906068</v>
-      </c>
       <c r="L194" t="n">
-        <v>0.05093159310989537</v>
+        <v>0.03049917030158697</v>
       </c>
       <c r="M194" t="n">
-        <v>0.1000811172785883</v>
+        <v>0.09999547805278924</v>
       </c>
       <c r="N194" t="n">
-        <v>0.01661664242160109</v>
+        <v>0.03097358641740378</v>
       </c>
       <c r="O194" t="n">
-        <v>0.100599532986605</v>
+        <v>0.09955227023992896</v>
       </c>
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="F195" t="n">
-        <v>0.01631649523834641</v>
+        <v>0.0455663714756684</v>
       </c>
       <c r="G195" t="n">
+        <v>0.07520090154578325</v>
+      </c>
+      <c r="J195" t="n">
+        <v>0.01544592750481875</v>
+      </c>
+      <c r="K195" t="n">
         <v>0.1013793743275865</v>
       </c>
-      <c r="J195" t="n">
-        <v>0.03261092824518294</v>
-      </c>
-      <c r="K195" t="n">
-        <v>0.1004937960192085</v>
-      </c>
       <c r="L195" t="n">
-        <v>0.05040708804147304</v>
+        <v>0.02981104196668816</v>
       </c>
       <c r="M195" t="n">
-        <v>0.100856939893151</v>
+        <v>0.1007706367973845</v>
       </c>
       <c r="N195" t="n">
-        <v>0.01631649523834641</v>
+        <v>0.03130244417226885</v>
       </c>
       <c r="O195" t="n">
-        <v>0.1013793743275865</v>
+        <v>0.1003239932650447</v>
       </c>
     </row>
     <row r="196" ht="15" customHeight="1">
       <c r="F196" t="n">
-        <v>0.01600853415973247</v>
+        <v>0.04490392868258636</v>
       </c>
       <c r="G196" t="n">
+        <v>0.07520063301731923</v>
+      </c>
+      <c r="J196" t="n">
+        <v>0.01527910416294279</v>
+      </c>
+      <c r="K196" t="n">
         <v>0.1021592156685679</v>
       </c>
-      <c r="J196" t="n">
-        <v>0.03164525931714005</v>
-      </c>
-      <c r="K196" t="n">
-        <v>0.1012668252193562</v>
-      </c>
       <c r="L196" t="n">
-        <v>0.04963518395964817</v>
+        <v>0.02928516417578914</v>
       </c>
       <c r="M196" t="n">
-        <v>0.1016327625077137</v>
+        <v>0.1015457955419798</v>
       </c>
       <c r="N196" t="n">
-        <v>0.01600853415973247</v>
+        <v>0.03004942966753771</v>
       </c>
       <c r="O196" t="n">
-        <v>0.1021592156685679</v>
+        <v>0.1010957162901604</v>
       </c>
     </row>
     <row r="197" ht="15" customHeight="1">
       <c r="F197" t="n">
-        <v>0.01589238812677174</v>
+        <v>0.04425377841351906</v>
       </c>
       <c r="G197" t="n">
+        <v>0.07520036448885521</v>
+      </c>
+      <c r="J197" t="n">
+        <v>0.01521247123958713</v>
+      </c>
+      <c r="K197" t="n">
         <v>0.1029390570095493</v>
       </c>
-      <c r="J197" t="n">
-        <v>0.03082753482668915</v>
-      </c>
-      <c r="K197" t="n">
-        <v>0.102039854419504</v>
-      </c>
       <c r="L197" t="n">
-        <v>0.04911923430159132</v>
+        <v>0.02902431298218497</v>
       </c>
       <c r="M197" t="n">
-        <v>0.1024085851222764</v>
+        <v>0.102320954286575</v>
       </c>
       <c r="N197" t="n">
-        <v>0.01589238812677174</v>
+        <v>0.02971355744903853</v>
       </c>
       <c r="O197" t="n">
-        <v>0.1029390570095493</v>
+        <v>0.1018674393152761</v>
       </c>
     </row>
     <row r="198" ht="15" customHeight="1">
       <c r="F198" t="n">
-        <v>0.01576768608047666</v>
+        <v>0.043616611729521</v>
       </c>
       <c r="G198" t="n">
+        <v>0.07520009596039121</v>
+      </c>
+      <c r="J198" t="n">
+        <v>0.014945968207876</v>
+      </c>
+      <c r="K198" t="n">
         <v>0.1037188983505308</v>
       </c>
-      <c r="J198" t="n">
-        <v>0.02976691107593465</v>
-      </c>
-      <c r="K198" t="n">
-        <v>0.1028128836196517</v>
-      </c>
       <c r="L198" t="n">
-        <v>0.04826259250447301</v>
+        <v>0.0282312644391709</v>
       </c>
       <c r="M198" t="n">
-        <v>0.1031844077368391</v>
+        <v>0.1030961130311703</v>
       </c>
       <c r="N198" t="n">
-        <v>0.01576768608047666</v>
+        <v>0.02929384206259916</v>
       </c>
       <c r="O198" t="n">
-        <v>0.1037188983505308</v>
+        <v>0.1026391623403919</v>
       </c>
     </row>
     <row r="199" ht="15" customHeight="1">
       <c r="F199" t="n">
-        <v>0.01553405696185968</v>
+        <v>0.04299311969167569</v>
       </c>
       <c r="G199" t="n">
+        <v>0.07519982743192719</v>
+      </c>
+      <c r="J199" t="n">
+        <v>0.01487953454093363</v>
+      </c>
+      <c r="K199" t="n">
         <v>0.1044987396915122</v>
       </c>
-      <c r="J199" t="n">
-        <v>0.0288725443669807</v>
-      </c>
-      <c r="K199" t="n">
-        <v>0.1035859128197995</v>
-      </c>
       <c r="L199" t="n">
-        <v>0.04696861200546376</v>
+        <v>0.02740879460004203</v>
       </c>
       <c r="M199" t="n">
-        <v>0.1039602303514018</v>
+        <v>0.1038712717757656</v>
       </c>
       <c r="N199" t="n">
-        <v>0.01553405696185968</v>
+        <v>0.02938929805404744</v>
       </c>
       <c r="O199" t="n">
-        <v>0.1044987396915122</v>
+        <v>0.1034108853655076</v>
       </c>
     </row>
     <row r="200" ht="15" customHeight="1">
       <c r="F200" t="n">
-        <v>0.01509112971193322</v>
+        <v>0.04238399336104051</v>
       </c>
       <c r="G200" t="n">
+        <v>0.07519955890346317</v>
+      </c>
+      <c r="J200" t="n">
+        <v>0.01451310971188421</v>
+      </c>
+      <c r="K200" t="n">
         <v>0.1052785810324936</v>
       </c>
-      <c r="J200" t="n">
-        <v>0.02795359100193165</v>
-      </c>
-      <c r="K200" t="n">
-        <v>0.1043589420199472</v>
-      </c>
       <c r="L200" t="n">
-        <v>0.04674064624173396</v>
+        <v>0.02685967951809354</v>
       </c>
       <c r="M200" t="n">
-        <v>0.1047360529659645</v>
+        <v>0.1046464305203608</v>
       </c>
       <c r="N200" t="n">
-        <v>0.01509112971193322</v>
+        <v>0.02919893996921147</v>
       </c>
       <c r="O200" t="n">
-        <v>0.1052785810324936</v>
+        <v>0.1041826083906233</v>
       </c>
     </row>
     <row r="201" ht="15" customHeight="1">
       <c r="F201" t="n">
-        <v>0.01483008374598267</v>
+        <v>0.04178992379875208</v>
       </c>
       <c r="G201" t="n">
+        <v>0.07519929037499914</v>
+      </c>
+      <c r="J201" t="n">
+        <v>0.01454663319385195</v>
+      </c>
+      <c r="K201" t="n">
         <v>0.1060584223734751</v>
       </c>
-      <c r="J201" t="n">
-        <v>0.02691920728289177</v>
-      </c>
-      <c r="K201" t="n">
-        <v>0.105131971220095</v>
-      </c>
       <c r="L201" t="n">
-        <v>0.0458820486504542</v>
+        <v>0.02618669524662043</v>
       </c>
       <c r="M201" t="n">
-        <v>0.1055118755805272</v>
+        <v>0.1054215892649561</v>
       </c>
       <c r="N201" t="n">
-        <v>0.01483008374598267</v>
+        <v>0.02882178235391902</v>
       </c>
       <c r="O201" t="n">
-        <v>0.1060584223734751</v>
+        <v>0.1049543314157391</v>
       </c>
     </row>
     <row r="202" ht="15" customHeight="1">
       <c r="F202" t="n">
-        <v>0.01458352492050498</v>
+        <v>0.04121160206586712</v>
       </c>
       <c r="G202" t="n">
+        <v>0.07519902184653514</v>
+      </c>
+      <c r="J202" t="n">
+        <v>0.0141800444599611</v>
+      </c>
+      <c r="K202" t="n">
         <v>0.1068382637144565</v>
       </c>
-      <c r="J202" t="n">
-        <v>0.0261785495119653</v>
-      </c>
-      <c r="K202" t="n">
-        <v>0.1059050004202428</v>
-      </c>
       <c r="L202" t="n">
-        <v>0.04449617266879496</v>
+        <v>0.02579261783891801</v>
       </c>
       <c r="M202" t="n">
-        <v>0.1062876981950899</v>
+        <v>0.1061967480095514</v>
       </c>
       <c r="N202" t="n">
-        <v>0.01458352492050498</v>
+        <v>0.02795683975399826</v>
       </c>
       <c r="O202" t="n">
-        <v>0.1068382637144565</v>
+        <v>0.1057260544408548</v>
       </c>
     </row>
     <row r="203" ht="15" customHeight="1">
       <c r="F203" t="n">
-        <v>0.01425002140315967</v>
+        <v>0.04064971922346917</v>
       </c>
       <c r="G203" t="n">
+        <v>0.07519875331807112</v>
+      </c>
+      <c r="J203" t="n">
+        <v>0.01401328298333589</v>
+      </c>
+      <c r="K203" t="n">
         <v>0.1076181050554379</v>
       </c>
-      <c r="J203" t="n">
-        <v>0.0251407739912565</v>
-      </c>
-      <c r="K203" t="n">
-        <v>0.1066780296203905</v>
-      </c>
       <c r="L203" t="n">
-        <v>0.04378637173392674</v>
+        <v>0.02478022334828139</v>
       </c>
       <c r="M203" t="n">
-        <v>0.1070635208096526</v>
+        <v>0.1069719067541466</v>
       </c>
       <c r="N203" t="n">
-        <v>0.01425002140315967</v>
+        <v>0.02750312671527705</v>
       </c>
       <c r="O203" t="n">
-        <v>0.1076181050554379</v>
+        <v>0.1064977774659705</v>
       </c>
     </row>
     <row r="204" ht="15" customHeight="1">
       <c r="F204" t="n">
-        <v>0.01374573236504099</v>
+        <v>0.04010496633261847</v>
       </c>
       <c r="G204" t="n">
+        <v>0.0751984847896071</v>
+      </c>
+      <c r="J204" t="n">
+        <v>0.01404628823710047</v>
+      </c>
+      <c r="K204" t="n">
         <v>0.1083979463964194</v>
       </c>
-      <c r="J204" t="n">
-        <v>0.0240150370228697</v>
-      </c>
-      <c r="K204" t="n">
-        <v>0.1074510588205383</v>
-      </c>
       <c r="L204" t="n">
-        <v>0.04265599928301994</v>
+        <v>0.02405228782800567</v>
       </c>
       <c r="M204" t="n">
-        <v>0.1078393434242153</v>
+        <v>0.1077470654987419</v>
       </c>
       <c r="N204" t="n">
-        <v>0.01374573236504099</v>
+        <v>0.0276596577835832</v>
       </c>
       <c r="O204" t="n">
-        <v>0.1083979463964194</v>
+        <v>0.1072695004910862</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1">
       <c r="F205" t="n">
-        <v>0.01298681697724317</v>
+        <v>0.03957803445444602</v>
       </c>
       <c r="G205" t="n">
+        <v>0.07519821626114308</v>
+      </c>
+      <c r="J205" t="n">
+        <v>0.01367899969437911</v>
+      </c>
+      <c r="K205" t="n">
         <v>0.1091777877374008</v>
       </c>
-      <c r="J205" t="n">
-        <v>0.02261049490890912</v>
-      </c>
-      <c r="K205" t="n">
-        <v>0.108224088020686</v>
-      </c>
       <c r="L205" t="n">
-        <v>0.04200840875324524</v>
+        <v>0.02321158733138595</v>
       </c>
       <c r="M205" t="n">
-        <v>0.108615166038778</v>
+        <v>0.1085222242433372</v>
       </c>
       <c r="N205" t="n">
-        <v>0.01298681697724317</v>
+        <v>0.02702544750474484</v>
       </c>
       <c r="O205" t="n">
-        <v>0.1091777877374008</v>
+        <v>0.108041223516202</v>
       </c>
     </row>
     <row r="206" ht="15" customHeight="1">
       <c r="F206" t="n">
-        <v>0.01258943441086049</v>
+        <v>0.03906961465001127</v>
       </c>
       <c r="G206" t="n">
+        <v>0.07519794773267907</v>
+      </c>
+      <c r="J206" t="n">
+        <v>0.013511356828296</v>
+      </c>
+      <c r="K206" t="n">
         <v>0.1099576290783822</v>
       </c>
-      <c r="J206" t="n">
-        <v>0.02203630395147912</v>
-      </c>
-      <c r="K206" t="n">
-        <v>0.1089971172208338</v>
-      </c>
       <c r="L206" t="n">
-        <v>0.04134695358177304</v>
+        <v>0.02246089791171743</v>
       </c>
       <c r="M206" t="n">
-        <v>0.1093909886533407</v>
+        <v>0.1092973829879324</v>
       </c>
       <c r="N206" t="n">
-        <v>0.01258943441086049</v>
+        <v>0.02629951042458972</v>
       </c>
       <c r="O206" t="n">
-        <v>0.1099576290783822</v>
+        <v>0.1088129465413177</v>
       </c>
     </row>
     <row r="207" ht="15" customHeight="1">
       <c r="F207" t="n">
-        <v>0.01176974383698716</v>
+        <v>0.03858039798039779</v>
       </c>
       <c r="G207" t="n">
+        <v>0.07519767920421505</v>
+      </c>
+      <c r="J207" t="n">
+        <v>0.01344329911197541</v>
+      </c>
+      <c r="K207" t="n">
         <v>0.1107374704193637</v>
       </c>
-      <c r="J207" t="n">
-        <v>0.02110162045268391</v>
-      </c>
-      <c r="K207" t="n">
-        <v>0.1097701464209815</v>
-      </c>
       <c r="L207" t="n">
-        <v>0.04017498720577384</v>
+        <v>0.02190299562229528</v>
       </c>
       <c r="M207" t="n">
-        <v>0.1101668112679034</v>
+        <v>0.1100725417325277</v>
       </c>
       <c r="N207" t="n">
-        <v>0.01176974383698716</v>
+        <v>0.02628086108894601</v>
       </c>
       <c r="O207" t="n">
-        <v>0.1107374704193637</v>
+        <v>0.1095846695664334</v>
       </c>
     </row>
     <row r="208" ht="15" customHeight="1">
       <c r="F208" t="n">
-        <v>0.01124390442671745</v>
+        <v>0.03811107550666917</v>
       </c>
       <c r="G208" t="n">
+        <v>0.07519741067575103</v>
+      </c>
+      <c r="J208" t="n">
+        <v>0.0132747660185415</v>
+      </c>
+      <c r="K208" t="n">
         <v>0.1115173117603451</v>
       </c>
-      <c r="J208" t="n">
-        <v>0.0201156007146277</v>
-      </c>
-      <c r="K208" t="n">
-        <v>0.1105431756211293</v>
-      </c>
       <c r="L208" t="n">
-        <v>0.03879586306241806</v>
+        <v>0.02124065651641463</v>
       </c>
       <c r="M208" t="n">
-        <v>0.1109426338824661</v>
+        <v>0.110847700477123</v>
       </c>
       <c r="N208" t="n">
-        <v>0.01124390442671745</v>
+        <v>0.02596851404364153</v>
       </c>
       <c r="O208" t="n">
-        <v>0.1115173117603451</v>
+        <v>0.1103563925915492</v>
       </c>
     </row>
     <row r="209" ht="15" customHeight="1">
       <c r="F209" t="n">
-        <v>0.01052807535114564</v>
+        <v>0.0376623382899498</v>
       </c>
       <c r="G209" t="n">
+        <v>0.07519714214728701</v>
+      </c>
+      <c r="J209" t="n">
+        <v>0.01310569702111851</v>
+      </c>
+      <c r="K209" t="n">
         <v>0.1122971531013265</v>
       </c>
-      <c r="J209" t="n">
-        <v>0.01928740103941487</v>
-      </c>
-      <c r="K209" t="n">
-        <v>0.1113162048212771</v>
-      </c>
       <c r="L209" t="n">
-        <v>0.03811293458887627</v>
+        <v>0.02037665664737062</v>
       </c>
       <c r="M209" t="n">
-        <v>0.1117184564970288</v>
+        <v>0.1116228592217182</v>
       </c>
       <c r="N209" t="n">
-        <v>0.01052807535114564</v>
+        <v>0.02606148383450413</v>
       </c>
       <c r="O209" t="n">
-        <v>0.1122971531013265</v>
+        <v>0.1111281156166649</v>
       </c>
     </row>
     <row r="210" ht="15" customHeight="1">
       <c r="F210" t="n">
-        <v>0.0100384157813659</v>
+        <v>0.03723487739130239</v>
       </c>
       <c r="G210" t="n">
+        <v>0.07519687361882299</v>
+      </c>
+      <c r="J210" t="n">
+        <v>0.01283603159283063</v>
+      </c>
+      <c r="K210" t="n">
         <v>0.113076994442308</v>
       </c>
-      <c r="J210" t="n">
-        <v>0.01872617772914975</v>
-      </c>
-      <c r="K210" t="n">
-        <v>0.1120892340214248</v>
-      </c>
       <c r="L210" t="n">
-        <v>0.03702955522231904</v>
+        <v>0.01951377206845836</v>
       </c>
       <c r="M210" t="n">
-        <v>0.1124942791115915</v>
+        <v>0.1123980179663135</v>
       </c>
       <c r="N210" t="n">
-        <v>0.0100384157813659</v>
+        <v>0.02575878500736201</v>
       </c>
       <c r="O210" t="n">
-        <v>0.113076994442308</v>
+        <v>0.1118998386417806</v>
       </c>
     </row>
     <row r="211" ht="15" customHeight="1">
       <c r="F211" t="n">
-        <v>0.009391084888472512</v>
+        <v>0.03682938387181051</v>
       </c>
       <c r="G211" t="n">
+        <v>0.07519660509035898</v>
+      </c>
+      <c r="J211" t="n">
+        <v>0.01276570920680213</v>
+      </c>
+      <c r="K211" t="n">
         <v>0.1138568357832894</v>
       </c>
-      <c r="J211" t="n">
-        <v>0.01774108708593639</v>
-      </c>
-      <c r="K211" t="n">
-        <v>0.1128622632215726</v>
-      </c>
       <c r="L211" t="n">
-        <v>0.03564907839991682</v>
+        <v>0.01885477883297298</v>
       </c>
       <c r="M211" t="n">
-        <v>0.1132701017261542</v>
+        <v>0.1131731767109088</v>
       </c>
       <c r="N211" t="n">
-        <v>0.009391084888472512</v>
+        <v>0.02505943210804279</v>
       </c>
       <c r="O211" t="n">
-        <v>0.1138568357832894</v>
+        <v>0.1126715616668963</v>
       </c>
     </row>
     <row r="212" ht="15" customHeight="1">
       <c r="F212" t="n">
-        <v>0.00900224184355973</v>
+        <v>0.03644654879254154</v>
       </c>
       <c r="G212" t="n">
+        <v>0.07519633656189495</v>
+      </c>
+      <c r="J212" t="n">
+        <v>0.01269466933615719</v>
+      </c>
+      <c r="K212" t="n">
         <v>0.1146366771242708</v>
       </c>
-      <c r="J212" t="n">
-        <v>0.01703899481350976</v>
-      </c>
-      <c r="K212" t="n">
-        <v>0.1136352924217203</v>
-      </c>
       <c r="L212" t="n">
-        <v>0.03537485755884001</v>
+        <v>0.01830245299420968</v>
       </c>
       <c r="M212" t="n">
-        <v>0.1140459243407169</v>
+        <v>0.113948335455504</v>
       </c>
       <c r="N212" t="n">
-        <v>0.00900224184355973</v>
+        <v>0.02456243968237476</v>
       </c>
       <c r="O212" t="n">
-        <v>0.1146366771242708</v>
+        <v>0.1134432846920121</v>
       </c>
     </row>
     <row r="213" ht="15" customHeight="1">
       <c r="F213" t="n">
-        <v>0.008488045817721793</v>
+        <v>0.03608706321461239</v>
       </c>
       <c r="G213" t="n">
+        <v>0.07519606803343094</v>
+      </c>
+      <c r="J213" t="n">
+        <v>0.01242285145402003</v>
+      </c>
+      <c r="K213" t="n">
         <v>0.1154165184652523</v>
       </c>
-      <c r="J213" t="n">
-        <v>0.0168645120187359</v>
-      </c>
-      <c r="K213" t="n">
-        <v>0.1144083216218681</v>
-      </c>
       <c r="L213" t="n">
-        <v>0.03421024613625923</v>
+        <v>0.01715957060546358</v>
       </c>
       <c r="M213" t="n">
-        <v>0.1148217469552796</v>
+        <v>0.1147234942000993</v>
       </c>
       <c r="N213" t="n">
-        <v>0.008488045817721793</v>
+        <v>0.02416682227618555</v>
       </c>
       <c r="O213" t="n">
-        <v>0.1154165184652523</v>
+        <v>0.1142150077171278</v>
       </c>
     </row>
     <row r="214" ht="15" customHeight="1">
       <c r="F214" t="n">
-        <v>0.008364655982052938</v>
+        <v>0.03575161819908944</v>
       </c>
       <c r="G214" t="n">
+        <v>0.07519579950496692</v>
+      </c>
+      <c r="J214" t="n">
+        <v>0.01235019503351488</v>
+      </c>
+      <c r="K214" t="n">
         <v>0.1161963598062337</v>
       </c>
-      <c r="J214" t="n">
-        <v>0.01619088550424766</v>
-      </c>
-      <c r="K214" t="n">
-        <v>0.1151813508220158</v>
-      </c>
       <c r="L214" t="n">
-        <v>0.03335859756934495</v>
+        <v>0.01662890772002984</v>
       </c>
       <c r="M214" t="n">
-        <v>0.1155975695698423</v>
+        <v>0.1154986529446946</v>
       </c>
       <c r="N214" t="n">
-        <v>0.008364655982052938</v>
+        <v>0.02457159443530338</v>
       </c>
       <c r="O214" t="n">
-        <v>0.1161963598062337</v>
+        <v>0.1149867307422435</v>
       </c>
     </row>
     <row r="215" ht="15" customHeight="1">
       <c r="F215" t="n">
-        <v>0.00794823150764741</v>
+        <v>0.03575161819908942</v>
       </c>
       <c r="G215" t="n">
+        <v>0.07519579950496692</v>
+      </c>
+      <c r="J215" t="n">
+        <v>0.01197663954776593</v>
+      </c>
+      <c r="K215" t="n">
         <v>0.1169762011472151</v>
       </c>
-      <c r="J215" t="n">
-        <v>0.01541850128626263</v>
-      </c>
-      <c r="K215" t="n">
-        <v>0.1159543800221636</v>
-      </c>
       <c r="L215" t="n">
-        <v>0.03222326529526753</v>
+        <v>0.01611324039120357</v>
       </c>
       <c r="M215" t="n">
-        <v>0.116373392184405</v>
+        <v>0.1162738116892898</v>
       </c>
       <c r="N215" t="n">
-        <v>0.00794823150764741</v>
+        <v>0.02357577070555594</v>
       </c>
       <c r="O215" t="n">
-        <v>0.1169762011472151</v>
+        <v>0.1157584537673593</v>
       </c>
     </row>
     <row r="216" ht="15" customHeight="1">
       <c r="F216" t="n">
-        <v>0.007919220622243331</v>
+        <v>0.03480321621068438</v>
       </c>
       <c r="G216" t="n">
+        <v>0.07506671833771877</v>
+      </c>
+      <c r="J216" t="n">
+        <v>0.01200212446989744</v>
+      </c>
+      <c r="K216" t="n">
         <v>0.1177560424881966</v>
       </c>
-      <c r="J216" t="n">
-        <v>0.01494774538099852</v>
-      </c>
-      <c r="K216" t="n">
-        <v>0.1167274092223114</v>
-      </c>
       <c r="L216" t="n">
-        <v>0.03100760275119768</v>
+        <v>0.01511534467227996</v>
       </c>
       <c r="M216" t="n">
-        <v>0.1171492147989677</v>
+        <v>0.1170489704338851</v>
       </c>
       <c r="N216" t="n">
-        <v>0.007919220622243331</v>
+        <v>0.02327836563277136</v>
       </c>
       <c r="O216" t="n">
-        <v>0.1177560424881966</v>
+        <v>0.116530176792475</v>
       </c>
     </row>
     <row r="217" ht="15" customHeight="1">
       <c r="F217" t="n">
-        <v>0.007896986028822592</v>
+        <v>0.03386508338908382</v>
       </c>
       <c r="G217" t="n">
+        <v>0.07493763717047063</v>
+      </c>
+      <c r="J217" t="n">
+        <v>0.01182658927303358</v>
+      </c>
+      <c r="K217" t="n">
         <v>0.118535883829178</v>
       </c>
-      <c r="J217" t="n">
-        <v>0.01427900380467303</v>
-      </c>
-      <c r="K217" t="n">
-        <v>0.1175004384224591</v>
-      </c>
       <c r="L217" t="n">
-        <v>0.03031496337430584</v>
+        <v>0.01473799661655409</v>
       </c>
       <c r="M217" t="n">
-        <v>0.1179250374135304</v>
+        <v>0.1178241291784803</v>
       </c>
       <c r="N217" t="n">
-        <v>0.007896986028822592</v>
+        <v>0.02347839376277749</v>
       </c>
       <c r="O217" t="n">
-        <v>0.118535883829178</v>
+        <v>0.1173018998175907</v>
       </c>
     </row>
     <row r="218" ht="15" customHeight="1">
       <c r="F218" t="n">
-        <v>0.007777538657722904</v>
+        <v>0.03293764242272092</v>
       </c>
       <c r="G218" t="n">
+        <v>0.07480855600322246</v>
+      </c>
+      <c r="J218" t="n">
+        <v>0.01164997343029861</v>
+      </c>
+      <c r="K218" t="n">
         <v>0.1193157251701595</v>
       </c>
-      <c r="J218" t="n">
-        <v>0.01371266257350373</v>
-      </c>
-      <c r="K218" t="n">
-        <v>0.1182734676226069</v>
-      </c>
       <c r="L218" t="n">
-        <v>0.02954870060176235</v>
+        <v>0.0138839722773211</v>
       </c>
       <c r="M218" t="n">
-        <v>0.1187008600280931</v>
+        <v>0.1185992879230756</v>
       </c>
       <c r="N218" t="n">
-        <v>0.007777538657722904</v>
+        <v>0.02337486964140234</v>
       </c>
       <c r="O218" t="n">
-        <v>0.1193157251701595</v>
+        <v>0.1180736228427064</v>
       </c>
     </row>
     <row r="219" ht="15" customHeight="1">
       <c r="F219" t="n">
-        <v>0.007660869310211815</v>
+        <v>0.03202131600002915</v>
       </c>
       <c r="G219" t="n">
+        <v>0.07467947483597431</v>
+      </c>
+      <c r="J219" t="n">
+        <v>0.01127221641481672</v>
+      </c>
+      <c r="K219" t="n">
         <v>0.1200955665111409</v>
       </c>
-      <c r="J219" t="n">
-        <v>0.01294910770370833</v>
-      </c>
-      <c r="K219" t="n">
-        <v>0.1190464968227546</v>
-      </c>
       <c r="L219" t="n">
-        <v>0.02841216787073797</v>
+        <v>0.0134560477078762</v>
       </c>
       <c r="M219" t="n">
-        <v>0.1194766826426558</v>
+        <v>0.1193744466676709</v>
       </c>
       <c r="N219" t="n">
-        <v>0.007660869310211815</v>
+        <v>0.02306680781447384</v>
       </c>
       <c r="O219" t="n">
-        <v>0.1200955665111409</v>
+        <v>0.1188453458678222</v>
       </c>
     </row>
     <row r="220" ht="15" customHeight="1">
       <c r="F220" t="n">
-        <v>0.007546968787556979</v>
+        <v>0.03111652680944166</v>
       </c>
       <c r="G220" t="n">
+        <v>0.07455039366872616</v>
+      </c>
+      <c r="J220" t="n">
+        <v>0.01119325769971213</v>
+      </c>
+      <c r="K220" t="n">
         <v>0.1208754078521223</v>
       </c>
-      <c r="J220" t="n">
-        <v>0.01258872521150436</v>
-      </c>
-      <c r="K220" t="n">
-        <v>0.1198195260229024</v>
-      </c>
       <c r="L220" t="n">
-        <v>0.02760871861840297</v>
+        <v>0.01245699896151448</v>
       </c>
       <c r="M220" t="n">
-        <v>0.1202525052572185</v>
+        <v>0.1201496054122662</v>
       </c>
       <c r="N220" t="n">
-        <v>0.007546968787556979</v>
+        <v>0.02245322282781986</v>
       </c>
       <c r="O220" t="n">
-        <v>0.1208754078521223</v>
+        <v>0.1196170688929379</v>
       </c>
     </row>
     <row r="221" ht="15" customHeight="1">
       <c r="F221" t="n">
-        <v>0.007435827891025926</v>
+        <v>0.03022369753939168</v>
       </c>
       <c r="G221" t="n">
+        <v>0.07442131250147802</v>
+      </c>
+      <c r="J221" t="n">
+        <v>0.01101303675810907</v>
+      </c>
+      <c r="K221" t="n">
         <v>0.1216552491931037</v>
       </c>
-      <c r="J221" t="n">
-        <v>0.01233190111310958</v>
-      </c>
-      <c r="K221" t="n">
-        <v>0.1205925552230501</v>
-      </c>
       <c r="L221" t="n">
-        <v>0.02743779633551535</v>
+        <v>0.01198960209153113</v>
       </c>
       <c r="M221" t="n">
-        <v>0.1210283278717812</v>
+        <v>0.1209247641568614</v>
       </c>
       <c r="N221" t="n">
-        <v>0.007435827891025926</v>
+        <v>0.02223312922726833</v>
       </c>
       <c r="O221" t="n">
-        <v>0.1216552491931037</v>
+        <v>0.1203887919180536</v>
       </c>
     </row>
     <row r="222" ht="15" customHeight="1">
       <c r="F222" t="n">
-        <v>0.00732743742188624</v>
+        <v>0.02934325087831244</v>
       </c>
       <c r="G222" t="n">
+        <v>0.07429223133422985</v>
+      </c>
+      <c r="J222" t="n">
+        <v>0.01073149306313176</v>
+      </c>
+      <c r="K222" t="n">
         <v>0.1224350905340852</v>
       </c>
-      <c r="J222" t="n">
-        <v>0.01137902142474159</v>
-      </c>
-      <c r="K222" t="n">
-        <v>0.1213655844231979</v>
-      </c>
       <c r="L222" t="n">
-        <v>0.02637485607408657</v>
+        <v>0.01125663315122127</v>
       </c>
       <c r="M222" t="n">
-        <v>0.1218041504863439</v>
+        <v>0.1216999229014567</v>
       </c>
       <c r="N222" t="n">
-        <v>0.00732743742188624</v>
+        <v>0.02140554155864738</v>
       </c>
       <c r="O222" t="n">
-        <v>0.1224350905340852</v>
+        <v>0.1211605149431694</v>
       </c>
     </row>
     <row r="223" ht="15" customHeight="1">
       <c r="F223" t="n">
-        <v>0.007121788181405533</v>
+        <v>0.02847560951463735</v>
       </c>
       <c r="G223" t="n">
+        <v>0.0741631501669817</v>
+      </c>
+      <c r="J223" t="n">
+        <v>0.01054856608790439</v>
+      </c>
+      <c r="K223" t="n">
         <v>0.1232149318750666</v>
       </c>
-      <c r="J223" t="n">
-        <v>0.0112304721626181</v>
-      </c>
-      <c r="K223" t="n">
-        <v>0.1221386136233456</v>
-      </c>
       <c r="L223" t="n">
-        <v>0.02581509403476068</v>
+        <v>0.01116086819388004</v>
       </c>
       <c r="M223" t="n">
-        <v>0.1225799731009066</v>
+        <v>0.1224750816460519</v>
       </c>
       <c r="N223" t="n">
-        <v>0.007121788181405533</v>
+        <v>0.02176947436778481</v>
       </c>
       <c r="O223" t="n">
-        <v>0.1232149318750666</v>
+        <v>0.1219322379682851</v>
       </c>
     </row>
     <row r="224" ht="15" customHeight="1">
       <c r="F224" t="n">
-        <v>0.007118870970851399</v>
+        <v>0.02762119613679956</v>
       </c>
       <c r="G224" t="n">
+        <v>0.07403406899973355</v>
+      </c>
+      <c r="J224" t="n">
+        <v>0.0104641953055512</v>
+      </c>
+      <c r="K224" t="n">
         <v>0.1239947732160481</v>
       </c>
-      <c r="J224" t="n">
-        <v>0.01018663934295669</v>
-      </c>
-      <c r="K224" t="n">
-        <v>0.1229116428234934</v>
-      </c>
       <c r="L224" t="n">
-        <v>0.02515859947319576</v>
+        <v>0.01050508327280256</v>
       </c>
       <c r="M224" t="n">
-        <v>0.1233557957154693</v>
+        <v>0.1232502403906472</v>
       </c>
       <c r="N224" t="n">
-        <v>0.007118870970851399</v>
+        <v>0.02152394220050857</v>
       </c>
       <c r="O224" t="n">
-        <v>0.1239947732160481</v>
+        <v>0.1227039609934008</v>
       </c>
     </row>
     <row r="225" ht="15" customHeight="1">
       <c r="F225" t="n">
-        <v>0.006918676591491396</v>
+        <v>0.02678043343323236</v>
       </c>
       <c r="G225" t="n">
+        <v>0.07390498783248541</v>
+      </c>
+      <c r="J225" t="n">
+        <v>0.0103783201891964</v>
+      </c>
+      <c r="K225" t="n">
         <v>0.1247746145570295</v>
       </c>
-      <c r="J225" t="n">
-        <v>0.009647908981974984</v>
-      </c>
-      <c r="K225" t="n">
-        <v>0.1236846720236412</v>
-      </c>
       <c r="L225" t="n">
-        <v>0.02450546164505057</v>
+        <v>0.009892054441283993</v>
       </c>
       <c r="M225" t="n">
-        <v>0.124131618330032</v>
+        <v>0.1240253991352425</v>
       </c>
       <c r="N225" t="n">
-        <v>0.006918676591491396</v>
+        <v>0.02076795960264666</v>
       </c>
       <c r="O225" t="n">
-        <v>0.1247746145570295</v>
+        <v>0.1234756840185165</v>
       </c>
     </row>
     <row r="226" ht="15" customHeight="1">
       <c r="F226" t="n">
-        <v>0.006821195844593134</v>
+        <v>0.025953744092369</v>
       </c>
       <c r="G226" t="n">
+        <v>0.07377590666523726</v>
+      </c>
+      <c r="J226" t="n">
+        <v>0.0101908802119642</v>
+      </c>
+      <c r="K226" t="n">
         <v>0.1255544558980109</v>
       </c>
-      <c r="J226" t="n">
-        <v>0.009314667095890766</v>
-      </c>
-      <c r="K226" t="n">
-        <v>0.1244577012237889</v>
-      </c>
       <c r="L226" t="n">
-        <v>0.02345576980598346</v>
+        <v>0.009824557752619506</v>
       </c>
       <c r="M226" t="n">
-        <v>0.1249074409445947</v>
+        <v>0.1248005578798377</v>
       </c>
       <c r="N226" t="n">
-        <v>0.006821195844593134</v>
+        <v>0.02060054112002702</v>
       </c>
       <c r="O226" t="n">
-        <v>0.1255544558980109</v>
+        <v>0.1242474070436323</v>
       </c>
     </row>
     <row r="227" ht="15" customHeight="1">
       <c r="F227" t="n">
-        <v>0.006826419531424169</v>
+        <v>0.02514155080264269</v>
       </c>
       <c r="G227" t="n">
+        <v>0.07364682549798909</v>
+      </c>
+      <c r="J227" t="n">
+        <v>0.009901814846978843</v>
+      </c>
+      <c r="K227" t="n">
         <v>0.1263342972389924</v>
       </c>
-      <c r="J227" t="n">
-        <v>0.00858729970092148</v>
-      </c>
-      <c r="K227" t="n">
-        <v>0.1252307304239367</v>
-      </c>
       <c r="L227" t="n">
-        <v>0.02290961321165297</v>
+        <v>0.009705369260104207</v>
       </c>
       <c r="M227" t="n">
-        <v>0.1256832635591574</v>
+        <v>0.125575716624433</v>
       </c>
       <c r="N227" t="n">
-        <v>0.006826419531424169</v>
+        <v>0.01992070129847751</v>
       </c>
       <c r="O227" t="n">
-        <v>0.1263342972389924</v>
+        <v>0.125019130068748</v>
       </c>
     </row>
     <row r="228" ht="15" customHeight="1">
       <c r="F228" t="n">
-        <v>0.006634338453252134</v>
+        <v>0.02434427625248681</v>
       </c>
       <c r="G228" t="n">
+        <v>0.07351774433074094</v>
+      </c>
+      <c r="J228" t="n">
+        <v>0.009811063567364525</v>
+      </c>
+      <c r="K228" t="n">
         <v>0.1271141385799738</v>
       </c>
-      <c r="J228" t="n">
-        <v>0.008166192813284956</v>
-      </c>
-      <c r="K228" t="n">
-        <v>0.1260037596240844</v>
-      </c>
       <c r="L228" t="n">
-        <v>0.02156708111771732</v>
+        <v>0.009037265017033225</v>
       </c>
       <c r="M228" t="n">
-        <v>0.1264590861737201</v>
+        <v>0.1263508753690283</v>
       </c>
       <c r="N228" t="n">
-        <v>0.006634338453252134</v>
+        <v>0.01982745468382618</v>
       </c>
       <c r="O228" t="n">
-        <v>0.1271141385799738</v>
+        <v>0.1257908530938637</v>
       </c>
     </row>
     <row r="229" ht="15" customHeight="1">
       <c r="F229" t="n">
-        <v>0.006444943411344578</v>
+        <v>0.02356234313033452</v>
       </c>
       <c r="G229" t="n">
+        <v>0.0733886631634928</v>
+      </c>
+      <c r="J229" t="n">
+        <v>0.009518565846245455</v>
+      </c>
+      <c r="K229" t="n">
         <v>0.1278939799209552</v>
       </c>
-      <c r="J229" t="n">
-        <v>0.007851732449198762</v>
-      </c>
-      <c r="K229" t="n">
-        <v>0.1267767888242322</v>
-      </c>
       <c r="L229" t="n">
-        <v>0.02142826277983517</v>
+        <v>0.009223021076701782</v>
       </c>
       <c r="M229" t="n">
-        <v>0.1272349087882828</v>
+        <v>0.1271260341136235</v>
       </c>
       <c r="N229" t="n">
-        <v>0.006444943411344578</v>
+        <v>0.01941981582190083</v>
       </c>
       <c r="O229" t="n">
-        <v>0.1278939799209552</v>
+        <v>0.1265625761189794</v>
       </c>
     </row>
     <row r="230" ht="15" customHeight="1">
       <c r="F230" t="n">
-        <v>0.006458225206969093</v>
+        <v>0.02279617412461916</v>
       </c>
       <c r="G230" t="n">
+        <v>0.07325958199624465</v>
+      </c>
+      <c r="J230" t="n">
+        <v>0.0094242622168101</v>
+      </c>
+      <c r="K230" t="n">
         <v>0.1286738212619367</v>
       </c>
-      <c r="J230" t="n">
-        <v>0.007444304624880604</v>
-      </c>
-      <c r="K230" t="n">
-        <v>0.12754981802438</v>
-      </c>
       <c r="L230" t="n">
-        <v>0.02059324745366486</v>
+        <v>0.008965093643662075</v>
       </c>
       <c r="M230" t="n">
-        <v>0.1280107314028455</v>
+        <v>0.1279011928582188</v>
       </c>
       <c r="N230" t="n">
-        <v>0.006458225206969093</v>
+        <v>0.01909685826844104</v>
       </c>
       <c r="O230" t="n">
-        <v>0.1286738212619367</v>
+        <v>0.1273342991440952</v>
       </c>
     </row>
     <row r="231" ht="15" customHeight="1">
       <c r="F231" t="n">
-        <v>0.006374174641393296</v>
+        <v>0.02204619192377384</v>
       </c>
       <c r="G231" t="n">
+        <v>0.07313050082899648</v>
+      </c>
+      <c r="J231" t="n">
+        <v>0.009128210974503545</v>
+      </c>
+      <c r="K231" t="n">
         <v>0.1294536626029181</v>
       </c>
-      <c r="J231" t="n">
-        <v>0.006744295356547997</v>
-      </c>
-      <c r="K231" t="n">
-        <v>0.1283228472245277</v>
-      </c>
       <c r="L231" t="n">
-        <v>0.01986212439486501</v>
+        <v>0.00863182102180074</v>
       </c>
       <c r="M231" t="n">
-        <v>0.1287865540174082</v>
+        <v>0.1286763516028141</v>
       </c>
       <c r="N231" t="n">
-        <v>0.006374174641393296</v>
+        <v>0.01846320916828037</v>
       </c>
       <c r="O231" t="n">
-        <v>0.1294536626029181</v>
+        <v>0.1281060221692109</v>
       </c>
     </row>
     <row r="232" ht="15" customHeight="1">
       <c r="F232" t="n">
-        <v>0.006192782515884732</v>
+        <v>0.02131281921623202</v>
       </c>
       <c r="G232" t="n">
+        <v>0.07300141966174833</v>
+      </c>
+      <c r="J232" t="n">
+        <v>0.00903048751746359</v>
+      </c>
+      <c r="K232" t="n">
         <v>0.1302335039438995</v>
       </c>
-      <c r="J232" t="n">
-        <v>0.00605209066041873</v>
-      </c>
-      <c r="K232" t="n">
-        <v>0.1290958764246755</v>
-      </c>
       <c r="L232" t="n">
-        <v>0.01933498285909369</v>
+        <v>0.008400884332730785</v>
       </c>
       <c r="M232" t="n">
-        <v>0.1295623766319709</v>
+        <v>0.1294515103474093</v>
       </c>
       <c r="N232" t="n">
-        <v>0.006192782515884732</v>
+        <v>0.01752234001585334</v>
       </c>
       <c r="O232" t="n">
-        <v>0.1302335039438995</v>
+        <v>0.1288777451943266</v>
       </c>
     </row>
     <row r="233" ht="15" customHeight="1">
       <c r="F233" t="n">
-        <v>0.006114039631710991</v>
+        <v>0.02059647869042686</v>
       </c>
       <c r="G233" t="n">
+        <v>0.07287233849450019</v>
+      </c>
+      <c r="J233" t="n">
+        <v>0.008631109880311655</v>
+      </c>
+      <c r="K233" t="n">
         <v>0.131013345284881</v>
       </c>
-      <c r="J233" t="n">
-        <v>0.005968076552710366</v>
-      </c>
-      <c r="K233" t="n">
-        <v>0.1298689056248232</v>
-      </c>
       <c r="L233" t="n">
-        <v>0.01861191210200974</v>
+        <v>0.008572384652153542</v>
       </c>
       <c r="M233" t="n">
-        <v>0.1303381992465336</v>
+        <v>0.1302266690920046</v>
       </c>
       <c r="N233" t="n">
-        <v>0.006114039631710991</v>
+        <v>0.01727435731464527</v>
       </c>
       <c r="O233" t="n">
-        <v>0.131013345284881</v>
+        <v>0.1296494682194424</v>
       </c>
     </row>
     <row r="234" ht="15" customHeight="1">
       <c r="F234" t="n">
-        <v>0.006137936790139686</v>
+        <v>0.01989759303479161</v>
       </c>
       <c r="G234" t="n">
+        <v>0.07274325732725204</v>
+      </c>
+      <c r="J234" t="n">
+        <v>0.008430096097669246</v>
+      </c>
+      <c r="K234" t="n">
         <v>0.1317931866258624</v>
       </c>
-      <c r="J234" t="n">
-        <v>0.005192639049640624</v>
-      </c>
-      <c r="K234" t="n">
-        <v>0.130641934824971</v>
-      </c>
       <c r="L234" t="n">
-        <v>0.01759300137927144</v>
+        <v>0.008546423055770053</v>
       </c>
       <c r="M234" t="n">
-        <v>0.1311140218610963</v>
+        <v>0.1310018278365999</v>
       </c>
       <c r="N234" t="n">
-        <v>0.006137936790139686</v>
+        <v>0.01701936756814143</v>
       </c>
       <c r="O234" t="n">
-        <v>0.1317931866258624</v>
+        <v>0.1304211912445581</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1">
       <c r="F235" t="n">
-        <v>0.005964464792438395</v>
+        <v>0.01921658493775955</v>
       </c>
       <c r="G235" t="n">
+        <v>0.07261417616000389</v>
+      </c>
+      <c r="J235" t="n">
+        <v>0.008427464204157839</v>
+      </c>
+      <c r="K235" t="n">
         <v>0.1325730279668438</v>
       </c>
-      <c r="J235" t="n">
-        <v>0.004826164167427094</v>
-      </c>
-      <c r="K235" t="n">
-        <v>0.1314149640251187</v>
-      </c>
       <c r="L235" t="n">
-        <v>0.01697833994653736</v>
+        <v>0.008423100619281587</v>
       </c>
       <c r="M235" t="n">
-        <v>0.131889844475659</v>
+        <v>0.1317769865811951</v>
       </c>
       <c r="N235" t="n">
-        <v>0.005964464792438395</v>
+        <v>0.01645747727982744</v>
       </c>
       <c r="O235" t="n">
-        <v>0.1325730279668438</v>
+        <v>0.1311929142696738</v>
       </c>
     </row>
     <row r="236" ht="15" customHeight="1">
       <c r="F236" t="n">
-        <v>0.005893614439874711</v>
+        <v>0.01855387708776388</v>
       </c>
       <c r="G236" t="n">
+        <v>0.07248509499275572</v>
+      </c>
+      <c r="J236" t="n">
+        <v>0.00802323223439888</v>
+      </c>
+      <c r="K236" t="n">
         <v>0.1333528693078253</v>
       </c>
-      <c r="J236" t="n">
-        <v>0.0041690379222874</v>
-      </c>
-      <c r="K236" t="n">
-        <v>0.1321879932252665</v>
-      </c>
       <c r="L236" t="n">
-        <v>0.01586801705946567</v>
+        <v>0.008202518418389398</v>
       </c>
       <c r="M236" t="n">
-        <v>0.1326656670902217</v>
+        <v>0.1325521453257904</v>
       </c>
       <c r="N236" t="n">
-        <v>0.005893614439874711</v>
+        <v>0.0164887929531885</v>
       </c>
       <c r="O236" t="n">
-        <v>0.1333528693078253</v>
+        <v>0.1319646372947896</v>
       </c>
     </row>
     <row r="237" ht="15" customHeight="1">
       <c r="F237" t="n">
-        <v>0.006025376533716209</v>
+        <v>0.01790989217323798</v>
       </c>
       <c r="G237" t="n">
+        <v>0.07235601382550758</v>
+      </c>
+      <c r="J237" t="n">
+        <v>0.008017418223013884</v>
+      </c>
+      <c r="K237" t="n">
         <v>0.1341327106488067</v>
       </c>
-      <c r="J237" t="n">
-        <v>0.003721646330439282</v>
-      </c>
-      <c r="K237" t="n">
-        <v>0.1329610224254142</v>
-      </c>
       <c r="L237" t="n">
-        <v>0.01506212197371509</v>
+        <v>0.007884777528794545</v>
       </c>
       <c r="M237" t="n">
-        <v>0.1334414897047844</v>
+        <v>0.1333273040703856</v>
       </c>
       <c r="N237" t="n">
-        <v>0.006025376533716209</v>
+        <v>0.01561342109171016</v>
       </c>
       <c r="O237" t="n">
-        <v>0.1341327106488067</v>
+        <v>0.1327363603199053</v>
       </c>
     </row>
     <row r="238" ht="15" customHeight="1">
       <c r="F238" t="n">
-        <v>0.005759741875230442</v>
+        <v>0.01728505288261505</v>
       </c>
       <c r="G238" t="n">
+        <v>0.07222693265825943</v>
+      </c>
+      <c r="J238" t="n">
+        <v>0.007710040204624277</v>
+      </c>
+      <c r="K238" t="n">
         <v>0.1349125519897881</v>
       </c>
-      <c r="J238" t="n">
-        <v>0.003284375408100282</v>
-      </c>
-      <c r="K238" t="n">
-        <v>0.133734051625562</v>
-      </c>
       <c r="L238" t="n">
-        <v>0.01466074394494393</v>
+        <v>0.007769979026198331</v>
       </c>
       <c r="M238" t="n">
-        <v>0.1342173123193471</v>
+        <v>0.1341024628149809</v>
       </c>
       <c r="N238" t="n">
-        <v>0.005759741875230442</v>
+        <v>0.01523146819887766</v>
       </c>
       <c r="O238" t="n">
-        <v>0.1349125519897881</v>
+        <v>0.133508083345021</v>
       </c>
     </row>
     <row r="239" ht="15" customHeight="1">
       <c r="F239" t="n">
-        <v>0.005696701265685056</v>
+        <v>0.01667978190432833</v>
       </c>
       <c r="G239" t="n">
+        <v>0.07209785149101128</v>
+      </c>
+      <c r="J239" t="n">
+        <v>0.007501116213851564</v>
+      </c>
+      <c r="K239" t="n">
         <v>0.1356923933307696</v>
       </c>
-      <c r="J239" t="n">
-        <v>0.002857611171488167</v>
-      </c>
-      <c r="K239" t="n">
-        <v>0.1345070808257098</v>
-      </c>
       <c r="L239" t="n">
-        <v>0.01386397222881075</v>
+        <v>0.007658223986301865</v>
       </c>
       <c r="M239" t="n">
-        <v>0.1349931349339098</v>
+        <v>0.1348776215595762</v>
       </c>
       <c r="N239" t="n">
-        <v>0.005696701265685056</v>
+        <v>0.0149430407781766</v>
       </c>
       <c r="O239" t="n">
-        <v>0.1356923933307696</v>
+        <v>0.1342798063701368</v>
       </c>
     </row>
     <row r="240" ht="15" customHeight="1">
       <c r="F240" t="n">
-        <v>0.005636245506347615</v>
+        <v>0.01609277594904192</v>
       </c>
       <c r="G240" t="n">
+        <v>0.07196877032376311</v>
+      </c>
+      <c r="J240" t="n">
+        <v>0.007290664285317189</v>
+      </c>
+      <c r="K240" t="n">
         <v>0.136472234671751</v>
       </c>
-      <c r="J240" t="n">
-        <v>0.002941739636820484</v>
-      </c>
-      <c r="K240" t="n">
-        <v>0.1352801100258575</v>
-      </c>
       <c r="L240" t="n">
-        <v>0.01307189608097392</v>
+        <v>0.007449613484806356</v>
       </c>
       <c r="M240" t="n">
-        <v>0.1357689575484725</v>
+        <v>0.1356527803041715</v>
       </c>
       <c r="N240" t="n">
-        <v>0.005636245506347615</v>
+        <v>0.01394824533309214</v>
       </c>
       <c r="O240" t="n">
-        <v>0.136472234671751</v>
+        <v>0.1350515293952525</v>
       </c>
     </row>
     <row r="241" ht="15" customHeight="1">
       <c r="F241" t="n">
-        <v>0.005678365398485707</v>
+        <v>0.01551410183857428</v>
       </c>
       <c r="G241" t="n">
+        <v>0.07183968915651497</v>
+      </c>
+      <c r="J241" t="n">
+        <v>0.00717870245364266</v>
+      </c>
+      <c r="K241" t="n">
         <v>0.1372520760127325</v>
       </c>
-      <c r="J241" t="n">
-        <v>0.002337146820314939</v>
-      </c>
-      <c r="K241" t="n">
-        <v>0.1360531392260053</v>
-      </c>
       <c r="L241" t="n">
-        <v>0.01268460475709182</v>
+        <v>0.007744248597413017</v>
       </c>
       <c r="M241" t="n">
-        <v>0.1365447801630352</v>
+        <v>0.1364279390487667</v>
       </c>
       <c r="N241" t="n">
-        <v>0.005678365398485707</v>
+        <v>0.01384718836710974</v>
       </c>
       <c r="O241" t="n">
-        <v>0.1372520760127325</v>
+        <v>0.1358232524203682</v>
       </c>
     </row>
     <row r="242" ht="15" customHeight="1">
       <c r="F242" t="n">
-        <v>0.005723051743366903</v>
+        <v>0.01494245628358946</v>
       </c>
       <c r="G242" t="n">
+        <v>0.07171060798926682</v>
+      </c>
+      <c r="J242" t="n">
+        <v>0.006965248753449435</v>
+      </c>
+      <c r="K242" t="n">
         <v>0.1380319173537139</v>
       </c>
-      <c r="J242" t="n">
-        <v>0.001744218738189141</v>
-      </c>
-      <c r="K242" t="n">
-        <v>0.1368261684261531</v>
-      </c>
       <c r="L242" t="n">
-        <v>0.0116021875128231</v>
+        <v>0.00744223039982303</v>
       </c>
       <c r="M242" t="n">
-        <v>0.1373206027775979</v>
+        <v>0.137203097793362</v>
       </c>
       <c r="N242" t="n">
-        <v>0.005723051743366903</v>
+        <v>0.01323997638371482</v>
       </c>
       <c r="O242" t="n">
-        <v>0.1380319173537139</v>
+        <v>0.1365949754454839</v>
       </c>
     </row>
     <row r="243" ht="15" customHeight="1">
       <c r="F243" t="n">
-        <v>0.005570295342258794</v>
+        <v>0.01437826197252075</v>
       </c>
       <c r="G243" t="n">
+        <v>0.07158152682201867</v>
+      </c>
+      <c r="J243" t="n">
+        <v>0.006550321219358987</v>
+      </c>
+      <c r="K243" t="n">
         <v>0.1388117586946953</v>
       </c>
-      <c r="J243" t="n">
-        <v>0.001363341406660806</v>
-      </c>
-      <c r="K243" t="n">
-        <v>0.1375991976263008</v>
-      </c>
       <c r="L243" t="n">
-        <v>0.01152473360382611</v>
+        <v>0.007243659967737598</v>
       </c>
       <c r="M243" t="n">
-        <v>0.1380964253921605</v>
+        <v>0.1379782565379573</v>
       </c>
       <c r="N243" t="n">
-        <v>0.005570295342258794</v>
+        <v>0.01232671588639284</v>
       </c>
       <c r="O243" t="n">
-        <v>0.1388117586946953</v>
+        <v>0.1373666984705997</v>
       </c>
     </row>
     <row r="244" ht="15" customHeight="1">
       <c r="F244" t="n">
-        <v>0.005420086996428986</v>
+        <v>0.01382194159380135</v>
       </c>
       <c r="G244" t="n">
+        <v>0.07145244565477051</v>
+      </c>
+      <c r="J244" t="n">
+        <v>0.006533937885992783</v>
+      </c>
+      <c r="K244" t="n">
         <v>0.1395916000356767</v>
       </c>
-      <c r="J244" t="n">
-        <v>0.0008949008419474602</v>
-      </c>
-      <c r="K244" t="n">
-        <v>0.1383722268264486</v>
-      </c>
       <c r="L244" t="n">
-        <v>0.01015233228575918</v>
+        <v>0.007148638376857863</v>
       </c>
       <c r="M244" t="n">
-        <v>0.1388722480067233</v>
+        <v>0.1387534152825525</v>
       </c>
       <c r="N244" t="n">
-        <v>0.005420086996428986</v>
+        <v>0.01220751337862913</v>
       </c>
       <c r="O244" t="n">
-        <v>0.1395916000356767</v>
+        <v>0.1381384214957154</v>
       </c>
     </row>
     <row r="245" ht="15" customHeight="1">
       <c r="F245" t="n">
-        <v>0.005372417507145053</v>
+        <v>0.01327391783586462</v>
       </c>
       <c r="G245" t="n">
+        <v>0.07132336448752236</v>
+      </c>
+      <c r="J245" t="n">
+        <v>0.006316116787972295</v>
+      </c>
+      <c r="K245" t="n">
         <v>0.1403714413766582</v>
       </c>
-      <c r="J245" t="n">
-        <v>0.0009392830602668878</v>
-      </c>
-      <c r="K245" t="n">
-        <v>0.1391452560265963</v>
-      </c>
       <c r="L245" t="n">
-        <v>0.009585072814280893</v>
+        <v>0.007157266702885051</v>
       </c>
       <c r="M245" t="n">
-        <v>0.139648070621286</v>
+        <v>0.1395285740271478</v>
       </c>
       <c r="N245" t="n">
-        <v>0.005372417507145053</v>
+        <v>0.01128247536390914</v>
       </c>
       <c r="O245" t="n">
-        <v>0.1403714413766582</v>
+        <v>0.1389101445208311</v>
       </c>
     </row>
     <row r="246" ht="15" customHeight="1">
       <c r="F246" t="n">
-        <v>0.005527277675674583</v>
+        <v>0.01273461338714374</v>
       </c>
       <c r="G246" t="n">
+        <v>0.07119428332027421</v>
+      </c>
+      <c r="J246" t="n">
+        <v>0.005896875959919015</v>
+      </c>
+      <c r="K246" t="n">
         <v>0.1411512827176396</v>
       </c>
-      <c r="J246" t="n">
-        <v>0.0003968740778366175</v>
-      </c>
-      <c r="K246" t="n">
-        <v>0.1399182852267441</v>
-      </c>
       <c r="L246" t="n">
-        <v>0.008923044445049655</v>
+        <v>0.006769646021520387</v>
       </c>
       <c r="M246" t="n">
-        <v>0.1404238932358487</v>
+        <v>0.140303732771743</v>
       </c>
       <c r="N246" t="n">
-        <v>0.005527277675674583</v>
+        <v>0.01145170834571807</v>
       </c>
       <c r="O246" t="n">
-        <v>0.1411512827176396</v>
+        <v>0.1396818675459468</v>
       </c>
     </row>
     <row r="247" ht="15" customHeight="1">
       <c r="F247" t="n">
-        <v>0.005484658303285164</v>
+        <v>0.01220445093607202</v>
       </c>
       <c r="G247" t="n">
+        <v>0.07106520215302606</v>
+      </c>
+      <c r="J247" t="n">
+        <v>0.005876233436454395</v>
+      </c>
+      <c r="K247" t="n">
         <v>0.141931124058621</v>
       </c>
-      <c r="J247" t="n">
-        <v>-3.194008912563162e-05</v>
-      </c>
-      <c r="K247" t="n">
-        <v>0.1406913144268918</v>
-      </c>
       <c r="L247" t="n">
-        <v>0.008366336433723975</v>
+        <v>0.006685877408464991</v>
       </c>
       <c r="M247" t="n">
-        <v>0.1411997158504114</v>
+        <v>0.1410788915163383</v>
       </c>
       <c r="N247" t="n">
-        <v>0.005484658303285164</v>
+        <v>0.01061531882754152</v>
       </c>
       <c r="O247" t="n">
-        <v>0.141931124058621</v>
+        <v>0.1404535905710626</v>
       </c>
     </row>
     <row r="248" ht="15" customHeight="1">
       <c r="F248" t="n">
-        <v>0.005344550191244357</v>
+        <v>0.0116838531710827</v>
       </c>
       <c r="G248" t="n">
+        <v>0.07093612098577791</v>
+      </c>
+      <c r="J248" t="n">
+        <v>0.005554207252199933</v>
+      </c>
+      <c r="K248" t="n">
         <v>0.1427109653996025</v>
       </c>
-      <c r="J248" t="n">
-        <v>-0.0002467734244021857</v>
-      </c>
-      <c r="K248" t="n">
-        <v>0.1414643436270396</v>
-      </c>
       <c r="L248" t="n">
-        <v>0.00831503803596223</v>
+        <v>0.006906061939420088</v>
       </c>
       <c r="M248" t="n">
-        <v>0.1419755384649741</v>
+        <v>0.1418540502609336</v>
       </c>
       <c r="N248" t="n">
-        <v>0.005344550191244357</v>
+        <v>0.01027341331286491</v>
       </c>
       <c r="O248" t="n">
-        <v>0.1427109653996025</v>
+        <v>0.1412253135961783</v>
       </c>
     </row>
     <row r="249" ht="15" customHeight="1">
       <c r="F249" t="n">
-        <v>0.005206944140819791</v>
+        <v>0.01117324278060899</v>
       </c>
       <c r="G249" t="n">
+        <v>0.07080703981852975</v>
+      </c>
+      <c r="J249" t="n">
+        <v>0.005230815441777059</v>
+      </c>
+      <c r="K249" t="n">
         <v>0.1434908067405839</v>
       </c>
-      <c r="J249" t="n">
-        <v>-0.0005472399117754656</v>
-      </c>
-      <c r="K249" t="n">
-        <v>0.1422373728271873</v>
-      </c>
       <c r="L249" t="n">
-        <v>0.007069238507422804</v>
+        <v>0.006630300690086882</v>
       </c>
       <c r="M249" t="n">
-        <v>0.1427513610795368</v>
+        <v>0.1426292090055289</v>
       </c>
       <c r="N249" t="n">
-        <v>0.005206944140819791</v>
+        <v>0.009626098305173414</v>
       </c>
       <c r="O249" t="n">
-        <v>0.1434908067405839</v>
+        <v>0.141997036621294</v>
       </c>
     </row>
     <row r="250" ht="15" customHeight="1">
       <c r="F250" t="n">
-        <v>0.005371830953279033</v>
+        <v>0.01067304245308424</v>
       </c>
       <c r="G250" t="n">
+        <v>0.0706779586512816</v>
+      </c>
+      <c r="J250" t="n">
+        <v>0.0052060760398073</v>
+      </c>
+      <c r="K250" t="n">
         <v>0.1442706480815653</v>
       </c>
-      <c r="J250" t="n">
-        <v>-0.0006329535350277915</v>
-      </c>
-      <c r="K250" t="n">
-        <v>0.1430104020273351</v>
-      </c>
       <c r="L250" t="n">
-        <v>0.006529027103764296</v>
+        <v>0.006858694736166543</v>
       </c>
       <c r="M250" t="n">
-        <v>0.1435271836940994</v>
+        <v>0.1434043677501241</v>
       </c>
       <c r="N250" t="n">
-        <v>0.005371830953279033</v>
+        <v>0.00897348030795253</v>
       </c>
       <c r="O250" t="n">
-        <v>0.1442706480815653</v>
+        <v>0.1427687596464098</v>
       </c>
     </row>
     <row r="251" ht="15" customHeight="1">
       <c r="F251" t="n">
-        <v>0.005239201429889664</v>
+        <v>0.01018367487694168</v>
       </c>
       <c r="G251" t="n">
+        <v>0.07054887748403345</v>
+      </c>
+      <c r="J251" t="n">
+        <v>0.004780007080912085</v>
+      </c>
+      <c r="K251" t="n">
         <v>0.1450504894225468</v>
       </c>
-      <c r="J251" t="n">
-        <v>-0.001203528277941568</v>
-      </c>
-      <c r="K251" t="n">
-        <v>0.1437834312274829</v>
-      </c>
       <c r="L251" t="n">
-        <v>0.005994493080645091</v>
+        <v>0.006591345153360267</v>
       </c>
       <c r="M251" t="n">
-        <v>0.1443030063086622</v>
+        <v>0.1441795264947194</v>
       </c>
       <c r="N251" t="n">
-        <v>0.005239201429889664</v>
+        <v>0.008315665824687735</v>
       </c>
       <c r="O251" t="n">
-        <v>0.1450504894225468</v>
+        <v>0.1435404826715255</v>
       </c>
     </row>
     <row r="252" ht="15" customHeight="1">
       <c r="F252" t="n">
-        <v>0.005109046371919279</v>
+        <v>0.009705562740614543</v>
       </c>
       <c r="G252" t="n">
+        <v>0.0704197963167853</v>
+      </c>
+      <c r="J252" t="n">
+        <v>0.004652626599712925</v>
+      </c>
+      <c r="K252" t="n">
         <v>0.1458303307635282</v>
       </c>
-      <c r="J252" t="n">
-        <v>-0.001058578124299048</v>
-      </c>
-      <c r="K252" t="n">
-        <v>0.1445564604276306</v>
-      </c>
       <c r="L252" t="n">
-        <v>0.005565725693723711</v>
+        <v>0.006328353017369226</v>
       </c>
       <c r="M252" t="n">
-        <v>0.1450788289232249</v>
+        <v>0.1449546852393147</v>
       </c>
       <c r="N252" t="n">
-        <v>0.005109046371919279</v>
+        <v>0.007452761358864413</v>
       </c>
       <c r="O252" t="n">
-        <v>0.1458303307635282</v>
+        <v>0.1443122056966412</v>
       </c>
     </row>
     <row r="253" ht="15" customHeight="1">
       <c r="F253" t="n">
-        <v>0.005081356580635438</v>
+        <v>0.009239128732536087</v>
       </c>
       <c r="G253" t="n">
+        <v>0.07029071514953714</v>
+      </c>
+      <c r="J253" t="n">
+        <v>0.004423952630831243</v>
+      </c>
+      <c r="K253" t="n">
         <v>0.1466101721045096</v>
       </c>
-      <c r="J253" t="n">
-        <v>-0.001697717057882631</v>
-      </c>
-      <c r="K253" t="n">
-        <v>0.1453294896277784</v>
-      </c>
       <c r="L253" t="n">
-        <v>0.004342814198658396</v>
+        <v>0.006569819403894644</v>
       </c>
       <c r="M253" t="n">
-        <v>0.1458546515377876</v>
+        <v>0.1457298439839099</v>
       </c>
       <c r="N253" t="n">
-        <v>0.005081356580635438</v>
+        <v>0.007084873413967796</v>
       </c>
       <c r="O253" t="n">
-        <v>0.1466101721045096</v>
+        <v>0.145083928721757</v>
       </c>
     </row>
     <row r="254" ht="15" customHeight="1">
       <c r="F254" t="n">
-        <v>0.005056122857305778</v>
+        <v>0.008784795541139603</v>
       </c>
       <c r="G254" t="n">
+        <v>0.07016163398228899</v>
+      </c>
+      <c r="J254" t="n">
+        <v>0.004194003208888547</v>
+      </c>
+      <c r="K254" t="n">
         <v>0.1473900134454911</v>
       </c>
-      <c r="J254" t="n">
-        <v>-0.002020559062474669</v>
-      </c>
-      <c r="K254" t="n">
-        <v>0.1461025188279261</v>
-      </c>
       <c r="L254" t="n">
-        <v>0.004425847851107723</v>
+        <v>0.006215845388637675</v>
       </c>
       <c r="M254" t="n">
-        <v>0.1466304741523503</v>
+        <v>0.1465050027285052</v>
       </c>
       <c r="N254" t="n">
-        <v>0.005056122857305778</v>
+        <v>0.006512108493483382</v>
       </c>
       <c r="O254" t="n">
-        <v>0.1473900134454911</v>
+        <v>0.1458556517468727</v>
       </c>
     </row>
     <row r="255" ht="15" customHeight="1">
       <c r="F255" t="n">
-        <v>0.005033336003197844</v>
+        <v>0.008342985854858376</v>
       </c>
       <c r="G255" t="n">
+        <v>0.07003255281504084</v>
+      </c>
+      <c r="J255" t="n">
+        <v>0.003862796368506324</v>
+      </c>
+      <c r="K255" t="n">
         <v>0.1481698547864725</v>
       </c>
-      <c r="J255" t="n">
-        <v>-0.001826718121857529</v>
-      </c>
-      <c r="K255" t="n">
-        <v>0.1468755480280739</v>
-      </c>
       <c r="L255" t="n">
-        <v>0.003814915906730221</v>
+        <v>0.006266532047299517</v>
       </c>
       <c r="M255" t="n">
-        <v>0.147406296766913</v>
+        <v>0.1472801614731004</v>
       </c>
       <c r="N255" t="n">
-        <v>0.005033336003197844</v>
+        <v>0.005834573100896634</v>
       </c>
       <c r="O255" t="n">
-        <v>0.1481698547864725</v>
+        <v>0.1466273747719884</v>
       </c>
     </row>
     <row r="256" ht="15" customHeight="1">
       <c r="F256" t="n">
-        <v>0.005112986819579252</v>
+        <v>0.007914122362125603</v>
       </c>
       <c r="G256" t="n">
+        <v>0.06990347164779269</v>
+      </c>
+      <c r="J256" t="n">
+        <v>0.003830350144306008</v>
+      </c>
+      <c r="K256" t="n">
         <v>0.148949696127454</v>
       </c>
-      <c r="J256" t="n">
-        <v>-0.001915808219813575</v>
-      </c>
-      <c r="K256" t="n">
-        <v>0.1476485772282216</v>
-      </c>
       <c r="L256" t="n">
-        <v>0.002510107621184254</v>
+        <v>0.006421980455581427</v>
       </c>
       <c r="M256" t="n">
-        <v>0.1481821193814757</v>
+        <v>0.1480553202176957</v>
       </c>
       <c r="N256" t="n">
-        <v>0.005112986819579252</v>
+        <v>0.005252373739692839</v>
       </c>
       <c r="O256" t="n">
-        <v>0.148949696127454</v>
+        <v>0.1473990977971041</v>
       </c>
     </row>
     <row r="257" ht="15" customHeight="1">
       <c r="F257" t="n">
-        <v>0.005195066107717569</v>
+        <v>0.007498627751374595</v>
       </c>
       <c r="G257" t="n">
+        <v>0.06977439048054453</v>
+      </c>
+      <c r="J257" t="n">
+        <v>0.003596682570909115</v>
+      </c>
+      <c r="K257" t="n">
         <v>0.1497295374684354</v>
       </c>
-      <c r="J257" t="n">
-        <v>-0.002487443340125128</v>
-      </c>
-      <c r="K257" t="n">
-        <v>0.1484216064283694</v>
-      </c>
       <c r="L257" t="n">
-        <v>0.001911512250128311</v>
+        <v>0.006382291689184499</v>
       </c>
       <c r="M257" t="n">
-        <v>0.1489579419960384</v>
+        <v>0.148830478962291</v>
       </c>
       <c r="N257" t="n">
-        <v>0.005195066107717569</v>
+        <v>0.005265616913357418</v>
       </c>
       <c r="O257" t="n">
-        <v>0.1497295374684354</v>
+        <v>0.1481708208222199</v>
       </c>
     </row>
     <row r="258" ht="15" customHeight="1">
       <c r="F258" t="n">
-        <v>0.005179564668880379</v>
+        <v>0.00709692471103851</v>
       </c>
       <c r="G258" t="n">
+        <v>0.06964530931329638</v>
+      </c>
+      <c r="J258" t="n">
+        <v>0.003261811682937071</v>
+      </c>
+      <c r="K258" t="n">
         <v>0.1505093788094168</v>
       </c>
-      <c r="J258" t="n">
-        <v>-0.002641237466574492</v>
-      </c>
-      <c r="K258" t="n">
-        <v>0.1491946356285172</v>
-      </c>
       <c r="L258" t="n">
-        <v>0.002119219049220744</v>
+        <v>0.006547566823810025</v>
       </c>
       <c r="M258" t="n">
-        <v>0.1497337646106011</v>
+        <v>0.1496056377068863</v>
       </c>
       <c r="N258" t="n">
-        <v>0.005179564668880379</v>
+        <v>0.004274409125375855</v>
       </c>
       <c r="O258" t="n">
-        <v>0.1505093788094168</v>
+        <v>0.1489425438473356</v>
       </c>
     </row>
     <row r="259" ht="15" customHeight="1">
       <c r="F259" t="n">
-        <v>0.004966473304335278</v>
+        <v>0.006709435929550769</v>
       </c>
       <c r="G259" t="n">
+        <v>0.06951622814604823</v>
+      </c>
+      <c r="J259" t="n">
+        <v>0.003025755515011372</v>
+      </c>
+      <c r="K259" t="n">
         <v>0.1512892201503983</v>
       </c>
-      <c r="J259" t="n">
-        <v>-0.00237680458294412</v>
-      </c>
-      <c r="K259" t="n">
-        <v>0.1499676648286649</v>
-      </c>
       <c r="L259" t="n">
-        <v>0.00153331727412015</v>
+        <v>0.006517906935159051</v>
       </c>
       <c r="M259" t="n">
-        <v>0.1505095872251638</v>
+        <v>0.1503807964514815</v>
       </c>
       <c r="N259" t="n">
-        <v>0.004966473304335278</v>
+        <v>0.004078856879233317</v>
       </c>
       <c r="O259" t="n">
-        <v>0.1512892201503983</v>
+        <v>0.1497142668724513</v>
       </c>
     </row>
     <row r="260" ht="15" customHeight="1">
       <c r="F260" t="n">
-        <v>0.005055782815349852</v>
+        <v>0.006336584095344544</v>
       </c>
       <c r="G260" t="n">
+        <v>0.06938714697880007</v>
+      </c>
+      <c r="J260" t="n">
+        <v>0.002888532101753521</v>
+      </c>
+      <c r="K260" t="n">
         <v>0.1520690614913797</v>
       </c>
-      <c r="J260" t="n">
-        <v>-0.002593758673016311</v>
-      </c>
-      <c r="K260" t="n">
-        <v>0.1507406940288127</v>
-      </c>
       <c r="L260" t="n">
-        <v>0.000453896180484803</v>
+        <v>0.006093413098932882</v>
       </c>
       <c r="M260" t="n">
-        <v>0.1512854098397265</v>
+        <v>0.1511559551960768</v>
       </c>
       <c r="N260" t="n">
-        <v>0.005055782815349852</v>
+        <v>0.003279066678415432</v>
       </c>
       <c r="O260" t="n">
-        <v>0.1520690614913797</v>
+        <v>0.150485989897567</v>
       </c>
     </row>
     <row r="261" ht="15" customHeight="1">
       <c r="F261" t="n">
-        <v>0.005047484003191688</v>
+        <v>0.005978791896853089</v>
       </c>
       <c r="G261" t="n">
+        <v>0.06925806581155192</v>
+      </c>
+      <c r="J261" t="n">
+        <v>0.002650159477784922</v>
+      </c>
+      <c r="K261" t="n">
         <v>0.1528489028323611</v>
       </c>
-      <c r="J261" t="n">
-        <v>-0.002691713720573391</v>
-      </c>
-      <c r="K261" t="n">
-        <v>0.1515137232289604</v>
-      </c>
       <c r="L261" t="n">
-        <v>-1.895497602666385e-05</v>
+        <v>0.006274186390832687</v>
       </c>
       <c r="M261" t="n">
-        <v>0.1520612324542892</v>
+        <v>0.151931113940672</v>
       </c>
       <c r="N261" t="n">
-        <v>0.005047484003191688</v>
+        <v>0.002875145026407455</v>
       </c>
       <c r="O261" t="n">
-        <v>0.1528489028323611</v>
+        <v>0.1512577129226828</v>
       </c>
     </row>
     <row r="262" ht="15" customHeight="1">
       <c r="F262" t="n">
-        <v>0.004941567669128358</v>
+        <v>0.005636482022509645</v>
       </c>
       <c r="G262" t="n">
+        <v>0.06912898464430377</v>
+      </c>
+      <c r="J262" t="n">
+        <v>0.002410655677727136</v>
+      </c>
+      <c r="K262" t="n">
         <v>0.1536287441733426</v>
       </c>
-      <c r="J262" t="n">
-        <v>-0.002970283709397809</v>
-      </c>
-      <c r="K262" t="n">
-        <v>0.1522867524291082</v>
-      </c>
       <c r="L262" t="n">
-        <v>-0.0009851469397559875</v>
+        <v>0.005960327886559674</v>
       </c>
       <c r="M262" t="n">
-        <v>0.1528370550688519</v>
+        <v>0.1527062726852673</v>
       </c>
       <c r="N262" t="n">
-        <v>0.004941567669128358</v>
+        <v>0.001767198426694927</v>
       </c>
       <c r="O262" t="n">
-        <v>0.1536287441733426</v>
+        <v>0.1520294359477985</v>
       </c>
     </row>
     <row r="263" ht="15" customHeight="1">
       <c r="F263" t="n">
-        <v>0.005038024614427483</v>
+        <v>0.005310077160747537</v>
       </c>
       <c r="G263" t="n">
+        <v>0.0689999034770556</v>
+      </c>
+      <c r="J263" t="n">
+        <v>0.001970038736201551</v>
+      </c>
+      <c r="K263" t="n">
         <v>0.154408585514324</v>
       </c>
-      <c r="J263" t="n">
-        <v>-0.002829082623271834</v>
-      </c>
-      <c r="K263" t="n">
-        <v>0.1530597816292559</v>
-      </c>
       <c r="L263" t="n">
-        <v>-0.001444590455044525</v>
+        <v>0.006051938661814943</v>
       </c>
       <c r="M263" t="n">
-        <v>0.1536128776834146</v>
+        <v>0.1534814314298626</v>
       </c>
       <c r="N263" t="n">
-        <v>0.005038024614427483</v>
+        <v>0.001355333382763002</v>
       </c>
       <c r="O263" t="n">
-        <v>0.154408585514324</v>
+        <v>0.1528011589729142</v>
       </c>
     </row>
     <row r="264" ht="15" customHeight="1">
       <c r="F264" t="n">
-        <v>0.005136845640356602</v>
+        <v>0.005000000000000004</v>
       </c>
       <c r="G264" t="n">
+        <v>0.06887082230980746</v>
+      </c>
+      <c r="J264" t="n">
+        <v>0.00192832668782969</v>
+      </c>
+      <c r="K264" t="n">
         <v>0.1551884268553054</v>
       </c>
-      <c r="J264" t="n">
-        <v>-0.003167724445977821</v>
-      </c>
-      <c r="K264" t="n">
-        <v>0.1538328108294037</v>
-      </c>
       <c r="L264" t="n">
-        <v>-0.002097196266234003</v>
+        <v>0.006049119792299801</v>
       </c>
       <c r="M264" t="n">
-        <v>0.1543887002979773</v>
+        <v>0.1542565901744578</v>
       </c>
       <c r="N264" t="n">
-        <v>0.005136845640356602</v>
+        <v>0.0003396563980972989</v>
       </c>
       <c r="O264" t="n">
-        <v>0.1551884268553054</v>
-      </c>
-    </row>
-    <row r="265" ht="15" customHeight="1"/>
-    <row r="266" ht="15" customHeight="1"/>
-    <row r="267" ht="15" customHeight="1"/>
-    <row r="268" ht="15" customHeight="1"/>
-    <row r="269" ht="15" customHeight="1"/>
-    <row r="270" ht="15" customHeight="1"/>
-    <row r="271" ht="15" customHeight="1"/>
-    <row r="272" ht="15" customHeight="1"/>
-    <row r="273" ht="15" customHeight="1"/>
-    <row r="274" ht="15" customHeight="1"/>
-    <row r="275" ht="15" customHeight="1"/>
-    <row r="276" ht="15" customHeight="1"/>
-    <row r="277" ht="15" customHeight="1"/>
-    <row r="278" ht="15" customHeight="1"/>
-    <row r="279" ht="15" customHeight="1"/>
-    <row r="280" ht="15" customHeight="1"/>
-    <row r="281" ht="15" customHeight="1"/>
-    <row r="282" ht="15" customHeight="1"/>
-    <row r="283" ht="15" customHeight="1"/>
-    <row r="284" ht="15" customHeight="1"/>
-    <row r="285" ht="15" customHeight="1"/>
-    <row r="286" ht="15" customHeight="1"/>
-    <row r="287" ht="15" customHeight="1"/>
-    <row r="288" ht="15" customHeight="1"/>
-    <row r="289" ht="15" customHeight="1"/>
-    <row r="290" ht="15" customHeight="1"/>
-    <row r="291" ht="15" customHeight="1"/>
-    <row r="292" ht="15" customHeight="1"/>
-    <row r="293" ht="15" customHeight="1"/>
-    <row r="294" ht="15" customHeight="1"/>
-    <row r="295" ht="15" customHeight="1"/>
-    <row r="296" ht="15" customHeight="1"/>
-    <row r="297" ht="15" customHeight="1"/>
-    <row r="298" ht="15" customHeight="1"/>
-    <row r="299" ht="15" customHeight="1"/>
-    <row r="300" ht="15" customHeight="1"/>
-    <row r="301" ht="15" customHeight="1"/>
-    <row r="302" ht="15" customHeight="1"/>
-    <row r="303" ht="15" customHeight="1"/>
-    <row r="304" ht="15" customHeight="1"/>
-    <row r="305" ht="15" customHeight="1"/>
-    <row r="306" ht="15" customHeight="1"/>
-    <row r="307" ht="15" customHeight="1"/>
-    <row r="308" ht="15" customHeight="1"/>
-    <row r="309" ht="15" customHeight="1"/>
-    <row r="310" ht="15" customHeight="1"/>
-    <row r="311" ht="15" customHeight="1"/>
-    <row r="312" ht="15" customHeight="1"/>
-    <row r="313" ht="15" customHeight="1"/>
-    <row r="314" ht="15" customHeight="1"/>
-    <row r="315" ht="15" customHeight="1"/>
-    <row r="316" ht="15" customHeight="1"/>
-    <row r="317" ht="15" customHeight="1"/>
-    <row r="318" ht="15" customHeight="1"/>
-    <row r="319" ht="15" customHeight="1"/>
-    <row r="320" ht="15" customHeight="1"/>
-    <row r="321" ht="15" customHeight="1"/>
-    <row r="322" ht="15" customHeight="1"/>
-    <row r="323" ht="15" customHeight="1"/>
-    <row r="324" ht="15" customHeight="1"/>
-    <row r="325" ht="15" customHeight="1"/>
-    <row r="326" ht="15" customHeight="1"/>
-    <row r="327" ht="15" customHeight="1"/>
-    <row r="328" ht="15" customHeight="1"/>
-    <row r="329" ht="15" customHeight="1"/>
-    <row r="330" ht="15" customHeight="1"/>
-    <row r="331" ht="15" customHeight="1"/>
-    <row r="332" ht="15" customHeight="1"/>
-    <row r="333" ht="15" customHeight="1"/>
-    <row r="334" ht="15" customHeight="1"/>
-    <row r="335" ht="15" customHeight="1"/>
-    <row r="336" ht="15" customHeight="1"/>
-    <row r="337" ht="15" customHeight="1"/>
-    <row r="338" ht="15" customHeight="1"/>
-    <row r="339" ht="15" customHeight="1"/>
-    <row r="340" ht="15" customHeight="1"/>
-    <row r="341" ht="15" customHeight="1"/>
-    <row r="342" ht="15" customHeight="1"/>
-    <row r="343" ht="15" customHeight="1"/>
-    <row r="344" ht="15" customHeight="1"/>
-    <row r="345" ht="15" customHeight="1"/>
-    <row r="346" ht="15" customHeight="1"/>
-    <row r="347" ht="15" customHeight="1"/>
-    <row r="348" ht="15" customHeight="1"/>
-    <row r="349" ht="15" customHeight="1"/>
-    <row r="350" ht="15" customHeight="1"/>
-    <row r="351" ht="15" customHeight="1"/>
-    <row r="352" ht="15" customHeight="1"/>
-    <row r="353" ht="15" customHeight="1"/>
-    <row r="354" ht="15" customHeight="1"/>
-    <row r="355" ht="15" customHeight="1"/>
-    <row r="356" ht="15" customHeight="1"/>
-    <row r="357" ht="15" customHeight="1"/>
-    <row r="358" ht="15" customHeight="1"/>
-    <row r="359" ht="15" customHeight="1"/>
-    <row r="360" ht="15" customHeight="1"/>
-    <row r="361" ht="15" customHeight="1"/>
-    <row r="362" ht="15" customHeight="1"/>
-    <row r="363" ht="15" customHeight="1"/>
-    <row r="364" ht="15" customHeight="1"/>
-    <row r="365" ht="15" customHeight="1"/>
-    <row r="366" ht="15" customHeight="1"/>
-    <row r="367" ht="15" customHeight="1"/>
-    <row r="368" ht="15" customHeight="1"/>
-    <row r="369" ht="15" customHeight="1"/>
-    <row r="370" ht="15" customHeight="1"/>
-    <row r="371" ht="15" customHeight="1"/>
-    <row r="372" ht="15" customHeight="1"/>
-    <row r="373" ht="15" customHeight="1"/>
-    <row r="374" ht="15" customHeight="1"/>
-    <row r="375" ht="15" customHeight="1"/>
-    <row r="376" ht="15" customHeight="1"/>
-    <row r="377" ht="15" customHeight="1"/>
-    <row r="378" ht="15" customHeight="1"/>
-    <row r="379" ht="15" customHeight="1"/>
-    <row r="380" ht="15" customHeight="1"/>
-    <row r="381" ht="15" customHeight="1"/>
-    <row r="382" ht="15" customHeight="1"/>
-    <row r="383" ht="15" customHeight="1"/>
-    <row r="384" ht="15" customHeight="1"/>
-    <row r="385" ht="15" customHeight="1"/>
-    <row r="386" ht="15" customHeight="1"/>
-    <row r="387" ht="15" customHeight="1"/>
-    <row r="388" ht="15" customHeight="1"/>
-    <row r="389" ht="15" customHeight="1"/>
-    <row r="390" ht="15" customHeight="1"/>
-    <row r="391" ht="15" customHeight="1"/>
-    <row r="392" ht="15" customHeight="1"/>
-    <row r="393" ht="15" customHeight="1"/>
-    <row r="394" ht="15" customHeight="1"/>
-    <row r="395" ht="15" customHeight="1"/>
-    <row r="396" ht="15" customHeight="1"/>
-    <row r="397" ht="15" customHeight="1"/>
-    <row r="398" ht="15" customHeight="1"/>
-    <row r="399" ht="15" customHeight="1"/>
-    <row r="400" ht="15" customHeight="1"/>
-    <row r="401" ht="15" customHeight="1"/>
-    <row r="402" ht="15" customHeight="1"/>
-    <row r="403" ht="15" customHeight="1"/>
-    <row r="404" ht="15" customHeight="1"/>
-    <row r="405" ht="15" customHeight="1"/>
-    <row r="406" ht="15" customHeight="1"/>
-    <row r="407" ht="15" customHeight="1"/>
-    <row r="408" ht="15" customHeight="1"/>
-    <row r="409" ht="15" customHeight="1"/>
-    <row r="410" ht="15" customHeight="1"/>
-    <row r="411" ht="15" customHeight="1"/>
-    <row r="412" ht="15" customHeight="1"/>
-    <row r="413" ht="15" customHeight="1"/>
-    <row r="414" ht="15" customHeight="1"/>
-    <row r="415" ht="15" customHeight="1"/>
-    <row r="416" ht="15" customHeight="1"/>
-    <row r="417" ht="15" customHeight="1"/>
-    <row r="418" ht="15" customHeight="1"/>
-    <row r="419" ht="15" customHeight="1"/>
-    <row r="420" ht="15" customHeight="1"/>
-    <row r="421" ht="15" customHeight="1"/>
-    <row r="422" ht="15" customHeight="1"/>
-    <row r="423" ht="15" customHeight="1"/>
-    <row r="424" ht="15" customHeight="1"/>
-    <row r="425" ht="15" customHeight="1"/>
-    <row r="426" ht="15" customHeight="1"/>
-    <row r="427" ht="15" customHeight="1"/>
-    <row r="428" ht="15" customHeight="1"/>
-    <row r="429" ht="15" customHeight="1"/>
-    <row r="430" ht="15" customHeight="1"/>
-    <row r="431" ht="15" customHeight="1"/>
-    <row r="432" ht="15" customHeight="1"/>
-    <row r="433" ht="15" customHeight="1"/>
-    <row r="434" ht="15" customHeight="1"/>
-    <row r="435" ht="15" customHeight="1"/>
-    <row r="436" ht="15" customHeight="1"/>
-    <row r="437" ht="15" customHeight="1"/>
-    <row r="438" ht="15" customHeight="1"/>
-    <row r="439" ht="15" customHeight="1"/>
-    <row r="440" ht="15" customHeight="1"/>
-    <row r="441" ht="15" customHeight="1"/>
-    <row r="442" ht="15" customHeight="1"/>
-    <row r="443" ht="15" customHeight="1"/>
-    <row r="444" ht="15" customHeight="1"/>
-    <row r="445" ht="15" customHeight="1"/>
-    <row r="446" ht="15" customHeight="1"/>
-    <row r="447" ht="15" customHeight="1"/>
-    <row r="448" ht="15" customHeight="1"/>
-    <row r="449" ht="15" customHeight="1"/>
-    <row r="450" ht="15" customHeight="1"/>
-    <row r="451" ht="15" customHeight="1"/>
-    <row r="452" ht="15" customHeight="1"/>
-    <row r="453" ht="15" customHeight="1"/>
-    <row r="454" ht="15" customHeight="1"/>
-    <row r="455" ht="15" customHeight="1"/>
-    <row r="456" ht="15" customHeight="1"/>
-    <row r="457" ht="15" customHeight="1"/>
-    <row r="458" ht="15" customHeight="1"/>
-    <row r="459" ht="15" customHeight="1"/>
-    <row r="460" ht="15" customHeight="1"/>
-    <row r="461" ht="15" customHeight="1"/>
-    <row r="462" ht="15" customHeight="1"/>
-    <row r="463" ht="15" customHeight="1"/>
-    <row r="464" ht="15" customHeight="1"/>
+        <v>0.15357288199803</v>
+      </c>
+    </row>
+    <row r="265" ht="15" customHeight="1">
+      <c r="F265" t="n">
+        <v>0.005000000000000004</v>
+      </c>
+      <c r="G265" t="n">
+        <v>0.06885766441507062</v>
+      </c>
+    </row>
+    <row r="266" ht="15" customHeight="1">
+      <c r="F266" t="n">
+        <v>0.005925143446445527</v>
+      </c>
+      <c r="G266" t="n">
+        <v>0.06885793294353464</v>
+      </c>
+    </row>
+    <row r="267" ht="15" customHeight="1">
+      <c r="F267" t="n">
+        <v>0.006845125100129565</v>
+      </c>
+      <c r="G267" t="n">
+        <v>0.06885820147199864</v>
+      </c>
+    </row>
+    <row r="268" ht="15" customHeight="1">
+      <c r="F268" t="n">
+        <v>0.007759885779267992</v>
+      </c>
+      <c r="G268" t="n">
+        <v>0.06885847000046268</v>
+      </c>
+    </row>
+    <row r="269" ht="15" customHeight="1">
+      <c r="F269" t="n">
+        <v>0.00866936630195736</v>
+      </c>
+      <c r="G269" t="n">
+        <v>0.06885873852892668</v>
+      </c>
+    </row>
+    <row r="270" ht="15" customHeight="1">
+      <c r="F270" t="n">
+        <v>0.009573507486413751</v>
+      </c>
+      <c r="G270" t="n">
+        <v>0.0688590070573907</v>
+      </c>
+    </row>
+    <row r="271" ht="15" customHeight="1">
+      <c r="F271" t="n">
+        <v>0.01047225015081338</v>
+      </c>
+      <c r="G271" t="n">
+        <v>0.06885927558585471</v>
+      </c>
+    </row>
+    <row r="272" ht="15" customHeight="1">
+      <c r="F272" t="n">
+        <v>0.01136553511337111</v>
+      </c>
+      <c r="G272" t="n">
+        <v>0.06885954411431874</v>
+      </c>
+    </row>
+    <row r="273" ht="15" customHeight="1">
+      <c r="F273" t="n">
+        <v>0.01225330319218543</v>
+      </c>
+      <c r="G273" t="n">
+        <v>0.06885981264278275</v>
+      </c>
+    </row>
+    <row r="274" ht="15" customHeight="1">
+      <c r="F274" t="n">
+        <v>0.01313549520547144</v>
+      </c>
+      <c r="G274" t="n">
+        <v>0.06886008117124677</v>
+      </c>
+    </row>
+    <row r="275" ht="15" customHeight="1">
+      <c r="F275" t="n">
+        <v>0.01401205197140534</v>
+      </c>
+      <c r="G275" t="n">
+        <v>0.06886034969971078</v>
+      </c>
+    </row>
+    <row r="276" ht="15" customHeight="1">
+      <c r="F276" t="n">
+        <v>0.0148829143082011</v>
+      </c>
+      <c r="G276" t="n">
+        <v>0.06886061822817481</v>
+      </c>
+    </row>
+    <row r="277" ht="15" customHeight="1">
+      <c r="F277" t="n">
+        <v>0.01574802303395904</v>
+      </c>
+      <c r="G277" t="n">
+        <v>0.06886088675663882</v>
+      </c>
+    </row>
+    <row r="278" ht="15" customHeight="1">
+      <c r="F278" t="n">
+        <v>0.01660731896689342</v>
+      </c>
+      <c r="G278" t="n">
+        <v>0.06886115528510284</v>
+      </c>
+    </row>
+    <row r="279" ht="15" customHeight="1">
+      <c r="F279" t="n">
+        <v>0.01746074292518038</v>
+      </c>
+      <c r="G279" t="n">
+        <v>0.06886142381356686</v>
+      </c>
+    </row>
+    <row r="280" ht="15" customHeight="1">
+      <c r="F280" t="n">
+        <v>0.01830823572703281</v>
+      </c>
+      <c r="G280" t="n">
+        <v>0.06886169234203088</v>
+      </c>
+    </row>
+    <row r="281" ht="15" customHeight="1">
+      <c r="F281" t="n">
+        <v>0.01914973819055317</v>
+      </c>
+      <c r="G281" t="n">
+        <v>0.0688619608704949</v>
+      </c>
+    </row>
+    <row r="282" ht="15" customHeight="1">
+      <c r="F282" t="n">
+        <v>0.01998519113395464</v>
+      </c>
+      <c r="G282" t="n">
+        <v>0.0688622293989589</v>
+      </c>
+    </row>
+    <row r="283" ht="15" customHeight="1">
+      <c r="F283" t="n">
+        <v>0.02081453537541336</v>
+      </c>
+      <c r="G283" t="n">
+        <v>0.06886249792742292</v>
+      </c>
+    </row>
+    <row r="284" ht="15" customHeight="1">
+      <c r="F284" t="n">
+        <v>0.02163771173314119</v>
+      </c>
+      <c r="G284" t="n">
+        <v>0.06886276645588695</v>
+      </c>
+    </row>
+    <row r="285" ht="15" customHeight="1">
+      <c r="F285" t="n">
+        <v>0.02245466102524271</v>
+      </c>
+      <c r="G285" t="n">
+        <v>0.06886303498435097</v>
+      </c>
+    </row>
+    <row r="286" ht="15" customHeight="1">
+      <c r="F286" t="n">
+        <v>0.02326532406992997</v>
+      </c>
+      <c r="G286" t="n">
+        <v>0.06886330351281497</v>
+      </c>
+    </row>
+    <row r="287" ht="15" customHeight="1">
+      <c r="F287" t="n">
+        <v>0.02406964168537921</v>
+      </c>
+      <c r="G287" t="n">
+        <v>0.06886357204127899</v>
+      </c>
+    </row>
+    <row r="288" ht="15" customHeight="1">
+      <c r="F288" t="n">
+        <v>0.02486755468980115</v>
+      </c>
+      <c r="G288" t="n">
+        <v>0.06886384056974301</v>
+      </c>
+    </row>
+    <row r="289" ht="15" customHeight="1">
+      <c r="F289" t="n">
+        <v>0.02565900390130252</v>
+      </c>
+      <c r="G289" t="n">
+        <v>0.06886410909820703</v>
+      </c>
+    </row>
+    <row r="290" ht="15" customHeight="1">
+      <c r="F290" t="n">
+        <v>0.02644417179720833</v>
+      </c>
+      <c r="G290" t="n">
+        <v>0.06886437762667104</v>
+      </c>
+    </row>
+    <row r="291" ht="15" customHeight="1">
+      <c r="F291" t="n">
+        <v>0.02722444915037857</v>
+      </c>
+      <c r="G291" t="n">
+        <v>0.06886464615513506</v>
+      </c>
+    </row>
+    <row r="292" ht="15" customHeight="1">
+      <c r="F292" t="n">
+        <v>0.028000018438137</v>
+      </c>
+      <c r="G292" t="n">
+        <v>0.06886491468359908</v>
+      </c>
+    </row>
+    <row r="293" ht="15" customHeight="1">
+      <c r="F293" t="n">
+        <v>0.02877082047859227</v>
+      </c>
+      <c r="G293" t="n">
+        <v>0.0688651832120631</v>
+      </c>
+    </row>
+    <row r="294" ht="15" customHeight="1">
+      <c r="F294" t="n">
+        <v>0.02953679608995441</v>
+      </c>
+      <c r="G294" t="n">
+        <v>0.06886545174052712</v>
+      </c>
+    </row>
+    <row r="295" ht="15" customHeight="1">
+      <c r="F295" t="n">
+        <v>0.0302978860903996</v>
+      </c>
+      <c r="G295" t="n">
+        <v>0.06886572026899113</v>
+      </c>
+    </row>
+    <row r="296" ht="15" customHeight="1">
+      <c r="F296" t="n">
+        <v>0.03105403129813682</v>
+      </c>
+      <c r="G296" t="n">
+        <v>0.06886598879745516</v>
+      </c>
+    </row>
+    <row r="297" ht="15" customHeight="1">
+      <c r="F297" t="n">
+        <v>0.03180517253127642</v>
+      </c>
+      <c r="G297" t="n">
+        <v>0.06886625732591917</v>
+      </c>
+    </row>
+    <row r="298" ht="15" customHeight="1">
+      <c r="F298" t="n">
+        <v>0.03255125060802758</v>
+      </c>
+      <c r="G298" t="n">
+        <v>0.06886652585438319</v>
+      </c>
+    </row>
+    <row r="299" ht="15" customHeight="1">
+      <c r="F299" t="n">
+        <v>0.03329220634656646</v>
+      </c>
+      <c r="G299" t="n">
+        <v>0.06886679438284719</v>
+      </c>
+    </row>
+    <row r="300" ht="15" customHeight="1">
+      <c r="F300" t="n">
+        <v>0.03402798056510119</v>
+      </c>
+      <c r="G300" t="n">
+        <v>0.06886706291131123</v>
+      </c>
+    </row>
+    <row r="301" ht="15" customHeight="1">
+      <c r="F301" t="n">
+        <v>0.03475851408174385</v>
+      </c>
+      <c r="G301" t="n">
+        <v>0.06886733143977523</v>
+      </c>
+    </row>
+    <row r="302" ht="15" customHeight="1">
+      <c r="F302" t="n">
+        <v>0.03548374771470275</v>
+      </c>
+      <c r="G302" t="n">
+        <v>0.06886759996823925</v>
+      </c>
+    </row>
+    <row r="303" ht="15" customHeight="1">
+      <c r="F303" t="n">
+        <v>0.03620362228215408</v>
+      </c>
+      <c r="G303" t="n">
+        <v>0.06886786849670327</v>
+      </c>
+    </row>
+    <row r="304" ht="15" customHeight="1">
+      <c r="F304" t="n">
+        <v>0.03691807860230498</v>
+      </c>
+      <c r="G304" t="n">
+        <v>0.06886813702516729</v>
+      </c>
+    </row>
+    <row r="305" ht="15" customHeight="1">
+      <c r="F305" t="n">
+        <v>0.03762705749326944</v>
+      </c>
+      <c r="G305" t="n">
+        <v>0.06886840555363131</v>
+      </c>
+    </row>
+    <row r="306" ht="15" customHeight="1">
+      <c r="F306" t="n">
+        <v>0.03833049977325484</v>
+      </c>
+      <c r="G306" t="n">
+        <v>0.06886867408209532</v>
+      </c>
+    </row>
+    <row r="307" ht="15" customHeight="1">
+      <c r="F307" t="n">
+        <v>0.03902834626043736</v>
+      </c>
+      <c r="G307" t="n">
+        <v>0.06886894261055934</v>
+      </c>
+    </row>
+    <row r="308" ht="15" customHeight="1">
+      <c r="F308" t="n">
+        <v>0.03972053777302315</v>
+      </c>
+      <c r="G308" t="n">
+        <v>0.06886921113902336</v>
+      </c>
+    </row>
+    <row r="309" ht="15" customHeight="1">
+      <c r="F309" t="n">
+        <v>0.04040701512912814</v>
+      </c>
+      <c r="G309" t="n">
+        <v>0.06886947966748738</v>
+      </c>
+    </row>
+    <row r="310" ht="15" customHeight="1">
+      <c r="F310" t="n">
+        <v>0.04108771914695877</v>
+      </c>
+      <c r="G310" t="n">
+        <v>0.06886974819595139</v>
+      </c>
+    </row>
+    <row r="311" ht="15" customHeight="1">
+      <c r="F311" t="n">
+        <v>0.04176259064469119</v>
+      </c>
+      <c r="G311" t="n">
+        <v>0.06887001672441541</v>
+      </c>
+    </row>
+    <row r="312" ht="15" customHeight="1">
+      <c r="F312" t="n">
+        <v>0.04243157044053057</v>
+      </c>
+      <c r="G312" t="n">
+        <v>0.06887028525287943</v>
+      </c>
+    </row>
+    <row r="313" ht="15" customHeight="1">
+      <c r="F313" t="n">
+        <v>0.04309459935259485</v>
+      </c>
+      <c r="G313" t="n">
+        <v>0.06887055378134345</v>
+      </c>
+    </row>
+    <row r="314" ht="15" customHeight="1">
+      <c r="F314" t="n">
+        <v>0.04375161819908946</v>
+      </c>
+      <c r="G314" t="n">
+        <v>0.06887082230980746</v>
+      </c>
+    </row>
+    <row r="315" ht="15" customHeight="1">
+      <c r="F315" t="n">
+        <v>0.04375161819908945</v>
+      </c>
+      <c r="G315" t="n">
+        <v>0.06885766441507062</v>
+      </c>
+    </row>
+    <row r="316" ht="15" customHeight="1">
+      <c r="F316" t="n">
+        <v>0.0445482352021801</v>
+      </c>
+      <c r="G316" t="n">
+        <v>0.06898728263924681</v>
+      </c>
+    </row>
+    <row r="317" ht="15" customHeight="1">
+      <c r="F317" t="n">
+        <v>0.04533807993330055</v>
+      </c>
+      <c r="G317" t="n">
+        <v>0.06911690086342298</v>
+      </c>
+    </row>
+    <row r="318" ht="15" customHeight="1">
+      <c r="F318" t="n">
+        <v>0.04612099944165501</v>
+      </c>
+      <c r="G318" t="n">
+        <v>0.06924651908759917</v>
+      </c>
+    </row>
+    <row r="319" ht="15" customHeight="1">
+      <c r="F319" t="n">
+        <v>0.04689684077644737</v>
+      </c>
+      <c r="G319" t="n">
+        <v>0.06937613731177536</v>
+      </c>
+    </row>
+    <row r="320" ht="15" customHeight="1">
+      <c r="F320" t="n">
+        <v>0.04766545098688169</v>
+      </c>
+      <c r="G320" t="n">
+        <v>0.06950575553595155</v>
+      </c>
+    </row>
+    <row r="321" ht="15" customHeight="1">
+      <c r="F321" t="n">
+        <v>0.04842667712216185</v>
+      </c>
+      <c r="G321" t="n">
+        <v>0.06963537376012774</v>
+      </c>
+    </row>
+    <row r="322" ht="15" customHeight="1">
+      <c r="F322" t="n">
+        <v>0.04918036623149206</v>
+      </c>
+      <c r="G322" t="n">
+        <v>0.06976499198430393</v>
+      </c>
+    </row>
+    <row r="323" ht="15" customHeight="1">
+      <c r="F323" t="n">
+        <v>0.04992636536407624</v>
+      </c>
+      <c r="G323" t="n">
+        <v>0.06989461020848012</v>
+      </c>
+    </row>
+    <row r="324" ht="15" customHeight="1">
+      <c r="F324" t="n">
+        <v>0.05066452156911835</v>
+      </c>
+      <c r="G324" t="n">
+        <v>0.07002422843265629</v>
+      </c>
+    </row>
+    <row r="325" ht="15" customHeight="1">
+      <c r="F325" t="n">
+        <v>0.05139468189582252</v>
+      </c>
+      <c r="G325" t="n">
+        <v>0.07015384665683248</v>
+      </c>
+    </row>
+    <row r="326" ht="15" customHeight="1">
+      <c r="F326" t="n">
+        <v>0.05211669339339269</v>
+      </c>
+      <c r="G326" t="n">
+        <v>0.07028346488100867</v>
+      </c>
+    </row>
+    <row r="327" ht="15" customHeight="1">
+      <c r="F327" t="n">
+        <v>0.0528304031110329</v>
+      </c>
+      <c r="G327" t="n">
+        <v>0.07041308310518486</v>
+      </c>
+    </row>
+    <row r="328" ht="15" customHeight="1">
+      <c r="F328" t="n">
+        <v>0.05353565809794709</v>
+      </c>
+      <c r="G328" t="n">
+        <v>0.07054270132936104</v>
+      </c>
+    </row>
+    <row r="329" ht="15" customHeight="1">
+      <c r="F329" t="n">
+        <v>0.05423230540333938</v>
+      </c>
+      <c r="G329" t="n">
+        <v>0.07067231955353723</v>
+      </c>
+    </row>
+    <row r="330" ht="15" customHeight="1">
+      <c r="F330" t="n">
+        <v>0.05492019207641373</v>
+      </c>
+      <c r="G330" t="n">
+        <v>0.07080193777771342</v>
+      </c>
+    </row>
+    <row r="331" ht="15" customHeight="1">
+      <c r="F331" t="n">
+        <v>0.05559916516637411</v>
+      </c>
+      <c r="G331" t="n">
+        <v>0.07093155600188961</v>
+      </c>
+    </row>
+    <row r="332" ht="15" customHeight="1">
+      <c r="F332" t="n">
+        <v>0.05626907172242465</v>
+      </c>
+      <c r="G332" t="n">
+        <v>0.0710611742260658</v>
+      </c>
+    </row>
+    <row r="333" ht="15" customHeight="1">
+      <c r="F333" t="n">
+        <v>0.05692975879376927</v>
+      </c>
+      <c r="G333" t="n">
+        <v>0.07119079245024199</v>
+      </c>
+    </row>
+    <row r="334" ht="15" customHeight="1">
+      <c r="F334" t="n">
+        <v>0.05758107342961204</v>
+      </c>
+      <c r="G334" t="n">
+        <v>0.07132041067441817</v>
+      </c>
+    </row>
+    <row r="335" ht="15" customHeight="1">
+      <c r="F335" t="n">
+        <v>0.05822286267915687</v>
+      </c>
+      <c r="G335" t="n">
+        <v>0.07145002889859435</v>
+      </c>
+    </row>
+    <row r="336" ht="15" customHeight="1">
+      <c r="F336" t="n">
+        <v>0.05885497359160791</v>
+      </c>
+      <c r="G336" t="n">
+        <v>0.07157964712277054</v>
+      </c>
+    </row>
+    <row r="337" ht="15" customHeight="1">
+      <c r="F337" t="n">
+        <v>0.05947725321616908</v>
+      </c>
+      <c r="G337" t="n">
+        <v>0.07170926534694673</v>
+      </c>
+    </row>
+    <row r="338" ht="15" customHeight="1">
+      <c r="F338" t="n">
+        <v>0.06008954860204439</v>
+      </c>
+      <c r="G338" t="n">
+        <v>0.07183888357112291</v>
+      </c>
+    </row>
+    <row r="339" ht="15" customHeight="1">
+      <c r="F339" t="n">
+        <v>0.06069170679843792</v>
+      </c>
+      <c r="G339" t="n">
+        <v>0.07196850179529909</v>
+      </c>
+    </row>
+    <row r="340" ht="15" customHeight="1">
+      <c r="F340" t="n">
+        <v>0.06128419940363729</v>
+      </c>
+      <c r="G340" t="n">
+        <v>0.07209812001947528</v>
+      </c>
+    </row>
+    <row r="341" ht="15" customHeight="1">
+      <c r="F341" t="n">
+        <v>0.06187062076134814</v>
+      </c>
+      <c r="G341" t="n">
+        <v>0.07222773824365147</v>
+      </c>
+    </row>
+    <row r="342" ht="15" customHeight="1">
+      <c r="F342" t="n">
+        <v>0.06245144246985805</v>
+      </c>
+      <c r="G342" t="n">
+        <v>0.07235735646782766</v>
+      </c>
+    </row>
+    <row r="343" ht="15" customHeight="1">
+      <c r="F343" t="n">
+        <v>0.06302651157837116</v>
+      </c>
+      <c r="G343" t="n">
+        <v>0.07248697469200385</v>
+      </c>
+    </row>
+    <row r="344" ht="15" customHeight="1">
+      <c r="F344" t="n">
+        <v>0.06359567513609145</v>
+      </c>
+      <c r="G344" t="n">
+        <v>0.07261659291618004</v>
+      </c>
+    </row>
+    <row r="345" ht="15" customHeight="1">
+      <c r="F345" t="n">
+        <v>0.06415878019222282</v>
+      </c>
+      <c r="G345" t="n">
+        <v>0.07274621114035622</v>
+      </c>
+    </row>
+    <row r="346" ht="15" customHeight="1">
+      <c r="F346" t="n">
+        <v>0.06471567379596943</v>
+      </c>
+      <c r="G346" t="n">
+        <v>0.07287582936453241</v>
+      </c>
+    </row>
+    <row r="347" ht="15" customHeight="1">
+      <c r="F347" t="n">
+        <v>0.06526620299653524</v>
+      </c>
+      <c r="G347" t="n">
+        <v>0.0730054475887086</v>
+      </c>
+    </row>
+    <row r="348" ht="15" customHeight="1">
+      <c r="F348" t="n">
+        <v>0.06581021484312428</v>
+      </c>
+      <c r="G348" t="n">
+        <v>0.07313506581288479</v>
+      </c>
+    </row>
+    <row r="349" ht="15" customHeight="1">
+      <c r="F349" t="n">
+        <v>0.06634755638494043</v>
+      </c>
+      <c r="G349" t="n">
+        <v>0.07326468403706096</v>
+      </c>
+    </row>
+    <row r="350" ht="15" customHeight="1">
+      <c r="F350" t="n">
+        <v>0.06687807467118791</v>
+      </c>
+      <c r="G350" t="n">
+        <v>0.07339430226123715</v>
+      </c>
+    </row>
+    <row r="351" ht="15" customHeight="1">
+      <c r="F351" t="n">
+        <v>0.06740161675107061</v>
+      </c>
+      <c r="G351" t="n">
+        <v>0.07352392048541334</v>
+      </c>
+    </row>
+    <row r="352" ht="15" customHeight="1">
+      <c r="F352" t="n">
+        <v>0.06791802967379253</v>
+      </c>
+      <c r="G352" t="n">
+        <v>0.07365353870958953</v>
+      </c>
+    </row>
+    <row r="353" ht="15" customHeight="1">
+      <c r="F353" t="n">
+        <v>0.06842716048855778</v>
+      </c>
+      <c r="G353" t="n">
+        <v>0.07378315693376572</v>
+      </c>
+    </row>
+    <row r="354" ht="15" customHeight="1">
+      <c r="F354" t="n">
+        <v>0.06892885624457028</v>
+      </c>
+      <c r="G354" t="n">
+        <v>0.07391277515794191</v>
+      </c>
+    </row>
+    <row r="355" ht="15" customHeight="1">
+      <c r="F355" t="n">
+        <v>0.06942296399103408</v>
+      </c>
+      <c r="G355" t="n">
+        <v>0.0740423933821181</v>
+      </c>
+    </row>
+    <row r="356" ht="15" customHeight="1">
+      <c r="F356" t="n">
+        <v>0.06990933077715318</v>
+      </c>
+      <c r="G356" t="n">
+        <v>0.07417201160629427</v>
+      </c>
+    </row>
+    <row r="357" ht="15" customHeight="1">
+      <c r="F357" t="n">
+        <v>0.07038780365213161</v>
+      </c>
+      <c r="G357" t="n">
+        <v>0.07430162983047046</v>
+      </c>
+    </row>
+    <row r="358" ht="15" customHeight="1">
+      <c r="F358" t="n">
+        <v>0.07085822966517343</v>
+      </c>
+      <c r="G358" t="n">
+        <v>0.07443124805464665</v>
+      </c>
+    </row>
+    <row r="359" ht="15" customHeight="1">
+      <c r="F359" t="n">
+        <v>0.07132045586548254</v>
+      </c>
+      <c r="G359" t="n">
+        <v>0.07456086627882283</v>
+      </c>
+    </row>
+    <row r="360" ht="15" customHeight="1">
+      <c r="F360" t="n">
+        <v>0.071774329302263</v>
+      </c>
+      <c r="G360" t="n">
+        <v>0.07469048450299902</v>
+      </c>
+    </row>
+    <row r="361" ht="15" customHeight="1">
+      <c r="F361" t="n">
+        <v>0.07221969702471891</v>
+      </c>
+      <c r="G361" t="n">
+        <v>0.07482010272717521</v>
+      </c>
+    </row>
+    <row r="362" ht="15" customHeight="1">
+      <c r="F362" t="n">
+        <v>0.07265640608205419</v>
+      </c>
+      <c r="G362" t="n">
+        <v>0.0749497209513514</v>
+      </c>
+    </row>
+    <row r="363" ht="15" customHeight="1">
+      <c r="F363" t="n">
+        <v>0.0730843035234728</v>
+      </c>
+      <c r="G363" t="n">
+        <v>0.07507933917552759</v>
+      </c>
+    </row>
+    <row r="364" ht="15" customHeight="1">
+      <c r="F364" t="n">
+        <v>0.07350323639817889</v>
+      </c>
+      <c r="G364" t="n">
+        <v>0.07520895739970378</v>
+      </c>
+    </row>
+    <row r="365" ht="15" customHeight="1">
+      <c r="F365" t="n">
+        <v>0.06366882426545259</v>
+      </c>
+      <c r="G365" t="n">
+        <v>0.07520895739970378</v>
+      </c>
+    </row>
+    <row r="366" ht="15" customHeight="1">
+      <c r="F366" t="n">
+        <v>0.0736061779638623</v>
+      </c>
+      <c r="G366" t="n">
+        <v>0.07748767595358688</v>
+      </c>
+    </row>
+    <row r="367" ht="15" customHeight="1">
+      <c r="F367" t="n">
+        <v>0.07370180077651305</v>
+      </c>
+      <c r="G367" t="n">
+        <v>0.07976639450746999</v>
+      </c>
+    </row>
+    <row r="368" ht="15" customHeight="1">
+      <c r="F368" t="n">
+        <v>0.07379037471547549</v>
+      </c>
+      <c r="G368" t="n">
+        <v>0.08204511306135309</v>
+      </c>
+    </row>
+    <row r="369" ht="15" customHeight="1">
+      <c r="F369" t="n">
+        <v>0.07387216966009398</v>
+      </c>
+      <c r="G369" t="n">
+        <v>0.0843238316152362</v>
+      </c>
+    </row>
+    <row r="370" ht="15" customHeight="1">
+      <c r="F370" t="n">
+        <v>0.07394745548971292</v>
+      </c>
+      <c r="G370" t="n">
+        <v>0.08660255016911932</v>
+      </c>
+    </row>
+    <row r="371" ht="15" customHeight="1">
+      <c r="F371" t="n">
+        <v>0.07401650208367667</v>
+      </c>
+      <c r="G371" t="n">
+        <v>0.08888126872300242</v>
+      </c>
+    </row>
+    <row r="372" ht="15" customHeight="1">
+      <c r="F372" t="n">
+        <v>0.07407957932132965</v>
+      </c>
+      <c r="G372" t="n">
+        <v>0.09115998727688553</v>
+      </c>
+    </row>
+    <row r="373" ht="15" customHeight="1">
+      <c r="F373" t="n">
+        <v>0.07413695708201611</v>
+      </c>
+      <c r="G373" t="n">
+        <v>0.09343870583076863</v>
+      </c>
+    </row>
+    <row r="374" ht="15" customHeight="1">
+      <c r="F374" t="n">
+        <v>0.07418890524508052</v>
+      </c>
+      <c r="G374" t="n">
+        <v>0.09571742438465174</v>
+      </c>
+    </row>
+    <row r="375" ht="15" customHeight="1">
+      <c r="F375" t="n">
+        <v>0.0742356936898672</v>
+      </c>
+      <c r="G375" t="n">
+        <v>0.09799614293853484</v>
+      </c>
+    </row>
+    <row r="376" ht="15" customHeight="1">
+      <c r="F376" t="n">
+        <v>0.07427759229572055</v>
+      </c>
+      <c r="G376" t="n">
+        <v>0.1002748614924179</v>
+      </c>
+    </row>
+    <row r="377" ht="15" customHeight="1">
+      <c r="F377" t="n">
+        <v>0.07431487094198495</v>
+      </c>
+      <c r="G377" t="n">
+        <v>0.1025535800463011</v>
+      </c>
+    </row>
+    <row r="378" ht="15" customHeight="1">
+      <c r="F378" t="n">
+        <v>0.0743477995080047</v>
+      </c>
+      <c r="G378" t="n">
+        <v>0.1048322986001842</v>
+      </c>
+    </row>
+    <row r="379" ht="15" customHeight="1">
+      <c r="F379" t="n">
+        <v>0.07437664787312422</v>
+      </c>
+      <c r="G379" t="n">
+        <v>0.1071110171540673</v>
+      </c>
+    </row>
+    <row r="380" ht="15" customHeight="1">
+      <c r="F380" t="n">
+        <v>0.0744016859166879</v>
+      </c>
+      <c r="G380" t="n">
+        <v>0.1093897357079504</v>
+      </c>
+    </row>
+    <row r="381" ht="15" customHeight="1">
+      <c r="F381" t="n">
+        <v>0.07442318351804013</v>
+      </c>
+      <c r="G381" t="n">
+        <v>0.1116684542618335</v>
+      </c>
+    </row>
+    <row r="382" ht="15" customHeight="1">
+      <c r="F382" t="n">
+        <v>0.07444141055652519</v>
+      </c>
+      <c r="G382" t="n">
+        <v>0.1139471728157166</v>
+      </c>
+    </row>
+    <row r="383" ht="15" customHeight="1">
+      <c r="F383" t="n">
+        <v>0.0744566369114875</v>
+      </c>
+      <c r="G383" t="n">
+        <v>0.1162258913695997</v>
+      </c>
+    </row>
+    <row r="384" ht="15" customHeight="1">
+      <c r="F384" t="n">
+        <v>0.07446913246227148</v>
+      </c>
+      <c r="G384" t="n">
+        <v>0.1185046099234828</v>
+      </c>
+    </row>
+    <row r="385" ht="15" customHeight="1">
+      <c r="F385" t="n">
+        <v>0.0744791670882214</v>
+      </c>
+      <c r="G385" t="n">
+        <v>0.1207833284773659</v>
+      </c>
+    </row>
+    <row r="386" ht="15" customHeight="1">
+      <c r="F386" t="n">
+        <v>0.07448701066868173</v>
+      </c>
+      <c r="G386" t="n">
+        <v>0.123062047031249</v>
+      </c>
+    </row>
+    <row r="387" ht="15" customHeight="1">
+      <c r="F387" t="n">
+        <v>0.07449293308299675</v>
+      </c>
+      <c r="G387" t="n">
+        <v>0.1253407655851321</v>
+      </c>
+    </row>
+    <row r="388" ht="15" customHeight="1">
+      <c r="F388" t="n">
+        <v>0.07449720421051088</v>
+      </c>
+      <c r="G388" t="n">
+        <v>0.1276194841390152</v>
+      </c>
+    </row>
+    <row r="389" ht="15" customHeight="1">
+      <c r="F389" t="n">
+        <v>0.07450009393056849</v>
+      </c>
+      <c r="G389" t="n">
+        <v>0.1298982026928983</v>
+      </c>
+    </row>
+    <row r="390" ht="15" customHeight="1">
+      <c r="F390" t="n">
+        <v>0.07450187212251393</v>
+      </c>
+      <c r="G390" t="n">
+        <v>0.1321769212467815</v>
+      </c>
+    </row>
+    <row r="391" ht="15" customHeight="1">
+      <c r="F391" t="n">
+        <v>0.07450280866569158</v>
+      </c>
+      <c r="G391" t="n">
+        <v>0.1344556398006646</v>
+      </c>
+    </row>
+    <row r="392" ht="15" customHeight="1">
+      <c r="F392" t="n">
+        <v>0.07450317343944581</v>
+      </c>
+      <c r="G392" t="n">
+        <v>0.1367343583545477</v>
+      </c>
+    </row>
+    <row r="393" ht="15" customHeight="1">
+      <c r="F393" t="n">
+        <v>0.07450323632312099</v>
+      </c>
+      <c r="G393" t="n">
+        <v>0.1390130769084308</v>
+      </c>
+    </row>
+    <row r="394" ht="15" customHeight="1">
+      <c r="F394" t="n">
+        <v>0.07444770518698469</v>
+      </c>
+      <c r="G394" t="n">
+        <v>0.1412917954623139</v>
+      </c>
+    </row>
+    <row r="395" ht="15" customHeight="1">
+      <c r="F395" t="n">
+        <v>0.07425648823730298</v>
+      </c>
+      <c r="G395" t="n">
+        <v>0.143570514016197</v>
+      </c>
+    </row>
+    <row r="396" ht="15" customHeight="1">
+      <c r="F396" t="n">
+        <v>0.07393919064626521</v>
+      </c>
+      <c r="G396" t="n">
+        <v>0.1458492325700801</v>
+      </c>
+    </row>
+    <row r="397" ht="15" customHeight="1">
+      <c r="F397" t="n">
+        <v>0.07350644811621825</v>
+      </c>
+      <c r="G397" t="n">
+        <v>0.1481279511239632</v>
+      </c>
+    </row>
+    <row r="398" ht="15" customHeight="1">
+      <c r="F398" t="n">
+        <v>0.07296889634950894</v>
+      </c>
+      <c r="G398" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="399" ht="15" customHeight="1">
+      <c r="F399" t="n">
+        <v>0.07233717104848413</v>
+      </c>
+      <c r="G399" t="n">
+        <v>0.1526853882317294</v>
+      </c>
+    </row>
+    <row r="400" ht="15" customHeight="1">
+      <c r="F400" t="n">
+        <v>0.07162190791549068</v>
+      </c>
+      <c r="G400" t="n">
+        <v>0.1549641067856125</v>
+      </c>
+    </row>
+    <row r="401" ht="15" customHeight="1">
+      <c r="F401" t="n">
+        <v>0.07083374265287541</v>
+      </c>
+      <c r="G401" t="n">
+        <v>0.1572428253394956</v>
+      </c>
+    </row>
+    <row r="402" ht="15" customHeight="1">
+      <c r="F402" t="n">
+        <v>0.0699833109629852</v>
+      </c>
+      <c r="G402" t="n">
+        <v>0.1595215438933787</v>
+      </c>
+    </row>
+    <row r="403" ht="15" customHeight="1">
+      <c r="F403" t="n">
+        <v>0.0690812485481669</v>
+      </c>
+      <c r="G403" t="n">
+        <v>0.1618002624472618</v>
+      </c>
+    </row>
+    <row r="404" ht="15" customHeight="1">
+      <c r="F404" t="n">
+        <v>0.06813819111076728</v>
+      </c>
+      <c r="G404" t="n">
+        <v>0.164078981001145</v>
+      </c>
+    </row>
+    <row r="405" ht="15" customHeight="1">
+      <c r="F405" t="n">
+        <v>0.06716477435313332</v>
+      </c>
+      <c r="G405" t="n">
+        <v>0.166357699555028</v>
+      </c>
+    </row>
+    <row r="406" ht="15" customHeight="1">
+      <c r="F406" t="n">
+        <v>0.06617163397761176</v>
+      </c>
+      <c r="G406" t="n">
+        <v>0.1686364181089112</v>
+      </c>
+    </row>
+    <row r="407" ht="15" customHeight="1">
+      <c r="F407" t="n">
+        <v>0.06516940568654951</v>
+      </c>
+      <c r="G407" t="n">
+        <v>0.1709151366627943</v>
+      </c>
+    </row>
+    <row r="408" ht="15" customHeight="1">
+      <c r="F408" t="n">
+        <v>0.06416872518229338</v>
+      </c>
+      <c r="G408" t="n">
+        <v>0.1731938552166774</v>
+      </c>
+    </row>
+    <row r="409" ht="15" customHeight="1">
+      <c r="F409" t="n">
+        <v>0.06318022816719024</v>
+      </c>
+      <c r="G409" t="n">
+        <v>0.1754725737705605</v>
+      </c>
+    </row>
+    <row r="410" ht="15" customHeight="1">
+      <c r="F410" t="n">
+        <v>0.06221455034358694</v>
+      </c>
+      <c r="G410" t="n">
+        <v>0.1777512923244436</v>
+      </c>
+    </row>
+    <row r="411" ht="15" customHeight="1">
+      <c r="F411" t="n">
+        <v>0.06128232741383031</v>
+      </c>
+      <c r="G411" t="n">
+        <v>0.1800300108783267</v>
+      </c>
+    </row>
+    <row r="412" ht="15" customHeight="1">
+      <c r="F412" t="n">
+        <v>0.06039419508026724</v>
+      </c>
+      <c r="G412" t="n">
+        <v>0.1823087294322098</v>
+      </c>
+    </row>
+    <row r="413" ht="15" customHeight="1">
+      <c r="F413" t="n">
+        <v>0.05956078904524449</v>
+      </c>
+      <c r="G413" t="n">
+        <v>0.1845874479860929</v>
+      </c>
+    </row>
+    <row r="414" ht="15" customHeight="1">
+      <c r="F414" t="n">
+        <v>0.05879274501110901</v>
+      </c>
+      <c r="G414" t="n">
+        <v>0.186866166539976</v>
+      </c>
+    </row>
+    <row r="415" ht="15" customHeight="1">
+      <c r="F415" t="n">
+        <v>0.05810069868020759</v>
+      </c>
+      <c r="G415" t="n">
+        <v>0.1891448850938592</v>
+      </c>
+    </row>
+    <row r="416" ht="15" customHeight="1">
+      <c r="F416" t="n">
+        <v>0.05749528575488709</v>
+      </c>
+      <c r="G416" t="n">
+        <v>0.1914236036477422</v>
+      </c>
+    </row>
+    <row r="417" ht="15" customHeight="1">
+      <c r="F417" t="n">
+        <v>0.05696307834058636</v>
+      </c>
+      <c r="G417" t="n">
+        <v>0.1937023222016254</v>
+      </c>
+    </row>
+    <row r="418" ht="15" customHeight="1">
+      <c r="F418" t="n">
+        <v>0.05644480836112337</v>
+      </c>
+      <c r="G418" t="n">
+        <v>0.1959810407555085</v>
+      </c>
+    </row>
+    <row r="419" ht="15" customHeight="1">
+      <c r="F419" t="n">
+        <v>0.0559369350097393</v>
+      </c>
+      <c r="G419" t="n">
+        <v>0.1982597593093915</v>
+      </c>
+    </row>
+    <row r="420" ht="15" customHeight="1">
+      <c r="F420" t="n">
+        <v>0.05543932872151422</v>
+      </c>
+      <c r="G420" t="n">
+        <v>0.2005384778632747</v>
+      </c>
+    </row>
+    <row r="421" ht="15" customHeight="1">
+      <c r="F421" t="n">
+        <v>0.05495185993152819</v>
+      </c>
+      <c r="G421" t="n">
+        <v>0.2028171964171578</v>
+      </c>
+    </row>
+    <row r="422" ht="15" customHeight="1">
+      <c r="F422" t="n">
+        <v>0.05447439907486126</v>
+      </c>
+      <c r="G422" t="n">
+        <v>0.2050959149710409</v>
+      </c>
+    </row>
+    <row r="423" ht="15" customHeight="1">
+      <c r="F423" t="n">
+        <v>0.05400681658659352</v>
+      </c>
+      <c r="G423" t="n">
+        <v>0.207374633524924</v>
+      </c>
+    </row>
+    <row r="424" ht="15" customHeight="1">
+      <c r="F424" t="n">
+        <v>0.05354898290180497</v>
+      </c>
+      <c r="G424" t="n">
+        <v>0.2096533520788071</v>
+      </c>
+    </row>
+    <row r="425" ht="15" customHeight="1">
+      <c r="F425" t="n">
+        <v>0.05310076845557574</v>
+      </c>
+      <c r="G425" t="n">
+        <v>0.2119320706326902</v>
+      </c>
+    </row>
+    <row r="426" ht="15" customHeight="1">
+      <c r="F426" t="n">
+        <v>0.05266204368298583</v>
+      </c>
+      <c r="G426" t="n">
+        <v>0.2142107891865733</v>
+      </c>
+    </row>
+    <row r="427" ht="15" customHeight="1">
+      <c r="F427" t="n">
+        <v>0.05223267901911532</v>
+      </c>
+      <c r="G427" t="n">
+        <v>0.2164895077404564</v>
+      </c>
+    </row>
+    <row r="428" ht="15" customHeight="1">
+      <c r="F428" t="n">
+        <v>0.05181254489904426</v>
+      </c>
+      <c r="G428" t="n">
+        <v>0.2187682262943395</v>
+      </c>
+    </row>
+    <row r="429" ht="15" customHeight="1">
+      <c r="F429" t="n">
+        <v>0.05140151175785272</v>
+      </c>
+      <c r="G429" t="n">
+        <v>0.2210469448482227</v>
+      </c>
+    </row>
+    <row r="430" ht="15" customHeight="1">
+      <c r="F430" t="n">
+        <v>0.05099945003062074</v>
+      </c>
+      <c r="G430" t="n">
+        <v>0.2233256634021057</v>
+      </c>
+    </row>
+    <row r="431" ht="15" customHeight="1">
+      <c r="F431" t="n">
+        <v>0.05060623015242839</v>
+      </c>
+      <c r="G431" t="n">
+        <v>0.2256043819559889</v>
+      </c>
+    </row>
+    <row r="432" ht="15" customHeight="1">
+      <c r="F432" t="n">
+        <v>0.05022172255835575</v>
+      </c>
+      <c r="G432" t="n">
+        <v>0.227883100509872</v>
+      </c>
+    </row>
+    <row r="433" ht="15" customHeight="1">
+      <c r="F433" t="n">
+        <v>0.04984579768348282</v>
+      </c>
+      <c r="G433" t="n">
+        <v>0.2301618190637551</v>
+      </c>
+    </row>
+    <row r="434" ht="15" customHeight="1">
+      <c r="F434" t="n">
+        <v>0.04947832596288974</v>
+      </c>
+      <c r="G434" t="n">
+        <v>0.2324405376176382</v>
+      </c>
+    </row>
+    <row r="435" ht="15" customHeight="1">
+      <c r="F435" t="n">
+        <v>0.04911917783165649</v>
+      </c>
+      <c r="G435" t="n">
+        <v>0.2347192561715213</v>
+      </c>
+    </row>
+    <row r="436" ht="15" customHeight="1">
+      <c r="F436" t="n">
+        <v>0.04876822372486317</v>
+      </c>
+      <c r="G436" t="n">
+        <v>0.2369979747254044</v>
+      </c>
+    </row>
+    <row r="437" ht="15" customHeight="1">
+      <c r="F437" t="n">
+        <v>0.04842533407758982</v>
+      </c>
+      <c r="G437" t="n">
+        <v>0.2392766932792875</v>
+      </c>
+    </row>
+    <row r="438" ht="15" customHeight="1">
+      <c r="F438" t="n">
+        <v>0.0480903793249165</v>
+      </c>
+      <c r="G438" t="n">
+        <v>0.2415554118331706</v>
+      </c>
+    </row>
+    <row r="439" ht="15" customHeight="1">
+      <c r="F439" t="n">
+        <v>0.04776322990192328</v>
+      </c>
+      <c r="G439" t="n">
+        <v>0.2438341303870537</v>
+      </c>
+    </row>
+    <row r="440" ht="15" customHeight="1">
+      <c r="F440" t="n">
+        <v>0.0474437562436902</v>
+      </c>
+      <c r="G440" t="n">
+        <v>0.2461128489409369</v>
+      </c>
+    </row>
+    <row r="441" ht="15" customHeight="1">
+      <c r="F441" t="n">
+        <v>0.04713182878529733</v>
+      </c>
+      <c r="G441" t="n">
+        <v>0.2483915674948199</v>
+      </c>
+    </row>
+    <row r="442" ht="15" customHeight="1">
+      <c r="F442" t="n">
+        <v>0.04682663136792291</v>
+      </c>
+      <c r="G442" t="n">
+        <v>0.250670286048703</v>
+      </c>
+    </row>
+    <row r="443" ht="15" customHeight="1">
+      <c r="F443" t="n">
+        <v>0.04652559363186044</v>
+      </c>
+      <c r="G443" t="n">
+        <v>0.2529490046025861</v>
+      </c>
+    </row>
+    <row r="444" ht="15" customHeight="1">
+      <c r="F444" t="n">
+        <v>0.04622867198440551</v>
+      </c>
+      <c r="G444" t="n">
+        <v>0.2552277231564692</v>
+      </c>
+    </row>
+    <row r="445" ht="15" customHeight="1">
+      <c r="F445" t="n">
+        <v>0.04593608047037247</v>
+      </c>
+      <c r="G445" t="n">
+        <v>0.2575064417103524</v>
+      </c>
+    </row>
+    <row r="446" ht="15" customHeight="1">
+      <c r="F446" t="n">
+        <v>0.04564803313457559</v>
+      </c>
+      <c r="G446" t="n">
+        <v>0.2597851602642354</v>
+      </c>
+    </row>
+    <row r="447" ht="15" customHeight="1">
+      <c r="F447" t="n">
+        <v>0.0453647440218293</v>
+      </c>
+      <c r="G447" t="n">
+        <v>0.2620638788181186</v>
+      </c>
+    </row>
+    <row r="448" ht="15" customHeight="1">
+      <c r="F448" t="n">
+        <v>0.04508642717694786</v>
+      </c>
+      <c r="G448" t="n">
+        <v>0.2643425973720017</v>
+      </c>
+    </row>
+    <row r="449" ht="15" customHeight="1">
+      <c r="F449" t="n">
+        <v>0.04481329664474568</v>
+      </c>
+      <c r="G449" t="n">
+        <v>0.2666213159258848</v>
+      </c>
+    </row>
+    <row r="450" ht="15" customHeight="1">
+      <c r="F450" t="n">
+        <v>0.04454556647003705</v>
+      </c>
+      <c r="G450" t="n">
+        <v>0.2689000344797679</v>
+      </c>
+    </row>
+    <row r="451" ht="15" customHeight="1">
+      <c r="F451" t="n">
+        <v>0.04428345069763633</v>
+      </c>
+      <c r="G451" t="n">
+        <v>0.271178753033651</v>
+      </c>
+    </row>
+    <row r="452" ht="15" customHeight="1">
+      <c r="F452" t="n">
+        <v>0.04402716337235785</v>
+      </c>
+      <c r="G452" t="n">
+        <v>0.2734574715875341</v>
+      </c>
+    </row>
+    <row r="453" ht="15" customHeight="1">
+      <c r="F453" t="n">
+        <v>0.04377691853901595</v>
+      </c>
+      <c r="G453" t="n">
+        <v>0.2757361901414172</v>
+      </c>
+    </row>
+    <row r="454" ht="15" customHeight="1">
+      <c r="F454" t="n">
+        <v>0.04353293024242499</v>
+      </c>
+      <c r="G454" t="n">
+        <v>0.2780149086953003</v>
+      </c>
+    </row>
+    <row r="455" ht="15" customHeight="1">
+      <c r="F455" t="n">
+        <v>0.0432954125273993</v>
+      </c>
+      <c r="G455" t="n">
+        <v>0.2802936272491834</v>
+      </c>
+    </row>
+    <row r="456" ht="15" customHeight="1">
+      <c r="F456" t="n">
+        <v>0.04306457943875321</v>
+      </c>
+      <c r="G456" t="n">
+        <v>0.2825723458030666</v>
+      </c>
+    </row>
+    <row r="457" ht="15" customHeight="1">
+      <c r="F457" t="n">
+        <v>0.04284064502130104</v>
+      </c>
+      <c r="G457" t="n">
+        <v>0.2848510643569496</v>
+      </c>
+    </row>
+    <row r="458" ht="15" customHeight="1">
+      <c r="F458" t="n">
+        <v>0.04262382331985719</v>
+      </c>
+      <c r="G458" t="n">
+        <v>0.2871297829108328</v>
+      </c>
+    </row>
+    <row r="459" ht="15" customHeight="1">
+      <c r="F459" t="n">
+        <v>0.04241432837923594</v>
+      </c>
+      <c r="G459" t="n">
+        <v>0.2894085014647159</v>
+      </c>
+    </row>
+    <row r="460" ht="15" customHeight="1">
+      <c r="F460" t="n">
+        <v>0.04221237424425167</v>
+      </c>
+      <c r="G460" t="n">
+        <v>0.291687220018599</v>
+      </c>
+    </row>
+    <row r="461" ht="15" customHeight="1">
+      <c r="F461" t="n">
+        <v>0.0420181749597187</v>
+      </c>
+      <c r="G461" t="n">
+        <v>0.2939659385724821</v>
+      </c>
+    </row>
+    <row r="462" ht="15" customHeight="1">
+      <c r="F462" t="n">
+        <v>0.04183194457045139</v>
+      </c>
+      <c r="G462" t="n">
+        <v>0.2962446571263652</v>
+      </c>
+    </row>
+    <row r="463" ht="15" customHeight="1">
+      <c r="F463" t="n">
+        <v>0.04165389712126404</v>
+      </c>
+      <c r="G463" t="n">
+        <v>0.2985233756802483</v>
+      </c>
+    </row>
+    <row r="464" ht="15" customHeight="1">
+      <c r="F464" t="n">
+        <v>0.04148424665697104</v>
+      </c>
+      <c r="G464" t="n">
+        <v>0.3008020942341314</v>
+      </c>
+    </row>
     <row r="465" ht="15" customHeight="1"/>
     <row r="466" ht="15" customHeight="1"/>
     <row r="467" ht="15" customHeight="1"/>

--- a/prot/ООО Регионстрой/Трехосные_КД_ПП/1246.xlsx
+++ b/prot/ООО Регионстрой/Трехосные_КД_ПП/1246.xlsx
@@ -4884,7 +4884,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BF464"/>
+  <dimension ref="A1:BF264"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3" zoomScale="70" zoomScaleNormal="40" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="J22" sqref="J22"/>
@@ -8811,7 +8811,7 @@
       <c r="H51" s="144" t="n"/>
       <c r="I51" s="144" t="n"/>
       <c r="J51" s="144" t="n">
-        <v>0.1173672242654526</v>
+        <v>0.08642453273936264</v>
       </c>
       <c r="K51" s="144" t="n"/>
       <c r="L51" s="144" t="n"/>
@@ -9258,10 +9258,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.04966882426545259</v>
+        <v>0.01872613273936262</v>
       </c>
       <c r="B65" t="n">
-        <v>0.02524645739970377</v>
+        <v>0.01485086360302229</v>
       </c>
       <c r="C65" s="151">
         <f>MATCH(A65,F65:F1000,1)-A67</f>
@@ -9318,29 +9318,29 @@
         </is>
       </c>
       <c r="F66" s="170" t="n">
-        <v>0.0009334437380423624</v>
+        <v>0.003359949101415974</v>
       </c>
       <c r="G66" s="171" t="n">
-        <v>0.0007596864383808461</v>
+        <v>0.001656849608644587</v>
       </c>
       <c r="H66" s="171" t="n"/>
       <c r="J66" s="170" t="n">
-        <v>0.001605663204858526</v>
+        <v>0.003584679856695389</v>
       </c>
       <c r="K66" s="171" t="n">
-        <v>0.0007798413409814343</v>
+        <v>0.001667206608378143</v>
       </c>
       <c r="L66" s="172" t="n">
-        <v>0.003857255250899416</v>
+        <v>0.007786085691569439</v>
       </c>
       <c r="M66" s="170" t="n">
-        <v>0.0007751587445952655</v>
+        <v>0.001673603287788636</v>
       </c>
       <c r="N66" s="171" t="n">
-        <v>0.007619985593020961</v>
+        <v>0.01864968334271561</v>
       </c>
       <c r="O66" s="172" t="n">
-        <v>0.0007717230251157284</v>
+        <v>0.002402034524442502</v>
       </c>
       <c r="Q66" s="151" t="inlineStr">
         <is>
@@ -9358,29 +9358,29 @@
         <v>2</v>
       </c>
       <c r="F67" s="170" t="n">
-        <v>0.001913086435422484</v>
+        <v>0.003419265899043511</v>
       </c>
       <c r="G67" s="171" t="n">
-        <v>0.001519372876761692</v>
+        <v>0.003313699217289174</v>
       </c>
       <c r="H67" s="171" t="n"/>
       <c r="J67" s="170" t="n">
-        <v>0.003036585992942709</v>
+        <v>0.007032437440258762</v>
       </c>
       <c r="K67" s="171" t="n">
-        <v>0.001559682681962869</v>
+        <v>0.003903979506765872</v>
       </c>
       <c r="L67" s="172" t="n">
-        <v>0.00791390890148852</v>
+        <v>0.0114657435498724</v>
       </c>
       <c r="M67" s="170" t="n">
-        <v>0.001550317489190531</v>
+        <v>0.002762933375821103</v>
       </c>
       <c r="N67" s="171" t="n">
-        <v>0.01511539027756303</v>
+        <v>0.02142523528818918</v>
       </c>
       <c r="O67" s="172" t="n">
-        <v>0.001543446050231457</v>
+        <v>0.00332037908656865</v>
       </c>
       <c r="Q67" s="151" t="inlineStr">
         <is>
@@ -9400,29 +9400,29 @@
         </is>
       </c>
       <c r="F68" s="170" t="n">
-        <v>0.002937496012884448</v>
+        <v>0.008917206066363148</v>
       </c>
       <c r="G68" s="171" t="n">
-        <v>0.002279059315142538</v>
+        <v>0.004950287867674098</v>
       </c>
       <c r="H68" s="171" t="n"/>
       <c r="J68" s="170" t="n">
-        <v>0.004543865068565855</v>
+        <v>0.007642904651132834</v>
       </c>
       <c r="K68" s="171" t="n">
-        <v>0.002339524022944303</v>
+        <v>0.005001619825134429</v>
       </c>
       <c r="L68" s="172" t="n">
-        <v>0.01198596719521314</v>
+        <v>0.01472592109670087</v>
       </c>
       <c r="M68" s="170" t="n">
-        <v>0.002325476233785797</v>
+        <v>0.005020809863365908</v>
       </c>
       <c r="N68" s="171" t="n">
-        <v>0.02130974743079767</v>
+        <v>0.02487929632731767</v>
       </c>
       <c r="O68" s="172" t="n">
-        <v>0.002315169075347185</v>
+        <v>0.004980568629852976</v>
       </c>
       <c r="Q68" s="151" t="inlineStr">
         <is>
@@ -9447,29 +9447,29 @@
         </is>
       </c>
       <c r="F69" s="170" t="n">
-        <v>0.004005240391172296</v>
+        <v>0.007997236934061749</v>
       </c>
       <c r="G69" s="171" t="n">
-        <v>0.003038745753523385</v>
+        <v>0.006627398434578348</v>
       </c>
       <c r="H69" s="171" t="n"/>
       <c r="J69" s="170" t="n">
-        <v>0.006301599999999977</v>
+        <v>0.008756140806194759</v>
       </c>
       <c r="K69" s="171" t="n">
-        <v>0.003498263222222209</v>
+        <v>0.006668826433512573</v>
       </c>
       <c r="L69" s="172" t="n">
-        <v>0.0150894363755191</v>
+        <v>0.01674239606138697</v>
       </c>
       <c r="M69" s="170" t="n">
-        <v>0.003100634978381062</v>
+        <v>0.006694413151154545</v>
       </c>
       <c r="N69" s="171" t="n">
-        <v>0.02692659042989626</v>
+        <v>0.02832269463066828</v>
       </c>
       <c r="O69" s="172" t="n">
-        <v>0.003086892100462914</v>
+        <v>0.006640758173137301</v>
       </c>
       <c r="Q69" s="151" t="inlineStr">
         <is>
@@ -9484,62 +9484,62 @@
     </row>
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="n">
-        <v>0.01980115147069639</v>
+        <v>0.004950287867674098</v>
       </c>
       <c r="B70" t="n">
-        <v>0.03566882426545259</v>
+        <v>0.008917206066363148</v>
       </c>
       <c r="F70" s="170" t="n">
-        <v>0.00511488749103009</v>
+        <v>0.0108193122495764</v>
       </c>
       <c r="G70" s="171" t="n">
-        <v>0.003798432191904231</v>
+        <v>0.008284248043222933</v>
       </c>
       <c r="H70" s="171" t="n"/>
       <c r="J70" s="170" t="n">
-        <v>0.00681821704415099</v>
+        <v>0.009460586223296971</v>
       </c>
       <c r="K70" s="171" t="n">
-        <v>0.003899206704907171</v>
+        <v>0.008336033041890716</v>
       </c>
       <c r="L70" s="172" t="n">
-        <v>0.01794032268585224</v>
+        <v>0.01886680071623278</v>
       </c>
       <c r="M70" s="170" t="n">
-        <v>0.003875793722976327</v>
+        <v>0.008368016438943181</v>
       </c>
       <c r="N70" s="171" t="n">
-        <v>0.03158945265203017</v>
+        <v>0.030792073801722</v>
       </c>
       <c r="O70" s="172" t="n">
-        <v>0.003858615125578642</v>
+        <v>0.008300947716421626</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" s="170" t="n">
-        <v>0.006265005233201906</v>
+        <v>0.01245925102038285</v>
       </c>
       <c r="G71" s="171" t="n">
-        <v>0.004558118630285077</v>
+        <v>0.009941097651867521</v>
       </c>
       <c r="H71" s="171" t="n"/>
       <c r="J71" s="170" t="n">
-        <v>0.007681048141872093</v>
+        <v>0.01011701821383092</v>
       </c>
       <c r="K71" s="171" t="n">
-        <v>0.004679048045888606</v>
+        <v>0.01000323965026886</v>
       </c>
       <c r="L71" s="172" t="n">
-        <v>0.01930159999999997</v>
+        <v>0.02000288889607865</v>
       </c>
       <c r="M71" s="170" t="n">
-        <v>0.004369273733609826</v>
+        <v>0.01004161972673182</v>
       </c>
       <c r="N71" s="171" t="n">
-        <v>0.03330159999999999</v>
+        <v>0.03302407744395919</v>
       </c>
       <c r="O71" s="172" t="n">
-        <v>0.004289166279620418</v>
+        <v>0.009961137259705951</v>
       </c>
     </row>
     <row r="72">
@@ -9554,29 +9554,29 @@
         </is>
       </c>
       <c r="F72" s="170" t="n">
-        <v>0.0074541615384318</v>
+        <v>0.01396612870248413</v>
       </c>
       <c r="G72" s="171" t="n">
-        <v>0.005317805068665923</v>
+        <v>0.01159794726051211</v>
       </c>
       <c r="H72" s="171" t="n"/>
       <c r="J72" s="170" t="n">
-        <v>0.008686478558334154</v>
+        <v>0.01088621408918808</v>
       </c>
       <c r="K72" s="171" t="n">
-        <v>0.00545888938687004</v>
+        <v>0.011670446258647</v>
       </c>
       <c r="L72" s="172" t="n">
-        <v>0.02118801319282201</v>
+        <v>0.02155441443576508</v>
       </c>
       <c r="M72" s="170" t="n">
-        <v>0.005426111212166858</v>
+        <v>0.01171522301452045</v>
       </c>
       <c r="N72" s="171" t="n">
-        <v>0.03623951045162338</v>
+        <v>0.03545534916086063</v>
       </c>
       <c r="O72" s="172" t="n">
-        <v>0.005402061175810099</v>
+        <v>0.01162132680299028</v>
       </c>
     </row>
     <row r="73">
@@ -9600,29 +9600,29 @@
         <v/>
       </c>
       <c r="F73" s="170" t="n">
-        <v>0.008680924327463799</v>
+        <v>0.01538902075188327</v>
       </c>
       <c r="G73" s="171" t="n">
-        <v>0.006077491507046769</v>
+        <v>0.0132547968691567</v>
       </c>
       <c r="H73" s="171" t="n"/>
       <c r="J73" s="170" t="n">
-        <v>0.009532208603948794</v>
+        <v>0.01132895116075995</v>
       </c>
       <c r="K73" s="171" t="n">
-        <v>0.006238730727851474</v>
+        <v>0.01333765286702515</v>
       </c>
       <c r="L73" s="172" t="n">
-        <v>0.02306585724593904</v>
+        <v>0.02242513117013228</v>
       </c>
       <c r="M73" s="170" t="n">
-        <v>0.006201269956762124</v>
+        <v>0.01338882630230909</v>
       </c>
       <c r="N73" s="171" t="n">
-        <v>0.0381429501787216</v>
+        <v>0.03742253255590683</v>
       </c>
       <c r="O73" s="172" t="n">
-        <v>0.006173784200925827</v>
+        <v>0.0132815163462746</v>
       </c>
     </row>
     <row r="74">
@@ -9637,29 +9637,29 @@
         </is>
       </c>
       <c r="F74" s="170" t="n">
-        <v>0.009943861521042013</v>
+        <v>0.01872613273936262</v>
       </c>
       <c r="G74" s="171" t="n">
-        <v>0.006837177945427615</v>
+        <v>0.01485086360302229</v>
       </c>
       <c r="H74" s="171" t="n"/>
       <c r="J74" s="170" t="n">
-        <v>0.01021593858912763</v>
+        <v>0.01180600673993794</v>
       </c>
       <c r="K74" s="171" t="n">
-        <v>0.007018572068832908</v>
+        <v>0.01500485947540329</v>
       </c>
       <c r="L74" s="172" t="n">
-        <v>0.02434804613526137</v>
+        <v>0.02381879293402078</v>
       </c>
       <c r="M74" s="170" t="n">
-        <v>0.006976428701357389</v>
+        <v>0.01506242959009772</v>
       </c>
       <c r="N74" s="171" t="n">
-        <v>0.03917126762586309</v>
+        <v>0.04054278987546872</v>
       </c>
       <c r="O74" s="172" t="n">
-        <v>0.006945507226041555</v>
+        <v>0.01551551059633026</v>
       </c>
     </row>
     <row r="75">
@@ -9681,29 +9681,29 @@
         </is>
       </c>
       <c r="F75" s="170" t="n">
-        <v>0.01124154103991046</v>
+        <v>0.01918058896204947</v>
       </c>
       <c r="G75" s="171" t="n">
-        <v>0.007596864383808462</v>
+        <v>0.01656849608644587</v>
       </c>
       <c r="H75" s="171" t="n"/>
       <c r="J75" s="170" t="n">
-        <v>0.01093536882428228</v>
+        <v>0.01278624989137957</v>
       </c>
       <c r="K75" s="171" t="n">
-        <v>0.007798413409814343</v>
+        <v>0.01691190655</v>
       </c>
       <c r="L75" s="172" t="n">
-        <v>0.02536576496918652</v>
+        <v>0.02503915356227088</v>
       </c>
       <c r="M75" s="170" t="n">
-        <v>0.007751587445952655</v>
+        <v>0.01673603287788636</v>
       </c>
       <c r="N75" s="171" t="n">
-        <v>0.04054278987546872</v>
+        <v>0.04151343656483303</v>
       </c>
       <c r="O75" s="172" t="n">
-        <v>0.00745973454795808</v>
+        <v>0.01660189543284325</v>
       </c>
     </row>
     <row r="76">
@@ -9723,29 +9723,29 @@
         <v>0</v>
       </c>
       <c r="F76" s="170" t="n">
-        <v>0.01257253080481321</v>
+        <v>0.01860405280755735</v>
       </c>
       <c r="G76" s="171" t="n">
-        <v>0.008356550822189309</v>
+        <v>0.01822534569509046</v>
       </c>
       <c r="H76" s="171" t="n"/>
       <c r="J76" s="170" t="n">
-        <v>0.01158819961982438</v>
+        <v>0.01326914287334724</v>
       </c>
       <c r="K76" s="171" t="n">
-        <v>0.008578254750795778</v>
+        <v>0.01833927269215958</v>
       </c>
       <c r="L76" s="172" t="n">
         <v>0.02666451988342416</v>
       </c>
       <c r="M76" s="170" t="n">
-        <v>0.00862286667174611</v>
+        <v>0.01818484575268817</v>
       </c>
       <c r="N76" s="171" t="n">
-        <v>0.0417601053046131</v>
+        <v>0.04514952164947023</v>
       </c>
       <c r="O76" s="172" t="n">
-        <v>0.008488953276273012</v>
+        <v>0.01826208497612758</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1">
@@ -9760,28 +9760,28 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.01393539873649435</v>
+        <v>0.02002989229577277</v>
       </c>
       <c r="G77" t="n">
-        <v>0.009116237260570153</v>
+        <v>0.01988219530373504</v>
       </c>
       <c r="J77" t="n">
-        <v>0.01207213128616555</v>
+        <v>0.01413075664220172</v>
       </c>
       <c r="K77" t="n">
-        <v>0.009358096091777212</v>
+        <v>0.02000647930053772</v>
       </c>
       <c r="L77" t="n">
-        <v>0.02696579704265417</v>
+        <v>0.0281389989979503</v>
       </c>
       <c r="M77" t="n">
-        <v>0.009301904935143187</v>
+        <v>0.02008323945346363</v>
       </c>
       <c r="N77" t="n">
-        <v>0.0427478222629829</v>
+        <v>0.04779727555933716</v>
       </c>
       <c r="O77" t="n">
-        <v>0.009260676301388741</v>
+        <v>0.0199222745194119</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
@@ -9800,28 +9800,28 @@
         <v/>
       </c>
       <c r="F78" t="n">
-        <v>0.01532871275569792</v>
+        <v>0.02144058882150583</v>
       </c>
       <c r="G78" t="n">
-        <v>0.009875923698951</v>
+        <v>0.02153904491237963</v>
       </c>
       <c r="J78" t="n">
-        <v>0.01278624989137957</v>
+        <v>0.01504289586882962</v>
       </c>
       <c r="K78" t="n">
-        <v>0.01014020651108018</v>
+        <v>0.02167368590891586</v>
       </c>
       <c r="L78" t="n">
-        <v>0.02827774200598787</v>
+        <v>0.03010849523141043</v>
       </c>
       <c r="M78" t="n">
-        <v>0.01007706367973845</v>
+        <v>0.02175684274125227</v>
       </c>
       <c r="N78" t="n">
-        <v>0.04443418846093911</v>
+        <v>0.05030498197612343</v>
       </c>
       <c r="O78" t="n">
-        <v>0.01003239932650447</v>
+        <v>0.02158246406269623</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
@@ -9842,28 +9842,28 @@
         <v/>
       </c>
       <c r="F79" t="n">
-        <v>0.01675104078316796</v>
+        <v>0.02281862377956662</v>
       </c>
       <c r="G79" t="n">
-        <v>0.01063561013733185</v>
+        <v>0.02319589452102422</v>
       </c>
       <c r="J79" t="n">
-        <v>0.01325970887045684</v>
+        <v>0.01598622644502096</v>
       </c>
       <c r="K79" t="n">
-        <v>0.01091777877374008</v>
+        <v>0.023340892517294</v>
       </c>
       <c r="L79" t="n">
-        <v>0.02898597082257476</v>
+        <v>0.03215844743371638</v>
       </c>
       <c r="M79" t="n">
-        <v>0.01085222242433372</v>
+        <v>0.02343044602904091</v>
       </c>
       <c r="N79" t="n">
-        <v>0.04611795045321765</v>
+        <v>0.0539209245815187</v>
       </c>
       <c r="O79" t="n">
-        <v>0.0108041223516202</v>
+        <v>0.02324265360598055</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1">
@@ -9873,28 +9873,28 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.01820095073964857</v>
+        <v>0.02414647856476521</v>
       </c>
       <c r="G80" t="n">
-        <v>0.01139529657571269</v>
+        <v>0.0248527441296688</v>
       </c>
       <c r="J80" t="n">
-        <v>0.01353165093819482</v>
+        <v>0.01704141426256572</v>
       </c>
       <c r="K80" t="n">
-        <v>0.01169762011472152</v>
+        <v>0.02500809912567215</v>
       </c>
       <c r="L80" t="n">
-        <v>0.02988967204107143</v>
+        <v>0.0341503263387429</v>
       </c>
       <c r="M80" t="n">
-        <v>0.01162738116892898</v>
+        <v>0.02510404931682955</v>
       </c>
       <c r="N80" t="n">
-        <v>0.04739785479455444</v>
+        <v>0.05669338705721244</v>
       </c>
       <c r="O80" t="n">
-        <v>0.01157584537673593</v>
+        <v>0.02490284314926488</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
@@ -9910,28 +9910,28 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.01967701054588378</v>
+        <v>0.02640663457191172</v>
       </c>
       <c r="G81" t="n">
-        <v>0.01215498301409354</v>
+        <v>0.02650959373831339</v>
       </c>
       <c r="J81" t="n">
-        <v>0.01410028459919542</v>
+        <v>0.01808912521325394</v>
       </c>
       <c r="K81" t="n">
-        <v>0.01247746145570295</v>
+        <v>0.02667530573405029</v>
       </c>
       <c r="L81" t="n">
-        <v>0.0305880342101344</v>
+        <v>0.03604560268036477</v>
       </c>
       <c r="M81" t="n">
-        <v>0.01240253991352425</v>
+        <v>0.02677765260461818</v>
       </c>
       <c r="N81" t="n">
-        <v>0.04837264803968544</v>
+        <v>0.05957065308489429</v>
       </c>
       <c r="O81" t="n">
-        <v>0.01234756840185165</v>
+        <v>0.0265630326925492</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1">
@@ -9944,28 +9944,28 @@
         <v/>
       </c>
       <c r="F82" t="n">
-        <v>0.02117778812261766</v>
+        <v>0.02658157319581624</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01291466945247438</v>
+        <v>0.02816644334695798</v>
       </c>
       <c r="J82" t="n">
-        <v>0.01466520381514916</v>
+        <v>0.0190100251888756</v>
       </c>
       <c r="K82" t="n">
-        <v>0.01325730279668438</v>
+        <v>0.02834251234242843</v>
       </c>
       <c r="L82" t="n">
-        <v>0.03178024587842018</v>
+        <v>0.03820574719245687</v>
       </c>
       <c r="M82" t="n">
-        <v>0.01317769865811951</v>
+        <v>0.02845125589240682</v>
       </c>
       <c r="N82" t="n">
-        <v>0.04954107674334662</v>
+        <v>0.06260100634625382</v>
       </c>
       <c r="O82" t="n">
-        <v>0.01311929142696738</v>
+        <v>0.02822322223583353</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1">
@@ -9975,28 +9975,28 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.02270185139059426</v>
+        <v>0.02865377583128888</v>
       </c>
       <c r="G83" t="n">
-        <v>0.01367435589085523</v>
+        <v>0.02982329295560256</v>
       </c>
       <c r="J83" t="n">
-        <v>0.01512600254774663</v>
+        <v>0.01988478008122072</v>
       </c>
       <c r="K83" t="n">
-        <v>0.01403714413766582</v>
+        <v>0.03000971895080658</v>
       </c>
       <c r="L83" t="n">
-        <v>0.03246549559458548</v>
+        <v>0.03999223060889401</v>
       </c>
       <c r="M83" t="n">
-        <v>0.01395285740271478</v>
+        <v>0.03012485918019545</v>
       </c>
       <c r="N83" t="n">
-        <v>0.05060188746027394</v>
+        <v>0.06523273052298062</v>
       </c>
       <c r="O83" t="n">
-        <v>0.01389101445208311</v>
+        <v>0.02988341177911786</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1">
@@ -10011,28 +10011,28 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.02424776827055766</v>
+        <v>0.02860572387313971</v>
       </c>
       <c r="G84" t="n">
-        <v>0.01443404232923608</v>
+        <v>0.03148014256424715</v>
       </c>
       <c r="J84" t="n">
-        <v>0.01548227475867836</v>
+        <v>0.02059405578207933</v>
       </c>
       <c r="K84" t="n">
-        <v>0.01481698547864725</v>
+        <v>0.03167692555918472</v>
       </c>
       <c r="L84" t="n">
-        <v>0.03364297190728679</v>
+        <v>0.04176652366355096</v>
       </c>
       <c r="M84" t="n">
-        <v>0.01472801614731004</v>
+        <v>0.03179846246798409</v>
       </c>
       <c r="N84" t="n">
-        <v>0.05235382674520334</v>
+        <v>0.06671410929676419</v>
       </c>
       <c r="O84" t="n">
-        <v>0.01466273747719884</v>
+        <v>0.03154360132240218</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
@@ -10051,28 +10051,28 @@
         <v/>
       </c>
       <c r="F85" t="n">
-        <v>0.02581410668325192</v>
+        <v>0.02941989871617884</v>
       </c>
       <c r="G85" t="n">
-        <v>0.01519372876761692</v>
+        <v>0.03313699217289173</v>
       </c>
       <c r="J85" t="n">
-        <v>0.01593361440963495</v>
+        <v>0.02121851818324141</v>
       </c>
       <c r="K85" t="n">
-        <v>0.01559682681962869</v>
+        <v>0.03334413216756286</v>
       </c>
       <c r="L85" t="n">
-        <v>0.03411186336518063</v>
+        <v>0.04359009709030254</v>
       </c>
       <c r="M85" t="n">
-        <v>0.01550317489190531</v>
+        <v>0.03347206575577272</v>
       </c>
       <c r="N85" t="n">
-        <v>0.05359564115287069</v>
+        <v>0.06949342634929423</v>
       </c>
       <c r="O85" t="n">
-        <v>0.01543446050231457</v>
+        <v>0.03320379086568651</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1">
@@ -10093,28 +10093,28 @@
         <v/>
       </c>
       <c r="F86" t="n">
-        <v>0.02739943454942105</v>
+        <v>0.03307878175521638</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01595341520599777</v>
+        <v>0.03479384178153633</v>
       </c>
       <c r="J86" t="n">
-        <v>0.01637961546230697</v>
+        <v>0.02193883317649702</v>
       </c>
       <c r="K86" t="n">
-        <v>0.01637666816061012</v>
+        <v>0.035011338775941</v>
       </c>
       <c r="L86" t="n">
-        <v>0.03537135851692361</v>
+        <v>0.04472442162302356</v>
       </c>
       <c r="M86" t="n">
-        <v>0.01627833363650058</v>
+        <v>0.03514566904356136</v>
       </c>
       <c r="N86" t="n">
-        <v>0.05482607723801208</v>
+        <v>0.07051896536226027</v>
       </c>
       <c r="O86" t="n">
-        <v>0.0162061835274303</v>
+        <v>0.03486398040897083</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1">
@@ -10124,28 +10124,28 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.02900231978980919</v>
+        <v>0.03057520257080919</v>
       </c>
       <c r="G87" t="n">
-        <v>0.01671310164437862</v>
+        <v>0.03645069139018092</v>
       </c>
       <c r="J87" t="n">
-        <v>0.01671987187838497</v>
+        <v>0.02243566665363611</v>
       </c>
       <c r="K87" t="n">
-        <v>0.01715650950159156</v>
+        <v>0.03667854538431915</v>
       </c>
       <c r="L87" t="n">
-        <v>0.03612064591117226</v>
+        <v>0.04613096799558891</v>
       </c>
       <c r="M87" t="n">
-        <v>0.01705349238109584</v>
+        <v>0.03681927233135</v>
       </c>
       <c r="N87" t="n">
-        <v>0.05584388155536335</v>
+        <v>0.0715390100173518</v>
       </c>
       <c r="O87" t="n">
-        <v>0.01697790655254602</v>
+        <v>0.03652416995225515</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1">
@@ -10159,28 +10159,28 @@
       <c r="C88" s="139" t="n"/>
       <c r="D88" s="139" t="n"/>
       <c r="F88" t="n">
-        <v>0.03062133032516036</v>
+        <v>0.03402354202322623</v>
       </c>
       <c r="G88" t="n">
-        <v>0.01747278808275946</v>
+        <v>0.0381075409988255</v>
       </c>
       <c r="J88" t="n">
-        <v>0.0172539776195595</v>
+        <v>0.02279410886875095</v>
       </c>
       <c r="K88" t="n">
-        <v>0.01793635084257299</v>
+        <v>0.0383457519926973</v>
       </c>
       <c r="L88" t="n">
-        <v>0.03685891409658318</v>
+        <v>0.04717120694187341</v>
       </c>
       <c r="M88" t="n">
-        <v>0.01782865112569111</v>
+        <v>0.03849287561913863</v>
       </c>
       <c r="N88" t="n">
-        <v>0.05684780065966055</v>
+        <v>0.07322106526684935</v>
       </c>
       <c r="O88" t="n">
-        <v>0.01774962957766175</v>
+        <v>0.03818435949553948</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1">
@@ -10193,6180 +10193,4780 @@
         <v/>
       </c>
       <c r="F89" t="n">
-        <v>0.0322550340762186</v>
+        <v>0.03445766112463058</v>
       </c>
       <c r="G89" t="n">
-        <v>0.01823247452114031</v>
+        <v>0.03976439060747008</v>
       </c>
       <c r="J89" t="n">
-        <v>0.01778152664752118</v>
+        <v>0.02310298582860383</v>
       </c>
       <c r="K89" t="n">
-        <v>0.01871619218355442</v>
+        <v>0.04001295860107543</v>
       </c>
       <c r="L89" t="n">
-        <v>0.03778535162181287</v>
+        <v>0.04745709371414872</v>
       </c>
       <c r="M89" t="n">
-        <v>0.01860380987028637</v>
+        <v>0.04016647890692727</v>
       </c>
       <c r="N89" t="n">
-        <v>0.05803658110563964</v>
+        <v>0.07367451038639627</v>
       </c>
       <c r="O89" t="n">
-        <v>0.01852135260277748</v>
+        <v>0.03984454903882381</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="F90" t="n">
-        <v>0.03390199896372796</v>
+        <v>0.03287452240833251</v>
       </c>
       <c r="G90" t="n">
-        <v>0.01899216095952115</v>
+        <v>0.04142124021611467</v>
       </c>
       <c r="J90" t="n">
-        <v>0.01800211292396051</v>
+        <v>0.02350222857693275</v>
       </c>
       <c r="K90" t="n">
-        <v>0.01949603352453586</v>
+        <v>0.04168016520945358</v>
       </c>
       <c r="L90" t="n">
-        <v>0.03849914703551799</v>
+        <v>0.04839752157154459</v>
       </c>
       <c r="M90" t="n">
-        <v>0.01937896861488164</v>
+        <v>0.0418400821947159</v>
       </c>
       <c r="N90" t="n">
-        <v>0.05920896944803644</v>
+        <v>0.07439277014990731</v>
       </c>
       <c r="O90" t="n">
-        <v>0.01929307562789321</v>
+        <v>0.04150473858210813</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="F91" t="n">
-        <v>0.03566882426545259</v>
+        <v>0.0332710884076423</v>
       </c>
       <c r="G91" t="n">
-        <v>0.01980115147069639</v>
+        <v>0.04307808982475926</v>
       </c>
       <c r="J91" t="n">
-        <v>0.01841533041056807</v>
+        <v>0.02368972398666093</v>
       </c>
       <c r="K91" t="n">
-        <v>0.02027587486551729</v>
+        <v>0.04334737181783172</v>
       </c>
       <c r="L91" t="n">
-        <v>0.03919948888635497</v>
+        <v>0.04901622765068753</v>
       </c>
       <c r="M91" t="n">
-        <v>0.0201541273594769</v>
+        <v>0.04351368548250454</v>
       </c>
       <c r="N91" t="n">
-        <v>0.06016371224158706</v>
+        <v>0.07566922847642582</v>
       </c>
       <c r="O91" t="n">
-        <v>0.02006479865300894</v>
+        <v>0.04316492812539246</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="F92" t="n">
-        <v>0.0373605479440226</v>
+        <v>0.03264432165587015</v>
       </c>
       <c r="G92" t="n">
-        <v>0.02051153383628285</v>
+        <v>0.04473493943340384</v>
       </c>
       <c r="J92" t="n">
-        <v>0.01892077306903449</v>
+        <v>0.02406335893071171</v>
       </c>
       <c r="K92" t="n">
-        <v>0.02105571620649873</v>
+        <v>0.04501457842620987</v>
       </c>
       <c r="L92" t="n">
-        <v>0.03998556572298051</v>
+        <v>0.04930875430649342</v>
       </c>
       <c r="M92" t="n">
-        <v>0.02092928610407217</v>
+        <v>0.04518728877029318</v>
       </c>
       <c r="N92" t="n">
-        <v>0.06189955604102726</v>
+        <v>0.07639726928499502</v>
       </c>
       <c r="O92" t="n">
-        <v>0.02083652167812467</v>
+        <v>0.04482511766867679</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="F93" t="n">
-        <v>0.0393996578925354</v>
+        <v>0.03499118468632634</v>
       </c>
       <c r="G93" t="n">
-        <v>0.02127122027466369</v>
+        <v>0.04639178904204844</v>
       </c>
       <c r="J93" t="n">
-        <v>0.01941803486105026</v>
+        <v>0.0243210202820083</v>
       </c>
       <c r="K93" t="n">
-        <v>0.02183555754748016</v>
+        <v>0.04668178503458801</v>
       </c>
       <c r="L93" t="n">
-        <v>0.04115656609405108</v>
+        <v>0.05007064389387816</v>
       </c>
       <c r="M93" t="n">
-        <v>0.02170444484866743</v>
+        <v>0.04686089205808181</v>
       </c>
       <c r="N93" t="n">
-        <v>0.06241524740109322</v>
+        <v>0.07687027649465844</v>
       </c>
       <c r="O93" t="n">
-        <v>0.0216082447032404</v>
+        <v>0.0464853072119611</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="F94" t="n">
-        <v>0.0415690569914683</v>
+        <v>0.03530864003232112</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02203090671304454</v>
+        <v>0.04804863865069302</v>
       </c>
       <c r="J94" t="n">
-        <v>0.01970670974830598</v>
+        <v>0.02456059491347401</v>
       </c>
       <c r="K94" t="n">
-        <v>0.02261539888846159</v>
+        <v>0.04834899164296615</v>
       </c>
       <c r="L94" t="n">
-        <v>0.04151167854822327</v>
+        <v>0.05089743876775765</v>
       </c>
       <c r="M94" t="n">
-        <v>0.0224796035932627</v>
+        <v>0.04853449534587045</v>
       </c>
       <c r="N94" t="n">
-        <v>0.06350953287652072</v>
+        <v>0.07768163402445949</v>
       </c>
       <c r="O94" t="n">
-        <v>0.02237996772835613</v>
+        <v>0.04814549675524543</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="F95" t="n">
-        <v>0.04375897448908947</v>
+        <v>0.03559365022716472</v>
       </c>
       <c r="G95" t="n">
-        <v>0.02279059315142539</v>
+        <v>0.04970548825933761</v>
       </c>
       <c r="J95" t="n">
-        <v>0.0200863916924922</v>
+        <v>0.02467996969803204</v>
       </c>
       <c r="K95" t="n">
-        <v>0.02339524022944303</v>
+        <v>0.0500161982513443</v>
       </c>
       <c r="L95" t="n">
-        <v>0.04245009163415367</v>
+        <v>0.05108468128304777</v>
       </c>
       <c r="M95" t="n">
-        <v>0.02325476233785797</v>
+        <v>0.05020809863365909</v>
       </c>
       <c r="N95" t="n">
-        <v>0.06448115902204571</v>
+        <v>0.07862472579344149</v>
       </c>
       <c r="O95" t="n">
-        <v>0.02315169075347185</v>
+        <v>0.04980568629852975</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="F96" t="n">
-        <v>0.04585963963366696</v>
+        <v>0.0338431778041674</v>
       </c>
       <c r="G96" t="n">
-        <v>0.02355027958980623</v>
+        <v>0.05136233786798219</v>
       </c>
       <c r="J96" t="n">
-        <v>0.02045667465529949</v>
+        <v>0.02497703150860575</v>
       </c>
       <c r="K96" t="n">
-        <v>0.02417508157042446</v>
+        <v>0.05168340485972244</v>
       </c>
       <c r="L96" t="n">
-        <v>0.04327099390049879</v>
+        <v>0.05142791379466446</v>
       </c>
       <c r="M96" t="n">
-        <v>0.02402992108245323</v>
+        <v>0.05188170192144772</v>
       </c>
       <c r="N96" t="n">
-        <v>0.06552887239240435</v>
+        <v>0.07949293572064781</v>
       </c>
       <c r="O96" t="n">
-        <v>0.02392341377858758</v>
+        <v>0.05146587584181408</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="F97" t="n">
-        <v>0.04776128167346891</v>
+        <v>0.03705418529663942</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02430996602818708</v>
+        <v>0.05301918747662678</v>
       </c>
       <c r="J97" t="n">
-        <v>0.02071715259841843</v>
+        <v>0.02514966721811834</v>
       </c>
       <c r="K97" t="n">
-        <v>0.0249549229114059</v>
+        <v>0.05335061146810059</v>
       </c>
       <c r="L97" t="n">
-        <v>0.0436735738959152</v>
+        <v>0.05192267865752367</v>
       </c>
       <c r="M97" t="n">
-        <v>0.0248050798270485</v>
+        <v>0.05355530520923636</v>
       </c>
       <c r="N97" t="n">
-        <v>0.06665141954233239</v>
+        <v>0.07967964772512182</v>
       </c>
       <c r="O97" t="n">
-        <v>0.02469513680370331</v>
+        <v>0.0531260653850984</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.04966882426545259</v>
+        <v>0.03722363523789102</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02524645739970377</v>
+        <v>0.05467603708527138</v>
       </c>
       <c r="J98" t="n">
-        <v>0.02106741948353956</v>
+        <v>0.02529576369949309</v>
       </c>
       <c r="K98" t="n">
-        <v>0.02573476425238733</v>
+        <v>0.05501781807647872</v>
       </c>
       <c r="L98" t="n">
-        <v>0.0442570201690595</v>
+        <v>0.05226451822654124</v>
       </c>
       <c r="M98" t="n">
-        <v>0.02558023857164376</v>
+        <v>0.055228908497025</v>
       </c>
       <c r="N98" t="n">
-        <v>0.06754754702656574</v>
+        <v>0.07967824572590693</v>
       </c>
       <c r="O98" t="n">
-        <v>0.02546685982881904</v>
+        <v>0.05478625492838273</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.05065818149323578</v>
+        <v>0.03434849016123243</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02582933890494877</v>
+        <v>0.05633288669391595</v>
       </c>
       <c r="J99" t="n">
-        <v>0.02160706927235347</v>
+        <v>0.0253132078256533</v>
       </c>
       <c r="K99" t="n">
-        <v>0.02651460559336876</v>
+        <v>0.05668502468485687</v>
       </c>
       <c r="L99" t="n">
-        <v>0.0454205212685882</v>
+        <v>0.05284897485663304</v>
       </c>
       <c r="M99" t="n">
-        <v>0.02635539731623903</v>
+        <v>0.05690251178481363</v>
       </c>
       <c r="N99" t="n">
-        <v>0.06881600139984062</v>
+        <v>0.08028211364204652</v>
       </c>
       <c r="O99" t="n">
-        <v>0.02623858285393477</v>
+        <v>0.05644644447166706</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.05191827892362956</v>
+        <v>0.03745226547872524</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02658902534332961</v>
+        <v>0.05798973630256055</v>
       </c>
       <c r="J100" t="n">
-        <v>0.0218356959265507</v>
+        <v>0.0253998864695222</v>
       </c>
       <c r="K100" t="n">
-        <v>0.0272944469343502</v>
+        <v>0.05835223129323502</v>
       </c>
       <c r="L100" t="n">
-        <v>0.04606326574315792</v>
+        <v>0.05277159090271505</v>
       </c>
       <c r="M100" t="n">
-        <v>0.02713055606083429</v>
+        <v>0.05857611507260228</v>
       </c>
       <c r="N100" t="n">
-        <v>0.06945552921689274</v>
+        <v>0.08108557975093744</v>
       </c>
       <c r="O100" t="n">
-        <v>0.02701030587905049</v>
+        <v>0.05810663401495138</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.05314216442574335</v>
+        <v>0.03745226508742576</v>
       </c>
       <c r="G101" t="n">
-        <v>0.02734871178171046</v>
+        <v>0.05964658591120513</v>
       </c>
       <c r="J101" t="n">
-        <v>0.02205289340782185</v>
+        <v>0.02557249978275913</v>
       </c>
       <c r="K101" t="n">
-        <v>0.02807428827533163</v>
+        <v>0.06001943790161315</v>
       </c>
       <c r="L101" t="n">
-        <v>0.04658444214142521</v>
+        <v>0.05312790871970316</v>
       </c>
       <c r="M101" t="n">
-        <v>0.02790571480542956</v>
+        <v>0.0602497183603909</v>
       </c>
       <c r="N101" t="n">
-        <v>0.07036487703245814</v>
+        <v>0.08027919489656243</v>
       </c>
       <c r="O101" t="n">
-        <v>0.02778202890416622</v>
+        <v>0.05976682355823571</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.05432660225323362</v>
+        <v>0.03643946483657375</v>
       </c>
       <c r="G102" t="n">
-        <v>0.02810839822009131</v>
+        <v>0.06130343551984972</v>
       </c>
       <c r="J102" t="n">
-        <v>0.02245825567785746</v>
+        <v>0.02557249480207917</v>
       </c>
       <c r="K102" t="n">
-        <v>0.02885412961631307</v>
+        <v>0.0616866445099913</v>
       </c>
       <c r="L102" t="n">
-        <v>0.04708323901204658</v>
+        <v>0.0533290397668483</v>
       </c>
       <c r="M102" t="n">
-        <v>0.02868087355002482</v>
+        <v>0.06192332164817954</v>
       </c>
       <c r="N102" t="n">
-        <v>0.07164279140127278</v>
+        <v>0.0809729731870506</v>
       </c>
       <c r="O102" t="n">
-        <v>0.02855375192928196</v>
+        <v>0.06142701310152004</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.05546835665975687</v>
+        <v>0.03740192968555014</v>
       </c>
       <c r="G103" t="n">
-        <v>0.02886808465847215</v>
+        <v>0.0629602851284943</v>
       </c>
       <c r="J103" t="n">
-        <v>0.02285137669834811</v>
+        <v>0.02556387051910851</v>
       </c>
       <c r="K103" t="n">
-        <v>0.0296339709572945</v>
+        <v>0.06335385111836944</v>
       </c>
       <c r="L103" t="n">
-        <v>0.04775884490367863</v>
+        <v>0.05302651753959242</v>
       </c>
       <c r="M103" t="n">
-        <v>0.02945603229462009</v>
+        <v>0.06359692493596818</v>
       </c>
       <c r="N103" t="n">
-        <v>0.0724880188780726</v>
+        <v>0.08080863290456208</v>
       </c>
       <c r="O103" t="n">
-        <v>0.02932547495439768</v>
+        <v>0.06308720264480436</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.05656419189896957</v>
+        <v>0.03434126066637846</v>
       </c>
       <c r="G104" t="n">
-        <v>0.029627771096853</v>
+        <v>0.06461713473713888</v>
       </c>
       <c r="J104" t="n">
-        <v>0.02313185043098434</v>
+        <v>0.02553813587843476</v>
       </c>
       <c r="K104" t="n">
-        <v>0.03041381229827593</v>
+        <v>0.06502105772674759</v>
       </c>
       <c r="L104" t="n">
-        <v>0.0484104483649779</v>
+        <v>0.05309442347718354</v>
       </c>
       <c r="M104" t="n">
-        <v>0.03023119103921535</v>
+        <v>0.06527052822375681</v>
       </c>
       <c r="N104" t="n">
-        <v>0.07329930601759344</v>
+        <v>0.08069287540152142</v>
       </c>
       <c r="O104" t="n">
-        <v>0.03009719797951341</v>
+        <v>0.06474739218808868</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.05761087222452825</v>
+        <v>0.03625905861159989</v>
       </c>
       <c r="G105" t="n">
-        <v>0.03038745753523385</v>
+        <v>0.06627398434578347</v>
       </c>
       <c r="J105" t="n">
-        <v>0.02339927083745674</v>
+        <v>0.02539640709688006</v>
       </c>
       <c r="K105" t="n">
-        <v>0.03119365363925737</v>
+        <v>0.06668826433512573</v>
       </c>
       <c r="L105" t="n">
-        <v>0.04863723794460101</v>
+        <v>0.05282728201818049</v>
       </c>
       <c r="M105" t="n">
-        <v>0.03100634978381062</v>
+        <v>0.06694413151154545</v>
       </c>
       <c r="N105" t="n">
-        <v>0.07417539937457152</v>
+        <v>0.08072918754338992</v>
       </c>
       <c r="O105" t="n">
-        <v>0.03086892100462913</v>
+        <v>0.06640758173137301</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.05860516189008937</v>
+        <v>0.03715692435375563</v>
       </c>
       <c r="G106" t="n">
-        <v>0.03114714397361469</v>
+        <v>0.06793083395442806</v>
       </c>
       <c r="J106" t="n">
-        <v>0.02345323187945587</v>
+        <v>0.02533979785335307</v>
       </c>
       <c r="K106" t="n">
-        <v>0.0319734949802388</v>
+        <v>0.06835547094350387</v>
       </c>
       <c r="L106" t="n">
-        <v>0.0493384021912045</v>
+        <v>0.05302744247009392</v>
       </c>
       <c r="M106" t="n">
-        <v>0.03178150852840588</v>
+        <v>0.06861773479933408</v>
       </c>
       <c r="N106" t="n">
-        <v>0.07521504550374258</v>
+        <v>0.07982105619562896</v>
       </c>
       <c r="O106" t="n">
-        <v>0.03164064402974486</v>
+        <v>0.06806777127465732</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.05954382514930942</v>
+        <v>0.03503645872538681</v>
       </c>
       <c r="G107" t="n">
-        <v>0.03190683041199554</v>
+        <v>0.06958768356307266</v>
       </c>
       <c r="J107" t="n">
-        <v>0.02389332751867229</v>
+        <v>0.02526942182676245</v>
       </c>
       <c r="K107" t="n">
-        <v>0.03275333632122024</v>
+        <v>0.070022677551882</v>
       </c>
       <c r="L107" t="n">
-        <v>0.04941312965344483</v>
+        <v>0.05299725414043455</v>
       </c>
       <c r="M107" t="n">
-        <v>0.03255666727300115</v>
+        <v>0.07029133808712272</v>
       </c>
       <c r="N107" t="n">
-        <v>0.07531699095984257</v>
+        <v>0.0798719682236998</v>
       </c>
       <c r="O107" t="n">
-        <v>0.03241236705486059</v>
+        <v>0.06972796081794165</v>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.06042362625584489</v>
+        <v>0.03689926255903465</v>
       </c>
       <c r="G108" t="n">
-        <v>0.03266651685037638</v>
+        <v>0.07124453317171724</v>
       </c>
       <c r="J108" t="n">
-        <v>0.02401915171679658</v>
+        <v>0.02528639269601682</v>
       </c>
       <c r="K108" t="n">
-        <v>0.03353317766220167</v>
+        <v>0.07168988416026016</v>
       </c>
       <c r="L108" t="n">
-        <v>0.05026060887997871</v>
+        <v>0.05233906633671301</v>
       </c>
       <c r="M108" t="n">
-        <v>0.03333182601759641</v>
+        <v>0.07196494137491136</v>
       </c>
       <c r="N108" t="n">
-        <v>0.07577998229760757</v>
+        <v>0.07918541049306388</v>
       </c>
       <c r="O108" t="n">
-        <v>0.03318409007997632</v>
+        <v>0.07138815036122598</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.06124132946335233</v>
+        <v>0.03374693668724033</v>
       </c>
       <c r="G109" t="n">
-        <v>0.03342620328875723</v>
+        <v>0.07290138278036183</v>
       </c>
       <c r="J109" t="n">
-        <v>0.0242302984355193</v>
+        <v>0.02519182414002483</v>
       </c>
       <c r="K109" t="n">
-        <v>0.03431301900318311</v>
+        <v>0.07335709076863831</v>
       </c>
       <c r="L109" t="n">
-        <v>0.05068002841946262</v>
+        <v>0.05265522836644002</v>
       </c>
       <c r="M109" t="n">
-        <v>0.03410698476219168</v>
+        <v>0.07363854466269999</v>
       </c>
       <c r="N109" t="n">
-        <v>0.07670276607177345</v>
+        <v>0.07966486986918253</v>
       </c>
       <c r="O109" t="n">
-        <v>0.03395581310509205</v>
+        <v>0.0730483399045103</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.06199369902548812</v>
+        <v>0.03458108194254501</v>
       </c>
       <c r="G110" t="n">
-        <v>0.03418588972713808</v>
+        <v>0.07455823238900641</v>
       </c>
       <c r="J110" t="n">
-        <v>0.02442636163653099</v>
+        <v>0.02498682983769512</v>
       </c>
       <c r="K110" t="n">
-        <v>0.03509286034416454</v>
+        <v>0.07502429737701644</v>
       </c>
       <c r="L110" t="n">
-        <v>0.05067057682055312</v>
+        <v>0.05234808953712625</v>
       </c>
       <c r="M110" t="n">
-        <v>0.03488214350678695</v>
+        <v>0.07531214795048863</v>
       </c>
       <c r="N110" t="n">
-        <v>0.07758408883707618</v>
+        <v>0.07921383321751707</v>
       </c>
       <c r="O110" t="n">
-        <v>0.03472753613020778</v>
+        <v>0.07470852944779463</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.06267749919590884</v>
+        <v>0.03340329915748989</v>
       </c>
       <c r="G111" t="n">
-        <v>0.03494557616551892</v>
+        <v>0.07621508199765099</v>
       </c>
       <c r="J111" t="n">
-        <v>0.02450693528152226</v>
+        <v>0.02487252346793635</v>
       </c>
       <c r="K111" t="n">
-        <v>0.03587270168514598</v>
+        <v>0.07669150398539459</v>
       </c>
       <c r="L111" t="n">
-        <v>0.0511314426319068</v>
+        <v>0.05181999915628233</v>
       </c>
       <c r="M111" t="n">
-        <v>0.03565730225138222</v>
+        <v>0.07698575123827726</v>
       </c>
       <c r="N111" t="n">
-        <v>0.07792269714825162</v>
+        <v>0.07883578740352876</v>
       </c>
       <c r="O111" t="n">
-        <v>0.0354992591553235</v>
+        <v>0.07636871899107896</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.06328949422827097</v>
+        <v>0.03621518916461615</v>
       </c>
       <c r="G112" t="n">
-        <v>0.03570526260389977</v>
+        <v>0.07787193160629557</v>
       </c>
       <c r="J112" t="n">
-        <v>0.02487161333218366</v>
+        <v>0.02485001870965717</v>
       </c>
       <c r="K112" t="n">
-        <v>0.03665254302612741</v>
+        <v>0.07835871059377274</v>
       </c>
       <c r="L112" t="n">
-        <v>0.05136181440218024</v>
+        <v>0.05167330653141894</v>
       </c>
       <c r="M112" t="n">
-        <v>0.03643246099597747</v>
+        <v>0.07865935452606591</v>
       </c>
       <c r="N112" t="n">
-        <v>0.07881733756003589</v>
+        <v>0.07803421929267901</v>
       </c>
       <c r="O112" t="n">
-        <v>0.03627098218043924</v>
+        <v>0.07802890853436328</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.06382644837623097</v>
+        <v>0.03401835279646497</v>
       </c>
       <c r="G113" t="n">
-        <v>0.03646494904228061</v>
+        <v>0.07952878121494017</v>
       </c>
       <c r="J113" t="n">
-        <v>0.02481998975020572</v>
+        <v>0.02472042924176621</v>
       </c>
       <c r="K113" t="n">
-        <v>0.03743238436710885</v>
+        <v>0.08002591720215087</v>
       </c>
       <c r="L113" t="n">
-        <v>0.05216088068002994</v>
+        <v>0.05151036097004683</v>
       </c>
       <c r="M113" t="n">
-        <v>0.03720761974057275</v>
+        <v>0.08033295781385454</v>
       </c>
       <c r="N113" t="n">
-        <v>0.07846675662716479</v>
+        <v>0.07801261575042917</v>
       </c>
       <c r="O113" t="n">
-        <v>0.03704270520555496</v>
+        <v>0.07968909807764761</v>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.06428512589344532</v>
+        <v>0.03381439088557753</v>
       </c>
       <c r="G114" t="n">
-        <v>0.03722463548066146</v>
+        <v>0.08118563082358476</v>
       </c>
       <c r="J114" t="n">
-        <v>0.02495165849727905</v>
+        <v>0.02458486874317209</v>
       </c>
       <c r="K114" t="n">
-        <v>0.03821222570809028</v>
+        <v>0.08169312381052901</v>
       </c>
       <c r="L114" t="n">
-        <v>0.0521278300141125</v>
+        <v>0.05133351177967663</v>
       </c>
       <c r="M114" t="n">
-        <v>0.03798277848516801</v>
+        <v>0.08200656110164317</v>
       </c>
       <c r="N114" t="n">
-        <v>0.07906970090437443</v>
+        <v>0.07767446364224051</v>
       </c>
       <c r="O114" t="n">
-        <v>0.03781442823067069</v>
+        <v>0.08134928762093194</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="F115" t="n">
-        <v>0.0646689712036991</v>
+        <v>0.03460490426449501</v>
       </c>
       <c r="G115" t="n">
-        <v>0.03798432191904231</v>
+        <v>0.08284248043222935</v>
       </c>
       <c r="J115" t="n">
-        <v>0.02526621353509419</v>
+        <v>0.02444445089278349</v>
       </c>
       <c r="K115" t="n">
-        <v>0.03899206704907171</v>
+        <v>0.08336033041890716</v>
       </c>
       <c r="L115" t="n">
-        <v>0.0522618509530845</v>
+        <v>0.05064510826781896</v>
       </c>
       <c r="M115" t="n">
-        <v>0.03875793722976327</v>
+        <v>0.08368016438943181</v>
       </c>
       <c r="N115" t="n">
-        <v>0.07992491694640064</v>
+        <v>0.07672324983357443</v>
       </c>
       <c r="O115" t="n">
-        <v>0.03858615125578642</v>
+        <v>0.08300947716421626</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.06503402396165606</v>
+        <v>0.03339149376575859</v>
       </c>
       <c r="G116" t="n">
-        <v>0.03874400835742315</v>
+        <v>0.08449933004087394</v>
       </c>
       <c r="J116" t="n">
-        <v>0.02516324882534171</v>
+        <v>0.02420028936950905</v>
       </c>
       <c r="K116" t="n">
-        <v>0.03977190839005315</v>
+        <v>0.08502753702728531</v>
       </c>
       <c r="L116" t="n">
-        <v>0.05256213204560248</v>
+        <v>0.05044749974198459</v>
       </c>
       <c r="M116" t="n">
-        <v>0.03953309597435854</v>
+        <v>0.08535376767722044</v>
       </c>
       <c r="N116" t="n">
-        <v>0.08023115130797948</v>
+        <v>0.07676246118989227</v>
       </c>
       <c r="O116" t="n">
-        <v>0.03935787428090215</v>
+        <v>0.08466966670750059</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.06539354441027895</v>
+        <v>0.03417576022190946</v>
       </c>
       <c r="G117" t="n">
-        <v>0.039503694795804</v>
+        <v>0.08615617964951852</v>
       </c>
       <c r="J117" t="n">
-        <v>0.0254423583297122</v>
+        <v>0.02415349785225741</v>
       </c>
       <c r="K117" t="n">
-        <v>0.04055174973103458</v>
+        <v>0.08669474363566344</v>
       </c>
       <c r="L117" t="n">
-        <v>0.05272786184032299</v>
+        <v>0.05034303550968416</v>
       </c>
       <c r="M117" t="n">
-        <v>0.04030825471895381</v>
+        <v>0.08702737096500908</v>
       </c>
       <c r="N117" t="n">
-        <v>0.08008715054384669</v>
+        <v>0.07619558457665526</v>
       </c>
       <c r="O117" t="n">
-        <v>0.04012959730601788</v>
+        <v>0.08632985625078492</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="F118" t="n">
-        <v>0.06574744856540755</v>
+        <v>0.0339593044654888</v>
       </c>
       <c r="G118" t="n">
-        <v>0.04026338123418485</v>
+        <v>0.0878130292581631</v>
       </c>
       <c r="J118" t="n">
-        <v>0.02530313600989618</v>
+        <v>0.0240051900199372</v>
       </c>
       <c r="K118" t="n">
-        <v>0.04133159107201602</v>
+        <v>0.08836195024404159</v>
       </c>
       <c r="L118" t="n">
-        <v>0.05285822888590261</v>
+        <v>0.04973406487842832</v>
       </c>
       <c r="M118" t="n">
-        <v>0.04108341346354907</v>
+        <v>0.08870097425279773</v>
       </c>
       <c r="N118" t="n">
-        <v>0.08029166120873849</v>
+        <v>0.07522610685932485</v>
       </c>
       <c r="O118" t="n">
-        <v>0.0409013203311336</v>
+        <v>0.08799004579406924</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
-        <v>0.06609565244288156</v>
+        <v>0.03474372732903777</v>
       </c>
       <c r="G119" t="n">
-        <v>0.04102306767256569</v>
+        <v>0.08946987886680768</v>
       </c>
       <c r="J119" t="n">
-        <v>0.02534517582758428</v>
+        <v>0.02365647955145707</v>
       </c>
       <c r="K119" t="n">
-        <v>0.04211143241299745</v>
+        <v>0.09002915685241974</v>
       </c>
       <c r="L119" t="n">
-        <v>0.05275242173099789</v>
+        <v>0.04942293715572779</v>
       </c>
       <c r="M119" t="n">
-        <v>0.04185857220814434</v>
+        <v>0.09037457754058636</v>
       </c>
       <c r="N119" t="n">
-        <v>0.08044342985739056</v>
+        <v>0.07465751490336237</v>
       </c>
       <c r="O119" t="n">
-        <v>0.04167304335624934</v>
+        <v>0.08965023533735357</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="F120" t="n">
-        <v>0.06643807205854076</v>
+        <v>0.03153062958640176</v>
       </c>
       <c r="G120" t="n">
-        <v>0.04178275411094654</v>
+        <v>0.09112672847545228</v>
       </c>
       <c r="J120" t="n">
-        <v>0.02557249978275913</v>
+        <v>0.02350848012572569</v>
       </c>
       <c r="K120" t="n">
-        <v>0.04289127375397889</v>
+        <v>0.09169636346079788</v>
       </c>
       <c r="L120" t="n">
-        <v>0.0533290397668483</v>
+        <v>0.04911200164909318</v>
       </c>
       <c r="M120" t="n">
-        <v>0.0426337309527396</v>
+        <v>0.09204818082837499</v>
       </c>
       <c r="N120" t="n">
-        <v>0.08108557975093744</v>
+        <v>0.07489329557422908</v>
       </c>
       <c r="O120" t="n">
-        <v>0.04244476638136506</v>
+        <v>0.0913104248806379</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="F121" t="n">
-        <v>0.06677462342822489</v>
+        <v>0.03330182285191675</v>
       </c>
       <c r="G121" t="n">
-        <v>0.04254244054932738</v>
+        <v>0.09278357808409687</v>
       </c>
       <c r="J121" t="n">
-        <v>0.02557193510606824</v>
+        <v>0.02346214464645759</v>
       </c>
       <c r="K121" t="n">
-        <v>0.04367111509496032</v>
+        <v>0.09336357006917602</v>
       </c>
       <c r="L121" t="n">
-        <v>0.0533290390143617</v>
+        <v>0.04880360766603525</v>
       </c>
       <c r="M121" t="n">
-        <v>0.04340888969733486</v>
+        <v>0.09372178411616362</v>
       </c>
       <c r="N121" t="n">
-        <v>0.08098372732491999</v>
+        <v>0.07401501073128508</v>
       </c>
       <c r="O121" t="n">
-        <v>0.04321648940648079</v>
+        <v>0.09297061442392221</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.06710522256777367</v>
+        <v>0.03104166663264721</v>
       </c>
       <c r="G122" t="n">
-        <v>0.04330212698770823</v>
+        <v>0.09444042769274145</v>
       </c>
       <c r="J122" t="n">
-        <v>0.02546344092057549</v>
+        <v>0.02320241304790376</v>
       </c>
       <c r="K122" t="n">
-        <v>0.04445095643594175</v>
+        <v>0.09503077667755416</v>
       </c>
       <c r="L122" t="n">
-        <v>0.0532107457457853</v>
+        <v>0.04859099370022552</v>
       </c>
       <c r="M122" t="n">
-        <v>0.04418404844193013</v>
+        <v>0.09539538740395226</v>
       </c>
       <c r="N122" t="n">
-        <v>0.08097459718945343</v>
+        <v>0.07346900700023867</v>
       </c>
       <c r="O122" t="n">
-        <v>0.04398821243159652</v>
+        <v>0.09463080396720654</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.06742978549302688</v>
+        <v>0.03175537663236823</v>
       </c>
       <c r="G123" t="n">
-        <v>0.04406181342608908</v>
+        <v>0.09609727730138605</v>
       </c>
       <c r="J123" t="n">
-        <v>0.02534503991209977</v>
+        <v>0.02302141264254912</v>
       </c>
       <c r="K123" t="n">
-        <v>0.04523079777692319</v>
+        <v>0.09669798328593231</v>
       </c>
       <c r="L123" t="n">
-        <v>0.05305647044025283</v>
+        <v>0.04843531843689286</v>
       </c>
       <c r="M123" t="n">
-        <v>0.0449592071865254</v>
+        <v>0.09706899069174091</v>
       </c>
       <c r="N123" t="n">
-        <v>0.08032593086948797</v>
+        <v>0.07266294887515712</v>
       </c>
       <c r="O123" t="n">
-        <v>0.04475993545671225</v>
+        <v>0.09629099351049086</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="F124" t="n">
-        <v>0.06774822821982422</v>
+        <v>0.0334481685548548</v>
       </c>
       <c r="G124" t="n">
-        <v>0.04482149986446992</v>
+        <v>0.09775412691003063</v>
       </c>
       <c r="J124" t="n">
-        <v>0.0254171096470541</v>
+        <v>0.02292277192940191</v>
       </c>
       <c r="K124" t="n">
-        <v>0.04601063911790462</v>
+        <v>0.09836518989431045</v>
       </c>
       <c r="L124" t="n">
-        <v>0.05316782395711567</v>
+        <v>0.04813844810490664</v>
       </c>
       <c r="M124" t="n">
-        <v>0.04573436593112066</v>
+        <v>0.09874259397952954</v>
       </c>
       <c r="N124" t="n">
-        <v>0.08093957087854531</v>
+        <v>0.07260819698051679</v>
       </c>
       <c r="O124" t="n">
-        <v>0.04553165848182798</v>
+        <v>0.09795118305377519</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.06806046676400547</v>
+        <v>0.030125258103882</v>
       </c>
       <c r="G125" t="n">
-        <v>0.04558118630285077</v>
+        <v>0.09941097651867521</v>
       </c>
       <c r="J125" t="n">
-        <v>0.02538002769185155</v>
+        <v>0.02281011940747033</v>
       </c>
       <c r="K125" t="n">
-        <v>0.04679048045888606</v>
+        <v>0.1000323965026886</v>
       </c>
       <c r="L125" t="n">
-        <v>0.05274641713573425</v>
+        <v>0.0475080370289617</v>
       </c>
       <c r="M125" t="n">
-        <v>0.04650952467571593</v>
+        <v>0.1004161972673182</v>
       </c>
       <c r="N125" t="n">
-        <v>0.08071681605064457</v>
+        <v>0.0717161119407938</v>
       </c>
       <c r="O125" t="n">
-        <v>0.04630338150694371</v>
+        <v>0.0996113725970595</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.06836641714141038</v>
+        <v>0.03279186098322488</v>
       </c>
       <c r="G126" t="n">
-        <v>0.04634087274123162</v>
+        <v>0.1010678261273198</v>
       </c>
       <c r="J126" t="n">
-        <v>0.02523417161290517</v>
+        <v>0.02248708357576261</v>
       </c>
       <c r="K126" t="n">
-        <v>0.04757032179986749</v>
+        <v>0.1016996031110667</v>
       </c>
       <c r="L126" t="n">
-        <v>0.05259386081546907</v>
+        <v>0.04695173953375276</v>
       </c>
       <c r="M126" t="n">
-        <v>0.0472846834203112</v>
+        <v>0.1020898005551068</v>
       </c>
       <c r="N126" t="n">
-        <v>0.080458965219805</v>
+        <v>0.07109805438046474</v>
       </c>
       <c r="O126" t="n">
-        <v>0.04707510453205943</v>
+        <v>0.1012715621403438</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="F127" t="n">
-        <v>0.06866599536787864</v>
+        <v>0.0314531928966585</v>
       </c>
       <c r="G127" t="n">
-        <v>0.04710055917961246</v>
+        <v>0.1027246757359644</v>
       </c>
       <c r="J127" t="n">
-        <v>0.02517991897662805</v>
+        <v>0.02225729293328696</v>
       </c>
       <c r="K127" t="n">
-        <v>0.04835016314084892</v>
+        <v>0.1033668097194449</v>
       </c>
       <c r="L127" t="n">
-        <v>0.05261176583568067</v>
+        <v>0.04637720994397468</v>
       </c>
       <c r="M127" t="n">
-        <v>0.04805984216490646</v>
+        <v>0.1037634038428954</v>
       </c>
       <c r="N127" t="n">
-        <v>0.0798673172200457</v>
+        <v>0.07006538492400544</v>
       </c>
       <c r="O127" t="n">
-        <v>0.04784682755717516</v>
+        <v>0.1029317516836282</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="F128" t="n">
-        <v>0.06895911745925003</v>
+        <v>0.03111446954795787</v>
       </c>
       <c r="G128" t="n">
-        <v>0.04786024561799331</v>
+        <v>0.104381525344609</v>
       </c>
       <c r="J128" t="n">
-        <v>0.02531764734943322</v>
+        <v>0.02192437597905161</v>
       </c>
       <c r="K128" t="n">
-        <v>0.04913000448183036</v>
+        <v>0.105034016327823</v>
       </c>
       <c r="L128" t="n">
-        <v>0.05220174303572944</v>
+        <v>0.04599210258432221</v>
       </c>
       <c r="M128" t="n">
-        <v>0.04883500090950173</v>
+        <v>0.1054370071306841</v>
       </c>
       <c r="N128" t="n">
-        <v>0.07984317088538584</v>
+        <v>0.06932946419589264</v>
       </c>
       <c r="O128" t="n">
-        <v>0.04861855058229089</v>
+        <v>0.1045919412269125</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.06924569943136429</v>
+        <v>0.03078090664089804</v>
       </c>
       <c r="G129" t="n">
-        <v>0.04861993205637415</v>
+        <v>0.1060383749532536</v>
       </c>
       <c r="J129" t="n">
-        <v>0.02504773429773374</v>
+        <v>0.02189196121206478</v>
       </c>
       <c r="K129" t="n">
-        <v>0.04990984582281179</v>
+        <v>0.1067012229362012</v>
       </c>
       <c r="L129" t="n">
-        <v>0.05226540325497595</v>
+        <v>0.04550407177949009</v>
       </c>
       <c r="M129" t="n">
-        <v>0.04961015965409699</v>
+        <v>0.1071106104184727</v>
       </c>
       <c r="N129" t="n">
-        <v>0.07958782504984457</v>
+        <v>0.06850165282060228</v>
       </c>
       <c r="O129" t="n">
-        <v>0.04939027360740662</v>
+        <v>0.1062521307701968</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="F130" t="n">
-        <v>0.06952565730006117</v>
+        <v>0.02945771987925408</v>
       </c>
       <c r="G130" t="n">
-        <v>0.049379618494755</v>
+        <v>0.1076952245618982</v>
       </c>
       <c r="J130" t="n">
-        <v>0.02517055738794267</v>
+        <v>0.02146367713133468</v>
       </c>
       <c r="K130" t="n">
-        <v>0.05068968716379323</v>
+        <v>0.1083684295445793</v>
       </c>
       <c r="L130" t="n">
-        <v>0.05180435733278069</v>
+        <v>0.04512077185417318</v>
       </c>
       <c r="M130" t="n">
-        <v>0.05038531839869226</v>
+        <v>0.1087842137062614</v>
       </c>
       <c r="N130" t="n">
-        <v>0.07900257854744114</v>
+        <v>0.06819331142261087</v>
       </c>
       <c r="O130" t="n">
-        <v>0.05016199663252235</v>
+        <v>0.1079123203134811</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="F131" t="n">
-        <v>0.06979890708118043</v>
+        <v>0.02914997929774574</v>
       </c>
       <c r="G131" t="n">
-        <v>0.05013930493313584</v>
+        <v>0.1093520741705428</v>
       </c>
       <c r="J131" t="n">
-        <v>0.02498649418647308</v>
+        <v>0.02144315223586957</v>
       </c>
       <c r="K131" t="n">
-        <v>0.05146952850477466</v>
+        <v>0.1100356361529574</v>
       </c>
       <c r="L131" t="n">
-        <v>0.05162021610850412</v>
+        <v>0.04464985713306624</v>
       </c>
       <c r="M131" t="n">
-        <v>0.05116047714328752</v>
+        <v>0.11045781699405</v>
       </c>
       <c r="N131" t="n">
-        <v>0.07878873021219457</v>
+        <v>0.0676158006263945</v>
       </c>
       <c r="O131" t="n">
-        <v>0.05093371965763807</v>
+        <v>0.1095725098567655</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.07006536479056176</v>
+        <v>0.02783114323876772</v>
       </c>
       <c r="G132" t="n">
-        <v>0.05089899137151669</v>
+        <v>0.1110089237791873</v>
       </c>
       <c r="J132" t="n">
-        <v>0.02489592225973802</v>
+        <v>0.02113283930771152</v>
       </c>
       <c r="K132" t="n">
-        <v>0.0522493698457561</v>
+        <v>0.1117028427613356</v>
       </c>
       <c r="L132" t="n">
-        <v>0.05131459042150671</v>
+        <v>0.04409898194086392</v>
       </c>
       <c r="M132" t="n">
-        <v>0.05193563588788279</v>
+        <v>0.1121314202818386</v>
       </c>
       <c r="N132" t="n">
-        <v>0.07854757887812402</v>
+        <v>0.06664095655370528</v>
       </c>
       <c r="O132" t="n">
-        <v>0.05170544268275381</v>
+        <v>0.1112326994000498</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.07032494644404495</v>
+        <v>0.02848386696269088</v>
       </c>
       <c r="G133" t="n">
-        <v>0.05165867780989754</v>
+        <v>0.1126657733878319</v>
       </c>
       <c r="J133" t="n">
-        <v>0.02479921917415055</v>
+        <v>0.02100992578058176</v>
       </c>
       <c r="K133" t="n">
-        <v>0.05302921118673753</v>
+        <v>0.1133700493697137</v>
       </c>
       <c r="L133" t="n">
-        <v>0.05108909111114895</v>
+        <v>0.04405343003848253</v>
       </c>
       <c r="M133" t="n">
-        <v>0.05271079463247805</v>
+        <v>0.1138050235696273</v>
       </c>
       <c r="N133" t="n">
-        <v>0.07828042337924879</v>
+        <v>0.06590235467108718</v>
       </c>
       <c r="O133" t="n">
-        <v>0.05247716570786953</v>
+        <v>0.1128928889433341</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.07057756805746972</v>
+        <v>0.02911561675099716</v>
       </c>
       <c r="G134" t="n">
-        <v>0.05241836424827839</v>
+        <v>0.1143226229964765</v>
       </c>
       <c r="J134" t="n">
-        <v>0.02469676249612375</v>
+        <v>0.02066828457632659</v>
       </c>
       <c r="K134" t="n">
-        <v>0.05380905252771897</v>
+        <v>0.1150372559780919</v>
       </c>
       <c r="L134" t="n">
-        <v>0.05074532901679135</v>
+        <v>0.0435658506152822</v>
       </c>
       <c r="M134" t="n">
-        <v>0.05348595337707331</v>
+        <v>0.1154786268574159</v>
       </c>
       <c r="N134" t="n">
-        <v>0.07748856254958791</v>
+        <v>0.06461387422817239</v>
       </c>
       <c r="O134" t="n">
-        <v>0.05324888873298526</v>
+        <v>0.1145530784866184</v>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.07082314564667579</v>
+        <v>0.02873385888516848</v>
       </c>
       <c r="G135" t="n">
-        <v>0.05317805068665923</v>
+        <v>0.1159794726051211</v>
       </c>
       <c r="J135" t="n">
-        <v>0.02468892979207064</v>
+        <v>0.02041310989233928</v>
       </c>
       <c r="K135" t="n">
-        <v>0.0545888938687004</v>
+        <v>0.11670446258647</v>
       </c>
       <c r="L135" t="n">
-        <v>0.0501849149777944</v>
+        <v>0.04264438708961957</v>
       </c>
       <c r="M135" t="n">
-        <v>0.05426111212166858</v>
+        <v>0.1171522301452046</v>
       </c>
       <c r="N135" t="n">
-        <v>0.07737329522316061</v>
+        <v>0.06449177796222677</v>
       </c>
       <c r="O135" t="n">
-        <v>0.05402061175810099</v>
+        <v>0.1162132680299028</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.07106159522750298</v>
+        <v>0.02634605964668678</v>
       </c>
       <c r="G136" t="n">
-        <v>0.05393773712504008</v>
+        <v>0.1176363222137657</v>
       </c>
       <c r="J136" t="n">
-        <v>0.0244760986284043</v>
+        <v>0.02014959592601309</v>
       </c>
       <c r="K136" t="n">
-        <v>0.05536873520968184</v>
+        <v>0.1183716691948482</v>
       </c>
       <c r="L136" t="n">
-        <v>0.04950945983351859</v>
+        <v>0.04239999662953747</v>
       </c>
       <c r="M136" t="n">
-        <v>0.05503627086626386</v>
+        <v>0.1188258334329932</v>
       </c>
       <c r="N136" t="n">
-        <v>0.07683592023398605</v>
+        <v>0.06295232861051625</v>
       </c>
       <c r="O136" t="n">
-        <v>0.05479233478321671</v>
+        <v>0.1178734575731871</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.07129283281579098</v>
+        <v>0.02695968531703395</v>
       </c>
       <c r="G137" t="n">
-        <v>0.05469742356342092</v>
+        <v>0.1192931718224103</v>
       </c>
       <c r="J137" t="n">
-        <v>0.02425864657153778</v>
+        <v>0.01998293687474122</v>
       </c>
       <c r="K137" t="n">
-        <v>0.05614857655066326</v>
+        <v>0.1200388758032263</v>
       </c>
       <c r="L137" t="n">
-        <v>0.04912057442332438</v>
+        <v>0.04144363640307888</v>
       </c>
       <c r="M137" t="n">
-        <v>0.05581142961085912</v>
+        <v>0.1204994367207818</v>
       </c>
       <c r="N137" t="n">
-        <v>0.07687773641608336</v>
+        <v>0.06211178891030666</v>
       </c>
       <c r="O137" t="n">
-        <v>0.05556405780833244</v>
+        <v>0.1195336471164714</v>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.07151677442737954</v>
+        <v>0.02758220217769197</v>
       </c>
       <c r="G138" t="n">
-        <v>0.05545711000180177</v>
+        <v>0.1209500214310548</v>
       </c>
       <c r="J138" t="n">
-        <v>0.02423695118788415</v>
+        <v>0.01961832693591692</v>
       </c>
       <c r="K138" t="n">
-        <v>0.0569284178916447</v>
+        <v>0.1217060824116045</v>
       </c>
       <c r="L138" t="n">
-        <v>0.04871986958657229</v>
+        <v>0.04118626357828672</v>
       </c>
       <c r="M138" t="n">
-        <v>0.05658658835545438</v>
+        <v>0.1221730400085704</v>
       </c>
       <c r="N138" t="n">
-        <v>0.07610004260347164</v>
+        <v>0.06138642159886404</v>
       </c>
       <c r="O138" t="n">
-        <v>0.05633578083344817</v>
+        <v>0.1211938366597557</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.07173333607810838</v>
+        <v>0.0272210765101427</v>
       </c>
       <c r="G139" t="n">
-        <v>0.05621679644018262</v>
+        <v>0.1226068710396994</v>
       </c>
       <c r="J139" t="n">
-        <v>0.02411139004385647</v>
+        <v>0.01936096030693345</v>
       </c>
       <c r="K139" t="n">
-        <v>0.05770825923262614</v>
+        <v>0.1233732890199826</v>
       </c>
       <c r="L139" t="n">
-        <v>0.04870895616262277</v>
+        <v>0.04063883532320386</v>
       </c>
       <c r="M139" t="n">
-        <v>0.05736174710004965</v>
+        <v>0.1238466432963591</v>
       </c>
       <c r="N139" t="n">
-        <v>0.07570413763017014</v>
+        <v>0.06069248941345406</v>
       </c>
       <c r="O139" t="n">
-        <v>0.05710750385856391</v>
+        <v>0.1228540262030401</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.0719424337838173</v>
+        <v>0.02688377459586813</v>
       </c>
       <c r="G140" t="n">
-        <v>0.05697648287856346</v>
+        <v>0.124263720648344</v>
       </c>
       <c r="J140" t="n">
-        <v>0.0238823407058678</v>
+        <v>0.01901603118518401</v>
       </c>
       <c r="K140" t="n">
-        <v>0.05848810057360757</v>
+        <v>0.1250404956283608</v>
       </c>
       <c r="L140" t="n">
-        <v>0.04788944499083636</v>
+        <v>0.03981230880587333</v>
       </c>
       <c r="M140" t="n">
-        <v>0.05813690584464491</v>
+        <v>0.1255202465841477</v>
       </c>
       <c r="N140" t="n">
-        <v>0.07539132033019802</v>
+        <v>0.05984625509134284</v>
       </c>
       <c r="O140" t="n">
-        <v>0.05787922688367964</v>
+        <v>0.1245142157463244</v>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.07214398356034597</v>
+        <v>0.02657776271635014</v>
       </c>
       <c r="G141" t="n">
-        <v>0.05773616931694431</v>
+        <v>0.1259205702569886</v>
       </c>
       <c r="J141" t="n">
-        <v>0.02375018074033118</v>
+        <v>0.01878873376806192</v>
       </c>
       <c r="K141" t="n">
-        <v>0.05926794191458901</v>
+        <v>0.1267077022367389</v>
       </c>
       <c r="L141" t="n">
-        <v>0.04776294691057348</v>
+        <v>0.03941764119433794</v>
       </c>
       <c r="M141" t="n">
-        <v>0.05891206458924017</v>
+        <v>0.1271938498719364</v>
       </c>
       <c r="N141" t="n">
-        <v>0.07446288953757435</v>
+        <v>0.05976398136979622</v>
       </c>
       <c r="O141" t="n">
-        <v>0.05865094990879536</v>
+        <v>0.1261744052896087</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.07233790142353423</v>
+        <v>0.02731050715307068</v>
       </c>
       <c r="G142" t="n">
-        <v>0.05849585575532515</v>
+        <v>0.1275774198656332</v>
       </c>
       <c r="J142" t="n">
-        <v>0.02371528771365967</v>
+        <v>0.01868426225296037</v>
       </c>
       <c r="K142" t="n">
-        <v>0.06004778325557045</v>
+        <v>0.128374908845117</v>
       </c>
       <c r="L142" t="n">
-        <v>0.04733107276119466</v>
+        <v>0.03906578965664068</v>
       </c>
       <c r="M142" t="n">
-        <v>0.05968722333383545</v>
+        <v>0.128867453159725</v>
       </c>
       <c r="N142" t="n">
-        <v>0.0736201440863184</v>
+        <v>0.05856193098608004</v>
       </c>
       <c r="O142" t="n">
-        <v>0.05942267293391109</v>
+        <v>0.1278345948328931</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.07252410338922173</v>
+        <v>0.02408947418751164</v>
       </c>
       <c r="G143" t="n">
-        <v>0.059255542193706</v>
+        <v>0.1292342694742778</v>
       </c>
       <c r="J143" t="n">
-        <v>0.02347803919226636</v>
+        <v>0.0184078108372726</v>
       </c>
       <c r="K143" t="n">
-        <v>0.06082762459655187</v>
+        <v>0.1300421154534952</v>
       </c>
       <c r="L143" t="n">
-        <v>0.04669543338206039</v>
+        <v>0.03866771136082447</v>
       </c>
       <c r="M143" t="n">
-        <v>0.06046238207843071</v>
+        <v>0.1305410564475136</v>
       </c>
       <c r="N143" t="n">
-        <v>0.07356438281044925</v>
+        <v>0.05795636667746029</v>
       </c>
       <c r="O143" t="n">
-        <v>0.06019439595902681</v>
+        <v>0.1294947843761774</v>
       </c>
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.07270250547324826</v>
+        <v>0.023922130101155</v>
       </c>
       <c r="G144" t="n">
-        <v>0.06001522863208684</v>
+        <v>0.1308911190829224</v>
       </c>
       <c r="J144" t="n">
-        <v>0.02333881274256427</v>
+        <v>0.01826457371839185</v>
       </c>
       <c r="K144" t="n">
-        <v>0.06160746593753331</v>
+        <v>0.1317093220618733</v>
       </c>
       <c r="L144" t="n">
-        <v>0.04665763961253117</v>
+        <v>0.03833436347493221</v>
       </c>
       <c r="M144" t="n">
-        <v>0.06123754082302597</v>
+        <v>0.1322146597353023</v>
       </c>
       <c r="N144" t="n">
-        <v>0.07249690454398611</v>
+        <v>0.0582635511812028</v>
       </c>
       <c r="O144" t="n">
-        <v>0.06096611898414254</v>
+        <v>0.1311549739194617</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.07287302369145358</v>
+        <v>0.02581594117548267</v>
       </c>
       <c r="G145" t="n">
-        <v>0.06077491507046769</v>
+        <v>0.1325479686915669</v>
       </c>
       <c r="J145" t="n">
-        <v>0.02339798593096649</v>
+        <v>0.0183597450937114</v>
       </c>
       <c r="K145" t="n">
-        <v>0.06238730727851474</v>
+        <v>0.1333765286702515</v>
       </c>
       <c r="L145" t="n">
-        <v>0.04611930229196748</v>
+        <v>0.03817670316700686</v>
       </c>
       <c r="M145" t="n">
-        <v>0.06201269956762124</v>
+        <v>0.1338882630230909</v>
       </c>
       <c r="N145" t="n">
-        <v>0.07251900812094814</v>
+        <v>0.0576997472345735</v>
       </c>
       <c r="O145" t="n">
-        <v>0.06173784200925827</v>
+        <v>0.132815163462746</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.07303557405967741</v>
+        <v>0.02677837369197653</v>
       </c>
       <c r="G146" t="n">
-        <v>0.06153460150884854</v>
+        <v>0.1342048183002115</v>
       </c>
       <c r="J146" t="n">
-        <v>0.02315593632388607</v>
+        <v>0.01819851916062443</v>
       </c>
       <c r="K146" t="n">
-        <v>0.06316714861949618</v>
+        <v>0.1350437352786296</v>
       </c>
       <c r="L146" t="n">
-        <v>0.04538203225972973</v>
+        <v>0.03770568760509133</v>
       </c>
       <c r="M146" t="n">
-        <v>0.0627878583122165</v>
+        <v>0.1355618663108795</v>
       </c>
       <c r="N146" t="n">
-        <v>0.07213199237535439</v>
+        <v>0.05738121757483833</v>
       </c>
       <c r="O146" t="n">
-        <v>0.06250956503437399</v>
+        <v>0.1344753530060303</v>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.07319007259375949</v>
+        <v>0.02678372266632513</v>
       </c>
       <c r="G147" t="n">
-        <v>0.06229428794722938</v>
+        <v>0.1358616679088561</v>
       </c>
       <c r="J147" t="n">
-        <v>0.02291304148773605</v>
+        <v>0.01808458971268476</v>
       </c>
       <c r="K147" t="n">
-        <v>0.06394698996047761</v>
+        <v>0.1367109418870077</v>
       </c>
       <c r="L147" t="n">
-        <v>0.04504744035517852</v>
+        <v>0.03773227395722853</v>
       </c>
       <c r="M147" t="n">
-        <v>0.06356301705681176</v>
+        <v>0.1372354695986682</v>
       </c>
       <c r="N147" t="n">
-        <v>0.07083715614122416</v>
+        <v>0.05718294069791674</v>
       </c>
       <c r="O147" t="n">
-        <v>0.06328128805948972</v>
+        <v>0.1361355425493146</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.07333643530953952</v>
+        <v>0.0257996379169973</v>
       </c>
       <c r="G148" t="n">
-        <v>0.06305397438561024</v>
+        <v>0.1375185175175007</v>
       </c>
       <c r="J148" t="n">
-        <v>0.02296967898892953</v>
+        <v>0.01819027648409779</v>
       </c>
       <c r="K148" t="n">
-        <v>0.06472683130145904</v>
+        <v>0.1383781484953859</v>
       </c>
       <c r="L148" t="n">
-        <v>0.04461713741767429</v>
+        <v>0.03813546963023931</v>
       </c>
       <c r="M148" t="n">
-        <v>0.06433817580140704</v>
+        <v>0.1389090728864568</v>
       </c>
       <c r="N148" t="n">
-        <v>0.07033579825257646</v>
+        <v>0.05781219247059016</v>
       </c>
       <c r="O148" t="n">
-        <v>0.06405301108460545</v>
+        <v>0.137795732092599</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.07347457822285734</v>
+        <v>0.02482556751494649</v>
       </c>
       <c r="G149" t="n">
-        <v>0.06381366082399108</v>
+        <v>0.1391753671261453</v>
       </c>
       <c r="J149" t="n">
-        <v>0.02272622639387953</v>
+        <v>0.01820316186558395</v>
       </c>
       <c r="K149" t="n">
-        <v>0.06550667264244048</v>
+        <v>0.140045355103764</v>
       </c>
       <c r="L149" t="n">
-        <v>0.04449273428657752</v>
+        <v>0.03795586425733988</v>
       </c>
       <c r="M149" t="n">
-        <v>0.06511333454600231</v>
+        <v>0.1405826761742454</v>
       </c>
       <c r="N149" t="n">
-        <v>0.07022921754343064</v>
+        <v>0.05756349205480737</v>
       </c>
       <c r="O149" t="n">
-        <v>0.06482473410972119</v>
+        <v>0.1394559216358833</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.07360441734955263</v>
+        <v>0.02486096284052912</v>
       </c>
       <c r="G150" t="n">
-        <v>0.06457334726237192</v>
+        <v>0.1408322167347899</v>
       </c>
       <c r="J150" t="n">
-        <v>0.02268306126899911</v>
+        <v>0.01832286418941083</v>
       </c>
       <c r="K150" t="n">
-        <v>0.06628651398342192</v>
+        <v>0.1417125617121422</v>
       </c>
       <c r="L150" t="n">
-        <v>0.04377584180124869</v>
+        <v>0.03799093816000659</v>
       </c>
       <c r="M150" t="n">
-        <v>0.06588849329059757</v>
+        <v>0.1422562794620341</v>
       </c>
       <c r="N150" t="n">
-        <v>0.06941871284780565</v>
+        <v>0.05743564447055821</v>
       </c>
       <c r="O150" t="n">
-        <v>0.06559645713483692</v>
+        <v>0.1411161111791676</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.07372586870546514</v>
+        <v>0.02390527527410162</v>
       </c>
       <c r="G151" t="n">
-        <v>0.06533303370075276</v>
+        <v>0.1424890663434345</v>
       </c>
       <c r="J151" t="n">
-        <v>0.02244056118070134</v>
+        <v>0.01814900178784605</v>
       </c>
       <c r="K151" t="n">
-        <v>0.06706635532440335</v>
+        <v>0.1433797683205203</v>
       </c>
       <c r="L151" t="n">
-        <v>0.04336807080104835</v>
+        <v>0.03793988620952304</v>
       </c>
       <c r="M151" t="n">
-        <v>0.06666365203519282</v>
+        <v>0.1439298827498227</v>
       </c>
       <c r="N151" t="n">
-        <v>0.06910558299972086</v>
+        <v>0.05752745473783227</v>
       </c>
       <c r="O151" t="n">
-        <v>0.06636818015995265</v>
+        <v>0.142776300722452</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.07383884830643463</v>
+        <v>0.02595795619602045</v>
       </c>
       <c r="G152" t="n">
-        <v>0.06609272013913361</v>
+        <v>0.1441459159520791</v>
       </c>
       <c r="J152" t="n">
-        <v>0.0223991036953993</v>
+        <v>0.01828119299315728</v>
       </c>
       <c r="K152" t="n">
-        <v>0.06784619666538479</v>
+        <v>0.1450469749288985</v>
       </c>
       <c r="L152" t="n">
-        <v>0.04277103212533689</v>
+        <v>0.03790190327717272</v>
       </c>
       <c r="M152" t="n">
-        <v>0.0674388107797881</v>
+        <v>0.1456034860376113</v>
       </c>
       <c r="N152" t="n">
-        <v>0.06849112683319525</v>
+        <v>0.05763772787661919</v>
       </c>
       <c r="O152" t="n">
-        <v>0.06713990318506838</v>
+        <v>0.1444364902657363</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.07394327216830084</v>
+        <v>0.02701845698664204</v>
       </c>
       <c r="G153" t="n">
-        <v>0.06685240657751447</v>
+        <v>0.1458027655607237</v>
       </c>
       <c r="J153" t="n">
-        <v>0.022059066379506</v>
+        <v>0.0183190561376121</v>
       </c>
       <c r="K153" t="n">
-        <v>0.06862603800636623</v>
+        <v>0.1467141815372766</v>
       </c>
       <c r="L153" t="n">
-        <v>0.04238633661347485</v>
+        <v>0.03787618423423922</v>
       </c>
       <c r="M153" t="n">
-        <v>0.06821396952438336</v>
+        <v>0.1472770893254</v>
       </c>
       <c r="N153" t="n">
-        <v>0.06777664318224813</v>
+        <v>0.05826526890690886</v>
       </c>
       <c r="O153" t="n">
-        <v>0.0679116262101841</v>
+        <v>0.1460966798090206</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.07403905630690351</v>
+        <v>0.02408622902632281</v>
       </c>
       <c r="G154" t="n">
-        <v>0.06761209301589531</v>
+        <v>0.1474596151693683</v>
       </c>
       <c r="J154" t="n">
-        <v>0.02202082679943454</v>
+        <v>0.01846220955347816</v>
       </c>
       <c r="K154" t="n">
-        <v>0.06940587934734765</v>
+        <v>0.1483813881456547</v>
       </c>
       <c r="L154" t="n">
-        <v>0.04211559510482274</v>
+        <v>0.03816192395200607</v>
       </c>
       <c r="M154" t="n">
-        <v>0.06898912826897863</v>
+        <v>0.1489506926131886</v>
       </c>
       <c r="N154" t="n">
-        <v>0.06656343088089856</v>
+        <v>0.0582088828486908</v>
       </c>
       <c r="O154" t="n">
-        <v>0.06868334923529983</v>
+        <v>0.1477568693523049</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.07412611673808238</v>
+        <v>0.0241607236954192</v>
       </c>
       <c r="G155" t="n">
-        <v>0.06837177945427615</v>
+        <v>0.1491164647780128</v>
       </c>
       <c r="J155" t="n">
-        <v>0.02188476252159796</v>
+        <v>0.01851027157302308</v>
       </c>
       <c r="K155" t="n">
-        <v>0.07018572068832908</v>
+        <v>0.1500485947540329</v>
       </c>
       <c r="L155" t="n">
-        <v>0.04216041843874102</v>
+        <v>0.03855831730175688</v>
       </c>
       <c r="M155" t="n">
-        <v>0.0697642870135739</v>
+        <v>0.1506242959009773</v>
       </c>
       <c r="N155" t="n">
-        <v>0.06595278876316568</v>
+        <v>0.05876737472195481</v>
       </c>
       <c r="O155" t="n">
-        <v>0.06945507226041556</v>
+        <v>0.1494170588955893</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.07420436947767718</v>
+        <v>0.02724139237428767</v>
       </c>
       <c r="G156" t="n">
-        <v>0.06913146589265699</v>
+        <v>0.1507733143866574</v>
       </c>
       <c r="J156" t="n">
-        <v>0.02185125111240933</v>
+        <v>0.01846286052851448</v>
       </c>
       <c r="K156" t="n">
-        <v>0.07096556202931052</v>
+        <v>0.151715801362411</v>
       </c>
       <c r="L156" t="n">
-        <v>0.04172241745459021</v>
+        <v>0.03826455915477509</v>
       </c>
       <c r="M156" t="n">
-        <v>0.07053944575816916</v>
+        <v>0.1522978991887659</v>
       </c>
       <c r="N156" t="n">
-        <v>0.06554601566306867</v>
+        <v>0.05853954954669049</v>
       </c>
       <c r="O156" t="n">
-        <v>0.07022679528553129</v>
+        <v>0.1510772484388736</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.07427373054152765</v>
+        <v>0.02632768644328462</v>
       </c>
       <c r="G157" t="n">
-        <v>0.06989115233103785</v>
+        <v>0.152430163995302</v>
       </c>
       <c r="J157" t="n">
-        <v>0.0217206701382817</v>
+        <v>0.01841959475221998</v>
       </c>
       <c r="K157" t="n">
-        <v>0.07174540337029196</v>
+        <v>0.1533830079707892</v>
       </c>
       <c r="L157" t="n">
-        <v>0.04140320299173073</v>
+        <v>0.03857984438234438</v>
       </c>
       <c r="M157" t="n">
-        <v>0.07131460450276443</v>
+        <v>0.1539715024765545</v>
       </c>
       <c r="N157" t="n">
-        <v>0.06544441041462673</v>
+        <v>0.05842421234288775</v>
       </c>
       <c r="O157" t="n">
-        <v>0.070998518310647</v>
+        <v>0.1527374379821579</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.07433411594547361</v>
+        <v>0.02641978307079711</v>
       </c>
       <c r="G158" t="n">
-        <v>0.07065083876941869</v>
+        <v>0.1540870136039466</v>
       </c>
       <c r="J158" t="n">
-        <v>0.02149086142826706</v>
+        <v>0.01858009257640722</v>
       </c>
       <c r="K158" t="n">
-        <v>0.07252524471127339</v>
+        <v>0.1550502145791673</v>
       </c>
       <c r="L158" t="n">
-        <v>0.04079941032228154</v>
+        <v>0.03840336785574827</v>
       </c>
       <c r="M158" t="n">
-        <v>0.07208976324735969</v>
+        <v>0.1556451057643432</v>
       </c>
       <c r="N158" t="n">
-        <v>0.06482452749506662</v>
+        <v>0.05912016813053605</v>
       </c>
       <c r="O158" t="n">
-        <v>0.07177024133576274</v>
+        <v>0.1543976275254423</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.0743854417053547</v>
+        <v>0.02657213381571558</v>
       </c>
       <c r="G159" t="n">
-        <v>0.07141052520779954</v>
+        <v>0.1557438632125911</v>
       </c>
       <c r="J159" t="n">
-        <v>0.02125770789601096</v>
+        <v>0.01875097300516548</v>
       </c>
       <c r="K159" t="n">
-        <v>0.07330508605225482</v>
+        <v>0.1567174211875455</v>
       </c>
       <c r="L159" t="n">
-        <v>0.04070302189385916</v>
+        <v>0.03903458151174408</v>
       </c>
       <c r="M159" t="n">
-        <v>0.07286492199195495</v>
+        <v>0.1573187090521318</v>
       </c>
       <c r="N159" t="n">
-        <v>0.06374623585457923</v>
+        <v>0.05890876076123697</v>
       </c>
       <c r="O159" t="n">
-        <v>0.07254196436087848</v>
+        <v>0.1560578170687266</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.07442762383701075</v>
+        <v>0.02780716087413732</v>
       </c>
       <c r="G160" t="n">
-        <v>0.07217021164618038</v>
+        <v>0.1574007128212357</v>
       </c>
       <c r="J160" t="n">
-        <v>0.02112127312976912</v>
+        <v>0.01887662956586365</v>
       </c>
       <c r="K160" t="n">
-        <v>0.07408492739323626</v>
+        <v>0.1583846277959236</v>
       </c>
       <c r="L160" t="n">
-        <v>0.04031333779939447</v>
+        <v>0.03894623684214293</v>
       </c>
       <c r="M160" t="n">
-        <v>0.07364008073655022</v>
+        <v>0.1589923123399204</v>
       </c>
       <c r="N160" t="n">
-        <v>0.06291246936484063</v>
+        <v>0.05988382742628839</v>
       </c>
       <c r="O160" t="n">
-        <v>0.0733136873859942</v>
+        <v>0.1577180066120109</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.07446057835628143</v>
+        <v>0.0271083027431638</v>
       </c>
       <c r="G161" t="n">
-        <v>0.07292989808456123</v>
+        <v>0.1590575624298803</v>
       </c>
       <c r="J161" t="n">
-        <v>0.02098169504350975</v>
+        <v>0.01885543938023101</v>
       </c>
       <c r="K161" t="n">
-        <v>0.0748647687342177</v>
+        <v>0.1600518344043017</v>
       </c>
       <c r="L161" t="n">
-        <v>0.04032978447872076</v>
+        <v>0.03947925164582572</v>
       </c>
       <c r="M161" t="n">
-        <v>0.07441523948114549</v>
+        <v>0.1606659156277091</v>
       </c>
       <c r="N161" t="n">
-        <v>0.06252692673090182</v>
+        <v>0.06021016034303783</v>
       </c>
       <c r="O161" t="n">
-        <v>0.07408541041110993</v>
+        <v>0.1593781961552952</v>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.07448422127900652</v>
+        <v>0.02745899791989657</v>
       </c>
       <c r="G162" t="n">
-        <v>0.07368958452294208</v>
+        <v>0.1607144120385249</v>
       </c>
       <c r="J162" t="n">
-        <v>0.02093911155120097</v>
+        <v>0.01917588082061501</v>
       </c>
       <c r="K162" t="n">
-        <v>0.07564461007519913</v>
+        <v>0.1617190410126799</v>
       </c>
       <c r="L162" t="n">
-        <v>0.03965178837167146</v>
+        <v>0.03970932103009034</v>
       </c>
       <c r="M162" t="n">
-        <v>0.07519039822574075</v>
+        <v>0.1623395189154977</v>
       </c>
       <c r="N162" t="n">
-        <v>0.06139330665781334</v>
+        <v>0.06135168594916118</v>
       </c>
       <c r="O162" t="n">
-        <v>0.07485713343622566</v>
+        <v>0.1610383856985795</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.07449846862102578</v>
+        <v>0.02784268490143715</v>
       </c>
       <c r="G163" t="n">
-        <v>0.07444927096132292</v>
+        <v>0.1623712616471695</v>
       </c>
       <c r="J163" t="n">
-        <v>0.02069366056681096</v>
+        <v>0.01942643225936323</v>
       </c>
       <c r="K163" t="n">
-        <v>0.07642445141618057</v>
+        <v>0.163386247621058</v>
       </c>
       <c r="L163" t="n">
-        <v>0.03947877591807997</v>
+        <v>0.04001214010223467</v>
       </c>
       <c r="M163" t="n">
-        <v>0.07596555697033602</v>
+        <v>0.1640131222032863</v>
       </c>
       <c r="N163" t="n">
-        <v>0.06061530785062635</v>
+        <v>0.06227233068233462</v>
       </c>
       <c r="O163" t="n">
-        <v>0.07562885646134139</v>
+        <v>0.1626985752418639</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.07450323639817889</v>
+        <v>0.02724280218488709</v>
       </c>
       <c r="G164" t="n">
-        <v>0.07520895739970378</v>
+        <v>0.1640281112558141</v>
       </c>
       <c r="J164" t="n">
-        <v>0.02054548000430786</v>
+        <v>0.01979557206882315</v>
       </c>
       <c r="K164" t="n">
-        <v>0.07720429275716199</v>
+        <v>0.1650534542294362</v>
       </c>
       <c r="L164" t="n">
-        <v>0.03921017355777962</v>
+        <v>0.04086340396955657</v>
       </c>
       <c r="M164" t="n">
-        <v>0.07674071571493128</v>
+        <v>0.165686725491075</v>
       </c>
       <c r="N164" t="n">
-        <v>0.05929662901439164</v>
+        <v>0.06283602098023405</v>
       </c>
       <c r="O164" t="n">
-        <v>0.07640057948645711</v>
+        <v>0.1643587647851482</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.07450323639817892</v>
+        <v>0.02664278826734789</v>
       </c>
       <c r="G165" t="n">
-        <v>0.07520895739970378</v>
+        <v>0.1656849608644587</v>
       </c>
       <c r="J165" t="n">
-        <v>0.02049470777765985</v>
+        <v>0.01987177862134226</v>
       </c>
       <c r="K165" t="n">
-        <v>0.07798413409814342</v>
+        <v>0.1667206608378143</v>
       </c>
       <c r="L165" t="n">
-        <v>0.03884540773060377</v>
+        <v>0.041338807739354</v>
       </c>
       <c r="M165" t="n">
-        <v>0.07751587445952654</v>
+        <v>0.1673603287788636</v>
       </c>
       <c r="N165" t="n">
-        <v>0.05884096885415996</v>
+        <v>0.06400668328053571</v>
       </c>
       <c r="O165" t="n">
-        <v>0.07717230251157284</v>
+        <v>0.1660189543284325</v>
       </c>
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="F166" t="n">
-        <v>0.07325156939989379</v>
+        <v>0.03002608164592109</v>
       </c>
       <c r="G166" t="n">
-        <v>0.07520868887123976</v>
+        <v>0.1673418104731033</v>
       </c>
       <c r="J166" t="n">
-        <v>0.02024148180083511</v>
+        <v>0.02014353028926812</v>
       </c>
       <c r="K166" t="n">
-        <v>0.07876397543912486</v>
+        <v>0.1683878674461925</v>
       </c>
       <c r="L166" t="n">
-        <v>0.03878390487638583</v>
+        <v>0.0422140465189248</v>
       </c>
       <c r="M166" t="n">
-        <v>0.07829103320412183</v>
+        <v>0.1690339320666523</v>
       </c>
       <c r="N166" t="n">
-        <v>0.05765202607498221</v>
+        <v>0.06414824402091562</v>
       </c>
       <c r="O166" t="n">
-        <v>0.07794402553668857</v>
+        <v>0.1676791438717168</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="F167" t="n">
-        <v>0.07201403775515049</v>
+        <v>0.02737612081770822</v>
       </c>
       <c r="G167" t="n">
-        <v>0.07520842034277575</v>
+        <v>0.1689986600817479</v>
       </c>
       <c r="J167" t="n">
-        <v>0.02018593998780177</v>
+        <v>0.02049930544494821</v>
       </c>
       <c r="K167" t="n">
-        <v>0.0795438167801063</v>
+        <v>0.1700550740545706</v>
       </c>
       <c r="L167" t="n">
-        <v>0.03832509143495924</v>
+        <v>0.04266481541556688</v>
       </c>
       <c r="M167" t="n">
-        <v>0.07906619194871709</v>
+        <v>0.1707075353544409</v>
       </c>
       <c r="N167" t="n">
-        <v>0.05663349938190931</v>
+        <v>0.06492462963904971</v>
       </c>
       <c r="O167" t="n">
-        <v>0.0787157485618043</v>
+        <v>0.1693393334150012</v>
       </c>
     </row>
     <row r="168" ht="15" customHeight="1">
       <c r="F168" t="n">
-        <v>0.07079133252497967</v>
+        <v>0.02967796055152329</v>
       </c>
       <c r="G168" t="n">
-        <v>0.07520815181431172</v>
+        <v>0.1706555096903924</v>
       </c>
       <c r="J168" t="n">
-        <v>0.020028220252528</v>
+        <v>0.02062758246073002</v>
       </c>
       <c r="K168" t="n">
-        <v>0.08032365812108773</v>
+        <v>0.1717222806629487</v>
       </c>
       <c r="L168" t="n">
-        <v>0.0384683938461573</v>
+        <v>0.04296680953657811</v>
       </c>
       <c r="M168" t="n">
-        <v>0.07984135069331234</v>
+        <v>0.1723811386422295</v>
       </c>
       <c r="N168" t="n">
-        <v>0.05558908747999208</v>
+        <v>0.06629989498243394</v>
       </c>
       <c r="O168" t="n">
-        <v>0.07948747158692002</v>
+        <v>0.1709995229582855</v>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1">
       <c r="F169" t="n">
-        <v>0.06958414477057127</v>
+        <v>0.02995773129955225</v>
       </c>
       <c r="G169" t="n">
-        <v>0.07520788328584771</v>
+        <v>0.172312359299037</v>
       </c>
       <c r="J169" t="n">
-        <v>0.01996846050898196</v>
+        <v>0.02092517123788692</v>
       </c>
       <c r="K169" t="n">
-        <v>0.08110349946206916</v>
+        <v>0.1733894872713269</v>
       </c>
       <c r="L169" t="n">
-        <v>0.0382132385498134</v>
+        <v>0.04329885536894698</v>
       </c>
       <c r="M169" t="n">
-        <v>0.08061650943790762</v>
+        <v>0.1740547419300182</v>
       </c>
       <c r="N169" t="n">
-        <v>0.05482248907428144</v>
+        <v>0.06620987258822464</v>
       </c>
       <c r="O169" t="n">
-        <v>0.08025919461203576</v>
+        <v>0.1726597125015698</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1">
       <c r="F170" t="n">
-        <v>0.06839316555295542</v>
+        <v>0.02823053126987</v>
       </c>
       <c r="G170" t="n">
-        <v>0.07520761475738369</v>
+        <v>0.1739692089076816</v>
       </c>
       <c r="J170" t="n">
-        <v>0.0198067986711318</v>
+        <v>0.02121538986587361</v>
       </c>
       <c r="K170" t="n">
-        <v>0.0818833408030506</v>
+        <v>0.175056693879705</v>
       </c>
       <c r="L170" t="n">
-        <v>0.03765905198576089</v>
+        <v>0.04360079389677651</v>
       </c>
       <c r="M170" t="n">
-        <v>0.08139166818250287</v>
+        <v>0.1757283452178068</v>
       </c>
       <c r="N170" t="n">
-        <v>0.05373740286982809</v>
+        <v>0.06700447857843955</v>
       </c>
       <c r="O170" t="n">
-        <v>0.08103091763715149</v>
+        <v>0.1743199020448541</v>
       </c>
     </row>
     <row r="171" ht="15" customHeight="1">
       <c r="F171" t="n">
-        <v>0.06721908593321556</v>
+        <v>0.02849688584319503</v>
       </c>
       <c r="G171" t="n">
-        <v>0.07520734622891967</v>
+        <v>0.1756260585163262</v>
       </c>
       <c r="J171" t="n">
-        <v>0.01954337265294571</v>
+        <v>0.02120093893566442</v>
       </c>
       <c r="K171" t="n">
-        <v>0.08266318214403204</v>
+        <v>0.1767239004880832</v>
       </c>
       <c r="L171" t="n">
-        <v>0.0377052605938332</v>
+        <v>0.04439264262155854</v>
       </c>
       <c r="M171" t="n">
-        <v>0.08216682692709813</v>
+        <v>0.1774019485055955</v>
       </c>
       <c r="N171" t="n">
-        <v>0.05273752757168298</v>
+        <v>0.06768485731504931</v>
       </c>
       <c r="O171" t="n">
-        <v>0.08180264066226721</v>
+        <v>0.1759800915881385</v>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1">
       <c r="F172" t="n">
-        <v>0.06606259697238541</v>
+        <v>0.03175732040024583</v>
       </c>
       <c r="G172" t="n">
-        <v>0.07520707770045565</v>
+        <v>0.1772829081249708</v>
       </c>
       <c r="J172" t="n">
-        <v>0.01927832036839183</v>
+        <v>0.02148218394796611</v>
       </c>
       <c r="K172" t="n">
-        <v>0.08344302348501347</v>
+        <v>0.1783911070964613</v>
       </c>
       <c r="L172" t="n">
-        <v>0.03705129081386369</v>
+        <v>0.04457517256764193</v>
       </c>
       <c r="M172" t="n">
-        <v>0.08294198567169342</v>
+        <v>0.1790755517933841</v>
       </c>
       <c r="N172" t="n">
-        <v>0.05102656188489713</v>
+        <v>0.06855215316002455</v>
       </c>
       <c r="O172" t="n">
-        <v>0.08257436368738294</v>
+        <v>0.1776402811314228</v>
       </c>
     </row>
     <row r="173" ht="15" customHeight="1">
       <c r="F173" t="n">
-        <v>0.06492438973164916</v>
+        <v>0.03001236032174086</v>
       </c>
       <c r="G173" t="n">
-        <v>0.07520680917199163</v>
+        <v>0.1789397577336154</v>
       </c>
       <c r="J173" t="n">
-        <v>0.01921177973143834</v>
+        <v>0.02175949040348543</v>
       </c>
       <c r="K173" t="n">
-        <v>0.08422286482599491</v>
+        <v>0.1800583137048395</v>
       </c>
       <c r="L173" t="n">
-        <v>0.03699656908568569</v>
+        <v>0.04474915475937574</v>
       </c>
       <c r="M173" t="n">
-        <v>0.08371714441628868</v>
+        <v>0.1807491550811727</v>
       </c>
       <c r="N173" t="n">
-        <v>0.05010820451452108</v>
+        <v>0.06870751047533558</v>
       </c>
       <c r="O173" t="n">
-        <v>0.08334608671249867</v>
+        <v>0.1793004706747071</v>
       </c>
     </row>
     <row r="174" ht="15" customHeight="1">
       <c r="F174" t="n">
-        <v>0.06380515527203967</v>
+        <v>0.03126253098839861</v>
       </c>
       <c r="G174" t="n">
-        <v>0.07520654064352762</v>
+        <v>0.18059660734226</v>
       </c>
       <c r="J174" t="n">
-        <v>0.01914388865605336</v>
+        <v>0.02183322380292908</v>
       </c>
       <c r="K174" t="n">
-        <v>0.08500270616697635</v>
+        <v>0.1817255203132176</v>
       </c>
       <c r="L174" t="n">
-        <v>0.03654052184913265</v>
+        <v>0.04521536022110897</v>
       </c>
       <c r="M174" t="n">
-        <v>0.08449230316088394</v>
+        <v>0.1824227583689614</v>
       </c>
       <c r="N174" t="n">
-        <v>0.04938615416560599</v>
+        <v>0.06925207362295299</v>
       </c>
       <c r="O174" t="n">
-        <v>0.0841178097376144</v>
+        <v>0.1809606602179915</v>
       </c>
     </row>
     <row r="175" ht="15" customHeight="1">
       <c r="F175" t="n">
-        <v>0.06270558465464048</v>
+        <v>0.03050835778093756</v>
       </c>
       <c r="G175" t="n">
-        <v>0.0752062721150636</v>
+        <v>0.1822534569509046</v>
       </c>
       <c r="J175" t="n">
-        <v>0.01897478505620509</v>
+        <v>0.02200374964700387</v>
       </c>
       <c r="K175" t="n">
-        <v>0.08578254750795777</v>
+        <v>0.1833927269215958</v>
       </c>
       <c r="L175" t="n">
-        <v>0.03668257554403798</v>
+        <v>0.04577455997719054</v>
       </c>
       <c r="M175" t="n">
-        <v>0.08526746190547921</v>
+        <v>0.18409636165675</v>
       </c>
       <c r="N175" t="n">
-        <v>0.04766410954320255</v>
+        <v>0.06998698696484745</v>
       </c>
       <c r="O175" t="n">
-        <v>0.08488953276273012</v>
+        <v>0.1826208497612758</v>
       </c>
     </row>
     <row r="176" ht="15" customHeight="1">
       <c r="F176" t="n">
-        <v>0.06162636894048863</v>
+        <v>0.0307503660800762</v>
       </c>
       <c r="G176" t="n">
-        <v>0.07520600358659958</v>
+        <v>0.1839103065595492</v>
       </c>
       <c r="J176" t="n">
-        <v>0.0186046068458617</v>
+        <v>0.02227143343641649</v>
       </c>
       <c r="K176" t="n">
-        <v>0.0865623888489392</v>
+        <v>0.1850599335299739</v>
       </c>
       <c r="L176" t="n">
-        <v>0.03632215661023494</v>
+        <v>0.04632752505196949</v>
       </c>
       <c r="M176" t="n">
-        <v>0.08604262065007447</v>
+        <v>0.1857699649445386</v>
       </c>
       <c r="N176" t="n">
-        <v>0.04644576935236161</v>
+        <v>0.07041339486298942</v>
       </c>
       <c r="O176" t="n">
-        <v>0.08566125578784585</v>
+        <v>0.1842810393045601</v>
       </c>
     </row>
     <row r="177" ht="15" customHeight="1">
       <c r="F177" t="n">
-        <v>0.06056819919076165</v>
+        <v>0.03098908126653299</v>
       </c>
       <c r="G177" t="n">
-        <v>0.07520573505813556</v>
+        <v>0.1855671561681937</v>
       </c>
       <c r="J177" t="n">
-        <v>0.01863349193899132</v>
+        <v>0.02233664067187371</v>
       </c>
       <c r="K177" t="n">
-        <v>0.08734223018992064</v>
+        <v>0.186727140138352</v>
       </c>
       <c r="L177" t="n">
-        <v>0.03565869148755696</v>
+        <v>0.04667502646979477</v>
       </c>
       <c r="M177" t="n">
-        <v>0.08681777939466973</v>
+        <v>0.1874435682323272</v>
       </c>
       <c r="N177" t="n">
-        <v>0.04523483229813413</v>
+        <v>0.07073244167934933</v>
       </c>
       <c r="O177" t="n">
-        <v>0.08643297881296158</v>
+        <v>0.1859412288478444</v>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1">
       <c r="F178" t="n">
-        <v>0.05953176646649566</v>
+        <v>0.03022502872102639</v>
       </c>
       <c r="G178" t="n">
-        <v>0.07520546652967156</v>
+        <v>0.1872240057768383</v>
       </c>
       <c r="J178" t="n">
-        <v>0.01846157824956213</v>
+        <v>0.02249973685408227</v>
       </c>
       <c r="K178" t="n">
-        <v>0.08812207153090208</v>
+        <v>0.1883943467467302</v>
       </c>
       <c r="L178" t="n">
-        <v>0.03539160661583743</v>
+        <v>0.04671783525501533</v>
       </c>
       <c r="M178" t="n">
-        <v>0.08759293813926501</v>
+        <v>0.1891171715201159</v>
       </c>
       <c r="N178" t="n">
-        <v>0.04483499708557087</v>
+        <v>0.07154527177589787</v>
       </c>
       <c r="O178" t="n">
-        <v>0.08720470183807731</v>
+        <v>0.1876014183911287</v>
       </c>
     </row>
     <row r="179" ht="15" customHeight="1">
       <c r="F179" t="n">
-        <v>0.05851776182877426</v>
+        <v>0.03345886649725288</v>
       </c>
       <c r="G179" t="n">
-        <v>0.07520519800120753</v>
+        <v>0.1888808553854829</v>
       </c>
       <c r="J179" t="n">
-        <v>0.01808900369154227</v>
+        <v>0.02266108748374891</v>
       </c>
       <c r="K179" t="n">
-        <v>0.08890191287188351</v>
+        <v>0.1900615533551083</v>
       </c>
       <c r="L179" t="n">
-        <v>0.03542032843490969</v>
+        <v>0.04685672243198019</v>
       </c>
       <c r="M179" t="n">
-        <v>0.08836809688386027</v>
+        <v>0.1907907748079045</v>
       </c>
       <c r="N179" t="n">
-        <v>0.0431499624197228</v>
+        <v>0.07175302951460549</v>
       </c>
       <c r="O179" t="n">
-        <v>0.08797642486319304</v>
+        <v>0.1892616079344131</v>
       </c>
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="F180" t="n">
-        <v>0.05752687633863836</v>
+        <v>0.0307027846785129</v>
       </c>
       <c r="G180" t="n">
-        <v>0.07520492947274351</v>
+        <v>0.1905377049941275</v>
       </c>
       <c r="J180" t="n">
-        <v>0.01791590617889993</v>
+        <v>0.02282353066722896</v>
       </c>
       <c r="K180" t="n">
-        <v>0.08968175421286494</v>
+        <v>0.1917287599634865</v>
       </c>
       <c r="L180" t="n">
-        <v>0.03524428338460722</v>
+        <v>0.04749352205079646</v>
       </c>
       <c r="M180" t="n">
-        <v>0.08914325562845553</v>
+        <v>0.1924643780956932</v>
       </c>
       <c r="N180" t="n">
-        <v>0.04248342700564056</v>
+        <v>0.07207611559910659</v>
       </c>
       <c r="O180" t="n">
-        <v>0.08874814788830877</v>
+        <v>0.1909217974776974</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1">
       <c r="F181" t="n">
-        <v>0.05655980105725782</v>
+        <v>0.03095811742368187</v>
       </c>
       <c r="G181" t="n">
-        <v>0.07520466094427949</v>
+        <v>0.1921945546027721</v>
       </c>
       <c r="J181" t="n">
-        <v>0.01794242362560326</v>
+        <v>0.02289563915816339</v>
       </c>
       <c r="K181" t="n">
-        <v>0.09046159555384638</v>
+        <v>0.1933959665718646</v>
       </c>
       <c r="L181" t="n">
-        <v>0.03466289790476326</v>
+        <v>0.04794775190879275</v>
       </c>
       <c r="M181" t="n">
-        <v>0.0899184143730508</v>
+        <v>0.1941379813834818</v>
       </c>
       <c r="N181" t="n">
-        <v>0.04123908954837535</v>
+        <v>0.07282723409073494</v>
       </c>
       <c r="O181" t="n">
-        <v>0.0895198709134245</v>
+        <v>0.1925819870209817</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1">
       <c r="F182" t="n">
-        <v>0.05561722704567253</v>
+        <v>0.03321583961864517</v>
       </c>
       <c r="G182" t="n">
-        <v>0.07520439241581549</v>
+        <v>0.1938514042114167</v>
       </c>
       <c r="J182" t="n">
-        <v>0.01766869394562041</v>
+        <v>0.02307263698075644</v>
       </c>
       <c r="K182" t="n">
-        <v>0.09124143689482782</v>
+        <v>0.1950631731802427</v>
       </c>
       <c r="L182" t="n">
-        <v>0.03437559843521126</v>
+        <v>0.04811645811594994</v>
       </c>
       <c r="M182" t="n">
-        <v>0.09069357311764606</v>
+        <v>0.1958115846712704</v>
       </c>
       <c r="N182" t="n">
-        <v>0.04042064875297768</v>
+        <v>0.07318682917698255</v>
       </c>
       <c r="O182" t="n">
-        <v>0.09029159393854022</v>
+        <v>0.194242176564266</v>
       </c>
     </row>
     <row r="183" ht="15" customHeight="1">
       <c r="F183" t="n">
-        <v>0.05469984536496605</v>
+        <v>0.03146692614928819</v>
       </c>
       <c r="G183" t="n">
-        <v>0.07520412388735147</v>
+        <v>0.1955082538200613</v>
       </c>
       <c r="J183" t="n">
-        <v>0.01739485505291956</v>
+        <v>0.02344824547751019</v>
       </c>
       <c r="K183" t="n">
-        <v>0.09202127823580925</v>
+        <v>0.1967303797886209</v>
       </c>
       <c r="L183" t="n">
-        <v>0.03448181141578463</v>
+        <v>0.04858639583383009</v>
       </c>
       <c r="M183" t="n">
-        <v>0.09146873186224132</v>
+        <v>0.1974851879590591</v>
       </c>
       <c r="N183" t="n">
-        <v>0.03923180332449877</v>
+        <v>0.07403524273753959</v>
       </c>
       <c r="O183" t="n">
-        <v>0.09106331696365595</v>
+        <v>0.1959023661075504</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1">
       <c r="F184" t="n">
-        <v>0.05380834707618375</v>
+        <v>0.0327023519014962</v>
       </c>
       <c r="G184" t="n">
-        <v>0.07520385535888745</v>
+        <v>0.1971651034287059</v>
       </c>
       <c r="J184" t="n">
-        <v>0.01732104486146886</v>
+        <v>0.02361618599092673</v>
       </c>
       <c r="K184" t="n">
-        <v>0.09280111957679069</v>
+        <v>0.198397586396999</v>
       </c>
       <c r="L184" t="n">
-        <v>0.03408096328631668</v>
+        <v>0.04894432022399514</v>
       </c>
       <c r="M184" t="n">
-        <v>0.0922438906068366</v>
+        <v>0.1991587912468477</v>
       </c>
       <c r="N184" t="n">
-        <v>0.03807625196798914</v>
+        <v>0.07495281665209569</v>
       </c>
       <c r="O184" t="n">
-        <v>0.09183503998877168</v>
+        <v>0.1975625556508347</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1">
       <c r="F185" t="n">
-        <v>0.05294342324048676</v>
+        <v>0.03291309176115462</v>
       </c>
       <c r="G185" t="n">
-        <v>0.07520358683042343</v>
+        <v>0.1988219530373504</v>
       </c>
       <c r="J185" t="n">
-        <v>0.01704740128523646</v>
+        <v>0.02367017986350811</v>
       </c>
       <c r="K185" t="n">
-        <v>0.09358096091777213</v>
+        <v>0.2000647930053772</v>
       </c>
       <c r="L185" t="n">
-        <v>0.03337248048664085</v>
+        <v>0.04937698644800714</v>
       </c>
       <c r="M185" t="n">
-        <v>0.09301904935143186</v>
+        <v>0.2008323945346364</v>
       </c>
       <c r="N185" t="n">
-        <v>0.03715769338849984</v>
+        <v>0.07511989280034059</v>
       </c>
       <c r="O185" t="n">
-        <v>0.09260676301388741</v>
+        <v>0.199222745194119</v>
       </c>
     </row>
     <row r="186" ht="15" customHeight="1">
       <c r="F186" t="n">
-        <v>0.05210576491891931</v>
+        <v>0.03309012061414873</v>
       </c>
       <c r="G186" t="n">
-        <v>0.07520331830195941</v>
+        <v>0.200478802645995</v>
       </c>
       <c r="J186" t="n">
-        <v>0.01707406223819057</v>
+        <v>0.02390394843775644</v>
       </c>
       <c r="K186" t="n">
-        <v>0.09436080225875354</v>
+        <v>0.2017319996137553</v>
       </c>
       <c r="L186" t="n">
-        <v>0.03345578945659045</v>
+        <v>0.04957114966742804</v>
       </c>
       <c r="M186" t="n">
-        <v>0.09379420809602712</v>
+        <v>0.202505997822425</v>
       </c>
       <c r="N186" t="n">
-        <v>0.03697982629108165</v>
+        <v>0.07571681306196437</v>
       </c>
       <c r="O186" t="n">
-        <v>0.09337848603900313</v>
+        <v>0.2008829347374033</v>
       </c>
     </row>
     <row r="187" ht="15" customHeight="1">
       <c r="F187" t="n">
-        <v>0.05129606317256497</v>
+        <v>0.03322441334636396</v>
       </c>
       <c r="G187" t="n">
-        <v>0.0752030497734954</v>
+        <v>0.2021356522546396</v>
       </c>
       <c r="J187" t="n">
-        <v>0.01670116563429927</v>
+        <v>0.02401121305617383</v>
       </c>
       <c r="K187" t="n">
-        <v>0.09514064359973498</v>
+        <v>0.2033992062221335</v>
       </c>
       <c r="L187" t="n">
-        <v>0.03313031663599889</v>
+        <v>0.04951356504381987</v>
       </c>
       <c r="M187" t="n">
-        <v>0.09456936684062239</v>
+        <v>0.2041796011102136</v>
       </c>
       <c r="N187" t="n">
-        <v>0.0358463493807854</v>
+        <v>0.0754239193166566</v>
       </c>
       <c r="O187" t="n">
-        <v>0.09415020906411886</v>
+        <v>0.2025431242806877</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1">
       <c r="F188" t="n">
-        <v>0.05051500906247387</v>
+        <v>0.03432077900820285</v>
       </c>
       <c r="G188" t="n">
-        <v>0.07520278124503137</v>
+        <v>0.2037925018632842</v>
       </c>
       <c r="J188" t="n">
-        <v>0.0166288493875308</v>
+        <v>0.02388671783507866</v>
       </c>
       <c r="K188" t="n">
-        <v>0.09592048494071642</v>
+        <v>0.2050664128305116</v>
       </c>
       <c r="L188" t="n">
-        <v>0.03249548846469955</v>
+        <v>0.05019098773874456</v>
       </c>
       <c r="M188" t="n">
-        <v>0.09534452558521765</v>
+        <v>0.2058532043980023</v>
       </c>
       <c r="N188" t="n">
-        <v>0.03456096136266207</v>
+        <v>0.0760398569016279</v>
       </c>
       <c r="O188" t="n">
-        <v>0.09492193208923459</v>
+        <v>0.204203313823972</v>
       </c>
     </row>
     <row r="189" ht="15" customHeight="1">
       <c r="F189" t="n">
-        <v>0.04976329364979762</v>
+        <v>0.03441297393745291</v>
       </c>
       <c r="G189" t="n">
-        <v>0.07520251271656736</v>
+        <v>0.2054493514719288</v>
       </c>
       <c r="J189" t="n">
-        <v>0.01635725141185326</v>
+        <v>0.02405072887242285</v>
       </c>
       <c r="K189" t="n">
-        <v>0.09670032628169785</v>
+        <v>0.2067336194388898</v>
       </c>
       <c r="L189" t="n">
-        <v>0.03255073138252582</v>
+        <v>0.04992596093318152</v>
       </c>
       <c r="M189" t="n">
-        <v>0.09611968432981292</v>
+        <v>0.2075268076857909</v>
       </c>
       <c r="N189" t="n">
-        <v>0.0346273609417625</v>
+        <v>0.07594054530694355</v>
       </c>
       <c r="O189" t="n">
-        <v>0.09569365511435032</v>
+        <v>0.2058635033672563</v>
       </c>
     </row>
     <row r="190" ht="15" customHeight="1">
       <c r="F190" t="n">
-        <v>0.04903878616282703</v>
+        <v>0.0345030886449476</v>
       </c>
       <c r="G190" t="n">
-        <v>0.07520224418810334</v>
+        <v>0.2071062010805734</v>
       </c>
       <c r="J190" t="n">
-        <v>0.01638650962123486</v>
+        <v>0.02401331248158983</v>
       </c>
       <c r="K190" t="n">
-        <v>0.09748016762267929</v>
+        <v>0.2084008260472679</v>
       </c>
       <c r="L190" t="n">
-        <v>0.03209547182931108</v>
+        <v>0.05015783296261278</v>
       </c>
       <c r="M190" t="n">
-        <v>0.0968948430744082</v>
+        <v>0.2092004109735795</v>
       </c>
       <c r="N190" t="n">
-        <v>0.03364924682313741</v>
+        <v>0.07623672269263498</v>
       </c>
       <c r="O190" t="n">
-        <v>0.09646537813946605</v>
+        <v>0.2075236929105407</v>
       </c>
     </row>
     <row r="191" ht="15" customHeight="1">
       <c r="F191" t="n">
-        <v>0.04832524666609836</v>
+        <v>0.03259108991704568</v>
       </c>
       <c r="G191" t="n">
-        <v>0.07520197565963933</v>
+        <v>0.2087630506892179</v>
       </c>
       <c r="J191" t="n">
-        <v>0.01601676192964374</v>
+        <v>0.0242744455562704</v>
       </c>
       <c r="K191" t="n">
-        <v>0.09826000896366072</v>
+        <v>0.2100680326556461</v>
       </c>
       <c r="L191" t="n">
-        <v>0.03162913624488864</v>
+        <v>0.05038667056858395</v>
       </c>
       <c r="M191" t="n">
-        <v>0.09767000181900345</v>
+        <v>0.2108740142613682</v>
       </c>
       <c r="N191" t="n">
-        <v>0.03283031771183781</v>
+        <v>0.07692831671415951</v>
       </c>
       <c r="O191" t="n">
-        <v>0.09723710116458179</v>
+        <v>0.209183882453825</v>
       </c>
     </row>
     <row r="192" ht="15" customHeight="1">
       <c r="F192" t="n">
-        <v>0.04762054438790705</v>
+        <v>0.03467694454010603</v>
       </c>
       <c r="G192" t="n">
-        <v>0.0752017071311753</v>
+        <v>0.2104199002978625</v>
       </c>
       <c r="J192" t="n">
-        <v>0.01604814625104808</v>
+        <v>0.02433410499015531</v>
       </c>
       <c r="K192" t="n">
-        <v>0.09903985030464216</v>
+        <v>0.2117352392640242</v>
       </c>
       <c r="L192" t="n">
-        <v>0.03135115106909198</v>
+        <v>0.0502124250082974</v>
       </c>
       <c r="M192" t="n">
-        <v>0.09844516056359871</v>
+        <v>0.2125476175491568</v>
       </c>
       <c r="N192" t="n">
-        <v>0.03257427231291454</v>
+        <v>0.07681525502697412</v>
       </c>
       <c r="O192" t="n">
-        <v>0.09800882418969752</v>
+        <v>0.2108440719971093</v>
       </c>
     </row>
     <row r="193" ht="15" customHeight="1">
       <c r="F193" t="n">
-        <v>0.04692537038939802</v>
+        <v>0.03276061930048743</v>
       </c>
       <c r="G193" t="n">
-        <v>0.07520143860271129</v>
+        <v>0.2120767499065071</v>
       </c>
       <c r="J193" t="n">
-        <v>0.01588038755163475</v>
+        <v>0.02439226767693543</v>
       </c>
       <c r="K193" t="n">
-        <v>0.09981969164562358</v>
+        <v>0.2134024458724023</v>
       </c>
       <c r="L193" t="n">
-        <v>0.03064677312719041</v>
+        <v>0.05063504753895534</v>
       </c>
       <c r="M193" t="n">
-        <v>0.09922031930819399</v>
+        <v>0.2142212208369454</v>
       </c>
       <c r="N193" t="n">
-        <v>0.03186384185711477</v>
+        <v>0.07739746528653618</v>
       </c>
       <c r="O193" t="n">
-        <v>0.09878054721481323</v>
+        <v>0.2125042615403936</v>
       </c>
     </row>
     <row r="194" ht="15" customHeight="1">
       <c r="F194" t="n">
-        <v>0.04624041573162395</v>
+        <v>0.03484208098454866</v>
       </c>
       <c r="G194" t="n">
-        <v>0.07520117007424727</v>
+        <v>0.2137335995151517</v>
       </c>
       <c r="J194" t="n">
-        <v>0.01561300179209082</v>
+        <v>0.02434891051030151</v>
       </c>
       <c r="K194" t="n">
-        <v>0.100599532986605</v>
+        <v>0.2150696524807805</v>
       </c>
       <c r="L194" t="n">
-        <v>0.03049917030158697</v>
+        <v>0.05045448941776012</v>
       </c>
       <c r="M194" t="n">
-        <v>0.09999547805278924</v>
+        <v>0.2158948241247341</v>
       </c>
       <c r="N194" t="n">
-        <v>0.03097358641740378</v>
+        <v>0.07677487514830272</v>
       </c>
       <c r="O194" t="n">
-        <v>0.09955227023992896</v>
+        <v>0.2141644510836779</v>
       </c>
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="F195" t="n">
-        <v>0.0455663714756684</v>
+        <v>0.03392129637864856</v>
       </c>
       <c r="G195" t="n">
-        <v>0.07520090154578325</v>
+        <v>0.2153904491237963</v>
       </c>
       <c r="J195" t="n">
-        <v>0.01544592750481875</v>
+        <v>0.02440401038394435</v>
       </c>
       <c r="K195" t="n">
-        <v>0.1013793743275865</v>
+        <v>0.2167368590891586</v>
       </c>
       <c r="L195" t="n">
-        <v>0.02981104196668816</v>
+        <v>0.05107070190191401</v>
       </c>
       <c r="M195" t="n">
-        <v>0.1007706367973845</v>
+        <v>0.2175684274125227</v>
       </c>
       <c r="N195" t="n">
-        <v>0.03130244417226885</v>
+        <v>0.07694741226773105</v>
       </c>
       <c r="O195" t="n">
-        <v>0.1003239932650447</v>
+        <v>0.2158246406269623</v>
       </c>
     </row>
     <row r="196" ht="15" customHeight="1">
       <c r="F196" t="n">
-        <v>0.04490392868258636</v>
+        <v>0.0329982322691459</v>
       </c>
       <c r="G196" t="n">
-        <v>0.07520063301731923</v>
+        <v>0.2170472987324409</v>
       </c>
       <c r="J196" t="n">
-        <v>0.01527910416294279</v>
+        <v>0.02445754419155477</v>
       </c>
       <c r="K196" t="n">
-        <v>0.1021592156685679</v>
+        <v>0.2184040656975367</v>
       </c>
       <c r="L196" t="n">
-        <v>0.02928516417578914</v>
+        <v>0.05068363624861932</v>
       </c>
       <c r="M196" t="n">
-        <v>0.1015457955419798</v>
+        <v>0.2192420307003113</v>
       </c>
       <c r="N196" t="n">
-        <v>0.03004942966753771</v>
+        <v>0.07721500430027833</v>
       </c>
       <c r="O196" t="n">
-        <v>0.1010957162901604</v>
+        <v>0.2174848301702466</v>
       </c>
     </row>
     <row r="197" ht="15" customHeight="1">
       <c r="F197" t="n">
-        <v>0.04425377841351906</v>
+        <v>0.03607285544239953</v>
       </c>
       <c r="G197" t="n">
-        <v>0.07520036448885521</v>
+        <v>0.2187041483410855</v>
       </c>
       <c r="J197" t="n">
-        <v>0.01521247123958713</v>
+        <v>0.02460948882682358</v>
       </c>
       <c r="K197" t="n">
-        <v>0.1029390570095493</v>
+        <v>0.2200712723059149</v>
       </c>
       <c r="L197" t="n">
-        <v>0.02902431298218497</v>
+        <v>0.0510932437150784</v>
       </c>
       <c r="M197" t="n">
-        <v>0.102320954286575</v>
+        <v>0.2209156339881</v>
       </c>
       <c r="N197" t="n">
-        <v>0.02971355744903853</v>
+        <v>0.0780775789014016</v>
       </c>
       <c r="O197" t="n">
-        <v>0.1018674393152761</v>
+        <v>0.2191450197135309</v>
       </c>
     </row>
     <row r="198" ht="15" customHeight="1">
       <c r="F198" t="n">
-        <v>0.043616611729521</v>
+        <v>0.03314513268476824</v>
       </c>
       <c r="G198" t="n">
-        <v>0.07520009596039121</v>
+        <v>0.2203609979497301</v>
       </c>
       <c r="J198" t="n">
-        <v>0.014945968207876</v>
+        <v>0.02465982118344152</v>
       </c>
       <c r="K198" t="n">
-        <v>0.1037188983505308</v>
+        <v>0.221738478914293</v>
       </c>
       <c r="L198" t="n">
-        <v>0.0282312644391709</v>
+        <v>0.05089947555849342</v>
       </c>
       <c r="M198" t="n">
-        <v>0.1030961130311703</v>
+        <v>0.2225892372758886</v>
       </c>
       <c r="N198" t="n">
-        <v>0.02929384206259916</v>
+        <v>0.0777350637265582</v>
       </c>
       <c r="O198" t="n">
-        <v>0.1026391623403919</v>
+        <v>0.2208052092568152</v>
       </c>
     </row>
     <row r="199" ht="15" customHeight="1">
       <c r="F199" t="n">
-        <v>0.04299311969167569</v>
+        <v>0.03521503078261082</v>
       </c>
       <c r="G199" t="n">
-        <v>0.07519982743192719</v>
+        <v>0.2220178475583746</v>
       </c>
       <c r="J199" t="n">
-        <v>0.01487953454093363</v>
+        <v>0.02460851815509944</v>
       </c>
       <c r="K199" t="n">
-        <v>0.1044987396915122</v>
+        <v>0.2234056855226712</v>
       </c>
       <c r="L199" t="n">
-        <v>0.02740879460004203</v>
+        <v>0.05150228303606677</v>
       </c>
       <c r="M199" t="n">
-        <v>0.1038712717757656</v>
+        <v>0.2242628405636773</v>
       </c>
       <c r="N199" t="n">
-        <v>0.02938929805404744</v>
+        <v>0.07808738643120522</v>
       </c>
       <c r="O199" t="n">
-        <v>0.1034108853655076</v>
+        <v>0.2224653988000996</v>
       </c>
     </row>
     <row r="200" ht="15" customHeight="1">
       <c r="F200" t="n">
-        <v>0.04238399336104051</v>
+        <v>0.03428251652228609</v>
       </c>
       <c r="G200" t="n">
-        <v>0.07519955890346317</v>
+        <v>0.2236746971670192</v>
       </c>
       <c r="J200" t="n">
-        <v>0.01451310971188421</v>
+        <v>0.02465555663548812</v>
       </c>
       <c r="K200" t="n">
-        <v>0.1052785810324936</v>
+        <v>0.2250728921310493</v>
       </c>
       <c r="L200" t="n">
-        <v>0.02685967951809354</v>
+        <v>0.05130161740500072</v>
       </c>
       <c r="M200" t="n">
-        <v>0.1046464305203608</v>
+        <v>0.2259364438514659</v>
       </c>
       <c r="N200" t="n">
-        <v>0.02919893996921147</v>
+        <v>0.07843447467079995</v>
       </c>
       <c r="O200" t="n">
-        <v>0.1041826083906233</v>
+        <v>0.2241255883433839</v>
       </c>
     </row>
     <row r="201" ht="15" customHeight="1">
       <c r="F201" t="n">
-        <v>0.04178992379875208</v>
+        <v>0.03634755669015285</v>
       </c>
       <c r="G201" t="n">
-        <v>0.07519929037499914</v>
+        <v>0.2253315467756638</v>
       </c>
       <c r="J201" t="n">
-        <v>0.01454663319385195</v>
+        <v>0.02480091351829837</v>
       </c>
       <c r="K201" t="n">
-        <v>0.1060584223734751</v>
+        <v>0.2267400987394275</v>
       </c>
       <c r="L201" t="n">
-        <v>0.02618669524662043</v>
+        <v>0.0516974299224976</v>
       </c>
       <c r="M201" t="n">
-        <v>0.1054215892649561</v>
+        <v>0.2276100471392545</v>
       </c>
       <c r="N201" t="n">
-        <v>0.02882178235391902</v>
+        <v>0.07857625610079944</v>
       </c>
       <c r="O201" t="n">
-        <v>0.1049543314157391</v>
+        <v>0.2257857778866682</v>
       </c>
     </row>
     <row r="202" ht="15" customHeight="1">
       <c r="F202" t="n">
-        <v>0.04121160206586712</v>
+        <v>0.03441011807256991</v>
       </c>
       <c r="G202" t="n">
-        <v>0.07519902184653514</v>
+        <v>0.2269883963843084</v>
       </c>
       <c r="J202" t="n">
-        <v>0.0141800444599611</v>
+        <v>0.02484456569722097</v>
       </c>
       <c r="K202" t="n">
-        <v>0.1068382637144565</v>
+        <v>0.2284073053478056</v>
       </c>
       <c r="L202" t="n">
-        <v>0.02579261783891801</v>
+        <v>0.05148967184575964</v>
       </c>
       <c r="M202" t="n">
-        <v>0.1061967480095514</v>
+        <v>0.2292836504270432</v>
       </c>
       <c r="N202" t="n">
-        <v>0.02795683975399826</v>
+        <v>0.0788126583766609</v>
       </c>
       <c r="O202" t="n">
-        <v>0.1057260544408548</v>
+        <v>0.2274459674299525</v>
       </c>
     </row>
     <row r="203" ht="15" customHeight="1">
       <c r="F203" t="n">
-        <v>0.04064971922346917</v>
+        <v>0.0364701674558961</v>
       </c>
       <c r="G203" t="n">
-        <v>0.07519875331807112</v>
+        <v>0.228645245992953</v>
       </c>
       <c r="J203" t="n">
-        <v>0.01401328298333589</v>
+        <v>0.02468649006594674</v>
       </c>
       <c r="K203" t="n">
-        <v>0.1076181050554379</v>
+        <v>0.2300745119561838</v>
       </c>
       <c r="L203" t="n">
-        <v>0.02478022334828139</v>
+        <v>0.05187829443198919</v>
       </c>
       <c r="M203" t="n">
-        <v>0.1069719067541466</v>
+        <v>0.2309572537148318</v>
       </c>
       <c r="N203" t="n">
-        <v>0.02750312671527705</v>
+        <v>0.07874360915384154</v>
       </c>
       <c r="O203" t="n">
-        <v>0.1064977774659705</v>
+        <v>0.2291061569732369</v>
       </c>
     </row>
     <row r="204" ht="15" customHeight="1">
       <c r="F204" t="n">
-        <v>0.04010496633261847</v>
+        <v>0.03652767162649018</v>
       </c>
       <c r="G204" t="n">
-        <v>0.0751984847896071</v>
+        <v>0.2303020956015976</v>
       </c>
       <c r="J204" t="n">
-        <v>0.01404628823710047</v>
+        <v>0.02482666351816645</v>
       </c>
       <c r="K204" t="n">
-        <v>0.1083979463964194</v>
+        <v>0.2317417185645619</v>
       </c>
       <c r="L204" t="n">
-        <v>0.02405228782800567</v>
+        <v>0.05166324893838853</v>
       </c>
       <c r="M204" t="n">
-        <v>0.1077470654987419</v>
+        <v>0.2326308570026205</v>
       </c>
       <c r="N204" t="n">
-        <v>0.0276596577835832</v>
+        <v>0.07866903608779852</v>
       </c>
       <c r="O204" t="n">
-        <v>0.1072695004910862</v>
+        <v>0.2307663465165212</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1">
       <c r="F205" t="n">
-        <v>0.03957803445444602</v>
+        <v>0.03658259737071101</v>
       </c>
       <c r="G205" t="n">
-        <v>0.07519821626114308</v>
+        <v>0.2319589452102422</v>
       </c>
       <c r="J205" t="n">
-        <v>0.01367899969437911</v>
+        <v>0.02496506294757092</v>
       </c>
       <c r="K205" t="n">
-        <v>0.1091777877374008</v>
+        <v>0.2334089251729401</v>
       </c>
       <c r="L205" t="n">
-        <v>0.02321158733138595</v>
+        <v>0.05194448662215995</v>
       </c>
       <c r="M205" t="n">
-        <v>0.1085222242433372</v>
+        <v>0.2343044602904091</v>
       </c>
       <c r="N205" t="n">
-        <v>0.02702544750474484</v>
+        <v>0.07848886683398909</v>
       </c>
       <c r="O205" t="n">
-        <v>0.108041223516202</v>
+        <v>0.2324265360598055</v>
       </c>
     </row>
     <row r="206" ht="15" customHeight="1">
       <c r="F206" t="n">
-        <v>0.03906961465001127</v>
+        <v>0.03463491147491733</v>
       </c>
       <c r="G206" t="n">
-        <v>0.07519794773267907</v>
+        <v>0.2336157948188868</v>
       </c>
       <c r="J206" t="n">
-        <v>0.013511356828296</v>
+        <v>0.02480166524785098</v>
       </c>
       <c r="K206" t="n">
-        <v>0.1099576290783822</v>
+        <v>0.2350761317813182</v>
       </c>
       <c r="L206" t="n">
-        <v>0.02246089791171743</v>
+        <v>0.05202195874050575</v>
       </c>
       <c r="M206" t="n">
-        <v>0.1092973829879324</v>
+        <v>0.2359780635781977</v>
       </c>
       <c r="N206" t="n">
-        <v>0.02629951042458972</v>
+        <v>0.07890302904787033</v>
       </c>
       <c r="O206" t="n">
-        <v>0.1088129465413177</v>
+        <v>0.2340867256030899</v>
       </c>
     </row>
     <row r="207" ht="15" customHeight="1">
       <c r="F207" t="n">
-        <v>0.03858039798039779</v>
+        <v>0.033684580725468</v>
       </c>
       <c r="G207" t="n">
-        <v>0.07519767920421505</v>
+        <v>0.2352726444275313</v>
       </c>
       <c r="J207" t="n">
-        <v>0.01344329911197541</v>
+        <v>0.02493644731269735</v>
       </c>
       <c r="K207" t="n">
-        <v>0.1107374704193637</v>
+        <v>0.2367433383896963</v>
       </c>
       <c r="L207" t="n">
-        <v>0.02190299562229528</v>
+        <v>0.05209561655062819</v>
       </c>
       <c r="M207" t="n">
-        <v>0.1100725417325277</v>
+        <v>0.2376516668659863</v>
       </c>
       <c r="N207" t="n">
-        <v>0.02628086108894601</v>
+        <v>0.07861145038489947</v>
       </c>
       <c r="O207" t="n">
-        <v>0.1095846695664334</v>
+        <v>0.2357469151463742</v>
       </c>
     </row>
     <row r="208" ht="15" customHeight="1">
       <c r="F208" t="n">
-        <v>0.03811107550666917</v>
+        <v>0.03373157190872182</v>
       </c>
       <c r="G208" t="n">
-        <v>0.07519741067575103</v>
+        <v>0.2369294940361759</v>
       </c>
       <c r="J208" t="n">
-        <v>0.0132747660185415</v>
+        <v>0.02486938603580088</v>
       </c>
       <c r="K208" t="n">
-        <v>0.1115173117603451</v>
+        <v>0.2384105449980745</v>
       </c>
       <c r="L208" t="n">
-        <v>0.02124065651641463</v>
+        <v>0.05176541130972964</v>
       </c>
       <c r="M208" t="n">
-        <v>0.110847700477123</v>
+        <v>0.239325270153775</v>
       </c>
       <c r="N208" t="n">
-        <v>0.02596851404364153</v>
+        <v>0.07911405850053371</v>
       </c>
       <c r="O208" t="n">
-        <v>0.1103563925915492</v>
+        <v>0.2374071046896585</v>
       </c>
     </row>
     <row r="209" ht="15" customHeight="1">
       <c r="F209" t="n">
-        <v>0.0376623382899498</v>
+        <v>0.03477585181103758</v>
       </c>
       <c r="G209" t="n">
-        <v>0.07519714214728701</v>
+        <v>0.2385863436448205</v>
       </c>
       <c r="J209" t="n">
-        <v>0.01310569702111851</v>
+        <v>0.02510045831085238</v>
       </c>
       <c r="K209" t="n">
-        <v>0.1122971531013265</v>
+        <v>0.2400777516064526</v>
       </c>
       <c r="L209" t="n">
-        <v>0.02037665664737062</v>
+        <v>0.05193129427501234</v>
       </c>
       <c r="M209" t="n">
-        <v>0.1116228592217182</v>
+        <v>0.2409988734415636</v>
       </c>
       <c r="N209" t="n">
-        <v>0.02606148383450413</v>
+        <v>0.07941078105023025</v>
       </c>
       <c r="O209" t="n">
-        <v>0.1111281156166649</v>
+        <v>0.2390672942329428</v>
       </c>
     </row>
     <row r="210" ht="15" customHeight="1">
       <c r="F210" t="n">
-        <v>0.03723487739130239</v>
+        <v>0.0368173872187741</v>
       </c>
       <c r="G210" t="n">
-        <v>0.07519687361882299</v>
+        <v>0.2402431932534651</v>
       </c>
       <c r="J210" t="n">
-        <v>0.01283603159283063</v>
+        <v>0.02492964103154259</v>
       </c>
       <c r="K210" t="n">
-        <v>0.113076994442308</v>
+        <v>0.2417449582148308</v>
       </c>
       <c r="L210" t="n">
-        <v>0.01951377206845836</v>
+        <v>0.05219321670367863</v>
       </c>
       <c r="M210" t="n">
-        <v>0.1123980179663135</v>
+        <v>0.2426724767293522</v>
       </c>
       <c r="N210" t="n">
-        <v>0.02575878500736201</v>
+        <v>0.07930154568944614</v>
       </c>
       <c r="O210" t="n">
-        <v>0.1118998386417806</v>
+        <v>0.2407274837762271</v>
       </c>
     </row>
     <row r="211" ht="15" customHeight="1">
       <c r="F211" t="n">
-        <v>0.03682938387181051</v>
+        <v>0.03385614491829016</v>
       </c>
       <c r="G211" t="n">
-        <v>0.07519660509035898</v>
+        <v>0.2419000428621097</v>
       </c>
       <c r="J211" t="n">
-        <v>0.01276570920680213</v>
+        <v>0.02515691109156237</v>
       </c>
       <c r="K211" t="n">
-        <v>0.1138568357832894</v>
+        <v>0.2434121648232089</v>
       </c>
       <c r="L211" t="n">
-        <v>0.01885477883297298</v>
+        <v>0.05215112985293077</v>
       </c>
       <c r="M211" t="n">
-        <v>0.1131731767109088</v>
+        <v>0.2443460800171409</v>
       </c>
       <c r="N211" t="n">
-        <v>0.02505943210804279</v>
+        <v>0.07958628007363866</v>
       </c>
       <c r="O211" t="n">
-        <v>0.1126715616668963</v>
+        <v>0.2423876733195115</v>
       </c>
     </row>
     <row r="212" ht="15" customHeight="1">
       <c r="F212" t="n">
-        <v>0.03644654879254154</v>
+        <v>0.03489209169594461</v>
       </c>
       <c r="G212" t="n">
-        <v>0.07519633656189495</v>
+        <v>0.2435568924707543</v>
       </c>
       <c r="J212" t="n">
-        <v>0.01269466933615719</v>
+        <v>0.02518224538460251</v>
       </c>
       <c r="K212" t="n">
-        <v>0.1146366771242708</v>
+        <v>0.245079371431587</v>
       </c>
       <c r="L212" t="n">
-        <v>0.01830245299420968</v>
+        <v>0.05210498497997104</v>
       </c>
       <c r="M212" t="n">
-        <v>0.113948335455504</v>
+        <v>0.2460196833049295</v>
       </c>
       <c r="N212" t="n">
-        <v>0.02456243968237476</v>
+        <v>0.07906491185826492</v>
       </c>
       <c r="O212" t="n">
-        <v>0.1134432846920121</v>
+        <v>0.2440478628627958</v>
       </c>
     </row>
     <row r="213" ht="15" customHeight="1">
       <c r="F213" t="n">
-        <v>0.03608706321461239</v>
+        <v>0.03692519433809621</v>
       </c>
       <c r="G213" t="n">
-        <v>0.07519606803343094</v>
+        <v>0.2452137420793989</v>
       </c>
       <c r="J213" t="n">
-        <v>0.01242285145402003</v>
+        <v>0.02520562080435376</v>
       </c>
       <c r="K213" t="n">
-        <v>0.1154165184652523</v>
+        <v>0.2467465780399652</v>
       </c>
       <c r="L213" t="n">
-        <v>0.01715957060546358</v>
+        <v>0.05245473334200179</v>
       </c>
       <c r="M213" t="n">
-        <v>0.1147234942000993</v>
+        <v>0.2476932865927182</v>
       </c>
       <c r="N213" t="n">
-        <v>0.02416682227618555</v>
+        <v>0.07923736869878228</v>
       </c>
       <c r="O213" t="n">
-        <v>0.1142150077171278</v>
+        <v>0.2457080524060802</v>
       </c>
     </row>
     <row r="214" ht="15" customHeight="1">
       <c r="F214" t="n">
-        <v>0.03575161819908944</v>
+        <v>0.03595541963110381</v>
       </c>
       <c r="G214" t="n">
-        <v>0.07519579950496692</v>
+        <v>0.2468705916880435</v>
       </c>
       <c r="J214" t="n">
-        <v>0.01235019503351488</v>
+        <v>0.02512701424450696</v>
       </c>
       <c r="K214" t="n">
-        <v>0.1161963598062337</v>
+        <v>0.2484137846483433</v>
       </c>
       <c r="L214" t="n">
-        <v>0.01662890772002984</v>
+        <v>0.05240032619622526</v>
       </c>
       <c r="M214" t="n">
-        <v>0.1154986529446946</v>
+        <v>0.2493668898805068</v>
       </c>
       <c r="N214" t="n">
-        <v>0.02457159443530338</v>
+        <v>0.08000357825064774</v>
       </c>
       <c r="O214" t="n">
-        <v>0.1149867307422435</v>
+        <v>0.2473682419493644</v>
       </c>
     </row>
     <row r="215" ht="15" customHeight="1">
       <c r="F215" t="n">
-        <v>0.03575161819908942</v>
+        <v>0.03398273436132621</v>
       </c>
       <c r="G215" t="n">
-        <v>0.07519579950496692</v>
+        <v>0.2485274412966881</v>
       </c>
       <c r="J215" t="n">
-        <v>0.01197663954776593</v>
+        <v>0.02514640259875292</v>
       </c>
       <c r="K215" t="n">
-        <v>0.1169762011472151</v>
+        <v>0.2500809912567215</v>
       </c>
       <c r="L215" t="n">
-        <v>0.01611324039120357</v>
+        <v>0.05264171479984378</v>
       </c>
       <c r="M215" t="n">
-        <v>0.1162738116892898</v>
+        <v>0.2510404931682954</v>
       </c>
       <c r="N215" t="n">
-        <v>0.02357577070555594</v>
+        <v>0.0793634681693185</v>
       </c>
       <c r="O215" t="n">
-        <v>0.1157584537673593</v>
+        <v>0.2490284314926488</v>
       </c>
     </row>
     <row r="216" ht="15" customHeight="1">
       <c r="F216" t="n">
-        <v>0.03480321621068438</v>
+        <v>0.03400710531512216</v>
       </c>
       <c r="G216" t="n">
-        <v>0.07506671833771877</v>
+        <v>0.2501842909053326</v>
       </c>
       <c r="J216" t="n">
-        <v>0.01200212446989744</v>
+        <v>0.0251637627607824</v>
       </c>
       <c r="K216" t="n">
-        <v>0.1177560424881966</v>
+        <v>0.2517481978650997</v>
       </c>
       <c r="L216" t="n">
-        <v>0.01511534467227996</v>
+        <v>0.05217885041005968</v>
       </c>
       <c r="M216" t="n">
-        <v>0.1170489704338851</v>
+        <v>0.2527140964560841</v>
       </c>
       <c r="N216" t="n">
-        <v>0.02327836563277136</v>
+        <v>0.08001696611025177</v>
       </c>
       <c r="O216" t="n">
-        <v>0.116530176792475</v>
+        <v>0.2506886210359331</v>
       </c>
     </row>
     <row r="217" ht="15" customHeight="1">
       <c r="F217" t="n">
-        <v>0.03386508338908382</v>
+        <v>0.03602849927885053</v>
       </c>
       <c r="G217" t="n">
-        <v>0.07493763717047063</v>
+        <v>0.2518411405139772</v>
       </c>
       <c r="J217" t="n">
-        <v>0.01182658927303358</v>
+        <v>0.02527907162428622</v>
       </c>
       <c r="K217" t="n">
-        <v>0.118535883829178</v>
+        <v>0.2534154044734778</v>
       </c>
       <c r="L217" t="n">
-        <v>0.01473799661655409</v>
+        <v>0.0526116842840752</v>
       </c>
       <c r="M217" t="n">
-        <v>0.1178241291784803</v>
+        <v>0.2543876997438727</v>
       </c>
       <c r="N217" t="n">
-        <v>0.02347839376277749</v>
+        <v>0.08016399972890481</v>
       </c>
       <c r="O217" t="n">
-        <v>0.1173018998175907</v>
+        <v>0.2523488105792174</v>
       </c>
     </row>
     <row r="218" ht="15" customHeight="1">
       <c r="F218" t="n">
-        <v>0.03293764242272092</v>
+        <v>0.0370468830388701</v>
       </c>
       <c r="G218" t="n">
-        <v>0.07480855600322246</v>
+        <v>0.2534979901226218</v>
       </c>
       <c r="J218" t="n">
-        <v>0.01164997343029861</v>
+        <v>0.02519230608295518</v>
       </c>
       <c r="K218" t="n">
-        <v>0.1193157251701595</v>
+        <v>0.2550826110818559</v>
       </c>
       <c r="L218" t="n">
-        <v>0.0138839722773211</v>
+        <v>0.05254016767909261</v>
       </c>
       <c r="M218" t="n">
-        <v>0.1185992879230756</v>
+        <v>0.2560613030316614</v>
       </c>
       <c r="N218" t="n">
-        <v>0.02337486964140234</v>
+        <v>0.08000449668073473</v>
       </c>
       <c r="O218" t="n">
-        <v>0.1180736228427064</v>
+        <v>0.2540090001225018</v>
       </c>
     </row>
     <row r="219" ht="15" customHeight="1">
       <c r="F219" t="n">
-        <v>0.03202131600002915</v>
+        <v>0.03706222338153969</v>
       </c>
       <c r="G219" t="n">
-        <v>0.07467947483597431</v>
+        <v>0.2551548397312664</v>
       </c>
       <c r="J219" t="n">
-        <v>0.01127221641481672</v>
+        <v>0.02520344303048007</v>
       </c>
       <c r="K219" t="n">
-        <v>0.1200955665111409</v>
+        <v>0.256749817690234</v>
       </c>
       <c r="L219" t="n">
-        <v>0.0134560477078762</v>
+        <v>0.05226425185231429</v>
       </c>
       <c r="M219" t="n">
-        <v>0.1193744466676709</v>
+        <v>0.25773490631945</v>
       </c>
       <c r="N219" t="n">
-        <v>0.02306680781447384</v>
+        <v>0.07993838462119857</v>
       </c>
       <c r="O219" t="n">
-        <v>0.1188453458678222</v>
+        <v>0.2556691896657861</v>
       </c>
     </row>
     <row r="220" ht="15" customHeight="1">
       <c r="F220" t="n">
-        <v>0.03111652680944166</v>
+        <v>0.0370744870932181</v>
       </c>
       <c r="G220" t="n">
-        <v>0.07455039366872616</v>
+        <v>0.256811689339911</v>
       </c>
       <c r="J220" t="n">
-        <v>0.01119325769971213</v>
+        <v>0.02521245936055169</v>
       </c>
       <c r="K220" t="n">
-        <v>0.1208754078521223</v>
+        <v>0.2584170242986122</v>
       </c>
       <c r="L220" t="n">
-        <v>0.01245699896151448</v>
+        <v>0.05268388806094249</v>
       </c>
       <c r="M220" t="n">
-        <v>0.1201496054122662</v>
+        <v>0.2594085096072386</v>
       </c>
       <c r="N220" t="n">
-        <v>0.02245322282781986</v>
+        <v>0.07956559120575379</v>
       </c>
       <c r="O220" t="n">
-        <v>0.1196170688929379</v>
+        <v>0.2573293792090704</v>
       </c>
     </row>
     <row r="221" ht="15" customHeight="1">
       <c r="F221" t="n">
-        <v>0.03022369753939168</v>
+        <v>0.03708364096026413</v>
       </c>
       <c r="G221" t="n">
-        <v>0.07442131250147802</v>
+        <v>0.2584685389485555</v>
       </c>
       <c r="J221" t="n">
-        <v>0.01101303675810907</v>
+        <v>0.02521933196686084</v>
       </c>
       <c r="K221" t="n">
-        <v>0.1216552491931037</v>
+        <v>0.2600842309069903</v>
       </c>
       <c r="L221" t="n">
-        <v>0.01198960209153113</v>
+        <v>0.05229902756217944</v>
       </c>
       <c r="M221" t="n">
-        <v>0.1209247641568614</v>
+        <v>0.2610821128950273</v>
       </c>
       <c r="N221" t="n">
-        <v>0.02223312922726833</v>
+        <v>0.07948604408985732</v>
       </c>
       <c r="O221" t="n">
-        <v>0.1203887919180536</v>
+        <v>0.2589895687523547</v>
       </c>
     </row>
     <row r="222" ht="15" customHeight="1">
       <c r="F222" t="n">
-        <v>0.02934325087831244</v>
+        <v>0.03408965176903658</v>
       </c>
       <c r="G222" t="n">
-        <v>0.07429223133422985</v>
+        <v>0.2601253885572001</v>
       </c>
       <c r="J222" t="n">
-        <v>0.01073149306313176</v>
+        <v>0.02512403774309831</v>
       </c>
       <c r="K222" t="n">
-        <v>0.1224350905340852</v>
+        <v>0.2617514375153685</v>
       </c>
       <c r="L222" t="n">
-        <v>0.01125663315122127</v>
+        <v>0.05250962161322761</v>
       </c>
       <c r="M222" t="n">
-        <v>0.1216999229014567</v>
+        <v>0.2627557161828159</v>
       </c>
       <c r="N222" t="n">
-        <v>0.02140554155864738</v>
+        <v>0.07979967092896656</v>
       </c>
       <c r="O222" t="n">
-        <v>0.1211605149431694</v>
+        <v>0.2606497582956391</v>
       </c>
     </row>
     <row r="223" ht="15" customHeight="1">
       <c r="F223" t="n">
-        <v>0.02847560951463735</v>
+        <v>0.03409248630589429</v>
       </c>
       <c r="G223" t="n">
-        <v>0.0741631501669817</v>
+        <v>0.2617822381658447</v>
       </c>
       <c r="J223" t="n">
-        <v>0.01054856608790439</v>
+        <v>0.02512655358295492</v>
       </c>
       <c r="K223" t="n">
-        <v>0.1232149318750666</v>
+        <v>0.2634186441237466</v>
       </c>
       <c r="L223" t="n">
-        <v>0.01116086819388004</v>
+        <v>0.05281562147128913</v>
       </c>
       <c r="M223" t="n">
-        <v>0.1224750816460519</v>
+        <v>0.2644293194706046</v>
       </c>
       <c r="N223" t="n">
-        <v>0.02176947436778481</v>
+        <v>0.07970639937853852</v>
       </c>
       <c r="O223" t="n">
-        <v>0.1219322379682851</v>
+        <v>0.2623099478389234</v>
       </c>
     </row>
     <row r="224" ht="15" customHeight="1">
       <c r="F224" t="n">
-        <v>0.02762119613679956</v>
+        <v>0.03607378938069386</v>
       </c>
       <c r="G224" t="n">
-        <v>0.07403406899973355</v>
+        <v>0.2634390877744893</v>
       </c>
       <c r="J224" t="n">
-        <v>0.0104641953055512</v>
+        <v>0.02522240274497324</v>
       </c>
       <c r="K224" t="n">
-        <v>0.1239947732160481</v>
+        <v>0.2650858507321248</v>
       </c>
       <c r="L224" t="n">
-        <v>0.01050508327280256</v>
+        <v>0.05271386007359904</v>
       </c>
       <c r="M224" t="n">
-        <v>0.1232502403906472</v>
+        <v>0.2661029227583931</v>
       </c>
       <c r="N224" t="n">
-        <v>0.02152394220050857</v>
+        <v>0.07947610994224619</v>
       </c>
       <c r="O224" t="n">
-        <v>0.1227039609934008</v>
+        <v>0.2639701373822077</v>
       </c>
     </row>
     <row r="225" ht="15" customHeight="1">
       <c r="F225" t="n">
-        <v>0.02678043343323236</v>
+        <v>0.03696688571759499</v>
       </c>
       <c r="G225" t="n">
-        <v>0.07390498783248541</v>
+        <v>0.2650959373831339</v>
       </c>
       <c r="J225" t="n">
-        <v>0.0103783201891964</v>
+        <v>0.02526451139403026</v>
       </c>
       <c r="K225" t="n">
-        <v>0.1247746145570295</v>
+        <v>0.2667530573405029</v>
       </c>
       <c r="L225" t="n">
-        <v>0.009892054441283993</v>
+        <v>0.05241324018809326</v>
       </c>
       <c r="M225" t="n">
-        <v>0.1240253991352425</v>
+        <v>0.2677765260461818</v>
       </c>
       <c r="N225" t="n">
-        <v>0.02076795960264666</v>
+        <v>0.08005988581298851</v>
       </c>
       <c r="O225" t="n">
-        <v>0.1234756840185165</v>
+        <v>0.265630326925492</v>
       </c>
     </row>
     <row r="226" ht="15" customHeight="1">
       <c r="F226" t="n">
-        <v>0.025953744092369</v>
+        <v>0.03477474590242798</v>
       </c>
       <c r="G226" t="n">
-        <v>0.07377590666523726</v>
+        <v>0.2667527869917785</v>
       </c>
       <c r="J226" t="n">
-        <v>0.0101908802119642</v>
+        <v>0.02514594553400833</v>
       </c>
       <c r="K226" t="n">
-        <v>0.1255544558980109</v>
+        <v>0.2684202639488811</v>
       </c>
       <c r="L226" t="n">
-        <v>0.009824557752619506</v>
+        <v>0.05218285149458418</v>
       </c>
       <c r="M226" t="n">
-        <v>0.1248005578798377</v>
+        <v>0.2694501293339704</v>
       </c>
       <c r="N226" t="n">
-        <v>0.02060054112002702</v>
+        <v>0.07905660793007513</v>
       </c>
       <c r="O226" t="n">
-        <v>0.1242474070436323</v>
+        <v>0.2672905164687764</v>
       </c>
     </row>
     <row r="227" ht="15" customHeight="1">
       <c r="F227" t="n">
-        <v>0.02514155080264269</v>
+        <v>0.03350772406804388</v>
       </c>
       <c r="G227" t="n">
-        <v>0.07364682549798909</v>
+        <v>0.2684096366004231</v>
       </c>
       <c r="J227" t="n">
-        <v>0.009901814846978843</v>
+        <v>0.02487390840389522</v>
       </c>
       <c r="K227" t="n">
-        <v>0.1263342972389924</v>
+        <v>0.2700874705572592</v>
       </c>
       <c r="L227" t="n">
-        <v>0.009705369260104207</v>
+        <v>0.05213788923770094</v>
       </c>
       <c r="M227" t="n">
-        <v>0.125575716624433</v>
+        <v>0.2711237326217591</v>
       </c>
       <c r="N227" t="n">
-        <v>0.01992070129847751</v>
+        <v>0.07888882922599055</v>
       </c>
       <c r="O227" t="n">
-        <v>0.125019130068748</v>
+        <v>0.2689507060120607</v>
       </c>
     </row>
     <row r="228" ht="15" customHeight="1">
       <c r="F228" t="n">
-        <v>0.02434427625248681</v>
+        <v>0.03317617434729371</v>
       </c>
       <c r="G228" t="n">
-        <v>0.07351774433074094</v>
+        <v>0.2700664862090677</v>
       </c>
       <c r="J228" t="n">
-        <v>0.009811063567364525</v>
+        <v>0.02465560324267872</v>
       </c>
       <c r="K228" t="n">
-        <v>0.1271141385799738</v>
+        <v>0.2717546771656373</v>
       </c>
       <c r="L228" t="n">
-        <v>0.009037265017033225</v>
+        <v>0.05149354866207262</v>
       </c>
       <c r="M228" t="n">
-        <v>0.1263508753690283</v>
+        <v>0.2727973359095477</v>
       </c>
       <c r="N228" t="n">
-        <v>0.01982745468382618</v>
+        <v>0.07787910263321929</v>
       </c>
       <c r="O228" t="n">
-        <v>0.1257908530938637</v>
+        <v>0.270610895555345</v>
       </c>
     </row>
     <row r="229" ht="15" customHeight="1">
       <c r="F229" t="n">
-        <v>0.02356234313033452</v>
+        <v>0.03579045087302855</v>
       </c>
       <c r="G229" t="n">
-        <v>0.0733886631634928</v>
+        <v>0.2717233358177122</v>
       </c>
       <c r="J229" t="n">
-        <v>0.009518565846245455</v>
+        <v>0.02439823328934655</v>
       </c>
       <c r="K229" t="n">
-        <v>0.1278939799209552</v>
+        <v>0.2734218837740155</v>
       </c>
       <c r="L229" t="n">
-        <v>0.009223021076701782</v>
+        <v>0.05066502501232839</v>
       </c>
       <c r="M229" t="n">
-        <v>0.1271260341136235</v>
+        <v>0.2744709391973363</v>
       </c>
       <c r="N229" t="n">
-        <v>0.01941981582190083</v>
+        <v>0.07734998108424601</v>
       </c>
       <c r="O229" t="n">
-        <v>0.1265625761189794</v>
+        <v>0.2722710850986293</v>
       </c>
     </row>
     <row r="230" ht="15" customHeight="1">
       <c r="F230" t="n">
-        <v>0.02279617412461916</v>
+        <v>0.03236090777809941</v>
       </c>
       <c r="G230" t="n">
-        <v>0.07325958199624465</v>
+        <v>0.2733801854263568</v>
       </c>
       <c r="J230" t="n">
-        <v>0.0094242622168101</v>
+        <v>0.02420900178288647</v>
       </c>
       <c r="K230" t="n">
-        <v>0.1286738212619367</v>
+        <v>0.2750890903823937</v>
       </c>
       <c r="L230" t="n">
-        <v>0.008965093643662075</v>
+        <v>0.05046751353309731</v>
       </c>
       <c r="M230" t="n">
-        <v>0.1279011928582188</v>
+        <v>0.276144542485125</v>
       </c>
       <c r="N230" t="n">
-        <v>0.01909685826844104</v>
+        <v>0.07632401751155521</v>
       </c>
       <c r="O230" t="n">
-        <v>0.1273342991440952</v>
+        <v>0.2739312746419136</v>
       </c>
     </row>
     <row r="231" ht="15" customHeight="1">
       <c r="F231" t="n">
-        <v>0.02204619192377384</v>
+        <v>0.03189789919535732</v>
       </c>
       <c r="G231" t="n">
-        <v>0.07313050082899648</v>
+        <v>0.2750370350350014</v>
       </c>
       <c r="J231" t="n">
-        <v>0.009128210974503545</v>
+        <v>0.02369511196228621</v>
       </c>
       <c r="K231" t="n">
-        <v>0.1294536626029181</v>
+        <v>0.2767562969907718</v>
       </c>
       <c r="L231" t="n">
-        <v>0.00863182102180074</v>
+        <v>0.04941620946900849</v>
       </c>
       <c r="M231" t="n">
-        <v>0.1286763516028141</v>
+        <v>0.2778181457729136</v>
       </c>
       <c r="N231" t="n">
-        <v>0.01846320916828037</v>
+        <v>0.07552376484763157</v>
       </c>
       <c r="O231" t="n">
-        <v>0.1281060221692109</v>
+        <v>0.275591464185198</v>
       </c>
     </row>
     <row r="232" ht="15" customHeight="1">
       <c r="F232" t="n">
-        <v>0.02131281921623202</v>
+        <v>0.03341177925765336</v>
       </c>
       <c r="G232" t="n">
-        <v>0.07300141966174833</v>
+        <v>0.276693884643646</v>
       </c>
       <c r="J232" t="n">
-        <v>0.00903048751746359</v>
+        <v>0.02336376706653358</v>
       </c>
       <c r="K232" t="n">
-        <v>0.1302335039438995</v>
+        <v>0.2784235035991499</v>
       </c>
       <c r="L232" t="n">
-        <v>0.008400884332730785</v>
+        <v>0.04902630806469105</v>
       </c>
       <c r="M232" t="n">
-        <v>0.1294515103474093</v>
+        <v>0.2794917490607022</v>
       </c>
       <c r="N232" t="n">
-        <v>0.01752234001585334</v>
+        <v>0.07437177602495965</v>
       </c>
       <c r="O232" t="n">
-        <v>0.1288777451943266</v>
+        <v>0.2772516537284823</v>
       </c>
     </row>
     <row r="233" ht="15" customHeight="1">
       <c r="F233" t="n">
-        <v>0.02059647869042686</v>
+        <v>0.03291290209783854</v>
       </c>
       <c r="G233" t="n">
-        <v>0.07287233849450019</v>
+        <v>0.2783507342522906</v>
       </c>
       <c r="J233" t="n">
-        <v>0.008631109880311655</v>
+        <v>0.02322217033461632</v>
       </c>
       <c r="K233" t="n">
-        <v>0.131013345284881</v>
+        <v>0.280090710207528</v>
       </c>
       <c r="L233" t="n">
-        <v>0.008572384652153542</v>
+        <v>0.04851300456477411</v>
       </c>
       <c r="M233" t="n">
-        <v>0.1302266690920046</v>
+        <v>0.2811653523484909</v>
       </c>
       <c r="N233" t="n">
-        <v>0.01727435731464527</v>
+        <v>0.07289060397602393</v>
       </c>
       <c r="O233" t="n">
-        <v>0.1296494682194424</v>
+        <v>0.2789118432717666</v>
       </c>
     </row>
     <row r="234" ht="15" customHeight="1">
       <c r="F234" t="n">
-        <v>0.01989759303479161</v>
+        <v>0.03241162184876394</v>
       </c>
       <c r="G234" t="n">
-        <v>0.07274325732725204</v>
+        <v>0.2800075838609352</v>
       </c>
       <c r="J234" t="n">
-        <v>0.008430096097669246</v>
+        <v>0.02277752500552217</v>
       </c>
       <c r="K234" t="n">
-        <v>0.1317931866258624</v>
+        <v>0.2817579168159062</v>
       </c>
       <c r="L234" t="n">
-        <v>0.008546423055770053</v>
+        <v>0.04739149421388672</v>
       </c>
       <c r="M234" t="n">
-        <v>0.1310018278365999</v>
+        <v>0.2828389556362795</v>
       </c>
       <c r="N234" t="n">
-        <v>0.01701936756814143</v>
+        <v>0.07160280163330907</v>
       </c>
       <c r="O234" t="n">
-        <v>0.1304211912445581</v>
+        <v>0.2805720328150509</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1">
       <c r="F235" t="n">
-        <v>0.01921658493775955</v>
+        <v>0.03291829264328056</v>
       </c>
       <c r="G235" t="n">
-        <v>0.07261417616000389</v>
+        <v>0.2816644334695798</v>
       </c>
       <c r="J235" t="n">
-        <v>0.008427464204157839</v>
+        <v>0.02253703431823888</v>
       </c>
       <c r="K235" t="n">
-        <v>0.1325730279668438</v>
+        <v>0.2834251234242843</v>
       </c>
       <c r="L235" t="n">
-        <v>0.008423100619281587</v>
+        <v>0.04707697225665802</v>
       </c>
       <c r="M235" t="n">
-        <v>0.1317769865811951</v>
+        <v>0.2845125589240681</v>
       </c>
       <c r="N235" t="n">
-        <v>0.01645747727982744</v>
+        <v>0.07083092192929968</v>
       </c>
       <c r="O235" t="n">
-        <v>0.1311929142696738</v>
+        <v>0.2822322223583353</v>
       </c>
     </row>
     <row r="236" ht="15" customHeight="1">
       <c r="F236" t="n">
-        <v>0.01855387708776388</v>
+        <v>0.03044326861423945</v>
       </c>
       <c r="G236" t="n">
-        <v>0.07248509499275572</v>
+        <v>0.2833212830782244</v>
       </c>
       <c r="J236" t="n">
-        <v>0.00802323223439888</v>
+        <v>0.02220790151175422</v>
       </c>
       <c r="K236" t="n">
-        <v>0.1333528693078253</v>
+        <v>0.2850923300326625</v>
       </c>
       <c r="L236" t="n">
-        <v>0.008202518418389398</v>
+        <v>0.04618463393771713</v>
       </c>
       <c r="M236" t="n">
-        <v>0.1325521453257904</v>
+        <v>0.2861861622118568</v>
       </c>
       <c r="N236" t="n">
-        <v>0.0164887929531885</v>
+        <v>0.07009751779648032</v>
       </c>
       <c r="O236" t="n">
-        <v>0.1319646372947896</v>
+        <v>0.2838924119016196</v>
       </c>
     </row>
     <row r="237" ht="15" customHeight="1">
       <c r="F237" t="n">
-        <v>0.01790989217323798</v>
+        <v>0.02899690389449167</v>
       </c>
       <c r="G237" t="n">
-        <v>0.07235601382550758</v>
+        <v>0.2849781326868689</v>
       </c>
       <c r="J237" t="n">
-        <v>0.008017418223013884</v>
+        <v>0.02169732982505593</v>
       </c>
       <c r="K237" t="n">
-        <v>0.1341327106488067</v>
+        <v>0.2867595366410406</v>
       </c>
       <c r="L237" t="n">
-        <v>0.007884777528794545</v>
+        <v>0.04572967450169316</v>
       </c>
       <c r="M237" t="n">
-        <v>0.1333273040703856</v>
+        <v>0.2878597654996454</v>
       </c>
       <c r="N237" t="n">
-        <v>0.01561342109171016</v>
+        <v>0.0688251421673356</v>
       </c>
       <c r="O237" t="n">
-        <v>0.1327363603199053</v>
+        <v>0.2855526014449039</v>
       </c>
     </row>
     <row r="238" ht="15" customHeight="1">
       <c r="F238" t="n">
-        <v>0.01728505288261505</v>
+        <v>0.02958877415484779</v>
       </c>
       <c r="G238" t="n">
-        <v>0.07222693265825943</v>
+        <v>0.2866349822955135</v>
       </c>
       <c r="J238" t="n">
-        <v>0.007710040204624277</v>
+        <v>0.0215125189308691</v>
       </c>
       <c r="K238" t="n">
-        <v>0.1349125519897881</v>
+        <v>0.2884267432494188</v>
       </c>
       <c r="L238" t="n">
-        <v>0.007769979026198331</v>
+        <v>0.0447272891932152</v>
       </c>
       <c r="M238" t="n">
-        <v>0.1341024628149809</v>
+        <v>0.2895333687874341</v>
       </c>
       <c r="N238" t="n">
-        <v>0.01523146819887766</v>
+        <v>0.06793551551482929</v>
       </c>
       <c r="O238" t="n">
-        <v>0.133508083345021</v>
+        <v>0.2872127909881882</v>
       </c>
     </row>
     <row r="239" ht="15" customHeight="1">
       <c r="F239" t="n">
-        <v>0.01667978190432833</v>
+        <v>0.03119478820295764</v>
       </c>
       <c r="G239" t="n">
-        <v>0.07209785149101128</v>
+        <v>0.2882918319041581</v>
       </c>
       <c r="J239" t="n">
-        <v>0.007501116213851564</v>
+        <v>0.02124198682869234</v>
       </c>
       <c r="K239" t="n">
-        <v>0.1356923933307696</v>
+        <v>0.2900939498577969</v>
       </c>
       <c r="L239" t="n">
-        <v>0.007658223986301865</v>
+        <v>0.04426091182170072</v>
       </c>
       <c r="M239" t="n">
-        <v>0.1348776215595762</v>
+        <v>0.2912069720752227</v>
       </c>
       <c r="N239" t="n">
-        <v>0.0149430407781766</v>
+        <v>0.06738096867935539</v>
       </c>
       <c r="O239" t="n">
-        <v>0.1342798063701368</v>
+        <v>0.2888729805314726</v>
       </c>
     </row>
     <row r="240" ht="15" customHeight="1">
       <c r="F240" t="n">
-        <v>0.01609277594904192</v>
+        <v>0.02879928960308514</v>
       </c>
       <c r="G240" t="n">
-        <v>0.07196877032376311</v>
+        <v>0.2899486815128027</v>
       </c>
       <c r="J240" t="n">
-        <v>0.007290664285317189</v>
+        <v>0.0209704115839921</v>
       </c>
       <c r="K240" t="n">
-        <v>0.136472234671751</v>
+        <v>0.2917611564661751</v>
       </c>
       <c r="L240" t="n">
-        <v>0.007449613484806356</v>
+        <v>0.04369260107729778</v>
       </c>
       <c r="M240" t="n">
-        <v>0.1356527803041715</v>
+        <v>0.2928805753630113</v>
       </c>
       <c r="N240" t="n">
-        <v>0.01394824533309214</v>
+        <v>0.06632313637383236</v>
       </c>
       <c r="O240" t="n">
-        <v>0.1350515293952525</v>
+        <v>0.2905331700747569</v>
       </c>
     </row>
     <row r="241" ht="15" customHeight="1">
       <c r="F241" t="n">
-        <v>0.01551410183857428</v>
+        <v>0.03040225382590558</v>
       </c>
       <c r="G241" t="n">
-        <v>0.07183968915651497</v>
+        <v>0.2916055311214473</v>
       </c>
       <c r="J241" t="n">
-        <v>0.00717870245364266</v>
+        <v>0.0206977761320281</v>
       </c>
       <c r="K241" t="n">
-        <v>0.1372520760127325</v>
+        <v>0.2934283630745532</v>
       </c>
       <c r="L241" t="n">
-        <v>0.007744248597413017</v>
+        <v>0.04342206567418949</v>
       </c>
       <c r="M241" t="n">
-        <v>0.1364279390487667</v>
+        <v>0.2945541786508</v>
       </c>
       <c r="N241" t="n">
-        <v>0.01384718836710974</v>
+        <v>0.06536196516952703</v>
       </c>
       <c r="O241" t="n">
-        <v>0.1358232524203682</v>
+        <v>0.2921933596180412</v>
       </c>
     </row>
     <row r="242" ht="15" customHeight="1">
       <c r="F242" t="n">
-        <v>0.01494245628358946</v>
+        <v>0.0290036563420943</v>
       </c>
       <c r="G242" t="n">
-        <v>0.07171060798926682</v>
+        <v>0.2932623807300919</v>
       </c>
       <c r="J242" t="n">
-        <v>0.006965248753449435</v>
+        <v>0.02052406340806007</v>
       </c>
       <c r="K242" t="n">
-        <v>0.1380319173537139</v>
+        <v>0.2950955696829314</v>
       </c>
       <c r="L242" t="n">
-        <v>0.00744223039982303</v>
+        <v>0.04274926961427786</v>
       </c>
       <c r="M242" t="n">
-        <v>0.137203097793362</v>
+        <v>0.2962277819385886</v>
       </c>
       <c r="N242" t="n">
-        <v>0.01323997638371482</v>
+        <v>0.06499740163770584</v>
       </c>
       <c r="O242" t="n">
-        <v>0.1365949754454839</v>
+        <v>0.2938535491613256</v>
       </c>
     </row>
     <row r="243" ht="15" customHeight="1">
       <c r="F243" t="n">
-        <v>0.01437826197252075</v>
+        <v>0.02660347262232658</v>
       </c>
       <c r="G243" t="n">
-        <v>0.07158152682201867</v>
+        <v>0.2949192303387365</v>
       </c>
       <c r="J243" t="n">
-        <v>0.006550321219358987</v>
+        <v>0.02024925634734773</v>
       </c>
       <c r="K243" t="n">
-        <v>0.1388117586946953</v>
+        <v>0.2967627762913095</v>
       </c>
       <c r="L243" t="n">
-        <v>0.007243659967737598</v>
+        <v>0.04207417689946477</v>
       </c>
       <c r="M243" t="n">
-        <v>0.1379782565379573</v>
+        <v>0.2979013852263773</v>
       </c>
       <c r="N243" t="n">
-        <v>0.01232671588639284</v>
+        <v>0.06372939234963543</v>
       </c>
       <c r="O243" t="n">
-        <v>0.1373666984705997</v>
+        <v>0.2955137387046099</v>
       </c>
     </row>
     <row r="244" ht="15" customHeight="1">
       <c r="F244" t="n">
-        <v>0.01382194159380135</v>
+        <v>0.02720167813727774</v>
       </c>
       <c r="G244" t="n">
-        <v>0.07145244565477051</v>
+        <v>0.2965760799473811</v>
       </c>
       <c r="J244" t="n">
-        <v>0.006533937885992783</v>
+        <v>0.01977333788515079</v>
       </c>
       <c r="K244" t="n">
-        <v>0.1395916000356767</v>
+        <v>0.2984299828996876</v>
       </c>
       <c r="L244" t="n">
-        <v>0.007148638376857863</v>
+        <v>0.04139675153165231</v>
       </c>
       <c r="M244" t="n">
-        <v>0.1387534152825525</v>
+        <v>0.2995749885141659</v>
       </c>
       <c r="N244" t="n">
-        <v>0.01220751337862913</v>
+        <v>0.06325788387658249</v>
       </c>
       <c r="O244" t="n">
-        <v>0.1381384214957154</v>
+        <v>0.2971739282478942</v>
       </c>
     </row>
     <row r="245" ht="15" customHeight="1">
       <c r="F245" t="n">
-        <v>0.01327391783586462</v>
+        <v>0.0287982483576231</v>
       </c>
       <c r="G245" t="n">
-        <v>0.07132336448752236</v>
+        <v>0.2982329295560256</v>
       </c>
       <c r="J245" t="n">
-        <v>0.006316116787972295</v>
+        <v>0.01949629095672895</v>
       </c>
       <c r="K245" t="n">
-        <v>0.1403714413766582</v>
+        <v>0.3000971895080657</v>
       </c>
       <c r="L245" t="n">
-        <v>0.007157266702885051</v>
+        <v>0.04101695751274245</v>
       </c>
       <c r="M245" t="n">
-        <v>0.1395285740271478</v>
+        <v>0.3012485918019545</v>
       </c>
       <c r="N245" t="n">
-        <v>0.01128247536390914</v>
+        <v>0.06198282278981354</v>
       </c>
       <c r="O245" t="n">
-        <v>0.1389101445208311</v>
+        <v>0.2988341177911785</v>
       </c>
     </row>
     <row r="246" ht="15" customHeight="1">
       <c r="F246" t="n">
-        <v>0.01273461338714374</v>
+        <v>0.02839315875403792</v>
       </c>
       <c r="G246" t="n">
-        <v>0.07119428332027421</v>
+        <v>0.2998897791646702</v>
       </c>
       <c r="J246" t="n">
-        <v>0.005896875959919015</v>
+        <v>0.01931809849734195</v>
       </c>
       <c r="K246" t="n">
-        <v>0.1411512827176396</v>
+        <v>0.3017643961164439</v>
       </c>
       <c r="L246" t="n">
-        <v>0.006769646021520387</v>
+        <v>0.04023475884463709</v>
       </c>
       <c r="M246" t="n">
-        <v>0.140303732771743</v>
+        <v>0.3029221950897432</v>
       </c>
       <c r="N246" t="n">
-        <v>0.01145170834571807</v>
+        <v>0.06080415566059516</v>
       </c>
       <c r="O246" t="n">
-        <v>0.1396818675459468</v>
+        <v>0.3004943073344629</v>
       </c>
     </row>
     <row r="247" ht="15" customHeight="1">
       <c r="F247" t="n">
-        <v>0.01220445093607202</v>
+        <v>0.02698638479719756</v>
       </c>
       <c r="G247" t="n">
-        <v>0.07106520215302606</v>
+        <v>0.3015466287733148</v>
       </c>
       <c r="J247" t="n">
-        <v>0.005876233436454395</v>
+        <v>0.0191387434422495</v>
       </c>
       <c r="K247" t="n">
-        <v>0.141931124058621</v>
+        <v>0.3034316027248221</v>
       </c>
       <c r="L247" t="n">
-        <v>0.006685877408464991</v>
+        <v>0.03985011952923828</v>
       </c>
       <c r="M247" t="n">
-        <v>0.1410788915163383</v>
+        <v>0.3045957983775318</v>
       </c>
       <c r="N247" t="n">
-        <v>0.01061531882754152</v>
+        <v>0.06002182906019404</v>
       </c>
       <c r="O247" t="n">
-        <v>0.1404535905710626</v>
+        <v>0.3021544968777472</v>
       </c>
     </row>
     <row r="248" ht="15" customHeight="1">
       <c r="F248" t="n">
-        <v>0.0116838531710827</v>
+        <v>0.02757790195777732</v>
       </c>
       <c r="G248" t="n">
-        <v>0.07093612098577791</v>
+        <v>0.3032034783819594</v>
       </c>
       <c r="J248" t="n">
-        <v>0.005554207252199933</v>
+        <v>0.01885820872671132</v>
       </c>
       <c r="K248" t="n">
-        <v>0.1427109653996025</v>
+        <v>0.3050988093332002</v>
       </c>
       <c r="L248" t="n">
-        <v>0.006906061939420088</v>
+        <v>0.03936300356844799</v>
       </c>
       <c r="M248" t="n">
-        <v>0.1418540502609336</v>
+        <v>0.3062694016653205</v>
       </c>
       <c r="N248" t="n">
-        <v>0.01027341331286491</v>
+        <v>0.05893578955987661</v>
       </c>
       <c r="O248" t="n">
-        <v>0.1412253135961783</v>
+        <v>0.3038146864210315</v>
       </c>
     </row>
     <row r="249" ht="15" customHeight="1">
       <c r="F249" t="n">
-        <v>0.01117324278060899</v>
+        <v>0.02516768570645249</v>
       </c>
       <c r="G249" t="n">
-        <v>0.07080703981852975</v>
+        <v>0.304860327990604</v>
       </c>
       <c r="J249" t="n">
-        <v>0.005230815441777059</v>
+        <v>0.01857647728598712</v>
       </c>
       <c r="K249" t="n">
-        <v>0.1434908067405839</v>
+        <v>0.3067660159415784</v>
       </c>
       <c r="L249" t="n">
-        <v>0.006630300690086882</v>
+        <v>0.03877337496416819</v>
       </c>
       <c r="M249" t="n">
-        <v>0.1426292090055289</v>
+        <v>0.3079430049531091</v>
       </c>
       <c r="N249" t="n">
-        <v>0.009626098305173414</v>
+        <v>0.05824598373090972</v>
       </c>
       <c r="O249" t="n">
-        <v>0.141997036621294</v>
+        <v>0.3054748759643158</v>
       </c>
     </row>
     <row r="250" ht="15" customHeight="1">
       <c r="F250" t="n">
-        <v>0.01067304245308424</v>
+        <v>0.02575571151389838</v>
       </c>
       <c r="G250" t="n">
-        <v>0.0706779586512816</v>
+        <v>0.3065171775992486</v>
       </c>
       <c r="J250" t="n">
-        <v>0.0052060760398073</v>
+        <v>0.01809353205533663</v>
       </c>
       <c r="K250" t="n">
-        <v>0.1442706480815653</v>
+        <v>0.3084332225499565</v>
       </c>
       <c r="L250" t="n">
-        <v>0.006858694736166543</v>
+        <v>0.03798119771830086</v>
       </c>
       <c r="M250" t="n">
-        <v>0.1434043677501241</v>
+        <v>0.3096166082408977</v>
       </c>
       <c r="N250" t="n">
-        <v>0.00897348030795253</v>
+        <v>0.05775235814455981</v>
       </c>
       <c r="O250" t="n">
-        <v>0.1427687596464098</v>
+        <v>0.3071350655076002</v>
       </c>
     </row>
     <row r="251" ht="15" customHeight="1">
       <c r="F251" t="n">
-        <v>0.01018367487694168</v>
+        <v>0.02434195485079034</v>
       </c>
       <c r="G251" t="n">
-        <v>0.07054887748403345</v>
+        <v>0.3081740272078932</v>
       </c>
       <c r="J251" t="n">
-        <v>0.004780007080912085</v>
+        <v>0.01800935597001956</v>
       </c>
       <c r="K251" t="n">
-        <v>0.1450504894225468</v>
+        <v>0.3101004291583346</v>
       </c>
       <c r="L251" t="n">
-        <v>0.006591345153360267</v>
+        <v>0.03738643583274795</v>
       </c>
       <c r="M251" t="n">
-        <v>0.1441795264947194</v>
+        <v>0.3112902115286864</v>
       </c>
       <c r="N251" t="n">
-        <v>0.008315665824687735</v>
+        <v>0.05705485937209354</v>
       </c>
       <c r="O251" t="n">
-        <v>0.1435404826715255</v>
+        <v>0.3087952550508845</v>
       </c>
     </row>
     <row r="252" ht="15" customHeight="1">
       <c r="F252" t="n">
-        <v>0.009705562740614543</v>
+        <v>0.02292639118780361</v>
       </c>
       <c r="G252" t="n">
-        <v>0.0704197963167853</v>
+        <v>0.3098308768165378</v>
       </c>
       <c r="J252" t="n">
-        <v>0.004652626599712925</v>
+        <v>0.01772393196529561</v>
       </c>
       <c r="K252" t="n">
-        <v>0.1458303307635282</v>
+        <v>0.3117676357667128</v>
       </c>
       <c r="L252" t="n">
-        <v>0.006328353017369226</v>
+        <v>0.03648905330941152</v>
       </c>
       <c r="M252" t="n">
-        <v>0.1449546852393147</v>
+        <v>0.312963814816475</v>
       </c>
       <c r="N252" t="n">
-        <v>0.007452761358864413</v>
+        <v>0.05565343398477746</v>
       </c>
       <c r="O252" t="n">
-        <v>0.1443122056966412</v>
+        <v>0.3104554445941689</v>
       </c>
     </row>
     <row r="253" ht="15" customHeight="1">
       <c r="F253" t="n">
-        <v>0.009239128732536087</v>
+        <v>0.02250899599561357</v>
       </c>
       <c r="G253" t="n">
-        <v>0.07029071514953714</v>
+        <v>0.3114877264251823</v>
       </c>
       <c r="J253" t="n">
-        <v>0.004423952630831243</v>
+        <v>0.0173372429764245</v>
       </c>
       <c r="K253" t="n">
-        <v>0.1466101721045096</v>
+        <v>0.3134348423750909</v>
       </c>
       <c r="L253" t="n">
-        <v>0.006569819403894644</v>
+        <v>0.03628901415019353</v>
       </c>
       <c r="M253" t="n">
-        <v>0.1457298439839099</v>
+        <v>0.3146374181042637</v>
       </c>
       <c r="N253" t="n">
-        <v>0.007084873413967796</v>
+        <v>0.05484802855387821</v>
       </c>
       <c r="O253" t="n">
-        <v>0.145083928721757</v>
+        <v>0.3121156341374531</v>
       </c>
     </row>
     <row r="254" ht="15" customHeight="1">
       <c r="F254" t="n">
-        <v>0.008784795541139603</v>
+        <v>0.02408974474489545</v>
       </c>
       <c r="G254" t="n">
-        <v>0.07016163398228899</v>
+        <v>0.3131445760338269</v>
       </c>
       <c r="J254" t="n">
-        <v>0.004194003208888547</v>
+        <v>0.01694927193866595</v>
       </c>
       <c r="K254" t="n">
-        <v>0.1473900134454911</v>
+        <v>0.3151020489834691</v>
       </c>
       <c r="L254" t="n">
-        <v>0.006215845388637675</v>
+        <v>0.03548628235699591</v>
       </c>
       <c r="M254" t="n">
-        <v>0.1465050027285052</v>
+        <v>0.3163110213920522</v>
       </c>
       <c r="N254" t="n">
-        <v>0.006512108493483382</v>
+        <v>0.05433858965066235</v>
       </c>
       <c r="O254" t="n">
-        <v>0.1458556517468727</v>
+        <v>0.3137758236807375</v>
       </c>
     </row>
     <row r="255" ht="15" customHeight="1">
       <c r="F255" t="n">
-        <v>0.008342985854858376</v>
+        <v>0.02466861290632463</v>
       </c>
       <c r="G255" t="n">
-        <v>0.07003255281504084</v>
+        <v>0.3148014256424715</v>
       </c>
       <c r="J255" t="n">
-        <v>0.003862796368506324</v>
+        <v>0.01686000178727973</v>
       </c>
       <c r="K255" t="n">
-        <v>0.1481698547864725</v>
+        <v>0.3167692555918472</v>
       </c>
       <c r="L255" t="n">
-        <v>0.006266532047299517</v>
+        <v>0.03518082193172065</v>
       </c>
       <c r="M255" t="n">
-        <v>0.1472801614731004</v>
+        <v>0.3179846246798409</v>
       </c>
       <c r="N255" t="n">
-        <v>0.005834573100896634</v>
+        <v>0.05332506384639663</v>
       </c>
       <c r="O255" t="n">
-        <v>0.1466273747719884</v>
+        <v>0.3154360132240218</v>
       </c>
     </row>
     <row r="256" ht="15" customHeight="1">
       <c r="F256" t="n">
-        <v>0.007914122362125603</v>
+        <v>0.02424557595057639</v>
       </c>
       <c r="G256" t="n">
-        <v>0.06990347164779269</v>
+        <v>0.3164582752511161</v>
       </c>
       <c r="J256" t="n">
-        <v>0.003830350144306008</v>
+        <v>0.01646941545752549</v>
       </c>
       <c r="K256" t="n">
-        <v>0.148949696127454</v>
+        <v>0.3184364622002254</v>
       </c>
       <c r="L256" t="n">
-        <v>0.006421980455581427</v>
+        <v>0.03437259687626976</v>
       </c>
       <c r="M256" t="n">
-        <v>0.1480553202176957</v>
+        <v>0.3196582279676295</v>
       </c>
       <c r="N256" t="n">
-        <v>0.005252373739692839</v>
+        <v>0.05220739771234739</v>
       </c>
       <c r="O256" t="n">
-        <v>0.1473990977971041</v>
+        <v>0.3170962027673062</v>
       </c>
     </row>
     <row r="257" ht="15" customHeight="1">
       <c r="F257" t="n">
-        <v>0.007498627751374595</v>
+        <v>0.02382060934832604</v>
       </c>
       <c r="G257" t="n">
-        <v>0.06977439048054453</v>
+        <v>0.3181151248597607</v>
       </c>
       <c r="J257" t="n">
-        <v>0.003596682570909115</v>
+        <v>0.01617749588466295</v>
       </c>
       <c r="K257" t="n">
-        <v>0.1497295374684354</v>
+        <v>0.3201036688086035</v>
       </c>
       <c r="L257" t="n">
-        <v>0.006382291689184499</v>
+        <v>0.03346157119254528</v>
       </c>
       <c r="M257" t="n">
-        <v>0.148830478962291</v>
+        <v>0.3213318312554181</v>
       </c>
       <c r="N257" t="n">
-        <v>0.005265616913357418</v>
+        <v>0.05148553781978155</v>
       </c>
       <c r="O257" t="n">
-        <v>0.1481708208222199</v>
+        <v>0.3187563923105904</v>
       </c>
     </row>
     <row r="258" ht="15" customHeight="1">
       <c r="F258" t="n">
-        <v>0.00709692471103851</v>
+        <v>0.02039368857024888</v>
       </c>
       <c r="G258" t="n">
-        <v>0.06964530931329638</v>
+        <v>0.3197719744684053</v>
       </c>
       <c r="J258" t="n">
-        <v>0.003261811682937071</v>
+        <v>0.01598422600395187</v>
       </c>
       <c r="K258" t="n">
-        <v>0.1505093788094168</v>
+        <v>0.3217708754169816</v>
       </c>
       <c r="L258" t="n">
-        <v>0.006547566823810025</v>
+        <v>0.03284770888244906</v>
       </c>
       <c r="M258" t="n">
-        <v>0.1496056377068863</v>
+        <v>0.3230054345432068</v>
       </c>
       <c r="N258" t="n">
-        <v>0.004274409125375855</v>
+        <v>0.0499594307399655</v>
       </c>
       <c r="O258" t="n">
-        <v>0.1489425438473356</v>
+        <v>0.3204165818538747</v>
       </c>
     </row>
     <row r="259" ht="15" customHeight="1">
       <c r="F259" t="n">
-        <v>0.006709435929550769</v>
+        <v>0.02296478908702022</v>
       </c>
       <c r="G259" t="n">
-        <v>0.06951622814604823</v>
+        <v>0.3214288240770499</v>
       </c>
       <c r="J259" t="n">
-        <v>0.003025755515011372</v>
+        <v>0.01568958875065192</v>
       </c>
       <c r="K259" t="n">
-        <v>0.1512892201503983</v>
+        <v>0.3234380820253598</v>
       </c>
       <c r="L259" t="n">
-        <v>0.006517906935159051</v>
+        <v>0.03223097394788313</v>
       </c>
       <c r="M259" t="n">
-        <v>0.1503807964514815</v>
+        <v>0.3246790378309954</v>
       </c>
       <c r="N259" t="n">
-        <v>0.004078856879233317</v>
+        <v>0.04922902304416588</v>
       </c>
       <c r="O259" t="n">
-        <v>0.1497142668724513</v>
+        <v>0.3220767713971591</v>
       </c>
     </row>
     <row r="260" ht="15" customHeight="1">
       <c r="F260" t="n">
-        <v>0.006336584095344544</v>
+        <v>0.0205338863693154</v>
       </c>
       <c r="G260" t="n">
-        <v>0.06938714697880007</v>
+        <v>0.3230856736856945</v>
       </c>
       <c r="J260" t="n">
-        <v>0.002888532101753521</v>
+        <v>0.01529356706002284</v>
       </c>
       <c r="K260" t="n">
-        <v>0.1520690614913797</v>
+        <v>0.3251052886337379</v>
       </c>
       <c r="L260" t="n">
-        <v>0.006093413098932882</v>
+        <v>0.0317113303907495</v>
       </c>
       <c r="M260" t="n">
-        <v>0.1511559551960768</v>
+        <v>0.326352641118784</v>
       </c>
       <c r="N260" t="n">
-        <v>0.003279066678415432</v>
+        <v>0.04879426130364928</v>
       </c>
       <c r="O260" t="n">
-        <v>0.150485989897567</v>
+        <v>0.3237369609404434</v>
       </c>
     </row>
     <row r="261" ht="15" customHeight="1">
       <c r="F261" t="n">
-        <v>0.005978791896853089</v>
+        <v>0.02110095588780966</v>
       </c>
       <c r="G261" t="n">
-        <v>0.06925806581155192</v>
+        <v>0.3247425232943391</v>
       </c>
       <c r="J261" t="n">
-        <v>0.002650159477784922</v>
+        <v>0.01489614386732437</v>
       </c>
       <c r="K261" t="n">
-        <v>0.1528489028323611</v>
+        <v>0.326772495242116</v>
       </c>
       <c r="L261" t="n">
-        <v>0.006274186390832687</v>
+        <v>0.03098874221295014</v>
       </c>
       <c r="M261" t="n">
-        <v>0.151931113940672</v>
+        <v>0.3280262444065727</v>
       </c>
       <c r="N261" t="n">
-        <v>0.002875145026407455</v>
+        <v>0.04765509208968238</v>
       </c>
       <c r="O261" t="n">
-        <v>0.1512577129226828</v>
+        <v>0.3253971504837277</v>
       </c>
     </row>
     <row r="262" ht="15" customHeight="1">
       <c r="F262" t="n">
-        <v>0.005636482022509645</v>
+        <v>0.0216659731131784</v>
       </c>
       <c r="G262" t="n">
-        <v>0.06912898464430377</v>
+        <v>0.3263993729029837</v>
       </c>
       <c r="J262" t="n">
-        <v>0.002410655677727136</v>
+        <v>0.01459730210781617</v>
       </c>
       <c r="K262" t="n">
-        <v>0.1536287441733426</v>
+        <v>0.3284397018504942</v>
       </c>
       <c r="L262" t="n">
-        <v>0.005960327886559674</v>
+        <v>0.03086317341638706</v>
       </c>
       <c r="M262" t="n">
-        <v>0.1527062726852673</v>
+        <v>0.3296998476943613</v>
       </c>
       <c r="N262" t="n">
-        <v>0.001767198426694927</v>
+        <v>0.04631146197353164</v>
       </c>
       <c r="O262" t="n">
-        <v>0.1520294359477985</v>
+        <v>0.327057340027012</v>
       </c>
     </row>
     <row r="263" ht="15" customHeight="1">
       <c r="F263" t="n">
-        <v>0.005310077160747537</v>
+        <v>0.02022891351609685</v>
       </c>
       <c r="G263" t="n">
-        <v>0.0689999034770556</v>
+        <v>0.3280562225116282</v>
       </c>
       <c r="J263" t="n">
-        <v>0.001970038736201551</v>
+        <v>0.01439702471675801</v>
       </c>
       <c r="K263" t="n">
-        <v>0.154408585514324</v>
+        <v>0.3301069084588724</v>
       </c>
       <c r="L263" t="n">
-        <v>0.006051938661814943</v>
+        <v>0.0299345880029622</v>
       </c>
       <c r="M263" t="n">
-        <v>0.1534814314298626</v>
+        <v>0.33137345098215</v>
       </c>
       <c r="N263" t="n">
-        <v>0.001355333382763002</v>
+        <v>0.04526331752646379</v>
       </c>
       <c r="O263" t="n">
-        <v>0.1528011589729142</v>
+        <v>0.3287175295702964</v>
       </c>
     </row>
     <row r="264" ht="15" customHeight="1">
       <c r="F264" t="n">
-        <v>0.005000000000000004</v>
+        <v>0.01878975256724037</v>
       </c>
       <c r="G264" t="n">
-        <v>0.06887082230980746</v>
+        <v>0.3297130721202728</v>
       </c>
       <c r="J264" t="n">
-        <v>0.00192832668782969</v>
+        <v>0.01419529462940959</v>
       </c>
       <c r="K264" t="n">
-        <v>0.1551884268553054</v>
+        <v>0.3317741150672505</v>
       </c>
       <c r="L264" t="n">
-        <v>0.006049119792299801</v>
+        <v>0.02940294997457749</v>
       </c>
       <c r="M264" t="n">
-        <v>0.1542565901744578</v>
+        <v>0.3330470542699386</v>
       </c>
       <c r="N264" t="n">
-        <v>0.0003396563980972989</v>
+        <v>0.04471060531974536</v>
       </c>
       <c r="O264" t="n">
-        <v>0.15357288199803</v>
-      </c>
-    </row>
-    <row r="265" ht="15" customHeight="1">
-      <c r="F265" t="n">
-        <v>0.005000000000000004</v>
-      </c>
-      <c r="G265" t="n">
-        <v>0.06885766441507062</v>
-      </c>
-    </row>
-    <row r="266" ht="15" customHeight="1">
-      <c r="F266" t="n">
-        <v>0.005925143446445527</v>
-      </c>
-      <c r="G266" t="n">
-        <v>0.06885793294353464</v>
-      </c>
-    </row>
-    <row r="267" ht="15" customHeight="1">
-      <c r="F267" t="n">
-        <v>0.006845125100129565</v>
-      </c>
-      <c r="G267" t="n">
-        <v>0.06885820147199864</v>
-      </c>
-    </row>
-    <row r="268" ht="15" customHeight="1">
-      <c r="F268" t="n">
-        <v>0.007759885779267992</v>
-      </c>
-      <c r="G268" t="n">
-        <v>0.06885847000046268</v>
-      </c>
-    </row>
-    <row r="269" ht="15" customHeight="1">
-      <c r="F269" t="n">
-        <v>0.00866936630195736</v>
-      </c>
-      <c r="G269" t="n">
-        <v>0.06885873852892668</v>
-      </c>
-    </row>
-    <row r="270" ht="15" customHeight="1">
-      <c r="F270" t="n">
-        <v>0.009573507486413751</v>
-      </c>
-      <c r="G270" t="n">
-        <v>0.0688590070573907</v>
-      </c>
-    </row>
-    <row r="271" ht="15" customHeight="1">
-      <c r="F271" t="n">
-        <v>0.01047225015081338</v>
-      </c>
-      <c r="G271" t="n">
-        <v>0.06885927558585471</v>
-      </c>
-    </row>
-    <row r="272" ht="15" customHeight="1">
-      <c r="F272" t="n">
-        <v>0.01136553511337111</v>
-      </c>
-      <c r="G272" t="n">
-        <v>0.06885954411431874</v>
-      </c>
-    </row>
-    <row r="273" ht="15" customHeight="1">
-      <c r="F273" t="n">
-        <v>0.01225330319218543</v>
-      </c>
-      <c r="G273" t="n">
-        <v>0.06885981264278275</v>
-      </c>
-    </row>
-    <row r="274" ht="15" customHeight="1">
-      <c r="F274" t="n">
-        <v>0.01313549520547144</v>
-      </c>
-      <c r="G274" t="n">
-        <v>0.06886008117124677</v>
-      </c>
-    </row>
-    <row r="275" ht="15" customHeight="1">
-      <c r="F275" t="n">
-        <v>0.01401205197140534</v>
-      </c>
-      <c r="G275" t="n">
-        <v>0.06886034969971078</v>
-      </c>
-    </row>
-    <row r="276" ht="15" customHeight="1">
-      <c r="F276" t="n">
-        <v>0.0148829143082011</v>
-      </c>
-      <c r="G276" t="n">
-        <v>0.06886061822817481</v>
-      </c>
-    </row>
-    <row r="277" ht="15" customHeight="1">
-      <c r="F277" t="n">
-        <v>0.01574802303395904</v>
-      </c>
-      <c r="G277" t="n">
-        <v>0.06886088675663882</v>
-      </c>
-    </row>
-    <row r="278" ht="15" customHeight="1">
-      <c r="F278" t="n">
-        <v>0.01660731896689342</v>
-      </c>
-      <c r="G278" t="n">
-        <v>0.06886115528510284</v>
-      </c>
-    </row>
-    <row r="279" ht="15" customHeight="1">
-      <c r="F279" t="n">
-        <v>0.01746074292518038</v>
-      </c>
-      <c r="G279" t="n">
-        <v>0.06886142381356686</v>
-      </c>
-    </row>
-    <row r="280" ht="15" customHeight="1">
-      <c r="F280" t="n">
-        <v>0.01830823572703281</v>
-      </c>
-      <c r="G280" t="n">
-        <v>0.06886169234203088</v>
-      </c>
-    </row>
-    <row r="281" ht="15" customHeight="1">
-      <c r="F281" t="n">
-        <v>0.01914973819055317</v>
-      </c>
-      <c r="G281" t="n">
-        <v>0.0688619608704949</v>
-      </c>
-    </row>
-    <row r="282" ht="15" customHeight="1">
-      <c r="F282" t="n">
-        <v>0.01998519113395464</v>
-      </c>
-      <c r="G282" t="n">
-        <v>0.0688622293989589</v>
-      </c>
-    </row>
-    <row r="283" ht="15" customHeight="1">
-      <c r="F283" t="n">
-        <v>0.02081453537541336</v>
-      </c>
-      <c r="G283" t="n">
-        <v>0.06886249792742292</v>
-      </c>
-    </row>
-    <row r="284" ht="15" customHeight="1">
-      <c r="F284" t="n">
-        <v>0.02163771173314119</v>
-      </c>
-      <c r="G284" t="n">
-        <v>0.06886276645588695</v>
-      </c>
-    </row>
-    <row r="285" ht="15" customHeight="1">
-      <c r="F285" t="n">
-        <v>0.02245466102524271</v>
-      </c>
-      <c r="G285" t="n">
-        <v>0.06886303498435097</v>
-      </c>
-    </row>
-    <row r="286" ht="15" customHeight="1">
-      <c r="F286" t="n">
-        <v>0.02326532406992997</v>
-      </c>
-      <c r="G286" t="n">
-        <v>0.06886330351281497</v>
-      </c>
-    </row>
-    <row r="287" ht="15" customHeight="1">
-      <c r="F287" t="n">
-        <v>0.02406964168537921</v>
-      </c>
-      <c r="G287" t="n">
-        <v>0.06886357204127899</v>
-      </c>
-    </row>
-    <row r="288" ht="15" customHeight="1">
-      <c r="F288" t="n">
-        <v>0.02486755468980115</v>
-      </c>
-      <c r="G288" t="n">
-        <v>0.06886384056974301</v>
-      </c>
-    </row>
-    <row r="289" ht="15" customHeight="1">
-      <c r="F289" t="n">
-        <v>0.02565900390130252</v>
-      </c>
-      <c r="G289" t="n">
-        <v>0.06886410909820703</v>
-      </c>
-    </row>
-    <row r="290" ht="15" customHeight="1">
-      <c r="F290" t="n">
-        <v>0.02644417179720833</v>
-      </c>
-      <c r="G290" t="n">
-        <v>0.06886437762667104</v>
-      </c>
-    </row>
-    <row r="291" ht="15" customHeight="1">
-      <c r="F291" t="n">
-        <v>0.02722444915037857</v>
-      </c>
-      <c r="G291" t="n">
-        <v>0.06886464615513506</v>
-      </c>
-    </row>
-    <row r="292" ht="15" customHeight="1">
-      <c r="F292" t="n">
-        <v>0.028000018438137</v>
-      </c>
-      <c r="G292" t="n">
-        <v>0.06886491468359908</v>
-      </c>
-    </row>
-    <row r="293" ht="15" customHeight="1">
-      <c r="F293" t="n">
-        <v>0.02877082047859227</v>
-      </c>
-      <c r="G293" t="n">
-        <v>0.0688651832120631</v>
-      </c>
-    </row>
-    <row r="294" ht="15" customHeight="1">
-      <c r="F294" t="n">
-        <v>0.02953679608995441</v>
-      </c>
-      <c r="G294" t="n">
-        <v>0.06886545174052712</v>
-      </c>
-    </row>
-    <row r="295" ht="15" customHeight="1">
-      <c r="F295" t="n">
-        <v>0.0302978860903996</v>
-      </c>
-      <c r="G295" t="n">
-        <v>0.06886572026899113</v>
-      </c>
-    </row>
-    <row r="296" ht="15" customHeight="1">
-      <c r="F296" t="n">
-        <v>0.03105403129813682</v>
-      </c>
-      <c r="G296" t="n">
-        <v>0.06886598879745516</v>
-      </c>
-    </row>
-    <row r="297" ht="15" customHeight="1">
-      <c r="F297" t="n">
-        <v>0.03180517253127642</v>
-      </c>
-      <c r="G297" t="n">
-        <v>0.06886625732591917</v>
-      </c>
-    </row>
-    <row r="298" ht="15" customHeight="1">
-      <c r="F298" t="n">
-        <v>0.03255125060802758</v>
-      </c>
-      <c r="G298" t="n">
-        <v>0.06886652585438319</v>
-      </c>
-    </row>
-    <row r="299" ht="15" customHeight="1">
-      <c r="F299" t="n">
-        <v>0.03329220634656646</v>
-      </c>
-      <c r="G299" t="n">
-        <v>0.06886679438284719</v>
-      </c>
-    </row>
-    <row r="300" ht="15" customHeight="1">
-      <c r="F300" t="n">
-        <v>0.03402798056510119</v>
-      </c>
-      <c r="G300" t="n">
-        <v>0.06886706291131123</v>
-      </c>
-    </row>
-    <row r="301" ht="15" customHeight="1">
-      <c r="F301" t="n">
-        <v>0.03475851408174385</v>
-      </c>
-      <c r="G301" t="n">
-        <v>0.06886733143977523</v>
-      </c>
-    </row>
-    <row r="302" ht="15" customHeight="1">
-      <c r="F302" t="n">
-        <v>0.03548374771470275</v>
-      </c>
-      <c r="G302" t="n">
-        <v>0.06886759996823925</v>
-      </c>
-    </row>
-    <row r="303" ht="15" customHeight="1">
-      <c r="F303" t="n">
-        <v>0.03620362228215408</v>
-      </c>
-      <c r="G303" t="n">
-        <v>0.06886786849670327</v>
-      </c>
-    </row>
-    <row r="304" ht="15" customHeight="1">
-      <c r="F304" t="n">
-        <v>0.03691807860230498</v>
-      </c>
-      <c r="G304" t="n">
-        <v>0.06886813702516729</v>
-      </c>
-    </row>
-    <row r="305" ht="15" customHeight="1">
-      <c r="F305" t="n">
-        <v>0.03762705749326944</v>
-      </c>
-      <c r="G305" t="n">
-        <v>0.06886840555363131</v>
-      </c>
-    </row>
-    <row r="306" ht="15" customHeight="1">
-      <c r="F306" t="n">
-        <v>0.03833049977325484</v>
-      </c>
-      <c r="G306" t="n">
-        <v>0.06886867408209532</v>
-      </c>
-    </row>
-    <row r="307" ht="15" customHeight="1">
-      <c r="F307" t="n">
-        <v>0.03902834626043736</v>
-      </c>
-      <c r="G307" t="n">
-        <v>0.06886894261055934</v>
-      </c>
-    </row>
-    <row r="308" ht="15" customHeight="1">
-      <c r="F308" t="n">
-        <v>0.03972053777302315</v>
-      </c>
-      <c r="G308" t="n">
-        <v>0.06886921113902336</v>
-      </c>
-    </row>
-    <row r="309" ht="15" customHeight="1">
-      <c r="F309" t="n">
-        <v>0.04040701512912814</v>
-      </c>
-      <c r="G309" t="n">
-        <v>0.06886947966748738</v>
-      </c>
-    </row>
-    <row r="310" ht="15" customHeight="1">
-      <c r="F310" t="n">
-        <v>0.04108771914695877</v>
-      </c>
-      <c r="G310" t="n">
-        <v>0.06886974819595139</v>
-      </c>
-    </row>
-    <row r="311" ht="15" customHeight="1">
-      <c r="F311" t="n">
-        <v>0.04176259064469119</v>
-      </c>
-      <c r="G311" t="n">
-        <v>0.06887001672441541</v>
-      </c>
-    </row>
-    <row r="312" ht="15" customHeight="1">
-      <c r="F312" t="n">
-        <v>0.04243157044053057</v>
-      </c>
-      <c r="G312" t="n">
-        <v>0.06887028525287943</v>
-      </c>
-    </row>
-    <row r="313" ht="15" customHeight="1">
-      <c r="F313" t="n">
-        <v>0.04309459935259485</v>
-      </c>
-      <c r="G313" t="n">
-        <v>0.06887055378134345</v>
-      </c>
-    </row>
-    <row r="314" ht="15" customHeight="1">
-      <c r="F314" t="n">
-        <v>0.04375161819908946</v>
-      </c>
-      <c r="G314" t="n">
-        <v>0.06887082230980746</v>
-      </c>
-    </row>
-    <row r="315" ht="15" customHeight="1">
-      <c r="F315" t="n">
-        <v>0.04375161819908945</v>
-      </c>
-      <c r="G315" t="n">
-        <v>0.06885766441507062</v>
-      </c>
-    </row>
-    <row r="316" ht="15" customHeight="1">
-      <c r="F316" t="n">
-        <v>0.0445482352021801</v>
-      </c>
-      <c r="G316" t="n">
-        <v>0.06898728263924681</v>
-      </c>
-    </row>
-    <row r="317" ht="15" customHeight="1">
-      <c r="F317" t="n">
-        <v>0.04533807993330055</v>
-      </c>
-      <c r="G317" t="n">
-        <v>0.06911690086342298</v>
-      </c>
-    </row>
-    <row r="318" ht="15" customHeight="1">
-      <c r="F318" t="n">
-        <v>0.04612099944165501</v>
-      </c>
-      <c r="G318" t="n">
-        <v>0.06924651908759917</v>
-      </c>
-    </row>
-    <row r="319" ht="15" customHeight="1">
-      <c r="F319" t="n">
-        <v>0.04689684077644737</v>
-      </c>
-      <c r="G319" t="n">
-        <v>0.06937613731177536</v>
-      </c>
-    </row>
-    <row r="320" ht="15" customHeight="1">
-      <c r="F320" t="n">
-        <v>0.04766545098688169</v>
-      </c>
-      <c r="G320" t="n">
-        <v>0.06950575553595155</v>
-      </c>
-    </row>
-    <row r="321" ht="15" customHeight="1">
-      <c r="F321" t="n">
-        <v>0.04842667712216185</v>
-      </c>
-      <c r="G321" t="n">
-        <v>0.06963537376012774</v>
-      </c>
-    </row>
-    <row r="322" ht="15" customHeight="1">
-      <c r="F322" t="n">
-        <v>0.04918036623149206</v>
-      </c>
-      <c r="G322" t="n">
-        <v>0.06976499198430393</v>
-      </c>
-    </row>
-    <row r="323" ht="15" customHeight="1">
-      <c r="F323" t="n">
-        <v>0.04992636536407624</v>
-      </c>
-      <c r="G323" t="n">
-        <v>0.06989461020848012</v>
-      </c>
-    </row>
-    <row r="324" ht="15" customHeight="1">
-      <c r="F324" t="n">
-        <v>0.05066452156911835</v>
-      </c>
-      <c r="G324" t="n">
-        <v>0.07002422843265629</v>
-      </c>
-    </row>
-    <row r="325" ht="15" customHeight="1">
-      <c r="F325" t="n">
-        <v>0.05139468189582252</v>
-      </c>
-      <c r="G325" t="n">
-        <v>0.07015384665683248</v>
-      </c>
-    </row>
-    <row r="326" ht="15" customHeight="1">
-      <c r="F326" t="n">
-        <v>0.05211669339339269</v>
-      </c>
-      <c r="G326" t="n">
-        <v>0.07028346488100867</v>
-      </c>
-    </row>
-    <row r="327" ht="15" customHeight="1">
-      <c r="F327" t="n">
-        <v>0.0528304031110329</v>
-      </c>
-      <c r="G327" t="n">
-        <v>0.07041308310518486</v>
-      </c>
-    </row>
-    <row r="328" ht="15" customHeight="1">
-      <c r="F328" t="n">
-        <v>0.05353565809794709</v>
-      </c>
-      <c r="G328" t="n">
-        <v>0.07054270132936104</v>
-      </c>
-    </row>
-    <row r="329" ht="15" customHeight="1">
-      <c r="F329" t="n">
-        <v>0.05423230540333938</v>
-      </c>
-      <c r="G329" t="n">
-        <v>0.07067231955353723</v>
-      </c>
-    </row>
-    <row r="330" ht="15" customHeight="1">
-      <c r="F330" t="n">
-        <v>0.05492019207641373</v>
-      </c>
-      <c r="G330" t="n">
-        <v>0.07080193777771342</v>
-      </c>
-    </row>
-    <row r="331" ht="15" customHeight="1">
-      <c r="F331" t="n">
-        <v>0.05559916516637411</v>
-      </c>
-      <c r="G331" t="n">
-        <v>0.07093155600188961</v>
-      </c>
-    </row>
-    <row r="332" ht="15" customHeight="1">
-      <c r="F332" t="n">
-        <v>0.05626907172242465</v>
-      </c>
-      <c r="G332" t="n">
-        <v>0.0710611742260658</v>
-      </c>
-    </row>
-    <row r="333" ht="15" customHeight="1">
-      <c r="F333" t="n">
-        <v>0.05692975879376927</v>
-      </c>
-      <c r="G333" t="n">
-        <v>0.07119079245024199</v>
-      </c>
-    </row>
-    <row r="334" ht="15" customHeight="1">
-      <c r="F334" t="n">
-        <v>0.05758107342961204</v>
-      </c>
-      <c r="G334" t="n">
-        <v>0.07132041067441817</v>
-      </c>
-    </row>
-    <row r="335" ht="15" customHeight="1">
-      <c r="F335" t="n">
-        <v>0.05822286267915687</v>
-      </c>
-      <c r="G335" t="n">
-        <v>0.07145002889859435</v>
-      </c>
-    </row>
-    <row r="336" ht="15" customHeight="1">
-      <c r="F336" t="n">
-        <v>0.05885497359160791</v>
-      </c>
-      <c r="G336" t="n">
-        <v>0.07157964712277054</v>
-      </c>
-    </row>
-    <row r="337" ht="15" customHeight="1">
-      <c r="F337" t="n">
-        <v>0.05947725321616908</v>
-      </c>
-      <c r="G337" t="n">
-        <v>0.07170926534694673</v>
-      </c>
-    </row>
-    <row r="338" ht="15" customHeight="1">
-      <c r="F338" t="n">
-        <v>0.06008954860204439</v>
-      </c>
-      <c r="G338" t="n">
-        <v>0.07183888357112291</v>
-      </c>
-    </row>
-    <row r="339" ht="15" customHeight="1">
-      <c r="F339" t="n">
-        <v>0.06069170679843792</v>
-      </c>
-      <c r="G339" t="n">
-        <v>0.07196850179529909</v>
-      </c>
-    </row>
-    <row r="340" ht="15" customHeight="1">
-      <c r="F340" t="n">
-        <v>0.06128419940363729</v>
-      </c>
-      <c r="G340" t="n">
-        <v>0.07209812001947528</v>
-      </c>
-    </row>
-    <row r="341" ht="15" customHeight="1">
-      <c r="F341" t="n">
-        <v>0.06187062076134814</v>
-      </c>
-      <c r="G341" t="n">
-        <v>0.07222773824365147</v>
-      </c>
-    </row>
-    <row r="342" ht="15" customHeight="1">
-      <c r="F342" t="n">
-        <v>0.06245144246985805</v>
-      </c>
-      <c r="G342" t="n">
-        <v>0.07235735646782766</v>
-      </c>
-    </row>
-    <row r="343" ht="15" customHeight="1">
-      <c r="F343" t="n">
-        <v>0.06302651157837116</v>
-      </c>
-      <c r="G343" t="n">
-        <v>0.07248697469200385</v>
-      </c>
-    </row>
-    <row r="344" ht="15" customHeight="1">
-      <c r="F344" t="n">
-        <v>0.06359567513609145</v>
-      </c>
-      <c r="G344" t="n">
-        <v>0.07261659291618004</v>
-      </c>
-    </row>
-    <row r="345" ht="15" customHeight="1">
-      <c r="F345" t="n">
-        <v>0.06415878019222282</v>
-      </c>
-      <c r="G345" t="n">
-        <v>0.07274621114035622</v>
-      </c>
-    </row>
-    <row r="346" ht="15" customHeight="1">
-      <c r="F346" t="n">
-        <v>0.06471567379596943</v>
-      </c>
-      <c r="G346" t="n">
-        <v>0.07287582936453241</v>
-      </c>
-    </row>
-    <row r="347" ht="15" customHeight="1">
-      <c r="F347" t="n">
-        <v>0.06526620299653524</v>
-      </c>
-      <c r="G347" t="n">
-        <v>0.0730054475887086</v>
-      </c>
-    </row>
-    <row r="348" ht="15" customHeight="1">
-      <c r="F348" t="n">
-        <v>0.06581021484312428</v>
-      </c>
-      <c r="G348" t="n">
-        <v>0.07313506581288479</v>
-      </c>
-    </row>
-    <row r="349" ht="15" customHeight="1">
-      <c r="F349" t="n">
-        <v>0.06634755638494043</v>
-      </c>
-      <c r="G349" t="n">
-        <v>0.07326468403706096</v>
-      </c>
-    </row>
-    <row r="350" ht="15" customHeight="1">
-      <c r="F350" t="n">
-        <v>0.06687807467118791</v>
-      </c>
-      <c r="G350" t="n">
-        <v>0.07339430226123715</v>
-      </c>
-    </row>
-    <row r="351" ht="15" customHeight="1">
-      <c r="F351" t="n">
-        <v>0.06740161675107061</v>
-      </c>
-      <c r="G351" t="n">
-        <v>0.07352392048541334</v>
-      </c>
-    </row>
-    <row r="352" ht="15" customHeight="1">
-      <c r="F352" t="n">
-        <v>0.06791802967379253</v>
-      </c>
-      <c r="G352" t="n">
-        <v>0.07365353870958953</v>
-      </c>
-    </row>
-    <row r="353" ht="15" customHeight="1">
-      <c r="F353" t="n">
-        <v>0.06842716048855778</v>
-      </c>
-      <c r="G353" t="n">
-        <v>0.07378315693376572</v>
-      </c>
-    </row>
-    <row r="354" ht="15" customHeight="1">
-      <c r="F354" t="n">
-        <v>0.06892885624457028</v>
-      </c>
-      <c r="G354" t="n">
-        <v>0.07391277515794191</v>
-      </c>
-    </row>
-    <row r="355" ht="15" customHeight="1">
-      <c r="F355" t="n">
-        <v>0.06942296399103408</v>
-      </c>
-      <c r="G355" t="n">
-        <v>0.0740423933821181</v>
-      </c>
-    </row>
-    <row r="356" ht="15" customHeight="1">
-      <c r="F356" t="n">
-        <v>0.06990933077715318</v>
-      </c>
-      <c r="G356" t="n">
-        <v>0.07417201160629427</v>
-      </c>
-    </row>
-    <row r="357" ht="15" customHeight="1">
-      <c r="F357" t="n">
-        <v>0.07038780365213161</v>
-      </c>
-      <c r="G357" t="n">
-        <v>0.07430162983047046</v>
-      </c>
-    </row>
-    <row r="358" ht="15" customHeight="1">
-      <c r="F358" t="n">
-        <v>0.07085822966517343</v>
-      </c>
-      <c r="G358" t="n">
-        <v>0.07443124805464665</v>
-      </c>
-    </row>
-    <row r="359" ht="15" customHeight="1">
-      <c r="F359" t="n">
-        <v>0.07132045586548254</v>
-      </c>
-      <c r="G359" t="n">
-        <v>0.07456086627882283</v>
-      </c>
-    </row>
-    <row r="360" ht="15" customHeight="1">
-      <c r="F360" t="n">
-        <v>0.071774329302263</v>
-      </c>
-      <c r="G360" t="n">
-        <v>0.07469048450299902</v>
-      </c>
-    </row>
-    <row r="361" ht="15" customHeight="1">
-      <c r="F361" t="n">
-        <v>0.07221969702471891</v>
-      </c>
-      <c r="G361" t="n">
-        <v>0.07482010272717521</v>
-      </c>
-    </row>
-    <row r="362" ht="15" customHeight="1">
-      <c r="F362" t="n">
-        <v>0.07265640608205419</v>
-      </c>
-      <c r="G362" t="n">
-        <v>0.0749497209513514</v>
-      </c>
-    </row>
-    <row r="363" ht="15" customHeight="1">
-      <c r="F363" t="n">
-        <v>0.0730843035234728</v>
-      </c>
-      <c r="G363" t="n">
-        <v>0.07507933917552759</v>
-      </c>
-    </row>
-    <row r="364" ht="15" customHeight="1">
-      <c r="F364" t="n">
-        <v>0.07350323639817889</v>
-      </c>
-      <c r="G364" t="n">
-        <v>0.07520895739970378</v>
-      </c>
-    </row>
-    <row r="365" ht="15" customHeight="1">
-      <c r="F365" t="n">
-        <v>0.06366882426545259</v>
-      </c>
-      <c r="G365" t="n">
-        <v>0.07520895739970378</v>
-      </c>
-    </row>
-    <row r="366" ht="15" customHeight="1">
-      <c r="F366" t="n">
-        <v>0.0736061779638623</v>
-      </c>
-      <c r="G366" t="n">
-        <v>0.07748767595358688</v>
-      </c>
-    </row>
-    <row r="367" ht="15" customHeight="1">
-      <c r="F367" t="n">
-        <v>0.07370180077651305</v>
-      </c>
-      <c r="G367" t="n">
-        <v>0.07976639450746999</v>
-      </c>
-    </row>
-    <row r="368" ht="15" customHeight="1">
-      <c r="F368" t="n">
-        <v>0.07379037471547549</v>
-      </c>
-      <c r="G368" t="n">
-        <v>0.08204511306135309</v>
-      </c>
-    </row>
-    <row r="369" ht="15" customHeight="1">
-      <c r="F369" t="n">
-        <v>0.07387216966009398</v>
-      </c>
-      <c r="G369" t="n">
-        <v>0.0843238316152362</v>
-      </c>
-    </row>
-    <row r="370" ht="15" customHeight="1">
-      <c r="F370" t="n">
-        <v>0.07394745548971292</v>
-      </c>
-      <c r="G370" t="n">
-        <v>0.08660255016911932</v>
-      </c>
-    </row>
-    <row r="371" ht="15" customHeight="1">
-      <c r="F371" t="n">
-        <v>0.07401650208367667</v>
-      </c>
-      <c r="G371" t="n">
-        <v>0.08888126872300242</v>
-      </c>
-    </row>
-    <row r="372" ht="15" customHeight="1">
-      <c r="F372" t="n">
-        <v>0.07407957932132965</v>
-      </c>
-      <c r="G372" t="n">
-        <v>0.09115998727688553</v>
-      </c>
-    </row>
-    <row r="373" ht="15" customHeight="1">
-      <c r="F373" t="n">
-        <v>0.07413695708201611</v>
-      </c>
-      <c r="G373" t="n">
-        <v>0.09343870583076863</v>
-      </c>
-    </row>
-    <row r="374" ht="15" customHeight="1">
-      <c r="F374" t="n">
-        <v>0.07418890524508052</v>
-      </c>
-      <c r="G374" t="n">
-        <v>0.09571742438465174</v>
-      </c>
-    </row>
-    <row r="375" ht="15" customHeight="1">
-      <c r="F375" t="n">
-        <v>0.0742356936898672</v>
-      </c>
-      <c r="G375" t="n">
-        <v>0.09799614293853484</v>
-      </c>
-    </row>
-    <row r="376" ht="15" customHeight="1">
-      <c r="F376" t="n">
-        <v>0.07427759229572055</v>
-      </c>
-      <c r="G376" t="n">
-        <v>0.1002748614924179</v>
-      </c>
-    </row>
-    <row r="377" ht="15" customHeight="1">
-      <c r="F377" t="n">
-        <v>0.07431487094198495</v>
-      </c>
-      <c r="G377" t="n">
-        <v>0.1025535800463011</v>
-      </c>
-    </row>
-    <row r="378" ht="15" customHeight="1">
-      <c r="F378" t="n">
-        <v>0.0743477995080047</v>
-      </c>
-      <c r="G378" t="n">
-        <v>0.1048322986001842</v>
-      </c>
-    </row>
-    <row r="379" ht="15" customHeight="1">
-      <c r="F379" t="n">
-        <v>0.07437664787312422</v>
-      </c>
-      <c r="G379" t="n">
-        <v>0.1071110171540673</v>
-      </c>
-    </row>
-    <row r="380" ht="15" customHeight="1">
-      <c r="F380" t="n">
-        <v>0.0744016859166879</v>
-      </c>
-      <c r="G380" t="n">
-        <v>0.1093897357079504</v>
-      </c>
-    </row>
-    <row r="381" ht="15" customHeight="1">
-      <c r="F381" t="n">
-        <v>0.07442318351804013</v>
-      </c>
-      <c r="G381" t="n">
-        <v>0.1116684542618335</v>
-      </c>
-    </row>
-    <row r="382" ht="15" customHeight="1">
-      <c r="F382" t="n">
-        <v>0.07444141055652519</v>
-      </c>
-      <c r="G382" t="n">
-        <v>0.1139471728157166</v>
-      </c>
-    </row>
-    <row r="383" ht="15" customHeight="1">
-      <c r="F383" t="n">
-        <v>0.0744566369114875</v>
-      </c>
-      <c r="G383" t="n">
-        <v>0.1162258913695997</v>
-      </c>
-    </row>
-    <row r="384" ht="15" customHeight="1">
-      <c r="F384" t="n">
-        <v>0.07446913246227148</v>
-      </c>
-      <c r="G384" t="n">
-        <v>0.1185046099234828</v>
-      </c>
-    </row>
-    <row r="385" ht="15" customHeight="1">
-      <c r="F385" t="n">
-        <v>0.0744791670882214</v>
-      </c>
-      <c r="G385" t="n">
-        <v>0.1207833284773659</v>
-      </c>
-    </row>
-    <row r="386" ht="15" customHeight="1">
-      <c r="F386" t="n">
-        <v>0.07448701066868173</v>
-      </c>
-      <c r="G386" t="n">
-        <v>0.123062047031249</v>
-      </c>
-    </row>
-    <row r="387" ht="15" customHeight="1">
-      <c r="F387" t="n">
-        <v>0.07449293308299675</v>
-      </c>
-      <c r="G387" t="n">
-        <v>0.1253407655851321</v>
-      </c>
-    </row>
-    <row r="388" ht="15" customHeight="1">
-      <c r="F388" t="n">
-        <v>0.07449720421051088</v>
-      </c>
-      <c r="G388" t="n">
-        <v>0.1276194841390152</v>
-      </c>
-    </row>
-    <row r="389" ht="15" customHeight="1">
-      <c r="F389" t="n">
-        <v>0.07450009393056849</v>
-      </c>
-      <c r="G389" t="n">
-        <v>0.1298982026928983</v>
-      </c>
-    </row>
-    <row r="390" ht="15" customHeight="1">
-      <c r="F390" t="n">
-        <v>0.07450187212251393</v>
-      </c>
-      <c r="G390" t="n">
-        <v>0.1321769212467815</v>
-      </c>
-    </row>
-    <row r="391" ht="15" customHeight="1">
-      <c r="F391" t="n">
-        <v>0.07450280866569158</v>
-      </c>
-      <c r="G391" t="n">
-        <v>0.1344556398006646</v>
-      </c>
-    </row>
-    <row r="392" ht="15" customHeight="1">
-      <c r="F392" t="n">
-        <v>0.07450317343944581</v>
-      </c>
-      <c r="G392" t="n">
-        <v>0.1367343583545477</v>
-      </c>
-    </row>
-    <row r="393" ht="15" customHeight="1">
-      <c r="F393" t="n">
-        <v>0.07450323632312099</v>
-      </c>
-      <c r="G393" t="n">
-        <v>0.1390130769084308</v>
-      </c>
-    </row>
-    <row r="394" ht="15" customHeight="1">
-      <c r="F394" t="n">
-        <v>0.07444770518698469</v>
-      </c>
-      <c r="G394" t="n">
-        <v>0.1412917954623139</v>
-      </c>
-    </row>
-    <row r="395" ht="15" customHeight="1">
-      <c r="F395" t="n">
-        <v>0.07425648823730298</v>
-      </c>
-      <c r="G395" t="n">
-        <v>0.143570514016197</v>
-      </c>
-    </row>
-    <row r="396" ht="15" customHeight="1">
-      <c r="F396" t="n">
-        <v>0.07393919064626521</v>
-      </c>
-      <c r="G396" t="n">
-        <v>0.1458492325700801</v>
-      </c>
-    </row>
-    <row r="397" ht="15" customHeight="1">
-      <c r="F397" t="n">
-        <v>0.07350644811621825</v>
-      </c>
-      <c r="G397" t="n">
-        <v>0.1481279511239632</v>
-      </c>
-    </row>
-    <row r="398" ht="15" customHeight="1">
-      <c r="F398" t="n">
-        <v>0.07296889634950894</v>
-      </c>
-      <c r="G398" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="399" ht="15" customHeight="1">
-      <c r="F399" t="n">
-        <v>0.07233717104848413</v>
-      </c>
-      <c r="G399" t="n">
-        <v>0.1526853882317294</v>
-      </c>
-    </row>
-    <row r="400" ht="15" customHeight="1">
-      <c r="F400" t="n">
-        <v>0.07162190791549068</v>
-      </c>
-      <c r="G400" t="n">
-        <v>0.1549641067856125</v>
-      </c>
-    </row>
-    <row r="401" ht="15" customHeight="1">
-      <c r="F401" t="n">
-        <v>0.07083374265287541</v>
-      </c>
-      <c r="G401" t="n">
-        <v>0.1572428253394956</v>
-      </c>
-    </row>
-    <row r="402" ht="15" customHeight="1">
-      <c r="F402" t="n">
-        <v>0.0699833109629852</v>
-      </c>
-      <c r="G402" t="n">
-        <v>0.1595215438933787</v>
-      </c>
-    </row>
-    <row r="403" ht="15" customHeight="1">
-      <c r="F403" t="n">
-        <v>0.0690812485481669</v>
-      </c>
-      <c r="G403" t="n">
-        <v>0.1618002624472618</v>
-      </c>
-    </row>
-    <row r="404" ht="15" customHeight="1">
-      <c r="F404" t="n">
-        <v>0.06813819111076728</v>
-      </c>
-      <c r="G404" t="n">
-        <v>0.164078981001145</v>
-      </c>
-    </row>
-    <row r="405" ht="15" customHeight="1">
-      <c r="F405" t="n">
-        <v>0.06716477435313332</v>
-      </c>
-      <c r="G405" t="n">
-        <v>0.166357699555028</v>
-      </c>
-    </row>
-    <row r="406" ht="15" customHeight="1">
-      <c r="F406" t="n">
-        <v>0.06617163397761176</v>
-      </c>
-      <c r="G406" t="n">
-        <v>0.1686364181089112</v>
-      </c>
-    </row>
-    <row r="407" ht="15" customHeight="1">
-      <c r="F407" t="n">
-        <v>0.06516940568654951</v>
-      </c>
-      <c r="G407" t="n">
-        <v>0.1709151366627943</v>
-      </c>
-    </row>
-    <row r="408" ht="15" customHeight="1">
-      <c r="F408" t="n">
-        <v>0.06416872518229338</v>
-      </c>
-      <c r="G408" t="n">
-        <v>0.1731938552166774</v>
-      </c>
-    </row>
-    <row r="409" ht="15" customHeight="1">
-      <c r="F409" t="n">
-        <v>0.06318022816719024</v>
-      </c>
-      <c r="G409" t="n">
-        <v>0.1754725737705605</v>
-      </c>
-    </row>
-    <row r="410" ht="15" customHeight="1">
-      <c r="F410" t="n">
-        <v>0.06221455034358694</v>
-      </c>
-      <c r="G410" t="n">
-        <v>0.1777512923244436</v>
-      </c>
-    </row>
-    <row r="411" ht="15" customHeight="1">
-      <c r="F411" t="n">
-        <v>0.06128232741383031</v>
-      </c>
-      <c r="G411" t="n">
-        <v>0.1800300108783267</v>
-      </c>
-    </row>
-    <row r="412" ht="15" customHeight="1">
-      <c r="F412" t="n">
-        <v>0.06039419508026724</v>
-      </c>
-      <c r="G412" t="n">
-        <v>0.1823087294322098</v>
-      </c>
-    </row>
-    <row r="413" ht="15" customHeight="1">
-      <c r="F413" t="n">
-        <v>0.05956078904524449</v>
-      </c>
-      <c r="G413" t="n">
-        <v>0.1845874479860929</v>
-      </c>
-    </row>
-    <row r="414" ht="15" customHeight="1">
-      <c r="F414" t="n">
-        <v>0.05879274501110901</v>
-      </c>
-      <c r="G414" t="n">
-        <v>0.186866166539976</v>
-      </c>
-    </row>
-    <row r="415" ht="15" customHeight="1">
-      <c r="F415" t="n">
-        <v>0.05810069868020759</v>
-      </c>
-      <c r="G415" t="n">
-        <v>0.1891448850938592</v>
-      </c>
-    </row>
-    <row r="416" ht="15" customHeight="1">
-      <c r="F416" t="n">
-        <v>0.05749528575488709</v>
-      </c>
-      <c r="G416" t="n">
-        <v>0.1914236036477422</v>
-      </c>
-    </row>
-    <row r="417" ht="15" customHeight="1">
-      <c r="F417" t="n">
-        <v>0.05696307834058636</v>
-      </c>
-      <c r="G417" t="n">
-        <v>0.1937023222016254</v>
-      </c>
-    </row>
-    <row r="418" ht="15" customHeight="1">
-      <c r="F418" t="n">
-        <v>0.05644480836112337</v>
-      </c>
-      <c r="G418" t="n">
-        <v>0.1959810407555085</v>
-      </c>
-    </row>
-    <row r="419" ht="15" customHeight="1">
-      <c r="F419" t="n">
-        <v>0.0559369350097393</v>
-      </c>
-      <c r="G419" t="n">
-        <v>0.1982597593093915</v>
-      </c>
-    </row>
-    <row r="420" ht="15" customHeight="1">
-      <c r="F420" t="n">
-        <v>0.05543932872151422</v>
-      </c>
-      <c r="G420" t="n">
-        <v>0.2005384778632747</v>
-      </c>
-    </row>
-    <row r="421" ht="15" customHeight="1">
-      <c r="F421" t="n">
-        <v>0.05495185993152819</v>
-      </c>
-      <c r="G421" t="n">
-        <v>0.2028171964171578</v>
-      </c>
-    </row>
-    <row r="422" ht="15" customHeight="1">
-      <c r="F422" t="n">
-        <v>0.05447439907486126</v>
-      </c>
-      <c r="G422" t="n">
-        <v>0.2050959149710409</v>
-      </c>
-    </row>
-    <row r="423" ht="15" customHeight="1">
-      <c r="F423" t="n">
-        <v>0.05400681658659352</v>
-      </c>
-      <c r="G423" t="n">
-        <v>0.207374633524924</v>
-      </c>
-    </row>
-    <row r="424" ht="15" customHeight="1">
-      <c r="F424" t="n">
-        <v>0.05354898290180497</v>
-      </c>
-      <c r="G424" t="n">
-        <v>0.2096533520788071</v>
-      </c>
-    </row>
-    <row r="425" ht="15" customHeight="1">
-      <c r="F425" t="n">
-        <v>0.05310076845557574</v>
-      </c>
-      <c r="G425" t="n">
-        <v>0.2119320706326902</v>
-      </c>
-    </row>
-    <row r="426" ht="15" customHeight="1">
-      <c r="F426" t="n">
-        <v>0.05266204368298583</v>
-      </c>
-      <c r="G426" t="n">
-        <v>0.2142107891865733</v>
-      </c>
-    </row>
-    <row r="427" ht="15" customHeight="1">
-      <c r="F427" t="n">
-        <v>0.05223267901911532</v>
-      </c>
-      <c r="G427" t="n">
-        <v>0.2164895077404564</v>
-      </c>
-    </row>
-    <row r="428" ht="15" customHeight="1">
-      <c r="F428" t="n">
-        <v>0.05181254489904426</v>
-      </c>
-      <c r="G428" t="n">
-        <v>0.2187682262943395</v>
-      </c>
-    </row>
-    <row r="429" ht="15" customHeight="1">
-      <c r="F429" t="n">
-        <v>0.05140151175785272</v>
-      </c>
-      <c r="G429" t="n">
-        <v>0.2210469448482227</v>
-      </c>
-    </row>
-    <row r="430" ht="15" customHeight="1">
-      <c r="F430" t="n">
-        <v>0.05099945003062074</v>
-      </c>
-      <c r="G430" t="n">
-        <v>0.2233256634021057</v>
-      </c>
-    </row>
-    <row r="431" ht="15" customHeight="1">
-      <c r="F431" t="n">
-        <v>0.05060623015242839</v>
-      </c>
-      <c r="G431" t="n">
-        <v>0.2256043819559889</v>
-      </c>
-    </row>
-    <row r="432" ht="15" customHeight="1">
-      <c r="F432" t="n">
-        <v>0.05022172255835575</v>
-      </c>
-      <c r="G432" t="n">
-        <v>0.227883100509872</v>
-      </c>
-    </row>
-    <row r="433" ht="15" customHeight="1">
-      <c r="F433" t="n">
-        <v>0.04984579768348282</v>
-      </c>
-      <c r="G433" t="n">
-        <v>0.2301618190637551</v>
-      </c>
-    </row>
-    <row r="434" ht="15" customHeight="1">
-      <c r="F434" t="n">
-        <v>0.04947832596288974</v>
-      </c>
-      <c r="G434" t="n">
-        <v>0.2324405376176382</v>
-      </c>
-    </row>
-    <row r="435" ht="15" customHeight="1">
-      <c r="F435" t="n">
-        <v>0.04911917783165649</v>
-      </c>
-      <c r="G435" t="n">
-        <v>0.2347192561715213</v>
-      </c>
-    </row>
-    <row r="436" ht="15" customHeight="1">
-      <c r="F436" t="n">
-        <v>0.04876822372486317</v>
-      </c>
-      <c r="G436" t="n">
-        <v>0.2369979747254044</v>
-      </c>
-    </row>
-    <row r="437" ht="15" customHeight="1">
-      <c r="F437" t="n">
-        <v>0.04842533407758982</v>
-      </c>
-      <c r="G437" t="n">
-        <v>0.2392766932792875</v>
-      </c>
-    </row>
-    <row r="438" ht="15" customHeight="1">
-      <c r="F438" t="n">
-        <v>0.0480903793249165</v>
-      </c>
-      <c r="G438" t="n">
-        <v>0.2415554118331706</v>
-      </c>
-    </row>
-    <row r="439" ht="15" customHeight="1">
-      <c r="F439" t="n">
-        <v>0.04776322990192328</v>
-      </c>
-      <c r="G439" t="n">
-        <v>0.2438341303870537</v>
-      </c>
-    </row>
-    <row r="440" ht="15" customHeight="1">
-      <c r="F440" t="n">
-        <v>0.0474437562436902</v>
-      </c>
-      <c r="G440" t="n">
-        <v>0.2461128489409369</v>
-      </c>
-    </row>
-    <row r="441" ht="15" customHeight="1">
-      <c r="F441" t="n">
-        <v>0.04713182878529733</v>
-      </c>
-      <c r="G441" t="n">
-        <v>0.2483915674948199</v>
-      </c>
-    </row>
-    <row r="442" ht="15" customHeight="1">
-      <c r="F442" t="n">
-        <v>0.04682663136792291</v>
-      </c>
-      <c r="G442" t="n">
-        <v>0.250670286048703</v>
-      </c>
-    </row>
-    <row r="443" ht="15" customHeight="1">
-      <c r="F443" t="n">
-        <v>0.04652559363186044</v>
-      </c>
-      <c r="G443" t="n">
-        <v>0.2529490046025861</v>
-      </c>
-    </row>
-    <row r="444" ht="15" customHeight="1">
-      <c r="F444" t="n">
-        <v>0.04622867198440551</v>
-      </c>
-      <c r="G444" t="n">
-        <v>0.2552277231564692</v>
-      </c>
-    </row>
-    <row r="445" ht="15" customHeight="1">
-      <c r="F445" t="n">
-        <v>0.04593608047037247</v>
-      </c>
-      <c r="G445" t="n">
-        <v>0.2575064417103524</v>
-      </c>
-    </row>
-    <row r="446" ht="15" customHeight="1">
-      <c r="F446" t="n">
-        <v>0.04564803313457559</v>
-      </c>
-      <c r="G446" t="n">
-        <v>0.2597851602642354</v>
-      </c>
-    </row>
-    <row r="447" ht="15" customHeight="1">
-      <c r="F447" t="n">
-        <v>0.0453647440218293</v>
-      </c>
-      <c r="G447" t="n">
-        <v>0.2620638788181186</v>
-      </c>
-    </row>
-    <row r="448" ht="15" customHeight="1">
-      <c r="F448" t="n">
-        <v>0.04508642717694786</v>
-      </c>
-      <c r="G448" t="n">
-        <v>0.2643425973720017</v>
-      </c>
-    </row>
-    <row r="449" ht="15" customHeight="1">
-      <c r="F449" t="n">
-        <v>0.04481329664474568</v>
-      </c>
-      <c r="G449" t="n">
-        <v>0.2666213159258848</v>
-      </c>
-    </row>
-    <row r="450" ht="15" customHeight="1">
-      <c r="F450" t="n">
-        <v>0.04454556647003705</v>
-      </c>
-      <c r="G450" t="n">
-        <v>0.2689000344797679</v>
-      </c>
-    </row>
-    <row r="451" ht="15" customHeight="1">
-      <c r="F451" t="n">
-        <v>0.04428345069763633</v>
-      </c>
-      <c r="G451" t="n">
-        <v>0.271178753033651</v>
-      </c>
-    </row>
-    <row r="452" ht="15" customHeight="1">
-      <c r="F452" t="n">
-        <v>0.04402716337235785</v>
-      </c>
-      <c r="G452" t="n">
-        <v>0.2734574715875341</v>
-      </c>
-    </row>
-    <row r="453" ht="15" customHeight="1">
-      <c r="F453" t="n">
-        <v>0.04377691853901595</v>
-      </c>
-      <c r="G453" t="n">
-        <v>0.2757361901414172</v>
-      </c>
-    </row>
-    <row r="454" ht="15" customHeight="1">
-      <c r="F454" t="n">
-        <v>0.04353293024242499</v>
-      </c>
-      <c r="G454" t="n">
-        <v>0.2780149086953003</v>
-      </c>
-    </row>
-    <row r="455" ht="15" customHeight="1">
-      <c r="F455" t="n">
-        <v>0.0432954125273993</v>
-      </c>
-      <c r="G455" t="n">
-        <v>0.2802936272491834</v>
-      </c>
-    </row>
-    <row r="456" ht="15" customHeight="1">
-      <c r="F456" t="n">
-        <v>0.04306457943875321</v>
-      </c>
-      <c r="G456" t="n">
-        <v>0.2825723458030666</v>
-      </c>
-    </row>
-    <row r="457" ht="15" customHeight="1">
-      <c r="F457" t="n">
-        <v>0.04284064502130104</v>
-      </c>
-      <c r="G457" t="n">
-        <v>0.2848510643569496</v>
-      </c>
-    </row>
-    <row r="458" ht="15" customHeight="1">
-      <c r="F458" t="n">
-        <v>0.04262382331985719</v>
-      </c>
-      <c r="G458" t="n">
-        <v>0.2871297829108328</v>
-      </c>
-    </row>
-    <row r="459" ht="15" customHeight="1">
-      <c r="F459" t="n">
-        <v>0.04241432837923594</v>
-      </c>
-      <c r="G459" t="n">
-        <v>0.2894085014647159</v>
-      </c>
-    </row>
-    <row r="460" ht="15" customHeight="1">
-      <c r="F460" t="n">
-        <v>0.04221237424425167</v>
-      </c>
-      <c r="G460" t="n">
-        <v>0.291687220018599</v>
-      </c>
-    </row>
-    <row r="461" ht="15" customHeight="1">
-      <c r="F461" t="n">
-        <v>0.0420181749597187</v>
-      </c>
-      <c r="G461" t="n">
-        <v>0.2939659385724821</v>
-      </c>
-    </row>
-    <row r="462" ht="15" customHeight="1">
-      <c r="F462" t="n">
-        <v>0.04183194457045139</v>
-      </c>
-      <c r="G462" t="n">
-        <v>0.2962446571263652</v>
-      </c>
-    </row>
-    <row r="463" ht="15" customHeight="1">
-      <c r="F463" t="n">
-        <v>0.04165389712126404</v>
-      </c>
-      <c r="G463" t="n">
-        <v>0.2985233756802483</v>
-      </c>
-    </row>
-    <row r="464" ht="15" customHeight="1">
-      <c r="F464" t="n">
-        <v>0.04148424665697104</v>
-      </c>
-      <c r="G464" t="n">
-        <v>0.3008020942341314</v>
-      </c>
-    </row>
+        <v>0.3303777191135808</v>
+      </c>
+    </row>
+    <row r="265" ht="15" customHeight="1"/>
+    <row r="266" ht="15" customHeight="1"/>
+    <row r="267" ht="15" customHeight="1"/>
+    <row r="268" ht="15" customHeight="1"/>
+    <row r="269" ht="15" customHeight="1"/>
+    <row r="270" ht="15" customHeight="1"/>
+    <row r="271" ht="15" customHeight="1"/>
+    <row r="272" ht="15" customHeight="1"/>
+    <row r="273" ht="15" customHeight="1"/>
+    <row r="274" ht="15" customHeight="1"/>
+    <row r="275" ht="15" customHeight="1"/>
+    <row r="276" ht="15" customHeight="1"/>
+    <row r="277" ht="15" customHeight="1"/>
+    <row r="278" ht="15" customHeight="1"/>
+    <row r="279" ht="15" customHeight="1"/>
+    <row r="280" ht="15" customHeight="1"/>
+    <row r="281" ht="15" customHeight="1"/>
+    <row r="282" ht="15" customHeight="1"/>
+    <row r="283" ht="15" customHeight="1"/>
+    <row r="284" ht="15" customHeight="1"/>
+    <row r="285" ht="15" customHeight="1"/>
+    <row r="286" ht="15" customHeight="1"/>
+    <row r="287" ht="15" customHeight="1"/>
+    <row r="288" ht="15" customHeight="1"/>
+    <row r="289" ht="15" customHeight="1"/>
+    <row r="290" ht="15" customHeight="1"/>
+    <row r="291" ht="15" customHeight="1"/>
+    <row r="292" ht="15" customHeight="1"/>
+    <row r="293" ht="15" customHeight="1"/>
+    <row r="294" ht="15" customHeight="1"/>
+    <row r="295" ht="15" customHeight="1"/>
+    <row r="296" ht="15" customHeight="1"/>
+    <row r="297" ht="15" customHeight="1"/>
+    <row r="298" ht="15" customHeight="1"/>
+    <row r="299" ht="15" customHeight="1"/>
+    <row r="300" ht="15" customHeight="1"/>
+    <row r="301" ht="15" customHeight="1"/>
+    <row r="302" ht="15" customHeight="1"/>
+    <row r="303" ht="15" customHeight="1"/>
+    <row r="304" ht="15" customHeight="1"/>
+    <row r="305" ht="15" customHeight="1"/>
+    <row r="306" ht="15" customHeight="1"/>
+    <row r="307" ht="15" customHeight="1"/>
+    <row r="308" ht="15" customHeight="1"/>
+    <row r="309" ht="15" customHeight="1"/>
+    <row r="310" ht="15" customHeight="1"/>
+    <row r="311" ht="15" customHeight="1"/>
+    <row r="312" ht="15" customHeight="1"/>
+    <row r="313" ht="15" customHeight="1"/>
+    <row r="314" ht="15" customHeight="1"/>
+    <row r="315" ht="15" customHeight="1"/>
+    <row r="316" ht="15" customHeight="1"/>
+    <row r="317" ht="15" customHeight="1"/>
+    <row r="318" ht="15" customHeight="1"/>
+    <row r="319" ht="15" customHeight="1"/>
+    <row r="320" ht="15" customHeight="1"/>
+    <row r="321" ht="15" customHeight="1"/>
+    <row r="322" ht="15" customHeight="1"/>
+    <row r="323" ht="15" customHeight="1"/>
+    <row r="324" ht="15" customHeight="1"/>
+    <row r="325" ht="15" customHeight="1"/>
+    <row r="326" ht="15" customHeight="1"/>
+    <row r="327" ht="15" customHeight="1"/>
+    <row r="328" ht="15" customHeight="1"/>
+    <row r="329" ht="15" customHeight="1"/>
+    <row r="330" ht="15" customHeight="1"/>
+    <row r="331" ht="15" customHeight="1"/>
+    <row r="332" ht="15" customHeight="1"/>
+    <row r="333" ht="15" customHeight="1"/>
+    <row r="334" ht="15" customHeight="1"/>
+    <row r="335" ht="15" customHeight="1"/>
+    <row r="336" ht="15" customHeight="1"/>
+    <row r="337" ht="15" customHeight="1"/>
+    <row r="338" ht="15" customHeight="1"/>
+    <row r="339" ht="15" customHeight="1"/>
+    <row r="340" ht="15" customHeight="1"/>
+    <row r="341" ht="15" customHeight="1"/>
+    <row r="342" ht="15" customHeight="1"/>
+    <row r="343" ht="15" customHeight="1"/>
+    <row r="344" ht="15" customHeight="1"/>
+    <row r="345" ht="15" customHeight="1"/>
+    <row r="346" ht="15" customHeight="1"/>
+    <row r="347" ht="15" customHeight="1"/>
+    <row r="348" ht="15" customHeight="1"/>
+    <row r="349" ht="15" customHeight="1"/>
+    <row r="350" ht="15" customHeight="1"/>
+    <row r="351" ht="15" customHeight="1"/>
+    <row r="352" ht="15" customHeight="1"/>
+    <row r="353" ht="15" customHeight="1"/>
+    <row r="354" ht="15" customHeight="1"/>
+    <row r="355" ht="15" customHeight="1"/>
+    <row r="356" ht="15" customHeight="1"/>
+    <row r="357" ht="15" customHeight="1"/>
+    <row r="358" ht="15" customHeight="1"/>
+    <row r="359" ht="15" customHeight="1"/>
+    <row r="360" ht="15" customHeight="1"/>
+    <row r="361" ht="15" customHeight="1"/>
+    <row r="362" ht="15" customHeight="1"/>
+    <row r="363" ht="15" customHeight="1"/>
+    <row r="364" ht="15" customHeight="1"/>
+    <row r="365" ht="15" customHeight="1"/>
+    <row r="366" ht="15" customHeight="1"/>
+    <row r="367" ht="15" customHeight="1"/>
+    <row r="368" ht="15" customHeight="1"/>
+    <row r="369" ht="15" customHeight="1"/>
+    <row r="370" ht="15" customHeight="1"/>
+    <row r="371" ht="15" customHeight="1"/>
+    <row r="372" ht="15" customHeight="1"/>
+    <row r="373" ht="15" customHeight="1"/>
+    <row r="374" ht="15" customHeight="1"/>
+    <row r="375" ht="15" customHeight="1"/>
+    <row r="376" ht="15" customHeight="1"/>
+    <row r="377" ht="15" customHeight="1"/>
+    <row r="378" ht="15" customHeight="1"/>
+    <row r="379" ht="15" customHeight="1"/>
+    <row r="380" ht="15" customHeight="1"/>
+    <row r="381" ht="15" customHeight="1"/>
+    <row r="382" ht="15" customHeight="1"/>
+    <row r="383" ht="15" customHeight="1"/>
+    <row r="384" ht="15" customHeight="1"/>
+    <row r="385" ht="15" customHeight="1"/>
+    <row r="386" ht="15" customHeight="1"/>
+    <row r="387" ht="15" customHeight="1"/>
+    <row r="388" ht="15" customHeight="1"/>
+    <row r="389" ht="15" customHeight="1"/>
+    <row r="390" ht="15" customHeight="1"/>
+    <row r="391" ht="15" customHeight="1"/>
+    <row r="392" ht="15" customHeight="1"/>
+    <row r="393" ht="15" customHeight="1"/>
+    <row r="394" ht="15" customHeight="1"/>
+    <row r="395" ht="15" customHeight="1"/>
+    <row r="396" ht="15" customHeight="1"/>
+    <row r="397" ht="15" customHeight="1"/>
+    <row r="398" ht="15" customHeight="1"/>
+    <row r="399" ht="15" customHeight="1"/>
+    <row r="400" ht="15" customHeight="1"/>
+    <row r="401" ht="15" customHeight="1"/>
+    <row r="402" ht="15" customHeight="1"/>
+    <row r="403" ht="15" customHeight="1"/>
+    <row r="404" ht="15" customHeight="1"/>
+    <row r="405" ht="15" customHeight="1"/>
+    <row r="406" ht="15" customHeight="1"/>
+    <row r="407" ht="15" customHeight="1"/>
+    <row r="408" ht="15" customHeight="1"/>
+    <row r="409" ht="15" customHeight="1"/>
+    <row r="410" ht="15" customHeight="1"/>
+    <row r="411" ht="15" customHeight="1"/>
+    <row r="412" ht="15" customHeight="1"/>
+    <row r="413" ht="15" customHeight="1"/>
+    <row r="414" ht="15" customHeight="1"/>
+    <row r="415" ht="15" customHeight="1"/>
+    <row r="416" ht="15" customHeight="1"/>
+    <row r="417" ht="15" customHeight="1"/>
+    <row r="418" ht="15" customHeight="1"/>
+    <row r="419" ht="15" customHeight="1"/>
+    <row r="420" ht="15" customHeight="1"/>
+    <row r="421" ht="15" customHeight="1"/>
+    <row r="422" ht="15" customHeight="1"/>
+    <row r="423" ht="15" customHeight="1"/>
+    <row r="424" ht="15" customHeight="1"/>
+    <row r="425" ht="15" customHeight="1"/>
+    <row r="426" ht="15" customHeight="1"/>
+    <row r="427" ht="15" customHeight="1"/>
+    <row r="428" ht="15" customHeight="1"/>
+    <row r="429" ht="15" customHeight="1"/>
+    <row r="430" ht="15" customHeight="1"/>
+    <row r="431" ht="15" customHeight="1"/>
+    <row r="432" ht="15" customHeight="1"/>
+    <row r="433" ht="15" customHeight="1"/>
+    <row r="434" ht="15" customHeight="1"/>
+    <row r="435" ht="15" customHeight="1"/>
+    <row r="436" ht="15" customHeight="1"/>
+    <row r="437" ht="15" customHeight="1"/>
+    <row r="438" ht="15" customHeight="1"/>
+    <row r="439" ht="15" customHeight="1"/>
+    <row r="440" ht="15" customHeight="1"/>
+    <row r="441" ht="15" customHeight="1"/>
+    <row r="442" ht="15" customHeight="1"/>
+    <row r="443" ht="15" customHeight="1"/>
+    <row r="444" ht="15" customHeight="1"/>
+    <row r="445" ht="15" customHeight="1"/>
+    <row r="446" ht="15" customHeight="1"/>
+    <row r="447" ht="15" customHeight="1"/>
+    <row r="448" ht="15" customHeight="1"/>
+    <row r="449" ht="15" customHeight="1"/>
+    <row r="450" ht="15" customHeight="1"/>
+    <row r="451" ht="15" customHeight="1"/>
+    <row r="452" ht="15" customHeight="1"/>
+    <row r="453" ht="15" customHeight="1"/>
+    <row r="454" ht="15" customHeight="1"/>
+    <row r="455" ht="15" customHeight="1"/>
+    <row r="456" ht="15" customHeight="1"/>
+    <row r="457" ht="15" customHeight="1"/>
+    <row r="458" ht="15" customHeight="1"/>
+    <row r="459" ht="15" customHeight="1"/>
+    <row r="460" ht="15" customHeight="1"/>
+    <row r="461" ht="15" customHeight="1"/>
+    <row r="462" ht="15" customHeight="1"/>
+    <row r="463" ht="15" customHeight="1"/>
+    <row r="464" ht="15" customHeight="1"/>
     <row r="465" ht="15" customHeight="1"/>
     <row r="466" ht="15" customHeight="1"/>
     <row r="467" ht="15" customHeight="1"/>

--- a/prot/ООО Регионстрой/Трехосные_КД_ПП/1246.xlsx
+++ b/prot/ООО Регионстрой/Трехосные_КД_ПП/1246.xlsx
@@ -4884,7 +4884,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BF264"/>
+  <dimension ref="A1:BF464"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3" zoomScale="70" zoomScaleNormal="40" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="J22" sqref="J22"/>
@@ -9318,29 +9318,29 @@
         </is>
       </c>
       <c r="F66" s="170" t="n">
-        <v>0.003359949101415974</v>
+        <v>0.001141939214722817</v>
       </c>
       <c r="G66" s="171" t="n">
-        <v>0.001656849608644587</v>
+        <v>0.0005537460970002253</v>
       </c>
       <c r="H66" s="171" t="n"/>
       <c r="J66" s="170" t="n">
-        <v>0.003584679856695389</v>
+        <v>0.001655155224611696</v>
       </c>
       <c r="K66" s="171" t="n">
-        <v>0.001667206608378143</v>
+        <v>0.0008381523222794101</v>
       </c>
       <c r="L66" s="172" t="n">
-        <v>0.007786085691569439</v>
+        <v>0.003949490025329239</v>
       </c>
       <c r="M66" s="170" t="n">
-        <v>0.001673603287788636</v>
+        <v>0.0008333230465984466</v>
       </c>
       <c r="N66" s="171" t="n">
-        <v>0.01864968334271561</v>
+        <v>0.005653992163778931</v>
       </c>
       <c r="O66" s="172" t="n">
-        <v>0.002402034524442502</v>
+        <v>0.0008302068817702756</v>
       </c>
       <c r="Q66" s="151" t="inlineStr">
         <is>
@@ -9358,29 +9358,29 @@
         <v>2</v>
       </c>
       <c r="F67" s="170" t="n">
-        <v>0.003419265899043511</v>
+        <v>0.0022677026090651</v>
       </c>
       <c r="G67" s="171" t="n">
-        <v>0.003313699217289174</v>
+        <v>0.001107492194000451</v>
       </c>
       <c r="H67" s="171" t="n"/>
       <c r="J67" s="170" t="n">
-        <v>0.007032437440258762</v>
+        <v>0.003316590953464912</v>
       </c>
       <c r="K67" s="171" t="n">
-        <v>0.003903979506765872</v>
+        <v>0.00167630464455882</v>
       </c>
       <c r="L67" s="172" t="n">
-        <v>0.0114657435498724</v>
+        <v>0.007155674611744961</v>
       </c>
       <c r="M67" s="170" t="n">
-        <v>0.002762933375821103</v>
+        <v>0.001666646093196893</v>
       </c>
       <c r="N67" s="171" t="n">
-        <v>0.02142523528818918</v>
+        <v>0.01246419113486741</v>
       </c>
       <c r="O67" s="172" t="n">
-        <v>0.00332037908656865</v>
+        <v>0.001660413763540551</v>
       </c>
       <c r="Q67" s="151" t="inlineStr">
         <is>
@@ -9400,29 +9400,29 @@
         </is>
       </c>
       <c r="F68" s="170" t="n">
-        <v>0.008917206066363148</v>
+        <v>0.003368553078861913</v>
       </c>
       <c r="G68" s="171" t="n">
-        <v>0.004950287867674098</v>
+        <v>0.001661238291000676</v>
       </c>
       <c r="H68" s="171" t="n"/>
       <c r="J68" s="170" t="n">
-        <v>0.007642904651132834</v>
+        <v>0.004833463519129</v>
       </c>
       <c r="K68" s="171" t="n">
-        <v>0.005001619825134429</v>
+        <v>0.002514456966838231</v>
       </c>
       <c r="L68" s="172" t="n">
-        <v>0.01472592109670087</v>
+        <v>0.01045548642264454</v>
       </c>
       <c r="M68" s="170" t="n">
-        <v>0.005020809863365908</v>
+        <v>0.00249996913979534</v>
       </c>
       <c r="N68" s="171" t="n">
-        <v>0.02487929632731767</v>
+        <v>0.01765045410293875</v>
       </c>
       <c r="O68" s="172" t="n">
-        <v>0.004980568629852976</v>
+        <v>0.002490620645310827</v>
       </c>
       <c r="Q68" s="151" t="inlineStr">
         <is>
@@ -9447,29 +9447,29 @@
         </is>
       </c>
       <c r="F69" s="170" t="n">
-        <v>0.007997236934061749</v>
+        <v>0.004435753519948279</v>
       </c>
       <c r="G69" s="171" t="n">
-        <v>0.006627398434578348</v>
+        <v>0.002214984388000901</v>
       </c>
       <c r="H69" s="171" t="n"/>
       <c r="J69" s="170" t="n">
-        <v>0.008756140806194759</v>
+        <v>0.006254929254173355</v>
       </c>
       <c r="K69" s="171" t="n">
-        <v>0.006668826433512573</v>
+        <v>0.00335260928911764</v>
       </c>
       <c r="L69" s="172" t="n">
-        <v>0.01674239606138697</v>
+        <v>0.01333225994171208</v>
       </c>
       <c r="M69" s="170" t="n">
-        <v>0.006694413151154545</v>
+        <v>0.003212713227698955</v>
       </c>
       <c r="N69" s="171" t="n">
-        <v>0.02832269463066828</v>
+        <v>0.02108225073524372</v>
       </c>
       <c r="O69" s="172" t="n">
-        <v>0.006640758173137301</v>
+        <v>0.003115499241313522</v>
       </c>
       <c r="Q69" s="151" t="inlineStr">
         <is>
@@ -9490,56 +9490,56 @@
         <v>0.008917206066363148</v>
       </c>
       <c r="F70" s="170" t="n">
-        <v>0.0108193122495764</v>
+        <v>0.005460566828159291</v>
       </c>
       <c r="G70" s="171" t="n">
-        <v>0.008284248043222933</v>
+        <v>0.002768730485001126</v>
       </c>
       <c r="H70" s="171" t="n"/>
       <c r="J70" s="170" t="n">
-        <v>0.009460586223296971</v>
+        <v>0.006904574941344971</v>
       </c>
       <c r="K70" s="171" t="n">
-        <v>0.008336033041890716</v>
+        <v>0.003832998061188312</v>
       </c>
       <c r="L70" s="172" t="n">
-        <v>0.01886680071623278</v>
+        <v>0.01574347001768855</v>
       </c>
       <c r="M70" s="170" t="n">
-        <v>0.008368016438943181</v>
+        <v>0.004166615232992233</v>
       </c>
       <c r="N70" s="171" t="n">
-        <v>0.030792073801722</v>
+        <v>0.02537082333037621</v>
       </c>
       <c r="O70" s="172" t="n">
-        <v>0.008300947716421626</v>
+        <v>0.004151034408851378</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" s="170" t="n">
-        <v>0.01245925102038285</v>
+        <v>0.006434255899329999</v>
       </c>
       <c r="G71" s="171" t="n">
-        <v>0.009941097651867521</v>
+        <v>0.003322476582001352</v>
       </c>
       <c r="H71" s="171" t="n"/>
       <c r="J71" s="170" t="n">
-        <v>0.01011701821383092</v>
+        <v>0.008108995379981179</v>
       </c>
       <c r="K71" s="171" t="n">
-        <v>0.01000323965026886</v>
+        <v>0.005028913933676461</v>
       </c>
       <c r="L71" s="172" t="n">
-        <v>0.02000288889607865</v>
+        <v>0.01769110088944365</v>
       </c>
       <c r="M71" s="170" t="n">
-        <v>0.01004161972673182</v>
+        <v>0.00499993827959068</v>
       </c>
       <c r="N71" s="171" t="n">
-        <v>0.03302407744395919</v>
+        <v>0.02843445658627097</v>
       </c>
       <c r="O71" s="172" t="n">
-        <v>0.009961137259705951</v>
+        <v>0.004981241290621653</v>
       </c>
     </row>
     <row r="72">
@@ -9554,29 +9554,29 @@
         </is>
       </c>
       <c r="F72" s="170" t="n">
-        <v>0.01396612870248413</v>
+        <v>0.00734808362929544</v>
       </c>
       <c r="G72" s="171" t="n">
-        <v>0.01159794726051211</v>
+        <v>0.003876222679001577</v>
       </c>
       <c r="H72" s="171" t="n"/>
       <c r="J72" s="170" t="n">
-        <v>0.01088621408918808</v>
+        <v>0.008983096843457369</v>
       </c>
       <c r="K72" s="171" t="n">
-        <v>0.011670446258647</v>
+        <v>0.005867066255955871</v>
       </c>
       <c r="L72" s="172" t="n">
-        <v>0.02155441443576508</v>
+        <v>0.01965633528950481</v>
       </c>
       <c r="M72" s="170" t="n">
-        <v>0.01171522301452045</v>
+        <v>0.005833261326189126</v>
       </c>
       <c r="N72" s="171" t="n">
-        <v>0.03545534916086063</v>
+        <v>0.03158688302842705</v>
       </c>
       <c r="O72" s="172" t="n">
-        <v>0.01162132680299028</v>
+        <v>0.005811448172391929</v>
       </c>
     </row>
     <row r="73">
@@ -9600,29 +9600,29 @@
         <v/>
       </c>
       <c r="F73" s="170" t="n">
-        <v>0.01538902075188327</v>
+        <v>0.008193312913890707</v>
       </c>
       <c r="G73" s="171" t="n">
-        <v>0.0132547968691567</v>
+        <v>0.004429968776001802</v>
       </c>
       <c r="H73" s="171" t="n"/>
       <c r="J73" s="170" t="n">
-        <v>0.01132895116075995</v>
+        <v>0.009782751210494253</v>
       </c>
       <c r="K73" s="171" t="n">
-        <v>0.01333765286702515</v>
+        <v>0.006705218578235281</v>
       </c>
       <c r="L73" s="172" t="n">
-        <v>0.02242513117013228</v>
+        <v>0.02156165703262927</v>
       </c>
       <c r="M73" s="170" t="n">
-        <v>0.01338882630230909</v>
+        <v>0.006666584372787573</v>
       </c>
       <c r="N73" s="171" t="n">
-        <v>0.03742253255590683</v>
+        <v>0.03486558323813904</v>
       </c>
       <c r="O73" s="172" t="n">
-        <v>0.0132815163462746</v>
+        <v>0.006641655054162205</v>
       </c>
     </row>
     <row r="74">
@@ -9637,29 +9637,29 @@
         </is>
       </c>
       <c r="F74" s="170" t="n">
-        <v>0.01872613273936262</v>
+        <v>0.008917206066363148</v>
       </c>
       <c r="G74" s="171" t="n">
-        <v>0.01485086360302229</v>
+        <v>0.004950287867674098</v>
       </c>
       <c r="H74" s="171" t="n"/>
       <c r="J74" s="170" t="n">
-        <v>0.01180600673993794</v>
+        <v>0.01052227552368439</v>
       </c>
       <c r="K74" s="171" t="n">
-        <v>0.01500485947540329</v>
+        <v>0.007543370900514691</v>
       </c>
       <c r="L74" s="172" t="n">
-        <v>0.02381879293402078</v>
+        <v>0.02352954993357437</v>
       </c>
       <c r="M74" s="170" t="n">
-        <v>0.01506242959009772</v>
+        <v>0.00749990741938602</v>
       </c>
       <c r="N74" s="171" t="n">
-        <v>0.04054278987546872</v>
+        <v>0.03720803779670129</v>
       </c>
       <c r="O74" s="172" t="n">
-        <v>0.01551551059633026</v>
+        <v>0.00747186193593248</v>
       </c>
     </row>
     <row r="75">
@@ -9681,29 +9681,29 @@
         </is>
       </c>
       <c r="F75" s="170" t="n">
-        <v>0.01918058896204947</v>
+        <v>0.009688821125677566</v>
       </c>
       <c r="G75" s="171" t="n">
-        <v>0.01656849608644587</v>
+        <v>0.005537460970002252</v>
       </c>
       <c r="H75" s="171" t="n"/>
       <c r="J75" s="170" t="n">
-        <v>0.01278624989137957</v>
+        <v>0.01121598682562029</v>
       </c>
       <c r="K75" s="171" t="n">
-        <v>0.01691190655</v>
+        <v>0.008381523222794101</v>
       </c>
       <c r="L75" s="172" t="n">
-        <v>0.02503915356227088</v>
+        <v>0.02498249780709733</v>
       </c>
       <c r="M75" s="170" t="n">
-        <v>0.01673603287788636</v>
+        <v>0.008333230465984465</v>
       </c>
       <c r="N75" s="171" t="n">
-        <v>0.04151343656483303</v>
+        <v>0.04054278987546872</v>
       </c>
       <c r="O75" s="172" t="n">
-        <v>0.01660189543284325</v>
+        <v>0.008559063849762429</v>
       </c>
     </row>
     <row r="76">
@@ -9723,29 +9723,29 @@
         <v>0</v>
       </c>
       <c r="F76" s="170" t="n">
-        <v>0.01860405280755735</v>
+        <v>0.01040743907037917</v>
       </c>
       <c r="G76" s="171" t="n">
-        <v>0.01822534569509046</v>
+        <v>0.006091207067002478</v>
       </c>
       <c r="H76" s="171" t="n"/>
       <c r="J76" s="170" t="n">
-        <v>0.01326914287334724</v>
+        <v>0.0119782021588945</v>
       </c>
       <c r="K76" s="171" t="n">
-        <v>0.01833927269215958</v>
+        <v>0.009219675545073511</v>
       </c>
       <c r="L76" s="172" t="n">
         <v>0.02666451988342416</v>
       </c>
       <c r="M76" s="170" t="n">
-        <v>0.01818484575268817</v>
+        <v>0.00917918065056844</v>
       </c>
       <c r="N76" s="171" t="n">
-        <v>0.04514952164947023</v>
+        <v>0.04207441781910182</v>
       </c>
       <c r="O76" s="172" t="n">
-        <v>0.01826208497612758</v>
+        <v>0.009132275699473032</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1">
@@ -9760,28 +9760,28 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.02002989229577277</v>
+        <v>0.01111483647048386</v>
       </c>
       <c r="G77" t="n">
-        <v>0.01988219530373504</v>
+        <v>0.006644953164002703</v>
       </c>
       <c r="J77" t="n">
-        <v>0.01413075664220172</v>
+        <v>0.01278624989137957</v>
       </c>
       <c r="K77" t="n">
-        <v>0.02000647930053772</v>
+        <v>0.01014020651108018</v>
       </c>
       <c r="L77" t="n">
-        <v>0.0281389989979503</v>
+        <v>0.02757518944185286</v>
       </c>
       <c r="M77" t="n">
-        <v>0.02008323945346363</v>
+        <v>0.00999987655918136</v>
       </c>
       <c r="N77" t="n">
-        <v>0.04779727555933716</v>
+        <v>0.04401196398257728</v>
       </c>
       <c r="O77" t="n">
-        <v>0.0199222745194119</v>
+        <v>0.009962482581243307</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
@@ -9800,28 +9800,28 @@
         <v/>
       </c>
       <c r="F78" t="n">
-        <v>0.02144058882150583</v>
+        <v>0.01180864477041771</v>
       </c>
       <c r="G78" t="n">
-        <v>0.02153904491237963</v>
+        <v>0.007198699261002928</v>
       </c>
       <c r="J78" t="n">
-        <v>0.01504289586882962</v>
+        <v>0.01317177777753194</v>
       </c>
       <c r="K78" t="n">
-        <v>0.02167368590891586</v>
+        <v>0.01089598018963233</v>
       </c>
       <c r="L78" t="n">
-        <v>0.03010849523141043</v>
+        <v>0.02902683476423673</v>
       </c>
       <c r="M78" t="n">
-        <v>0.02175684274125227</v>
+        <v>0.01083319960577981</v>
       </c>
       <c r="N78" t="n">
-        <v>0.05030498197612343</v>
+        <v>0.04616396008164086</v>
       </c>
       <c r="O78" t="n">
-        <v>0.02158246406269623</v>
+        <v>0.01079268946301358</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
@@ -9842,28 +9842,28 @@
         <v/>
       </c>
       <c r="F79" t="n">
-        <v>0.02281862377956662</v>
+        <v>0.01248649541460681</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02319589452102422</v>
+        <v>0.007752445358003153</v>
       </c>
       <c r="J79" t="n">
-        <v>0.01598622644502096</v>
+        <v>0.01403655617289044</v>
       </c>
       <c r="K79" t="n">
-        <v>0.023340892517294</v>
+        <v>0.01173413251191174</v>
       </c>
       <c r="L79" t="n">
-        <v>0.03215844743371638</v>
+        <v>0.03089142745385612</v>
       </c>
       <c r="M79" t="n">
-        <v>0.02343044602904091</v>
+        <v>0.01166652265237825</v>
       </c>
       <c r="N79" t="n">
-        <v>0.0539209245815187</v>
+        <v>0.04852115627929854</v>
       </c>
       <c r="O79" t="n">
-        <v>0.02324265360598055</v>
+        <v>0.01162289634478386</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1">
@@ -9873,28 +9873,28 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.02414647856476521</v>
+        <v>0.01314601984747721</v>
       </c>
       <c r="G80" t="n">
-        <v>0.0248527441296688</v>
+        <v>0.00830619145500338</v>
       </c>
       <c r="J80" t="n">
-        <v>0.01704141426256572</v>
+        <v>0.01461408417409051</v>
       </c>
       <c r="K80" t="n">
-        <v>0.02500809912567215</v>
+        <v>0.01257228483419115</v>
       </c>
       <c r="L80" t="n">
-        <v>0.0341503263387429</v>
+        <v>0.03216246354972174</v>
       </c>
       <c r="M80" t="n">
-        <v>0.02510404931682955</v>
+        <v>0.0124998456989767</v>
       </c>
       <c r="N80" t="n">
-        <v>0.05669338705721244</v>
+        <v>0.05027430273855593</v>
       </c>
       <c r="O80" t="n">
-        <v>0.02490284314926488</v>
+        <v>0.01245310322655413</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
@@ -9910,28 +9910,28 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.02640663457191172</v>
+        <v>0.01378484951345499</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02650959373831339</v>
+        <v>0.008859937552003604</v>
       </c>
       <c r="J81" t="n">
-        <v>0.01808912521325394</v>
+        <v>0.01540076774820846</v>
       </c>
       <c r="K81" t="n">
-        <v>0.02667530573405029</v>
+        <v>0.01341043715647056</v>
       </c>
       <c r="L81" t="n">
-        <v>0.03604560268036477</v>
+        <v>0.03383343909084432</v>
       </c>
       <c r="M81" t="n">
-        <v>0.02677765260461818</v>
+        <v>0.01333316874557515</v>
       </c>
       <c r="N81" t="n">
-        <v>0.05957065308489429</v>
+        <v>0.0530141496224189</v>
       </c>
       <c r="O81" t="n">
-        <v>0.0265630326925492</v>
+        <v>0.01328331010832441</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1">
@@ -9944,28 +9944,28 @@
         <v/>
       </c>
       <c r="F82" t="n">
-        <v>0.02658157319581624</v>
+        <v>0.01440061585696625</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02816644334695798</v>
+        <v>0.009413683649003829</v>
       </c>
       <c r="J82" t="n">
-        <v>0.0190100251888756</v>
+        <v>0.01589301286232067</v>
       </c>
       <c r="K82" t="n">
-        <v>0.02834251234242843</v>
+        <v>0.01424858947874997</v>
       </c>
       <c r="L82" t="n">
-        <v>0.03820574719245687</v>
+        <v>0.03539785011623459</v>
       </c>
       <c r="M82" t="n">
-        <v>0.02845125589240682</v>
+        <v>0.01416649179217359</v>
       </c>
       <c r="N82" t="n">
-        <v>0.06260100634625382</v>
+        <v>0.05523144709389333</v>
       </c>
       <c r="O82" t="n">
-        <v>0.02822322223583353</v>
+        <v>0.01411351699009469</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1">
@@ -9975,28 +9975,28 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.02865377583128888</v>
+        <v>0.01499095032243705</v>
       </c>
       <c r="G83" t="n">
-        <v>0.02982329295560256</v>
+        <v>0.009967429746004055</v>
       </c>
       <c r="J83" t="n">
-        <v>0.01988478008122072</v>
+        <v>0.01658722548350347</v>
       </c>
       <c r="K83" t="n">
-        <v>0.03000971895080658</v>
+        <v>0.01508674180102938</v>
       </c>
       <c r="L83" t="n">
-        <v>0.03999223060889401</v>
+        <v>0.03684919266490322</v>
       </c>
       <c r="M83" t="n">
-        <v>0.03012485918019545</v>
+        <v>0.01499981483877204</v>
       </c>
       <c r="N83" t="n">
-        <v>0.06523273052298062</v>
+        <v>0.057016945315985</v>
       </c>
       <c r="O83" t="n">
-        <v>0.02988341177911786</v>
+        <v>0.01494372387186496</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1">
@@ -10011,28 +10011,28 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.02860572387313971</v>
+        <v>0.01555348435429345</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03148014256424715</v>
+        <v>0.01052117584300428</v>
       </c>
       <c r="J84" t="n">
-        <v>0.02059405578207933</v>
+        <v>0.01727981157883321</v>
       </c>
       <c r="K84" t="n">
-        <v>0.03167692555918472</v>
+        <v>0.01592489412330879</v>
       </c>
       <c r="L84" t="n">
-        <v>0.04176652366355096</v>
+        <v>0.0380809627758609</v>
       </c>
       <c r="M84" t="n">
-        <v>0.03179846246798409</v>
+        <v>0.01583313788537049</v>
       </c>
       <c r="N84" t="n">
-        <v>0.06671410929676419</v>
+        <v>0.05906139445169967</v>
       </c>
       <c r="O84" t="n">
-        <v>0.03154360132240218</v>
+        <v>0.01577393075363524</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
@@ -10051,28 +10051,28 @@
         <v/>
       </c>
       <c r="F85" t="n">
-        <v>0.02941989871617884</v>
+        <v>0.01608584939696153</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03313699217289173</v>
+        <v>0.0110749219400045</v>
       </c>
       <c r="J85" t="n">
-        <v>0.02121851818324141</v>
+        <v>0.01816717711538623</v>
       </c>
       <c r="K85" t="n">
-        <v>0.03334413216756286</v>
+        <v>0.0167630464455882</v>
       </c>
       <c r="L85" t="n">
-        <v>0.04359009709030254</v>
+        <v>0.03918665648811842</v>
       </c>
       <c r="M85" t="n">
-        <v>0.03347206575577272</v>
+        <v>0.01666646093196893</v>
       </c>
       <c r="N85" t="n">
-        <v>0.06949342634929423</v>
+        <v>0.06145554466404335</v>
       </c>
       <c r="O85" t="n">
-        <v>0.03320379086568651</v>
+        <v>0.01660413763540551</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1">
@@ -10093,28 +10093,28 @@
         <v/>
       </c>
       <c r="F86" t="n">
-        <v>0.03307878175521638</v>
+        <v>0.01658567689486737</v>
       </c>
       <c r="G86" t="n">
-        <v>0.03479384178153633</v>
+        <v>0.01162866803700473</v>
       </c>
       <c r="J86" t="n">
-        <v>0.02193883317649702</v>
+        <v>0.01884572806023888</v>
       </c>
       <c r="K86" t="n">
-        <v>0.035011338775941</v>
+        <v>0.01760119876786762</v>
       </c>
       <c r="L86" t="n">
-        <v>0.04472442162302356</v>
+        <v>0.04055976984068643</v>
       </c>
       <c r="M86" t="n">
-        <v>0.03514566904356136</v>
+        <v>0.01749978397856738</v>
       </c>
       <c r="N86" t="n">
-        <v>0.07051896536226027</v>
+        <v>0.06379014611602168</v>
       </c>
       <c r="O86" t="n">
-        <v>0.03486398040897083</v>
+        <v>0.01743434451717579</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1">
@@ -10124,28 +10124,28 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.03057520257080919</v>
+        <v>0.01705059829243702</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03645069139018092</v>
+        <v>0.01218241413400496</v>
       </c>
       <c r="J87" t="n">
-        <v>0.02243566665363611</v>
+        <v>0.01941187038046752</v>
       </c>
       <c r="K87" t="n">
-        <v>0.03667854538431915</v>
+        <v>0.01843935109014702</v>
       </c>
       <c r="L87" t="n">
-        <v>0.04613096799558891</v>
+        <v>0.04199379887257562</v>
       </c>
       <c r="M87" t="n">
-        <v>0.03681927233135</v>
+        <v>0.01833310702516583</v>
       </c>
       <c r="N87" t="n">
-        <v>0.0715390100173518</v>
+        <v>0.0654559489706405</v>
       </c>
       <c r="O87" t="n">
-        <v>0.03652416995225515</v>
+        <v>0.01826455139894606</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1">
@@ -10159,28 +10159,28 @@
       <c r="C88" s="139" t="n"/>
       <c r="D88" s="139" t="n"/>
       <c r="F88" t="n">
-        <v>0.03402354202322623</v>
+        <v>0.01747824503409659</v>
       </c>
       <c r="G88" t="n">
-        <v>0.0381075409988255</v>
+        <v>0.01273616023100518</v>
       </c>
       <c r="J88" t="n">
-        <v>0.02279410886875095</v>
+        <v>0.02006201004314848</v>
       </c>
       <c r="K88" t="n">
-        <v>0.0383457519926973</v>
+        <v>0.01927750341242643</v>
       </c>
       <c r="L88" t="n">
-        <v>0.04717120694187341</v>
+        <v>0.04338223962279678</v>
       </c>
       <c r="M88" t="n">
-        <v>0.03849287561913863</v>
+        <v>0.01916643007176427</v>
       </c>
       <c r="N88" t="n">
-        <v>0.07322106526684935</v>
+        <v>0.06734370339090562</v>
       </c>
       <c r="O88" t="n">
-        <v>0.03818435949553948</v>
+        <v>0.01909475828071634</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1">
@@ -10193,4780 +10193,6180 @@
         <v/>
       </c>
       <c r="F89" t="n">
-        <v>0.03445766112463058</v>
+        <v>0.01786624856427213</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03976439060747008</v>
+        <v>0.01328990632800541</v>
       </c>
       <c r="J89" t="n">
-        <v>0.02310298582860383</v>
+        <v>0.0205925530153581</v>
       </c>
       <c r="K89" t="n">
-        <v>0.04001295860107543</v>
+        <v>0.02011565573470584</v>
       </c>
       <c r="L89" t="n">
-        <v>0.04745709371414872</v>
+        <v>0.04461858813036051</v>
       </c>
       <c r="M89" t="n">
-        <v>0.04016647890692727</v>
+        <v>0.01999975311836272</v>
       </c>
       <c r="N89" t="n">
-        <v>0.07367451038639627</v>
+        <v>0.06934415953982298</v>
       </c>
       <c r="O89" t="n">
-        <v>0.03984454903882381</v>
+        <v>0.01992496516248661</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="F90" t="n">
-        <v>0.03287452240833251</v>
+        <v>0.01821224032738973</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04142124021611467</v>
+        <v>0.01384365242500563</v>
       </c>
       <c r="J90" t="n">
-        <v>0.02350222857693275</v>
+        <v>0.02119990526417273</v>
       </c>
       <c r="K90" t="n">
-        <v>0.04168016520945358</v>
+        <v>0.02095380805698525</v>
       </c>
       <c r="L90" t="n">
-        <v>0.04839752157154459</v>
+        <v>0.04609634043427763</v>
       </c>
       <c r="M90" t="n">
-        <v>0.0418400821947159</v>
+        <v>0.02083307616496117</v>
       </c>
       <c r="N90" t="n">
-        <v>0.07439277014990731</v>
+        <v>0.07124806758039831</v>
       </c>
       <c r="O90" t="n">
-        <v>0.04150473858210813</v>
+        <v>0.02075517204425689</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="F91" t="n">
-        <v>0.0332710884076423</v>
+        <v>0.01851385176787543</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04307808982475926</v>
+        <v>0.01439739852200586</v>
       </c>
       <c r="J91" t="n">
-        <v>0.02368972398666093</v>
+        <v>0.02188047275666873</v>
       </c>
       <c r="K91" t="n">
-        <v>0.04334737181783172</v>
+        <v>0.02179196037926466</v>
       </c>
       <c r="L91" t="n">
-        <v>0.04901622765068753</v>
+        <v>0.04690899257355874</v>
       </c>
       <c r="M91" t="n">
-        <v>0.04351368548250454</v>
+        <v>0.02166639921155961</v>
       </c>
       <c r="N91" t="n">
-        <v>0.07566922847642582</v>
+        <v>0.07284617767563745</v>
       </c>
       <c r="O91" t="n">
-        <v>0.04316492812539246</v>
+        <v>0.02158537892602716</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="F92" t="n">
-        <v>0.03264432165587015</v>
+        <v>0.01872613273936262</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04473493943340384</v>
+        <v>0.01485086360302229</v>
       </c>
       <c r="J92" t="n">
-        <v>0.02406335893071171</v>
+        <v>0.02233066145992242</v>
       </c>
       <c r="K92" t="n">
-        <v>0.04501457842620987</v>
+        <v>0.02263011270154407</v>
       </c>
       <c r="L92" t="n">
-        <v>0.04930875430649342</v>
+        <v>0.04825004058721463</v>
       </c>
       <c r="M92" t="n">
-        <v>0.04518728877029318</v>
+        <v>0.02249972225815806</v>
       </c>
       <c r="N92" t="n">
-        <v>0.07639726928499502</v>
+        <v>0.07392923998854611</v>
       </c>
       <c r="O92" t="n">
-        <v>0.04482511766867679</v>
+        <v>0.02241558580779744</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="F93" t="n">
-        <v>0.03499118468632634</v>
+        <v>0.0190073248986731</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04639178904204844</v>
+        <v>0.01550489071600631</v>
       </c>
       <c r="J93" t="n">
-        <v>0.0243210202820083</v>
+        <v>0.0230468773410102</v>
       </c>
       <c r="K93" t="n">
-        <v>0.04668178503458801</v>
+        <v>0.02346826502382348</v>
       </c>
       <c r="L93" t="n">
-        <v>0.05007064389387816</v>
+        <v>0.04891298051425599</v>
       </c>
       <c r="M93" t="n">
-        <v>0.04686089205808181</v>
+        <v>0.0233330453047565</v>
       </c>
       <c r="N93" t="n">
-        <v>0.07687027649465844</v>
+        <v>0.07538800468213019</v>
       </c>
       <c r="O93" t="n">
-        <v>0.0464853072119611</v>
+        <v>0.02324579268956772</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="F94" t="n">
-        <v>0.03530864003232112</v>
+        <v>0.01924265596433718</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04804863865069302</v>
+        <v>0.01605863681300653</v>
       </c>
       <c r="J94" t="n">
-        <v>0.02456059491347401</v>
+        <v>0.02342552636700836</v>
       </c>
       <c r="K94" t="n">
-        <v>0.04834899164296615</v>
+        <v>0.02430641734610289</v>
       </c>
       <c r="L94" t="n">
-        <v>0.05089743876775765</v>
+        <v>0.0495913083936935</v>
       </c>
       <c r="M94" t="n">
-        <v>0.04853449534587045</v>
+        <v>0.02416636835135495</v>
       </c>
       <c r="N94" t="n">
-        <v>0.07768163402445949</v>
+        <v>0.07661322191939557</v>
       </c>
       <c r="O94" t="n">
-        <v>0.04814549675524543</v>
+        <v>0.02407599957133799</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="F95" t="n">
-        <v>0.03559365022716472</v>
+        <v>0.01947544446893171</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04970548825933761</v>
+        <v>0.01661238291000676</v>
       </c>
       <c r="J95" t="n">
-        <v>0.02467996969803204</v>
+        <v>0.02376301450499325</v>
       </c>
       <c r="K95" t="n">
-        <v>0.0500161982513443</v>
+        <v>0.0251445696683823</v>
       </c>
       <c r="L95" t="n">
-        <v>0.05108468128304777</v>
+        <v>0.0503785202645379</v>
       </c>
       <c r="M95" t="n">
-        <v>0.05020809863365909</v>
+        <v>0.0249996913979534</v>
       </c>
       <c r="N95" t="n">
-        <v>0.07862472579344149</v>
+        <v>0.07779564186334792</v>
       </c>
       <c r="O95" t="n">
-        <v>0.04980568629852975</v>
+        <v>0.02490620645310827</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="F96" t="n">
-        <v>0.0338431778041674</v>
+        <v>0.01970566752089523</v>
       </c>
       <c r="G96" t="n">
-        <v>0.05136233786798219</v>
+        <v>0.01716612900700698</v>
       </c>
       <c r="J96" t="n">
-        <v>0.02497703150860575</v>
+        <v>0.02415574772204127</v>
       </c>
       <c r="K96" t="n">
-        <v>0.05168340485972244</v>
+        <v>0.02598272199066172</v>
       </c>
       <c r="L96" t="n">
-        <v>0.05142791379466446</v>
+        <v>0.05106811216579984</v>
       </c>
       <c r="M96" t="n">
-        <v>0.05188170192144772</v>
+        <v>0.02583301444455184</v>
       </c>
       <c r="N96" t="n">
-        <v>0.07949293572064781</v>
+        <v>0.07832601467699329</v>
       </c>
       <c r="O96" t="n">
-        <v>0.05146587584181408</v>
+        <v>0.02573641333487854</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="F97" t="n">
-        <v>0.03705418529663942</v>
+        <v>0.01993330222866632</v>
       </c>
       <c r="G97" t="n">
-        <v>0.05301918747662678</v>
+        <v>0.01771987510400721</v>
       </c>
       <c r="J97" t="n">
-        <v>0.02514966721811834</v>
+        <v>0.0246001319852287</v>
       </c>
       <c r="K97" t="n">
-        <v>0.05335061146810059</v>
+        <v>0.02682087431294112</v>
       </c>
       <c r="L97" t="n">
-        <v>0.05192267865752367</v>
+        <v>0.05195358013649012</v>
       </c>
       <c r="M97" t="n">
-        <v>0.05355530520923636</v>
+        <v>0.02666633749115029</v>
       </c>
       <c r="N97" t="n">
-        <v>0.07967964772512182</v>
+        <v>0.07909509052333735</v>
       </c>
       <c r="O97" t="n">
-        <v>0.0531260653850984</v>
+        <v>0.02656662021664882</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.03722363523789102</v>
+        <v>0.02015832570068356</v>
       </c>
       <c r="G98" t="n">
-        <v>0.05467603708527138</v>
+        <v>0.01827362120100743</v>
       </c>
       <c r="J98" t="n">
-        <v>0.02529576369949309</v>
+        <v>0.02479257326163192</v>
       </c>
       <c r="K98" t="n">
-        <v>0.05501781807647872</v>
+        <v>0.02765902663522053</v>
       </c>
       <c r="L98" t="n">
-        <v>0.05226451822654124</v>
+        <v>0.0525284202156194</v>
       </c>
       <c r="M98" t="n">
-        <v>0.055228908497025</v>
+        <v>0.02749966053774874</v>
       </c>
       <c r="N98" t="n">
-        <v>0.07967824572590693</v>
+        <v>0.0800936195653858</v>
       </c>
       <c r="O98" t="n">
-        <v>0.05478625492838273</v>
+        <v>0.02739682709841909</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.03434849016123243</v>
+        <v>0.02038071504538548</v>
       </c>
       <c r="G99" t="n">
-        <v>0.05633288669391595</v>
+        <v>0.01882736729800766</v>
       </c>
       <c r="J99" t="n">
-        <v>0.0253132078256533</v>
+        <v>0.02512947751832727</v>
       </c>
       <c r="K99" t="n">
-        <v>0.05668502468485687</v>
+        <v>0.02849717895749994</v>
       </c>
       <c r="L99" t="n">
-        <v>0.05284897485663304</v>
+        <v>0.0527861284421984</v>
       </c>
       <c r="M99" t="n">
-        <v>0.05690251178481363</v>
+        <v>0.02833298358434719</v>
       </c>
       <c r="N99" t="n">
-        <v>0.08028211364204652</v>
+        <v>0.08041235196614466</v>
       </c>
       <c r="O99" t="n">
-        <v>0.05644644447166706</v>
+        <v>0.02822703398018937</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.03745226547872524</v>
+        <v>0.02060044737121067</v>
       </c>
       <c r="G100" t="n">
-        <v>0.05798973630256055</v>
+        <v>0.01938111339500788</v>
       </c>
       <c r="J100" t="n">
-        <v>0.0253998864695222</v>
+        <v>0.02520725072239109</v>
       </c>
       <c r="K100" t="n">
-        <v>0.05835223129323502</v>
+        <v>0.02933533127977935</v>
       </c>
       <c r="L100" t="n">
-        <v>0.05277159090271505</v>
+        <v>0.0531202008552378</v>
       </c>
       <c r="M100" t="n">
-        <v>0.05857611507260228</v>
+        <v>0.02916630663094563</v>
       </c>
       <c r="N100" t="n">
         <v>0.08108557975093744</v>
       </c>
       <c r="O100" t="n">
-        <v>0.05810663401495138</v>
+        <v>0.02905724086195964</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.03745226508742576</v>
+        <v>0.02081749978659768</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05964658591120513</v>
+        <v>0.01993485949200811</v>
       </c>
       <c r="J101" t="n">
-        <v>0.02557249978275913</v>
+        <v>0.02532229884089975</v>
       </c>
       <c r="K101" t="n">
-        <v>0.06001943790161315</v>
+        <v>0.03017348360205876</v>
       </c>
       <c r="L101" t="n">
-        <v>0.05312790871970316</v>
+        <v>0.0533290397668483</v>
       </c>
       <c r="M101" t="n">
-        <v>0.0602497183603909</v>
+        <v>0.02999962967754408</v>
       </c>
       <c r="N101" t="n">
-        <v>0.08027919489656243</v>
+        <v>0.08098557975093745</v>
       </c>
       <c r="O101" t="n">
-        <v>0.05976682355823571</v>
+        <v>0.02988744774372992</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.03643946483657375</v>
+        <v>0.02103184939998505</v>
       </c>
       <c r="G102" t="n">
-        <v>0.06130343551984972</v>
+        <v>0.02048860558900834</v>
       </c>
       <c r="J102" t="n">
-        <v>0.02557249480207917</v>
+        <v>0.02557249978275913</v>
       </c>
       <c r="K102" t="n">
-        <v>0.0616866445099913</v>
+        <v>0.03101163592433817</v>
       </c>
       <c r="L102" t="n">
         <v>0.0533290397668483</v>
       </c>
       <c r="M102" t="n">
-        <v>0.06192332164817954</v>
+        <v>0.03083295272414252</v>
       </c>
       <c r="N102" t="n">
-        <v>0.0809729731870506</v>
+        <v>0.08088557975093746</v>
       </c>
       <c r="O102" t="n">
-        <v>0.06142701310152004</v>
+        <v>0.0307176546255002</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.03740192968555014</v>
+        <v>0.0212434733198114</v>
       </c>
       <c r="G103" t="n">
-        <v>0.0629602851284943</v>
+        <v>0.02104235168600856</v>
       </c>
       <c r="J103" t="n">
-        <v>0.02556387051910851</v>
+        <v>0.02557249978275913</v>
       </c>
       <c r="K103" t="n">
-        <v>0.06335385111836944</v>
+        <v>0.03184978824661758</v>
       </c>
       <c r="L103" t="n">
-        <v>0.05302651753959242</v>
+        <v>0.05292903976684829</v>
       </c>
       <c r="M103" t="n">
-        <v>0.06359692493596818</v>
+        <v>0.03166627577074097</v>
       </c>
       <c r="N103" t="n">
-        <v>0.08080863290456208</v>
+        <v>0.08068557975093743</v>
       </c>
       <c r="O103" t="n">
-        <v>0.06308720264480436</v>
+        <v>0.03154786150727047</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.03434126066637846</v>
+        <v>0.02145234865451523</v>
       </c>
       <c r="G104" t="n">
-        <v>0.06461713473713888</v>
+        <v>0.02159609778300878</v>
       </c>
       <c r="J104" t="n">
-        <v>0.02553813587843476</v>
+        <v>0.02557249978275913</v>
       </c>
       <c r="K104" t="n">
-        <v>0.06502105772674759</v>
+        <v>0.03268794056889699</v>
       </c>
       <c r="L104" t="n">
-        <v>0.05309442347718354</v>
+        <v>0.0531290397668483</v>
       </c>
       <c r="M104" t="n">
-        <v>0.06527052822375681</v>
+        <v>0.03249959881733942</v>
       </c>
       <c r="N104" t="n">
-        <v>0.08069287540152142</v>
+        <v>0.08078557975093742</v>
       </c>
       <c r="O104" t="n">
-        <v>0.06474739218808868</v>
+        <v>0.03237806838904075</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.03625905861159989</v>
+        <v>0.02165845251253516</v>
       </c>
       <c r="G105" t="n">
-        <v>0.06627398434578347</v>
+        <v>0.02214984388000901</v>
       </c>
       <c r="J105" t="n">
-        <v>0.02539640709688006</v>
+        <v>0.02557249978275913</v>
       </c>
       <c r="K105" t="n">
-        <v>0.06668826433512573</v>
+        <v>0.0335260928911764</v>
       </c>
       <c r="L105" t="n">
-        <v>0.05282728201818049</v>
+        <v>0.05292903976684829</v>
       </c>
       <c r="M105" t="n">
-        <v>0.06694413151154545</v>
+        <v>0.03333292186393786</v>
       </c>
       <c r="N105" t="n">
-        <v>0.08072918754338992</v>
+        <v>0.08038557975093746</v>
       </c>
       <c r="O105" t="n">
-        <v>0.06640758173137301</v>
+        <v>0.03320827527081102</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.03715692435375563</v>
+        <v>0.0218617620023097</v>
       </c>
       <c r="G106" t="n">
-        <v>0.06793083395442806</v>
+        <v>0.02270358997700923</v>
       </c>
       <c r="J106" t="n">
-        <v>0.02533979785335307</v>
+        <v>0.02537249978275913</v>
       </c>
       <c r="K106" t="n">
-        <v>0.06835547094350387</v>
+        <v>0.03436424521345581</v>
       </c>
       <c r="L106" t="n">
-        <v>0.05302744247009392</v>
+        <v>0.05302903976684831</v>
       </c>
       <c r="M106" t="n">
-        <v>0.06861773479933408</v>
+        <v>0.03416624491053631</v>
       </c>
       <c r="N106" t="n">
-        <v>0.07982105619562896</v>
+        <v>0.08098557975093745</v>
       </c>
       <c r="O106" t="n">
-        <v>0.06806777127465732</v>
+        <v>0.0340384821525813</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.03503645872538681</v>
+        <v>0.02206225423227746</v>
       </c>
       <c r="G107" t="n">
-        <v>0.06958768356307266</v>
+        <v>0.02325733607400946</v>
       </c>
       <c r="J107" t="n">
-        <v>0.02526942182676245</v>
+        <v>0.02557249978275913</v>
       </c>
       <c r="K107" t="n">
-        <v>0.070022677551882</v>
+        <v>0.03520239753573523</v>
       </c>
       <c r="L107" t="n">
-        <v>0.05299725414043455</v>
+        <v>0.0528290397668483</v>
       </c>
       <c r="M107" t="n">
-        <v>0.07029133808712272</v>
+        <v>0.03499956795713476</v>
       </c>
       <c r="N107" t="n">
-        <v>0.0798719682236998</v>
+        <v>0.08048557975093745</v>
       </c>
       <c r="O107" t="n">
-        <v>0.06972796081794165</v>
+        <v>0.03486868903435157</v>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.03689926255903465</v>
+        <v>0.02225990631087697</v>
       </c>
       <c r="G108" t="n">
-        <v>0.07124453317171724</v>
+        <v>0.02381108217100969</v>
       </c>
       <c r="J108" t="n">
-        <v>0.02528639269601682</v>
+        <v>0.02537249978275913</v>
       </c>
       <c r="K108" t="n">
-        <v>0.07168988416026016</v>
+        <v>0.03604054985801464</v>
       </c>
       <c r="L108" t="n">
-        <v>0.05233906633671301</v>
+        <v>0.0528290397668483</v>
       </c>
       <c r="M108" t="n">
-        <v>0.07196494137491136</v>
+        <v>0.0358328910037332</v>
       </c>
       <c r="N108" t="n">
-        <v>0.07918541049306388</v>
+        <v>0.08108557975093744</v>
       </c>
       <c r="O108" t="n">
-        <v>0.07138815036122598</v>
+        <v>0.03569889591612185</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.03374693668724033</v>
+        <v>0.02245469534654682</v>
       </c>
       <c r="G109" t="n">
-        <v>0.07290138278036183</v>
+        <v>0.02436482826800991</v>
       </c>
       <c r="J109" t="n">
-        <v>0.02519182414002483</v>
+        <v>0.02537249978275913</v>
       </c>
       <c r="K109" t="n">
-        <v>0.07335709076863831</v>
+        <v>0.03687870218029404</v>
       </c>
       <c r="L109" t="n">
-        <v>0.05265522836644002</v>
+        <v>0.0531290397668483</v>
       </c>
       <c r="M109" t="n">
-        <v>0.07363854466269999</v>
+        <v>0.03666621405033165</v>
       </c>
       <c r="N109" t="n">
-        <v>0.07966486986918253</v>
+        <v>0.08108557975093744</v>
       </c>
       <c r="O109" t="n">
-        <v>0.0730483399045103</v>
+        <v>0.03652910279789213</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.03458108194254501</v>
+        <v>0.02264659844772554</v>
       </c>
       <c r="G110" t="n">
-        <v>0.07455823238900641</v>
+        <v>0.02491857436501014</v>
       </c>
       <c r="J110" t="n">
-        <v>0.02498682983769512</v>
+        <v>0.02557249978275913</v>
       </c>
       <c r="K110" t="n">
-        <v>0.07502429737701644</v>
+        <v>0.03771685450257346</v>
       </c>
       <c r="L110" t="n">
-        <v>0.05234808953712625</v>
+        <v>0.0533290397668483</v>
       </c>
       <c r="M110" t="n">
-        <v>0.07531214795048863</v>
+        <v>0.0374995370969301</v>
       </c>
       <c r="N110" t="n">
-        <v>0.07921383321751707</v>
+        <v>0.08028557975093742</v>
       </c>
       <c r="O110" t="n">
-        <v>0.07470852944779463</v>
+        <v>0.0373593096796624</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.03340329915748989</v>
+        <v>0.02283559272285172</v>
       </c>
       <c r="G111" t="n">
-        <v>0.07621508199765099</v>
+        <v>0.02547232046201036</v>
       </c>
       <c r="J111" t="n">
-        <v>0.02487252346793635</v>
+        <v>0.02547249978275913</v>
       </c>
       <c r="K111" t="n">
-        <v>0.07669150398539459</v>
+        <v>0.03855500682485286</v>
       </c>
       <c r="L111" t="n">
-        <v>0.05181999915628233</v>
+        <v>0.0528290397668483</v>
       </c>
       <c r="M111" t="n">
-        <v>0.07698575123827726</v>
+        <v>0.03833286014352855</v>
       </c>
       <c r="N111" t="n">
-        <v>0.07883578740352876</v>
+        <v>0.08108557975093744</v>
       </c>
       <c r="O111" t="n">
-        <v>0.07636871899107896</v>
+        <v>0.03818951656143268</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.03621518916461615</v>
+        <v>0.02302165528036391</v>
       </c>
       <c r="G112" t="n">
-        <v>0.07787193160629557</v>
+        <v>0.02602606655901058</v>
       </c>
       <c r="J112" t="n">
-        <v>0.02485001870965717</v>
+        <v>0.02537249978275913</v>
       </c>
       <c r="K112" t="n">
-        <v>0.07835871059377274</v>
+        <v>0.03939315914713228</v>
       </c>
       <c r="L112" t="n">
-        <v>0.05167330653141894</v>
+        <v>0.0533290397668483</v>
       </c>
       <c r="M112" t="n">
-        <v>0.07865935452606591</v>
+        <v>0.03916618319012699</v>
       </c>
       <c r="N112" t="n">
-        <v>0.07803421929267901</v>
+        <v>0.08078557975093742</v>
       </c>
       <c r="O112" t="n">
-        <v>0.07802890853436328</v>
+        <v>0.03901972344320295</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.03401835279646497</v>
+        <v>0.0232047632287007</v>
       </c>
       <c r="G113" t="n">
-        <v>0.07952878121494017</v>
+        <v>0.02657981265601081</v>
       </c>
       <c r="J113" t="n">
-        <v>0.02472042924176621</v>
+        <v>0.02537249978275913</v>
       </c>
       <c r="K113" t="n">
-        <v>0.08002591720215087</v>
+        <v>0.04023131146941169</v>
       </c>
       <c r="L113" t="n">
-        <v>0.05151036097004683</v>
+        <v>0.05302903976684831</v>
       </c>
       <c r="M113" t="n">
-        <v>0.08033295781385454</v>
+        <v>0.03999950623672544</v>
       </c>
       <c r="N113" t="n">
-        <v>0.07801261575042917</v>
+        <v>0.08088557975093746</v>
       </c>
       <c r="O113" t="n">
-        <v>0.07968909807764761</v>
+        <v>0.03984993032497323</v>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.03381439088557753</v>
+        <v>0.02338489367630059</v>
       </c>
       <c r="G114" t="n">
-        <v>0.08118563082358476</v>
+        <v>0.02713355875301104</v>
       </c>
       <c r="J114" t="n">
-        <v>0.02458486874317209</v>
+        <v>0.02537249978275913</v>
       </c>
       <c r="K114" t="n">
-        <v>0.08169312381052901</v>
+        <v>0.0410694637916911</v>
       </c>
       <c r="L114" t="n">
-        <v>0.05133351177967663</v>
+        <v>0.05292903976684829</v>
       </c>
       <c r="M114" t="n">
-        <v>0.08200656110164317</v>
+        <v>0.04083282928332389</v>
       </c>
       <c r="N114" t="n">
-        <v>0.07767446364224051</v>
+        <v>0.08088557975093746</v>
       </c>
       <c r="O114" t="n">
-        <v>0.08134928762093194</v>
+        <v>0.0406801372067435</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="F115" t="n">
-        <v>0.03460490426449501</v>
+        <v>0.02356202373160224</v>
       </c>
       <c r="G115" t="n">
-        <v>0.08284248043222935</v>
+        <v>0.02768730485001126</v>
       </c>
       <c r="J115" t="n">
-        <v>0.02444445089278349</v>
+        <v>0.02537249978275913</v>
       </c>
       <c r="K115" t="n">
-        <v>0.08336033041890716</v>
+        <v>0.04190761611397051</v>
       </c>
       <c r="L115" t="n">
-        <v>0.05064510826781896</v>
+        <v>0.0533290397668483</v>
       </c>
       <c r="M115" t="n">
-        <v>0.08368016438943181</v>
+        <v>0.04166615232992233</v>
       </c>
       <c r="N115" t="n">
-        <v>0.07672324983357443</v>
+        <v>0.08078557975093742</v>
       </c>
       <c r="O115" t="n">
-        <v>0.08300947716421626</v>
+        <v>0.04151034408851378</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.03339149376575859</v>
+        <v>0.0237361305030441</v>
       </c>
       <c r="G116" t="n">
-        <v>0.08449933004087394</v>
+        <v>0.02824105094701149</v>
       </c>
       <c r="J116" t="n">
-        <v>0.02420028936950905</v>
+        <v>0.02557249978275913</v>
       </c>
       <c r="K116" t="n">
-        <v>0.08502753702728531</v>
+        <v>0.04274576843624991</v>
       </c>
       <c r="L116" t="n">
-        <v>0.05044749974198459</v>
+        <v>0.0528290397668483</v>
       </c>
       <c r="M116" t="n">
-        <v>0.08535376767722044</v>
+        <v>0.04249947537652078</v>
       </c>
       <c r="N116" t="n">
-        <v>0.07676246118989227</v>
+        <v>0.08078557975093742</v>
       </c>
       <c r="O116" t="n">
-        <v>0.08466966670750059</v>
+        <v>0.04234055097028405</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.03417576022190946</v>
+        <v>0.02390719109906483</v>
       </c>
       <c r="G117" t="n">
-        <v>0.08615617964951852</v>
+        <v>0.02879479704401171</v>
       </c>
       <c r="J117" t="n">
-        <v>0.02415349785225741</v>
+        <v>0.02557249978275913</v>
       </c>
       <c r="K117" t="n">
-        <v>0.08669474363566344</v>
+        <v>0.04358392075852933</v>
       </c>
       <c r="L117" t="n">
-        <v>0.05034303550968416</v>
+        <v>0.0528290397668483</v>
       </c>
       <c r="M117" t="n">
-        <v>0.08702737096500908</v>
+        <v>0.04333279842311923</v>
       </c>
       <c r="N117" t="n">
-        <v>0.07619558457665526</v>
+        <v>0.08078557975093742</v>
       </c>
       <c r="O117" t="n">
-        <v>0.08632985625078492</v>
+        <v>0.04317075785205433</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="F118" t="n">
-        <v>0.0339593044654888</v>
+        <v>0.02407518262810293</v>
       </c>
       <c r="G118" t="n">
-        <v>0.0878130292581631</v>
+        <v>0.02934854314101194</v>
       </c>
       <c r="J118" t="n">
-        <v>0.0240051900199372</v>
+        <v>0.02547249978275913</v>
       </c>
       <c r="K118" t="n">
-        <v>0.08836195024404159</v>
+        <v>0.04442207308080873</v>
       </c>
       <c r="L118" t="n">
-        <v>0.04973406487842832</v>
+        <v>0.0528290397668483</v>
       </c>
       <c r="M118" t="n">
-        <v>0.08870097425279773</v>
+        <v>0.04416612146971768</v>
       </c>
       <c r="N118" t="n">
-        <v>0.07522610685932485</v>
+        <v>0.08078557975093742</v>
       </c>
       <c r="O118" t="n">
-        <v>0.08799004579406924</v>
+        <v>0.04400096473382461</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
-        <v>0.03474372732903777</v>
+        <v>0.02424008219859698</v>
       </c>
       <c r="G119" t="n">
-        <v>0.08946987886680768</v>
+        <v>0.02990228923801216</v>
       </c>
       <c r="J119" t="n">
-        <v>0.02365647955145707</v>
+        <v>0.02557249978275913</v>
       </c>
       <c r="K119" t="n">
-        <v>0.09002915685241974</v>
+        <v>0.04526022540308814</v>
       </c>
       <c r="L119" t="n">
-        <v>0.04942293715572779</v>
+        <v>0.05302903976684831</v>
       </c>
       <c r="M119" t="n">
-        <v>0.09037457754058636</v>
+        <v>0.04499944451631612</v>
       </c>
       <c r="N119" t="n">
-        <v>0.07465751490336237</v>
+        <v>0.08078557975093742</v>
       </c>
       <c r="O119" t="n">
-        <v>0.08965023533735357</v>
+        <v>0.04483117161559488</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="F120" t="n">
-        <v>0.03153062958640176</v>
+        <v>0.02440186691898558</v>
       </c>
       <c r="G120" t="n">
-        <v>0.09112672847545228</v>
+        <v>0.03045603533501239</v>
       </c>
       <c r="J120" t="n">
-        <v>0.02350848012572569</v>
+        <v>0.02557249978275913</v>
       </c>
       <c r="K120" t="n">
-        <v>0.09169636346079788</v>
+        <v>0.04609837772536756</v>
       </c>
       <c r="L120" t="n">
-        <v>0.04911200164909318</v>
+        <v>0.05302903976684831</v>
       </c>
       <c r="M120" t="n">
-        <v>0.09204818082837499</v>
+        <v>0.04583276756291457</v>
       </c>
       <c r="N120" t="n">
-        <v>0.07489329557422908</v>
+        <v>0.08028557975093742</v>
       </c>
       <c r="O120" t="n">
-        <v>0.0913104248806379</v>
+        <v>0.04566137849736516</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="F121" t="n">
-        <v>0.03330182285191675</v>
+        <v>0.02456051389770722</v>
       </c>
       <c r="G121" t="n">
-        <v>0.09278357808409687</v>
+        <v>0.03100978143201261</v>
       </c>
       <c r="J121" t="n">
-        <v>0.02346214464645759</v>
+        <v>0.02547249978275913</v>
       </c>
       <c r="K121" t="n">
-        <v>0.09336357006917602</v>
+        <v>0.04693653004764697</v>
       </c>
       <c r="L121" t="n">
-        <v>0.04880360766603525</v>
+        <v>0.05292903976684829</v>
       </c>
       <c r="M121" t="n">
-        <v>0.09372178411616362</v>
+        <v>0.04666609060951301</v>
       </c>
       <c r="N121" t="n">
-        <v>0.07401501073128508</v>
+        <v>0.08098557975093745</v>
       </c>
       <c r="O121" t="n">
-        <v>0.09297061442392221</v>
+        <v>0.04649158537913543</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.03104166663264721</v>
+        <v>0.02471600024320053</v>
       </c>
       <c r="G122" t="n">
-        <v>0.09444042769274145</v>
+        <v>0.03156352752901283</v>
       </c>
       <c r="J122" t="n">
-        <v>0.02320241304790376</v>
+        <v>0.02557249978275913</v>
       </c>
       <c r="K122" t="n">
-        <v>0.09503077667755416</v>
+        <v>0.04777468236992638</v>
       </c>
       <c r="L122" t="n">
-        <v>0.04859099370022552</v>
+        <v>0.0533290397668483</v>
       </c>
       <c r="M122" t="n">
-        <v>0.09539538740395226</v>
+        <v>0.04749941365611145</v>
       </c>
       <c r="N122" t="n">
-        <v>0.07346900700023867</v>
+        <v>0.08108557975093744</v>
       </c>
       <c r="O122" t="n">
-        <v>0.09463080396720654</v>
+        <v>0.04732179226090571</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.03175537663236823</v>
+        <v>0.02486830306390406</v>
       </c>
       <c r="G123" t="n">
-        <v>0.09609727730138605</v>
+        <v>0.03211727362601307</v>
       </c>
       <c r="J123" t="n">
-        <v>0.02302141264254912</v>
+        <v>0.02537249978275913</v>
       </c>
       <c r="K123" t="n">
-        <v>0.09669798328593231</v>
+        <v>0.04861283469220579</v>
       </c>
       <c r="L123" t="n">
-        <v>0.04843531843689286</v>
+        <v>0.0531290397668483</v>
       </c>
       <c r="M123" t="n">
-        <v>0.09706899069174091</v>
+        <v>0.04833273670270991</v>
       </c>
       <c r="N123" t="n">
-        <v>0.07266294887515712</v>
+        <v>0.08038557975093746</v>
       </c>
       <c r="O123" t="n">
-        <v>0.09629099351049086</v>
+        <v>0.04815199914267598</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="F124" t="n">
-        <v>0.0334481685548548</v>
+        <v>0.02501739946825633</v>
       </c>
       <c r="G124" t="n">
-        <v>0.09775412691003063</v>
+        <v>0.03267101972301329</v>
       </c>
       <c r="J124" t="n">
-        <v>0.02292277192940191</v>
+        <v>0.02557249978275913</v>
       </c>
       <c r="K124" t="n">
-        <v>0.09836518989431045</v>
+        <v>0.04945098701448519</v>
       </c>
       <c r="L124" t="n">
-        <v>0.04813844810490664</v>
+        <v>0.0528290397668483</v>
       </c>
       <c r="M124" t="n">
-        <v>0.09874259397952954</v>
+        <v>0.04916605974930835</v>
       </c>
       <c r="N124" t="n">
-        <v>0.07260819698051679</v>
+        <v>0.08098557975093745</v>
       </c>
       <c r="O124" t="n">
-        <v>0.09795118305377519</v>
+        <v>0.04898220602444626</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.030125258103882</v>
+        <v>0.02516326656469597</v>
       </c>
       <c r="G125" t="n">
-        <v>0.09941097651867521</v>
+        <v>0.03322476582001352</v>
       </c>
       <c r="J125" t="n">
-        <v>0.02281011940747033</v>
+        <v>0.02537249978275913</v>
       </c>
       <c r="K125" t="n">
-        <v>0.1000323965026886</v>
+        <v>0.05028913933676461</v>
       </c>
       <c r="L125" t="n">
-        <v>0.0475080370289617</v>
+        <v>0.05302903976684831</v>
       </c>
       <c r="M125" t="n">
-        <v>0.1004161972673182</v>
+        <v>0.04999938279590679</v>
       </c>
       <c r="N125" t="n">
-        <v>0.0717161119407938</v>
+        <v>0.08028557975093742</v>
       </c>
       <c r="O125" t="n">
-        <v>0.0996113725970595</v>
+        <v>0.04981241290621654</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.03279186098322488</v>
+        <v>0.02530588146166148</v>
       </c>
       <c r="G126" t="n">
-        <v>0.1010678261273198</v>
+        <v>0.03377851191701374</v>
       </c>
       <c r="J126" t="n">
-        <v>0.02248708357576261</v>
+        <v>0.02537249978275913</v>
       </c>
       <c r="K126" t="n">
-        <v>0.1016996031110667</v>
+        <v>0.05112729165904402</v>
       </c>
       <c r="L126" t="n">
-        <v>0.04695173953375276</v>
+        <v>0.0528290397668483</v>
       </c>
       <c r="M126" t="n">
-        <v>0.1020898005551068</v>
+        <v>0.05083270584250524</v>
       </c>
       <c r="N126" t="n">
-        <v>0.07109805438046474</v>
+        <v>0.08038557975093746</v>
       </c>
       <c r="O126" t="n">
-        <v>0.1012715621403438</v>
+        <v>0.05064261978798681</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="F127" t="n">
-        <v>0.0314531928966585</v>
+        <v>0.02544522126759147</v>
       </c>
       <c r="G127" t="n">
-        <v>0.1027246757359644</v>
+        <v>0.03433225801401397</v>
       </c>
       <c r="J127" t="n">
-        <v>0.02225729293328696</v>
+        <v>0.02547249978275913</v>
       </c>
       <c r="K127" t="n">
-        <v>0.1033668097194449</v>
+        <v>0.05196544398132343</v>
       </c>
       <c r="L127" t="n">
-        <v>0.04637720994397468</v>
+        <v>0.0533290397668483</v>
       </c>
       <c r="M127" t="n">
-        <v>0.1037634038428954</v>
+        <v>0.05166602888910369</v>
       </c>
       <c r="N127" t="n">
-        <v>0.07006538492400544</v>
+        <v>0.08058557975093744</v>
       </c>
       <c r="O127" t="n">
-        <v>0.1029317516836282</v>
+        <v>0.05147282666975708</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="F128" t="n">
-        <v>0.03111446954795787</v>
+        <v>0.02558126309092446</v>
       </c>
       <c r="G128" t="n">
-        <v>0.104381525344609</v>
+        <v>0.03488600411101419</v>
       </c>
       <c r="J128" t="n">
-        <v>0.02192437597905161</v>
+        <v>0.02547249978275913</v>
       </c>
       <c r="K128" t="n">
-        <v>0.105034016327823</v>
+        <v>0.05280359630360284</v>
       </c>
       <c r="L128" t="n">
-        <v>0.04599210258432221</v>
+        <v>0.05302903976684831</v>
       </c>
       <c r="M128" t="n">
-        <v>0.1054370071306841</v>
+        <v>0.05249935193570214</v>
       </c>
       <c r="N128" t="n">
-        <v>0.06932946419589264</v>
+        <v>0.08068557975093743</v>
       </c>
       <c r="O128" t="n">
-        <v>0.1045919412269125</v>
+        <v>0.05230303355152736</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.03078090664089804</v>
+        <v>0.02571398404009904</v>
       </c>
       <c r="G129" t="n">
-        <v>0.1060383749532536</v>
+        <v>0.03543975020801442</v>
       </c>
       <c r="J129" t="n">
-        <v>0.02189196121206478</v>
+        <v>0.02547249978275913</v>
       </c>
       <c r="K129" t="n">
-        <v>0.1067012229362012</v>
+        <v>0.05364174862588224</v>
       </c>
       <c r="L129" t="n">
-        <v>0.04550407177949009</v>
+        <v>0.05292903976684829</v>
       </c>
       <c r="M129" t="n">
-        <v>0.1071106104184727</v>
+        <v>0.05333267498230058</v>
       </c>
       <c r="N129" t="n">
-        <v>0.06850165282060228</v>
+        <v>0.08078557975093742</v>
       </c>
       <c r="O129" t="n">
-        <v>0.1062521307701968</v>
+        <v>0.05313324043329764</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="F130" t="n">
-        <v>0.02945771987925408</v>
+        <v>0.02584336122355378</v>
       </c>
       <c r="G130" t="n">
-        <v>0.1076952245618982</v>
+        <v>0.03599349630501464</v>
       </c>
       <c r="J130" t="n">
-        <v>0.02146367713133468</v>
+        <v>0.02537249978275913</v>
       </c>
       <c r="K130" t="n">
-        <v>0.1083684295445793</v>
+        <v>0.05447990094816166</v>
       </c>
       <c r="L130" t="n">
-        <v>0.04512077185417318</v>
+        <v>0.05322903976684831</v>
       </c>
       <c r="M130" t="n">
-        <v>0.1087842137062614</v>
+        <v>0.05416599802889903</v>
       </c>
       <c r="N130" t="n">
-        <v>0.06819331142261087</v>
+        <v>0.08068557975093743</v>
       </c>
       <c r="O130" t="n">
-        <v>0.1079123203134811</v>
+        <v>0.05396344731506791</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="F131" t="n">
-        <v>0.02914997929774574</v>
+        <v>0.02596937174972723</v>
       </c>
       <c r="G131" t="n">
-        <v>0.1093520741705428</v>
+        <v>0.03654724240201487</v>
       </c>
       <c r="J131" t="n">
-        <v>0.02144315223586957</v>
+        <v>0.02547249978275913</v>
       </c>
       <c r="K131" t="n">
-        <v>0.1100356361529574</v>
+        <v>0.05531805327044106</v>
       </c>
       <c r="L131" t="n">
-        <v>0.04464985713306624</v>
+        <v>0.0533290397668483</v>
       </c>
       <c r="M131" t="n">
-        <v>0.11045781699405</v>
+        <v>0.05499932107549747</v>
       </c>
       <c r="N131" t="n">
-        <v>0.0676158006263945</v>
+        <v>0.08058557975093744</v>
       </c>
       <c r="O131" t="n">
-        <v>0.1095725098567655</v>
+        <v>0.05479365419683818</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.02783114323876772</v>
+        <v>0.02609199272705795</v>
       </c>
       <c r="G132" t="n">
-        <v>0.1110089237791873</v>
+        <v>0.03710098849901509</v>
       </c>
       <c r="J132" t="n">
-        <v>0.02113283930771152</v>
+        <v>0.02547249978275913</v>
       </c>
       <c r="K132" t="n">
-        <v>0.1117028427613356</v>
+        <v>0.05615620559272048</v>
       </c>
       <c r="L132" t="n">
-        <v>0.04409898194086392</v>
+        <v>0.05292903976684829</v>
       </c>
       <c r="M132" t="n">
-        <v>0.1121314202818386</v>
+        <v>0.05583264412209593</v>
       </c>
       <c r="N132" t="n">
-        <v>0.06664095655370528</v>
+        <v>0.08048557975093745</v>
       </c>
       <c r="O132" t="n">
-        <v>0.1112326994000498</v>
+        <v>0.05562386107860846</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.02848386696269088</v>
+        <v>0.02621120126398452</v>
       </c>
       <c r="G133" t="n">
-        <v>0.1126657733878319</v>
+        <v>0.03765473459601532</v>
       </c>
       <c r="J133" t="n">
-        <v>0.02100992578058176</v>
+        <v>0.02547249978275913</v>
       </c>
       <c r="K133" t="n">
-        <v>0.1133700493697137</v>
+        <v>0.05699435791499988</v>
       </c>
       <c r="L133" t="n">
-        <v>0.04405343003848253</v>
+        <v>0.05322903976684831</v>
       </c>
       <c r="M133" t="n">
-        <v>0.1138050235696273</v>
+        <v>0.05666596716869438</v>
       </c>
       <c r="N133" t="n">
-        <v>0.06590235467108718</v>
+        <v>0.08078557975093742</v>
       </c>
       <c r="O133" t="n">
-        <v>0.1128928889433341</v>
+        <v>0.05645406796037875</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.02911561675099716</v>
+        <v>0.0263269744689455</v>
       </c>
       <c r="G134" t="n">
-        <v>0.1143226229964765</v>
+        <v>0.03820848069301554</v>
       </c>
       <c r="J134" t="n">
-        <v>0.02066828457632659</v>
+        <v>0.02547249978275913</v>
       </c>
       <c r="K134" t="n">
-        <v>0.1150372559780919</v>
+        <v>0.05783251023727929</v>
       </c>
       <c r="L134" t="n">
-        <v>0.0435658506152822</v>
+        <v>0.05302903976684831</v>
       </c>
       <c r="M134" t="n">
-        <v>0.1154786268574159</v>
+        <v>0.05749929021529282</v>
       </c>
       <c r="N134" t="n">
-        <v>0.06461387422817239</v>
+        <v>0.08048557975093745</v>
       </c>
       <c r="O134" t="n">
-        <v>0.1145530784866184</v>
+        <v>0.05728427484214901</v>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.02873385888516848</v>
+        <v>0.02643928945037943</v>
       </c>
       <c r="G135" t="n">
-        <v>0.1159794726051211</v>
+        <v>0.03876222679001576</v>
       </c>
       <c r="J135" t="n">
-        <v>0.02041310989233928</v>
+        <v>0.02537249978275913</v>
       </c>
       <c r="K135" t="n">
-        <v>0.11670446258647</v>
+        <v>0.0586706625595587</v>
       </c>
       <c r="L135" t="n">
-        <v>0.04264438708961957</v>
+        <v>0.05292903976684829</v>
       </c>
       <c r="M135" t="n">
-        <v>0.1171522301452046</v>
+        <v>0.05833261326189126</v>
       </c>
       <c r="N135" t="n">
-        <v>0.06449177796222677</v>
+        <v>0.08068557975093743</v>
       </c>
       <c r="O135" t="n">
-        <v>0.1162132680299028</v>
+        <v>0.05811448172391929</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.02634605964668678</v>
+        <v>0.02654812331672488</v>
       </c>
       <c r="G136" t="n">
-        <v>0.1176363222137657</v>
+        <v>0.03931597288701599</v>
       </c>
       <c r="J136" t="n">
-        <v>0.02014959592601309</v>
+        <v>0.02547249978275913</v>
       </c>
       <c r="K136" t="n">
-        <v>0.1183716691948482</v>
+        <v>0.05950881488183812</v>
       </c>
       <c r="L136" t="n">
-        <v>0.04239999662953747</v>
+        <v>0.0531290397668483</v>
       </c>
       <c r="M136" t="n">
-        <v>0.1188258334329932</v>
+        <v>0.05916593630848971</v>
       </c>
       <c r="N136" t="n">
-        <v>0.06295232861051625</v>
+        <v>0.08068557975093743</v>
       </c>
       <c r="O136" t="n">
-        <v>0.1178734575731871</v>
+        <v>0.05894468860568957</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.02695968531703395</v>
+        <v>0.02665345317642043</v>
       </c>
       <c r="G137" t="n">
-        <v>0.1192931718224103</v>
+        <v>0.03986971898401622</v>
       </c>
       <c r="J137" t="n">
-        <v>0.01998293687474122</v>
+        <v>0.02537249978275913</v>
       </c>
       <c r="K137" t="n">
-        <v>0.1200388758032263</v>
+        <v>0.06034696720411753</v>
       </c>
       <c r="L137" t="n">
-        <v>0.04144363640307888</v>
+        <v>0.05302903976684831</v>
       </c>
       <c r="M137" t="n">
-        <v>0.1204994367207818</v>
+        <v>0.05999925935508816</v>
       </c>
       <c r="N137" t="n">
-        <v>0.06211178891030666</v>
+        <v>0.08068557975093743</v>
       </c>
       <c r="O137" t="n">
-        <v>0.1195336471164714</v>
+        <v>0.05977489548745984</v>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.02758220217769197</v>
+        <v>0.02675525613790462</v>
       </c>
       <c r="G138" t="n">
-        <v>0.1209500214310548</v>
+        <v>0.04042346508101644</v>
       </c>
       <c r="J138" t="n">
-        <v>0.01961832693591692</v>
+        <v>0.02537249978275913</v>
       </c>
       <c r="K138" t="n">
-        <v>0.1217060824116045</v>
+        <v>0.06118511952639694</v>
       </c>
       <c r="L138" t="n">
-        <v>0.04118626357828672</v>
+        <v>0.05292903976684829</v>
       </c>
       <c r="M138" t="n">
-        <v>0.1221730400085704</v>
+        <v>0.0608325824016866</v>
       </c>
       <c r="N138" t="n">
-        <v>0.06138642159886404</v>
+        <v>0.08078557975093742</v>
       </c>
       <c r="O138" t="n">
-        <v>0.1211938366597557</v>
+        <v>0.06060510236923012</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.0272210765101427</v>
+        <v>0.02685350930961605</v>
       </c>
       <c r="G139" t="n">
-        <v>0.1226068710396994</v>
+        <v>0.04097721117801667</v>
       </c>
       <c r="J139" t="n">
-        <v>0.01936096030693345</v>
+        <v>0.02537249978275913</v>
       </c>
       <c r="K139" t="n">
-        <v>0.1233732890199826</v>
+        <v>0.06202327184867635</v>
       </c>
       <c r="L139" t="n">
-        <v>0.04063883532320386</v>
+        <v>0.05322903976684831</v>
       </c>
       <c r="M139" t="n">
-        <v>0.1238466432963591</v>
+        <v>0.06166590544828505</v>
       </c>
       <c r="N139" t="n">
-        <v>0.06069248941345406</v>
+        <v>0.08088557975093746</v>
       </c>
       <c r="O139" t="n">
-        <v>0.1228540262030401</v>
+        <v>0.0614353092510004</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.02688377459586813</v>
+        <v>0.02694818979999324</v>
       </c>
       <c r="G140" t="n">
-        <v>0.124263720648344</v>
+        <v>0.0415309572750169</v>
       </c>
       <c r="J140" t="n">
-        <v>0.01901603118518401</v>
+        <v>0.02547249978275913</v>
       </c>
       <c r="K140" t="n">
-        <v>0.1250404956283608</v>
+        <v>0.06286142417095576</v>
       </c>
       <c r="L140" t="n">
-        <v>0.03981230880587333</v>
+        <v>0.05292903976684829</v>
       </c>
       <c r="M140" t="n">
-        <v>0.1255202465841477</v>
+        <v>0.06249922849488349</v>
       </c>
       <c r="N140" t="n">
-        <v>0.05984625509134284</v>
+        <v>0.08048557975093745</v>
       </c>
       <c r="O140" t="n">
-        <v>0.1245142157463244</v>
+        <v>0.06226551613277067</v>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.02657776271635014</v>
+        <v>0.02703927471747479</v>
       </c>
       <c r="G141" t="n">
-        <v>0.1259205702569886</v>
+        <v>0.04208470337201712</v>
       </c>
       <c r="J141" t="n">
-        <v>0.01878873376806192</v>
+        <v>0.02557249978275913</v>
       </c>
       <c r="K141" t="n">
-        <v>0.1267077022367389</v>
+        <v>0.06369957649323517</v>
       </c>
       <c r="L141" t="n">
-        <v>0.03941764119433794</v>
+        <v>0.05292903976684829</v>
       </c>
       <c r="M141" t="n">
-        <v>0.1271938498719364</v>
+        <v>0.06333255154148194</v>
       </c>
       <c r="N141" t="n">
-        <v>0.05976398136979622</v>
+        <v>0.08048557975093745</v>
       </c>
       <c r="O141" t="n">
-        <v>0.1261744052896087</v>
+        <v>0.06309572301454094</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.02731050715307068</v>
+        <v>0.02712674117049924</v>
       </c>
       <c r="G142" t="n">
-        <v>0.1275774198656332</v>
+        <v>0.04263844946901735</v>
       </c>
       <c r="J142" t="n">
-        <v>0.01868426225296037</v>
+        <v>0.02537249978275913</v>
       </c>
       <c r="K142" t="n">
-        <v>0.128374908845117</v>
+        <v>0.06453772881551458</v>
       </c>
       <c r="L142" t="n">
-        <v>0.03906578965664068</v>
+        <v>0.05292903976684829</v>
       </c>
       <c r="M142" t="n">
-        <v>0.128867453159725</v>
+        <v>0.06416587458808039</v>
       </c>
       <c r="N142" t="n">
-        <v>0.05856193098608004</v>
+        <v>0.08068557975093743</v>
       </c>
       <c r="O142" t="n">
-        <v>0.1278345948328931</v>
+        <v>0.06392592989631123</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.02408947418751164</v>
+        <v>0.02721056626750516</v>
       </c>
       <c r="G143" t="n">
-        <v>0.1292342694742778</v>
+        <v>0.04319219556601757</v>
       </c>
       <c r="J143" t="n">
-        <v>0.0184078108372726</v>
+        <v>0.02547249978275913</v>
       </c>
       <c r="K143" t="n">
-        <v>0.1300421154534952</v>
+        <v>0.06537588113779398</v>
       </c>
       <c r="L143" t="n">
-        <v>0.03866771136082447</v>
+        <v>0.05292903976684829</v>
       </c>
       <c r="M143" t="n">
-        <v>0.1305410564475136</v>
+        <v>0.06499919763467883</v>
       </c>
       <c r="N143" t="n">
-        <v>0.05795636667746029</v>
+        <v>0.08068557975093743</v>
       </c>
       <c r="O143" t="n">
-        <v>0.1294947843761774</v>
+        <v>0.06475613677808149</v>
       </c>
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.023922130101155</v>
+        <v>0.0272907271169311</v>
       </c>
       <c r="G144" t="n">
-        <v>0.1308911190829224</v>
+        <v>0.0437459416630178</v>
       </c>
       <c r="J144" t="n">
-        <v>0.01826457371839185</v>
+        <v>0.02537249978275913</v>
       </c>
       <c r="K144" t="n">
-        <v>0.1317093220618733</v>
+        <v>0.0662140334600734</v>
       </c>
       <c r="L144" t="n">
-        <v>0.03833436347493221</v>
+        <v>0.05292903976684829</v>
       </c>
       <c r="M144" t="n">
-        <v>0.1322146597353023</v>
+        <v>0.06583252068127728</v>
       </c>
       <c r="N144" t="n">
-        <v>0.0582635511812028</v>
+        <v>0.08078557975093742</v>
       </c>
       <c r="O144" t="n">
-        <v>0.1311549739194617</v>
+        <v>0.06558634365985178</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.02581594117548267</v>
+        <v>0.02736720082721565</v>
       </c>
       <c r="G145" t="n">
-        <v>0.1325479686915669</v>
+        <v>0.04429968776001802</v>
       </c>
       <c r="J145" t="n">
-        <v>0.0183597450937114</v>
+        <v>0.02557249978275913</v>
       </c>
       <c r="K145" t="n">
-        <v>0.1333765286702515</v>
+        <v>0.06705218578235281</v>
       </c>
       <c r="L145" t="n">
-        <v>0.03817670316700686</v>
+        <v>0.05302903976684831</v>
       </c>
       <c r="M145" t="n">
-        <v>0.1338882630230909</v>
+        <v>0.06666584372787572</v>
       </c>
       <c r="N145" t="n">
-        <v>0.0576997472345735</v>
+        <v>0.08088557975093746</v>
       </c>
       <c r="O145" t="n">
-        <v>0.132815163462746</v>
+        <v>0.06641655054162204</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.02677837369197653</v>
+        <v>0.02743996450679735</v>
       </c>
       <c r="G146" t="n">
-        <v>0.1342048183002115</v>
+        <v>0.04485343385701825</v>
       </c>
       <c r="J146" t="n">
-        <v>0.01819851916062443</v>
+        <v>0.02557249978275913</v>
       </c>
       <c r="K146" t="n">
-        <v>0.1350437352786296</v>
+        <v>0.06789033810463221</v>
       </c>
       <c r="L146" t="n">
-        <v>0.03770568760509133</v>
+        <v>0.05292903976684829</v>
       </c>
       <c r="M146" t="n">
-        <v>0.1355618663108795</v>
+        <v>0.06749916677447416</v>
       </c>
       <c r="N146" t="n">
-        <v>0.05738121757483833</v>
+        <v>0.0809853202957736</v>
       </c>
       <c r="O146" t="n">
-        <v>0.1344753530060303</v>
+        <v>0.06724675742339233</v>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.02678372266632513</v>
+        <v>0.02750899526411478</v>
       </c>
       <c r="G147" t="n">
-        <v>0.1358616679088561</v>
+        <v>0.04540717995401847</v>
       </c>
       <c r="J147" t="n">
-        <v>0.01808458971268476</v>
+        <v>0.02547246783768163</v>
       </c>
       <c r="K147" t="n">
-        <v>0.1367109418870077</v>
+        <v>0.06872849042691162</v>
       </c>
       <c r="L147" t="n">
-        <v>0.03773227395722853</v>
+        <v>0.05282774942263441</v>
       </c>
       <c r="M147" t="n">
-        <v>0.1372354695986682</v>
+        <v>0.06833248982107262</v>
       </c>
       <c r="N147" t="n">
-        <v>0.05718294069791674</v>
+        <v>0.08058119375495854</v>
       </c>
       <c r="O147" t="n">
-        <v>0.1361355425493146</v>
+        <v>0.06807696430516259</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.0257996379169973</v>
+        <v>0.02757427020760647</v>
       </c>
       <c r="G148" t="n">
-        <v>0.1375185175175007</v>
+        <v>0.0459609260510187</v>
       </c>
       <c r="J148" t="n">
-        <v>0.01819027648409779</v>
+        <v>0.02547133640437409</v>
       </c>
       <c r="K148" t="n">
-        <v>0.1383781484953859</v>
+        <v>0.06956664274919104</v>
       </c>
       <c r="L148" t="n">
-        <v>0.03813546963023931</v>
+        <v>0.05282319792326096</v>
       </c>
       <c r="M148" t="n">
-        <v>0.1389090728864568</v>
+        <v>0.06916581286767107</v>
       </c>
       <c r="N148" t="n">
-        <v>0.05781219247059016</v>
+        <v>0.08097218937194883</v>
       </c>
       <c r="O148" t="n">
-        <v>0.137795732092599</v>
+        <v>0.06890717118693286</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.02482556751494649</v>
+        <v>0.02763576644571104</v>
       </c>
       <c r="G149" t="n">
-        <v>0.1391753671261453</v>
+        <v>0.04651467214801892</v>
       </c>
       <c r="J149" t="n">
-        <v>0.01820316186558395</v>
+        <v>0.02536863033987537</v>
       </c>
       <c r="K149" t="n">
-        <v>0.140045355103764</v>
+        <v>0.07040479507147046</v>
       </c>
       <c r="L149" t="n">
-        <v>0.03795586425733988</v>
+        <v>0.05301548484171575</v>
       </c>
       <c r="M149" t="n">
-        <v>0.1405826761742454</v>
+        <v>0.06999913591426951</v>
       </c>
       <c r="N149" t="n">
-        <v>0.05756349205480737</v>
+        <v>0.08105849597860881</v>
       </c>
       <c r="O149" t="n">
-        <v>0.1394559216358833</v>
+        <v>0.06973737806870314</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.02486096284052912</v>
+        <v>0.027693461086867</v>
       </c>
       <c r="G150" t="n">
-        <v>0.1408322167347899</v>
+        <v>0.04706841824501915</v>
       </c>
       <c r="J150" t="n">
-        <v>0.01832286418941083</v>
+        <v>0.02546441092361439</v>
       </c>
       <c r="K150" t="n">
-        <v>0.1417125617121422</v>
+        <v>0.07124294739374987</v>
       </c>
       <c r="L150" t="n">
-        <v>0.03799093816000659</v>
+        <v>0.05300473577423082</v>
       </c>
       <c r="M150" t="n">
-        <v>0.1422562794620341</v>
+        <v>0.07083245896086796</v>
       </c>
       <c r="N150" t="n">
-        <v>0.05743564447055821</v>
+        <v>0.08034030240680312</v>
       </c>
       <c r="O150" t="n">
-        <v>0.1411161111791676</v>
+        <v>0.07056758495047342</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.02390527527410162</v>
+        <v>0.02774733123951294</v>
       </c>
       <c r="G151" t="n">
-        <v>0.1424890663434345</v>
+        <v>0.04762216434201937</v>
       </c>
       <c r="J151" t="n">
-        <v>0.01814900178784605</v>
+        <v>0.02545873943502008</v>
       </c>
       <c r="K151" t="n">
-        <v>0.1433797683205203</v>
+        <v>0.07208109971602927</v>
       </c>
       <c r="L151" t="n">
-        <v>0.03793988620952304</v>
+        <v>0.05309107631703833</v>
       </c>
       <c r="M151" t="n">
-        <v>0.1439298827498227</v>
+        <v>0.0716657820074664</v>
       </c>
       <c r="N151" t="n">
-        <v>0.05752745473783227</v>
+        <v>0.08101779748839605</v>
       </c>
       <c r="O151" t="n">
-        <v>0.142776300722452</v>
+        <v>0.07139779183224369</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.02595795619602045</v>
+        <v>0.02779735401208741</v>
       </c>
       <c r="G152" t="n">
-        <v>0.1441459159520791</v>
+        <v>0.0481759104390196</v>
       </c>
       <c r="J152" t="n">
-        <v>0.01828119299315728</v>
+        <v>0.02545167715352141</v>
       </c>
       <c r="K152" t="n">
-        <v>0.1450469749288985</v>
+        <v>0.07291925203830868</v>
       </c>
       <c r="L152" t="n">
-        <v>0.03790190327717272</v>
+        <v>0.05317463206637035</v>
       </c>
       <c r="M152" t="n">
-        <v>0.1456034860376113</v>
+        <v>0.07249910505406486</v>
       </c>
       <c r="N152" t="n">
-        <v>0.05763772787661919</v>
+        <v>0.08059117005525207</v>
       </c>
       <c r="O152" t="n">
-        <v>0.1444364902657363</v>
+        <v>0.07222799871401397</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.02701845698664204</v>
+        <v>0.027843506513029</v>
       </c>
       <c r="G153" t="n">
-        <v>0.1458027655607237</v>
+        <v>0.04872965653601982</v>
       </c>
       <c r="J153" t="n">
-        <v>0.0183190561376121</v>
+        <v>0.02544328535854733</v>
       </c>
       <c r="K153" t="n">
-        <v>0.1467141815372766</v>
+        <v>0.07375740436058809</v>
       </c>
       <c r="L153" t="n">
-        <v>0.03787618423423922</v>
+        <v>0.052755528618459</v>
       </c>
       <c r="M153" t="n">
-        <v>0.1472770893254</v>
+        <v>0.0733324281006633</v>
       </c>
       <c r="N153" t="n">
-        <v>0.05826526890690886</v>
+        <v>0.0802606089392357</v>
       </c>
       <c r="O153" t="n">
-        <v>0.1460966798090206</v>
+        <v>0.07305820559578426</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.02408622902632281</v>
+        <v>0.02788576585077623</v>
       </c>
       <c r="G154" t="n">
-        <v>0.1474596151693683</v>
+        <v>0.04928340263302005</v>
       </c>
       <c r="J154" t="n">
-        <v>0.01846220955347816</v>
+        <v>0.02553362532952677</v>
       </c>
       <c r="K154" t="n">
-        <v>0.1483813881456547</v>
+        <v>0.07459555668286751</v>
       </c>
       <c r="L154" t="n">
-        <v>0.03816192395200607</v>
+        <v>0.05283389156953638</v>
       </c>
       <c r="M154" t="n">
-        <v>0.1489506926131886</v>
+        <v>0.07416575114726175</v>
       </c>
       <c r="N154" t="n">
-        <v>0.0582088828486908</v>
+        <v>0.08072630297221134</v>
       </c>
       <c r="O154" t="n">
-        <v>0.1477568693523049</v>
+        <v>0.07388841247755452</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.0241607236954192</v>
+        <v>0.02792410913376769</v>
       </c>
       <c r="G155" t="n">
-        <v>0.1491164647780128</v>
+        <v>0.04983714873002027</v>
       </c>
       <c r="J155" t="n">
-        <v>0.01851027157302308</v>
+        <v>0.02552275834588867</v>
       </c>
       <c r="K155" t="n">
-        <v>0.1500485947540329</v>
+        <v>0.07543370900514691</v>
       </c>
       <c r="L155" t="n">
-        <v>0.03855831730175688</v>
+        <v>0.05310984651583467</v>
       </c>
       <c r="M155" t="n">
-        <v>0.1506242959009773</v>
+        <v>0.07499907419386019</v>
       </c>
       <c r="N155" t="n">
-        <v>0.05876737472195481</v>
+        <v>0.08008844098604345</v>
       </c>
       <c r="O155" t="n">
-        <v>0.1494170588955893</v>
+        <v>0.07471861935932481</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.02724139237428767</v>
+        <v>0.02795851347044195</v>
       </c>
       <c r="G156" t="n">
-        <v>0.1507733143866574</v>
+        <v>0.0503908948270205</v>
       </c>
       <c r="J156" t="n">
-        <v>0.01846286052851448</v>
+        <v>0.02551074568706202</v>
       </c>
       <c r="K156" t="n">
-        <v>0.151715801362411</v>
+        <v>0.07627186132742632</v>
       </c>
       <c r="L156" t="n">
-        <v>0.03826455915477509</v>
+        <v>0.05268351905358584</v>
       </c>
       <c r="M156" t="n">
-        <v>0.1522978991887659</v>
+        <v>0.07583239724045863</v>
       </c>
       <c r="N156" t="n">
-        <v>0.05853954954669049</v>
+        <v>0.08054721181259655</v>
       </c>
       <c r="O156" t="n">
-        <v>0.1510772484388736</v>
+        <v>0.07554882624109509</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.02632768644328462</v>
+        <v>0.02798895596923756</v>
       </c>
       <c r="G157" t="n">
-        <v>0.152430163995302</v>
+        <v>0.05094464092402072</v>
       </c>
       <c r="J157" t="n">
-        <v>0.01841959475221998</v>
+        <v>0.02549764863247569</v>
       </c>
       <c r="K157" t="n">
-        <v>0.1533830079707892</v>
+        <v>0.07711001364970572</v>
       </c>
       <c r="L157" t="n">
-        <v>0.03857984438234438</v>
+        <v>0.05285503477902209</v>
       </c>
       <c r="M157" t="n">
-        <v>0.1539715024765545</v>
+        <v>0.07666572028705709</v>
       </c>
       <c r="N157" t="n">
-        <v>0.05842421234288775</v>
+        <v>0.08080280428373515</v>
       </c>
       <c r="O157" t="n">
-        <v>0.1527374379821579</v>
+        <v>0.07637903312286536</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.02641978307079711</v>
+        <v>0.02801541373859308</v>
       </c>
       <c r="G158" t="n">
-        <v>0.1540870136039466</v>
+        <v>0.05149838702102095</v>
       </c>
       <c r="J158" t="n">
-        <v>0.01858009257640722</v>
+        <v>0.0254835284615587</v>
       </c>
       <c r="K158" t="n">
-        <v>0.1550502145791673</v>
+        <v>0.07794816597198513</v>
       </c>
       <c r="L158" t="n">
-        <v>0.03840336785574827</v>
+        <v>0.0531245192883755</v>
       </c>
       <c r="M158" t="n">
-        <v>0.1556451057643432</v>
+        <v>0.07749904333365554</v>
       </c>
       <c r="N158" t="n">
-        <v>0.05912016813053605</v>
+        <v>0.07995540723132355</v>
       </c>
       <c r="O158" t="n">
-        <v>0.1543976275254423</v>
+        <v>0.07720924000463562</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.02657213381571558</v>
+        <v>0.02803786388694707</v>
       </c>
       <c r="G159" t="n">
-        <v>0.1557438632125911</v>
+        <v>0.05205213311802117</v>
       </c>
       <c r="J159" t="n">
-        <v>0.01875097300516548</v>
+        <v>0.02536844645373995</v>
       </c>
       <c r="K159" t="n">
-        <v>0.1567174211875455</v>
+        <v>0.07878631829426455</v>
       </c>
       <c r="L159" t="n">
-        <v>0.03903458151174408</v>
+        <v>0.05279209817787817</v>
       </c>
       <c r="M159" t="n">
-        <v>0.1573187090521318</v>
+        <v>0.07833236638025398</v>
       </c>
       <c r="N159" t="n">
-        <v>0.05890876076123697</v>
+        <v>0.08040520948722624</v>
       </c>
       <c r="O159" t="n">
-        <v>0.1560578170687266</v>
+        <v>0.07803944688640591</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.02780716087413732</v>
+        <v>0.02805628352273812</v>
       </c>
       <c r="G160" t="n">
-        <v>0.1574007128212357</v>
+        <v>0.0526058792150214</v>
       </c>
       <c r="J160" t="n">
-        <v>0.01887662956586365</v>
+        <v>0.0253524638884484</v>
       </c>
       <c r="K160" t="n">
-        <v>0.1583846277959236</v>
+        <v>0.07962447061654396</v>
       </c>
       <c r="L160" t="n">
-        <v>0.03894623684214293</v>
+        <v>0.05275789704376221</v>
       </c>
       <c r="M160" t="n">
-        <v>0.1589923123399204</v>
+        <v>0.07916568942685243</v>
       </c>
       <c r="N160" t="n">
-        <v>0.05988382742628839</v>
+        <v>0.08045239988330782</v>
       </c>
       <c r="O160" t="n">
-        <v>0.1577180066120109</v>
+        <v>0.07886965376817617</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.0271083027431638</v>
+        <v>0.02807064975440475</v>
       </c>
       <c r="G161" t="n">
-        <v>0.1590575624298803</v>
+        <v>0.05315962531202163</v>
       </c>
       <c r="J161" t="n">
-        <v>0.01885543938023101</v>
+        <v>0.025235642045113</v>
       </c>
       <c r="K161" t="n">
-        <v>0.1600518344043017</v>
+        <v>0.08046262293882338</v>
       </c>
       <c r="L161" t="n">
-        <v>0.03947925164582572</v>
+        <v>0.05252204148225975</v>
       </c>
       <c r="M161" t="n">
-        <v>0.1606659156277091</v>
+        <v>0.07999901247345088</v>
       </c>
       <c r="N161" t="n">
-        <v>0.06021016034303783</v>
+        <v>0.08059716725143257</v>
       </c>
       <c r="O161" t="n">
-        <v>0.1593781961552952</v>
+        <v>0.07969986064994646</v>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.02745899791989657</v>
+        <v>0.02808093969038557</v>
       </c>
       <c r="G162" t="n">
-        <v>0.1607144120385249</v>
+        <v>0.05371337140902185</v>
       </c>
       <c r="J162" t="n">
-        <v>0.01917588082061501</v>
+        <v>0.02531804220316269</v>
       </c>
       <c r="K162" t="n">
-        <v>0.1617190410126799</v>
+        <v>0.08130077526110278</v>
       </c>
       <c r="L162" t="n">
-        <v>0.03970932103009034</v>
+        <v>0.05248465708960287</v>
       </c>
       <c r="M162" t="n">
-        <v>0.1623395189154977</v>
+        <v>0.08083233552004933</v>
       </c>
       <c r="N162" t="n">
-        <v>0.06135168594916118</v>
+        <v>0.08053970042346498</v>
       </c>
       <c r="O162" t="n">
-        <v>0.1610383856985795</v>
+        <v>0.08053006753171674</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.02784268490143715</v>
+        <v>0.0280871304391191</v>
       </c>
       <c r="G163" t="n">
-        <v>0.1623712616471695</v>
+        <v>0.05426711750602208</v>
       </c>
       <c r="J163" t="n">
-        <v>0.01942643225936323</v>
+        <v>0.02529972564202641</v>
       </c>
       <c r="K163" t="n">
-        <v>0.163386247621058</v>
+        <v>0.08213892758338219</v>
       </c>
       <c r="L163" t="n">
-        <v>0.04001214010223467</v>
+        <v>0.05264586946202368</v>
       </c>
       <c r="M163" t="n">
-        <v>0.1640131222032863</v>
+        <v>0.08166565856664777</v>
       </c>
       <c r="N163" t="n">
-        <v>0.06227233068233462</v>
+        <v>0.07968018823126954</v>
       </c>
       <c r="O163" t="n">
-        <v>0.1626985752418639</v>
+        <v>0.081360274413487</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.02724280218488709</v>
+        <v>0.02808919910904394</v>
       </c>
       <c r="G164" t="n">
-        <v>0.1640281112558141</v>
+        <v>0.0548208636030223</v>
       </c>
       <c r="J164" t="n">
-        <v>0.01979557206882315</v>
+        <v>0.02528075364113312</v>
       </c>
       <c r="K164" t="n">
-        <v>0.1650534542294362</v>
+        <v>0.08297707990566161</v>
       </c>
       <c r="L164" t="n">
-        <v>0.04086340396955657</v>
+        <v>0.05250580419575426</v>
       </c>
       <c r="M164" t="n">
-        <v>0.165686725491075</v>
+        <v>0.08249898161324622</v>
       </c>
       <c r="N164" t="n">
-        <v>0.06283602098023405</v>
+        <v>0.07991881950671081</v>
       </c>
       <c r="O164" t="n">
-        <v>0.1643587647851482</v>
+        <v>0.08219048129525729</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.02664278826734789</v>
+        <v>0.02808919910904392</v>
       </c>
       <c r="G165" t="n">
-        <v>0.1656849608644587</v>
+        <v>0.0548208636030223</v>
       </c>
       <c r="J165" t="n">
-        <v>0.01987177862134226</v>
+        <v>0.02516118747991176</v>
       </c>
       <c r="K165" t="n">
-        <v>0.1667206608378143</v>
+        <v>0.08381523222794102</v>
       </c>
       <c r="L165" t="n">
-        <v>0.041338807739354</v>
+        <v>0.05286458688702678</v>
       </c>
       <c r="M165" t="n">
-        <v>0.1673603287788636</v>
+        <v>0.08333230465984466</v>
       </c>
       <c r="N165" t="n">
-        <v>0.06400668328053571</v>
+        <v>0.07965578308165311</v>
       </c>
       <c r="O165" t="n">
-        <v>0.1660189543284325</v>
+        <v>0.08302068817702757</v>
       </c>
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="F166" t="n">
-        <v>0.03002608164592109</v>
+        <v>0.02744976523642431</v>
       </c>
       <c r="G166" t="n">
-        <v>0.1673418104731033</v>
+        <v>0.05482059507455828</v>
       </c>
       <c r="J166" t="n">
-        <v>0.02014353028926812</v>
+        <v>0.02534108843779129</v>
       </c>
       <c r="K166" t="n">
-        <v>0.1683878674461925</v>
+        <v>0.08465338455022042</v>
       </c>
       <c r="L166" t="n">
-        <v>0.0422140465189248</v>
+        <v>0.05252234313207332</v>
       </c>
       <c r="M166" t="n">
-        <v>0.1690339320666523</v>
+        <v>0.08416562770644312</v>
       </c>
       <c r="N166" t="n">
-        <v>0.06414824402091562</v>
+        <v>0.07969126778796087</v>
       </c>
       <c r="O166" t="n">
-        <v>0.1676791438717168</v>
+        <v>0.08385089505879784</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="F167" t="n">
-        <v>0.02737612081770822</v>
+        <v>0.02681763607766346</v>
       </c>
       <c r="G167" t="n">
-        <v>0.1689986600817479</v>
+        <v>0.05482032654609427</v>
       </c>
       <c r="J167" t="n">
-        <v>0.02049930544494821</v>
+        <v>0.02532051779420062</v>
       </c>
       <c r="K167" t="n">
-        <v>0.1700550740545706</v>
+        <v>0.08549153687249983</v>
       </c>
       <c r="L167" t="n">
-        <v>0.04266481541556688</v>
+        <v>0.05277919852712595</v>
       </c>
       <c r="M167" t="n">
-        <v>0.1707075353544409</v>
+        <v>0.08499895075304156</v>
       </c>
       <c r="N167" t="n">
-        <v>0.06492462963904971</v>
+        <v>0.0800254624574987</v>
       </c>
       <c r="O167" t="n">
-        <v>0.1693393334150012</v>
+        <v>0.0846811019405681</v>
       </c>
     </row>
     <row r="168" ht="15" customHeight="1">
       <c r="F168" t="n">
-        <v>0.02967796055152329</v>
+        <v>0.02619364659634074</v>
       </c>
       <c r="G168" t="n">
-        <v>0.1706555096903924</v>
+        <v>0.05482005801763024</v>
       </c>
       <c r="J168" t="n">
-        <v>0.02062758246073002</v>
+        <v>0.02509953682856872</v>
       </c>
       <c r="K168" t="n">
-        <v>0.1717222806629487</v>
+        <v>0.08632968919477924</v>
       </c>
       <c r="L168" t="n">
-        <v>0.04296680953657811</v>
+        <v>0.05233527866841678</v>
       </c>
       <c r="M168" t="n">
-        <v>0.1723811386422295</v>
+        <v>0.08583227379964001</v>
       </c>
       <c r="N168" t="n">
-        <v>0.06629989498243394</v>
+        <v>0.07985855592213081</v>
       </c>
       <c r="O168" t="n">
-        <v>0.1709995229582855</v>
+        <v>0.08551130882233839</v>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1">
       <c r="F169" t="n">
-        <v>0.02995773129955225</v>
+        <v>0.0255786317561167</v>
       </c>
       <c r="G169" t="n">
-        <v>0.172312359299037</v>
+        <v>0.05481978948916623</v>
       </c>
       <c r="J169" t="n">
-        <v>0.02092517123788692</v>
+        <v>0.02517820682032455</v>
       </c>
       <c r="K169" t="n">
-        <v>0.1733894872713269</v>
+        <v>0.08716784151705866</v>
       </c>
       <c r="L169" t="n">
-        <v>0.04329885536894698</v>
+        <v>0.05229070915217798</v>
       </c>
       <c r="M169" t="n">
-        <v>0.1740547419300182</v>
+        <v>0.08666559684623845</v>
       </c>
       <c r="N169" t="n">
-        <v>0.06620987258822464</v>
+        <v>0.07929073701372197</v>
       </c>
       <c r="O169" t="n">
-        <v>0.1726597125015698</v>
+        <v>0.08634151570410865</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1">
       <c r="F170" t="n">
-        <v>0.02823053126987</v>
+        <v>0.02497342652057036</v>
       </c>
       <c r="G170" t="n">
-        <v>0.1739692089076816</v>
+        <v>0.05481952096070222</v>
       </c>
       <c r="J170" t="n">
-        <v>0.02121538986587361</v>
+        <v>0.02515658904889703</v>
       </c>
       <c r="K170" t="n">
-        <v>0.175056693879705</v>
+        <v>0.08800599383933806</v>
       </c>
       <c r="L170" t="n">
-        <v>0.04360079389677651</v>
+        <v>0.05224561557464161</v>
       </c>
       <c r="M170" t="n">
-        <v>0.1757283452178068</v>
+        <v>0.0874989198928369</v>
       </c>
       <c r="N170" t="n">
-        <v>0.06700447857843955</v>
+        <v>0.07982219456413642</v>
       </c>
       <c r="O170" t="n">
-        <v>0.1743199020448541</v>
+        <v>0.08717172258587894</v>
       </c>
     </row>
     <row r="171" ht="15" customHeight="1">
       <c r="F171" t="n">
-        <v>0.02849688584319503</v>
+        <v>0.02437886585330791</v>
       </c>
       <c r="G171" t="n">
-        <v>0.1756260585163262</v>
+        <v>0.0548192524322382</v>
       </c>
       <c r="J171" t="n">
-        <v>0.02120093893566442</v>
+        <v>0.02513474479371511</v>
       </c>
       <c r="K171" t="n">
-        <v>0.1767239004880832</v>
+        <v>0.08884414616161747</v>
       </c>
       <c r="L171" t="n">
-        <v>0.04439264262155854</v>
+        <v>0.05210012353203974</v>
       </c>
       <c r="M171" t="n">
-        <v>0.1774019485055955</v>
+        <v>0.08833224293943535</v>
       </c>
       <c r="N171" t="n">
-        <v>0.06768485731504931</v>
+        <v>0.07915311740523867</v>
       </c>
       <c r="O171" t="n">
-        <v>0.1759800915881385</v>
+        <v>0.08800192946764922</v>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1">
       <c r="F172" t="n">
-        <v>0.03175732040024583</v>
+        <v>0.02379578471791058</v>
       </c>
       <c r="G172" t="n">
-        <v>0.1772829081249708</v>
+        <v>0.05481898390377418</v>
       </c>
       <c r="J172" t="n">
-        <v>0.02148218394796611</v>
+        <v>0.02511273533420774</v>
       </c>
       <c r="K172" t="n">
-        <v>0.1783911070964613</v>
+        <v>0.08968229848389687</v>
       </c>
       <c r="L172" t="n">
-        <v>0.04457517256764193</v>
+        <v>0.05245435862060457</v>
       </c>
       <c r="M172" t="n">
-        <v>0.1790755517933841</v>
+        <v>0.0891655659860338</v>
       </c>
       <c r="N172" t="n">
-        <v>0.06855215316002455</v>
+        <v>0.07928369436889321</v>
       </c>
       <c r="O172" t="n">
-        <v>0.1776402811314228</v>
+        <v>0.08883213634941949</v>
       </c>
     </row>
     <row r="173" ht="15" customHeight="1">
       <c r="F173" t="n">
-        <v>0.03001236032174086</v>
+        <v>0.02322501807803538</v>
       </c>
       <c r="G173" t="n">
-        <v>0.1789397577336154</v>
+        <v>0.05481871537531015</v>
       </c>
       <c r="J173" t="n">
-        <v>0.02175949040348543</v>
+        <v>0.02519062194980387</v>
       </c>
       <c r="K173" t="n">
-        <v>0.1800583137048395</v>
+        <v>0.09052045080617628</v>
       </c>
       <c r="L173" t="n">
-        <v>0.04474915475937574</v>
+        <v>0.05220719591371897</v>
       </c>
       <c r="M173" t="n">
-        <v>0.1807491550811727</v>
+        <v>0.08999888903263224</v>
       </c>
       <c r="N173" t="n">
-        <v>0.06870751047533558</v>
+        <v>0.0798083103377446</v>
       </c>
       <c r="O173" t="n">
-        <v>0.1793004706747071</v>
+        <v>0.08966234323118977</v>
       </c>
     </row>
     <row r="174" ht="15" customHeight="1">
       <c r="F174" t="n">
-        <v>0.03126253098839861</v>
+        <v>0.02266740089726302</v>
       </c>
       <c r="G174" t="n">
-        <v>0.18059660734226</v>
+        <v>0.05481844684684614</v>
       </c>
       <c r="J174" t="n">
-        <v>0.02183322380292908</v>
+        <v>0.02496595060612224</v>
       </c>
       <c r="K174" t="n">
-        <v>0.1817255203132176</v>
+        <v>0.09135860312845571</v>
       </c>
       <c r="L174" t="n">
-        <v>0.04521536022110897</v>
+        <v>0.05214993114692631</v>
       </c>
       <c r="M174" t="n">
-        <v>0.1824227583689614</v>
+        <v>0.09083221207923069</v>
       </c>
       <c r="N174" t="n">
-        <v>0.06925207362295299</v>
+        <v>0.07971584469419007</v>
       </c>
       <c r="O174" t="n">
-        <v>0.1809606602179915</v>
+        <v>0.09049255011296005</v>
       </c>
     </row>
     <row r="175" ht="15" customHeight="1">
       <c r="F175" t="n">
-        <v>0.03050835778093756</v>
+        <v>0.02212376813919968</v>
       </c>
       <c r="G175" t="n">
-        <v>0.1822534569509046</v>
+        <v>0.05481817831838213</v>
       </c>
       <c r="J175" t="n">
-        <v>0.02200374964700387</v>
+        <v>0.02513576299379541</v>
       </c>
       <c r="K175" t="n">
-        <v>0.1833927269215958</v>
+        <v>0.09219675545073512</v>
       </c>
       <c r="L175" t="n">
-        <v>0.04577455997719054</v>
+        <v>0.05228193882608004</v>
       </c>
       <c r="M175" t="n">
-        <v>0.18409636165675</v>
+        <v>0.09166553512582913</v>
       </c>
       <c r="N175" t="n">
-        <v>0.06998698696484745</v>
+        <v>0.07940785334015371</v>
       </c>
       <c r="O175" t="n">
-        <v>0.1826208497612758</v>
+        <v>0.09132275699473032</v>
       </c>
     </row>
     <row r="176" ht="15" customHeight="1">
       <c r="F176" t="n">
-        <v>0.0307503660800762</v>
+        <v>0.02159495476742906</v>
       </c>
       <c r="G176" t="n">
-        <v>0.1839103065595492</v>
+        <v>0.0548179097899181</v>
       </c>
       <c r="J176" t="n">
-        <v>0.02227143343641649</v>
+        <v>0.02490067835321495</v>
       </c>
       <c r="K176" t="n">
-        <v>0.1850599335299739</v>
+        <v>0.09303490777301453</v>
       </c>
       <c r="L176" t="n">
-        <v>0.04632752505196949</v>
+        <v>0.05210452537652957</v>
       </c>
       <c r="M176" t="n">
-        <v>0.1857699649445386</v>
+        <v>0.09249885817242758</v>
       </c>
       <c r="N176" t="n">
-        <v>0.07041339486298942</v>
+        <v>0.07878630046461166</v>
       </c>
       <c r="O176" t="n">
-        <v>0.1842810393045601</v>
+        <v>0.09215296387650058</v>
       </c>
     </row>
     <row r="177" ht="15" customHeight="1">
       <c r="F177" t="n">
-        <v>0.03098908126653299</v>
+        <v>0.02108179574560343</v>
       </c>
       <c r="G177" t="n">
-        <v>0.1855671561681937</v>
+        <v>0.05481764126145409</v>
       </c>
       <c r="J177" t="n">
-        <v>0.02233664067187371</v>
+        <v>0.02506133409999471</v>
       </c>
       <c r="K177" t="n">
-        <v>0.186727140138352</v>
+        <v>0.09387306009529393</v>
       </c>
       <c r="L177" t="n">
-        <v>0.04667502646979477</v>
+        <v>0.0519189972236247</v>
       </c>
       <c r="M177" t="n">
-        <v>0.1874435682323272</v>
+        <v>0.09333218121902602</v>
       </c>
       <c r="N177" t="n">
-        <v>0.07073244167934933</v>
+        <v>0.07875315025653989</v>
       </c>
       <c r="O177" t="n">
-        <v>0.1859412288478444</v>
+        <v>0.09298317075827087</v>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1">
       <c r="F178" t="n">
-        <v>0.03022502872102639</v>
+        <v>0.02058512603730574</v>
       </c>
       <c r="G178" t="n">
-        <v>0.1872240057768383</v>
+        <v>0.05481737273299007</v>
       </c>
       <c r="J178" t="n">
-        <v>0.02249973685408227</v>
+        <v>0.02501836764974848</v>
       </c>
       <c r="K178" t="n">
-        <v>0.1883943467467302</v>
+        <v>0.09471121241757334</v>
       </c>
       <c r="L178" t="n">
-        <v>0.04671783525501533</v>
+        <v>0.05162666079271491</v>
       </c>
       <c r="M178" t="n">
-        <v>0.1891171715201159</v>
+        <v>0.09416550426562446</v>
       </c>
       <c r="N178" t="n">
-        <v>0.07154527177589787</v>
+        <v>0.07881036690491444</v>
       </c>
       <c r="O178" t="n">
-        <v>0.1876014183911287</v>
+        <v>0.09381337764004113</v>
       </c>
     </row>
     <row r="179" ht="15" customHeight="1">
       <c r="F179" t="n">
-        <v>0.03345886649725288</v>
+        <v>0.02010578060614227</v>
       </c>
       <c r="G179" t="n">
-        <v>0.1888808553854829</v>
+        <v>0.05481710420452606</v>
       </c>
       <c r="J179" t="n">
-        <v>0.02266108748374891</v>
+        <v>0.02487241641809013</v>
       </c>
       <c r="K179" t="n">
-        <v>0.1900615533551083</v>
+        <v>0.09554936473985276</v>
       </c>
       <c r="L179" t="n">
-        <v>0.04685672243198019</v>
+        <v>0.05192882250914982</v>
       </c>
       <c r="M179" t="n">
-        <v>0.1907907748079045</v>
+        <v>0.09499882731222291</v>
       </c>
       <c r="N179" t="n">
-        <v>0.07175302951460549</v>
+        <v>0.07825991459871146</v>
       </c>
       <c r="O179" t="n">
-        <v>0.1892616079344131</v>
+        <v>0.09464358452181142</v>
       </c>
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="F180" t="n">
-        <v>0.0307027846785129</v>
+        <v>0.01964459441569964</v>
       </c>
       <c r="G180" t="n">
-        <v>0.1905377049941275</v>
+        <v>0.05481683567606203</v>
       </c>
       <c r="J180" t="n">
-        <v>0.02282353066722896</v>
+        <v>0.0247241178206335</v>
       </c>
       <c r="K180" t="n">
-        <v>0.1917287599634865</v>
+        <v>0.09638751706213217</v>
       </c>
       <c r="L180" t="n">
-        <v>0.04749352205079646</v>
+        <v>0.05182678879827904</v>
       </c>
       <c r="M180" t="n">
-        <v>0.1924643780956932</v>
+        <v>0.09583215035882135</v>
       </c>
       <c r="N180" t="n">
-        <v>0.07207611559910659</v>
+        <v>0.07880375752690699</v>
       </c>
       <c r="O180" t="n">
-        <v>0.1909217974776974</v>
+        <v>0.09547379140358168</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1">
       <c r="F181" t="n">
-        <v>0.03095811742368187</v>
+        <v>0.01920240242962429</v>
       </c>
       <c r="G181" t="n">
-        <v>0.1921945546027721</v>
+        <v>0.05481656714759802</v>
       </c>
       <c r="J181" t="n">
-        <v>0.02289563915816339</v>
+        <v>0.02477410927299244</v>
       </c>
       <c r="K181" t="n">
-        <v>0.1933959665718646</v>
+        <v>0.09722566938441157</v>
       </c>
       <c r="L181" t="n">
-        <v>0.04794775190879275</v>
+        <v>0.05162186608545211</v>
       </c>
       <c r="M181" t="n">
-        <v>0.1941379813834818</v>
+        <v>0.09666547340541981</v>
       </c>
       <c r="N181" t="n">
-        <v>0.07282723409073494</v>
+        <v>0.078143859878477</v>
       </c>
       <c r="O181" t="n">
-        <v>0.1925819870209817</v>
+        <v>0.09630399828535197</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1">
       <c r="F182" t="n">
-        <v>0.03321583961864517</v>
+        <v>0.01878003961150203</v>
       </c>
       <c r="G182" t="n">
-        <v>0.1938514042114167</v>
+        <v>0.05481629861913401</v>
       </c>
       <c r="J182" t="n">
-        <v>0.02307263698075644</v>
+        <v>0.02472302819078075</v>
       </c>
       <c r="K182" t="n">
-        <v>0.1950631731802427</v>
+        <v>0.09806382170669098</v>
       </c>
       <c r="L182" t="n">
-        <v>0.04811645811594994</v>
+        <v>0.05151536079601868</v>
       </c>
       <c r="M182" t="n">
-        <v>0.1958115846712704</v>
+        <v>0.09749879645201825</v>
       </c>
       <c r="N182" t="n">
-        <v>0.07318682917698255</v>
+        <v>0.07858218584239768</v>
       </c>
       <c r="O182" t="n">
-        <v>0.194242176564266</v>
+        <v>0.09713420516712225</v>
       </c>
     </row>
     <row r="183" ht="15" customHeight="1">
       <c r="F183" t="n">
-        <v>0.03146692614928819</v>
+        <v>0.01837834092493912</v>
       </c>
       <c r="G183" t="n">
-        <v>0.1955082538200613</v>
+        <v>0.05481603009066999</v>
       </c>
       <c r="J183" t="n">
-        <v>0.02344824547751019</v>
+        <v>0.02477151198961229</v>
       </c>
       <c r="K183" t="n">
-        <v>0.1967303797886209</v>
+        <v>0.09890197402897039</v>
       </c>
       <c r="L183" t="n">
-        <v>0.04858639583383009</v>
+        <v>0.05120857935532835</v>
       </c>
       <c r="M183" t="n">
-        <v>0.1974851879590591</v>
+        <v>0.0983321194986167</v>
       </c>
       <c r="N183" t="n">
-        <v>0.07403524273753959</v>
+        <v>0.07842069960764508</v>
       </c>
       <c r="O183" t="n">
-        <v>0.1959023661075504</v>
+        <v>0.09796441204889252</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1">
       <c r="F184" t="n">
-        <v>0.0327023519014962</v>
+        <v>0.01799814133352579</v>
       </c>
       <c r="G184" t="n">
-        <v>0.1971651034287059</v>
+        <v>0.05481576156220597</v>
       </c>
       <c r="J184" t="n">
-        <v>0.02361618599092673</v>
+        <v>0.02452019808510089</v>
       </c>
       <c r="K184" t="n">
-        <v>0.198397586396999</v>
+        <v>0.09974012635124981</v>
       </c>
       <c r="L184" t="n">
-        <v>0.04894432022399514</v>
+        <v>0.05130282818873072</v>
       </c>
       <c r="M184" t="n">
-        <v>0.1991587912468477</v>
+        <v>0.09916544254521514</v>
       </c>
       <c r="N184" t="n">
-        <v>0.07495281665209569</v>
+        <v>0.07756136536319519</v>
       </c>
       <c r="O184" t="n">
-        <v>0.1975625556508347</v>
+        <v>0.0987946189306628</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1">
       <c r="F185" t="n">
-        <v>0.03291309176115462</v>
+        <v>0.01764027580090143</v>
       </c>
       <c r="G185" t="n">
-        <v>0.1988219530373504</v>
+        <v>0.05481549303374195</v>
       </c>
       <c r="J185" t="n">
-        <v>0.02367017986350811</v>
+        <v>0.0244697238928604</v>
       </c>
       <c r="K185" t="n">
-        <v>0.2000647930053772</v>
+        <v>0.1005782786735292</v>
       </c>
       <c r="L185" t="n">
-        <v>0.04937698644800714</v>
+        <v>0.05129941372157534</v>
       </c>
       <c r="M185" t="n">
-        <v>0.2008323945346364</v>
+        <v>0.09999876559181359</v>
       </c>
       <c r="N185" t="n">
-        <v>0.07511989280034059</v>
+        <v>0.07800614729802413</v>
       </c>
       <c r="O185" t="n">
-        <v>0.199222745194119</v>
+        <v>0.09962482581243308</v>
       </c>
     </row>
     <row r="186" ht="15" customHeight="1">
       <c r="F186" t="n">
-        <v>0.03309012061414873</v>
+        <v>0.01730557929065529</v>
       </c>
       <c r="G186" t="n">
-        <v>0.200478802645995</v>
+        <v>0.05481522450527793</v>
       </c>
       <c r="J186" t="n">
-        <v>0.02390394843775644</v>
+        <v>0.02452072682850465</v>
       </c>
       <c r="K186" t="n">
-        <v>0.2017319996137553</v>
+        <v>0.1014164309958086</v>
       </c>
       <c r="L186" t="n">
-        <v>0.04957114966742804</v>
+        <v>0.05089964237921182</v>
       </c>
       <c r="M186" t="n">
-        <v>0.202505997822425</v>
+        <v>0.100832088638412</v>
       </c>
       <c r="N186" t="n">
-        <v>0.07571681306196437</v>
+        <v>0.07725700960110793</v>
       </c>
       <c r="O186" t="n">
-        <v>0.2008829347374033</v>
+        <v>0.1004550326942033</v>
       </c>
     </row>
     <row r="187" ht="15" customHeight="1">
       <c r="F187" t="n">
-        <v>0.03322441334636396</v>
+        <v>0.01699488676639367</v>
       </c>
       <c r="G187" t="n">
-        <v>0.2021356522546396</v>
+        <v>0.05481495597681392</v>
       </c>
       <c r="J187" t="n">
-        <v>0.02401121305617383</v>
+        <v>0.02457384430764749</v>
       </c>
       <c r="K187" t="n">
-        <v>0.2033992062221335</v>
+        <v>0.102254583318088</v>
       </c>
       <c r="L187" t="n">
-        <v>0.04951356504381987</v>
+        <v>0.05110482058698976</v>
       </c>
       <c r="M187" t="n">
-        <v>0.2041796011102136</v>
+        <v>0.1016654116850105</v>
       </c>
       <c r="N187" t="n">
-        <v>0.0754239193166566</v>
+        <v>0.07751591646142258</v>
       </c>
       <c r="O187" t="n">
-        <v>0.2025431242806877</v>
+        <v>0.1012852395759736</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1">
       <c r="F188" t="n">
-        <v>0.03432077900820285</v>
+        <v>0.01670903319171094</v>
       </c>
       <c r="G188" t="n">
-        <v>0.2037925018632842</v>
+        <v>0.05481468744834989</v>
       </c>
       <c r="J188" t="n">
-        <v>0.02388671783507866</v>
+        <v>0.02442971374590273</v>
       </c>
       <c r="K188" t="n">
-        <v>0.2050664128305116</v>
+        <v>0.1030927356403674</v>
       </c>
       <c r="L188" t="n">
-        <v>0.05019098773874456</v>
+        <v>0.05081625477025878</v>
       </c>
       <c r="M188" t="n">
-        <v>0.2058532043980023</v>
+        <v>0.1024987347316089</v>
       </c>
       <c r="N188" t="n">
-        <v>0.0760398569016279</v>
+        <v>0.07728483206794434</v>
       </c>
       <c r="O188" t="n">
-        <v>0.204203313823972</v>
+        <v>0.1021154464577439</v>
       </c>
     </row>
     <row r="189" ht="15" customHeight="1">
       <c r="F189" t="n">
-        <v>0.03441297393745291</v>
+        <v>0.0164488535302383</v>
       </c>
       <c r="G189" t="n">
-        <v>0.2054493514719288</v>
+        <v>0.05481441891988588</v>
       </c>
       <c r="J189" t="n">
-        <v>0.02405072887242285</v>
+        <v>0.02428897255888422</v>
       </c>
       <c r="K189" t="n">
-        <v>0.2067336194388898</v>
+        <v>0.1039308879626469</v>
       </c>
       <c r="L189" t="n">
-        <v>0.04992596093318152</v>
+        <v>0.05093525135436847</v>
       </c>
       <c r="M189" t="n">
-        <v>0.2075268076857909</v>
+        <v>0.1033320577782074</v>
       </c>
       <c r="N189" t="n">
-        <v>0.07594054530694355</v>
+        <v>0.07736572060964914</v>
       </c>
       <c r="O189" t="n">
-        <v>0.2058635033672563</v>
+        <v>0.1029456533395142</v>
       </c>
     </row>
     <row r="190" ht="15" customHeight="1">
       <c r="F190" t="n">
-        <v>0.0345030886449476</v>
+        <v>0.01621185662070268</v>
       </c>
       <c r="G190" t="n">
-        <v>0.2071062010805734</v>
+        <v>0.05481415039142187</v>
       </c>
       <c r="J190" t="n">
-        <v>0.02401331248158983</v>
+        <v>0.02445225816220582</v>
       </c>
       <c r="K190" t="n">
-        <v>0.2084008260472679</v>
+        <v>0.1047690402849263</v>
       </c>
       <c r="L190" t="n">
-        <v>0.05015783296261278</v>
+        <v>0.05086311676466837</v>
       </c>
       <c r="M190" t="n">
-        <v>0.2092004109735795</v>
+        <v>0.1041653808248058</v>
       </c>
       <c r="N190" t="n">
-        <v>0.07623672269263498</v>
+        <v>0.07666054627551294</v>
       </c>
       <c r="O190" t="n">
-        <v>0.2075236929105407</v>
+        <v>0.1037758602212844</v>
       </c>
     </row>
     <row r="191" ht="15" customHeight="1">
       <c r="F191" t="n">
-        <v>0.03259108991704568</v>
+        <v>0.01597888943631347</v>
       </c>
       <c r="G191" t="n">
-        <v>0.2087630506892179</v>
+        <v>0.05481388186295785</v>
       </c>
       <c r="J191" t="n">
-        <v>0.0242744455562704</v>
+        <v>0.02422020797148135</v>
       </c>
       <c r="K191" t="n">
-        <v>0.2100680326556461</v>
+        <v>0.1056071926072057</v>
       </c>
       <c r="L191" t="n">
-        <v>0.05038667056858395</v>
+        <v>0.0507011574265081</v>
       </c>
       <c r="M191" t="n">
-        <v>0.2108740142613682</v>
+        <v>0.1049987038714043</v>
       </c>
       <c r="N191" t="n">
-        <v>0.07692831671415951</v>
+        <v>0.07707127325451202</v>
       </c>
       <c r="O191" t="n">
-        <v>0.209183882453825</v>
+        <v>0.1046060671030547</v>
       </c>
     </row>
     <row r="192" ht="15" customHeight="1">
       <c r="F192" t="n">
-        <v>0.03467694454010603</v>
+        <v>0.01574738097718507</v>
       </c>
       <c r="G192" t="n">
-        <v>0.2104199002978625</v>
+        <v>0.05481361333449383</v>
       </c>
       <c r="J192" t="n">
-        <v>0.02433410499015531</v>
+        <v>0.02419345940232465</v>
       </c>
       <c r="K192" t="n">
-        <v>0.2117352392640242</v>
+        <v>0.1064453449294851</v>
       </c>
       <c r="L192" t="n">
-        <v>0.0502124250082974</v>
+        <v>0.05035067976523733</v>
       </c>
       <c r="M192" t="n">
-        <v>0.2125476175491568</v>
+        <v>0.1058320269180027</v>
       </c>
       <c r="N192" t="n">
-        <v>0.07681525502697412</v>
+        <v>0.07679937475737619</v>
       </c>
       <c r="O192" t="n">
-        <v>0.2108440719971093</v>
+        <v>0.105436273984825</v>
       </c>
     </row>
     <row r="193" ht="15" customHeight="1">
       <c r="F193" t="n">
-        <v>0.03276061930048743</v>
+        <v>0.01551808289708494</v>
       </c>
       <c r="G193" t="n">
-        <v>0.2120767499065071</v>
+        <v>0.05481334480602981</v>
       </c>
       <c r="J193" t="n">
-        <v>0.02439226767693543</v>
+        <v>0.02437178434329336</v>
       </c>
       <c r="K193" t="n">
-        <v>0.2134024458724023</v>
+        <v>0.1072834972517645</v>
       </c>
       <c r="L193" t="n">
-        <v>0.05063504753895534</v>
+        <v>0.05030743767158388</v>
       </c>
       <c r="M193" t="n">
-        <v>0.2142212208369454</v>
+        <v>0.1066653499646012</v>
       </c>
       <c r="N193" t="n">
-        <v>0.07739746528653618</v>
+        <v>0.076634437175996</v>
       </c>
       <c r="O193" t="n">
-        <v>0.2125042615403936</v>
+        <v>0.1062664808665953</v>
       </c>
     </row>
     <row r="194" ht="15" customHeight="1">
       <c r="F194" t="n">
-        <v>0.03484208098454866</v>
+        <v>0.01529174684975014</v>
       </c>
       <c r="G194" t="n">
-        <v>0.2137335995151517</v>
+        <v>0.0548130762775658</v>
       </c>
       <c r="J194" t="n">
-        <v>0.02434891051030151</v>
+        <v>0.02425132112935884</v>
       </c>
       <c r="K194" t="n">
-        <v>0.2150696524807805</v>
+        <v>0.1081216495740439</v>
       </c>
       <c r="L194" t="n">
-        <v>0.05045448941776012</v>
+        <v>0.05066555893547925</v>
       </c>
       <c r="M194" t="n">
-        <v>0.2158948241247341</v>
+        <v>0.1074986730111996</v>
       </c>
       <c r="N194" t="n">
-        <v>0.07677487514830272</v>
+        <v>0.07637153110655759</v>
       </c>
       <c r="O194" t="n">
-        <v>0.2141644510836779</v>
+        <v>0.1070966877483656</v>
       </c>
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="F195" t="n">
-        <v>0.03392129637864856</v>
+        <v>0.01506912448892794</v>
       </c>
       <c r="G195" t="n">
-        <v>0.2153904491237963</v>
+        <v>0.05481280774910178</v>
       </c>
       <c r="J195" t="n">
-        <v>0.02440401038394435</v>
+        <v>0.02423150425110819</v>
       </c>
       <c r="K195" t="n">
-        <v>0.2167368590891586</v>
+        <v>0.1089598018963233</v>
       </c>
       <c r="L195" t="n">
-        <v>0.05107070190191401</v>
+        <v>0.05062499560164485</v>
       </c>
       <c r="M195" t="n">
-        <v>0.2175684274125227</v>
+        <v>0.1083319960577981</v>
       </c>
       <c r="N195" t="n">
-        <v>0.07694741226773105</v>
+        <v>0.07691059360880065</v>
       </c>
       <c r="O195" t="n">
-        <v>0.2158246406269623</v>
+        <v>0.1079268946301358</v>
       </c>
     </row>
     <row r="196" ht="15" customHeight="1">
       <c r="F196" t="n">
-        <v>0.0329982322691459</v>
+        <v>0.01485096746835618</v>
       </c>
       <c r="G196" t="n">
-        <v>0.2170472987324409</v>
+        <v>0.05481253922063776</v>
       </c>
       <c r="J196" t="n">
-        <v>0.02445754419155477</v>
+        <v>0.02431231328326401</v>
       </c>
       <c r="K196" t="n">
-        <v>0.2184040656975367</v>
+        <v>0.1097979542186027</v>
       </c>
       <c r="L196" t="n">
-        <v>0.05068363624861932</v>
+        <v>0.05028570580712716</v>
       </c>
       <c r="M196" t="n">
-        <v>0.2192420307003113</v>
+        <v>0.1091653191043965</v>
       </c>
       <c r="N196" t="n">
-        <v>0.07721500430027833</v>
+        <v>0.07675156174246461</v>
       </c>
       <c r="O196" t="n">
-        <v>0.2174848301702466</v>
+        <v>0.1087571015119061</v>
       </c>
     </row>
     <row r="197" ht="15" customHeight="1">
       <c r="F197" t="n">
-        <v>0.03607285544239953</v>
+        <v>0.01463802744180112</v>
       </c>
       <c r="G197" t="n">
-        <v>0.2187041483410855</v>
+        <v>0.05481227069217374</v>
       </c>
       <c r="J197" t="n">
-        <v>0.02460948882682358</v>
+        <v>0.02429372780054889</v>
       </c>
       <c r="K197" t="n">
-        <v>0.2200712723059149</v>
+        <v>0.1106361065408821</v>
       </c>
       <c r="L197" t="n">
-        <v>0.0510932437150784</v>
+        <v>0.05054764768897288</v>
       </c>
       <c r="M197" t="n">
-        <v>0.2209156339881</v>
+        <v>0.1099986421509949</v>
       </c>
       <c r="N197" t="n">
-        <v>0.0780775789014016</v>
+        <v>0.07669437256728923</v>
       </c>
       <c r="O197" t="n">
-        <v>0.2191450197135309</v>
+        <v>0.1095873083936764</v>
       </c>
     </row>
     <row r="198" ht="15" customHeight="1">
       <c r="F198" t="n">
-        <v>0.03314513268476824</v>
+        <v>0.01443105606300038</v>
       </c>
       <c r="G198" t="n">
-        <v>0.2203609979497301</v>
+        <v>0.05481200216370972</v>
       </c>
       <c r="J198" t="n">
-        <v>0.02465982118344152</v>
+        <v>0.02427572737768541</v>
       </c>
       <c r="K198" t="n">
-        <v>0.221738478914293</v>
+        <v>0.1114742588631615</v>
       </c>
       <c r="L198" t="n">
-        <v>0.05089947555849342</v>
+        <v>0.05021077938422838</v>
       </c>
       <c r="M198" t="n">
-        <v>0.2225892372758886</v>
+        <v>0.1108319651975934</v>
       </c>
       <c r="N198" t="n">
-        <v>0.0777350637265582</v>
+        <v>0.07683896314301408</v>
       </c>
       <c r="O198" t="n">
-        <v>0.2208052092568152</v>
+        <v>0.1104175152754466</v>
       </c>
     </row>
     <row r="199" ht="15" customHeight="1">
       <c r="F199" t="n">
-        <v>0.03521503078261082</v>
+        <v>0.01423080498570121</v>
       </c>
       <c r="G199" t="n">
-        <v>0.2220178475583746</v>
+        <v>0.05481173363524571</v>
       </c>
       <c r="J199" t="n">
-        <v>0.02460851815509944</v>
+        <v>0.02415829158939616</v>
       </c>
       <c r="K199" t="n">
-        <v>0.2234056855226712</v>
+        <v>0.112312411185441</v>
       </c>
       <c r="L199" t="n">
-        <v>0.05150228303606677</v>
+        <v>0.05017505902994027</v>
       </c>
       <c r="M199" t="n">
-        <v>0.2242628405636773</v>
+        <v>0.1116652882441919</v>
       </c>
       <c r="N199" t="n">
-        <v>0.07808738643120522</v>
+        <v>0.07678527052937867</v>
       </c>
       <c r="O199" t="n">
-        <v>0.2224653988000996</v>
+        <v>0.1112477221572169</v>
       </c>
     </row>
     <row r="200" ht="15" customHeight="1">
       <c r="F200" t="n">
-        <v>0.03428251652228609</v>
+        <v>0.01403802586364264</v>
       </c>
       <c r="G200" t="n">
-        <v>0.2236746971670192</v>
+        <v>0.05481146510678168</v>
       </c>
       <c r="J200" t="n">
-        <v>0.02465555663548812</v>
+        <v>0.02414140001040373</v>
       </c>
       <c r="K200" t="n">
-        <v>0.2250728921310493</v>
+        <v>0.1131505635077204</v>
       </c>
       <c r="L200" t="n">
-        <v>0.05130161740500072</v>
+        <v>0.05054044476315508</v>
       </c>
       <c r="M200" t="n">
-        <v>0.2259364438514659</v>
+        <v>0.1124986112907903</v>
       </c>
       <c r="N200" t="n">
-        <v>0.07843447467079995</v>
+        <v>0.07603323178612259</v>
       </c>
       <c r="O200" t="n">
-        <v>0.2241255883433839</v>
+        <v>0.1120779290389872</v>
       </c>
     </row>
     <row r="201" ht="15" customHeight="1">
       <c r="F201" t="n">
-        <v>0.03634755669015285</v>
+        <v>0.01385347035058868</v>
       </c>
       <c r="G201" t="n">
-        <v>0.2253315467756638</v>
+        <v>0.05481119657831767</v>
       </c>
       <c r="J201" t="n">
-        <v>0.02480091351829837</v>
+        <v>0.0240250322154307</v>
       </c>
       <c r="K201" t="n">
-        <v>0.2267400987394275</v>
+        <v>0.1139887158299998</v>
       </c>
       <c r="L201" t="n">
-        <v>0.0516974299224976</v>
+        <v>0.05010689472091936</v>
       </c>
       <c r="M201" t="n">
-        <v>0.2276100471392545</v>
+        <v>0.1133319343373888</v>
       </c>
       <c r="N201" t="n">
-        <v>0.07857625610079944</v>
+        <v>0.07638278397298548</v>
       </c>
       <c r="O201" t="n">
-        <v>0.2257857778866682</v>
+        <v>0.1129081359207575</v>
       </c>
     </row>
     <row r="202" ht="15" customHeight="1">
       <c r="F202" t="n">
-        <v>0.03441011807256991</v>
+        <v>0.01367789010027803</v>
       </c>
       <c r="G202" t="n">
-        <v>0.2269883963843084</v>
+        <v>0.05481092804985366</v>
       </c>
       <c r="J202" t="n">
-        <v>0.02484456569722097</v>
+        <v>0.02400916777919969</v>
       </c>
       <c r="K202" t="n">
-        <v>0.2284073053478056</v>
+        <v>0.1148268681522792</v>
       </c>
       <c r="L202" t="n">
-        <v>0.05148967184575964</v>
+        <v>0.05007436704027959</v>
       </c>
       <c r="M202" t="n">
-        <v>0.2292836504270432</v>
+        <v>0.1141652573839872</v>
       </c>
       <c r="N202" t="n">
-        <v>0.0788126583766609</v>
+        <v>0.07663386414970708</v>
       </c>
       <c r="O202" t="n">
-        <v>0.2274459674299525</v>
+        <v>0.1137383428025277</v>
       </c>
     </row>
     <row r="203" ht="15" customHeight="1">
       <c r="F203" t="n">
-        <v>0.0364701674558961</v>
+        <v>0.01351203676645793</v>
       </c>
       <c r="G203" t="n">
-        <v>0.228645245992953</v>
+        <v>0.05481065952138964</v>
       </c>
       <c r="J203" t="n">
-        <v>0.02468649006594674</v>
+        <v>0.02419378627643329</v>
       </c>
       <c r="K203" t="n">
-        <v>0.2300745119561838</v>
+        <v>0.1156650204745586</v>
       </c>
       <c r="L203" t="n">
-        <v>0.05187829443198919</v>
+        <v>0.04994281985828236</v>
       </c>
       <c r="M203" t="n">
-        <v>0.2309572537148318</v>
+        <v>0.1149985804305856</v>
       </c>
       <c r="N203" t="n">
-        <v>0.07874360915384154</v>
+        <v>0.07628640937602671</v>
       </c>
       <c r="O203" t="n">
-        <v>0.2291061569732369</v>
+        <v>0.114568549684298</v>
       </c>
     </row>
     <row r="204" ht="15" customHeight="1">
       <c r="F204" t="n">
-        <v>0.03652767162649018</v>
+        <v>0.0133566620028691</v>
       </c>
       <c r="G204" t="n">
-        <v>0.2303020956015976</v>
+        <v>0.05481039099292562</v>
       </c>
       <c r="J204" t="n">
-        <v>0.02482666351816645</v>
+        <v>0.02407886728185404</v>
       </c>
       <c r="K204" t="n">
-        <v>0.2317417185645619</v>
+        <v>0.116503172796838</v>
       </c>
       <c r="L204" t="n">
-        <v>0.05166324893838853</v>
+        <v>0.05011221131197419</v>
       </c>
       <c r="M204" t="n">
-        <v>0.2326308570026205</v>
+        <v>0.1158319034771841</v>
       </c>
       <c r="N204" t="n">
-        <v>0.07866903608779852</v>
+        <v>0.07604035671168413</v>
       </c>
       <c r="O204" t="n">
-        <v>0.2307663465165212</v>
+        <v>0.1153987565660683</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1">
       <c r="F205" t="n">
-        <v>0.03658259737071101</v>
+        <v>0.01321251746327229</v>
       </c>
       <c r="G205" t="n">
-        <v>0.2319589452102422</v>
+        <v>0.0548101224644616</v>
       </c>
       <c r="J205" t="n">
-        <v>0.02496506294757092</v>
+        <v>0.02396439037018459</v>
       </c>
       <c r="K205" t="n">
-        <v>0.2334089251729401</v>
+        <v>0.1173413251191174</v>
       </c>
       <c r="L205" t="n">
-        <v>0.05194448662215995</v>
+        <v>0.04988249953840157</v>
       </c>
       <c r="M205" t="n">
-        <v>0.2343044602904091</v>
+        <v>0.1166652265237825</v>
       </c>
       <c r="N205" t="n">
-        <v>0.07848886683398909</v>
+        <v>0.07649564321641894</v>
       </c>
       <c r="O205" t="n">
-        <v>0.2324265360598055</v>
+        <v>0.1162289634478386</v>
       </c>
     </row>
     <row r="206" ht="15" customHeight="1">
       <c r="F206" t="n">
-        <v>0.03463491147491733</v>
+        <v>0.01308035480140776</v>
       </c>
       <c r="G206" t="n">
-        <v>0.2336157948188868</v>
+        <v>0.05480985393599759</v>
       </c>
       <c r="J206" t="n">
-        <v>0.02480166524785098</v>
+        <v>0.0239503351161475</v>
       </c>
       <c r="K206" t="n">
-        <v>0.2350761317813182</v>
+        <v>0.1181794774413968</v>
       </c>
       <c r="L206" t="n">
-        <v>0.05202195874050575</v>
+        <v>0.05005364267461107</v>
       </c>
       <c r="M206" t="n">
-        <v>0.2359780635781977</v>
+        <v>0.117498549570381</v>
       </c>
       <c r="N206" t="n">
-        <v>0.07890302904787033</v>
+        <v>0.07585220594997066</v>
       </c>
       <c r="O206" t="n">
-        <v>0.2340867256030899</v>
+        <v>0.1170591703296089</v>
       </c>
     </row>
     <row r="207" ht="15" customHeight="1">
       <c r="F207" t="n">
-        <v>0.033684580725468</v>
+        <v>0.01296092567102275</v>
       </c>
       <c r="G207" t="n">
-        <v>0.2352726444275313</v>
+        <v>0.05480958540753358</v>
       </c>
       <c r="J207" t="n">
-        <v>0.02493644731269735</v>
+        <v>0.02403668109446536</v>
       </c>
       <c r="K207" t="n">
-        <v>0.2367433383896963</v>
+        <v>0.1190176297636762</v>
       </c>
       <c r="L207" t="n">
-        <v>0.05209561655062819</v>
+        <v>0.05032559885764923</v>
       </c>
       <c r="M207" t="n">
-        <v>0.2376516668659863</v>
+        <v>0.1183318726169794</v>
       </c>
       <c r="N207" t="n">
-        <v>0.07861145038489947</v>
+        <v>0.07600998197207898</v>
       </c>
       <c r="O207" t="n">
-        <v>0.2357469151463742</v>
+        <v>0.1178893772113791</v>
       </c>
     </row>
     <row r="208" ht="15" customHeight="1">
       <c r="F208" t="n">
-        <v>0.03373157190872182</v>
+        <v>0.01285498172586019</v>
       </c>
       <c r="G208" t="n">
-        <v>0.2369294940361759</v>
+        <v>0.05480931687906955</v>
       </c>
       <c r="J208" t="n">
-        <v>0.02486938603580088</v>
+        <v>0.02412340787986078</v>
       </c>
       <c r="K208" t="n">
-        <v>0.2384105449980745</v>
+        <v>0.1198557820859557</v>
       </c>
       <c r="L208" t="n">
-        <v>0.05176541130972964</v>
+        <v>0.05009832622456259</v>
       </c>
       <c r="M208" t="n">
-        <v>0.239325270153775</v>
+        <v>0.1191651956635779</v>
       </c>
       <c r="N208" t="n">
-        <v>0.07911405850053371</v>
+        <v>0.0762689083424834</v>
       </c>
       <c r="O208" t="n">
-        <v>0.2374071046896585</v>
+        <v>0.1187195840931494</v>
       </c>
     </row>
     <row r="209" ht="15" customHeight="1">
       <c r="F209" t="n">
-        <v>0.03477585181103758</v>
+        <v>0.01276327461967655</v>
       </c>
       <c r="G209" t="n">
-        <v>0.2385863436448205</v>
+        <v>0.05480904835060554</v>
       </c>
       <c r="J209" t="n">
-        <v>0.02510045831085238</v>
+        <v>0.02401049504705631</v>
       </c>
       <c r="K209" t="n">
-        <v>0.2400777516064526</v>
+        <v>0.1206939344082351</v>
       </c>
       <c r="L209" t="n">
-        <v>0.05193129427501234</v>
+        <v>0.04987178291239766</v>
       </c>
       <c r="M209" t="n">
-        <v>0.2409988734415636</v>
+        <v>0.1199985187101763</v>
       </c>
       <c r="N209" t="n">
-        <v>0.07941078105023025</v>
+        <v>0.0764289221209235</v>
       </c>
       <c r="O209" t="n">
-        <v>0.2390672942329428</v>
+        <v>0.1195497909749197</v>
       </c>
     </row>
     <row r="210" ht="15" customHeight="1">
       <c r="F210" t="n">
-        <v>0.0368173872187741</v>
+        <v>0.01268655600621418</v>
       </c>
       <c r="G210" t="n">
-        <v>0.2402431932534651</v>
+        <v>0.05480877982214152</v>
       </c>
       <c r="J210" t="n">
-        <v>0.02492964103154259</v>
+        <v>0.02389792217077458</v>
       </c>
       <c r="K210" t="n">
-        <v>0.2417449582148308</v>
+        <v>0.1215320867305145</v>
       </c>
       <c r="L210" t="n">
-        <v>0.05219321670367863</v>
+        <v>0.05004592705820096</v>
       </c>
       <c r="M210" t="n">
-        <v>0.2426724767293522</v>
+        <v>0.1208318417567748</v>
       </c>
       <c r="N210" t="n">
-        <v>0.07930154568944614</v>
+        <v>0.07598996036713895</v>
       </c>
       <c r="O210" t="n">
-        <v>0.2407274837762271</v>
+        <v>0.12037999785669</v>
       </c>
     </row>
     <row r="211" ht="15" customHeight="1">
       <c r="F211" t="n">
-        <v>0.03385614491829016</v>
+        <v>0.01262557753922029</v>
       </c>
       <c r="G211" t="n">
-        <v>0.2419000428621097</v>
+        <v>0.0548085112936775</v>
       </c>
       <c r="J211" t="n">
-        <v>0.02515691109156237</v>
+        <v>0.02398566882573816</v>
       </c>
       <c r="K211" t="n">
-        <v>0.2434121648232089</v>
+        <v>0.1223702390527939</v>
       </c>
       <c r="L211" t="n">
-        <v>0.05215112985293077</v>
+        <v>0.04972071679901907</v>
       </c>
       <c r="M211" t="n">
-        <v>0.2443460800171409</v>
+        <v>0.1216651648033732</v>
       </c>
       <c r="N211" t="n">
-        <v>0.07958628007363866</v>
+        <v>0.07565196014086945</v>
       </c>
       <c r="O211" t="n">
-        <v>0.2423876733195115</v>
+        <v>0.1212102047384602</v>
       </c>
     </row>
     <row r="212" ht="15" customHeight="1">
       <c r="F212" t="n">
-        <v>0.03489209169594461</v>
+        <v>0.01258109087244058</v>
       </c>
       <c r="G212" t="n">
-        <v>0.2435568924707543</v>
+        <v>0.05480824276521348</v>
       </c>
       <c r="J212" t="n">
-        <v>0.02518224538460251</v>
+        <v>0.02407371458666964</v>
       </c>
       <c r="K212" t="n">
-        <v>0.245079371431587</v>
+        <v>0.1232083913750733</v>
       </c>
       <c r="L212" t="n">
-        <v>0.05210498497997104</v>
+        <v>0.05019611027189852</v>
       </c>
       <c r="M212" t="n">
-        <v>0.2460196833049295</v>
+        <v>0.1224984878499717</v>
       </c>
       <c r="N212" t="n">
-        <v>0.07906491185826492</v>
+        <v>0.07621485850185428</v>
       </c>
       <c r="O212" t="n">
-        <v>0.2440478628627958</v>
+        <v>0.1220404116202305</v>
       </c>
     </row>
     <row r="213" ht="15" customHeight="1">
       <c r="F213" t="n">
-        <v>0.03692519433809621</v>
+        <v>0.01255384765962615</v>
       </c>
       <c r="G213" t="n">
-        <v>0.2452137420793989</v>
+        <v>0.05480797423674946</v>
       </c>
       <c r="J213" t="n">
-        <v>0.02520562080435376</v>
+        <v>0.02406203902829164</v>
       </c>
       <c r="K213" t="n">
-        <v>0.2467465780399652</v>
+        <v>0.1240465436973527</v>
       </c>
       <c r="L213" t="n">
-        <v>0.05245473334200179</v>
+        <v>0.0498720656138858</v>
       </c>
       <c r="M213" t="n">
-        <v>0.2476932865927182</v>
+        <v>0.1233318108965701</v>
       </c>
       <c r="N213" t="n">
-        <v>0.07923736869878228</v>
+        <v>0.07557859250983329</v>
       </c>
       <c r="O213" t="n">
-        <v>0.2457080524060802</v>
+        <v>0.1228706185020008</v>
       </c>
     </row>
     <row r="214" ht="15" customHeight="1">
       <c r="F214" t="n">
-        <v>0.03595541963110381</v>
+        <v>0.01254459955452196</v>
       </c>
       <c r="G214" t="n">
-        <v>0.2468705916880435</v>
+        <v>0.05480770570828545</v>
       </c>
       <c r="J214" t="n">
-        <v>0.02512701424450696</v>
+        <v>0.02395062172532672</v>
       </c>
       <c r="K214" t="n">
-        <v>0.2484137846483433</v>
+        <v>0.1248846960196321</v>
       </c>
       <c r="L214" t="n">
-        <v>0.05240032619622526</v>
+        <v>0.04994854096202742</v>
       </c>
       <c r="M214" t="n">
-        <v>0.2493668898805068</v>
+        <v>0.1241651339431685</v>
       </c>
       <c r="N214" t="n">
-        <v>0.08000357825064774</v>
+        <v>0.07564309922454598</v>
       </c>
       <c r="O214" t="n">
-        <v>0.2473682419493644</v>
+        <v>0.1237008253837711</v>
       </c>
     </row>
     <row r="215" ht="15" customHeight="1">
       <c r="F215" t="n">
-        <v>0.03398273436132621</v>
+        <v>0.01254459955452196</v>
       </c>
       <c r="G215" t="n">
-        <v>0.2485274412966881</v>
+        <v>0.05480770570828545</v>
       </c>
       <c r="J215" t="n">
-        <v>0.02514640259875292</v>
+        <v>0.02393944225249746</v>
       </c>
       <c r="K215" t="n">
-        <v>0.2500809912567215</v>
+        <v>0.1257228483419115</v>
       </c>
       <c r="L215" t="n">
-        <v>0.05264171479984378</v>
+        <v>0.05002549445337007</v>
       </c>
       <c r="M215" t="n">
-        <v>0.2510404931682954</v>
+        <v>0.124998456989767</v>
       </c>
       <c r="N215" t="n">
-        <v>0.0793634681693185</v>
+        <v>0.07590831570573198</v>
       </c>
       <c r="O215" t="n">
-        <v>0.2490284314926488</v>
+        <v>0.1245310322655413</v>
       </c>
     </row>
     <row r="216" ht="15" customHeight="1">
       <c r="F216" t="n">
-        <v>0.03400710531512216</v>
+        <v>0.01211293174102253</v>
       </c>
       <c r="G216" t="n">
-        <v>0.2501842909053326</v>
+        <v>0.05475713865463505</v>
       </c>
       <c r="J216" t="n">
-        <v>0.0251637627607824</v>
+        <v>0.02392848018452647</v>
       </c>
       <c r="K216" t="n">
-        <v>0.2517481978650997</v>
+        <v>0.1265610006641909</v>
       </c>
       <c r="L216" t="n">
-        <v>0.05217885041005968</v>
+        <v>0.05010288422496009</v>
       </c>
       <c r="M216" t="n">
-        <v>0.2527140964560841</v>
+        <v>0.1258317800363654</v>
       </c>
       <c r="N216" t="n">
-        <v>0.08001696611025177</v>
+        <v>0.07617417901313095</v>
       </c>
       <c r="O216" t="n">
-        <v>0.2506886210359331</v>
+        <v>0.1253612391473116</v>
       </c>
     </row>
     <row r="217" ht="15" customHeight="1">
       <c r="F217" t="n">
-        <v>0.03602849927885053</v>
+        <v>0.01168361080130791</v>
       </c>
       <c r="G217" t="n">
-        <v>0.2518411405139772</v>
+        <v>0.05470657160098464</v>
       </c>
       <c r="J217" t="n">
-        <v>0.02527907162428622</v>
+        <v>0.02381771509613632</v>
       </c>
       <c r="K217" t="n">
-        <v>0.2534154044734778</v>
+        <v>0.1273991529864703</v>
       </c>
       <c r="L217" t="n">
-        <v>0.0526116842840752</v>
+        <v>0.04968066841384411</v>
       </c>
       <c r="M217" t="n">
-        <v>0.2543876997438727</v>
+        <v>0.1266651030829639</v>
       </c>
       <c r="N217" t="n">
-        <v>0.08016399972890481</v>
+        <v>0.07564062620648238</v>
       </c>
       <c r="O217" t="n">
-        <v>0.2523488105792174</v>
+        <v>0.1261914460290819</v>
       </c>
     </row>
     <row r="218" ht="15" customHeight="1">
       <c r="F218" t="n">
-        <v>0.0370468830388701</v>
+        <v>0.01125789512338311</v>
       </c>
       <c r="G218" t="n">
-        <v>0.2534979901226218</v>
+        <v>0.05465600454733424</v>
       </c>
       <c r="J218" t="n">
-        <v>0.02519230608295518</v>
+        <v>0.02390712656204966</v>
       </c>
       <c r="K218" t="n">
-        <v>0.2550826110818559</v>
+        <v>0.1282373053087497</v>
       </c>
       <c r="L218" t="n">
-        <v>0.05254016767909261</v>
+        <v>0.04995880515706869</v>
       </c>
       <c r="M218" t="n">
-        <v>0.2560613030316614</v>
+        <v>0.1274984261295623</v>
       </c>
       <c r="N218" t="n">
-        <v>0.08000449668073473</v>
+        <v>0.07540759434552585</v>
       </c>
       <c r="O218" t="n">
-        <v>0.2540090001225018</v>
+        <v>0.1270216529108522</v>
       </c>
     </row>
     <row r="219" ht="15" customHeight="1">
       <c r="F219" t="n">
-        <v>0.03706222338153969</v>
+        <v>0.01083704309525273</v>
       </c>
       <c r="G219" t="n">
-        <v>0.2551548397312664</v>
+        <v>0.05460543749368383</v>
       </c>
       <c r="J219" t="n">
-        <v>0.02520344303048007</v>
+        <v>0.023896694156989</v>
       </c>
       <c r="K219" t="n">
-        <v>0.256749817690234</v>
+        <v>0.1290754576310292</v>
       </c>
       <c r="L219" t="n">
-        <v>0.05226425185231429</v>
+        <v>0.04993725259168033</v>
       </c>
       <c r="M219" t="n">
-        <v>0.25773490631945</v>
+        <v>0.1283317491761608</v>
       </c>
       <c r="N219" t="n">
-        <v>0.07993838462119857</v>
+        <v>0.07527502049000095</v>
       </c>
       <c r="O219" t="n">
-        <v>0.2556691896657861</v>
+        <v>0.1278518597926225</v>
       </c>
     </row>
     <row r="220" ht="15" customHeight="1">
       <c r="F220" t="n">
-        <v>0.0370744870932181</v>
+        <v>0.01042231310492184</v>
       </c>
       <c r="G220" t="n">
-        <v>0.256811689339911</v>
+        <v>0.05455487044003343</v>
       </c>
       <c r="J220" t="n">
-        <v>0.02521245936055169</v>
+        <v>0.023786397455677</v>
       </c>
       <c r="K220" t="n">
-        <v>0.2584170242986122</v>
+        <v>0.1299136099533086</v>
       </c>
       <c r="L220" t="n">
-        <v>0.05268388806094249</v>
+        <v>0.04971596885472551</v>
       </c>
       <c r="M220" t="n">
-        <v>0.2594085096072386</v>
+        <v>0.1291650722227592</v>
       </c>
       <c r="N220" t="n">
-        <v>0.07956559120575379</v>
+        <v>0.07534284169964744</v>
       </c>
       <c r="O220" t="n">
-        <v>0.2573293792090704</v>
+        <v>0.1286820666743927</v>
       </c>
     </row>
     <row r="221" ht="15" customHeight="1">
       <c r="F221" t="n">
-        <v>0.03708364096026413</v>
+        <v>0.01001496354039504</v>
       </c>
       <c r="G221" t="n">
-        <v>0.2584685389485555</v>
+        <v>0.05450430338638303</v>
       </c>
       <c r="J221" t="n">
-        <v>0.02521933196686084</v>
+        <v>0.02377621603283619</v>
       </c>
       <c r="K221" t="n">
-        <v>0.2600842309069903</v>
+        <v>0.130751762275588</v>
       </c>
       <c r="L221" t="n">
-        <v>0.05229902756217944</v>
+        <v>0.04989491208325084</v>
       </c>
       <c r="M221" t="n">
-        <v>0.2610821128950273</v>
+        <v>0.1299983952693577</v>
       </c>
       <c r="N221" t="n">
-        <v>0.07948604408985732</v>
+        <v>0.07551099503420472</v>
       </c>
       <c r="O221" t="n">
-        <v>0.2589895687523547</v>
+        <v>0.129512273556163</v>
       </c>
     </row>
     <row r="222" ht="15" customHeight="1">
       <c r="F222" t="n">
-        <v>0.03408965176903658</v>
+        <v>0.009616252789677315</v>
       </c>
       <c r="G222" t="n">
-        <v>0.2601253885572001</v>
+        <v>0.05445373633273263</v>
       </c>
       <c r="J222" t="n">
-        <v>0.02512403774309831</v>
+        <v>0.0239661294631892</v>
       </c>
       <c r="K222" t="n">
-        <v>0.2617514375153685</v>
+        <v>0.1315899145978674</v>
       </c>
       <c r="L222" t="n">
-        <v>0.05250962161322761</v>
+        <v>0.04957404041430283</v>
       </c>
       <c r="M222" t="n">
-        <v>0.2627557161828159</v>
+        <v>0.1308317183159561</v>
       </c>
       <c r="N222" t="n">
-        <v>0.07979967092896656</v>
+        <v>0.07527941755341255</v>
       </c>
       <c r="O222" t="n">
-        <v>0.2606497582956391</v>
+        <v>0.1303424804379333</v>
       </c>
     </row>
     <row r="223" ht="15" customHeight="1">
       <c r="F223" t="n">
-        <v>0.03409248630589429</v>
+        <v>0.009227439240773364</v>
       </c>
       <c r="G223" t="n">
-        <v>0.2617822381658447</v>
+        <v>0.05440316927908222</v>
       </c>
       <c r="J223" t="n">
-        <v>0.02512655358295492</v>
+        <v>0.02375611732145859</v>
       </c>
       <c r="K223" t="n">
-        <v>0.2634186441237466</v>
+        <v>0.1324280669201468</v>
       </c>
       <c r="L223" t="n">
-        <v>0.05281562147128913</v>
+        <v>0.04945331198492803</v>
       </c>
       <c r="M223" t="n">
-        <v>0.2644293194706046</v>
+        <v>0.1316650413625546</v>
       </c>
       <c r="N223" t="n">
-        <v>0.07970639937853852</v>
+        <v>0.07544804631701035</v>
       </c>
       <c r="O223" t="n">
-        <v>0.2623099478389234</v>
+        <v>0.1311726873197036</v>
       </c>
     </row>
     <row r="224" ht="15" customHeight="1">
       <c r="F224" t="n">
-        <v>0.03607378938069386</v>
+        <v>0.008849781281688174</v>
       </c>
       <c r="G224" t="n">
-        <v>0.2634390877744893</v>
+        <v>0.05435260222543182</v>
       </c>
       <c r="J224" t="n">
-        <v>0.02522240274497324</v>
+        <v>0.02394615918236701</v>
       </c>
       <c r="K224" t="n">
-        <v>0.2650858507321248</v>
+        <v>0.1332662192424262</v>
       </c>
       <c r="L224" t="n">
-        <v>0.05271386007359904</v>
+        <v>0.04973268493217292</v>
       </c>
       <c r="M224" t="n">
-        <v>0.2661029227583931</v>
+        <v>0.132498364409153</v>
       </c>
       <c r="N224" t="n">
-        <v>0.07947610994224619</v>
+        <v>0.0754168183847379</v>
       </c>
       <c r="O224" t="n">
-        <v>0.2639701373822077</v>
+        <v>0.1320028942014738</v>
       </c>
     </row>
     <row r="225" ht="15" customHeight="1">
       <c r="F225" t="n">
-        <v>0.03696688571759499</v>
+        <v>0.008484537300426379</v>
       </c>
       <c r="G225" t="n">
-        <v>0.2650959373831339</v>
+        <v>0.05430203517178141</v>
       </c>
       <c r="J225" t="n">
-        <v>0.02526451139403026</v>
+        <v>0.02383623462063697</v>
       </c>
       <c r="K225" t="n">
-        <v>0.2667530573405029</v>
+        <v>0.1341043715647056</v>
       </c>
       <c r="L225" t="n">
-        <v>0.05241324018809326</v>
+        <v>0.0496121173930841</v>
       </c>
       <c r="M225" t="n">
-        <v>0.2677765260461818</v>
+        <v>0.1333316874557514</v>
       </c>
       <c r="N225" t="n">
-        <v>0.08005988581298851</v>
+        <v>0.07528567081633458</v>
       </c>
       <c r="O225" t="n">
-        <v>0.265630326925492</v>
+        <v>0.1328331010832441</v>
       </c>
     </row>
     <row r="226" ht="15" customHeight="1">
       <c r="F226" t="n">
-        <v>0.03477474590242798</v>
+        <v>0.008132965684992985</v>
       </c>
       <c r="G226" t="n">
-        <v>0.2667527869917785</v>
+        <v>0.05425146811813101</v>
       </c>
       <c r="J226" t="n">
-        <v>0.02514594553400833</v>
+        <v>0.02392632321099111</v>
       </c>
       <c r="K226" t="n">
-        <v>0.2684202639488811</v>
+        <v>0.134942523886985</v>
       </c>
       <c r="L226" t="n">
-        <v>0.05218285149458418</v>
+        <v>0.04979156750470812</v>
       </c>
       <c r="M226" t="n">
-        <v>0.2694501293339704</v>
+        <v>0.1341650105023499</v>
       </c>
       <c r="N226" t="n">
-        <v>0.07905660793007513</v>
+        <v>0.0751545406715402</v>
       </c>
       <c r="O226" t="n">
-        <v>0.2672905164687764</v>
+        <v>0.1336633079650144</v>
       </c>
     </row>
     <row r="227" ht="15" customHeight="1">
       <c r="F227" t="n">
-        <v>0.03350772406804388</v>
+        <v>0.007796324823392625</v>
       </c>
       <c r="G227" t="n">
-        <v>0.2684096366004231</v>
+        <v>0.0542009010644806</v>
       </c>
       <c r="J227" t="n">
-        <v>0.02487390840389522</v>
+        <v>0.023716404528152</v>
       </c>
       <c r="K227" t="n">
-        <v>0.2700874705572592</v>
+        <v>0.1357806762092644</v>
       </c>
       <c r="L227" t="n">
-        <v>0.05213788923770094</v>
+        <v>0.04937099340409137</v>
       </c>
       <c r="M227" t="n">
-        <v>0.2711237326217591</v>
+        <v>0.1349983335489483</v>
       </c>
       <c r="N227" t="n">
-        <v>0.07888882922599055</v>
+        <v>0.07572336501009419</v>
       </c>
       <c r="O227" t="n">
-        <v>0.2689507060120607</v>
+        <v>0.1344935148467847</v>
       </c>
     </row>
     <row r="228" ht="15" customHeight="1">
       <c r="F228" t="n">
-        <v>0.03317617434729371</v>
+        <v>0.007475873103630307</v>
       </c>
       <c r="G228" t="n">
-        <v>0.2700664862090677</v>
+        <v>0.0541503340108302</v>
       </c>
       <c r="J228" t="n">
-        <v>0.02465560324267872</v>
+        <v>0.02380645814684225</v>
       </c>
       <c r="K228" t="n">
-        <v>0.2717546771656373</v>
+        <v>0.1366188285315438</v>
       </c>
       <c r="L228" t="n">
-        <v>0.05149354866207262</v>
+        <v>0.04955035322828052</v>
       </c>
       <c r="M228" t="n">
-        <v>0.2727973359095477</v>
+        <v>0.1358316565955468</v>
       </c>
       <c r="N228" t="n">
-        <v>0.07787910263321929</v>
+        <v>0.07579208089173622</v>
       </c>
       <c r="O228" t="n">
-        <v>0.270610895555345</v>
+        <v>0.1353237217285549</v>
       </c>
     </row>
     <row r="229" ht="15" customHeight="1">
       <c r="F229" t="n">
-        <v>0.03579045087302855</v>
+        <v>0.007172868913710703</v>
       </c>
       <c r="G229" t="n">
-        <v>0.2717233358177122</v>
+        <v>0.05409976695717979</v>
       </c>
       <c r="J229" t="n">
-        <v>0.02439823328934655</v>
+        <v>0.02379646364178443</v>
       </c>
       <c r="K229" t="n">
-        <v>0.2734218837740155</v>
+        <v>0.1374569808538232</v>
       </c>
       <c r="L229" t="n">
-        <v>0.05066502501232839</v>
+        <v>0.04942960511432209</v>
       </c>
       <c r="M229" t="n">
-        <v>0.2744709391973363</v>
+        <v>0.1366649796421452</v>
       </c>
       <c r="N229" t="n">
-        <v>0.07734998108424601</v>
+        <v>0.07526062537620587</v>
       </c>
       <c r="O229" t="n">
-        <v>0.2722710850986293</v>
+        <v>0.1361539286103252</v>
       </c>
     </row>
     <row r="230" ht="15" customHeight="1">
       <c r="F230" t="n">
-        <v>0.03236090777809941</v>
+        <v>0.00688857064163878</v>
       </c>
       <c r="G230" t="n">
-        <v>0.2733801854263568</v>
+        <v>0.05404919990352939</v>
       </c>
       <c r="J230" t="n">
-        <v>0.02420900178288647</v>
+        <v>0.02368640058770116</v>
       </c>
       <c r="K230" t="n">
-        <v>0.2750890903823937</v>
+        <v>0.1382951331761026</v>
       </c>
       <c r="L230" t="n">
-        <v>0.05046751353309731</v>
+        <v>0.04980870719926259</v>
       </c>
       <c r="M230" t="n">
-        <v>0.276144542485125</v>
+        <v>0.1374983026887437</v>
       </c>
       <c r="N230" t="n">
-        <v>0.07632401751155521</v>
+        <v>0.07512893552324279</v>
       </c>
       <c r="O230" t="n">
-        <v>0.2739312746419136</v>
+        <v>0.1369841354920955</v>
       </c>
     </row>
     <row r="231" ht="15" customHeight="1">
       <c r="F231" t="n">
-        <v>0.03189789919535732</v>
+        <v>0.006624236675419282</v>
       </c>
       <c r="G231" t="n">
-        <v>0.2750370350350014</v>
+        <v>0.05399863284987899</v>
       </c>
       <c r="J231" t="n">
-        <v>0.02369511196228621</v>
+        <v>0.023776248559315</v>
       </c>
       <c r="K231" t="n">
-        <v>0.2767562969907718</v>
+        <v>0.1391332854983821</v>
       </c>
       <c r="L231" t="n">
-        <v>0.04941620946900849</v>
+        <v>0.04958761762014852</v>
       </c>
       <c r="M231" t="n">
-        <v>0.2778181457729136</v>
+        <v>0.1383316257353421</v>
       </c>
       <c r="N231" t="n">
-        <v>0.07552376484763157</v>
+        <v>0.07559694839258652</v>
       </c>
       <c r="O231" t="n">
-        <v>0.275591464185198</v>
+        <v>0.1378143423738657</v>
       </c>
     </row>
     <row r="232" ht="15" customHeight="1">
       <c r="F232" t="n">
-        <v>0.03341177925765336</v>
+        <v>0.006381125403056978</v>
       </c>
       <c r="G232" t="n">
-        <v>0.276693884643646</v>
+        <v>0.05394806579622859</v>
       </c>
       <c r="J232" t="n">
-        <v>0.02336376706653358</v>
+        <v>0.02386598782513764</v>
       </c>
       <c r="K232" t="n">
-        <v>0.2784235035991499</v>
+        <v>0.1399714378206615</v>
       </c>
       <c r="L232" t="n">
-        <v>0.04902630806469105</v>
+        <v>0.04976631037487747</v>
       </c>
       <c r="M232" t="n">
-        <v>0.2794917490607022</v>
+        <v>0.1391649487819406</v>
       </c>
       <c r="N232" t="n">
-        <v>0.07437177602495965</v>
+        <v>0.07516465193670652</v>
       </c>
       <c r="O232" t="n">
-        <v>0.2772516537284823</v>
+        <v>0.138644549255636</v>
       </c>
     </row>
     <row r="233" ht="15" customHeight="1">
       <c r="F233" t="n">
-        <v>0.03291290209783854</v>
+        <v>0.006160495212556794</v>
       </c>
       <c r="G233" t="n">
-        <v>0.2783507342522906</v>
+        <v>0.05389749874257819</v>
       </c>
       <c r="J233" t="n">
-        <v>0.02322217033461632</v>
+        <v>0.02365572621489526</v>
       </c>
       <c r="K233" t="n">
-        <v>0.280090710207528</v>
+        <v>0.1408095901429409</v>
       </c>
       <c r="L233" t="n">
-        <v>0.04851300456477411</v>
+        <v>0.04934506733096319</v>
       </c>
       <c r="M233" t="n">
-        <v>0.2811653523484909</v>
+        <v>0.139998271828539</v>
       </c>
       <c r="N233" t="n">
-        <v>0.07289060397602393</v>
+        <v>0.07483250578276035</v>
       </c>
       <c r="O233" t="n">
-        <v>0.2789118432717666</v>
+        <v>0.1394747561374063</v>
       </c>
     </row>
     <row r="234" ht="15" customHeight="1">
       <c r="F234" t="n">
-        <v>0.03241162184876394</v>
+        <v>0.005963604491923485</v>
       </c>
       <c r="G234" t="n">
-        <v>0.2800075838609352</v>
+        <v>0.05384693168892778</v>
       </c>
       <c r="J234" t="n">
-        <v>0.02277752500552217</v>
+        <v>0.02384555376396966</v>
       </c>
       <c r="K234" t="n">
-        <v>0.2817579168159062</v>
+        <v>0.1416477424652203</v>
       </c>
       <c r="L234" t="n">
-        <v>0.04739149421388672</v>
+        <v>0.04932400873661028</v>
       </c>
       <c r="M234" t="n">
-        <v>0.2828389556362795</v>
+        <v>0.1408315948751375</v>
       </c>
       <c r="N234" t="n">
-        <v>0.07160280163330907</v>
+        <v>0.07530063862214142</v>
       </c>
       <c r="O234" t="n">
-        <v>0.2805720328150509</v>
+        <v>0.1403049630191766</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1">
       <c r="F235" t="n">
-        <v>0.03291829264328056</v>
+        <v>0.00579171162916195</v>
       </c>
       <c r="G235" t="n">
-        <v>0.2816644334695798</v>
+        <v>0.05379636463527738</v>
       </c>
       <c r="J235" t="n">
-        <v>0.02253703431823888</v>
+        <v>0.02383547224488725</v>
       </c>
       <c r="K235" t="n">
-        <v>0.2834251234242843</v>
+        <v>0.1424858947874997</v>
       </c>
       <c r="L235" t="n">
-        <v>0.04707697225665802</v>
+        <v>0.04950313822472863</v>
       </c>
       <c r="M235" t="n">
-        <v>0.2845125589240681</v>
+        <v>0.1416649179217359</v>
       </c>
       <c r="N235" t="n">
-        <v>0.07083092192929968</v>
+        <v>0.07496905591686964</v>
       </c>
       <c r="O235" t="n">
-        <v>0.2822322223583353</v>
+        <v>0.1411351699009468</v>
       </c>
     </row>
     <row r="236" ht="15" customHeight="1">
       <c r="F236" t="n">
-        <v>0.03044326861423945</v>
+        <v>0.005646075012276902</v>
       </c>
       <c r="G236" t="n">
-        <v>0.2833212830782244</v>
+        <v>0.05374579758162697</v>
       </c>
       <c r="J236" t="n">
-        <v>0.02220790151175422</v>
+        <v>0.02382548343017447</v>
       </c>
       <c r="K236" t="n">
-        <v>0.2850923300326625</v>
+        <v>0.1433240471097791</v>
       </c>
       <c r="L236" t="n">
-        <v>0.04618463393771713</v>
+        <v>0.04938245942822805</v>
       </c>
       <c r="M236" t="n">
-        <v>0.2861861622118568</v>
+        <v>0.1424982409683344</v>
       </c>
       <c r="N236" t="n">
-        <v>0.07009751779648032</v>
+        <v>0.07543776312896527</v>
       </c>
       <c r="O236" t="n">
-        <v>0.2838924119016196</v>
+        <v>0.1419653767827171</v>
       </c>
     </row>
     <row r="237" ht="15" customHeight="1">
       <c r="F237" t="n">
-        <v>0.02899690389449167</v>
+        <v>0.005527953029273294</v>
       </c>
       <c r="G237" t="n">
-        <v>0.2849781326868689</v>
+        <v>0.05369523052797657</v>
       </c>
       <c r="J237" t="n">
-        <v>0.02169732982505593</v>
+        <v>0.02381558909235777</v>
       </c>
       <c r="K237" t="n">
-        <v>0.2867595366410406</v>
+        <v>0.1441621994320585</v>
       </c>
       <c r="L237" t="n">
-        <v>0.04572967450169316</v>
+        <v>0.0496619759800184</v>
       </c>
       <c r="M237" t="n">
-        <v>0.2878597654996454</v>
+        <v>0.1433315640149328</v>
       </c>
       <c r="N237" t="n">
-        <v>0.0688251421673356</v>
+        <v>0.07520676572044815</v>
       </c>
       <c r="O237" t="n">
-        <v>0.2855526014449039</v>
+        <v>0.1427955836644874</v>
       </c>
     </row>
     <row r="238" ht="15" customHeight="1">
       <c r="F238" t="n">
-        <v>0.02958877415484779</v>
+        <v>0.005438604068155842</v>
       </c>
       <c r="G238" t="n">
-        <v>0.2866349822955135</v>
+        <v>0.05364466347432616</v>
       </c>
       <c r="J238" t="n">
-        <v>0.0215125189308691</v>
+        <v>0.02360579100396358</v>
       </c>
       <c r="K238" t="n">
-        <v>0.2884267432494188</v>
+        <v>0.145000351754338</v>
       </c>
       <c r="L238" t="n">
-        <v>0.0447272891932152</v>
+        <v>0.04944169151300953</v>
       </c>
       <c r="M238" t="n">
-        <v>0.2895333687874341</v>
+        <v>0.1441648870615313</v>
       </c>
       <c r="N238" t="n">
-        <v>0.06793551551482929</v>
+        <v>0.07477606915333862</v>
       </c>
       <c r="O238" t="n">
-        <v>0.2872127909881882</v>
+        <v>0.1436257905462577</v>
       </c>
     </row>
     <row r="239" ht="15" customHeight="1">
       <c r="F239" t="n">
-        <v>0.03119478820295764</v>
+        <v>0.005379286516929427</v>
       </c>
       <c r="G239" t="n">
-        <v>0.2882918319041581</v>
+        <v>0.05359409642067576</v>
       </c>
       <c r="J239" t="n">
-        <v>0.02124198682869234</v>
+        <v>0.02369609093751829</v>
       </c>
       <c r="K239" t="n">
-        <v>0.2900939498577969</v>
+        <v>0.1458385040766174</v>
       </c>
       <c r="L239" t="n">
-        <v>0.04426091182170072</v>
+        <v>0.04912160966011134</v>
       </c>
       <c r="M239" t="n">
-        <v>0.2912069720752227</v>
+        <v>0.1449982101081297</v>
       </c>
       <c r="N239" t="n">
-        <v>0.06738096867935539</v>
+        <v>0.07514567888965645</v>
       </c>
       <c r="O239" t="n">
-        <v>0.2888729805314726</v>
+        <v>0.1444559974280279</v>
       </c>
     </row>
     <row r="240" ht="15" customHeight="1">
       <c r="F240" t="n">
-        <v>0.02879928960308514</v>
+        <v>0.00534736461695387</v>
       </c>
       <c r="G240" t="n">
-        <v>0.2899486815128027</v>
+        <v>0.05354352936702535</v>
       </c>
       <c r="J240" t="n">
-        <v>0.0209704115839921</v>
+        <v>0.02358649066554838</v>
       </c>
       <c r="K240" t="n">
-        <v>0.2917611564661751</v>
+        <v>0.1466766563988968</v>
       </c>
       <c r="L240" t="n">
-        <v>0.04369260107729778</v>
+        <v>0.04940173405423359</v>
       </c>
       <c r="M240" t="n">
-        <v>0.2928805753630113</v>
+        <v>0.1458315331547282</v>
       </c>
       <c r="N240" t="n">
-        <v>0.06632313637383236</v>
+        <v>0.07501560039142202</v>
       </c>
       <c r="O240" t="n">
-        <v>0.2905331700747569</v>
+        <v>0.1452862043097982</v>
       </c>
     </row>
     <row r="241" ht="15" customHeight="1">
       <c r="F241" t="n">
-        <v>0.03040225382590558</v>
+        <v>0.005320265274723512</v>
       </c>
       <c r="G241" t="n">
-        <v>0.2916055311214473</v>
+        <v>0.05349296231337495</v>
       </c>
       <c r="J241" t="n">
-        <v>0.0206977761320281</v>
+        <v>0.02357699196058023</v>
       </c>
       <c r="K241" t="n">
-        <v>0.2934283630745532</v>
+        <v>0.1475148087211762</v>
       </c>
       <c r="L241" t="n">
-        <v>0.04342206567418949</v>
+        <v>0.04938206832828615</v>
       </c>
       <c r="M241" t="n">
-        <v>0.2945541786508</v>
+        <v>0.1466648562013266</v>
       </c>
       <c r="N241" t="n">
-        <v>0.06536196516952703</v>
+        <v>0.07478583912065512</v>
       </c>
       <c r="O241" t="n">
-        <v>0.2921933596180412</v>
+        <v>0.1461164111915685</v>
       </c>
     </row>
     <row r="242" ht="15" customHeight="1">
       <c r="F242" t="n">
-        <v>0.0290036563420943</v>
+        <v>0.005294160305183496</v>
       </c>
       <c r="G242" t="n">
-        <v>0.2932623807300919</v>
+        <v>0.05344239525972454</v>
       </c>
       <c r="J242" t="n">
-        <v>0.02052406340806007</v>
+        <v>0.02376759659514033</v>
       </c>
       <c r="K242" t="n">
-        <v>0.2950955696829314</v>
+        <v>0.1483529610434556</v>
       </c>
       <c r="L242" t="n">
-        <v>0.04274926961427786</v>
+        <v>0.04946261611517894</v>
       </c>
       <c r="M242" t="n">
-        <v>0.2962277819385886</v>
+        <v>0.147498179247925</v>
       </c>
       <c r="N242" t="n">
-        <v>0.06499740163770584</v>
+        <v>0.07485640053937592</v>
       </c>
       <c r="O242" t="n">
-        <v>0.2938535491613256</v>
+        <v>0.1469466180733388</v>
       </c>
     </row>
     <row r="243" ht="15" customHeight="1">
       <c r="F243" t="n">
-        <v>0.02660347262232658</v>
+        <v>0.005269063825297307</v>
       </c>
       <c r="G243" t="n">
-        <v>0.2949192303387365</v>
+        <v>0.05339182820607415</v>
       </c>
       <c r="J243" t="n">
-        <v>0.02024925634734773</v>
+        <v>0.02375830634175506</v>
       </c>
       <c r="K243" t="n">
-        <v>0.2967627762913095</v>
+        <v>0.149191113365735</v>
       </c>
       <c r="L243" t="n">
-        <v>0.04207417689946477</v>
+        <v>0.0491433810478217</v>
       </c>
       <c r="M243" t="n">
-        <v>0.2979013852263773</v>
+        <v>0.1483315022945235</v>
       </c>
       <c r="N243" t="n">
-        <v>0.06372939234963543</v>
+        <v>0.07522729010960455</v>
       </c>
       <c r="O243" t="n">
-        <v>0.2955137387046099</v>
+        <v>0.147776824955109</v>
       </c>
     </row>
     <row r="244" ht="15" customHeight="1">
       <c r="F244" t="n">
-        <v>0.02720167813727774</v>
+        <v>0.005244989952028392</v>
       </c>
       <c r="G244" t="n">
-        <v>0.2965760799473811</v>
+        <v>0.05334126115242373</v>
       </c>
       <c r="J244" t="n">
-        <v>0.01977333788515079</v>
+        <v>0.02374912297295086</v>
       </c>
       <c r="K244" t="n">
-        <v>0.2984299828996876</v>
+        <v>0.1500292656880144</v>
       </c>
       <c r="L244" t="n">
-        <v>0.04139675153165231</v>
+        <v>0.04912436675912438</v>
       </c>
       <c r="M244" t="n">
-        <v>0.2995749885141659</v>
+        <v>0.1491648253411219</v>
       </c>
       <c r="N244" t="n">
-        <v>0.06325788387658249</v>
+        <v>0.07529851329336101</v>
       </c>
       <c r="O244" t="n">
-        <v>0.2971739282478942</v>
+        <v>0.1486070318368793</v>
       </c>
     </row>
     <row r="245" ht="15" customHeight="1">
       <c r="F245" t="n">
-        <v>0.0287982483576231</v>
+        <v>0.005221952802340224</v>
       </c>
       <c r="G245" t="n">
-        <v>0.2982329295560256</v>
+        <v>0.05329069409877334</v>
       </c>
       <c r="J245" t="n">
-        <v>0.01949629095672895</v>
+        <v>0.02364004826125418</v>
       </c>
       <c r="K245" t="n">
-        <v>0.3000971895080657</v>
+        <v>0.1508674180102938</v>
       </c>
       <c r="L245" t="n">
-        <v>0.04101695751274245</v>
+        <v>0.04950557688199678</v>
       </c>
       <c r="M245" t="n">
-        <v>0.3012485918019545</v>
+        <v>0.1499981483877204</v>
       </c>
       <c r="N245" t="n">
-        <v>0.06198282278981354</v>
+        <v>0.07477007555266535</v>
       </c>
       <c r="O245" t="n">
-        <v>0.2988341177911785</v>
+        <v>0.1494372387186496</v>
       </c>
     </row>
     <row r="246" ht="15" customHeight="1">
       <c r="F246" t="n">
-        <v>0.02839315875403792</v>
+        <v>0.00519996649319622</v>
       </c>
       <c r="G246" t="n">
-        <v>0.2998897791646702</v>
+        <v>0.05324012704512292</v>
       </c>
       <c r="J246" t="n">
-        <v>0.01931809849734195</v>
+        <v>0.02363108397919143</v>
       </c>
       <c r="K246" t="n">
-        <v>0.3017643961164439</v>
+        <v>0.1517055703325732</v>
       </c>
       <c r="L246" t="n">
-        <v>0.04023475884463709</v>
+        <v>0.04928701504934871</v>
       </c>
       <c r="M246" t="n">
-        <v>0.3029221950897432</v>
+        <v>0.1508314714343188</v>
       </c>
       <c r="N246" t="n">
-        <v>0.06080415566059516</v>
+        <v>0.07524198234953772</v>
       </c>
       <c r="O246" t="n">
-        <v>0.3004943073344629</v>
+        <v>0.1502674456004199</v>
       </c>
     </row>
     <row r="247" ht="15" customHeight="1">
       <c r="F247" t="n">
-        <v>0.02698638479719756</v>
+        <v>0.005179045141559882</v>
       </c>
       <c r="G247" t="n">
-        <v>0.3015466287733148</v>
+        <v>0.05318955999147253</v>
       </c>
       <c r="J247" t="n">
-        <v>0.0191387434422495</v>
+        <v>0.02352223189928904</v>
       </c>
       <c r="K247" t="n">
-        <v>0.3034316027248221</v>
+        <v>0.1525437226548526</v>
       </c>
       <c r="L247" t="n">
-        <v>0.03985011952923828</v>
+        <v>0.04906868489409008</v>
       </c>
       <c r="M247" t="n">
-        <v>0.3045957983775318</v>
+        <v>0.1516647944809173</v>
       </c>
       <c r="N247" t="n">
-        <v>0.06002182906019404</v>
+        <v>0.07451423914599814</v>
       </c>
       <c r="O247" t="n">
-        <v>0.3021544968777472</v>
+        <v>0.1510976524821902</v>
       </c>
     </row>
     <row r="248" ht="15" customHeight="1">
       <c r="F248" t="n">
-        <v>0.02757790195777732</v>
+        <v>0.005159202864394627</v>
       </c>
       <c r="G248" t="n">
-        <v>0.3032034783819594</v>
+        <v>0.05313899293782213</v>
       </c>
       <c r="J248" t="n">
-        <v>0.01885820872671132</v>
+        <v>0.02361349379407347</v>
       </c>
       <c r="K248" t="n">
-        <v>0.3050988093332002</v>
+        <v>0.153381874977132</v>
       </c>
       <c r="L248" t="n">
-        <v>0.03936300356844799</v>
+        <v>0.04935059004913075</v>
       </c>
       <c r="M248" t="n">
-        <v>0.3062694016653205</v>
+        <v>0.1524981175275157</v>
       </c>
       <c r="N248" t="n">
-        <v>0.05893578955987661</v>
+        <v>0.07488685140406659</v>
       </c>
       <c r="O248" t="n">
-        <v>0.3038146864210315</v>
+        <v>0.1519278593639604</v>
       </c>
     </row>
     <row r="249" ht="15" customHeight="1">
       <c r="F249" t="n">
-        <v>0.02516768570645249</v>
+        <v>0.005140453778663928</v>
       </c>
       <c r="G249" t="n">
-        <v>0.304860327990604</v>
+        <v>0.05308842588417172</v>
       </c>
       <c r="J249" t="n">
-        <v>0.01857647728598712</v>
+        <v>0.0236048714360711</v>
       </c>
       <c r="K249" t="n">
-        <v>0.3067660159415784</v>
+        <v>0.1542200272994114</v>
       </c>
       <c r="L249" t="n">
-        <v>0.03877337496416819</v>
+        <v>0.0494327341473805</v>
       </c>
       <c r="M249" t="n">
-        <v>0.3079430049531091</v>
+        <v>0.1533314405741142</v>
       </c>
       <c r="N249" t="n">
-        <v>0.05824598373090972</v>
+        <v>0.07495982458576328</v>
       </c>
       <c r="O249" t="n">
-        <v>0.3054748759643158</v>
+        <v>0.1527580662457307</v>
       </c>
     </row>
     <row r="250" ht="15" customHeight="1">
       <c r="F250" t="n">
-        <v>0.02575571151389838</v>
+        <v>0.005122812001331245</v>
       </c>
       <c r="G250" t="n">
-        <v>0.3065171775992486</v>
+        <v>0.05303785883052132</v>
       </c>
       <c r="J250" t="n">
-        <v>0.01809353205533663</v>
+        <v>0.02359636659780839</v>
       </c>
       <c r="K250" t="n">
-        <v>0.3084332225499565</v>
+        <v>0.1550581796216909</v>
       </c>
       <c r="L250" t="n">
-        <v>0.03798119771830086</v>
+        <v>0.04901512082174922</v>
       </c>
       <c r="M250" t="n">
-        <v>0.3096166082408977</v>
+        <v>0.1541647636207126</v>
       </c>
       <c r="N250" t="n">
-        <v>0.05775235814455981</v>
+        <v>0.07453316415310823</v>
       </c>
       <c r="O250" t="n">
-        <v>0.3071350655076002</v>
+        <v>0.153588273127501</v>
       </c>
     </row>
     <row r="251" ht="15" customHeight="1">
       <c r="F251" t="n">
-        <v>0.02434195485079034</v>
+        <v>0.005106291649360023</v>
       </c>
       <c r="G251" t="n">
-        <v>0.3081740272078932</v>
+        <v>0.05298729177687091</v>
       </c>
       <c r="J251" t="n">
-        <v>0.01800935597001956</v>
+        <v>0.02368798105181179</v>
       </c>
       <c r="K251" t="n">
-        <v>0.3101004291583346</v>
+        <v>0.1558963319439703</v>
       </c>
       <c r="L251" t="n">
-        <v>0.03738643583274795</v>
+        <v>0.04909775370514677</v>
       </c>
       <c r="M251" t="n">
-        <v>0.3112902115286864</v>
+        <v>0.1549980866673111</v>
       </c>
       <c r="N251" t="n">
-        <v>0.05705485937209354</v>
+        <v>0.07480687556812138</v>
       </c>
       <c r="O251" t="n">
-        <v>0.3087952550508845</v>
+        <v>0.1544184800092712</v>
       </c>
     </row>
     <row r="252" ht="15" customHeight="1">
       <c r="F252" t="n">
-        <v>0.02292639118780361</v>
+        <v>0.005090906839713735</v>
       </c>
       <c r="G252" t="n">
-        <v>0.3098308768165378</v>
+        <v>0.05293672472322051</v>
       </c>
       <c r="J252" t="n">
-        <v>0.01772393196529561</v>
+        <v>0.02357971657060769</v>
       </c>
       <c r="K252" t="n">
-        <v>0.3117676357667128</v>
+        <v>0.1567344842662497</v>
       </c>
       <c r="L252" t="n">
-        <v>0.03648905330941152</v>
+        <v>0.04908063643048294</v>
       </c>
       <c r="M252" t="n">
-        <v>0.312963814816475</v>
+        <v>0.1558314097139095</v>
       </c>
       <c r="N252" t="n">
-        <v>0.05565343398477746</v>
+        <v>0.07448096429282303</v>
       </c>
       <c r="O252" t="n">
-        <v>0.3104554445941689</v>
+        <v>0.1552486868910415</v>
       </c>
     </row>
     <row r="253" ht="15" customHeight="1">
       <c r="F253" t="n">
-        <v>0.02250899599561357</v>
+        <v>0.005076671689355813</v>
       </c>
       <c r="G253" t="n">
-        <v>0.3114877264251823</v>
+        <v>0.0528861576695701</v>
       </c>
       <c r="J253" t="n">
-        <v>0.0173372429764245</v>
+        <v>0.02357157492672253</v>
       </c>
       <c r="K253" t="n">
-        <v>0.3134348423750909</v>
+        <v>0.1575726365885291</v>
       </c>
       <c r="L253" t="n">
-        <v>0.03628901415019353</v>
+        <v>0.04926377263066767</v>
       </c>
       <c r="M253" t="n">
-        <v>0.3146374181042637</v>
+        <v>0.156664732760508</v>
       </c>
       <c r="N253" t="n">
-        <v>0.05484802855387821</v>
+        <v>0.07485543578923309</v>
       </c>
       <c r="O253" t="n">
-        <v>0.3121156341374531</v>
+        <v>0.1560788937728118</v>
       </c>
     </row>
     <row r="254" ht="15" customHeight="1">
       <c r="F254" t="n">
-        <v>0.02408974474489545</v>
+        <v>0.005063600315249731</v>
       </c>
       <c r="G254" t="n">
-        <v>0.3131445760338269</v>
+        <v>0.05283559061591971</v>
       </c>
       <c r="J254" t="n">
-        <v>0.01694927193866595</v>
+        <v>0.02366355789268276</v>
       </c>
       <c r="K254" t="n">
-        <v>0.3151020489834691</v>
+        <v>0.1584107889108085</v>
       </c>
       <c r="L254" t="n">
-        <v>0.03548628235699591</v>
+        <v>0.04894716593861073</v>
       </c>
       <c r="M254" t="n">
-        <v>0.3163110213920522</v>
+        <v>0.1574980558071064</v>
       </c>
       <c r="N254" t="n">
-        <v>0.05433858965066235</v>
+        <v>0.07503029551937163</v>
       </c>
       <c r="O254" t="n">
-        <v>0.3137758236807375</v>
+        <v>0.1569091006545821</v>
       </c>
     </row>
     <row r="255" ht="15" customHeight="1">
       <c r="F255" t="n">
-        <v>0.02466861290632463</v>
+        <v>0.005051706834358932</v>
       </c>
       <c r="G255" t="n">
-        <v>0.3148014256424715</v>
+        <v>0.05278502356226929</v>
       </c>
       <c r="J255" t="n">
-        <v>0.01686000178727973</v>
+        <v>0.02345566724101478</v>
       </c>
       <c r="K255" t="n">
-        <v>0.3167692555918472</v>
+        <v>0.1592489412330879</v>
       </c>
       <c r="L255" t="n">
-        <v>0.03518082193172065</v>
+        <v>0.04893081998722196</v>
       </c>
       <c r="M255" t="n">
-        <v>0.3179846246798409</v>
+        <v>0.1583313788537049</v>
       </c>
       <c r="N255" t="n">
-        <v>0.05332506384639663</v>
+        <v>0.07440554894525875</v>
       </c>
       <c r="O255" t="n">
-        <v>0.3154360132240218</v>
+        <v>0.1577393075363523</v>
       </c>
     </row>
     <row r="256" ht="15" customHeight="1">
       <c r="F256" t="n">
-        <v>0.02424557595057639</v>
+        <v>0.005041005363646878</v>
       </c>
       <c r="G256" t="n">
-        <v>0.3164582752511161</v>
+        <v>0.0527344565086189</v>
       </c>
       <c r="J256" t="n">
-        <v>0.01646941545752549</v>
+        <v>0.02344790474424506</v>
       </c>
       <c r="K256" t="n">
-        <v>0.3184364622002254</v>
+        <v>0.1600870935553673</v>
       </c>
       <c r="L256" t="n">
-        <v>0.03437259687626976</v>
+        <v>0.04921473840941129</v>
       </c>
       <c r="M256" t="n">
-        <v>0.3196582279676295</v>
+        <v>0.1591647019003033</v>
       </c>
       <c r="N256" t="n">
-        <v>0.05220739771234739</v>
+        <v>0.07458120152891451</v>
       </c>
       <c r="O256" t="n">
-        <v>0.3170962027673062</v>
+        <v>0.1585695144181226</v>
       </c>
     </row>
     <row r="257" ht="15" customHeight="1">
       <c r="F257" t="n">
-        <v>0.02382060934832604</v>
+        <v>0.005031510020077026</v>
       </c>
       <c r="G257" t="n">
-        <v>0.3181151248597607</v>
+        <v>0.05268388945496848</v>
       </c>
       <c r="J257" t="n">
-        <v>0.01617749588466295</v>
+        <v>0.02364027217489999</v>
       </c>
       <c r="K257" t="n">
-        <v>0.3201036688086035</v>
+        <v>0.1609252458776468</v>
       </c>
       <c r="L257" t="n">
-        <v>0.03346157119254528</v>
+        <v>0.0490989248380885</v>
       </c>
       <c r="M257" t="n">
-        <v>0.3213318312554181</v>
+        <v>0.1599980249469018</v>
       </c>
       <c r="N257" t="n">
-        <v>0.05148553781978155</v>
+        <v>0.07455725873235902</v>
       </c>
       <c r="O257" t="n">
-        <v>0.3187563923105904</v>
+        <v>0.1593997212998929</v>
       </c>
     </row>
     <row r="258" ht="15" customHeight="1">
       <c r="F258" t="n">
-        <v>0.02039368857024888</v>
+        <v>0.005023234920612837</v>
       </c>
       <c r="G258" t="n">
-        <v>0.3197719744684053</v>
+        <v>0.05263332240131809</v>
       </c>
       <c r="J258" t="n">
-        <v>0.01598422600395187</v>
+        <v>0.02363277130550602</v>
       </c>
       <c r="K258" t="n">
-        <v>0.3217708754169816</v>
+        <v>0.1617633981999262</v>
       </c>
       <c r="L258" t="n">
-        <v>0.03284770888244906</v>
+        <v>0.0489833829061635</v>
       </c>
       <c r="M258" t="n">
-        <v>0.3230054345432068</v>
+        <v>0.1608313479935002</v>
       </c>
       <c r="N258" t="n">
-        <v>0.0499594307399655</v>
+        <v>0.07433372601761223</v>
       </c>
       <c r="O258" t="n">
-        <v>0.3204165818538747</v>
+        <v>0.1602299281816632</v>
       </c>
     </row>
     <row r="259" ht="15" customHeight="1">
       <c r="F259" t="n">
-        <v>0.02296478908702022</v>
+        <v>0.00501619418221777</v>
       </c>
       <c r="G259" t="n">
-        <v>0.3214288240770499</v>
+        <v>0.05258275534766768</v>
       </c>
       <c r="J259" t="n">
-        <v>0.01568958875065192</v>
+        <v>0.02362540390858958</v>
       </c>
       <c r="K259" t="n">
-        <v>0.3234380820253598</v>
+        <v>0.1626015505222056</v>
       </c>
       <c r="L259" t="n">
-        <v>0.03223097394788313</v>
+        <v>0.04906811624654603</v>
       </c>
       <c r="M259" t="n">
-        <v>0.3246790378309954</v>
+        <v>0.1616646710400987</v>
       </c>
       <c r="N259" t="n">
-        <v>0.04922902304416588</v>
+        <v>0.07421060884669434</v>
       </c>
       <c r="O259" t="n">
-        <v>0.3220767713971591</v>
+        <v>0.1610601350634335</v>
       </c>
     </row>
     <row r="260" ht="15" customHeight="1">
       <c r="F260" t="n">
-        <v>0.0205338863693154</v>
+        <v>0.005010401921855243</v>
       </c>
       <c r="G260" t="n">
-        <v>0.3230856736856945</v>
+        <v>0.05253218829401728</v>
       </c>
       <c r="J260" t="n">
-        <v>0.01529356706002284</v>
+        <v>0.02351817175667709</v>
       </c>
       <c r="K260" t="n">
-        <v>0.3251052886337379</v>
+        <v>0.163439702844485</v>
       </c>
       <c r="L260" t="n">
-        <v>0.0317113303907495</v>
+        <v>0.04915312849214609</v>
       </c>
       <c r="M260" t="n">
-        <v>0.326352641118784</v>
+        <v>0.1624979940866971</v>
       </c>
       <c r="N260" t="n">
-        <v>0.04879426130364928</v>
+        <v>0.07418791268162533</v>
       </c>
       <c r="O260" t="n">
-        <v>0.3237369609404434</v>
+        <v>0.1618903419452037</v>
       </c>
     </row>
     <row r="261" ht="15" customHeight="1">
       <c r="F261" t="n">
-        <v>0.02110095588780966</v>
+        <v>0.005005872256488769</v>
       </c>
       <c r="G261" t="n">
-        <v>0.3247425232943391</v>
+        <v>0.05248162124036687</v>
       </c>
       <c r="J261" t="n">
-        <v>0.01489614386732437</v>
+        <v>0.02361107662229497</v>
       </c>
       <c r="K261" t="n">
-        <v>0.326772495242116</v>
+        <v>0.1642778551667644</v>
       </c>
       <c r="L261" t="n">
-        <v>0.03098874221295014</v>
+        <v>0.04893842327587339</v>
       </c>
       <c r="M261" t="n">
-        <v>0.3280262444065727</v>
+        <v>0.1633313171332955</v>
       </c>
       <c r="N261" t="n">
-        <v>0.04765509208968238</v>
+        <v>0.07446564298442532</v>
       </c>
       <c r="O261" t="n">
-        <v>0.3253971504837277</v>
+        <v>0.162720548826974</v>
       </c>
     </row>
     <row r="262" ht="15" customHeight="1">
       <c r="F262" t="n">
-        <v>0.0216659731131784</v>
+        <v>0.005002619303081768</v>
       </c>
       <c r="G262" t="n">
-        <v>0.3263993729029837</v>
+        <v>0.05243105418671647</v>
       </c>
       <c r="J262" t="n">
-        <v>0.01459730210781617</v>
+        <v>0.02360412027796971</v>
       </c>
       <c r="K262" t="n">
-        <v>0.3284397018504942</v>
+        <v>0.1651160074890438</v>
       </c>
       <c r="L262" t="n">
-        <v>0.03086317341638706</v>
+        <v>0.04892400423063784</v>
       </c>
       <c r="M262" t="n">
-        <v>0.3296998476943613</v>
+        <v>0.164164640179894</v>
       </c>
       <c r="N262" t="n">
-        <v>0.04631146197353164</v>
+        <v>0.07414380521711433</v>
       </c>
       <c r="O262" t="n">
-        <v>0.327057340027012</v>
+        <v>0.1635507557087443</v>
       </c>
     </row>
     <row r="263" ht="15" customHeight="1">
       <c r="F263" t="n">
-        <v>0.02022891351609685</v>
+        <v>0.005000657178597684</v>
       </c>
       <c r="G263" t="n">
-        <v>0.3280562225116282</v>
+        <v>0.05238048713306607</v>
       </c>
       <c r="J263" t="n">
-        <v>0.01439702471675801</v>
+        <v>0.02339730449622766</v>
       </c>
       <c r="K263" t="n">
-        <v>0.3301069084588724</v>
+        <v>0.1659541598113232</v>
       </c>
       <c r="L263" t="n">
-        <v>0.0299345880029622</v>
+        <v>0.04920987498934928</v>
       </c>
       <c r="M263" t="n">
-        <v>0.33137345098215</v>
+        <v>0.1649979632264924</v>
       </c>
       <c r="N263" t="n">
-        <v>0.04526331752646379</v>
+        <v>0.07402240484171246</v>
       </c>
       <c r="O263" t="n">
-        <v>0.3287175295702964</v>
+        <v>0.1643809625905146</v>
       </c>
     </row>
     <row r="264" ht="15" customHeight="1">
       <c r="F264" t="n">
-        <v>0.01878975256724037</v>
+        <v>0.005000000000000004</v>
       </c>
       <c r="G264" t="n">
-        <v>0.3297130721202728</v>
+        <v>0.05232992007941566</v>
       </c>
       <c r="J264" t="n">
-        <v>0.01419529462940959</v>
+        <v>0.0235906310495953</v>
       </c>
       <c r="K264" t="n">
-        <v>0.3317741150672505</v>
+        <v>0.1667923121336026</v>
       </c>
       <c r="L264" t="n">
-        <v>0.02940294997457749</v>
+        <v>0.04909603918491756</v>
       </c>
       <c r="M264" t="n">
-        <v>0.3330470542699386</v>
+        <v>0.1658312862730909</v>
       </c>
       <c r="N264" t="n">
-        <v>0.04471060531974536</v>
+        <v>0.07400144732023978</v>
       </c>
       <c r="O264" t="n">
-        <v>0.3303777191135808</v>
-      </c>
-    </row>
-    <row r="265" ht="15" customHeight="1"/>
-    <row r="266" ht="15" customHeight="1"/>
-    <row r="267" ht="15" customHeight="1"/>
-    <row r="268" ht="15" customHeight="1"/>
-    <row r="269" ht="15" customHeight="1"/>
-    <row r="270" ht="15" customHeight="1"/>
-    <row r="271" ht="15" customHeight="1"/>
-    <row r="272" ht="15" customHeight="1"/>
-    <row r="273" ht="15" customHeight="1"/>
-    <row r="274" ht="15" customHeight="1"/>
-    <row r="275" ht="15" customHeight="1"/>
-    <row r="276" ht="15" customHeight="1"/>
-    <row r="277" ht="15" customHeight="1"/>
-    <row r="278" ht="15" customHeight="1"/>
-    <row r="279" ht="15" customHeight="1"/>
-    <row r="280" ht="15" customHeight="1"/>
-    <row r="281" ht="15" customHeight="1"/>
-    <row r="282" ht="15" customHeight="1"/>
-    <row r="283" ht="15" customHeight="1"/>
-    <row r="284" ht="15" customHeight="1"/>
-    <row r="285" ht="15" customHeight="1"/>
-    <row r="286" ht="15" customHeight="1"/>
-    <row r="287" ht="15" customHeight="1"/>
-    <row r="288" ht="15" customHeight="1"/>
-    <row r="289" ht="15" customHeight="1"/>
-    <row r="290" ht="15" customHeight="1"/>
-    <row r="291" ht="15" customHeight="1"/>
-    <row r="292" ht="15" customHeight="1"/>
-    <row r="293" ht="15" customHeight="1"/>
-    <row r="294" ht="15" customHeight="1"/>
-    <row r="295" ht="15" customHeight="1"/>
-    <row r="296" ht="15" customHeight="1"/>
-    <row r="297" ht="15" customHeight="1"/>
-    <row r="298" ht="15" customHeight="1"/>
-    <row r="299" ht="15" customHeight="1"/>
-    <row r="300" ht="15" customHeight="1"/>
-    <row r="301" ht="15" customHeight="1"/>
-    <row r="302" ht="15" customHeight="1"/>
-    <row r="303" ht="15" customHeight="1"/>
-    <row r="304" ht="15" customHeight="1"/>
-    <row r="305" ht="15" customHeight="1"/>
-    <row r="306" ht="15" customHeight="1"/>
-    <row r="307" ht="15" customHeight="1"/>
-    <row r="308" ht="15" customHeight="1"/>
-    <row r="309" ht="15" customHeight="1"/>
-    <row r="310" ht="15" customHeight="1"/>
-    <row r="311" ht="15" customHeight="1"/>
-    <row r="312" ht="15" customHeight="1"/>
-    <row r="313" ht="15" customHeight="1"/>
-    <row r="314" ht="15" customHeight="1"/>
-    <row r="315" ht="15" customHeight="1"/>
-    <row r="316" ht="15" customHeight="1"/>
-    <row r="317" ht="15" customHeight="1"/>
-    <row r="318" ht="15" customHeight="1"/>
-    <row r="319" ht="15" customHeight="1"/>
-    <row r="320" ht="15" customHeight="1"/>
-    <row r="321" ht="15" customHeight="1"/>
-    <row r="322" ht="15" customHeight="1"/>
-    <row r="323" ht="15" customHeight="1"/>
-    <row r="324" ht="15" customHeight="1"/>
-    <row r="325" ht="15" customHeight="1"/>
-    <row r="326" ht="15" customHeight="1"/>
-    <row r="327" ht="15" customHeight="1"/>
-    <row r="328" ht="15" customHeight="1"/>
-    <row r="329" ht="15" customHeight="1"/>
-    <row r="330" ht="15" customHeight="1"/>
-    <row r="331" ht="15" customHeight="1"/>
-    <row r="332" ht="15" customHeight="1"/>
-    <row r="333" ht="15" customHeight="1"/>
-    <row r="334" ht="15" customHeight="1"/>
-    <row r="335" ht="15" customHeight="1"/>
-    <row r="336" ht="15" customHeight="1"/>
-    <row r="337" ht="15" customHeight="1"/>
-    <row r="338" ht="15" customHeight="1"/>
-    <row r="339" ht="15" customHeight="1"/>
-    <row r="340" ht="15" customHeight="1"/>
-    <row r="341" ht="15" customHeight="1"/>
-    <row r="342" ht="15" customHeight="1"/>
-    <row r="343" ht="15" customHeight="1"/>
-    <row r="344" ht="15" customHeight="1"/>
-    <row r="345" ht="15" customHeight="1"/>
-    <row r="346" ht="15" customHeight="1"/>
-    <row r="347" ht="15" customHeight="1"/>
-    <row r="348" ht="15" customHeight="1"/>
-    <row r="349" ht="15" customHeight="1"/>
-    <row r="350" ht="15" customHeight="1"/>
-    <row r="351" ht="15" customHeight="1"/>
-    <row r="352" ht="15" customHeight="1"/>
-    <row r="353" ht="15" customHeight="1"/>
-    <row r="354" ht="15" customHeight="1"/>
-    <row r="355" ht="15" customHeight="1"/>
-    <row r="356" ht="15" customHeight="1"/>
-    <row r="357" ht="15" customHeight="1"/>
-    <row r="358" ht="15" customHeight="1"/>
-    <row r="359" ht="15" customHeight="1"/>
-    <row r="360" ht="15" customHeight="1"/>
-    <row r="361" ht="15" customHeight="1"/>
-    <row r="362" ht="15" customHeight="1"/>
-    <row r="363" ht="15" customHeight="1"/>
-    <row r="364" ht="15" customHeight="1"/>
-    <row r="365" ht="15" customHeight="1"/>
-    <row r="366" ht="15" customHeight="1"/>
-    <row r="367" ht="15" customHeight="1"/>
-    <row r="368" ht="15" customHeight="1"/>
-    <row r="369" ht="15" customHeight="1"/>
-    <row r="370" ht="15" customHeight="1"/>
-    <row r="371" ht="15" customHeight="1"/>
-    <row r="372" ht="15" customHeight="1"/>
-    <row r="373" ht="15" customHeight="1"/>
-    <row r="374" ht="15" customHeight="1"/>
-    <row r="375" ht="15" customHeight="1"/>
-    <row r="376" ht="15" customHeight="1"/>
-    <row r="377" ht="15" customHeight="1"/>
-    <row r="378" ht="15" customHeight="1"/>
-    <row r="379" ht="15" customHeight="1"/>
-    <row r="380" ht="15" customHeight="1"/>
-    <row r="381" ht="15" customHeight="1"/>
-    <row r="382" ht="15" customHeight="1"/>
-    <row r="383" ht="15" customHeight="1"/>
-    <row r="384" ht="15" customHeight="1"/>
-    <row r="385" ht="15" customHeight="1"/>
-    <row r="386" ht="15" customHeight="1"/>
-    <row r="387" ht="15" customHeight="1"/>
-    <row r="388" ht="15" customHeight="1"/>
-    <row r="389" ht="15" customHeight="1"/>
-    <row r="390" ht="15" customHeight="1"/>
-    <row r="391" ht="15" customHeight="1"/>
-    <row r="392" ht="15" customHeight="1"/>
-    <row r="393" ht="15" customHeight="1"/>
-    <row r="394" ht="15" customHeight="1"/>
-    <row r="395" ht="15" customHeight="1"/>
-    <row r="396" ht="15" customHeight="1"/>
-    <row r="397" ht="15" customHeight="1"/>
-    <row r="398" ht="15" customHeight="1"/>
-    <row r="399" ht="15" customHeight="1"/>
-    <row r="400" ht="15" customHeight="1"/>
-    <row r="401" ht="15" customHeight="1"/>
-    <row r="402" ht="15" customHeight="1"/>
-    <row r="403" ht="15" customHeight="1"/>
-    <row r="404" ht="15" customHeight="1"/>
-    <row r="405" ht="15" customHeight="1"/>
-    <row r="406" ht="15" customHeight="1"/>
-    <row r="407" ht="15" customHeight="1"/>
-    <row r="408" ht="15" customHeight="1"/>
-    <row r="409" ht="15" customHeight="1"/>
-    <row r="410" ht="15" customHeight="1"/>
-    <row r="411" ht="15" customHeight="1"/>
-    <row r="412" ht="15" customHeight="1"/>
-    <row r="413" ht="15" customHeight="1"/>
-    <row r="414" ht="15" customHeight="1"/>
-    <row r="415" ht="15" customHeight="1"/>
-    <row r="416" ht="15" customHeight="1"/>
-    <row r="417" ht="15" customHeight="1"/>
-    <row r="418" ht="15" customHeight="1"/>
-    <row r="419" ht="15" customHeight="1"/>
-    <row r="420" ht="15" customHeight="1"/>
-    <row r="421" ht="15" customHeight="1"/>
-    <row r="422" ht="15" customHeight="1"/>
-    <row r="423" ht="15" customHeight="1"/>
-    <row r="424" ht="15" customHeight="1"/>
-    <row r="425" ht="15" customHeight="1"/>
-    <row r="426" ht="15" customHeight="1"/>
-    <row r="427" ht="15" customHeight="1"/>
-    <row r="428" ht="15" customHeight="1"/>
-    <row r="429" ht="15" customHeight="1"/>
-    <row r="430" ht="15" customHeight="1"/>
-    <row r="431" ht="15" customHeight="1"/>
-    <row r="432" ht="15" customHeight="1"/>
-    <row r="433" ht="15" customHeight="1"/>
-    <row r="434" ht="15" customHeight="1"/>
-    <row r="435" ht="15" customHeight="1"/>
-    <row r="436" ht="15" customHeight="1"/>
-    <row r="437" ht="15" customHeight="1"/>
-    <row r="438" ht="15" customHeight="1"/>
-    <row r="439" ht="15" customHeight="1"/>
-    <row r="440" ht="15" customHeight="1"/>
-    <row r="441" ht="15" customHeight="1"/>
-    <row r="442" ht="15" customHeight="1"/>
-    <row r="443" ht="15" customHeight="1"/>
-    <row r="444" ht="15" customHeight="1"/>
-    <row r="445" ht="15" customHeight="1"/>
-    <row r="446" ht="15" customHeight="1"/>
-    <row r="447" ht="15" customHeight="1"/>
-    <row r="448" ht="15" customHeight="1"/>
-    <row r="449" ht="15" customHeight="1"/>
-    <row r="450" ht="15" customHeight="1"/>
-    <row r="451" ht="15" customHeight="1"/>
-    <row r="452" ht="15" customHeight="1"/>
-    <row r="453" ht="15" customHeight="1"/>
-    <row r="454" ht="15" customHeight="1"/>
-    <row r="455" ht="15" customHeight="1"/>
-    <row r="456" ht="15" customHeight="1"/>
-    <row r="457" ht="15" customHeight="1"/>
-    <row r="458" ht="15" customHeight="1"/>
-    <row r="459" ht="15" customHeight="1"/>
-    <row r="460" ht="15" customHeight="1"/>
-    <row r="461" ht="15" customHeight="1"/>
-    <row r="462" ht="15" customHeight="1"/>
-    <row r="463" ht="15" customHeight="1"/>
-    <row r="464" ht="15" customHeight="1"/>
+        <v>0.1652111694722848</v>
+      </c>
+    </row>
+    <row r="265" ht="15" customHeight="1">
+      <c r="F265" t="n">
+        <v>0.005000000000000004</v>
+      </c>
+      <c r="G265" t="n">
+        <v>0.05231676218467882</v>
+      </c>
+    </row>
+    <row r="266" ht="15" customHeight="1">
+      <c r="F266" t="n">
+        <v>0.005433170085647074</v>
+      </c>
+      <c r="G266" t="n">
+        <v>0.05231703071314284</v>
+      </c>
+    </row>
+    <row r="267" ht="15" customHeight="1">
+      <c r="F267" t="n">
+        <v>0.005862312360821464</v>
+      </c>
+      <c r="G267" t="n">
+        <v>0.05231729924160686</v>
+      </c>
+    </row>
+    <row r="268" ht="15" customHeight="1">
+      <c r="F268" t="n">
+        <v>0.006287317308260654</v>
+      </c>
+      <c r="G268" t="n">
+        <v>0.05231756777007087</v>
+      </c>
+    </row>
+    <row r="269" ht="15" customHeight="1">
+      <c r="F269" t="n">
+        <v>0.006708075410739311</v>
+      </c>
+      <c r="G269" t="n">
+        <v>0.05231783629853489</v>
+      </c>
+    </row>
+    <row r="270" ht="15" customHeight="1">
+      <c r="F270" t="n">
+        <v>0.007124477150995276</v>
+      </c>
+      <c r="G270" t="n">
+        <v>0.0523181048269989</v>
+      </c>
+    </row>
+    <row r="271" ht="15" customHeight="1">
+      <c r="F271" t="n">
+        <v>0.007536413011802801</v>
+      </c>
+      <c r="G271" t="n">
+        <v>0.05231837335546292</v>
+      </c>
+    </row>
+    <row r="272" ht="15" customHeight="1">
+      <c r="F272" t="n">
+        <v>0.007943773475900126</v>
+      </c>
+      <c r="G272" t="n">
+        <v>0.05231864188392694</v>
+      </c>
+    </row>
+    <row r="273" ht="15" customHeight="1">
+      <c r="F273" t="n">
+        <v>0.008346449026061131</v>
+      </c>
+      <c r="G273" t="n">
+        <v>0.05231891041239096</v>
+      </c>
+    </row>
+    <row r="274" ht="15" customHeight="1">
+      <c r="F274" t="n">
+        <v>0.008744330145024473</v>
+      </c>
+      <c r="G274" t="n">
+        <v>0.05231917894085497</v>
+      </c>
+    </row>
+    <row r="275" ht="15" customHeight="1">
+      <c r="F275" t="n">
+        <v>0.009137307315563614</v>
+      </c>
+      <c r="G275" t="n">
+        <v>0.05231944746931899</v>
+      </c>
+    </row>
+    <row r="276" ht="15" customHeight="1">
+      <c r="F276" t="n">
+        <v>0.009525271020417572</v>
+      </c>
+      <c r="G276" t="n">
+        <v>0.05231971599778301</v>
+      </c>
+    </row>
+    <row r="277" ht="15" customHeight="1">
+      <c r="F277" t="n">
+        <v>0.009908111742359393</v>
+      </c>
+      <c r="G277" t="n">
+        <v>0.05231998452624703</v>
+      </c>
+    </row>
+    <row r="278" ht="15" customHeight="1">
+      <c r="F278" t="n">
+        <v>0.01028571996412861</v>
+      </c>
+      <c r="G278" t="n">
+        <v>0.05232025305471105</v>
+      </c>
+    </row>
+    <row r="279" ht="15" customHeight="1">
+      <c r="F279" t="n">
+        <v>0.01065798616849778</v>
+      </c>
+      <c r="G279" t="n">
+        <v>0.05232052158317507</v>
+      </c>
+    </row>
+    <row r="280" ht="15" customHeight="1">
+      <c r="F280" t="n">
+        <v>0.01102480083820688</v>
+      </c>
+      <c r="G280" t="n">
+        <v>0.05232079011163908</v>
+      </c>
+    </row>
+    <row r="281" ht="15" customHeight="1">
+      <c r="F281" t="n">
+        <v>0.01138605445602799</v>
+      </c>
+      <c r="G281" t="n">
+        <v>0.0523210586401031</v>
+      </c>
+    </row>
+    <row r="282" ht="15" customHeight="1">
+      <c r="F282" t="n">
+        <v>0.01174163750470156</v>
+      </c>
+      <c r="G282" t="n">
+        <v>0.05232132716856711</v>
+      </c>
+    </row>
+    <row r="283" ht="15" customHeight="1">
+      <c r="F283" t="n">
+        <v>0.01209144046699169</v>
+      </c>
+      <c r="G283" t="n">
+        <v>0.05232159569703113</v>
+      </c>
+    </row>
+    <row r="284" ht="15" customHeight="1">
+      <c r="F284" t="n">
+        <v>0.01243535382566194</v>
+      </c>
+      <c r="G284" t="n">
+        <v>0.05232186422549515</v>
+      </c>
+    </row>
+    <row r="285" ht="15" customHeight="1">
+      <c r="F285" t="n">
+        <v>0.01277326806345348</v>
+      </c>
+      <c r="G285" t="n">
+        <v>0.05232213275395916</v>
+      </c>
+    </row>
+    <row r="286" ht="15" customHeight="1">
+      <c r="F286" t="n">
+        <v>0.01310507366313721</v>
+      </c>
+      <c r="G286" t="n">
+        <v>0.05232240128242318</v>
+      </c>
+    </row>
+    <row r="287" ht="15" customHeight="1">
+      <c r="F287" t="n">
+        <v>0.01343066110745485</v>
+      </c>
+      <c r="G287" t="n">
+        <v>0.0523226698108872</v>
+      </c>
+    </row>
+    <row r="288" ht="15" customHeight="1">
+      <c r="F288" t="n">
+        <v>0.01374992087917666</v>
+      </c>
+      <c r="G288" t="n">
+        <v>0.05232293833935122</v>
+      </c>
+    </row>
+    <row r="289" ht="15" customHeight="1">
+      <c r="F289" t="n">
+        <v>0.01406274346104497</v>
+      </c>
+      <c r="G289" t="n">
+        <v>0.05232320686781523</v>
+      </c>
+    </row>
+    <row r="290" ht="15" customHeight="1">
+      <c r="F290" t="n">
+        <v>0.01436946653124185</v>
+      </c>
+      <c r="G290" t="n">
+        <v>0.05232347539627925</v>
+      </c>
+    </row>
+    <row r="291" ht="15" customHeight="1">
+      <c r="F291" t="n">
+        <v>0.01467266374498431</v>
+      </c>
+      <c r="G291" t="n">
+        <v>0.05232374392474327</v>
+      </c>
+    </row>
+    <row r="292" ht="15" customHeight="1">
+      <c r="F292" t="n">
+        <v>0.01497267278045411</v>
+      </c>
+      <c r="G292" t="n">
+        <v>0.05232401245320729</v>
+      </c>
+    </row>
+    <row r="293" ht="15" customHeight="1">
+      <c r="F293" t="n">
+        <v>0.01526938412039433</v>
+      </c>
+      <c r="G293" t="n">
+        <v>0.0523242809816713</v>
+      </c>
+    </row>
+    <row r="294" ht="15" customHeight="1">
+      <c r="F294" t="n">
+        <v>0.01556268824757404</v>
+      </c>
+      <c r="G294" t="n">
+        <v>0.05232454951013532</v>
+      </c>
+    </row>
+    <row r="295" ht="15" customHeight="1">
+      <c r="F295" t="n">
+        <v>0.01585247564473662</v>
+      </c>
+      <c r="G295" t="n">
+        <v>0.05232481803859933</v>
+      </c>
+    </row>
+    <row r="296" ht="15" customHeight="1">
+      <c r="F296" t="n">
+        <v>0.01613863679465084</v>
+      </c>
+      <c r="G296" t="n">
+        <v>0.05232508656706335</v>
+      </c>
+    </row>
+    <row r="297" ht="15" customHeight="1">
+      <c r="F297" t="n">
+        <v>0.01642106218006041</v>
+      </c>
+      <c r="G297" t="n">
+        <v>0.05232535509552737</v>
+      </c>
+    </row>
+    <row r="298" ht="15" customHeight="1">
+      <c r="F298" t="n">
+        <v>0.01669964228372778</v>
+      </c>
+      <c r="G298" t="n">
+        <v>0.05232562362399138</v>
+      </c>
+    </row>
+    <row r="299" ht="15" customHeight="1">
+      <c r="F299" t="n">
+        <v>0.01697426758841498</v>
+      </c>
+      <c r="G299" t="n">
+        <v>0.0523258921524554</v>
+      </c>
+    </row>
+    <row r="300" ht="15" customHeight="1">
+      <c r="F300" t="n">
+        <v>0.01724482857686627</v>
+      </c>
+      <c r="G300" t="n">
+        <v>0.05232616068091942</v>
+      </c>
+    </row>
+    <row r="301" ht="15" customHeight="1">
+      <c r="F301" t="n">
+        <v>0.01751121573184952</v>
+      </c>
+      <c r="G301" t="n">
+        <v>0.05232642920938344</v>
+      </c>
+    </row>
+    <row r="302" ht="15" customHeight="1">
+      <c r="F302" t="n">
+        <v>0.01777331953610936</v>
+      </c>
+      <c r="G302" t="n">
+        <v>0.05232669773784746</v>
+      </c>
+    </row>
+    <row r="303" ht="15" customHeight="1">
+      <c r="F303" t="n">
+        <v>0.01803103047241331</v>
+      </c>
+      <c r="G303" t="n">
+        <v>0.05232696626631148</v>
+      </c>
+    </row>
+    <row r="304" ht="15" customHeight="1">
+      <c r="F304" t="n">
+        <v>0.01828423902350632</v>
+      </c>
+      <c r="G304" t="n">
+        <v>0.05232723479477549</v>
+      </c>
+    </row>
+    <row r="305" ht="15" customHeight="1">
+      <c r="F305" t="n">
+        <v>0.01853283567215552</v>
+      </c>
+      <c r="G305" t="n">
+        <v>0.05232750332323951</v>
+      </c>
+    </row>
+    <row r="306" ht="15" customHeight="1">
+      <c r="F306" t="n">
+        <v>0.01877671090110634</v>
+      </c>
+      <c r="G306" t="n">
+        <v>0.05232777185170352</v>
+      </c>
+    </row>
+    <row r="307" ht="15" customHeight="1">
+      <c r="F307" t="n">
+        <v>0.01901575519312547</v>
+      </c>
+      <c r="G307" t="n">
+        <v>0.05232804038016754</v>
+      </c>
+    </row>
+    <row r="308" ht="15" customHeight="1">
+      <c r="F308" t="n">
+        <v>0.01924985903095867</v>
+      </c>
+      <c r="G308" t="n">
+        <v>0.05232830890863156</v>
+      </c>
+    </row>
+    <row r="309" ht="15" customHeight="1">
+      <c r="F309" t="n">
+        <v>0.01947891289737232</v>
+      </c>
+      <c r="G309" t="n">
+        <v>0.05232857743709558</v>
+      </c>
+    </row>
+    <row r="310" ht="15" customHeight="1">
+      <c r="F310" t="n">
+        <v>0.01970280727511257</v>
+      </c>
+      <c r="G310" t="n">
+        <v>0.05232884596555959</v>
+      </c>
+    </row>
+    <row r="311" ht="15" customHeight="1">
+      <c r="F311" t="n">
+        <v>0.01992143264694535</v>
+      </c>
+      <c r="G311" t="n">
+        <v>0.05232911449402361</v>
+      </c>
+    </row>
+    <row r="312" ht="15" customHeight="1">
+      <c r="F312" t="n">
+        <v>0.02013467949561726</v>
+      </c>
+      <c r="G312" t="n">
+        <v>0.05232938302248763</v>
+      </c>
+    </row>
+    <row r="313" ht="15" customHeight="1">
+      <c r="F313" t="n">
+        <v>0.02034243830389376</v>
+      </c>
+      <c r="G313" t="n">
+        <v>0.05232965155095165</v>
+      </c>
+    </row>
+    <row r="314" ht="15" customHeight="1">
+      <c r="F314" t="n">
+        <v>0.02054459955452197</v>
+      </c>
+      <c r="G314" t="n">
+        <v>0.05232992007941566</v>
+      </c>
+    </row>
+    <row r="315" ht="15" customHeight="1">
+      <c r="F315" t="n">
+        <v>0.02054459955452197</v>
+      </c>
+      <c r="G315" t="n">
+        <v>0.05231676218467882</v>
+      </c>
+    </row>
+    <row r="316" ht="15" customHeight="1">
+      <c r="F316" t="n">
+        <v>0.0207917027614013</v>
+      </c>
+      <c r="G316" t="n">
+        <v>0.05236786629525726</v>
+      </c>
+    </row>
+    <row r="317" ht="15" customHeight="1">
+      <c r="F317" t="n">
+        <v>0.02103618050366741</v>
+      </c>
+      <c r="G317" t="n">
+        <v>0.0524189704058357</v>
+      </c>
+    </row>
+    <row r="318" ht="15" customHeight="1">
+      <c r="F318" t="n">
+        <v>0.02127762953946409</v>
+      </c>
+      <c r="G318" t="n">
+        <v>0.05247007451641414</v>
+      </c>
+    </row>
+    <row r="319" ht="15" customHeight="1">
+      <c r="F319" t="n">
+        <v>0.02151564662693503</v>
+      </c>
+      <c r="G319" t="n">
+        <v>0.05252117862699258</v>
+      </c>
+    </row>
+    <row r="320" ht="15" customHeight="1">
+      <c r="F320" t="n">
+        <v>0.02174982852422398</v>
+      </c>
+      <c r="G320" t="n">
+        <v>0.05257228273757101</v>
+      </c>
+    </row>
+    <row r="321" ht="15" customHeight="1">
+      <c r="F321" t="n">
+        <v>0.02197977198947473</v>
+      </c>
+      <c r="G321" t="n">
+        <v>0.05262338684814945</v>
+      </c>
+    </row>
+    <row r="322" ht="15" customHeight="1">
+      <c r="F322" t="n">
+        <v>0.02220507378083102</v>
+      </c>
+      <c r="G322" t="n">
+        <v>0.05267449095872789</v>
+      </c>
+    </row>
+    <row r="323" ht="15" customHeight="1">
+      <c r="F323" t="n">
+        <v>0.02242533065643655</v>
+      </c>
+      <c r="G323" t="n">
+        <v>0.05272559506930632</v>
+      </c>
+    </row>
+    <row r="324" ht="15" customHeight="1">
+      <c r="F324" t="n">
+        <v>0.02264013937443508</v>
+      </c>
+      <c r="G324" t="n">
+        <v>0.05277669917988476</v>
+      </c>
+    </row>
+    <row r="325" ht="15" customHeight="1">
+      <c r="F325" t="n">
+        <v>0.02284909669297036</v>
+      </c>
+      <c r="G325" t="n">
+        <v>0.0528278032904632</v>
+      </c>
+    </row>
+    <row r="326" ht="15" customHeight="1">
+      <c r="F326" t="n">
+        <v>0.02305179937018614</v>
+      </c>
+      <c r="G326" t="n">
+        <v>0.05287890740104164</v>
+      </c>
+    </row>
+    <row r="327" ht="15" customHeight="1">
+      <c r="F327" t="n">
+        <v>0.02324784416422615</v>
+      </c>
+      <c r="G327" t="n">
+        <v>0.05293001151162008</v>
+      </c>
+    </row>
+    <row r="328" ht="15" customHeight="1">
+      <c r="F328" t="n">
+        <v>0.02343682783323417</v>
+      </c>
+      <c r="G328" t="n">
+        <v>0.05298111562219852</v>
+      </c>
+    </row>
+    <row r="329" ht="15" customHeight="1">
+      <c r="F329" t="n">
+        <v>0.02361834713535386</v>
+      </c>
+      <c r="G329" t="n">
+        <v>0.05303221973277696</v>
+      </c>
+    </row>
+    <row r="330" ht="15" customHeight="1">
+      <c r="F330" t="n">
+        <v>0.02379199882872907</v>
+      </c>
+      <c r="G330" t="n">
+        <v>0.0530833238433554</v>
+      </c>
+    </row>
+    <row r="331" ht="15" customHeight="1">
+      <c r="F331" t="n">
+        <v>0.02395737967150346</v>
+      </c>
+      <c r="G331" t="n">
+        <v>0.05313442795393384</v>
+      </c>
+    </row>
+    <row r="332" ht="15" customHeight="1">
+      <c r="F332" t="n">
+        <v>0.02411408642182084</v>
+      </c>
+      <c r="G332" t="n">
+        <v>0.05318553206451228</v>
+      </c>
+    </row>
+    <row r="333" ht="15" customHeight="1">
+      <c r="F333" t="n">
+        <v>0.0242617158378249</v>
+      </c>
+      <c r="G333" t="n">
+        <v>0.05323663617509072</v>
+      </c>
+    </row>
+    <row r="334" ht="15" customHeight="1">
+      <c r="F334" t="n">
+        <v>0.02439986467765941</v>
+      </c>
+      <c r="G334" t="n">
+        <v>0.05328774028566916</v>
+      </c>
+    </row>
+    <row r="335" ht="15" customHeight="1">
+      <c r="F335" t="n">
+        <v>0.02452812969946809</v>
+      </c>
+      <c r="G335" t="n">
+        <v>0.05333884439624758</v>
+      </c>
+    </row>
+    <row r="336" ht="15" customHeight="1">
+      <c r="F336" t="n">
+        <v>0.02464610766139474</v>
+      </c>
+      <c r="G336" t="n">
+        <v>0.05338994850682602</v>
+      </c>
+    </row>
+    <row r="337" ht="15" customHeight="1">
+      <c r="F337" t="n">
+        <v>0.02475339532158305</v>
+      </c>
+      <c r="G337" t="n">
+        <v>0.05344105261740446</v>
+      </c>
+    </row>
+    <row r="338" ht="15" customHeight="1">
+      <c r="F338" t="n">
+        <v>0.02484958943817681</v>
+      </c>
+      <c r="G338" t="n">
+        <v>0.0534921567279829</v>
+      </c>
+    </row>
+    <row r="339" ht="15" customHeight="1">
+      <c r="F339" t="n">
+        <v>0.02493428676931971</v>
+      </c>
+      <c r="G339" t="n">
+        <v>0.05354326083856133</v>
+      </c>
+    </row>
+    <row r="340" ht="15" customHeight="1">
+      <c r="F340" t="n">
+        <v>0.02500851102218435</v>
+      </c>
+      <c r="G340" t="n">
+        <v>0.05359436494913977</v>
+      </c>
+    </row>
+    <row r="341" ht="15" customHeight="1">
+      <c r="F341" t="n">
+        <v>0.02508050300729392</v>
+      </c>
+      <c r="G341" t="n">
+        <v>0.05364546905971821</v>
+      </c>
+    </row>
+    <row r="342" ht="15" customHeight="1">
+      <c r="F342" t="n">
+        <v>0.02515149690279338</v>
+      </c>
+      <c r="G342" t="n">
+        <v>0.05369657317029666</v>
+      </c>
+    </row>
+    <row r="343" ht="15" customHeight="1">
+      <c r="F343" t="n">
+        <v>0.02522130908871068</v>
+      </c>
+      <c r="G343" t="n">
+        <v>0.05374767728087509</v>
+      </c>
+    </row>
+    <row r="344" ht="15" customHeight="1">
+      <c r="F344" t="n">
+        <v>0.02528975594507381</v>
+      </c>
+      <c r="G344" t="n">
+        <v>0.05379878139145353</v>
+      </c>
+    </row>
+    <row r="345" ht="15" customHeight="1">
+      <c r="F345" t="n">
+        <v>0.02535665385191077</v>
+      </c>
+      <c r="G345" t="n">
+        <v>0.05384988550203197</v>
+      </c>
+    </row>
+    <row r="346" ht="15" customHeight="1">
+      <c r="F346" t="n">
+        <v>0.0254218191892495</v>
+      </c>
+      <c r="G346" t="n">
+        <v>0.05390098961261041</v>
+      </c>
+    </row>
+    <row r="347" ht="15" customHeight="1">
+      <c r="F347" t="n">
+        <v>0.025485068337118</v>
+      </c>
+      <c r="G347" t="n">
+        <v>0.05395209372318885</v>
+      </c>
+    </row>
+    <row r="348" ht="15" customHeight="1">
+      <c r="F348" t="n">
+        <v>0.02554621767554423</v>
+      </c>
+      <c r="G348" t="n">
+        <v>0.05400319783376729</v>
+      </c>
+    </row>
+    <row r="349" ht="15" customHeight="1">
+      <c r="F349" t="n">
+        <v>0.02560508358455617</v>
+      </c>
+      <c r="G349" t="n">
+        <v>0.05405430194434573</v>
+      </c>
+    </row>
+    <row r="350" ht="15" customHeight="1">
+      <c r="F350" t="n">
+        <v>0.0256614824441818</v>
+      </c>
+      <c r="G350" t="n">
+        <v>0.05410540605492416</v>
+      </c>
+    </row>
+    <row r="351" ht="15" customHeight="1">
+      <c r="F351" t="n">
+        <v>0.02571523063444908</v>
+      </c>
+      <c r="G351" t="n">
+        <v>0.0541565101655026</v>
+      </c>
+    </row>
+    <row r="352" ht="15" customHeight="1">
+      <c r="F352" t="n">
+        <v>0.02576614453538599</v>
+      </c>
+      <c r="G352" t="n">
+        <v>0.05420761427608104</v>
+      </c>
+    </row>
+    <row r="353" ht="15" customHeight="1">
+      <c r="F353" t="n">
+        <v>0.02581404052702053</v>
+      </c>
+      <c r="G353" t="n">
+        <v>0.05425871838665948</v>
+      </c>
+    </row>
+    <row r="354" ht="15" customHeight="1">
+      <c r="F354" t="n">
+        <v>0.02585873498938067</v>
+      </c>
+      <c r="G354" t="n">
+        <v>0.05430982249723792</v>
+      </c>
+    </row>
+    <row r="355" ht="15" customHeight="1">
+      <c r="F355" t="n">
+        <v>0.02590004430249436</v>
+      </c>
+      <c r="G355" t="n">
+        <v>0.05436092660781635</v>
+      </c>
+    </row>
+    <row r="356" ht="15" customHeight="1">
+      <c r="F356" t="n">
+        <v>0.02593778484638959</v>
+      </c>
+      <c r="G356" t="n">
+        <v>0.05441203071839479</v>
+      </c>
+    </row>
+    <row r="357" ht="15" customHeight="1">
+      <c r="F357" t="n">
+        <v>0.02597177300109432</v>
+      </c>
+      <c r="G357" t="n">
+        <v>0.05446313482897323</v>
+      </c>
+    </row>
+    <row r="358" ht="15" customHeight="1">
+      <c r="F358" t="n">
+        <v>0.02600182514663656</v>
+      </c>
+      <c r="G358" t="n">
+        <v>0.05451423893955167</v>
+      </c>
+    </row>
+    <row r="359" ht="15" customHeight="1">
+      <c r="F359" t="n">
+        <v>0.02602775766304427</v>
+      </c>
+      <c r="G359" t="n">
+        <v>0.0545653430501301</v>
+      </c>
+    </row>
+    <row r="360" ht="15" customHeight="1">
+      <c r="F360" t="n">
+        <v>0.02604938693034542</v>
+      </c>
+      <c r="G360" t="n">
+        <v>0.05461644716070854</v>
+      </c>
+    </row>
+    <row r="361" ht="15" customHeight="1">
+      <c r="F361" t="n">
+        <v>0.02606652932856798</v>
+      </c>
+      <c r="G361" t="n">
+        <v>0.05466755127128698</v>
+      </c>
+    </row>
+    <row r="362" ht="15" customHeight="1">
+      <c r="F362" t="n">
+        <v>0.02607900123773993</v>
+      </c>
+      <c r="G362" t="n">
+        <v>0.05471865538186542</v>
+      </c>
+    </row>
+    <row r="363" ht="15" customHeight="1">
+      <c r="F363" t="n">
+        <v>0.02608661903788927</v>
+      </c>
+      <c r="G363" t="n">
+        <v>0.05476975949244386</v>
+      </c>
+    </row>
+    <row r="364" ht="15" customHeight="1">
+      <c r="F364" t="n">
+        <v>0.02608919910904395</v>
+      </c>
+      <c r="G364" t="n">
+        <v>0.0548208636030223</v>
+      </c>
+    </row>
+    <row r="365" ht="15" customHeight="1">
+      <c r="F365" t="n">
+        <v>0.02608919910904393</v>
+      </c>
+      <c r="G365" t="n">
+        <v>0.0548208636030223</v>
+      </c>
+    </row>
+    <row r="366" ht="15" customHeight="1">
+      <c r="F366" t="n">
+        <v>0.02664438536793716</v>
+      </c>
+      <c r="G366" t="n">
+        <v>0.0564032081042599</v>
+      </c>
+    </row>
+    <row r="367" ht="15" customHeight="1">
+      <c r="F367" t="n">
+        <v>0.02718861031656468</v>
+      </c>
+      <c r="G367" t="n">
+        <v>0.0579855526054975</v>
+      </c>
+    </row>
+    <row r="368" ht="15" customHeight="1">
+      <c r="F368" t="n">
+        <v>0.02772163217209246</v>
+      </c>
+      <c r="G368" t="n">
+        <v>0.05956789710673509</v>
+      </c>
+    </row>
+    <row r="369" ht="15" customHeight="1">
+      <c r="F369" t="n">
+        <v>0.02824320915168661</v>
+      </c>
+      <c r="G369" t="n">
+        <v>0.06115024160797269</v>
+      </c>
+    </row>
+    <row r="370" ht="15" customHeight="1">
+      <c r="F370" t="n">
+        <v>0.02875309947251312</v>
+      </c>
+      <c r="G370" t="n">
+        <v>0.0627325861092103</v>
+      </c>
+    </row>
+    <row r="371" ht="15" customHeight="1">
+      <c r="F371" t="n">
+        <v>0.02925106135173806</v>
+      </c>
+      <c r="G371" t="n">
+        <v>0.06431493061044791</v>
+      </c>
+    </row>
+    <row r="372" ht="15" customHeight="1">
+      <c r="F372" t="n">
+        <v>0.02973685300652744</v>
+      </c>
+      <c r="G372" t="n">
+        <v>0.0658972751116855</v>
+      </c>
+    </row>
+    <row r="373" ht="15" customHeight="1">
+      <c r="F373" t="n">
+        <v>0.03021023265404731</v>
+      </c>
+      <c r="G373" t="n">
+        <v>0.06747961961292309</v>
+      </c>
+    </row>
+    <row r="374" ht="15" customHeight="1">
+      <c r="F374" t="n">
+        <v>0.03067095851146372</v>
+      </c>
+      <c r="G374" t="n">
+        <v>0.0690619641141607</v>
+      </c>
+    </row>
+    <row r="375" ht="15" customHeight="1">
+      <c r="F375" t="n">
+        <v>0.03111878879594267</v>
+      </c>
+      <c r="G375" t="n">
+        <v>0.0706443086153983</v>
+      </c>
+    </row>
+    <row r="376" ht="15" customHeight="1">
+      <c r="F376" t="n">
+        <v>0.03155348172465022</v>
+      </c>
+      <c r="G376" t="n">
+        <v>0.0722266531166359</v>
+      </c>
+    </row>
+    <row r="377" ht="15" customHeight="1">
+      <c r="F377" t="n">
+        <v>0.03197479551475242</v>
+      </c>
+      <c r="G377" t="n">
+        <v>0.0738089976178735</v>
+      </c>
+    </row>
+    <row r="378" ht="15" customHeight="1">
+      <c r="F378" t="n">
+        <v>0.0323824883834153</v>
+      </c>
+      <c r="G378" t="n">
+        <v>0.0753913421191111</v>
+      </c>
+    </row>
+    <row r="379" ht="15" customHeight="1">
+      <c r="F379" t="n">
+        <v>0.03277631854780488</v>
+      </c>
+      <c r="G379" t="n">
+        <v>0.0769736866203487</v>
+      </c>
+    </row>
+    <row r="380" ht="15" customHeight="1">
+      <c r="F380" t="n">
+        <v>0.03315604422508722</v>
+      </c>
+      <c r="G380" t="n">
+        <v>0.07855603112158631</v>
+      </c>
+    </row>
+    <row r="381" ht="15" customHeight="1">
+      <c r="F381" t="n">
+        <v>0.03352142363242835</v>
+      </c>
+      <c r="G381" t="n">
+        <v>0.08013837562282389</v>
+      </c>
+    </row>
+    <row r="382" ht="15" customHeight="1">
+      <c r="F382" t="n">
+        <v>0.0338722149869943</v>
+      </c>
+      <c r="G382" t="n">
+        <v>0.08172072012406151</v>
+      </c>
+    </row>
+    <row r="383" ht="15" customHeight="1">
+      <c r="F383" t="n">
+        <v>0.03420817650595114</v>
+      </c>
+      <c r="G383" t="n">
+        <v>0.0833030646252991</v>
+      </c>
+    </row>
+    <row r="384" ht="15" customHeight="1">
+      <c r="F384" t="n">
+        <v>0.03452906640646483</v>
+      </c>
+      <c r="G384" t="n">
+        <v>0.08488540912653671</v>
+      </c>
+    </row>
+    <row r="385" ht="15" customHeight="1">
+      <c r="F385" t="n">
+        <v>0.03483464290570149</v>
+      </c>
+      <c r="G385" t="n">
+        <v>0.0864677536277743</v>
+      </c>
+    </row>
+    <row r="386" ht="15" customHeight="1">
+      <c r="F386" t="n">
+        <v>0.03512466422082712</v>
+      </c>
+      <c r="G386" t="n">
+        <v>0.08805009812901189</v>
+      </c>
+    </row>
+    <row r="387" ht="15" customHeight="1">
+      <c r="F387" t="n">
+        <v>0.03539888856900776</v>
+      </c>
+      <c r="G387" t="n">
+        <v>0.0896324426302495</v>
+      </c>
+    </row>
+    <row r="388" ht="15" customHeight="1">
+      <c r="F388" t="n">
+        <v>0.03565707416740947</v>
+      </c>
+      <c r="G388" t="n">
+        <v>0.0912147871314871</v>
+      </c>
+    </row>
+    <row r="389" ht="15" customHeight="1">
+      <c r="F389" t="n">
+        <v>0.03589897923319825</v>
+      </c>
+      <c r="G389" t="n">
+        <v>0.0927971316327247</v>
+      </c>
+    </row>
+    <row r="390" ht="15" customHeight="1">
+      <c r="F390" t="n">
+        <v>0.03612436198354015</v>
+      </c>
+      <c r="G390" t="n">
+        <v>0.0943794761339623</v>
+      </c>
+    </row>
+    <row r="391" ht="15" customHeight="1">
+      <c r="F391" t="n">
+        <v>0.03633298063560123</v>
+      </c>
+      <c r="G391" t="n">
+        <v>0.0959618206351999</v>
+      </c>
+    </row>
+    <row r="392" ht="15" customHeight="1">
+      <c r="F392" t="n">
+        <v>0.0365245934065475</v>
+      </c>
+      <c r="G392" t="n">
+        <v>0.0975441651364375</v>
+      </c>
+    </row>
+    <row r="393" ht="15" customHeight="1">
+      <c r="F393" t="n">
+        <v>0.03669895851354499</v>
+      </c>
+      <c r="G393" t="n">
+        <v>0.09912650963767511</v>
+      </c>
+    </row>
+    <row r="394" ht="15" customHeight="1">
+      <c r="F394" t="n">
+        <v>0.03685583417375979</v>
+      </c>
+      <c r="G394" t="n">
+        <v>0.1007088541389127</v>
+      </c>
+    </row>
+    <row r="395" ht="15" customHeight="1">
+      <c r="F395" t="n">
+        <v>0.03699497860435788</v>
+      </c>
+      <c r="G395" t="n">
+        <v>0.1022911986401503</v>
+      </c>
+    </row>
+    <row r="396" ht="15" customHeight="1">
+      <c r="F396" t="n">
+        <v>0.03711615002250533</v>
+      </c>
+      <c r="G396" t="n">
+        <v>0.1038735431413879</v>
+      </c>
+    </row>
+    <row r="397" ht="15" customHeight="1">
+      <c r="F397" t="n">
+        <v>0.03721910664536815</v>
+      </c>
+      <c r="G397" t="n">
+        <v>0.1054558876426255</v>
+      </c>
+    </row>
+    <row r="398" ht="15" customHeight="1">
+      <c r="F398" t="n">
+        <v>0.03730360669011243</v>
+      </c>
+      <c r="G398" t="n">
+        <v>0.1070382321438631</v>
+      </c>
+    </row>
+    <row r="399" ht="15" customHeight="1">
+      <c r="F399" t="n">
+        <v>0.03736940837390414</v>
+      </c>
+      <c r="G399" t="n">
+        <v>0.1086205766451007</v>
+      </c>
+    </row>
+    <row r="400" ht="15" customHeight="1">
+      <c r="F400" t="n">
+        <v>0.03741626991390937</v>
+      </c>
+      <c r="G400" t="n">
+        <v>0.1102029211463383</v>
+      </c>
+    </row>
+    <row r="401" ht="15" customHeight="1">
+      <c r="F401" t="n">
+        <v>0.03745226547872524</v>
+      </c>
+      <c r="G401" t="n">
+        <v>0.1117852656475759</v>
+      </c>
+    </row>
+    <row r="402" ht="15" customHeight="1">
+      <c r="F402" t="n">
+        <v>0.03745223924322898</v>
+      </c>
+      <c r="G402" t="n">
+        <v>0.1133676101488135</v>
+      </c>
+    </row>
+    <row r="403" ht="15" customHeight="1">
+      <c r="F403" t="n">
+        <v>0.03744739171740727</v>
+      </c>
+      <c r="G403" t="n">
+        <v>0.1149499546500511</v>
+      </c>
+    </row>
+    <row r="404" ht="15" customHeight="1">
+      <c r="F404" t="n">
+        <v>0.03743459295548197</v>
+      </c>
+      <c r="G404" t="n">
+        <v>0.1165322991512887</v>
+      </c>
+    </row>
+    <row r="405" ht="15" customHeight="1">
+      <c r="F405" t="n">
+        <v>0.03741444684196016</v>
+      </c>
+      <c r="G405" t="n">
+        <v>0.1181146436525263</v>
+      </c>
+    </row>
+    <row r="406" ht="15" customHeight="1">
+      <c r="F406" t="n">
+        <v>0.03738755726134883</v>
+      </c>
+      <c r="G406" t="n">
+        <v>0.1196969881537639</v>
+      </c>
+    </row>
+    <row r="407" ht="15" customHeight="1">
+      <c r="F407" t="n">
+        <v>0.03735452809815505</v>
+      </c>
+      <c r="G407" t="n">
+        <v>0.1212793326550015</v>
+      </c>
+    </row>
+    <row r="408" ht="15" customHeight="1">
+      <c r="F408" t="n">
+        <v>0.03731596323688582</v>
+      </c>
+      <c r="G408" t="n">
+        <v>0.1228616771562391</v>
+      </c>
+    </row>
+    <row r="409" ht="15" customHeight="1">
+      <c r="F409" t="n">
+        <v>0.0372724665620482</v>
+      </c>
+      <c r="G409" t="n">
+        <v>0.1244440216574767</v>
+      </c>
+    </row>
+    <row r="410" ht="15" customHeight="1">
+      <c r="F410" t="n">
+        <v>0.0372246419581492</v>
+      </c>
+      <c r="G410" t="n">
+        <v>0.1260263661587143</v>
+      </c>
+    </row>
+    <row r="411" ht="15" customHeight="1">
+      <c r="F411" t="n">
+        <v>0.03717309330969586</v>
+      </c>
+      <c r="G411" t="n">
+        <v>0.1276087106599519</v>
+      </c>
+    </row>
+    <row r="412" ht="15" customHeight="1">
+      <c r="F412" t="n">
+        <v>0.03711842450119524</v>
+      </c>
+      <c r="G412" t="n">
+        <v>0.1291910551611895</v>
+      </c>
+    </row>
+    <row r="413" ht="15" customHeight="1">
+      <c r="F413" t="n">
+        <v>0.03706123941715432</v>
+      </c>
+      <c r="G413" t="n">
+        <v>0.1307733996624271</v>
+      </c>
+    </row>
+    <row r="414" ht="15" customHeight="1">
+      <c r="F414" t="n">
+        <v>0.03700214194208018</v>
+      </c>
+      <c r="G414" t="n">
+        <v>0.1323557441636647</v>
+      </c>
+    </row>
+    <row r="415" ht="15" customHeight="1">
+      <c r="F415" t="n">
+        <v>0.03694173596047981</v>
+      </c>
+      <c r="G415" t="n">
+        <v>0.1339380886649023</v>
+      </c>
+    </row>
+    <row r="416" ht="15" customHeight="1">
+      <c r="F416" t="n">
+        <v>0.03688021809156812</v>
+      </c>
+      <c r="G416" t="n">
+        <v>0.1355204331661399</v>
+      </c>
+    </row>
+    <row r="417" ht="15" customHeight="1">
+      <c r="F417" t="n">
+        <v>0.03679949160573932</v>
+      </c>
+      <c r="G417" t="n">
+        <v>0.1371027776673775</v>
+      </c>
+    </row>
+    <row r="418" ht="15" customHeight="1">
+      <c r="F418" t="n">
+        <v>0.0366940978249635</v>
+      </c>
+      <c r="G418" t="n">
+        <v>0.1386851221686151</v>
+      </c>
+    </row>
+    <row r="419" ht="15" customHeight="1">
+      <c r="F419" t="n">
+        <v>0.03657031822771323</v>
+      </c>
+      <c r="G419" t="n">
+        <v>0.1402674666698527</v>
+      </c>
+    </row>
+    <row r="420" ht="15" customHeight="1">
+      <c r="F420" t="n">
+        <v>0.03643443429246115</v>
+      </c>
+      <c r="G420" t="n">
+        <v>0.1418498111710903</v>
+      </c>
+    </row>
+    <row r="421" ht="15" customHeight="1">
+      <c r="F421" t="n">
+        <v>0.03629272749767987</v>
+      </c>
+      <c r="G421" t="n">
+        <v>0.1434321556723279</v>
+      </c>
+    </row>
+    <row r="422" ht="15" customHeight="1">
+      <c r="F422" t="n">
+        <v>0.03615147932184201</v>
+      </c>
+      <c r="G422" t="n">
+        <v>0.1450145001735655</v>
+      </c>
+    </row>
+    <row r="423" ht="15" customHeight="1">
+      <c r="F423" t="n">
+        <v>0.03601697124342017</v>
+      </c>
+      <c r="G423" t="n">
+        <v>0.1465968446748031</v>
+      </c>
+    </row>
+    <row r="424" ht="15" customHeight="1">
+      <c r="F424" t="n">
+        <v>0.03589548474088697</v>
+      </c>
+      <c r="G424" t="n">
+        <v>0.1481791891760407</v>
+      </c>
+    </row>
+    <row r="425" ht="15" customHeight="1">
+      <c r="F425" t="n">
+        <v>0.03579330129271503</v>
+      </c>
+      <c r="G425" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="426" ht="15" customHeight="1">
+      <c r="F426" t="n">
+        <v>0.03571670237737698</v>
+      </c>
+      <c r="G426" t="n">
+        <v>0.1513438781785159</v>
+      </c>
+    </row>
+    <row r="427" ht="15" customHeight="1">
+      <c r="F427" t="n">
+        <v>0.0356594356019368</v>
+      </c>
+      <c r="G427" t="n">
+        <v>0.1529262226797535</v>
+      </c>
+    </row>
+    <row r="428" ht="15" customHeight="1">
+      <c r="F428" t="n">
+        <v>0.03560566840462871</v>
+      </c>
+      <c r="G428" t="n">
+        <v>0.1545085671809911</v>
+      </c>
+    </row>
+    <row r="429" ht="15" customHeight="1">
+      <c r="F429" t="n">
+        <v>0.03555505796062769</v>
+      </c>
+      <c r="G429" t="n">
+        <v>0.1560909116822287</v>
+      </c>
+    </row>
+    <row r="430" ht="15" customHeight="1">
+      <c r="F430" t="n">
+        <v>0.03550740298691275</v>
+      </c>
+      <c r="G430" t="n">
+        <v>0.1576732561834663</v>
+      </c>
+    </row>
+    <row r="431" ht="15" customHeight="1">
+      <c r="F431" t="n">
+        <v>0.03546250220046297</v>
+      </c>
+      <c r="G431" t="n">
+        <v>0.1592556006847039</v>
+      </c>
+    </row>
+    <row r="432" ht="15" customHeight="1">
+      <c r="F432" t="n">
+        <v>0.0354201543182574</v>
+      </c>
+      <c r="G432" t="n">
+        <v>0.1608379451859415</v>
+      </c>
+    </row>
+    <row r="433" ht="15" customHeight="1">
+      <c r="F433" t="n">
+        <v>0.0353801580572751</v>
+      </c>
+      <c r="G433" t="n">
+        <v>0.1624202896871791</v>
+      </c>
+    </row>
+    <row r="434" ht="15" customHeight="1">
+      <c r="F434" t="n">
+        <v>0.03534231213449515</v>
+      </c>
+      <c r="G434" t="n">
+        <v>0.1640026341884167</v>
+      </c>
+    </row>
+    <row r="435" ht="15" customHeight="1">
+      <c r="F435" t="n">
+        <v>0.03530641526689661</v>
+      </c>
+      <c r="G435" t="n">
+        <v>0.1655849786896543</v>
+      </c>
+    </row>
+    <row r="436" ht="15" customHeight="1">
+      <c r="F436" t="n">
+        <v>0.03527226617145851</v>
+      </c>
+      <c r="G436" t="n">
+        <v>0.1671673231908919</v>
+      </c>
+    </row>
+    <row r="437" ht="15" customHeight="1">
+      <c r="F437" t="n">
+        <v>0.03523966356515994</v>
+      </c>
+      <c r="G437" t="n">
+        <v>0.1687496676921295</v>
+      </c>
+    </row>
+    <row r="438" ht="15" customHeight="1">
+      <c r="F438" t="n">
+        <v>0.03520840616497999</v>
+      </c>
+      <c r="G438" t="n">
+        <v>0.1703320121933671</v>
+      </c>
+    </row>
+    <row r="439" ht="15" customHeight="1">
+      <c r="F439" t="n">
+        <v>0.03517829268789763</v>
+      </c>
+      <c r="G439" t="n">
+        <v>0.1719143566946047</v>
+      </c>
+    </row>
+    <row r="440" ht="15" customHeight="1">
+      <c r="F440" t="n">
+        <v>0.035149121850892</v>
+      </c>
+      <c r="G440" t="n">
+        <v>0.1734967011958423</v>
+      </c>
+    </row>
+    <row r="441" ht="15" customHeight="1">
+      <c r="F441" t="n">
+        <v>0.03512069237094213</v>
+      </c>
+      <c r="G441" t="n">
+        <v>0.1750790456970799</v>
+      </c>
+    </row>
+    <row r="442" ht="15" customHeight="1">
+      <c r="F442" t="n">
+        <v>0.03509280296502711</v>
+      </c>
+      <c r="G442" t="n">
+        <v>0.1766613901983175</v>
+      </c>
+    </row>
+    <row r="443" ht="15" customHeight="1">
+      <c r="F443" t="n">
+        <v>0.03506525235012596</v>
+      </c>
+      <c r="G443" t="n">
+        <v>0.1782437346995551</v>
+      </c>
+    </row>
+    <row r="444" ht="15" customHeight="1">
+      <c r="F444" t="n">
+        <v>0.03503783924321777</v>
+      </c>
+      <c r="G444" t="n">
+        <v>0.1798260792007927</v>
+      </c>
+    </row>
+    <row r="445" ht="15" customHeight="1">
+      <c r="F445" t="n">
+        <v>0.03501036236128159</v>
+      </c>
+      <c r="G445" t="n">
+        <v>0.1814084237020303</v>
+      </c>
+    </row>
+    <row r="446" ht="15" customHeight="1">
+      <c r="F446" t="n">
+        <v>0.0349826204212965</v>
+      </c>
+      <c r="G446" t="n">
+        <v>0.1829907682032679</v>
+      </c>
+    </row>
+    <row r="447" ht="15" customHeight="1">
+      <c r="F447" t="n">
+        <v>0.03495441214024152</v>
+      </c>
+      <c r="G447" t="n">
+        <v>0.1845731127045055</v>
+      </c>
+    </row>
+    <row r="448" ht="15" customHeight="1">
+      <c r="F448" t="n">
+        <v>0.03492612578955052</v>
+      </c>
+      <c r="G448" t="n">
+        <v>0.1861554572057431</v>
+      </c>
+    </row>
+    <row r="449" ht="15" customHeight="1">
+      <c r="F449" t="n">
+        <v>0.03489831215237772</v>
+      </c>
+      <c r="G449" t="n">
+        <v>0.1877378017069807</v>
+      </c>
+    </row>
+    <row r="450" ht="15" customHeight="1">
+      <c r="F450" t="n">
+        <v>0.03487098872756766</v>
+      </c>
+      <c r="G450" t="n">
+        <v>0.1893201462082183</v>
+      </c>
+    </row>
+    <row r="451" ht="15" customHeight="1">
+      <c r="F451" t="n">
+        <v>0.03484417298266644</v>
+      </c>
+      <c r="G451" t="n">
+        <v>0.1909024907094559</v>
+      </c>
+    </row>
+    <row r="452" ht="15" customHeight="1">
+      <c r="F452" t="n">
+        <v>0.03481788238522011</v>
+      </c>
+      <c r="G452" t="n">
+        <v>0.1924848352106935</v>
+      </c>
+    </row>
+    <row r="453" ht="15" customHeight="1">
+      <c r="F453" t="n">
+        <v>0.03479213440277482</v>
+      </c>
+      <c r="G453" t="n">
+        <v>0.1940671797119311</v>
+      </c>
+    </row>
+    <row r="454" ht="15" customHeight="1">
+      <c r="F454" t="n">
+        <v>0.03476694650287661</v>
+      </c>
+      <c r="G454" t="n">
+        <v>0.1956495242131687</v>
+      </c>
+    </row>
+    <row r="455" ht="15" customHeight="1">
+      <c r="F455" t="n">
+        <v>0.03474233615307157</v>
+      </c>
+      <c r="G455" t="n">
+        <v>0.1972318687144063</v>
+      </c>
+    </row>
+    <row r="456" ht="15" customHeight="1">
+      <c r="F456" t="n">
+        <v>0.03471832082090581</v>
+      </c>
+      <c r="G456" t="n">
+        <v>0.1988142132156439</v>
+      </c>
+    </row>
+    <row r="457" ht="15" customHeight="1">
+      <c r="F457" t="n">
+        <v>0.03469491797392542</v>
+      </c>
+      <c r="G457" t="n">
+        <v>0.2003965577168815</v>
+      </c>
+    </row>
+    <row r="458" ht="15" customHeight="1">
+      <c r="F458" t="n">
+        <v>0.03467214507967646</v>
+      </c>
+      <c r="G458" t="n">
+        <v>0.2019789022181191</v>
+      </c>
+    </row>
+    <row r="459" ht="15" customHeight="1">
+      <c r="F459" t="n">
+        <v>0.03465001960570503</v>
+      </c>
+      <c r="G459" t="n">
+        <v>0.2035612467193567</v>
+      </c>
+    </row>
+    <row r="460" ht="15" customHeight="1">
+      <c r="F460" t="n">
+        <v>0.03462855901955725</v>
+      </c>
+      <c r="G460" t="n">
+        <v>0.2051435912205943</v>
+      </c>
+    </row>
+    <row r="461" ht="15" customHeight="1">
+      <c r="F461" t="n">
+        <v>0.03460778078877916</v>
+      </c>
+      <c r="G461" t="n">
+        <v>0.2067259357218319</v>
+      </c>
+    </row>
+    <row r="462" ht="15" customHeight="1">
+      <c r="F462" t="n">
+        <v>0.03458770238091687</v>
+      </c>
+      <c r="G462" t="n">
+        <v>0.2083082802230695</v>
+      </c>
+    </row>
+    <row r="463" ht="15" customHeight="1">
+      <c r="F463" t="n">
+        <v>0.03456834126351646</v>
+      </c>
+      <c r="G463" t="n">
+        <v>0.2098906247243071</v>
+      </c>
+    </row>
+    <row r="464" ht="15" customHeight="1">
+      <c r="F464" t="n">
+        <v>0.03454971490412403</v>
+      </c>
+      <c r="G464" t="n">
+        <v>0.2114729692255447</v>
+      </c>
+    </row>
     <row r="465" ht="15" customHeight="1"/>
     <row r="466" ht="15" customHeight="1"/>
     <row r="467" ht="15" customHeight="1"/>
